--- a/clang-arm64/Scattered unsuccessful looukp.xlsx
+++ b/clang-arm64/Scattered unsuccessful looukp.xlsx
@@ -58,8 +58,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -553,430 +552,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0199746</v>
+                  <v>0.020381</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0223711</v>
+                  <v>0.0231567</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0279843</v>
+                  <v>0.0281757</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0374557</v>
+                  <v>0.0352799</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0541003</v>
+                  <v>0.04539</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0739308</v>
+                  <v>0.06491429999999999</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0908332</v>
+                  <v>0.0891632</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.119418</v>
+                  <v>0.112722</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0160955</v>
+                  <v>0.017053</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0165233</v>
+                  <v>0.0176131</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0170052</v>
+                  <v>0.018294</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0176545</v>
+                  <v>0.019009</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.018734</v>
+                  <v>0.0202027</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.020118</v>
+                  <v>0.0216873</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0231423</v>
+                  <v>0.0238871</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0275752</v>
+                  <v>0.0283309</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0337269</v>
+                  <v>0.0347629</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0441174</v>
+                  <v>0.0427405</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0560327</v>
+                  <v>0.0557526</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0735251</v>
+                  <v>0.0731723</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.09810720000000001</v>
+                  <v>0.0958377</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.118682</v>
+                  <v>0.12115</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0168617</v>
+                  <v>0.0167999</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.017117</v>
+                  <v>0.017383</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0179684</v>
+                  <v>0.0183382</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.018842</v>
+                  <v>0.0193988</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.020762</v>
+                  <v>0.0205537</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0229493</v>
+                  <v>0.0226966</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0261253</v>
+                  <v>0.0250047</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0299548</v>
+                  <v>0.0309238</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0351932</v>
+                  <v>0.0361738</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0437828</v>
+                  <v>0.0455675</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0554948</v>
+                  <v>0.0564017</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.07231650000000001</v>
+                  <v>0.0722527</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.09074749999999999</v>
+                  <v>0.09413820000000001</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.117374</v>
+                  <v>0.118638</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0170956</v>
+                  <v>0.0174142</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0178543</v>
+                  <v>0.0181997</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0189841</v>
+                  <v>0.0191908</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0200948</v>
+                  <v>0.0204403</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0217684</v>
+                  <v>0.021836</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0244338</v>
+                  <v>0.0239224</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0277674</v>
+                  <v>0.0276839</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0324631</v>
+                  <v>0.0315092</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0387566</v>
+                  <v>0.0372217</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.044976</v>
+                  <v>0.0454352</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0559175</v>
+                  <v>0.0550601</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0710027</v>
+                  <v>0.0703042</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0908212</v>
+                  <v>0.0905224</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.117424</v>
+                  <v>0.115437</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.140864</v>
+                  <v>0.1408</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0189027</v>
+                  <v>0.0192387</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0201008</v>
+                  <v>0.0204627</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.021583</v>
+                  <v>0.0220737</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0235148</v>
+                  <v>0.0239349</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0261005</v>
+                  <v>0.0262923</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0293833</v>
+                  <v>0.0297657</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0337692</v>
+                  <v>0.0341001</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0392899</v>
+                  <v>0.0395028</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.046662</v>
+                  <v>0.0465838</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0562823</v>
+                  <v>0.0559668</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0701638</v>
+                  <v>0.0699388</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0890341</v>
+                  <v>0.0889996</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.114833</v>
+                  <v>0.114856</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.144939</v>
+                  <v>0.145398</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0197502</v>
+                  <v>0.0196969</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0210028</v>
+                  <v>0.02093</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0227789</v>
+                  <v>0.0224969</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0246593</v>
+                  <v>0.0245783</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0270269</v>
+                  <v>0.027095</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0302493</v>
+                  <v>0.0303959</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0342455</v>
+                  <v>0.0348732</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0395435</v>
+                  <v>0.0401107</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0466214</v>
+                  <v>0.0469689</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0559597</v>
+                  <v>0.056182</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0685593</v>
+                  <v>0.0692083</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0867699</v>
+                  <v>0.0876976</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.111201</v>
+                  <v>0.112624</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.141494</v>
+                  <v>0.143056</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0200207</v>
+                  <v>0.0203051</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0212269</v>
+                  <v>0.0214311</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0226945</v>
+                  <v>0.0227951</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0246895</v>
+                  <v>0.0248606</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0274303</v>
+                  <v>0.0274961</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0301632</v>
+                  <v>0.0304265</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0343383</v>
+                  <v>0.034491</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0393209</v>
+                  <v>0.0392189</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0454285</v>
+                  <v>0.0454425</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0543419</v>
+                  <v>0.054124</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.06590409999999999</v>
+                  <v>0.0660497</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.08316999999999999</v>
+                  <v>0.0833161</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.106615</v>
+                  <v>0.107117</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.136838</v>
+                  <v>0.137068</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0207148</v>
+                  <v>0.0205917</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0218231</v>
+                  <v>0.0217319</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0235618</v>
+                  <v>0.0234086</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0254205</v>
+                  <v>0.0249196</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0277238</v>
+                  <v>0.0271441</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0309717</v>
+                  <v>0.0301186</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.034493</v>
+                  <v>0.034225</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0401348</v>
+                  <v>0.0395874</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0464552</v>
+                  <v>0.046425</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0546064</v>
+                  <v>0.0547381</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.065411</v>
+                  <v>0.0655719</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.08111790000000001</v>
+                  <v>0.0810201</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.10261</v>
+                  <v>0.103131</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.131855</v>
+                  <v>0.132455</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.167859</v>
+                  <v>0.167936</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0308739</v>
+                  <v>0.0314641</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.032613</v>
+                  <v>0.0327748</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.034221</v>
+                  <v>0.0344387</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0360225</v>
+                  <v>0.0359115</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0383657</v>
+                  <v>0.0384212</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0408546</v>
+                  <v>0.0411013</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0441552</v>
+                  <v>0.0443196</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0485179</v>
+                  <v>0.0490798</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0552273</v>
+                  <v>0.0556472</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.06492580000000001</v>
+                  <v>0.0652692</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.0791367</v>
+                  <v>0.080124</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.0999347</v>
+                  <v>0.100594</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.128094</v>
+                  <v>0.128412</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.163548</v>
+                  <v>0.163387</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0346339</v>
+                  <v>0.0342733</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.0355354</v>
+                  <v>0.0354023</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.0372352</v>
+                  <v>0.0369613</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.0385047</v>
+                  <v>0.0386997</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.0411049</v>
+                  <v>0.0406429</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.0439798</v>
+                  <v>0.0434292</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.04739</v>
+                  <v>0.0467513</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.0521658</v>
+                  <v>0.0511822</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0586895</v>
+                  <v>0.0585649</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.0680711</v>
+                  <v>0.0673728</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.0820838</v>
+                  <v>0.08104450000000001</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.101855</v>
+                  <v>0.101034</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.12951</v>
+                  <v>0.128826</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.163867</v>
+                  <v>0.16274</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0468922</v>
+                  <v>0.0471946</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.0482012</v>
+                  <v>0.0480173</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.0491648</v>
+                  <v>0.0491618</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.0527207</v>
+                  <v>0.0504992</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.0528154</v>
+                  <v>0.0529453</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.055782</v>
+                  <v>0.0554429</v>
                 </pt>
               </numCache>
             </numRef>
@@ -987,7 +986,7 @@
           <idx val="4"/>
           <order val="1"/>
           <tx>
-            <v>foa_unordered_rc16_map</v>
+            <v>boost::unordered_flat_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -1447,430 +1446,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0185839</v>
+                  <v>0.0243821</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0180835</v>
+                  <v>0.0263419</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0186575</v>
+                  <v>0.03189</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0219409</v>
+                  <v>0.0372784</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0348619</v>
+                  <v>0.0515556</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.046746</v>
+                  <v>0.06764829999999999</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0887013</v>
+                  <v>0.08149480000000001</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.119804</v>
+                  <v>0.129222</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0180709</v>
+                  <v>0.0208127</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0184204</v>
+                  <v>0.0213278</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0189457</v>
+                  <v>0.0218828</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0193755</v>
+                  <v>0.02263</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0198448</v>
+                  <v>0.0232512</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.020306</v>
+                  <v>0.0241428</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0209034</v>
+                  <v>0.0268695</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0227075</v>
+                  <v>0.0288871</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0253999</v>
+                  <v>0.0328262</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0319034</v>
+                  <v>0.0390993</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0383341</v>
+                  <v>0.0470423</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0568493</v>
+                  <v>0.0633778</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0838647</v>
+                  <v>0.088602</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.131653</v>
+                  <v>0.13405</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0187591</v>
+                  <v>0.0214978</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0191409</v>
+                  <v>0.0219645</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0197405</v>
+                  <v>0.0227306</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.020439</v>
+                  <v>0.0236983</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0212415</v>
+                  <v>0.0246423</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0219892</v>
+                  <v>0.025917</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0234121</v>
+                  <v>0.0281203</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0264304</v>
+                  <v>0.0305191</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0302305</v>
+                  <v>0.0351044</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0366198</v>
+                  <v>0.0407874</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0459437</v>
+                  <v>0.0501899</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0594599</v>
+                  <v>0.06329070000000001</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0878531</v>
+                  <v>0.0883089</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.129282</v>
+                  <v>0.125523</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0198852</v>
+                  <v>0.0226441</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0203496</v>
+                  <v>0.0231278</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0210131</v>
+                  <v>0.0239266</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0216736</v>
+                  <v>0.024755</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0228112</v>
+                  <v>0.0260181</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0240973</v>
+                  <v>0.0274856</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0257658</v>
+                  <v>0.0292543</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0290975</v>
+                  <v>0.0326774</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0349767</v>
+                  <v>0.0370439</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0398391</v>
+                  <v>0.0430271</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0491529</v>
+                  <v>0.0514098</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.06340750000000001</v>
+                  <v>0.0649906</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0843724</v>
+                  <v>0.0841389</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.121267</v>
+                  <v>0.117343</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.167097</v>
+                  <v>0.163332</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0213247</v>
+                  <v>0.0241041</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0219345</v>
+                  <v>0.0248142</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.022889</v>
+                  <v>0.0258859</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0238477</v>
+                  <v>0.0269065</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0253224</v>
+                  <v>0.0285555</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0275992</v>
+                  <v>0.0308138</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0302451</v>
+                  <v>0.0334128</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0345438</v>
+                  <v>0.0373409</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0408319</v>
+                  <v>0.043244</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0492235</v>
+                  <v>0.0514921</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.061553</v>
+                  <v>0.0631197</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0805206</v>
+                  <v>0.08064549999999999</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.113447</v>
+                  <v>0.111224</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.161291</v>
+                  <v>0.156782</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0217627</v>
+                  <v>0.0246273</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.022553</v>
+                  <v>0.0254874</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0235574</v>
+                  <v>0.026515</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0246975</v>
+                  <v>0.0276786</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0260874</v>
+                  <v>0.0291119</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0279758</v>
+                  <v>0.0311576</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.030811</v>
+                  <v>0.0339469</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.034622</v>
+                  <v>0.0377205</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0402214</v>
+                  <v>0.0430427</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.047952</v>
+                  <v>0.0505867</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0592906</v>
+                  <v>0.0612508</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.07559440000000001</v>
+                  <v>0.0763192</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.103124</v>
+                  <v>0.101765</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.148399</v>
+                  <v>0.144347</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0223391</v>
+                  <v>0.0253488</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0231769</v>
+                  <v>0.026265</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0241129</v>
+                  <v>0.0271908</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0252673</v>
+                  <v>0.0284288</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0268372</v>
+                  <v>0.03001</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0286828</v>
+                  <v>0.0319039</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0310672</v>
+                  <v>0.0343672</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0345672</v>
+                  <v>0.0378547</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0394295</v>
+                  <v>0.0426376</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0468561</v>
+                  <v>0.0498571</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0569589</v>
+                  <v>0.059631</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.07245</v>
+                  <v>0.0742997</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.09784569999999999</v>
+                  <v>0.0979019</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.139669</v>
+                  <v>0.137136</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0237499</v>
+                  <v>0.0270102</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0249294</v>
+                  <v>0.0282021</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0266465</v>
+                  <v>0.0301873</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0293475</v>
+                  <v>0.0330636</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0325618</v>
+                  <v>0.0367725</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0359918</v>
+                  <v>0.0404956</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0391962</v>
+                  <v>0.0438179</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0423199</v>
+                  <v>0.0472354</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0459227</v>
+                  <v>0.0509235</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0516739</v>
+                  <v>0.0560138</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0586182</v>
+                  <v>0.06314790000000001</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.07141210000000001</v>
+                  <v>0.07436619999999999</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.09303640000000001</v>
+                  <v>0.0937021</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.131746</v>
+                  <v>0.129268</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.183631</v>
+                  <v>0.180556</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0382801</v>
+                  <v>0.0432623</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0392846</v>
+                  <v>0.0443061</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.040221</v>
+                  <v>0.0453678</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0413197</v>
+                  <v>0.0466564</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0426685</v>
+                  <v>0.0481</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0443478</v>
+                  <v>0.0498885</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0465075</v>
+                  <v>0.0522653</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0495102</v>
+                  <v>0.0552329</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0538235</v>
+                  <v>0.0592122</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.0601526</v>
+                  <v>0.0652914</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.0710412</v>
+                  <v>0.0749547</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.0895113</v>
+                  <v>0.09116730000000001</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.122948</v>
+                  <v>0.12157</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.172866</v>
+                  <v>0.169666</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0424721</v>
+                  <v>0.0485409</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.0434258</v>
+                  <v>0.0498932</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.044818</v>
+                  <v>0.0510164</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.0458006</v>
+                  <v>0.0521044</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.0473031</v>
+                  <v>0.0539084</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.0493497</v>
+                  <v>0.0557247</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.0516778</v>
+                  <v>0.0579581</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.0546998</v>
+                  <v>0.0612119</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0591634</v>
+                  <v>0.0655746</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.0653265</v>
+                  <v>0.07118579999999999</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.0752591</v>
+                  <v>0.0805454</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.0919177</v>
+                  <v>0.0955641</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.121142</v>
+                  <v>0.122167</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.1684</v>
+                  <v>0.166136</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0552701</v>
+                  <v>0.0632577</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.0564094</v>
+                  <v>0.0643639</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.0574369</v>
+                  <v>0.0654462</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.0586381</v>
+                  <v>0.0668815</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.0601686</v>
+                  <v>0.0683774</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.0620335</v>
+                  <v>0.07045510000000001</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2341,430 +2340,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0201621</v>
+                  <v>0.0213141</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0205927</v>
+                  <v>0.0220012</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0213328</v>
+                  <v>0.0228637</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0224255</v>
+                  <v>0.0244676</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0228236</v>
+                  <v>0.0259604</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0246502</v>
+                  <v>0.028658</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0289321</v>
+                  <v>0.0371282</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0176491</v>
+                  <v>0.0186849</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0179043</v>
+                  <v>0.0189948</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0181965</v>
+                  <v>0.0192948</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0185586</v>
+                  <v>0.0198101</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0189253</v>
+                  <v>0.0200323</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0192987</v>
+                  <v>0.0205084</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0198485</v>
+                  <v>0.0207002</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0203825</v>
+                  <v>0.0214276</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0208815</v>
+                  <v>0.022011</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0220019</v>
+                  <v>0.0230028</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.022769</v>
+                  <v>0.0242253</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0243123</v>
+                  <v>0.0262024</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0273683</v>
+                  <v>0.030044</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0323586</v>
+                  <v>0.0370516</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.017563</v>
+                  <v>0.0188867</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0179077</v>
+                  <v>0.0192237</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0181191</v>
+                  <v>0.0194425</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0185128</v>
+                  <v>0.0197946</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0188997</v>
+                  <v>0.0201342</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0193475</v>
+                  <v>0.0205266</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0197701</v>
+                  <v>0.020959</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0202878</v>
+                  <v>0.0214844</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0211156</v>
+                  <v>0.0223231</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0221556</v>
+                  <v>0.0233566</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0232419</v>
+                  <v>0.0248748</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0249746</v>
+                  <v>0.0269432</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0282488</v>
+                  <v>0.0307678</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0352729</v>
+                  <v>0.0381048</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.017949</v>
+                  <v>0.019505</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0182123</v>
+                  <v>0.0197378</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0184241</v>
+                  <v>0.0199753</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0187582</v>
+                  <v>0.0202695</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0191191</v>
+                  <v>0.0205809</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0195615</v>
+                  <v>0.0210132</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0201191</v>
+                  <v>0.0215764</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0206961</v>
+                  <v>0.0222081</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0215587</v>
+                  <v>0.0231524</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0226734</v>
+                  <v>0.0243994</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0242101</v>
+                  <v>0.0261699</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0265092</v>
+                  <v>0.0288567</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0299203</v>
+                  <v>0.0324993</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0362318</v>
+                  <v>0.0388699</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.018616</v>
+                  <v>0.0203994</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0188728</v>
+                  <v>0.0206304</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0191354</v>
+                  <v>0.020899</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0194676</v>
+                  <v>0.0212713</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0198285</v>
+                  <v>0.0215734</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0202084</v>
+                  <v>0.0220027</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0207233</v>
+                  <v>0.0224713</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0213995</v>
+                  <v>0.0232356</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0222513</v>
+                  <v>0.0241598</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.023328</v>
+                  <v>0.0252935</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0249404</v>
+                  <v>0.0270674</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.027529</v>
+                  <v>0.0297328</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0313116</v>
+                  <v>0.0338401</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0376983</v>
+                  <v>0.0404851</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0489477</v>
+                  <v>0.0515575</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.019011</v>
+                  <v>0.020937</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0193203</v>
+                  <v>0.0212617</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0197232</v>
+                  <v>0.0215815</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0201442</v>
+                  <v>0.0219942</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0205764</v>
+                  <v>0.0224339</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0210852</v>
+                  <v>0.0229822</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0217122</v>
+                  <v>0.0236686</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.022629</v>
+                  <v>0.0245813</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0237333</v>
+                  <v>0.0258009</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0254197</v>
+                  <v>0.0276711</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0277608</v>
+                  <v>0.0301418</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0313383</v>
+                  <v>0.0339599</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.037026</v>
+                  <v>0.039757</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0465119</v>
+                  <v>0.0495474</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0192382</v>
+                  <v>0.021192</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0195643</v>
+                  <v>0.0215353</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0199296</v>
+                  <v>0.0219745</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0204282</v>
+                  <v>0.0224512</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0208927</v>
+                  <v>0.0229726</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.021538</v>
+                  <v>0.0236312</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0222851</v>
+                  <v>0.0244723</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0232149</v>
+                  <v>0.0253764</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0244507</v>
+                  <v>0.0267266</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0259784</v>
+                  <v>0.02845</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0282943</v>
+                  <v>0.0307713</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0314579</v>
+                  <v>0.0342051</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0365879</v>
+                  <v>0.039387</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0450952</v>
+                  <v>0.0481448</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0208871</v>
+                  <v>0.0230461</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0214555</v>
+                  <v>0.0235885</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0220137</v>
+                  <v>0.0240683</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0225922</v>
+                  <v>0.0245612</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0232915</v>
+                  <v>0.0254625</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0246113</v>
+                  <v>0.0269155</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0266287</v>
+                  <v>0.0289929</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0293725</v>
+                  <v>0.0319022</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0323838</v>
+                  <v>0.0353162</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0353862</v>
+                  <v>0.0382454</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0384466</v>
+                  <v>0.0414212</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0416202</v>
+                  <v>0.0448928</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0456443</v>
+                  <v>0.0491213</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0519131</v>
+                  <v>0.0556722</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0324166</v>
+                  <v>0.0349946</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0334394</v>
+                  <v>0.036062</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0342435</v>
+                  <v>0.0370126</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0350556</v>
+                  <v>0.0378882</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.0358717</v>
+                  <v>0.0386232</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0366873</v>
+                  <v>0.039608</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0376708</v>
+                  <v>0.0405332</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0386302</v>
+                  <v>0.0416032</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0398146</v>
+                  <v>0.0429799</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0412212</v>
+                  <v>0.044442</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0429427</v>
+                  <v>0.0464735</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.0455556</v>
+                  <v>0.0490779</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.0491536</v>
+                  <v>0.0526027</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.054736</v>
+                  <v>0.0585157</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.0644487</v>
+                  <v>0.0682112</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.0379716</v>
+                  <v>0.0416503</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0387374</v>
+                  <v>0.0422691</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.039425</v>
+                  <v>0.0430552</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.0400483</v>
+                  <v>0.04371</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.0410584</v>
+                  <v>0.0446326</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.0419449</v>
+                  <v>0.045744</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.0429313</v>
+                  <v>0.0464876</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.0441977</v>
+                  <v>0.0480236</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.0457638</v>
+                  <v>0.0497905</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0475294</v>
+                  <v>0.0515751</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.0500786</v>
+                  <v>0.0541836</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.0536186</v>
+                  <v>0.0578235</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.0591599</v>
+                  <v>0.06359289999999999</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.0689019</v>
+                  <v>0.07301820000000001</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.0534654</v>
+                  <v>0.0587163</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0539555</v>
+                  <v>0.0595507</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.0548494</v>
+                  <v>0.0603892</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.0553747</v>
+                  <v>0.0609068</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.0561235</v>
+                  <v>0.0617944</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.0611306</v>
+                  <v>0.0626568</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.0579442</v>
+                  <v>0.0637523</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3222,8 +3221,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="5" min="1" style="1" width="11.42578125"/>
-    <col customWidth="1" max="16384" min="6" style="1" width="11.42578125"/>
+    <col customWidth="1" max="6" min="1" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3248,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.020381</v>
+        <v>0.0180891</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0243821</v>
+        <v>0.0239845</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0213141</v>
+        <v>0.0229735</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0231567</v>
+        <v>0.0231125</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0263419</v>
+        <v>0.0252671</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0220012</v>
+        <v>0.0237809</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0281757</v>
+        <v>0.0276064</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03189</v>
+        <v>0.0265089</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0228637</v>
+        <v>0.0247276</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0352799</v>
+        <v>0.0352857</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0372784</v>
+        <v>0.0279259</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0244676</v>
+        <v>0.0254784</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.04539</v>
+        <v>0.0550152</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0515556</v>
+        <v>0.0296219</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0259604</v>
+        <v>0.0273889</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.06491429999999999</v>
+        <v>0.0707637</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06764829999999999</v>
+        <v>0.0342394</v>
       </c>
       <c r="D7" t="n">
-        <v>0.028658</v>
+        <v>0.0317454</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0891632</v>
+        <v>0.0902742</v>
       </c>
       <c r="C8" t="n">
-        <v>0.08149480000000001</v>
+        <v>0.0432636</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0371282</v>
+        <v>0.0392671</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.112722</v>
+        <v>0.124907</v>
       </c>
       <c r="C9" t="n">
-        <v>0.129222</v>
+        <v>0.0204602</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0186849</v>
+        <v>0.0210736</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.017053</v>
+        <v>0.0165885</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0208127</v>
+        <v>0.020677</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0189948</v>
+        <v>0.0212428</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0176131</v>
+        <v>0.0166974</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0213278</v>
+        <v>0.0211288</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0192948</v>
+        <v>0.0213958</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.018294</v>
+        <v>0.0174</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0218828</v>
+        <v>0.02132</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0198101</v>
+        <v>0.021675</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.019009</v>
+        <v>0.0180577</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02263</v>
+        <v>0.0216533</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0200323</v>
+        <v>0.0218566</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0202027</v>
+        <v>0.0188783</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0232512</v>
+        <v>0.0218948</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0205084</v>
+        <v>0.0222529</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0216873</v>
+        <v>0.0207926</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0241428</v>
+        <v>0.0227136</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0207002</v>
+        <v>0.0225907</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0238871</v>
+        <v>0.0234316</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0268695</v>
+        <v>0.0233388</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0214276</v>
+        <v>0.023233</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0283309</v>
+        <v>0.0267391</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0288871</v>
+        <v>0.0243722</v>
       </c>
       <c r="D17" t="n">
-        <v>0.022011</v>
+        <v>0.0241064</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0347629</v>
+        <v>0.0324381</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0328262</v>
+        <v>0.0253677</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0230028</v>
+        <v>0.0251854</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0427405</v>
+        <v>0.0420366</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0390993</v>
+        <v>0.027275</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0242253</v>
+        <v>0.0262256</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0557526</v>
+        <v>0.0551355</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0470423</v>
+        <v>0.02993</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0262024</v>
+        <v>0.0281487</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0731723</v>
+        <v>0.07010189999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0633778</v>
+        <v>0.0342697</v>
       </c>
       <c r="D21" t="n">
-        <v>0.030044</v>
+        <v>0.0332219</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0958377</v>
+        <v>0.0951293</v>
       </c>
       <c r="C22" t="n">
-        <v>0.088602</v>
+        <v>0.0428</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0370516</v>
+        <v>0.0428125</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.12115</v>
+        <v>0.119412</v>
       </c>
       <c r="C23" t="n">
-        <v>0.13405</v>
+        <v>0.0202297</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0188867</v>
+        <v>0.0205372</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0167999</v>
+        <v>0.0163349</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0214978</v>
+        <v>0.0205876</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0192237</v>
+        <v>0.0207438</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.017383</v>
+        <v>0.0168743</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0219645</v>
+        <v>0.0208878</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0194425</v>
+        <v>0.0210125</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0183382</v>
+        <v>0.0177381</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0227306</v>
+        <v>0.0211238</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0197946</v>
+        <v>0.021147</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0193988</v>
+        <v>0.018811</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0236983</v>
+        <v>0.0214929</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0201342</v>
+        <v>0.0216366</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0205537</v>
+        <v>0.0196764</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0246423</v>
+        <v>0.0220042</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0205266</v>
+        <v>0.0220983</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0226966</v>
+        <v>0.0212936</v>
       </c>
       <c r="C29" t="n">
-        <v>0.025917</v>
+        <v>0.0230133</v>
       </c>
       <c r="D29" t="n">
-        <v>0.020959</v>
+        <v>0.0227521</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0250047</v>
+        <v>0.0242344</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0281203</v>
+        <v>0.02375</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0214844</v>
+        <v>0.0235387</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0309238</v>
+        <v>0.028441</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0305191</v>
+        <v>0.0249875</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0223231</v>
+        <v>0.0243697</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0361738</v>
+        <v>0.0341129</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0351044</v>
+        <v>0.026126</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0233566</v>
+        <v>0.0253132</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0455675</v>
+        <v>0.0429509</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0407874</v>
+        <v>0.0285787</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0248748</v>
+        <v>0.0274635</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0564017</v>
+        <v>0.0547879</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0501899</v>
+        <v>0.0319202</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0269432</v>
+        <v>0.0298286</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0722527</v>
+        <v>0.070794</v>
       </c>
       <c r="C35" t="n">
-        <v>0.06329070000000001</v>
+        <v>0.0358043</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0307678</v>
+        <v>0.0333105</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.09413820000000001</v>
+        <v>0.09110650000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0883089</v>
+        <v>0.0415036</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0381048</v>
+        <v>0.0399461</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.118638</v>
+        <v>0.118776</v>
       </c>
       <c r="C37" t="n">
-        <v>0.125523</v>
+        <v>0.0211709</v>
       </c>
       <c r="D37" t="n">
-        <v>0.019505</v>
+        <v>0.0209773</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0174142</v>
+        <v>0.0170736</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0226441</v>
+        <v>0.0215368</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0197378</v>
+        <v>0.0212416</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0181997</v>
+        <v>0.0178038</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0231278</v>
+        <v>0.0218216</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0199753</v>
+        <v>0.0215159</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0191908</v>
+        <v>0.0187719</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0239266</v>
+        <v>0.0221891</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0202695</v>
+        <v>0.0217884</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0204403</v>
+        <v>0.0205829</v>
       </c>
       <c r="C41" t="n">
-        <v>0.024755</v>
+        <v>0.0226031</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0205809</v>
+        <v>0.0221713</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.021836</v>
+        <v>0.0220356</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0260181</v>
+        <v>0.0230974</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0210132</v>
+        <v>0.0227143</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0239224</v>
+        <v>0.0246293</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0274856</v>
+        <v>0.0236526</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0215764</v>
+        <v>0.0232182</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0276839</v>
+        <v>0.0279001</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0292543</v>
+        <v>0.0243113</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0222081</v>
+        <v>0.0239736</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0315092</v>
+        <v>0.0317881</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0326774</v>
+        <v>0.0252897</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0231524</v>
+        <v>0.024971</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0372217</v>
+        <v>0.0387773</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0370439</v>
+        <v>0.0265177</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0243994</v>
+        <v>0.0262452</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0454352</v>
+        <v>0.0457338</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0430271</v>
+        <v>0.0283328</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0261699</v>
+        <v>0.0281713</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0550601</v>
+        <v>0.0567263</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0514098</v>
+        <v>0.0312346</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0288567</v>
+        <v>0.0309146</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0703042</v>
+        <v>0.0723264</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0649906</v>
+        <v>0.0355947</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0324993</v>
+        <v>0.0350975</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0905224</v>
+        <v>0.0923006</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0841389</v>
+        <v>0.0422377</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0388699</v>
+        <v>0.0423016</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.115437</v>
+        <v>0.118466</v>
       </c>
       <c r="C51" t="n">
-        <v>0.117343</v>
+        <v>0.0219855</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0203994</v>
+        <v>0.0217961</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.1408</v>
+        <v>0.143016</v>
       </c>
       <c r="C52" t="n">
-        <v>0.163332</v>
+        <v>0.022242</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0206304</v>
+        <v>0.0220754</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0192387</v>
+        <v>0.0190606</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0241041</v>
+        <v>0.0224724</v>
       </c>
       <c r="D53" t="n">
-        <v>0.020899</v>
+        <v>0.022381</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0204627</v>
+        <v>0.0202394</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0248142</v>
+        <v>0.0228305</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0212713</v>
+        <v>0.0227473</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0220737</v>
+        <v>0.0216944</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0258859</v>
+        <v>0.0232863</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0215734</v>
+        <v>0.0231714</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0239349</v>
+        <v>0.02353</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0269065</v>
+        <v>0.0236995</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0220027</v>
+        <v>0.0235931</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0262923</v>
+        <v>0.0262976</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0285555</v>
+        <v>0.0243544</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0224713</v>
+        <v>0.0242686</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0297657</v>
+        <v>0.0293849</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0308138</v>
+        <v>0.0251109</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0232356</v>
+        <v>0.0249809</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0341001</v>
+        <v>0.0340877</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0334128</v>
+        <v>0.0261172</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0241598</v>
+        <v>0.0260022</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0395028</v>
+        <v>0.0394444</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0373409</v>
+        <v>0.0273658</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0252935</v>
+        <v>0.027355</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0465838</v>
+        <v>0.046937</v>
       </c>
       <c r="C61" t="n">
-        <v>0.043244</v>
+        <v>0.0292651</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0270674</v>
+        <v>0.0292535</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0559668</v>
+        <v>0.0568987</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0514921</v>
+        <v>0.0318853</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0297328</v>
+        <v>0.0320698</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0699388</v>
+        <v>0.07036149999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0631197</v>
+        <v>0.036276</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0338401</v>
+        <v>0.0362118</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0889996</v>
+        <v>0.08988160000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>0.08064549999999999</v>
+        <v>0.0431855</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0404851</v>
+        <v>0.0431519</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.114856</v>
+        <v>0.116224</v>
       </c>
       <c r="C65" t="n">
-        <v>0.111224</v>
+        <v>0.0552971</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0515575</v>
+        <v>0.0556079</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.145398</v>
+        <v>0.146963</v>
       </c>
       <c r="C66" t="n">
-        <v>0.156782</v>
+        <v>0.0226141</v>
       </c>
       <c r="D66" t="n">
-        <v>0.020937</v>
+        <v>0.0225712</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0196969</v>
+        <v>0.0197772</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0246273</v>
+        <v>0.0230033</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0212617</v>
+        <v>0.0228871</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.02093</v>
+        <v>0.0210269</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0254874</v>
+        <v>0.0233238</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0215815</v>
+        <v>0.0232656</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0224969</v>
+        <v>0.0229188</v>
       </c>
       <c r="C69" t="n">
-        <v>0.026515</v>
+        <v>0.0237462</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0219942</v>
+        <v>0.02372</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0245783</v>
+        <v>0.0247612</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0276786</v>
+        <v>0.0242556</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0224339</v>
+        <v>0.0241744</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.027095</v>
+        <v>0.0273513</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0291119</v>
+        <v>0.0247678</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0229822</v>
+        <v>0.024774</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0303959</v>
+        <v>0.030631</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0311576</v>
+        <v>0.0255788</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0236686</v>
+        <v>0.0255211</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0348732</v>
+        <v>0.0344672</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0339469</v>
+        <v>0.0264825</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0245813</v>
+        <v>0.0265703</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0401107</v>
+        <v>0.0398071</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0377205</v>
+        <v>0.0277484</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0258009</v>
+        <v>0.0278536</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0469689</v>
+        <v>0.0464995</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0430427</v>
+        <v>0.0295757</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0276711</v>
+        <v>0.0298457</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.056182</v>
+        <v>0.0557802</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0505867</v>
+        <v>0.0322681</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0301418</v>
+        <v>0.0326592</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0692083</v>
+        <v>0.06866800000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0612508</v>
+        <v>0.0363739</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0339599</v>
+        <v>0.036685</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0876976</v>
+        <v>0.0871569</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0763192</v>
+        <v>0.0425934</v>
       </c>
       <c r="D78" t="n">
-        <v>0.039757</v>
+        <v>0.0431347</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.112624</v>
+        <v>0.112332</v>
       </c>
       <c r="C79" t="n">
-        <v>0.101765</v>
+        <v>0.0533284</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0495474</v>
+        <v>0.0542856</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.143056</v>
+        <v>0.143692</v>
       </c>
       <c r="C80" t="n">
-        <v>0.144347</v>
+        <v>0.0228307</v>
       </c>
       <c r="D80" t="n">
-        <v>0.021192</v>
+        <v>0.0229239</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0203051</v>
+        <v>0.0203367</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0253488</v>
+        <v>0.0231498</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0215353</v>
+        <v>0.0232276</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0214311</v>
+        <v>0.0213446</v>
       </c>
       <c r="C82" t="n">
-        <v>0.026265</v>
+        <v>0.0235087</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0219745</v>
+        <v>0.0236061</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0227951</v>
+        <v>0.0230294</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0271908</v>
+        <v>0.023973</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0224512</v>
+        <v>0.0240769</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0248606</v>
+        <v>0.0249859</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0284288</v>
+        <v>0.0244933</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0229726</v>
+        <v>0.0245535</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0274961</v>
+        <v>0.027711</v>
       </c>
       <c r="C85" t="n">
-        <v>0.03001</v>
+        <v>0.0251175</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0236312</v>
+        <v>0.02526</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0304265</v>
+        <v>0.0307866</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0319039</v>
+        <v>0.0259282</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0244723</v>
+        <v>0.0260578</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.034491</v>
+        <v>0.0344908</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0343672</v>
+        <v>0.0269836</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0253764</v>
+        <v>0.0271353</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0392189</v>
+        <v>0.0394392</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0378547</v>
+        <v>0.0282618</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0267266</v>
+        <v>0.0284243</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0454425</v>
+        <v>0.0460181</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0426376</v>
+        <v>0.0299686</v>
       </c>
       <c r="D89" t="n">
-        <v>0.02845</v>
+        <v>0.0303391</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.054124</v>
+        <v>0.0547507</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0498571</v>
+        <v>0.0324628</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0307713</v>
+        <v>0.0327528</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0660497</v>
+        <v>0.06693399999999999</v>
       </c>
       <c r="C91" t="n">
-        <v>0.059631</v>
+        <v>0.0359824</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0342051</v>
+        <v>0.0363484</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0833161</v>
+        <v>0.0843541</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0742997</v>
+        <v>0.0416365</v>
       </c>
       <c r="D92" t="n">
-        <v>0.039387</v>
+        <v>0.0419924</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.107117</v>
+        <v>0.108029</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0979019</v>
+        <v>0.0508234</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0481448</v>
+        <v>0.0514755</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.137068</v>
+        <v>0.138956</v>
       </c>
       <c r="C94" t="n">
-        <v>0.137136</v>
+        <v>0.0243811</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0230461</v>
+        <v>0.0243619</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0205917</v>
+        <v>0.0204867</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0270102</v>
+        <v>0.0249095</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0235885</v>
+        <v>0.0248903</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0217319</v>
+        <v>0.0220093</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0282021</v>
+        <v>0.0254076</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0240683</v>
+        <v>0.0254104</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0234086</v>
+        <v>0.023387</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0301873</v>
+        <v>0.0259572</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0245612</v>
+        <v>0.0260678</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0249196</v>
+        <v>0.0251105</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0330636</v>
+        <v>0.0267486</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0254625</v>
+        <v>0.0268398</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0271441</v>
+        <v>0.027163</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0367725</v>
+        <v>0.0281302</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0269155</v>
+        <v>0.02818</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0301186</v>
+        <v>0.0303759</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0404956</v>
+        <v>0.0302647</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0289929</v>
+        <v>0.030414</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.034225</v>
+        <v>0.0347561</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0438179</v>
+        <v>0.0332117</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0319022</v>
+        <v>0.0333415</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0395874</v>
+        <v>0.0397259</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0472354</v>
+        <v>0.0363421</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0353162</v>
+        <v>0.0366359</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.046425</v>
+        <v>0.046291</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0509235</v>
+        <v>0.0396376</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0382454</v>
+        <v>0.0398143</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0547381</v>
+        <v>0.0544102</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0560138</v>
+        <v>0.0428144</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0414212</v>
+        <v>0.0430206</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0655719</v>
+        <v>0.06571340000000001</v>
       </c>
       <c r="C105" t="n">
-        <v>0.06314790000000001</v>
+        <v>0.046287</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0448928</v>
+        <v>0.0462727</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0810201</v>
+        <v>0.08154</v>
       </c>
       <c r="C106" t="n">
-        <v>0.07436619999999999</v>
+        <v>0.0507825</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0491213</v>
+        <v>0.0509942</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.103131</v>
+        <v>0.104081</v>
       </c>
       <c r="C107" t="n">
-        <v>0.0937021</v>
+        <v>0.0575726</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0556722</v>
+        <v>0.0577467</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.132455</v>
+        <v>0.133418</v>
       </c>
       <c r="C108" t="n">
-        <v>0.129268</v>
+        <v>0.0363921</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0349946</v>
+        <v>0.0365111</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.167936</v>
+        <v>0.169163</v>
       </c>
       <c r="C109" t="n">
-        <v>0.180556</v>
+        <v>0.0373489</v>
       </c>
       <c r="D109" t="n">
-        <v>0.036062</v>
+        <v>0.0373229</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0314641</v>
+        <v>0.0311288</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0432623</v>
+        <v>0.0382365</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0370126</v>
+        <v>0.0382521</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0327748</v>
+        <v>0.0326808</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0443061</v>
+        <v>0.0390657</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0378882</v>
+        <v>0.0389961</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0344387</v>
+        <v>0.0344</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0453678</v>
+        <v>0.0397903</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0386232</v>
+        <v>0.0398445</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0359115</v>
+        <v>0.0359297</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0466564</v>
+        <v>0.0407824</v>
       </c>
       <c r="D113" t="n">
-        <v>0.039608</v>
+        <v>0.0407806</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0384212</v>
+        <v>0.0381021</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0481</v>
+        <v>0.04183</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0405332</v>
+        <v>0.0416729</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.0411013</v>
+        <v>0.0409047</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0498885</v>
+        <v>0.0428373</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0416032</v>
+        <v>0.0428367</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.0443196</v>
+        <v>0.0440713</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0522653</v>
+        <v>0.0442007</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0429799</v>
+        <v>0.0443028</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.0490798</v>
+        <v>0.0489034</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0552329</v>
+        <v>0.0457507</v>
       </c>
       <c r="D117" t="n">
-        <v>0.044442</v>
+        <v>0.0457263</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.0556472</v>
+        <v>0.0553271</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0592122</v>
+        <v>0.0476908</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0464735</v>
+        <v>0.0479982</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.0652692</v>
+        <v>0.0650304</v>
       </c>
       <c r="C119" t="n">
-        <v>0.0652914</v>
+        <v>0.0504187</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0490779</v>
+        <v>0.0504076</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.080124</v>
+        <v>0.07925699999999999</v>
       </c>
       <c r="C120" t="n">
-        <v>0.0749547</v>
+        <v>0.0541911</v>
       </c>
       <c r="D120" t="n">
-        <v>0.0526027</v>
+        <v>0.0542257</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.100594</v>
+        <v>0.100326</v>
       </c>
       <c r="C121" t="n">
-        <v>0.09116730000000001</v>
+        <v>0.060174</v>
       </c>
       <c r="D121" t="n">
-        <v>0.0585157</v>
+        <v>0.0603244</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.128412</v>
+        <v>0.128418</v>
       </c>
       <c r="C122" t="n">
-        <v>0.12157</v>
+        <v>0.07042950000000001</v>
       </c>
       <c r="D122" t="n">
-        <v>0.0682112</v>
+        <v>0.070741</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.163387</v>
+        <v>0.164722</v>
       </c>
       <c r="C123" t="n">
-        <v>0.169666</v>
+        <v>0.0426374</v>
       </c>
       <c r="D123" t="n">
-        <v>0.0416503</v>
+        <v>0.0420882</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.0342733</v>
+        <v>0.0339713</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0485409</v>
+        <v>0.0432566</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0422691</v>
+        <v>0.0431732</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.0354023</v>
+        <v>0.0353501</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0498932</v>
+        <v>0.0440814</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0430552</v>
+        <v>0.0438161</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.0369613</v>
+        <v>0.0369711</v>
       </c>
       <c r="C126" t="n">
-        <v>0.0510164</v>
+        <v>0.0449444</v>
       </c>
       <c r="D126" t="n">
-        <v>0.04371</v>
+        <v>0.0444641</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.0386997</v>
+        <v>0.0383053</v>
       </c>
       <c r="C127" t="n">
-        <v>0.0521044</v>
+        <v>0.0458066</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0446326</v>
+        <v>0.0456311</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0406429</v>
+        <v>0.0407899</v>
       </c>
       <c r="C128" t="n">
-        <v>0.0539084</v>
+        <v>0.0467688</v>
       </c>
       <c r="D128" t="n">
-        <v>0.045744</v>
+        <v>0.0466474</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0434292</v>
+        <v>0.0433218</v>
       </c>
       <c r="C129" t="n">
-        <v>0.0557247</v>
+        <v>0.0478835</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0464876</v>
+        <v>0.0474789</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0467513</v>
+        <v>0.0472061</v>
       </c>
       <c r="C130" t="n">
-        <v>0.0579581</v>
+        <v>0.0491329</v>
       </c>
       <c r="D130" t="n">
-        <v>0.0480236</v>
+        <v>0.0491072</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0511822</v>
+        <v>0.0513422</v>
       </c>
       <c r="C131" t="n">
-        <v>0.0612119</v>
+        <v>0.0507865</v>
       </c>
       <c r="D131" t="n">
-        <v>0.0497905</v>
+        <v>0.0506938</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0585649</v>
+        <v>0.0583078</v>
       </c>
       <c r="C132" t="n">
-        <v>0.0655746</v>
+        <v>0.0527847</v>
       </c>
       <c r="D132" t="n">
-        <v>0.0515751</v>
+        <v>0.0525088</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.0673728</v>
+        <v>0.0678875</v>
       </c>
       <c r="C133" t="n">
-        <v>0.07118579999999999</v>
+        <v>0.0552992</v>
       </c>
       <c r="D133" t="n">
-        <v>0.0541836</v>
+        <v>0.0554446</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.08104450000000001</v>
+        <v>0.0814237</v>
       </c>
       <c r="C134" t="n">
-        <v>0.0805454</v>
+        <v>0.0593159</v>
       </c>
       <c r="D134" t="n">
-        <v>0.0578235</v>
+        <v>0.0591519</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.101034</v>
+        <v>0.101731</v>
       </c>
       <c r="C135" t="n">
-        <v>0.0955641</v>
+        <v>0.0651862</v>
       </c>
       <c r="D135" t="n">
-        <v>0.06359289999999999</v>
+        <v>0.0652216</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.128826</v>
+        <v>0.129347</v>
       </c>
       <c r="C136" t="n">
-        <v>0.122167</v>
+        <v>0.0751194</v>
       </c>
       <c r="D136" t="n">
-        <v>0.07301820000000001</v>
+        <v>0.0748559</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.16274</v>
+        <v>0.164475</v>
       </c>
       <c r="C137" t="n">
-        <v>0.166136</v>
+        <v>0.0596817</v>
       </c>
       <c r="D137" t="n">
-        <v>0.0587163</v>
+        <v>0.0598737</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0471946</v>
+        <v>0.0471601</v>
       </c>
       <c r="C138" t="n">
-        <v>0.0632577</v>
+        <v>0.0604179</v>
       </c>
       <c r="D138" t="n">
-        <v>0.0595507</v>
+        <v>0.0606765</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0480173</v>
+        <v>0.047812</v>
       </c>
       <c r="C139" t="n">
-        <v>0.0643639</v>
+        <v>0.0611693</v>
       </c>
       <c r="D139" t="n">
-        <v>0.0603892</v>
+        <v>0.0612828</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.0491618</v>
+        <v>0.0493257</v>
       </c>
       <c r="C140" t="n">
-        <v>0.0654462</v>
+        <v>0.0617445</v>
       </c>
       <c r="D140" t="n">
-        <v>0.0609068</v>
+        <v>0.0618812</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0504992</v>
+        <v>0.0508783</v>
       </c>
       <c r="C141" t="n">
-        <v>0.0668815</v>
+        <v>0.0624944</v>
       </c>
       <c r="D141" t="n">
-        <v>0.0617944</v>
+        <v>0.0627192</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.0529453</v>
+        <v>0.052998</v>
       </c>
       <c r="C142" t="n">
-        <v>0.0683774</v>
+        <v>0.0634557</v>
       </c>
       <c r="D142" t="n">
-        <v>0.0626568</v>
+        <v>0.06306829999999999</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.0554429</v>
+        <v>0.0556377</v>
       </c>
       <c r="C143" t="n">
-        <v>0.07045510000000001</v>
+        <v>0.06433419999999999</v>
       </c>
       <c r="D143" t="n">
-        <v>0.0637523</v>
+        <v>0.0642664</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered unsuccessful looukp.xlsx
+++ b/clang-arm64/Scattered unsuccessful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0180891</v>
+        <v>0.0192249</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0239845</v>
+        <v>0.023109</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0229735</v>
+        <v>0.0229854</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0231125</v>
+        <v>0.0223742</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0252671</v>
+        <v>0.0240684</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0237809</v>
+        <v>0.023637</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0276064</v>
+        <v>0.027496</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0265089</v>
+        <v>0.0252982</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0247276</v>
+        <v>0.0243427</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0352857</v>
+        <v>0.0347981</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0279259</v>
+        <v>0.0263899</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0254784</v>
+        <v>0.0254614</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0550152</v>
+        <v>0.052216</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0296219</v>
+        <v>0.0285962</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0273889</v>
+        <v>0.0275793</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0707637</v>
+        <v>0.0701939</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0342394</v>
+        <v>0.0328264</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0317454</v>
+        <v>0.0322502</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0902742</v>
+        <v>0.08847770000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0432636</v>
+        <v>0.0447885</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0392671</v>
+        <v>0.0391146</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.124907</v>
+        <v>0.1189</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0204602</v>
+        <v>0.0202483</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0210736</v>
+        <v>0.0209254</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0165885</v>
+        <v>0.0168068</v>
       </c>
       <c r="C10" t="n">
-        <v>0.020677</v>
+        <v>0.0204001</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0212428</v>
+        <v>0.0210406</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0166974</v>
+        <v>0.0173925</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0211288</v>
+        <v>0.0207061</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0213958</v>
+        <v>0.0212842</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0174</v>
+        <v>0.0180079</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02132</v>
+        <v>0.0210058</v>
       </c>
       <c r="D12" t="n">
-        <v>0.021675</v>
+        <v>0.0215444</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0180577</v>
+        <v>0.0183868</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0216533</v>
+        <v>0.0213757</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0218566</v>
+        <v>0.0217189</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0188783</v>
+        <v>0.0194229</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0218948</v>
+        <v>0.0214722</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0222529</v>
+        <v>0.0221545</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0207926</v>
+        <v>0.0211324</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0227136</v>
+        <v>0.0221909</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0225907</v>
+        <v>0.0223306</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0234316</v>
+        <v>0.0227075</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0233388</v>
+        <v>0.0227003</v>
       </c>
       <c r="D16" t="n">
-        <v>0.023233</v>
+        <v>0.0232474</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0267391</v>
+        <v>0.0277746</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0243722</v>
+        <v>0.0236218</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0241064</v>
+        <v>0.0239604</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0324381</v>
+        <v>0.0333325</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0253677</v>
+        <v>0.0246068</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0251854</v>
+        <v>0.0252801</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0420366</v>
+        <v>0.042368</v>
       </c>
       <c r="C19" t="n">
-        <v>0.027275</v>
+        <v>0.0264222</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0262256</v>
+        <v>0.0263001</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0551355</v>
+        <v>0.0550866</v>
       </c>
       <c r="C20" t="n">
-        <v>0.02993</v>
+        <v>0.0289967</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0281487</v>
+        <v>0.0288244</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.07010189999999999</v>
+        <v>0.07319929999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0342697</v>
+        <v>0.0343682</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0332219</v>
+        <v>0.0351017</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0951293</v>
+        <v>0.0955806</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0428</v>
+        <v>0.0438272</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0428125</v>
+        <v>0.0442408</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.119412</v>
+        <v>0.12061</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0202297</v>
+        <v>0.0201252</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0205372</v>
+        <v>0.0203983</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0163349</v>
+        <v>0.0165598</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0205876</v>
+        <v>0.0204231</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0207438</v>
+        <v>0.0205946</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0168743</v>
+        <v>0.0171335</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0208878</v>
+        <v>0.020667</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0210125</v>
+        <v>0.0208265</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0177381</v>
+        <v>0.0178248</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0211238</v>
+        <v>0.0209112</v>
       </c>
       <c r="D26" t="n">
-        <v>0.021147</v>
+        <v>0.0210099</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.018811</v>
+        <v>0.0189564</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0214929</v>
+        <v>0.0211449</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0216366</v>
+        <v>0.021489</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0196764</v>
+        <v>0.0199935</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0220042</v>
+        <v>0.0216045</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0220983</v>
+        <v>0.0219497</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0212936</v>
+        <v>0.022978</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0230133</v>
+        <v>0.0223854</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0227521</v>
+        <v>0.022494</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0242344</v>
+        <v>0.0254494</v>
       </c>
       <c r="C30" t="n">
-        <v>0.02375</v>
+        <v>0.0230624</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0235387</v>
+        <v>0.0230956</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.028441</v>
+        <v>0.029396</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0249875</v>
+        <v>0.0239194</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0243697</v>
+        <v>0.0239729</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0341129</v>
+        <v>0.0356928</v>
       </c>
       <c r="C32" t="n">
-        <v>0.026126</v>
+        <v>0.0253148</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0253132</v>
+        <v>0.0251692</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0429509</v>
+        <v>0.0431107</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0285787</v>
+        <v>0.0274572</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0274635</v>
+        <v>0.0269247</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0547879</v>
+        <v>0.053955</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0319202</v>
+        <v>0.0307304</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0298286</v>
+        <v>0.0297583</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.070794</v>
+        <v>0.06942470000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0358043</v>
+        <v>0.0350098</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0333105</v>
+        <v>0.0350929</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.09110650000000001</v>
+        <v>0.09310889999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0415036</v>
+        <v>0.0427219</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0399461</v>
+        <v>0.0426572</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.118776</v>
+        <v>0.116954</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0211709</v>
+        <v>0.0209555</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0209773</v>
+        <v>0.0209086</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0170736</v>
+        <v>0.0170627</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0215368</v>
+        <v>0.0213449</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0212416</v>
+        <v>0.0211157</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0178038</v>
+        <v>0.0179432</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0218216</v>
+        <v>0.0215511</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0215159</v>
+        <v>0.0213843</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0187719</v>
+        <v>0.018694</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0221891</v>
+        <v>0.0219107</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0217884</v>
+        <v>0.0217008</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0205829</v>
+        <v>0.0199089</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0226031</v>
+        <v>0.022313</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0221713</v>
+        <v>0.0220999</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0220356</v>
+        <v>0.0214966</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0230974</v>
+        <v>0.02273</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0227143</v>
+        <v>0.0226392</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0246293</v>
+        <v>0.0239046</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0236526</v>
+        <v>0.0233668</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0232182</v>
+        <v>0.0231652</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0279001</v>
+        <v>0.0275136</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0243113</v>
+        <v>0.0239816</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0239736</v>
+        <v>0.0240154</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0317881</v>
+        <v>0.031073</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0252897</v>
+        <v>0.0250017</v>
       </c>
       <c r="D45" t="n">
-        <v>0.024971</v>
+        <v>0.0251042</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0387773</v>
+        <v>0.0362513</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0265177</v>
+        <v>0.0262655</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0262452</v>
+        <v>0.0264769</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0457338</v>
+        <v>0.0447088</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0283328</v>
+        <v>0.0282078</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0281713</v>
+        <v>0.028554</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0567263</v>
+        <v>0.054865</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0312346</v>
+        <v>0.0314308</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0309146</v>
+        <v>0.0316172</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0723264</v>
+        <v>0.0690183</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0355947</v>
+        <v>0.0359369</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0350975</v>
+        <v>0.0361474</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0923006</v>
+        <v>0.0896646</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0422377</v>
+        <v>0.0430851</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0423016</v>
+        <v>0.0439341</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.118466</v>
+        <v>0.114345</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0219855</v>
+        <v>0.0218217</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0217961</v>
+        <v>0.021808</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.143016</v>
+        <v>0.140838</v>
       </c>
       <c r="C52" t="n">
-        <v>0.022242</v>
+        <v>0.0221452</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0220754</v>
+        <v>0.0220227</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0190606</v>
+        <v>0.0189175</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0224724</v>
+        <v>0.0223484</v>
       </c>
       <c r="D53" t="n">
-        <v>0.022381</v>
+        <v>0.0223452</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0202394</v>
+        <v>0.020084</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0228305</v>
+        <v>0.0226355</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0227473</v>
+        <v>0.0227421</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0216944</v>
+        <v>0.0215389</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0232863</v>
+        <v>0.0230752</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0231714</v>
+        <v>0.0231271</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.02353</v>
+        <v>0.0233446</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0236995</v>
+        <v>0.0235289</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0235931</v>
+        <v>0.0236197</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0262976</v>
+        <v>0.0258947</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0243544</v>
+        <v>0.0241656</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0242686</v>
+        <v>0.0242226</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0293849</v>
+        <v>0.0293051</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0251109</v>
+        <v>0.0249362</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0249809</v>
+        <v>0.0250135</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0340877</v>
+        <v>0.0335157</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0261172</v>
+        <v>0.0260231</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0260022</v>
+        <v>0.0261255</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0394444</v>
+        <v>0.0388598</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0273658</v>
+        <v>0.0273073</v>
       </c>
       <c r="D60" t="n">
-        <v>0.027355</v>
+        <v>0.0276103</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.046937</v>
+        <v>0.0461993</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0292651</v>
+        <v>0.0292628</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0292535</v>
+        <v>0.0295727</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0568987</v>
+        <v>0.0558336</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0318853</v>
+        <v>0.0321517</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0320698</v>
+        <v>0.0324626</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.07036149999999999</v>
+        <v>0.0700938</v>
       </c>
       <c r="C63" t="n">
-        <v>0.036276</v>
+        <v>0.0366552</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0362118</v>
+        <v>0.0366846</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.08988160000000001</v>
+        <v>0.0899216</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0431855</v>
+        <v>0.0438627</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0431519</v>
+        <v>0.0436928</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.116224</v>
+        <v>0.115362</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0552971</v>
+        <v>0.0558965</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0556079</v>
+        <v>0.055758</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.146963</v>
+        <v>0.146278</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0226141</v>
+        <v>0.0225315</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0225712</v>
+        <v>0.0225948</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0197772</v>
+        <v>0.0198619</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0230033</v>
+        <v>0.0228785</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0228871</v>
+        <v>0.0228902</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0210269</v>
+        <v>0.0210419</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0233238</v>
+        <v>0.0232361</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0232656</v>
+        <v>0.0232742</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0229188</v>
+        <v>0.0226213</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0237462</v>
+        <v>0.0236182</v>
       </c>
       <c r="D69" t="n">
-        <v>0.02372</v>
+        <v>0.0237429</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0247612</v>
+        <v>0.0245694</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0242556</v>
+        <v>0.0241656</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0241744</v>
+        <v>0.0241777</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0273513</v>
+        <v>0.0270645</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0247678</v>
+        <v>0.0247239</v>
       </c>
       <c r="D71" t="n">
-        <v>0.024774</v>
+        <v>0.0248439</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.030631</v>
+        <v>0.0303378</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0255788</v>
+        <v>0.0255208</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0255211</v>
+        <v>0.0256045</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0344672</v>
+        <v>0.0345312</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0264825</v>
+        <v>0.0264452</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0265703</v>
+        <v>0.0266085</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0398071</v>
+        <v>0.0400365</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0277484</v>
+        <v>0.0277818</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0278536</v>
+        <v>0.0280112</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0464995</v>
+        <v>0.0467676</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0295757</v>
+        <v>0.0296907</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0298457</v>
+        <v>0.0300286</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0557802</v>
+        <v>0.0560622</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0322681</v>
+        <v>0.0324076</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0326592</v>
+        <v>0.0329093</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.06866800000000001</v>
+        <v>0.069385</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0363739</v>
+        <v>0.0366656</v>
       </c>
       <c r="D77" t="n">
-        <v>0.036685</v>
+        <v>0.0369453</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0871569</v>
+        <v>0.0877729</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0425934</v>
+        <v>0.0428721</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0431347</v>
+        <v>0.0433667</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.112332</v>
+        <v>0.112171</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0533284</v>
+        <v>0.0536662</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0542856</v>
+        <v>0.0544473</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.143692</v>
+        <v>0.143439</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0228307</v>
+        <v>0.0227709</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0229239</v>
+        <v>0.0228929</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0203367</v>
+        <v>0.0202408</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0231498</v>
+        <v>0.0231419</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0232276</v>
+        <v>0.0231788</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0213446</v>
+        <v>0.0211947</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0235087</v>
+        <v>0.023487</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0236061</v>
+        <v>0.0235689</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0230294</v>
+        <v>0.0228339</v>
       </c>
       <c r="C83" t="n">
-        <v>0.023973</v>
+        <v>0.0239445</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0240769</v>
+        <v>0.0240708</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0249859</v>
+        <v>0.0251818</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0244933</v>
+        <v>0.0243916</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0245535</v>
+        <v>0.0246865</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.027711</v>
+        <v>0.0275126</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0251175</v>
+        <v>0.0250369</v>
       </c>
       <c r="D85" t="n">
-        <v>0.02526</v>
+        <v>0.0252575</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0307866</v>
+        <v>0.0304602</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0259282</v>
+        <v>0.0259484</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0260578</v>
+        <v>0.0261663</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0344908</v>
+        <v>0.0345697</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0269836</v>
+        <v>0.0269929</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0271353</v>
+        <v>0.0271609</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0394392</v>
+        <v>0.0393756</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0282618</v>
+        <v>0.0283357</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0284243</v>
+        <v>0.0285424</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0460181</v>
+        <v>0.0456667</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0299686</v>
+        <v>0.0300363</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0303391</v>
+        <v>0.0304115</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0547507</v>
+        <v>0.0544167</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0324628</v>
+        <v>0.0326381</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0327528</v>
+        <v>0.0328705</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.06693399999999999</v>
+        <v>0.0664767</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0359824</v>
+        <v>0.0361028</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0363484</v>
+        <v>0.0364576</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0843541</v>
+        <v>0.0834585</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0416365</v>
+        <v>0.0417002</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0419924</v>
+        <v>0.0420732</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.108029</v>
+        <v>0.106586</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0508234</v>
+        <v>0.0510605</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0514755</v>
+        <v>0.051422</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.138956</v>
+        <v>0.137006</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0243811</v>
+        <v>0.0243587</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0243619</v>
+        <v>0.0243331</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0204867</v>
+        <v>0.0205894</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0249095</v>
+        <v>0.0248431</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0248903</v>
+        <v>0.0248591</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0220093</v>
+        <v>0.0223061</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0254076</v>
+        <v>0.0254046</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0254104</v>
+        <v>0.0254004</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.023387</v>
+        <v>0.0235208</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0259572</v>
+        <v>0.0259468</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0260678</v>
+        <v>0.0259761</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0251105</v>
+        <v>0.0251688</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0267486</v>
+        <v>0.0268671</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0268398</v>
+        <v>0.0268091</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.027163</v>
+        <v>0.0274944</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0281302</v>
+        <v>0.0283632</v>
       </c>
       <c r="D99" t="n">
-        <v>0.02818</v>
+        <v>0.0282487</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0303759</v>
+        <v>0.0303863</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0302647</v>
+        <v>0.0304568</v>
       </c>
       <c r="D100" t="n">
-        <v>0.030414</v>
+        <v>0.0303209</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0347561</v>
+        <v>0.0344105</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0332117</v>
+        <v>0.0332752</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0333415</v>
+        <v>0.0333541</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0397259</v>
+        <v>0.0396659</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0363421</v>
+        <v>0.0364241</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0366359</v>
+        <v>0.0364748</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.046291</v>
+        <v>0.0462237</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0396376</v>
+        <v>0.0395224</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0398143</v>
+        <v>0.0396394</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0544102</v>
+        <v>0.0542776</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0428144</v>
+        <v>0.0427674</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0430206</v>
+        <v>0.0428224</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.06571340000000001</v>
+        <v>0.065557</v>
       </c>
       <c r="C105" t="n">
-        <v>0.046287</v>
+        <v>0.0462301</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0462727</v>
+        <v>0.0462752</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.08154</v>
+        <v>0.08118590000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0507825</v>
+        <v>0.0506921</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0509942</v>
+        <v>0.0509395</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.104081</v>
+        <v>0.102971</v>
       </c>
       <c r="C107" t="n">
-        <v>0.0575726</v>
+        <v>0.0576796</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0577467</v>
+        <v>0.0577927</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.133418</v>
+        <v>0.132322</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0363921</v>
+        <v>0.0361327</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0365111</v>
+        <v>0.0361508</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.169163</v>
+        <v>0.167999</v>
       </c>
       <c r="C109" t="n">
-        <v>0.0373489</v>
+        <v>0.0371621</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0373229</v>
+        <v>0.037211</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0311288</v>
+        <v>0.0314084</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0382365</v>
+        <v>0.0380336</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0382521</v>
+        <v>0.0381589</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0326808</v>
+        <v>0.0327967</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0390657</v>
+        <v>0.0388296</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0389961</v>
+        <v>0.0388899</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0344</v>
+        <v>0.0339716</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0397903</v>
+        <v>0.0396451</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0398445</v>
+        <v>0.0396917</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0359297</v>
+        <v>0.0361056</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0407824</v>
+        <v>0.0408363</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0407806</v>
+        <v>0.040604</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0381021</v>
+        <v>0.0383736</v>
       </c>
       <c r="C114" t="n">
-        <v>0.04183</v>
+        <v>0.0415387</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0416729</v>
+        <v>0.0415113</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.0409047</v>
+        <v>0.040601</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0428373</v>
+        <v>0.0426938</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0428367</v>
+        <v>0.0427032</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.0440713</v>
+        <v>0.0441199</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0442007</v>
+        <v>0.0438436</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0443028</v>
+        <v>0.0440202</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.0489034</v>
+        <v>0.0488138</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0457507</v>
+        <v>0.0455844</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0457263</v>
+        <v>0.0456837</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.0553271</v>
+        <v>0.0551593</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0476908</v>
+        <v>0.0475122</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0479982</v>
+        <v>0.0476229</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.0650304</v>
+        <v>0.064941</v>
       </c>
       <c r="C119" t="n">
-        <v>0.0504187</v>
+        <v>0.0501553</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0504076</v>
+        <v>0.0502274</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.07925699999999999</v>
+        <v>0.0791023</v>
       </c>
       <c r="C120" t="n">
-        <v>0.0541911</v>
+        <v>0.0540144</v>
       </c>
       <c r="D120" t="n">
-        <v>0.0542257</v>
+        <v>0.0541062</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.100326</v>
+        <v>0.09998659999999999</v>
       </c>
       <c r="C121" t="n">
-        <v>0.060174</v>
+        <v>0.0598557</v>
       </c>
       <c r="D121" t="n">
-        <v>0.0603244</v>
+        <v>0.059929</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.128418</v>
+        <v>0.128104</v>
       </c>
       <c r="C122" t="n">
-        <v>0.07042950000000001</v>
+        <v>0.0701746</v>
       </c>
       <c r="D122" t="n">
-        <v>0.070741</v>
+        <v>0.07037590000000001</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.164722</v>
+        <v>0.163936</v>
       </c>
       <c r="C123" t="n">
-        <v>0.0426374</v>
+        <v>0.041489</v>
       </c>
       <c r="D123" t="n">
-        <v>0.0420882</v>
+        <v>0.0416051</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.0339713</v>
+        <v>0.0343336</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0432566</v>
+        <v>0.0421567</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0431732</v>
+        <v>0.0420709</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.0353501</v>
+        <v>0.0357226</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0440814</v>
+        <v>0.0431531</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0438161</v>
+        <v>0.0437271</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.0369711</v>
+        <v>0.0368952</v>
       </c>
       <c r="C126" t="n">
-        <v>0.0449444</v>
+        <v>0.044303</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0444641</v>
+        <v>0.0444044</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.0383053</v>
+        <v>0.0387991</v>
       </c>
       <c r="C127" t="n">
-        <v>0.0458066</v>
+        <v>0.0452368</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0456311</v>
+        <v>0.0450003</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0407899</v>
+        <v>0.0406645</v>
       </c>
       <c r="C128" t="n">
-        <v>0.0467688</v>
+        <v>0.0462415</v>
       </c>
       <c r="D128" t="n">
-        <v>0.0466474</v>
+        <v>0.0462534</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0433218</v>
+        <v>0.0435707</v>
       </c>
       <c r="C129" t="n">
-        <v>0.0478835</v>
+        <v>0.0472314</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0474789</v>
+        <v>0.0476159</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0472061</v>
+        <v>0.0477367</v>
       </c>
       <c r="C130" t="n">
-        <v>0.0491329</v>
+        <v>0.048667</v>
       </c>
       <c r="D130" t="n">
-        <v>0.0491072</v>
+        <v>0.0486632</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0513422</v>
+        <v>0.0519255</v>
       </c>
       <c r="C131" t="n">
-        <v>0.0507865</v>
+        <v>0.0501007</v>
       </c>
       <c r="D131" t="n">
-        <v>0.0506938</v>
+        <v>0.0502301</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0583078</v>
+        <v>0.0590065</v>
       </c>
       <c r="C132" t="n">
-        <v>0.0527847</v>
+        <v>0.0522412</v>
       </c>
       <c r="D132" t="n">
-        <v>0.0525088</v>
+        <v>0.0522624</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.0678875</v>
+        <v>0.0680857</v>
       </c>
       <c r="C133" t="n">
-        <v>0.0552992</v>
+        <v>0.0548307</v>
       </c>
       <c r="D133" t="n">
-        <v>0.0554446</v>
+        <v>0.0549231</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.0814237</v>
+        <v>0.08213040000000001</v>
       </c>
       <c r="C134" t="n">
-        <v>0.0593159</v>
+        <v>0.0586967</v>
       </c>
       <c r="D134" t="n">
-        <v>0.0591519</v>
+        <v>0.0588639</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.101731</v>
+        <v>0.102165</v>
       </c>
       <c r="C135" t="n">
-        <v>0.0651862</v>
+        <v>0.06458949999999999</v>
       </c>
       <c r="D135" t="n">
-        <v>0.0652216</v>
+        <v>0.0646352</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.129347</v>
+        <v>0.129436</v>
       </c>
       <c r="C136" t="n">
-        <v>0.0751194</v>
+        <v>0.07444480000000001</v>
       </c>
       <c r="D136" t="n">
-        <v>0.0748559</v>
+        <v>0.0744819</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.164475</v>
+        <v>0.164948</v>
       </c>
       <c r="C137" t="n">
-        <v>0.0596817</v>
+        <v>0.05943</v>
       </c>
       <c r="D137" t="n">
-        <v>0.0598737</v>
+        <v>0.060208</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0471601</v>
+        <v>0.0469979</v>
       </c>
       <c r="C138" t="n">
-        <v>0.0604179</v>
+        <v>0.0603807</v>
       </c>
       <c r="D138" t="n">
-        <v>0.0606765</v>
+        <v>0.0608151</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.047812</v>
+        <v>0.0484498</v>
       </c>
       <c r="C139" t="n">
-        <v>0.0611693</v>
+        <v>0.0608665</v>
       </c>
       <c r="D139" t="n">
-        <v>0.0612828</v>
+        <v>0.0615117</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.0493257</v>
+        <v>0.0497119</v>
       </c>
       <c r="C140" t="n">
-        <v>0.0617445</v>
+        <v>0.0618258</v>
       </c>
       <c r="D140" t="n">
-        <v>0.0618812</v>
+        <v>0.0621933</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0508783</v>
+        <v>0.0552941</v>
       </c>
       <c r="C141" t="n">
-        <v>0.0624944</v>
+        <v>0.0630269</v>
       </c>
       <c r="D141" t="n">
-        <v>0.0627192</v>
+        <v>0.0631099</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.052998</v>
+        <v>0.0533958</v>
       </c>
       <c r="C142" t="n">
-        <v>0.0634557</v>
+        <v>0.06334190000000001</v>
       </c>
       <c r="D142" t="n">
-        <v>0.06306829999999999</v>
+        <v>0.0637186</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.0556377</v>
+        <v>0.0554712</v>
       </c>
       <c r="C143" t="n">
-        <v>0.06433419999999999</v>
+        <v>0.0646177</v>
       </c>
       <c r="D143" t="n">
-        <v>0.0642664</v>
+        <v>0.064871</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered unsuccessful looukp.xlsx
+++ b/clang-arm64/Scattered unsuccessful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0192249</v>
+        <v>0.0210949</v>
       </c>
       <c r="C2" t="n">
-        <v>0.023109</v>
+        <v>0.0231633</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0229854</v>
+        <v>0.0227703</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0223742</v>
+        <v>0.0234304</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0240684</v>
+        <v>0.0240635</v>
       </c>
       <c r="D3" t="n">
-        <v>0.023637</v>
+        <v>0.0235021</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.027496</v>
+        <v>0.0282019</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0252982</v>
+        <v>0.0252787</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0243427</v>
+        <v>0.0244695</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0347981</v>
+        <v>0.0362677</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0263899</v>
+        <v>0.0265223</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0254614</v>
+        <v>0.0253097</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.052216</v>
+        <v>0.0547367</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0285962</v>
+        <v>0.0283678</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0275793</v>
+        <v>0.0273813</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0701939</v>
+        <v>0.0729846</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0328264</v>
+        <v>0.034822</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0322502</v>
+        <v>0.0318157</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.08847770000000001</v>
+        <v>0.0993623</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0447885</v>
+        <v>0.0443803</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0391146</v>
+        <v>0.0412739</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1189</v>
+        <v>0.112376</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0202483</v>
+        <v>0.0202998</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0209254</v>
+        <v>0.0209538</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0168068</v>
+        <v>0.0166894</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0204001</v>
+        <v>0.0204477</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0210406</v>
+        <v>0.0210466</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0173925</v>
+        <v>0.0171241</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0207061</v>
+        <v>0.0206579</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0212842</v>
+        <v>0.0213249</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0180079</v>
+        <v>0.0176613</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0210058</v>
+        <v>0.0210191</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0215444</v>
+        <v>0.0214411</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0183868</v>
+        <v>0.0183146</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0213757</v>
+        <v>0.021321</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0217189</v>
+        <v>0.0216285</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0194229</v>
+        <v>0.0189675</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0214722</v>
+        <v>0.0214752</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0221545</v>
+        <v>0.0220102</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0211324</v>
+        <v>0.0203916</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0221909</v>
+        <v>0.0220964</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0223306</v>
+        <v>0.0223504</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0227075</v>
+        <v>0.0238541</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0227003</v>
+        <v>0.0226511</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0232474</v>
+        <v>0.0231095</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0277746</v>
+        <v>0.0275409</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0236218</v>
+        <v>0.0235545</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0239604</v>
+        <v>0.0239427</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0333325</v>
+        <v>0.0330184</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0246068</v>
+        <v>0.024656</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0252801</v>
+        <v>0.0250807</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.042368</v>
+        <v>0.040796</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0264222</v>
+        <v>0.0265656</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0263001</v>
+        <v>0.0265035</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0550866</v>
+        <v>0.0550836</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0289967</v>
+        <v>0.0289988</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0288244</v>
+        <v>0.0290063</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.07319929999999999</v>
+        <v>0.06867429999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0343682</v>
+        <v>0.0341951</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0351017</v>
+        <v>0.034405</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0955806</v>
+        <v>0.0909708</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0438272</v>
+        <v>0.0440827</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0442408</v>
+        <v>0.0444324</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.12061</v>
+        <v>0.117656</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0201252</v>
+        <v>0.0200795</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0203983</v>
+        <v>0.0204135</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0165598</v>
+        <v>0.0167207</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0204231</v>
+        <v>0.020361</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0205946</v>
+        <v>0.020587</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0171335</v>
+        <v>0.0172543</v>
       </c>
       <c r="C25" t="n">
-        <v>0.020667</v>
+        <v>0.0206526</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0208265</v>
+        <v>0.0208451</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0178248</v>
+        <v>0.0180533</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0209112</v>
+        <v>0.0208287</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0210099</v>
+        <v>0.0209838</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0189564</v>
+        <v>0.0189624</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0211449</v>
+        <v>0.0211599</v>
       </c>
       <c r="D27" t="n">
-        <v>0.021489</v>
+        <v>0.0215224</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0199935</v>
+        <v>0.0203081</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0216045</v>
+        <v>0.0216265</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0219497</v>
+        <v>0.021988</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.022978</v>
+        <v>0.0221981</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0223854</v>
+        <v>0.0224265</v>
       </c>
       <c r="D29" t="n">
-        <v>0.022494</v>
+        <v>0.0225515</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0254494</v>
+        <v>0.0254604</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0230624</v>
+        <v>0.0230928</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0230956</v>
+        <v>0.0230791</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.029396</v>
+        <v>0.029406</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0239194</v>
+        <v>0.0239597</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0239729</v>
+        <v>0.0239477</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0356928</v>
+        <v>0.0348273</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0253148</v>
+        <v>0.0252682</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0251692</v>
+        <v>0.0250973</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0431107</v>
+        <v>0.043239</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0274572</v>
+        <v>0.0274021</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0269247</v>
+        <v>0.0270114</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.053955</v>
+        <v>0.0533898</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0307304</v>
+        <v>0.030753</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0297583</v>
+        <v>0.0298168</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.06942470000000001</v>
+        <v>0.0690042</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0350098</v>
+        <v>0.0347158</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0350929</v>
+        <v>0.0348133</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.09310889999999999</v>
+        <v>0.0899211</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0427219</v>
+        <v>0.0426008</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0426572</v>
+        <v>0.0425629</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.116954</v>
+        <v>0.117247</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0209555</v>
+        <v>0.0209165</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0209086</v>
+        <v>0.0208576</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0170627</v>
+        <v>0.0172461</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0213449</v>
+        <v>0.0213364</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0211157</v>
+        <v>0.0210804</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0179432</v>
+        <v>0.017914</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0215511</v>
+        <v>0.0215181</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0213843</v>
+        <v>0.0213692</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.018694</v>
+        <v>0.0189726</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0219107</v>
+        <v>0.0221217</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0217008</v>
+        <v>0.0220083</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0199089</v>
+        <v>0.0201709</v>
       </c>
       <c r="C41" t="n">
-        <v>0.022313</v>
+        <v>0.0225875</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0220999</v>
+        <v>0.0224063</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0214966</v>
+        <v>0.0221204</v>
       </c>
       <c r="C42" t="n">
-        <v>0.02273</v>
+        <v>0.0231192</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0226392</v>
+        <v>0.0230663</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0239046</v>
+        <v>0.0242943</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0233668</v>
+        <v>0.0236917</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0231652</v>
+        <v>0.0235892</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0275136</v>
+        <v>0.0272725</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0239816</v>
+        <v>0.0243892</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0240154</v>
+        <v>0.0243843</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.031073</v>
+        <v>0.0318037</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0250017</v>
+        <v>0.0254193</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0251042</v>
+        <v>0.0255287</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0362513</v>
+        <v>0.0374661</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0262655</v>
+        <v>0.0271914</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0264769</v>
+        <v>0.0274779</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0447088</v>
+        <v>0.0463022</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0282078</v>
+        <v>0.0293148</v>
       </c>
       <c r="D47" t="n">
-        <v>0.028554</v>
+        <v>0.0296674</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.054865</v>
+        <v>0.0570872</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0314308</v>
+        <v>0.0326049</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0316172</v>
+        <v>0.0329903</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0690183</v>
+        <v>0.07231949999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0359369</v>
+        <v>0.0374267</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0361474</v>
+        <v>0.0377462</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0896646</v>
+        <v>0.0951361</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0430851</v>
+        <v>0.0451624</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0439341</v>
+        <v>0.0458776</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.114345</v>
+        <v>0.119592</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0218217</v>
+        <v>0.021866</v>
       </c>
       <c r="D51" t="n">
-        <v>0.021808</v>
+        <v>0.021772</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.140838</v>
+        <v>0.141409</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0221452</v>
+        <v>0.0220923</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0220227</v>
+        <v>0.0220078</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0189175</v>
+        <v>0.018985</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0223484</v>
+        <v>0.0223086</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0223452</v>
+        <v>0.0223772</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.020084</v>
+        <v>0.0203427</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0226355</v>
+        <v>0.0226719</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0227421</v>
+        <v>0.0227437</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0215389</v>
+        <v>0.0216643</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0230752</v>
+        <v>0.023079</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0231271</v>
+        <v>0.0231907</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0233446</v>
+        <v>0.0235089</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0235289</v>
+        <v>0.0235821</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0236197</v>
+        <v>0.0236111</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0258947</v>
+        <v>0.0259728</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0241656</v>
+        <v>0.0241854</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0242226</v>
+        <v>0.0242453</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0293051</v>
+        <v>0.029295</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0249362</v>
+        <v>0.0249609</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0250135</v>
+        <v>0.0250245</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0335157</v>
+        <v>0.0334373</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0260231</v>
+        <v>0.0260224</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0261255</v>
+        <v>0.0261074</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0388598</v>
+        <v>0.0389701</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0273073</v>
+        <v>0.0273475</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0276103</v>
+        <v>0.0276266</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0461993</v>
+        <v>0.0459457</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0292628</v>
+        <v>0.0293486</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0295727</v>
+        <v>0.0295666</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0558336</v>
+        <v>0.0553816</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0321517</v>
+        <v>0.0320964</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0324626</v>
+        <v>0.0325165</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0700938</v>
+        <v>0.06898079999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0366552</v>
+        <v>0.0366404</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0366846</v>
+        <v>0.0366972</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0899216</v>
+        <v>0.08879629999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0438627</v>
+        <v>0.0438441</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0436928</v>
+        <v>0.0437695</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.115362</v>
+        <v>0.114696</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0558965</v>
+        <v>0.0558711</v>
       </c>
       <c r="D65" t="n">
-        <v>0.055758</v>
+        <v>0.05574</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.146278</v>
+        <v>0.145515</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0225315</v>
+        <v>0.0225261</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0225948</v>
+        <v>0.0225902</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0198619</v>
+        <v>0.0197513</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0228785</v>
+        <v>0.0228814</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0228902</v>
+        <v>0.0229809</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0210419</v>
+        <v>0.0209595</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0232361</v>
+        <v>0.0232489</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0232742</v>
+        <v>0.0233007</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0226213</v>
+        <v>0.0225005</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0236182</v>
+        <v>0.0236295</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0237429</v>
+        <v>0.0237787</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0245694</v>
+        <v>0.0243273</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0241656</v>
+        <v>0.0242132</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0241777</v>
+        <v>0.0241984</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0270645</v>
+        <v>0.02681</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0247239</v>
+        <v>0.0246956</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0248439</v>
+        <v>0.0248462</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0303378</v>
+        <v>0.0302419</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0255208</v>
+        <v>0.0255615</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0256045</v>
+        <v>0.0256165</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0345312</v>
+        <v>0.0342023</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0264452</v>
+        <v>0.0264937</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0266085</v>
+        <v>0.0266499</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0400365</v>
+        <v>0.0394339</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0277818</v>
+        <v>0.0277434</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0280112</v>
+        <v>0.0280194</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0467676</v>
+        <v>0.0461535</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0296907</v>
+        <v>0.029672</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0300286</v>
+        <v>0.0299851</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0560622</v>
+        <v>0.0554365</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0324076</v>
+        <v>0.032461</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0329093</v>
+        <v>0.0329054</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.069385</v>
+        <v>0.068009</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0366656</v>
+        <v>0.0366672</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0369453</v>
+        <v>0.0369982</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0877729</v>
+        <v>0.0863194</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0428721</v>
+        <v>0.0429703</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0433667</v>
+        <v>0.0434148</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.112171</v>
+        <v>0.111134</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0536662</v>
+        <v>0.053625</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0544473</v>
+        <v>0.0544653</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.143439</v>
+        <v>0.141372</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0227709</v>
+        <v>0.022771</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0228929</v>
+        <v>0.0228971</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0202408</v>
+        <v>0.0203375</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0231419</v>
+        <v>0.0231343</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0231788</v>
+        <v>0.0232611</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0211947</v>
+        <v>0.0212506</v>
       </c>
       <c r="C82" t="n">
-        <v>0.023487</v>
+        <v>0.0235043</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0235689</v>
+        <v>0.0236142</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0228339</v>
+        <v>0.0229888</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0239445</v>
+        <v>0.0239034</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0240708</v>
+        <v>0.0240855</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0251818</v>
+        <v>0.0246357</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0243916</v>
+        <v>0.0244676</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0246865</v>
+        <v>0.0246911</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0275126</v>
+        <v>0.0270875</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0250369</v>
+        <v>0.0250815</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0252575</v>
+        <v>0.0252835</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0304602</v>
+        <v>0.0305218</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0259484</v>
+        <v>0.0259216</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0261663</v>
+        <v>0.0261492</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0345697</v>
+        <v>0.0341083</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0269929</v>
+        <v>0.0269289</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0271609</v>
+        <v>0.0271914</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0393756</v>
+        <v>0.0392505</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0283357</v>
+        <v>0.0282698</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0285424</v>
+        <v>0.0285796</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0456667</v>
+        <v>0.045764</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0300363</v>
+        <v>0.0299897</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0304115</v>
+        <v>0.0303746</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0544167</v>
+        <v>0.0545518</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0326381</v>
+        <v>0.0325391</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0328705</v>
+        <v>0.0329133</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0664767</v>
+        <v>0.0667205</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0361028</v>
+        <v>0.0360797</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0364576</v>
+        <v>0.0364917</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0834585</v>
+        <v>0.0843067</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0417002</v>
+        <v>0.041684</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0420732</v>
+        <v>0.0421491</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.106586</v>
+        <v>0.107408</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0510605</v>
+        <v>0.0509083</v>
       </c>
       <c r="D93" t="n">
-        <v>0.051422</v>
+        <v>0.0513751</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.137006</v>
+        <v>0.137901</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0243587</v>
+        <v>0.0244268</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0243331</v>
+        <v>0.0243866</v>
       </c>
     </row>
     <row r="95">
@@ -4548,10 +4548,10 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0205894</v>
+        <v>0.020497</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0248431</v>
+        <v>0.0248371</v>
       </c>
       <c r="D95" t="n">
         <v>0.0248591</v>
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0223061</v>
+        <v>0.0223256</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0254046</v>
+        <v>0.0253963</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0254004</v>
+        <v>0.0254076</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0235208</v>
+        <v>0.0233488</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0259468</v>
+        <v>0.0259105</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0259761</v>
+        <v>0.0259678</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0251688</v>
+        <v>0.0252096</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0268671</v>
+        <v>0.0266377</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0268091</v>
+        <v>0.0267964</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0274944</v>
+        <v>0.0275586</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0283632</v>
+        <v>0.0279832</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0282487</v>
+        <v>0.0280004</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0303863</v>
+        <v>0.0302386</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0304568</v>
+        <v>0.0300722</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0303209</v>
+        <v>0.0301661</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0344105</v>
+        <v>0.034237</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0332752</v>
+        <v>0.0331775</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0333541</v>
+        <v>0.0331094</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0396659</v>
+        <v>0.039974</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0364241</v>
+        <v>0.0362011</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0364748</v>
+        <v>0.0363412</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0462237</v>
+        <v>0.0462528</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0395224</v>
+        <v>0.0394415</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0396394</v>
+        <v>0.0396486</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0542776</v>
+        <v>0.0544938</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0427674</v>
+        <v>0.042767</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0428224</v>
+        <v>0.0426063</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.065557</v>
+        <v>0.0656122</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0462301</v>
+        <v>0.0464553</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0462752</v>
+        <v>0.0464186</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.08118590000000001</v>
+        <v>0.08124439999999999</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0506921</v>
+        <v>0.0507044</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0509395</v>
+        <v>0.0509272</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.102971</v>
+        <v>0.103099</v>
       </c>
       <c r="C107" t="n">
-        <v>0.0576796</v>
+        <v>0.0576598</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0577927</v>
+        <v>0.0576947</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.132322</v>
+        <v>0.13235</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0361327</v>
+        <v>0.0361848</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0361508</v>
+        <v>0.0363839</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.167999</v>
+        <v>0.167824</v>
       </c>
       <c r="C109" t="n">
-        <v>0.0371621</v>
+        <v>0.0370808</v>
       </c>
       <c r="D109" t="n">
-        <v>0.037211</v>
+        <v>0.0372704</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0314084</v>
+        <v>0.0316205</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0380336</v>
+        <v>0.0379321</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0381589</v>
+        <v>0.0380191</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0327967</v>
+        <v>0.032927</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0388296</v>
+        <v>0.0388013</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0388899</v>
+        <v>0.0389475</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0339716</v>
+        <v>0.0344704</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0396451</v>
+        <v>0.0396456</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0396917</v>
+        <v>0.0397719</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0361056</v>
+        <v>0.0361523</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0408363</v>
+        <v>0.0406381</v>
       </c>
       <c r="D113" t="n">
-        <v>0.040604</v>
+        <v>0.0407636</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0383736</v>
+        <v>0.0382859</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0415387</v>
+        <v>0.0415367</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0415113</v>
+        <v>0.0416857</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.040601</v>
+        <v>0.0409613</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0426938</v>
+        <v>0.042749</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0427032</v>
+        <v>0.0428431</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.0441199</v>
+        <v>0.044505</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0438436</v>
+        <v>0.0440944</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0440202</v>
+        <v>0.0440925</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.0488138</v>
+        <v>0.048902</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0455844</v>
+        <v>0.0456243</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0456837</v>
+        <v>0.0456529</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.0551593</v>
+        <v>0.0556437</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0475122</v>
+        <v>0.0474937</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0476229</v>
+        <v>0.0477652</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.064941</v>
+        <v>0.065068</v>
       </c>
       <c r="C119" t="n">
-        <v>0.0501553</v>
+        <v>0.0501607</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0502274</v>
+        <v>0.0502091</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.0791023</v>
+        <v>0.0796779</v>
       </c>
       <c r="C120" t="n">
-        <v>0.0540144</v>
+        <v>0.0538303</v>
       </c>
       <c r="D120" t="n">
-        <v>0.0541062</v>
+        <v>0.054389</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.09998659999999999</v>
+        <v>0.101002</v>
       </c>
       <c r="C121" t="n">
-        <v>0.0598557</v>
+        <v>0.0601147</v>
       </c>
       <c r="D121" t="n">
-        <v>0.059929</v>
+        <v>0.0601602</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.128104</v>
+        <v>0.128509</v>
       </c>
       <c r="C122" t="n">
-        <v>0.0701746</v>
+        <v>0.07025729999999999</v>
       </c>
       <c r="D122" t="n">
-        <v>0.07037590000000001</v>
+        <v>0.07058159999999999</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.163936</v>
+        <v>0.163665</v>
       </c>
       <c r="C123" t="n">
-        <v>0.041489</v>
+        <v>0.042302</v>
       </c>
       <c r="D123" t="n">
-        <v>0.0416051</v>
+        <v>0.0415277</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.0343336</v>
+        <v>0.0339231</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0421567</v>
+        <v>0.0430147</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0420709</v>
+        <v>0.0429517</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.0357226</v>
+        <v>0.0353432</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0431531</v>
+        <v>0.0438235</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0437271</v>
+        <v>0.0436728</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.0368952</v>
+        <v>0.0369151</v>
       </c>
       <c r="C126" t="n">
-        <v>0.044303</v>
+        <v>0.0460975</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0444044</v>
+        <v>0.0449016</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.0387991</v>
+        <v>0.0383977</v>
       </c>
       <c r="C127" t="n">
-        <v>0.0452368</v>
+        <v>0.045609</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0450003</v>
+        <v>0.0457408</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0406645</v>
+        <v>0.0406163</v>
       </c>
       <c r="C128" t="n">
-        <v>0.0462415</v>
+        <v>0.0466147</v>
       </c>
       <c r="D128" t="n">
-        <v>0.0462534</v>
+        <v>0.0464128</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0435707</v>
+        <v>0.0432631</v>
       </c>
       <c r="C129" t="n">
-        <v>0.0472314</v>
+        <v>0.0476904</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0476159</v>
+        <v>0.0476361</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0477367</v>
+        <v>0.0468404</v>
       </c>
       <c r="C130" t="n">
-        <v>0.048667</v>
+        <v>0.0490053</v>
       </c>
       <c r="D130" t="n">
-        <v>0.0486632</v>
+        <v>0.048956</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0519255</v>
+        <v>0.0512943</v>
       </c>
       <c r="C131" t="n">
-        <v>0.0501007</v>
+        <v>0.0506561</v>
       </c>
       <c r="D131" t="n">
-        <v>0.0502301</v>
+        <v>0.0504234</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0590065</v>
+        <v>0.058241</v>
       </c>
       <c r="C132" t="n">
-        <v>0.0522412</v>
+        <v>0.0542261</v>
       </c>
       <c r="D132" t="n">
-        <v>0.0522624</v>
+        <v>0.052754</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.0680857</v>
+        <v>0.06713330000000001</v>
       </c>
       <c r="C133" t="n">
-        <v>0.0548307</v>
+        <v>0.0554164</v>
       </c>
       <c r="D133" t="n">
-        <v>0.0549231</v>
+        <v>0.0553632</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.08213040000000001</v>
+        <v>0.0827743</v>
       </c>
       <c r="C134" t="n">
-        <v>0.0586967</v>
+        <v>0.0592762</v>
       </c>
       <c r="D134" t="n">
-        <v>0.0588639</v>
+        <v>0.0594044</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.102165</v>
+        <v>0.102743</v>
       </c>
       <c r="C135" t="n">
-        <v>0.06458949999999999</v>
+        <v>0.0652563</v>
       </c>
       <c r="D135" t="n">
-        <v>0.0646352</v>
+        <v>0.0655982</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.129436</v>
+        <v>0.129595</v>
       </c>
       <c r="C136" t="n">
-        <v>0.07444480000000001</v>
+        <v>0.08308649999999999</v>
       </c>
       <c r="D136" t="n">
-        <v>0.0744819</v>
+        <v>0.08112080000000001</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.164948</v>
+        <v>0.177496</v>
       </c>
       <c r="C137" t="n">
-        <v>0.05943</v>
+        <v>0.06991459999999999</v>
       </c>
       <c r="D137" t="n">
-        <v>0.060208</v>
+        <v>0.0715905</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0469979</v>
+        <v>0.0562695</v>
       </c>
       <c r="C138" t="n">
-        <v>0.0603807</v>
+        <v>0.0753089</v>
       </c>
       <c r="D138" t="n">
-        <v>0.0608151</v>
+        <v>0.0744841</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0484498</v>
+        <v>0.0563613</v>
       </c>
       <c r="C139" t="n">
-        <v>0.0608665</v>
+        <v>0.0710279</v>
       </c>
       <c r="D139" t="n">
-        <v>0.0615117</v>
+        <v>0.0741589</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.0497119</v>
+        <v>0.057271</v>
       </c>
       <c r="C140" t="n">
-        <v>0.0618258</v>
+        <v>0.0732662</v>
       </c>
       <c r="D140" t="n">
-        <v>0.0621933</v>
+        <v>0.07499400000000001</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0552941</v>
+        <v>0.0622541</v>
       </c>
       <c r="C141" t="n">
-        <v>0.0630269</v>
+        <v>0.07566199999999999</v>
       </c>
       <c r="D141" t="n">
-        <v>0.0631099</v>
+        <v>0.07473</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.0533958</v>
+        <v>0.0600778</v>
       </c>
       <c r="C142" t="n">
-        <v>0.06334190000000001</v>
+        <v>0.0748648</v>
       </c>
       <c r="D142" t="n">
-        <v>0.0637186</v>
+        <v>0.0777883</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.0554712</v>
+        <v>0.0655842</v>
       </c>
       <c r="C143" t="n">
-        <v>0.0646177</v>
+        <v>0.0781583</v>
       </c>
       <c r="D143" t="n">
-        <v>0.064871</v>
+        <v>0.0889934</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered unsuccessful looukp.xlsx
+++ b/clang-arm64/Scattered unsuccessful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0210949</v>
+        <v>0.0196541</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0231633</v>
+        <v>0.0236953</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0227703</v>
+        <v>0.0628543</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0234304</v>
+        <v>0.022714</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0240635</v>
+        <v>0.0249792</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0235021</v>
+        <v>0.0664814</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0282019</v>
+        <v>0.0280732</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0252787</v>
+        <v>0.0258301</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0244695</v>
+        <v>0.07155309999999999</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0362677</v>
+        <v>0.0383508</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0265223</v>
+        <v>0.027365</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0253097</v>
+        <v>0.0787023</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0547367</v>
+        <v>0.052548</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0283678</v>
+        <v>0.0285038</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0273813</v>
+        <v>0.0762729</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0729846</v>
+        <v>0.066875</v>
       </c>
       <c r="C7" t="n">
-        <v>0.034822</v>
+        <v>0.0328798</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0318157</v>
+        <v>0.0596881</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0993623</v>
+        <v>0.0901585</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0443803</v>
+        <v>0.0393672</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0412739</v>
+        <v>0.0581592</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.112376</v>
+        <v>0.118385</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0202998</v>
+        <v>0.0204906</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0209538</v>
+        <v>0.0642033</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0166894</v>
+        <v>0.0166794</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0204477</v>
+        <v>0.0206485</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0210466</v>
+        <v>0.066584</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0171241</v>
+        <v>0.017095</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0206579</v>
+        <v>0.0211179</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0213249</v>
+        <v>0.07067469999999999</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0176613</v>
+        <v>0.0175332</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0210191</v>
+        <v>0.0213</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0214411</v>
+        <v>0.07539460000000001</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0183146</v>
+        <v>0.0179948</v>
       </c>
       <c r="C13" t="n">
-        <v>0.021321</v>
+        <v>0.0216018</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0216285</v>
+        <v>0.0776222</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0189675</v>
+        <v>0.0186281</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0214752</v>
+        <v>0.0219038</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0220102</v>
+        <v>0.08080030000000001</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0203916</v>
+        <v>0.0208214</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0220964</v>
+        <v>0.0225654</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0223504</v>
+        <v>0.08254499999999999</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0238541</v>
+        <v>0.0229571</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0226511</v>
+        <v>0.0230834</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0231095</v>
+        <v>0.0868236</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0275409</v>
+        <v>0.0261478</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0235545</v>
+        <v>0.0241669</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0239427</v>
+        <v>0.0901443</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0330184</v>
+        <v>0.0314248</v>
       </c>
       <c r="C18" t="n">
-        <v>0.024656</v>
+        <v>0.0251919</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0250807</v>
+        <v>0.09041780000000001</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.040796</v>
+        <v>0.0425587</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0265656</v>
+        <v>0.0266921</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0265035</v>
+        <v>0.09432</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0550836</v>
+        <v>0.0519527</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0289988</v>
+        <v>0.028982</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0290063</v>
+        <v>0.0970657</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.06867429999999999</v>
+        <v>0.07000199999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0341951</v>
+        <v>0.0333148</v>
       </c>
       <c r="D21" t="n">
-        <v>0.034405</v>
+        <v>0.0672951</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0909708</v>
+        <v>0.0890392</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0440827</v>
+        <v>0.041356</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0444324</v>
+        <v>0.0716408</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.117656</v>
+        <v>0.119166</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0200795</v>
+        <v>0.0202092</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0204135</v>
+        <v>0.0714137</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0167207</v>
+        <v>0.0162997</v>
       </c>
       <c r="C24" t="n">
-        <v>0.020361</v>
+        <v>0.0206159</v>
       </c>
       <c r="D24" t="n">
-        <v>0.020587</v>
+        <v>0.0762883</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0172543</v>
+        <v>0.0169862</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0206526</v>
+        <v>0.0208339</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0208451</v>
+        <v>0.0788282</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0180533</v>
+        <v>0.0176941</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0208287</v>
+        <v>0.0210765</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0209838</v>
+        <v>0.0817253</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0189624</v>
+        <v>0.0184008</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0211599</v>
+        <v>0.0214492</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0215224</v>
+        <v>0.0845086</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0203081</v>
+        <v>0.0198508</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0216265</v>
+        <v>0.0218967</v>
       </c>
       <c r="D28" t="n">
-        <v>0.021988</v>
+        <v>0.0872682</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0221981</v>
+        <v>0.0220004</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0224265</v>
+        <v>0.0226372</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0225515</v>
+        <v>0.0900213</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0254604</v>
+        <v>0.0252038</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0230928</v>
+        <v>0.023422</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0230791</v>
+        <v>0.0922123</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.029406</v>
+        <v>0.029776</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0239597</v>
+        <v>0.0242916</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0239477</v>
+        <v>0.0951592</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0348273</v>
+        <v>0.0355674</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0252682</v>
+        <v>0.0254245</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0250973</v>
+        <v>0.0965795</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.043239</v>
+        <v>0.0445372</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0274021</v>
+        <v>0.0274613</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0270114</v>
+        <v>0.0983135</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0533898</v>
+        <v>0.0557284</v>
       </c>
       <c r="C34" t="n">
-        <v>0.030753</v>
+        <v>0.030458</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0298168</v>
+        <v>0.101668</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0690042</v>
+        <v>0.0722409</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0347158</v>
+        <v>0.0342121</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0348133</v>
+        <v>0.06976019999999999</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0899211</v>
+        <v>0.0937438</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0426008</v>
+        <v>0.040763</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0425629</v>
+        <v>0.0732333</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.117247</v>
+        <v>0.120898</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0209165</v>
+        <v>0.0210932</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0208576</v>
+        <v>0.07563</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0172461</v>
+        <v>0.017101</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0213364</v>
+        <v>0.0214487</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0210804</v>
+        <v>0.07849739999999999</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.017914</v>
+        <v>0.0179106</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0215181</v>
+        <v>0.0217322</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0213692</v>
+        <v>0.082784</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0189726</v>
+        <v>0.0187733</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0221217</v>
+        <v>0.0220884</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0220083</v>
+        <v>0.08502469999999999</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0201709</v>
+        <v>0.0201048</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0225875</v>
+        <v>0.0225227</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0224063</v>
+        <v>0.0879409</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0221204</v>
+        <v>0.0218759</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0231192</v>
+        <v>0.022985</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0230663</v>
+        <v>0.091546</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0242943</v>
+        <v>0.0240552</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0236917</v>
+        <v>0.0235789</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0235892</v>
+        <v>0.0944207</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0272725</v>
+        <v>0.0282097</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0243892</v>
+        <v>0.0242082</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0243843</v>
+        <v>0.0970037</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0318037</v>
+        <v>0.0323602</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0254193</v>
+        <v>0.0251386</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0255287</v>
+        <v>0.0991208</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0374661</v>
+        <v>0.0379086</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0271914</v>
+        <v>0.026316</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0274779</v>
+        <v>0.101009</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0463022</v>
+        <v>0.045608</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0293148</v>
+        <v>0.0281349</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0296674</v>
+        <v>0.103707</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0570872</v>
+        <v>0.056116</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0326049</v>
+        <v>0.0309591</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0329903</v>
+        <v>0.105854</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.07231949999999999</v>
+        <v>0.0707222</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0374267</v>
+        <v>0.0351441</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0377462</v>
+        <v>0.108622</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0951361</v>
+        <v>0.0919893</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0451624</v>
+        <v>0.0422416</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0458776</v>
+        <v>0.07991180000000001</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.119592</v>
+        <v>0.118674</v>
       </c>
       <c r="C51" t="n">
-        <v>0.021866</v>
+        <v>0.0221848</v>
       </c>
       <c r="D51" t="n">
-        <v>0.021772</v>
+        <v>0.0852565</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.141409</v>
+        <v>0.145772</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0220923</v>
+        <v>0.0226422</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0220078</v>
+        <v>0.09070300000000001</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.018985</v>
+        <v>0.0196284</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0223086</v>
+        <v>0.0230127</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0223772</v>
+        <v>0.100166</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0203427</v>
+        <v>0.0208398</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0226719</v>
+        <v>0.0233388</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0227437</v>
+        <v>0.104121</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0216643</v>
+        <v>0.0223922</v>
       </c>
       <c r="C55" t="n">
-        <v>0.023079</v>
+        <v>0.0237292</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0231907</v>
+        <v>0.110505</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0235089</v>
+        <v>0.0244506</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0235821</v>
+        <v>0.0243318</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0236111</v>
+        <v>0.118017</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0259728</v>
+        <v>0.026822</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0241854</v>
+        <v>0.0249093</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0242453</v>
+        <v>0.134799</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.029295</v>
+        <v>0.0309899</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0249609</v>
+        <v>0.0260608</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0250245</v>
+        <v>0.150714</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0334373</v>
+        <v>0.0354207</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0260224</v>
+        <v>0.0270795</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0261074</v>
+        <v>0.149598</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0389701</v>
+        <v>0.0417881</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0273475</v>
+        <v>0.0277862</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0276266</v>
+        <v>0.106064</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0459457</v>
+        <v>0.0476276</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0293486</v>
+        <v>0.0291051</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0295666</v>
+        <v>0.110453</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0553816</v>
+        <v>0.0572692</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0320964</v>
+        <v>0.0317252</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0325165</v>
+        <v>0.112451</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.06898079999999999</v>
+        <v>0.0716026</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0366404</v>
+        <v>0.0360878</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0366972</v>
+        <v>0.114784</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.08879629999999999</v>
+        <v>0.0905608</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0438441</v>
+        <v>0.0429958</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0437695</v>
+        <v>0.0808511</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.114696</v>
+        <v>0.116785</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0558711</v>
+        <v>0.0551095</v>
       </c>
       <c r="D65" t="n">
-        <v>0.05574</v>
+        <v>0.0851362</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.145515</v>
+        <v>0.147933</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0225261</v>
+        <v>0.0226031</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0225902</v>
+        <v>0.0905902</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0197513</v>
+        <v>0.0197012</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0228814</v>
+        <v>0.0229372</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0229809</v>
+        <v>0.0957775</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0209595</v>
+        <v>0.0211376</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0232489</v>
+        <v>0.0232973</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0233007</v>
+        <v>0.09995809999999999</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0225005</v>
+        <v>0.0228213</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0236295</v>
+        <v>0.023692</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0237787</v>
+        <v>0.105452</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0243273</v>
+        <v>0.0247479</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0242132</v>
+        <v>0.0242143</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0241984</v>
+        <v>0.110664</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.02681</v>
+        <v>0.0274354</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0246956</v>
+        <v>0.0247678</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0248462</v>
+        <v>0.115302</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0302419</v>
+        <v>0.0306606</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0255615</v>
+        <v>0.0255057</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0256165</v>
+        <v>0.119763</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0342023</v>
+        <v>0.0349113</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0264937</v>
+        <v>0.0263971</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0266499</v>
+        <v>0.125554</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0394339</v>
+        <v>0.0401967</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0277434</v>
+        <v>0.0276756</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0280194</v>
+        <v>0.130129</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0461535</v>
+        <v>0.0468474</v>
       </c>
       <c r="C75" t="n">
-        <v>0.029672</v>
+        <v>0.0295323</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0299851</v>
+        <v>0.134996</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0554365</v>
+        <v>0.0560401</v>
       </c>
       <c r="C76" t="n">
-        <v>0.032461</v>
+        <v>0.0321746</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0329054</v>
+        <v>0.141567</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.068009</v>
+        <v>0.0688926</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0366672</v>
+        <v>0.0363344</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0369982</v>
+        <v>0.147833</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0863194</v>
+        <v>0.0873152</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0429703</v>
+        <v>0.0425489</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0434148</v>
+        <v>0.113894</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.111134</v>
+        <v>0.112319</v>
       </c>
       <c r="C79" t="n">
-        <v>0.053625</v>
+        <v>0.0534234</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0544653</v>
+        <v>0.121926</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.141372</v>
+        <v>0.143939</v>
       </c>
       <c r="C80" t="n">
-        <v>0.022771</v>
+        <v>0.0228514</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0228971</v>
+        <v>0.12561</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0203375</v>
+        <v>0.0198688</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0231343</v>
+        <v>0.0231978</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0232611</v>
+        <v>0.134696</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0212506</v>
+        <v>0.0212272</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0235043</v>
+        <v>0.0235633</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0236142</v>
+        <v>0.13899</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0229888</v>
+        <v>0.0227931</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0239034</v>
+        <v>0.0239172</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0240855</v>
+        <v>0.149483</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0246357</v>
+        <v>0.0248234</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0244676</v>
+        <v>0.0244035</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0246911</v>
+        <v>0.154065</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0270875</v>
+        <v>0.0274348</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0250815</v>
+        <v>0.025024</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0252835</v>
+        <v>0.163029</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0305218</v>
+        <v>0.0304566</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0259216</v>
+        <v>0.0259339</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0261492</v>
+        <v>0.167705</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0341083</v>
+        <v>0.03421</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0269289</v>
+        <v>0.0269228</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0271914</v>
+        <v>0.178539</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0392505</v>
+        <v>0.0392722</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0282698</v>
+        <v>0.0282665</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0285796</v>
+        <v>0.186083</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.045764</v>
+        <v>0.0457853</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0299897</v>
+        <v>0.0299743</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0303746</v>
+        <v>0.189656</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0545518</v>
+        <v>0.0543613</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0325391</v>
+        <v>0.0325068</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0329133</v>
+        <v>0.197145</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0667205</v>
+        <v>0.0667861</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0360797</v>
+        <v>0.03601</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0364917</v>
+        <v>0.214136</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0843067</v>
+        <v>0.0837842</v>
       </c>
       <c r="C92" t="n">
-        <v>0.041684</v>
+        <v>0.0416961</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0421491</v>
+        <v>0.155917</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.107408</v>
+        <v>0.107021</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0509083</v>
+        <v>0.0509443</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0513751</v>
+        <v>0.163239</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.137901</v>
+        <v>0.138367</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0244268</v>
+        <v>0.0243696</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0243866</v>
+        <v>0.170659</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.020497</v>
+        <v>0.0206107</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0248371</v>
+        <v>0.0248253</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0248591</v>
+        <v>0.176032</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0223256</v>
+        <v>0.021977</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0253963</v>
+        <v>0.0253215</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0254076</v>
+        <v>0.180564</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0233488</v>
+        <v>0.0236946</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0259105</v>
+        <v>0.0259145</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0259678</v>
+        <v>0.187866</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0252096</v>
+        <v>0.0252601</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0266377</v>
+        <v>0.0267649</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0267964</v>
+        <v>0.197686</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0275586</v>
+        <v>0.0278301</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0279832</v>
+        <v>0.0281154</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0280004</v>
+        <v>0.205106</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0302386</v>
+        <v>0.0304313</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0300722</v>
+        <v>0.0301922</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0301661</v>
+        <v>0.213378</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.034237</v>
+        <v>0.0347894</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0331775</v>
+        <v>0.0330066</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0331094</v>
+        <v>0.22001</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.039974</v>
+        <v>0.0397493</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0362011</v>
+        <v>0.0364155</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0363412</v>
+        <v>0.227646</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0462528</v>
+        <v>0.0462983</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0394415</v>
+        <v>0.0397311</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0396486</v>
+        <v>0.235713</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0544938</v>
+        <v>0.0543709</v>
       </c>
       <c r="C104" t="n">
-        <v>0.042767</v>
+        <v>0.0428055</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0426063</v>
+        <v>0.243297</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0656122</v>
+        <v>0.0656243</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0464553</v>
+        <v>0.0463608</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0464186</v>
+        <v>0.252123</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.08124439999999999</v>
+        <v>0.0814584</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0507044</v>
+        <v>0.0508278</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0509272</v>
+        <v>0.261676</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.103099</v>
+        <v>0.103239</v>
       </c>
       <c r="C107" t="n">
-        <v>0.0576598</v>
+        <v>0.0575807</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0576947</v>
+        <v>0.190199</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.13235</v>
+        <v>0.133268</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0361848</v>
+        <v>0.0361449</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0363839</v>
+        <v>0.197145</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.167824</v>
+        <v>0.169441</v>
       </c>
       <c r="C109" t="n">
-        <v>0.0370808</v>
+        <v>0.0368822</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0372704</v>
+        <v>0.204605</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0316205</v>
+        <v>0.0309188</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0379321</v>
+        <v>0.0379133</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0380191</v>
+        <v>0.21028</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.032927</v>
+        <v>0.0323647</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0388013</v>
+        <v>0.0388181</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0389475</v>
+        <v>0.217256</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0344704</v>
+        <v>0.034075</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0396456</v>
+        <v>0.0396854</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0397719</v>
+        <v>0.224583</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0361523</v>
+        <v>0.0358327</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0406381</v>
+        <v>0.0406322</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0407636</v>
+        <v>0.233435</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0382859</v>
+        <v>0.0383382</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0415367</v>
+        <v>0.0416831</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0416857</v>
+        <v>0.241083</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.0409613</v>
+        <v>0.0406737</v>
       </c>
       <c r="C115" t="n">
-        <v>0.042749</v>
+        <v>0.0427634</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0428431</v>
+        <v>0.248226</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.044505</v>
+        <v>0.0441246</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0440944</v>
+        <v>0.0439657</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0440925</v>
+        <v>0.256309</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.048902</v>
+        <v>0.048723</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0456243</v>
+        <v>0.0456052</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0456529</v>
+        <v>0.263815</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.0556437</v>
+        <v>0.0551746</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0474937</v>
+        <v>0.0476259</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0477652</v>
+        <v>0.272729</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.065068</v>
+        <v>0.0650047</v>
       </c>
       <c r="C119" t="n">
-        <v>0.0501607</v>
+        <v>0.0501364</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0502091</v>
+        <v>0.281114</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.0796779</v>
+        <v>0.07941529999999999</v>
       </c>
       <c r="C120" t="n">
-        <v>0.0538303</v>
+        <v>0.0541071</v>
       </c>
       <c r="D120" t="n">
-        <v>0.054389</v>
+        <v>0.29099</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.101002</v>
+        <v>0.100142</v>
       </c>
       <c r="C121" t="n">
-        <v>0.0601147</v>
+        <v>0.0600156</v>
       </c>
       <c r="D121" t="n">
-        <v>0.0601602</v>
+        <v>0.206413</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.128509</v>
+        <v>0.128345</v>
       </c>
       <c r="C122" t="n">
-        <v>0.07025729999999999</v>
+        <v>0.0702492</v>
       </c>
       <c r="D122" t="n">
-        <v>0.07058159999999999</v>
+        <v>0.211988</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.163665</v>
+        <v>0.16426</v>
       </c>
       <c r="C123" t="n">
-        <v>0.042302</v>
+        <v>0.0426162</v>
       </c>
       <c r="D123" t="n">
-        <v>0.0415277</v>
+        <v>0.218375</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.0339231</v>
+        <v>0.0340693</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0430147</v>
+        <v>0.0433137</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0429517</v>
+        <v>0.225371</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.0353432</v>
+        <v>0.035891</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0438235</v>
+        <v>0.0441334</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0436728</v>
+        <v>0.233023</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.0369151</v>
+        <v>0.0369158</v>
       </c>
       <c r="C126" t="n">
-        <v>0.0460975</v>
+        <v>0.0448138</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0449016</v>
+        <v>0.239145</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.0383977</v>
+        <v>0.0387195</v>
       </c>
       <c r="C127" t="n">
-        <v>0.045609</v>
+        <v>0.0457069</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0457408</v>
+        <v>0.246948</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0406163</v>
+        <v>0.0407176</v>
       </c>
       <c r="C128" t="n">
-        <v>0.0466147</v>
+        <v>0.0468309</v>
       </c>
       <c r="D128" t="n">
-        <v>0.0464128</v>
+        <v>0.254198</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0432631</v>
+        <v>0.0435753</v>
       </c>
       <c r="C129" t="n">
-        <v>0.0476904</v>
+        <v>0.047681</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0476361</v>
+        <v>0.261944</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0468404</v>
+        <v>0.0474413</v>
       </c>
       <c r="C130" t="n">
-        <v>0.0490053</v>
+        <v>0.0488768</v>
       </c>
       <c r="D130" t="n">
-        <v>0.048956</v>
+        <v>0.270874</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0512943</v>
+        <v>0.0518101</v>
       </c>
       <c r="C131" t="n">
-        <v>0.0506561</v>
+        <v>0.0504662</v>
       </c>
       <c r="D131" t="n">
-        <v>0.0504234</v>
+        <v>0.277744</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.058241</v>
+        <v>0.0586713</v>
       </c>
       <c r="C132" t="n">
-        <v>0.0542261</v>
+        <v>0.0524585</v>
       </c>
       <c r="D132" t="n">
-        <v>0.052754</v>
+        <v>0.285401</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.06713330000000001</v>
+        <v>0.06794360000000001</v>
       </c>
       <c r="C133" t="n">
-        <v>0.0554164</v>
+        <v>0.0553225</v>
       </c>
       <c r="D133" t="n">
-        <v>0.0553632</v>
+        <v>0.294939</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.0827743</v>
+        <v>0.0817268</v>
       </c>
       <c r="C134" t="n">
-        <v>0.0592762</v>
+        <v>0.0590454</v>
       </c>
       <c r="D134" t="n">
-        <v>0.0594044</v>
+        <v>0.304154</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.102743</v>
+        <v>0.101445</v>
       </c>
       <c r="C135" t="n">
-        <v>0.0652563</v>
+        <v>0.0649672</v>
       </c>
       <c r="D135" t="n">
-        <v>0.0655982</v>
+        <v>0.212796</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.129595</v>
+        <v>0.129425</v>
       </c>
       <c r="C136" t="n">
-        <v>0.08308649999999999</v>
+        <v>0.07502730000000001</v>
       </c>
       <c r="D136" t="n">
-        <v>0.08112080000000001</v>
+        <v>0.219404</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.177496</v>
+        <v>0.163873</v>
       </c>
       <c r="C137" t="n">
-        <v>0.06991459999999999</v>
+        <v>0.0609618</v>
       </c>
       <c r="D137" t="n">
-        <v>0.0715905</v>
+        <v>0.226867</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0562695</v>
+        <v>0.0473433</v>
       </c>
       <c r="C138" t="n">
-        <v>0.0753089</v>
+        <v>0.0606272</v>
       </c>
       <c r="D138" t="n">
-        <v>0.0744841</v>
+        <v>0.233183</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0563613</v>
+        <v>0.0531312</v>
       </c>
       <c r="C139" t="n">
-        <v>0.0710279</v>
+        <v>0.0716113</v>
       </c>
       <c r="D139" t="n">
-        <v>0.0741589</v>
+        <v>0.258776</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.057271</v>
+        <v>0.058706</v>
       </c>
       <c r="C140" t="n">
-        <v>0.0732662</v>
+        <v>0.0740532</v>
       </c>
       <c r="D140" t="n">
-        <v>0.07499400000000001</v>
+        <v>0.2671</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0622541</v>
+        <v>0.0582968</v>
       </c>
       <c r="C141" t="n">
-        <v>0.07566199999999999</v>
+        <v>0.075507</v>
       </c>
       <c r="D141" t="n">
-        <v>0.07473</v>
+        <v>0.259936</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.0600778</v>
+        <v>0.0553286</v>
       </c>
       <c r="C142" t="n">
-        <v>0.0748648</v>
+        <v>0.0709659</v>
       </c>
       <c r="D142" t="n">
-        <v>0.0777883</v>
+        <v>0.270609</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.0655842</v>
+        <v>0.0675741</v>
       </c>
       <c r="C143" t="n">
-        <v>0.0781583</v>
+        <v>0.0822119</v>
       </c>
       <c r="D143" t="n">
-        <v>0.0889934</v>
+        <v>0.281995</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered unsuccessful looukp.xlsx
+++ b/clang-arm64/Scattered unsuccessful looukp.xlsx
@@ -552,430 +552,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.020381</v>
+                  <v>0.0196541</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0231567</v>
+                  <v>0.022714</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0281757</v>
+                  <v>0.0280732</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0352799</v>
+                  <v>0.0383508</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.04539</v>
+                  <v>0.052548</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.06491429999999999</v>
+                  <v>0.066875</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0891632</v>
+                  <v>0.0901585</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.112722</v>
+                  <v>0.118385</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.017053</v>
+                  <v>0.0166794</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0176131</v>
+                  <v>0.017095</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.018294</v>
+                  <v>0.0175332</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.019009</v>
+                  <v>0.0179948</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0202027</v>
+                  <v>0.0186281</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0216873</v>
+                  <v>0.0208214</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0238871</v>
+                  <v>0.0229571</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0283309</v>
+                  <v>0.0261478</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0347629</v>
+                  <v>0.0314248</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0427405</v>
+                  <v>0.0425587</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0557526</v>
+                  <v>0.0519527</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0731723</v>
+                  <v>0.07000199999999999</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0958377</v>
+                  <v>0.0890392</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.12115</v>
+                  <v>0.119166</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0167999</v>
+                  <v>0.0162997</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.017383</v>
+                  <v>0.0169862</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0183382</v>
+                  <v>0.0176941</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0193988</v>
+                  <v>0.0184008</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0205537</v>
+                  <v>0.0198508</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0226966</v>
+                  <v>0.0220004</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0250047</v>
+                  <v>0.0252038</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0309238</v>
+                  <v>0.029776</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0361738</v>
+                  <v>0.0355674</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0455675</v>
+                  <v>0.0445372</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0564017</v>
+                  <v>0.0557284</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0722527</v>
+                  <v>0.0722409</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.09413820000000001</v>
+                  <v>0.0937438</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.118638</v>
+                  <v>0.120898</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0174142</v>
+                  <v>0.017101</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0181997</v>
+                  <v>0.0179106</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0191908</v>
+                  <v>0.0187733</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0204403</v>
+                  <v>0.0201048</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.021836</v>
+                  <v>0.0218759</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0239224</v>
+                  <v>0.0240552</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0276839</v>
+                  <v>0.0282097</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0315092</v>
+                  <v>0.0323602</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0372217</v>
+                  <v>0.0379086</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0454352</v>
+                  <v>0.045608</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0550601</v>
+                  <v>0.056116</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0703042</v>
+                  <v>0.0707222</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0905224</v>
+                  <v>0.0919893</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.115437</v>
+                  <v>0.118674</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.1408</v>
+                  <v>0.145772</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0192387</v>
+                  <v>0.0196284</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0204627</v>
+                  <v>0.0208398</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0220737</v>
+                  <v>0.0223922</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0239349</v>
+                  <v>0.0244506</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0262923</v>
+                  <v>0.026822</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0297657</v>
+                  <v>0.0309899</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0341001</v>
+                  <v>0.0354207</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0395028</v>
+                  <v>0.0417881</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0465838</v>
+                  <v>0.0476276</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0559668</v>
+                  <v>0.0572692</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0699388</v>
+                  <v>0.0716026</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0889996</v>
+                  <v>0.0905608</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.114856</v>
+                  <v>0.116785</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.145398</v>
+                  <v>0.147933</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0196969</v>
+                  <v>0.0197012</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.02093</v>
+                  <v>0.0211376</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0224969</v>
+                  <v>0.0228213</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0245783</v>
+                  <v>0.0247479</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.027095</v>
+                  <v>0.0274354</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0303959</v>
+                  <v>0.0306606</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0348732</v>
+                  <v>0.0349113</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0401107</v>
+                  <v>0.0401967</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0469689</v>
+                  <v>0.0468474</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.056182</v>
+                  <v>0.0560401</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0692083</v>
+                  <v>0.0688926</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0876976</v>
+                  <v>0.0873152</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.112624</v>
+                  <v>0.112319</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.143056</v>
+                  <v>0.143939</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0203051</v>
+                  <v>0.0198688</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0214311</v>
+                  <v>0.0212272</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0227951</v>
+                  <v>0.0227931</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0248606</v>
+                  <v>0.0248234</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0274961</v>
+                  <v>0.0274348</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0304265</v>
+                  <v>0.0304566</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.034491</v>
+                  <v>0.03421</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0392189</v>
+                  <v>0.0392722</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0454425</v>
+                  <v>0.0457853</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.054124</v>
+                  <v>0.0543613</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0660497</v>
+                  <v>0.0667861</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0833161</v>
+                  <v>0.0837842</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.107117</v>
+                  <v>0.107021</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.137068</v>
+                  <v>0.138367</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0205917</v>
+                  <v>0.0206107</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0217319</v>
+                  <v>0.021977</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0234086</v>
+                  <v>0.0236946</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0249196</v>
+                  <v>0.0252601</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0271441</v>
+                  <v>0.0278301</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0301186</v>
+                  <v>0.0304313</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.034225</v>
+                  <v>0.0347894</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0395874</v>
+                  <v>0.0397493</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.046425</v>
+                  <v>0.0462983</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0547381</v>
+                  <v>0.0543709</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0655719</v>
+                  <v>0.0656243</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0810201</v>
+                  <v>0.0814584</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.103131</v>
+                  <v>0.103239</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.132455</v>
+                  <v>0.133268</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.167936</v>
+                  <v>0.169441</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0314641</v>
+                  <v>0.0309188</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0327748</v>
+                  <v>0.0323647</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.0344387</v>
+                  <v>0.034075</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0359115</v>
+                  <v>0.0358327</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0384212</v>
+                  <v>0.0383382</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0411013</v>
+                  <v>0.0406737</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0443196</v>
+                  <v>0.0441246</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0490798</v>
+                  <v>0.048723</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0556472</v>
+                  <v>0.0551746</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.0652692</v>
+                  <v>0.0650047</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.080124</v>
+                  <v>0.07941529999999999</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.100594</v>
+                  <v>0.100142</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.128412</v>
+                  <v>0.128345</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.163387</v>
+                  <v>0.16426</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0342733</v>
+                  <v>0.0340693</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.0354023</v>
+                  <v>0.035891</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.0369613</v>
+                  <v>0.0369158</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.0386997</v>
+                  <v>0.0387195</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.0406429</v>
+                  <v>0.0407176</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.0434292</v>
+                  <v>0.0435753</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.0467513</v>
+                  <v>0.0474413</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.0511822</v>
+                  <v>0.0518101</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0585649</v>
+                  <v>0.0586713</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.0673728</v>
+                  <v>0.06794360000000001</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.08104450000000001</v>
+                  <v>0.0817268</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.101034</v>
+                  <v>0.101445</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.128826</v>
+                  <v>0.129425</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.16274</v>
+                  <v>0.163873</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0471946</v>
+                  <v>0.0473433</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.0480173</v>
+                  <v>0.0531312</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.0491618</v>
+                  <v>0.058706</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.0504992</v>
+                  <v>0.0582968</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.0529453</v>
+                  <v>0.0553286</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.0554429</v>
+                  <v>0.0675741</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1446,430 +1446,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0243821</v>
+                  <v>0.0236953</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0263419</v>
+                  <v>0.0249792</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.03189</v>
+                  <v>0.0258301</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0372784</v>
+                  <v>0.027365</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0515556</v>
+                  <v>0.0285038</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.06764829999999999</v>
+                  <v>0.0328798</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.08149480000000001</v>
+                  <v>0.0393672</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.129222</v>
+                  <v>0.0204906</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0208127</v>
+                  <v>0.0206485</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0213278</v>
+                  <v>0.0211179</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0218828</v>
+                  <v>0.0213</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.02263</v>
+                  <v>0.0216018</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0232512</v>
+                  <v>0.0219038</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0241428</v>
+                  <v>0.0225654</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0268695</v>
+                  <v>0.0230834</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0288871</v>
+                  <v>0.0241669</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0328262</v>
+                  <v>0.0251919</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0390993</v>
+                  <v>0.0266921</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0470423</v>
+                  <v>0.028982</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0633778</v>
+                  <v>0.0333148</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.088602</v>
+                  <v>0.041356</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.13405</v>
+                  <v>0.0202092</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0214978</v>
+                  <v>0.0206159</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0219645</v>
+                  <v>0.0208339</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0227306</v>
+                  <v>0.0210765</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0236983</v>
+                  <v>0.0214492</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0246423</v>
+                  <v>0.0218967</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.025917</v>
+                  <v>0.0226372</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0281203</v>
+                  <v>0.023422</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0305191</v>
+                  <v>0.0242916</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0351044</v>
+                  <v>0.0254245</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0407874</v>
+                  <v>0.0274613</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0501899</v>
+                  <v>0.030458</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.06329070000000001</v>
+                  <v>0.0342121</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0883089</v>
+                  <v>0.040763</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.125523</v>
+                  <v>0.0210932</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0226441</v>
+                  <v>0.0214487</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0231278</v>
+                  <v>0.0217322</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0239266</v>
+                  <v>0.0220884</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.024755</v>
+                  <v>0.0225227</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0260181</v>
+                  <v>0.022985</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0274856</v>
+                  <v>0.0235789</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0292543</v>
+                  <v>0.0242082</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0326774</v>
+                  <v>0.0251386</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0370439</v>
+                  <v>0.026316</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0430271</v>
+                  <v>0.0281349</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0514098</v>
+                  <v>0.0309591</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0649906</v>
+                  <v>0.0351441</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0841389</v>
+                  <v>0.0422416</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.117343</v>
+                  <v>0.0221848</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.163332</v>
+                  <v>0.0226422</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0241041</v>
+                  <v>0.0230127</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0248142</v>
+                  <v>0.0233388</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0258859</v>
+                  <v>0.0237292</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0269065</v>
+                  <v>0.0243318</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0285555</v>
+                  <v>0.0249093</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0308138</v>
+                  <v>0.0260608</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0334128</v>
+                  <v>0.0270795</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0373409</v>
+                  <v>0.0277862</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.043244</v>
+                  <v>0.0291051</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0514921</v>
+                  <v>0.0317252</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0631197</v>
+                  <v>0.0360878</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.08064549999999999</v>
+                  <v>0.0429958</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.111224</v>
+                  <v>0.0551095</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.156782</v>
+                  <v>0.0226031</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0246273</v>
+                  <v>0.0229372</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0254874</v>
+                  <v>0.0232973</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.026515</v>
+                  <v>0.023692</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0276786</v>
+                  <v>0.0242143</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0291119</v>
+                  <v>0.0247678</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0311576</v>
+                  <v>0.0255057</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0339469</v>
+                  <v>0.0263971</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0377205</v>
+                  <v>0.0276756</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0430427</v>
+                  <v>0.0295323</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0505867</v>
+                  <v>0.0321746</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0612508</v>
+                  <v>0.0363344</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0763192</v>
+                  <v>0.0425489</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.101765</v>
+                  <v>0.0534234</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.144347</v>
+                  <v>0.0228514</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0253488</v>
+                  <v>0.0231978</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.026265</v>
+                  <v>0.0235633</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0271908</v>
+                  <v>0.0239172</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0284288</v>
+                  <v>0.0244035</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.03001</v>
+                  <v>0.025024</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0319039</v>
+                  <v>0.0259339</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0343672</v>
+                  <v>0.0269228</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0378547</v>
+                  <v>0.0282665</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0426376</v>
+                  <v>0.0299743</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0498571</v>
+                  <v>0.0325068</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.059631</v>
+                  <v>0.03601</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0742997</v>
+                  <v>0.0416961</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0979019</v>
+                  <v>0.0509443</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.137136</v>
+                  <v>0.0243696</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0270102</v>
+                  <v>0.0248253</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0282021</v>
+                  <v>0.0253215</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0301873</v>
+                  <v>0.0259145</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0330636</v>
+                  <v>0.0267649</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0367725</v>
+                  <v>0.0281154</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0404956</v>
+                  <v>0.0301922</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0438179</v>
+                  <v>0.0330066</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0472354</v>
+                  <v>0.0364155</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0509235</v>
+                  <v>0.0397311</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0560138</v>
+                  <v>0.0428055</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.06314790000000001</v>
+                  <v>0.0463608</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.07436619999999999</v>
+                  <v>0.0508278</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0937021</v>
+                  <v>0.0575807</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.129268</v>
+                  <v>0.0361449</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.180556</v>
+                  <v>0.0368822</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0432623</v>
+                  <v>0.0379133</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0443061</v>
+                  <v>0.0388181</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.0453678</v>
+                  <v>0.0396854</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0466564</v>
+                  <v>0.0406322</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0481</v>
+                  <v>0.0416831</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0498885</v>
+                  <v>0.0427634</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0522653</v>
+                  <v>0.0439657</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0552329</v>
+                  <v>0.0456052</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0592122</v>
+                  <v>0.0476259</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.0652914</v>
+                  <v>0.0501364</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.0749547</v>
+                  <v>0.0541071</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.09116730000000001</v>
+                  <v>0.0600156</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.12157</v>
+                  <v>0.0702492</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.169666</v>
+                  <v>0.0426162</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0485409</v>
+                  <v>0.0433137</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.0498932</v>
+                  <v>0.0441334</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.0510164</v>
+                  <v>0.0448138</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.0521044</v>
+                  <v>0.0457069</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.0539084</v>
+                  <v>0.0468309</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.0557247</v>
+                  <v>0.047681</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.0579581</v>
+                  <v>0.0488768</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.0612119</v>
+                  <v>0.0504662</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0655746</v>
+                  <v>0.0524585</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.07118579999999999</v>
+                  <v>0.0553225</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.0805454</v>
+                  <v>0.0590454</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.0955641</v>
+                  <v>0.0649672</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.122167</v>
+                  <v>0.07502730000000001</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.166136</v>
+                  <v>0.0609618</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0632577</v>
+                  <v>0.0606272</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.0643639</v>
+                  <v>0.0716113</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.0654462</v>
+                  <v>0.0740532</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.0668815</v>
+                  <v>0.075507</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.0683774</v>
+                  <v>0.0709659</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.07045510000000001</v>
+                  <v>0.0822119</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1880,7 +1880,7 @@
           <idx val="5"/>
           <order val="2"/>
           <tx>
-            <v>foa_unordered_rc15_map</v>
+            <v>boost::unordered_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -2340,430 +2340,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0213141</v>
+                  <v>0.0628543</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0220012</v>
+                  <v>0.0664814</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0228637</v>
+                  <v>0.07155309999999999</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0244676</v>
+                  <v>0.0787023</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0259604</v>
+                  <v>0.0762729</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.028658</v>
+                  <v>0.0596881</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0371282</v>
+                  <v>0.0581592</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0186849</v>
+                  <v>0.0642033</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0189948</v>
+                  <v>0.066584</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0192948</v>
+                  <v>0.07067469999999999</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0198101</v>
+                  <v>0.07539460000000001</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0200323</v>
+                  <v>0.0776222</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0205084</v>
+                  <v>0.08080030000000001</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0207002</v>
+                  <v>0.08254499999999999</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0214276</v>
+                  <v>0.0868236</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.022011</v>
+                  <v>0.0901443</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0230028</v>
+                  <v>0.09041780000000001</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0242253</v>
+                  <v>0.09432</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0262024</v>
+                  <v>0.0970657</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.030044</v>
+                  <v>0.0672951</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0370516</v>
+                  <v>0.0716408</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0188867</v>
+                  <v>0.0714137</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0192237</v>
+                  <v>0.0762883</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0194425</v>
+                  <v>0.0788282</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0197946</v>
+                  <v>0.0817253</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0201342</v>
+                  <v>0.0845086</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0205266</v>
+                  <v>0.0872682</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.020959</v>
+                  <v>0.0900213</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0214844</v>
+                  <v>0.0922123</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0223231</v>
+                  <v>0.0951592</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0233566</v>
+                  <v>0.0965795</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0248748</v>
+                  <v>0.0983135</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0269432</v>
+                  <v>0.101668</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0307678</v>
+                  <v>0.06976019999999999</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0381048</v>
+                  <v>0.0732333</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.019505</v>
+                  <v>0.07563</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0197378</v>
+                  <v>0.07849739999999999</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0199753</v>
+                  <v>0.082784</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0202695</v>
+                  <v>0.08502469999999999</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0205809</v>
+                  <v>0.0879409</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0210132</v>
+                  <v>0.091546</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0215764</v>
+                  <v>0.0944207</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0222081</v>
+                  <v>0.0970037</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0231524</v>
+                  <v>0.0991208</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0243994</v>
+                  <v>0.101009</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0261699</v>
+                  <v>0.103707</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0288567</v>
+                  <v>0.105854</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0324993</v>
+                  <v>0.108622</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0388699</v>
+                  <v>0.07991180000000001</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0203994</v>
+                  <v>0.0852565</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0206304</v>
+                  <v>0.09070300000000001</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.020899</v>
+                  <v>0.100166</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0212713</v>
+                  <v>0.104121</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0215734</v>
+                  <v>0.110505</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0220027</v>
+                  <v>0.118017</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0224713</v>
+                  <v>0.134799</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0232356</v>
+                  <v>0.150714</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0241598</v>
+                  <v>0.149598</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0252935</v>
+                  <v>0.106064</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0270674</v>
+                  <v>0.110453</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0297328</v>
+                  <v>0.112451</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0338401</v>
+                  <v>0.114784</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0404851</v>
+                  <v>0.0808511</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0515575</v>
+                  <v>0.0851362</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.020937</v>
+                  <v>0.0905902</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0212617</v>
+                  <v>0.0957775</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0215815</v>
+                  <v>0.09995809999999999</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0219942</v>
+                  <v>0.105452</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0224339</v>
+                  <v>0.110664</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0229822</v>
+                  <v>0.115302</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0236686</v>
+                  <v>0.119763</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0245813</v>
+                  <v>0.125554</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0258009</v>
+                  <v>0.130129</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0276711</v>
+                  <v>0.134996</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0301418</v>
+                  <v>0.141567</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0339599</v>
+                  <v>0.147833</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.039757</v>
+                  <v>0.113894</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0495474</v>
+                  <v>0.121926</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.021192</v>
+                  <v>0.12561</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0215353</v>
+                  <v>0.134696</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0219745</v>
+                  <v>0.13899</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0224512</v>
+                  <v>0.149483</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0229726</v>
+                  <v>0.154065</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0236312</v>
+                  <v>0.163029</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0244723</v>
+                  <v>0.167705</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0253764</v>
+                  <v>0.178539</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0267266</v>
+                  <v>0.186083</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.02845</v>
+                  <v>0.189656</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0307713</v>
+                  <v>0.197145</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0342051</v>
+                  <v>0.214136</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.039387</v>
+                  <v>0.155917</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0481448</v>
+                  <v>0.163239</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0230461</v>
+                  <v>0.170659</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0235885</v>
+                  <v>0.176032</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0240683</v>
+                  <v>0.180564</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0245612</v>
+                  <v>0.187866</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0254625</v>
+                  <v>0.197686</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0269155</v>
+                  <v>0.205106</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0289929</v>
+                  <v>0.213378</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0319022</v>
+                  <v>0.22001</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0353162</v>
+                  <v>0.227646</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0382454</v>
+                  <v>0.235713</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0414212</v>
+                  <v>0.243297</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0448928</v>
+                  <v>0.252123</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0491213</v>
+                  <v>0.261676</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0556722</v>
+                  <v>0.190199</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0349946</v>
+                  <v>0.197145</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.036062</v>
+                  <v>0.204605</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0370126</v>
+                  <v>0.21028</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0378882</v>
+                  <v>0.217256</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.0386232</v>
+                  <v>0.224583</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.039608</v>
+                  <v>0.233435</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0405332</v>
+                  <v>0.241083</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0416032</v>
+                  <v>0.248226</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0429799</v>
+                  <v>0.256309</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.044442</v>
+                  <v>0.263815</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0464735</v>
+                  <v>0.272729</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.0490779</v>
+                  <v>0.281114</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.0526027</v>
+                  <v>0.29099</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.0585157</v>
+                  <v>0.206413</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.0682112</v>
+                  <v>0.211988</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.0416503</v>
+                  <v>0.218375</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0422691</v>
+                  <v>0.225371</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.0430552</v>
+                  <v>0.233023</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.04371</v>
+                  <v>0.239145</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.0446326</v>
+                  <v>0.246948</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.045744</v>
+                  <v>0.254198</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.0464876</v>
+                  <v>0.261944</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.0480236</v>
+                  <v>0.270874</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.0497905</v>
+                  <v>0.277744</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0515751</v>
+                  <v>0.285401</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.0541836</v>
+                  <v>0.294939</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.0578235</v>
+                  <v>0.304154</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.06359289999999999</v>
+                  <v>0.212796</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.07301820000000001</v>
+                  <v>0.219404</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.0587163</v>
+                  <v>0.226867</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0595507</v>
+                  <v>0.233183</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.0603892</v>
+                  <v>0.258776</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.0609068</v>
+                  <v>0.2671</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.0617944</v>
+                  <v>0.259936</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.0626568</v>
+                  <v>0.270609</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.0637523</v>
+                  <v>0.281995</v>
                 </pt>
               </numCache>
             </numRef>

--- a/clang-arm64/Scattered unsuccessful looukp.xlsx
+++ b/clang-arm64/Scattered unsuccessful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0210949</v>
+        <v>0.0211271</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0231633</v>
+        <v>0.0226214</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0227703</v>
+        <v>0.0236345</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0234304</v>
+        <v>0.0215897</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0240635</v>
+        <v>0.02352</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0235021</v>
+        <v>0.024895</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0282019</v>
+        <v>0.0268659</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0252787</v>
+        <v>0.0240003</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0244695</v>
+        <v>0.0255972</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0362677</v>
+        <v>0.0366841</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0265223</v>
+        <v>0.0247739</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0253097</v>
+        <v>0.0270977</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0547367</v>
+        <v>0.0515009</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0283678</v>
+        <v>0.0258501</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0273813</v>
+        <v>0.0284723</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0729846</v>
+        <v>0.0689925</v>
       </c>
       <c r="C7" t="n">
-        <v>0.034822</v>
+        <v>0.0285589</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0318157</v>
+        <v>0.0337113</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0993623</v>
+        <v>0.09577049999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0443803</v>
+        <v>0.034679</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0412739</v>
+        <v>0.0416262</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.112376</v>
+        <v>0.120572</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0202998</v>
+        <v>0.0201568</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0209538</v>
+        <v>0.0204353</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0166894</v>
+        <v>0.0167388</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0204477</v>
+        <v>0.0203201</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0210466</v>
+        <v>0.020615</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0171241</v>
+        <v>0.0171304</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0206579</v>
+        <v>0.0206559</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0213249</v>
+        <v>0.020954</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0176613</v>
+        <v>0.0177554</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0210191</v>
+        <v>0.0208533</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0214411</v>
+        <v>0.0212223</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0183146</v>
+        <v>0.0179974</v>
       </c>
       <c r="C13" t="n">
-        <v>0.021321</v>
+        <v>0.0211891</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0216285</v>
+        <v>0.0216594</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0189675</v>
+        <v>0.0192271</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0214752</v>
+        <v>0.0212999</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0220102</v>
+        <v>0.0218208</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0203916</v>
+        <v>0.0202845</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0220964</v>
+        <v>0.0218078</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0223504</v>
+        <v>0.0223892</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0238541</v>
+        <v>0.0222768</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0226511</v>
+        <v>0.0222936</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0231095</v>
+        <v>0.0230253</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0275409</v>
+        <v>0.0266974</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0235545</v>
+        <v>0.0230572</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0239427</v>
+        <v>0.0239831</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0330184</v>
+        <v>0.0325443</v>
       </c>
       <c r="C18" t="n">
-        <v>0.024656</v>
+        <v>0.023916</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0250807</v>
+        <v>0.0249111</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.040796</v>
+        <v>0.0426051</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0265656</v>
+        <v>0.025353</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0265035</v>
+        <v>0.0267769</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0550836</v>
+        <v>0.0533087</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0289988</v>
+        <v>0.0270742</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0290063</v>
+        <v>0.0292341</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.06867429999999999</v>
+        <v>0.07417550000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0341951</v>
+        <v>0.0307788</v>
       </c>
       <c r="D21" t="n">
-        <v>0.034405</v>
+        <v>0.0333191</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0909708</v>
+        <v>0.0969667</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0440827</v>
+        <v>0.0388249</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0444324</v>
+        <v>0.0415849</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.117656</v>
+        <v>0.125443</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0200795</v>
+        <v>0.0200503</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0204135</v>
+        <v>0.0202034</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0167207</v>
+        <v>0.0166389</v>
       </c>
       <c r="C24" t="n">
-        <v>0.020361</v>
+        <v>0.0202586</v>
       </c>
       <c r="D24" t="n">
-        <v>0.020587</v>
+        <v>0.0205298</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0172543</v>
+        <v>0.0173113</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0206526</v>
+        <v>0.0205607</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0208451</v>
+        <v>0.0208373</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0180533</v>
+        <v>0.0180359</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0208287</v>
+        <v>0.0207379</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0209838</v>
+        <v>0.0210812</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0189624</v>
+        <v>0.0188379</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0211599</v>
+        <v>0.0210408</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0215224</v>
+        <v>0.0214232</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0203081</v>
+        <v>0.0204161</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0216265</v>
+        <v>0.0214674</v>
       </c>
       <c r="D28" t="n">
-        <v>0.021988</v>
+        <v>0.0218913</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0221981</v>
+        <v>0.0223594</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0224265</v>
+        <v>0.0220484</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0225515</v>
+        <v>0.0226317</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0254604</v>
+        <v>0.0254245</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0230928</v>
+        <v>0.0227334</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0230791</v>
+        <v>0.0233652</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.029406</v>
+        <v>0.0305704</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0239597</v>
+        <v>0.0235732</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0239477</v>
+        <v>0.0243272</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0348273</v>
+        <v>0.0366704</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0252682</v>
+        <v>0.024561</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0250973</v>
+        <v>0.0254978</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.043239</v>
+        <v>0.0443647</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0274021</v>
+        <v>0.0263723</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0270114</v>
+        <v>0.0274369</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0533898</v>
+        <v>0.056996</v>
       </c>
       <c r="C34" t="n">
-        <v>0.030753</v>
+        <v>0.0291134</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0298168</v>
+        <v>0.030457</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0690042</v>
+        <v>0.0724737</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0347158</v>
+        <v>0.0324577</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0348133</v>
+        <v>0.0340772</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0899211</v>
+        <v>0.0928981</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0426008</v>
+        <v>0.0393967</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0425629</v>
+        <v>0.0409769</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.117247</v>
+        <v>0.118816</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0209165</v>
+        <v>0.0209659</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0208576</v>
+        <v>0.0212287</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0172461</v>
+        <v>0.0176223</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0213364</v>
+        <v>0.0214626</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0210804</v>
+        <v>0.0215635</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.017914</v>
+        <v>0.0182393</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0215181</v>
+        <v>0.022116</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0213692</v>
+        <v>0.0220962</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0189726</v>
+        <v>0.019442</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0221217</v>
+        <v>0.0223586</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0220083</v>
+        <v>0.0225263</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0201709</v>
+        <v>0.0206143</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0225875</v>
+        <v>0.0226716</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0224063</v>
+        <v>0.0229603</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0221204</v>
+        <v>0.0222805</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0231192</v>
+        <v>0.0229702</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0230663</v>
+        <v>0.0232511</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0242943</v>
+        <v>0.0246175</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0236917</v>
+        <v>0.0236818</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0235892</v>
+        <v>0.0240916</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0272725</v>
+        <v>0.0280486</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0243892</v>
+        <v>0.0243643</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0243843</v>
+        <v>0.0247924</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0318037</v>
+        <v>0.0334387</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0254193</v>
+        <v>0.0254717</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0255287</v>
+        <v>0.0261183</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0374661</v>
+        <v>0.0391235</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0271914</v>
+        <v>0.0267445</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0274779</v>
+        <v>0.0273381</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0463022</v>
+        <v>0.0468426</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0293148</v>
+        <v>0.0285096</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0296674</v>
+        <v>0.0292054</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0570872</v>
+        <v>0.0581654</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0326049</v>
+        <v>0.030311</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0329903</v>
+        <v>0.03101</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.07231949999999999</v>
+        <v>0.07181029999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0374267</v>
+        <v>0.0347241</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0377462</v>
+        <v>0.0352943</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0951361</v>
+        <v>0.09075080000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0451624</v>
+        <v>0.041731</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0458776</v>
+        <v>0.0420132</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.119592</v>
+        <v>0.117177</v>
       </c>
       <c r="C51" t="n">
-        <v>0.021866</v>
+        <v>0.0218188</v>
       </c>
       <c r="D51" t="n">
-        <v>0.021772</v>
+        <v>0.0219132</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.141409</v>
+        <v>0.142714</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0220923</v>
+        <v>0.0221175</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0220078</v>
+        <v>0.0221646</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.018985</v>
+        <v>0.0190721</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0223086</v>
+        <v>0.0223071</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0223772</v>
+        <v>0.0224424</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0203427</v>
+        <v>0.0201914</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0226719</v>
+        <v>0.0226433</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0227437</v>
+        <v>0.0227444</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0216643</v>
+        <v>0.0218115</v>
       </c>
       <c r="C55" t="n">
-        <v>0.023079</v>
+        <v>0.0230639</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0231907</v>
+        <v>0.0231296</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0235089</v>
+        <v>0.0236138</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0235821</v>
+        <v>0.0235091</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0236111</v>
+        <v>0.0236373</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0259728</v>
+        <v>0.0262421</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0241854</v>
+        <v>0.0240629</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0242453</v>
+        <v>0.0242571</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.029295</v>
+        <v>0.029796</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0249609</v>
+        <v>0.0248079</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0250245</v>
+        <v>0.0249687</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0334373</v>
+        <v>0.0337446</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0260224</v>
+        <v>0.0258023</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0261074</v>
+        <v>0.0260111</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0389701</v>
+        <v>0.0388738</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0273475</v>
+        <v>0.0271042</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0276266</v>
+        <v>0.0273025</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0459457</v>
+        <v>0.0463888</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0293486</v>
+        <v>0.0289826</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0295666</v>
+        <v>0.0291001</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0553816</v>
+        <v>0.0562733</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0320964</v>
+        <v>0.0317335</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0325165</v>
+        <v>0.0318193</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.06898079999999999</v>
+        <v>0.0699983</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0366404</v>
+        <v>0.0360564</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0366972</v>
+        <v>0.0363082</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.08879629999999999</v>
+        <v>0.0900977</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0438441</v>
+        <v>0.0431266</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0437695</v>
+        <v>0.0433653</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.114696</v>
+        <v>0.115155</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0558711</v>
+        <v>0.0549851</v>
       </c>
       <c r="D65" t="n">
-        <v>0.05574</v>
+        <v>0.0554276</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.145515</v>
+        <v>0.146479</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0225261</v>
+        <v>0.0225316</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0225902</v>
+        <v>0.0225959</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0197513</v>
+        <v>0.0196308</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0228814</v>
+        <v>0.0229026</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0229809</v>
+        <v>0.0230112</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0209595</v>
+        <v>0.0209953</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0232489</v>
+        <v>0.0232877</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0233007</v>
+        <v>0.0233296</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0225005</v>
+        <v>0.022671</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0236295</v>
+        <v>0.0236337</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0237787</v>
+        <v>0.0236941</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0243273</v>
+        <v>0.0244629</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0242132</v>
+        <v>0.0241585</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0241984</v>
+        <v>0.0242136</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.02681</v>
+        <v>0.0268103</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0246956</v>
+        <v>0.0246719</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0248462</v>
+        <v>0.0247594</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0302419</v>
+        <v>0.0300843</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0255615</v>
+        <v>0.0254773</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0256165</v>
+        <v>0.0255762</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0342023</v>
+        <v>0.0344048</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0264937</v>
+        <v>0.0264017</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0266499</v>
+        <v>0.0264259</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0394339</v>
+        <v>0.0392674</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0277434</v>
+        <v>0.027661</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0280194</v>
+        <v>0.0276979</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0461535</v>
+        <v>0.0461246</v>
       </c>
       <c r="C75" t="n">
-        <v>0.029672</v>
+        <v>0.0295937</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0299851</v>
+        <v>0.0296133</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0554365</v>
+        <v>0.0554301</v>
       </c>
       <c r="C76" t="n">
-        <v>0.032461</v>
+        <v>0.0323441</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0329054</v>
+        <v>0.0322571</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.068009</v>
+        <v>0.068262</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0366672</v>
+        <v>0.0366059</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0369982</v>
+        <v>0.0365318</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0863194</v>
+        <v>0.0862129</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0429703</v>
+        <v>0.0427183</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0434148</v>
+        <v>0.0427055</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.111134</v>
+        <v>0.110926</v>
       </c>
       <c r="C79" t="n">
-        <v>0.053625</v>
+        <v>0.053616</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0544653</v>
+        <v>0.0535231</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.141372</v>
+        <v>0.142696</v>
       </c>
       <c r="C80" t="n">
-        <v>0.022771</v>
+        <v>0.0228445</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0228971</v>
+        <v>0.0228317</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0203375</v>
+        <v>0.0200683</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0231343</v>
+        <v>0.0231144</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0232611</v>
+        <v>0.0231745</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0212506</v>
+        <v>0.0212528</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0235043</v>
+        <v>0.0234868</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0236142</v>
+        <v>0.0235423</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0229888</v>
+        <v>0.0228178</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0239034</v>
+        <v>0.0239253</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0240855</v>
+        <v>0.0239999</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0246357</v>
+        <v>0.0248083</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0244676</v>
+        <v>0.0244565</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0246911</v>
+        <v>0.0245451</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0270875</v>
+        <v>0.0273913</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0250815</v>
+        <v>0.0250761</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0252835</v>
+        <v>0.0251087</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0305218</v>
+        <v>0.0304597</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0259216</v>
+        <v>0.0258979</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0261492</v>
+        <v>0.0258868</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0341083</v>
+        <v>0.0344104</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0269289</v>
+        <v>0.026946</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0271914</v>
+        <v>0.0270424</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0392505</v>
+        <v>0.039102</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0282698</v>
+        <v>0.0283543</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0285796</v>
+        <v>0.0283325</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.045764</v>
+        <v>0.0456199</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0299897</v>
+        <v>0.0301579</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0303746</v>
+        <v>0.030096</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0545518</v>
+        <v>0.0545019</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0325391</v>
+        <v>0.0325813</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0329133</v>
+        <v>0.0325067</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0667205</v>
+        <v>0.0663663</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0360797</v>
+        <v>0.0361354</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0364917</v>
+        <v>0.0361404</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0843067</v>
+        <v>0.0831937</v>
       </c>
       <c r="C92" t="n">
-        <v>0.041684</v>
+        <v>0.0417735</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0421491</v>
+        <v>0.0417912</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.107408</v>
+        <v>0.106873</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0509083</v>
+        <v>0.051075</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0513751</v>
+        <v>0.051032</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.137901</v>
+        <v>0.137592</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0244268</v>
+        <v>0.0243916</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0243866</v>
+        <v>0.0244357</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.020497</v>
+        <v>0.0204967</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0248371</v>
+        <v>0.024945</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0248591</v>
+        <v>0.0250021</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0223256</v>
+        <v>0.0216721</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0253963</v>
+        <v>0.0254282</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0254076</v>
+        <v>0.0254017</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0233488</v>
+        <v>0.0232331</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0259105</v>
+        <v>0.0259678</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0259678</v>
+        <v>0.0260088</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0252096</v>
+        <v>0.0253818</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0266377</v>
+        <v>0.0267509</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0267964</v>
+        <v>0.0267458</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0275586</v>
+        <v>0.0274028</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0279832</v>
+        <v>0.0280877</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0280004</v>
+        <v>0.028072</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0302386</v>
+        <v>0.0302749</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0300722</v>
+        <v>0.0301649</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0301661</v>
+        <v>0.0300703</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.034237</v>
+        <v>0.0343948</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0331775</v>
+        <v>0.0331805</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0331094</v>
+        <v>0.0330534</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.039974</v>
+        <v>0.0400343</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0362011</v>
+        <v>0.0363381</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0363412</v>
+        <v>0.0363524</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0462528</v>
+        <v>0.0464975</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0394415</v>
+        <v>0.0396694</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0396486</v>
+        <v>0.0396849</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0544938</v>
+        <v>0.0545298</v>
       </c>
       <c r="C104" t="n">
-        <v>0.042767</v>
+        <v>0.0428229</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0426063</v>
+        <v>0.0428637</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0656122</v>
+        <v>0.065554</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0464553</v>
+        <v>0.0462345</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0464186</v>
+        <v>0.0461657</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.08124439999999999</v>
+        <v>0.0813749</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0507044</v>
+        <v>0.0508265</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0509272</v>
+        <v>0.0507177</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.103099</v>
+        <v>0.103259</v>
       </c>
       <c r="C107" t="n">
-        <v>0.0576598</v>
+        <v>0.0577258</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0576947</v>
+        <v>0.0575435</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.13235</v>
+        <v>0.132627</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0361848</v>
+        <v>0.0361971</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0363839</v>
+        <v>0.0360668</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.167824</v>
+        <v>0.16885</v>
       </c>
       <c r="C109" t="n">
-        <v>0.0370808</v>
+        <v>0.0372519</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0372704</v>
+        <v>0.0369507</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0316205</v>
+        <v>0.0308993</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0379321</v>
+        <v>0.038114</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0380191</v>
+        <v>0.0379854</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.032927</v>
+        <v>0.0323951</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0388013</v>
+        <v>0.0390005</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0389475</v>
+        <v>0.0388355</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0344704</v>
+        <v>0.0344981</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0396456</v>
+        <v>0.039763</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0397719</v>
+        <v>0.0396515</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0361523</v>
+        <v>0.0358829</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0406381</v>
+        <v>0.0406777</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0407636</v>
+        <v>0.0405136</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0382859</v>
+        <v>0.0380409</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0415367</v>
+        <v>0.0414215</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0416857</v>
+        <v>0.0416036</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.0409613</v>
+        <v>0.0407497</v>
       </c>
       <c r="C115" t="n">
-        <v>0.042749</v>
+        <v>0.0427957</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0428431</v>
+        <v>0.0425168</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.044505</v>
+        <v>0.0438277</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0440944</v>
+        <v>0.0441276</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0440925</v>
+        <v>0.0439802</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.048902</v>
+        <v>0.0485227</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0456243</v>
+        <v>0.0456426</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0456529</v>
+        <v>0.0455625</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.0556437</v>
+        <v>0.0554949</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0474937</v>
+        <v>0.047595</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0477652</v>
+        <v>0.0474686</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.065068</v>
+        <v>0.06496979999999999</v>
       </c>
       <c r="C119" t="n">
-        <v>0.0501607</v>
+        <v>0.0502643</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0502091</v>
+        <v>0.0500855</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.0796779</v>
+        <v>0.0796646</v>
       </c>
       <c r="C120" t="n">
-        <v>0.0538303</v>
+        <v>0.054102</v>
       </c>
       <c r="D120" t="n">
-        <v>0.054389</v>
+        <v>0.0540472</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.101002</v>
+        <v>0.100182</v>
       </c>
       <c r="C121" t="n">
-        <v>0.0601147</v>
+        <v>0.059971</v>
       </c>
       <c r="D121" t="n">
-        <v>0.0601602</v>
+        <v>0.0598373</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.128509</v>
+        <v>0.128665</v>
       </c>
       <c r="C122" t="n">
-        <v>0.07025729999999999</v>
+        <v>0.07027079999999999</v>
       </c>
       <c r="D122" t="n">
-        <v>0.07058159999999999</v>
+        <v>0.0702776</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.163665</v>
+        <v>0.165041</v>
       </c>
       <c r="C123" t="n">
-        <v>0.042302</v>
+        <v>0.0424921</v>
       </c>
       <c r="D123" t="n">
-        <v>0.0415277</v>
+        <v>0.0425168</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.0339231</v>
+        <v>0.0343111</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0430147</v>
+        <v>0.0431221</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0429517</v>
+        <v>0.0431419</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.0353432</v>
+        <v>0.0348923</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0438235</v>
+        <v>0.0438365</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0436728</v>
+        <v>0.0436749</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.0369151</v>
+        <v>0.036436</v>
       </c>
       <c r="C126" t="n">
-        <v>0.0460975</v>
+        <v>0.0446385</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0449016</v>
+        <v>0.0445544</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.0383977</v>
+        <v>0.038564</v>
       </c>
       <c r="C127" t="n">
-        <v>0.045609</v>
+        <v>0.0456301</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0457408</v>
+        <v>0.0453797</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0406163</v>
+        <v>0.0404232</v>
       </c>
       <c r="C128" t="n">
-        <v>0.0466147</v>
+        <v>0.046608</v>
       </c>
       <c r="D128" t="n">
-        <v>0.0464128</v>
+        <v>0.04644</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0432631</v>
+        <v>0.0432516</v>
       </c>
       <c r="C129" t="n">
-        <v>0.0476904</v>
+        <v>0.0476395</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0476361</v>
+        <v>0.0478474</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0468404</v>
+        <v>0.0461413</v>
       </c>
       <c r="C130" t="n">
-        <v>0.0490053</v>
+        <v>0.0491323</v>
       </c>
       <c r="D130" t="n">
-        <v>0.048956</v>
+        <v>0.049331</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0512943</v>
+        <v>0.0506178</v>
       </c>
       <c r="C131" t="n">
-        <v>0.0506561</v>
+        <v>0.0506212</v>
       </c>
       <c r="D131" t="n">
-        <v>0.0504234</v>
+        <v>0.0511423</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.058241</v>
+        <v>0.0584283</v>
       </c>
       <c r="C132" t="n">
-        <v>0.0542261</v>
+        <v>0.0527569</v>
       </c>
       <c r="D132" t="n">
-        <v>0.052754</v>
+        <v>0.0528307</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.06713330000000001</v>
+        <v>0.0677919</v>
       </c>
       <c r="C133" t="n">
-        <v>0.0554164</v>
+        <v>0.0557055</v>
       </c>
       <c r="D133" t="n">
-        <v>0.0553632</v>
+        <v>0.0556609</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.0827743</v>
+        <v>0.082276</v>
       </c>
       <c r="C134" t="n">
-        <v>0.0592762</v>
+        <v>0.0633225</v>
       </c>
       <c r="D134" t="n">
-        <v>0.0594044</v>
+        <v>0.06587800000000001</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.102743</v>
+        <v>0.11148</v>
       </c>
       <c r="C135" t="n">
-        <v>0.0652563</v>
+        <v>0.0762612</v>
       </c>
       <c r="D135" t="n">
-        <v>0.0655982</v>
+        <v>0.07364859999999999</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.129595</v>
+        <v>0.151468</v>
       </c>
       <c r="C136" t="n">
-        <v>0.08308649999999999</v>
+        <v>0.0877796</v>
       </c>
       <c r="D136" t="n">
-        <v>0.08112080000000001</v>
+        <v>0.0885364</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.177496</v>
+        <v>0.184948</v>
       </c>
       <c r="C137" t="n">
-        <v>0.06991459999999999</v>
+        <v>0.0722226</v>
       </c>
       <c r="D137" t="n">
-        <v>0.0715905</v>
+        <v>0.0766231</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0562695</v>
+        <v>0.0558564</v>
       </c>
       <c r="C138" t="n">
-        <v>0.0753089</v>
+        <v>0.0736864</v>
       </c>
       <c r="D138" t="n">
-        <v>0.0744841</v>
+        <v>0.07633479999999999</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0563613</v>
+        <v>0.0598427</v>
       </c>
       <c r="C139" t="n">
-        <v>0.0710279</v>
+        <v>0.07583769999999999</v>
       </c>
       <c r="D139" t="n">
-        <v>0.0741589</v>
+        <v>0.073184</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.057271</v>
+        <v>0.0614767</v>
       </c>
       <c r="C140" t="n">
-        <v>0.0732662</v>
+        <v>0.0757483</v>
       </c>
       <c r="D140" t="n">
-        <v>0.07499400000000001</v>
+        <v>0.0743109</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0622541</v>
+        <v>0.06481339999999999</v>
       </c>
       <c r="C141" t="n">
-        <v>0.07566199999999999</v>
+        <v>0.0810462</v>
       </c>
       <c r="D141" t="n">
-        <v>0.07473</v>
+        <v>0.0862893</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.0600778</v>
+        <v>0.0728924</v>
       </c>
       <c r="C142" t="n">
-        <v>0.0748648</v>
+        <v>0.0829467</v>
       </c>
       <c r="D142" t="n">
-        <v>0.0777883</v>
+        <v>0.0850108</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.0655842</v>
+        <v>0.0816219</v>
       </c>
       <c r="C143" t="n">
-        <v>0.0781583</v>
+        <v>0.09529310000000001</v>
       </c>
       <c r="D143" t="n">
-        <v>0.0889934</v>
+        <v>0.0953263</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered unsuccessful looukp.xlsx
+++ b/clang-arm64/Scattered unsuccessful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0211271</v>
+        <v>0.0195834</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0226214</v>
+        <v>0.0227184</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0236345</v>
+        <v>0.0230296</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0215897</v>
+        <v>0.0218957</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02352</v>
+        <v>0.0234515</v>
       </c>
       <c r="D3" t="n">
-        <v>0.024895</v>
+        <v>0.0236371</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0268659</v>
+        <v>0.0268233</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0240003</v>
+        <v>0.0240788</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0255972</v>
+        <v>0.0244116</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0366841</v>
+        <v>0.0359585</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0247739</v>
+        <v>0.0250481</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0270977</v>
+        <v>0.0248443</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0515009</v>
+        <v>0.0500891</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0258501</v>
+        <v>0.0262728</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0284723</v>
+        <v>0.02595</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0689925</v>
+        <v>0.0723104</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0285589</v>
+        <v>0.0290453</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0337113</v>
+        <v>0.0297712</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.09577049999999999</v>
+        <v>0.09610340000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>0.034679</v>
+        <v>0.0372051</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0416262</v>
+        <v>0.0409026</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.120572</v>
+        <v>0.118361</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0201568</v>
+        <v>0.0201312</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0204353</v>
+        <v>0.0203439</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0167388</v>
+        <v>0.0165264</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0203201</v>
+        <v>0.0203751</v>
       </c>
       <c r="D10" t="n">
-        <v>0.020615</v>
+        <v>0.0204024</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0171304</v>
+        <v>0.016843</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0206559</v>
+        <v>0.0206377</v>
       </c>
       <c r="D11" t="n">
-        <v>0.020954</v>
+        <v>0.0207458</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0177554</v>
+        <v>0.0174445</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0208533</v>
+        <v>0.0208463</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0212223</v>
+        <v>0.0211363</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0179974</v>
+        <v>0.0181888</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0211891</v>
+        <v>0.0211994</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0216594</v>
+        <v>0.0213216</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0192271</v>
+        <v>0.0190586</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0212999</v>
+        <v>0.0214074</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0218208</v>
+        <v>0.0215762</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0202845</v>
+        <v>0.0202445</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0218078</v>
+        <v>0.0219531</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0223892</v>
+        <v>0.0221027</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0222768</v>
+        <v>0.0229641</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0222936</v>
+        <v>0.0224387</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0230253</v>
+        <v>0.0226773</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0266974</v>
+        <v>0.0266523</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0230572</v>
+        <v>0.0231387</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0239831</v>
+        <v>0.0234091</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0325443</v>
+        <v>0.032093</v>
       </c>
       <c r="C18" t="n">
-        <v>0.023916</v>
+        <v>0.0239226</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0249111</v>
+        <v>0.0241018</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0426051</v>
+        <v>0.0385137</v>
       </c>
       <c r="C19" t="n">
-        <v>0.025353</v>
+        <v>0.0252563</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0267769</v>
+        <v>0.0256008</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0533087</v>
+        <v>0.0519542</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0270742</v>
+        <v>0.0276089</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0292341</v>
+        <v>0.027572</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.07417550000000001</v>
+        <v>0.0693019</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0307788</v>
+        <v>0.0312184</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0333191</v>
+        <v>0.03152</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0969667</v>
+        <v>0.0899644</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0388249</v>
+        <v>0.0393683</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0415849</v>
+        <v>0.0392582</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.125443</v>
+        <v>0.118104</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0200503</v>
+        <v>0.0200852</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0202034</v>
+        <v>0.0200735</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0166389</v>
+        <v>0.0166766</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0202586</v>
+        <v>0.0203155</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0205298</v>
+        <v>0.0203244</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0173113</v>
+        <v>0.0174631</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0205607</v>
+        <v>0.0208794</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0208373</v>
+        <v>0.0208714</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0180359</v>
+        <v>0.0182321</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0207379</v>
+        <v>0.0211212</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0210812</v>
+        <v>0.0212486</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0188379</v>
+        <v>0.0193253</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0210408</v>
+        <v>0.0214887</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0214232</v>
+        <v>0.0217395</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0204161</v>
+        <v>0.02074</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0214674</v>
+        <v>0.0220765</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0218913</v>
+        <v>0.0221142</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0223594</v>
+        <v>0.0221459</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0220484</v>
+        <v>0.0228856</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0226317</v>
+        <v>0.0231643</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0254245</v>
+        <v>0.0248731</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0227334</v>
+        <v>0.0236372</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0233652</v>
+        <v>0.0237646</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0305704</v>
+        <v>0.0286514</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0235732</v>
+        <v>0.0244999</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0243272</v>
+        <v>0.0244602</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0366704</v>
+        <v>0.0344322</v>
       </c>
       <c r="C32" t="n">
-        <v>0.024561</v>
+        <v>0.0247453</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0254978</v>
+        <v>0.0249146</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0443647</v>
+        <v>0.0440191</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0263723</v>
+        <v>0.026633</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0274369</v>
+        <v>0.0268224</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.056996</v>
+        <v>0.0547231</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0291134</v>
+        <v>0.0294125</v>
       </c>
       <c r="D34" t="n">
-        <v>0.030457</v>
+        <v>0.0296296</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0724737</v>
+        <v>0.0719064</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0324577</v>
+        <v>0.0331787</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0340772</v>
+        <v>0.0333967</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0928981</v>
+        <v>0.0940211</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0393967</v>
+        <v>0.0405345</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0409769</v>
+        <v>0.0404256</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.118816</v>
+        <v>0.120926</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0209659</v>
+        <v>0.0210448</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0212287</v>
+        <v>0.0209498</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0176223</v>
+        <v>0.0168651</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0214626</v>
+        <v>0.0213202</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0215635</v>
+        <v>0.0213352</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0182393</v>
+        <v>0.017637</v>
       </c>
       <c r="C39" t="n">
-        <v>0.022116</v>
+        <v>0.0216051</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0220962</v>
+        <v>0.0215956</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.019442</v>
+        <v>0.0186374</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0223586</v>
+        <v>0.0219542</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0225263</v>
+        <v>0.0219397</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0206143</v>
+        <v>0.0200013</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0226716</v>
+        <v>0.022311</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0229603</v>
+        <v>0.022358</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0222805</v>
+        <v>0.0215533</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0229702</v>
+        <v>0.0227687</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0232511</v>
+        <v>0.0227831</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0246175</v>
+        <v>0.0244106</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0236818</v>
+        <v>0.023317</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0240916</v>
+        <v>0.0233018</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0280486</v>
+        <v>0.027034</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0243643</v>
+        <v>0.0239343</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0247924</v>
+        <v>0.0239761</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0334387</v>
+        <v>0.031569</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0254717</v>
+        <v>0.024764</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0261183</v>
+        <v>0.0248851</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0391235</v>
+        <v>0.0372815</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0267445</v>
+        <v>0.0259107</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0273381</v>
+        <v>0.0260593</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0468426</v>
+        <v>0.0442375</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0285096</v>
+        <v>0.0276116</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0292054</v>
+        <v>0.0277916</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0581654</v>
+        <v>0.0551328</v>
       </c>
       <c r="C48" t="n">
-        <v>0.030311</v>
+        <v>0.0306401</v>
       </c>
       <c r="D48" t="n">
-        <v>0.03101</v>
+        <v>0.0306762</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.07181029999999999</v>
+        <v>0.0699945</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0347241</v>
+        <v>0.0348293</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0352943</v>
+        <v>0.0348689</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.09075080000000001</v>
+        <v>0.0907062</v>
       </c>
       <c r="C50" t="n">
-        <v>0.041731</v>
+        <v>0.0421287</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0420132</v>
+        <v>0.0418382</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.117177</v>
+        <v>0.116547</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0218188</v>
+        <v>0.0218437</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0219132</v>
+        <v>0.0218487</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.142714</v>
+        <v>0.14277</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0221175</v>
+        <v>0.0220975</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0221646</v>
+        <v>0.0220999</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0190721</v>
+        <v>0.0190796</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0223071</v>
+        <v>0.0223805</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0224424</v>
+        <v>0.0223458</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0201914</v>
+        <v>0.02029</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0226433</v>
+        <v>0.0226594</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0227444</v>
+        <v>0.0226611</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0218115</v>
+        <v>0.0218077</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0230639</v>
+        <v>0.0231067</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0231296</v>
+        <v>0.0230324</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0236138</v>
+        <v>0.0237942</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0235091</v>
+        <v>0.0235435</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0236373</v>
+        <v>0.0235294</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0262421</v>
+        <v>0.0265055</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0240629</v>
+        <v>0.0240853</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0242571</v>
+        <v>0.0241182</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.029796</v>
+        <v>0.0299963</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0248079</v>
+        <v>0.0248482</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0249687</v>
+        <v>0.0248998</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0337446</v>
+        <v>0.0342567</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0258023</v>
+        <v>0.0259047</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0260111</v>
+        <v>0.0258893</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0388738</v>
+        <v>0.0395583</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0271042</v>
+        <v>0.0271577</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0273025</v>
+        <v>0.0271694</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0463888</v>
+        <v>0.0468701</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0289826</v>
+        <v>0.0290161</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0291001</v>
+        <v>0.0289985</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0562733</v>
+        <v>0.0563826</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0317335</v>
+        <v>0.0316714</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0318193</v>
+        <v>0.0316703</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0699983</v>
+        <v>0.070478</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0360564</v>
+        <v>0.0359545</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0363082</v>
+        <v>0.0360027</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0900977</v>
+        <v>0.0896965</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0431266</v>
+        <v>0.0430591</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0433653</v>
+        <v>0.0429309</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.115155</v>
+        <v>0.115267</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0549851</v>
+        <v>0.055025</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0554276</v>
+        <v>0.0549639</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.146479</v>
+        <v>0.146138</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0225316</v>
+        <v>0.0225215</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0225959</v>
+        <v>0.0225374</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0196308</v>
+        <v>0.0197239</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0229026</v>
+        <v>0.0229008</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0230112</v>
+        <v>0.0229202</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0209953</v>
+        <v>0.0210869</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0232877</v>
+        <v>0.0232759</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0233296</v>
+        <v>0.0232458</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.022671</v>
+        <v>0.0225335</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0236337</v>
+        <v>0.0235989</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0236941</v>
+        <v>0.0236256</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0244629</v>
+        <v>0.024639</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0241585</v>
+        <v>0.0242016</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0242136</v>
+        <v>0.0241728</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0268103</v>
+        <v>0.0272072</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0246719</v>
+        <v>0.0247064</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0247594</v>
+        <v>0.0247038</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0300843</v>
+        <v>0.0303356</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0254773</v>
+        <v>0.0254713</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0255762</v>
+        <v>0.0254941</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0344048</v>
+        <v>0.0344576</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0264017</v>
+        <v>0.0263541</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0264259</v>
+        <v>0.0264094</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0392674</v>
+        <v>0.0397721</v>
       </c>
       <c r="C74" t="n">
-        <v>0.027661</v>
+        <v>0.0276958</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0276979</v>
+        <v>0.0276125</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0461246</v>
+        <v>0.0466059</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0295937</v>
+        <v>0.0296115</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0296133</v>
+        <v>0.0295817</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0554301</v>
+        <v>0.0560923</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0323441</v>
+        <v>0.0322595</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0322571</v>
+        <v>0.0323324</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.068262</v>
+        <v>0.0689073</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0366059</v>
+        <v>0.0364201</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0365318</v>
+        <v>0.0363804</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0862129</v>
+        <v>0.08750570000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0427183</v>
+        <v>0.0428267</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0427055</v>
+        <v>0.0427316</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.110926</v>
+        <v>0.112575</v>
       </c>
       <c r="C79" t="n">
-        <v>0.053616</v>
+        <v>0.0534176</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0535231</v>
+        <v>0.0535161</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.142696</v>
+        <v>0.143827</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0228445</v>
+        <v>0.0228668</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0228317</v>
+        <v>0.0228486</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0200683</v>
+        <v>0.0200702</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0231144</v>
+        <v>0.0231624</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0231745</v>
+        <v>0.0231945</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0212528</v>
+        <v>0.0212857</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0234868</v>
+        <v>0.0235163</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0235423</v>
+        <v>0.0235338</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0228178</v>
+        <v>0.0231187</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0239253</v>
+        <v>0.023936</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0239999</v>
+        <v>0.023936</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0248083</v>
+        <v>0.0251082</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0244565</v>
+        <v>0.0244497</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0245451</v>
+        <v>0.0245196</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0273913</v>
+        <v>0.0276004</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0250761</v>
+        <v>0.0250892</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0251087</v>
+        <v>0.0250709</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0304597</v>
+        <v>0.0302926</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0258979</v>
+        <v>0.0259445</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0258868</v>
+        <v>0.0258745</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0344104</v>
+        <v>0.0341988</v>
       </c>
       <c r="C87" t="n">
-        <v>0.026946</v>
+        <v>0.0269492</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0270424</v>
+        <v>0.0269283</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.039102</v>
+        <v>0.0393012</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0283543</v>
+        <v>0.0283062</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0283325</v>
+        <v>0.0283169</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0456199</v>
+        <v>0.0461518</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0301579</v>
+        <v>0.0300942</v>
       </c>
       <c r="D89" t="n">
-        <v>0.030096</v>
+        <v>0.0299968</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0545019</v>
+        <v>0.0547281</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0325813</v>
+        <v>0.0324996</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0325067</v>
+        <v>0.0325337</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0663663</v>
+        <v>0.06687890000000001</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0361354</v>
+        <v>0.0361393</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0361404</v>
+        <v>0.0360905</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0831937</v>
+        <v>0.0836558</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0417735</v>
+        <v>0.0417279</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0417912</v>
+        <v>0.0417015</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.106873</v>
+        <v>0.107609</v>
       </c>
       <c r="C93" t="n">
-        <v>0.051075</v>
+        <v>0.0509868</v>
       </c>
       <c r="D93" t="n">
-        <v>0.051032</v>
+        <v>0.0510255</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.137592</v>
+        <v>0.138551</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0243916</v>
+        <v>0.024313</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0244357</v>
+        <v>0.0243689</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0204967</v>
+        <v>0.0205476</v>
       </c>
       <c r="C95" t="n">
-        <v>0.024945</v>
+        <v>0.0247811</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0250021</v>
+        <v>0.0249589</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0216721</v>
+        <v>0.0220317</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0254282</v>
+        <v>0.0253171</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0254017</v>
+        <v>0.0254092</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0232331</v>
+        <v>0.0231668</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0259678</v>
+        <v>0.0259495</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0260088</v>
+        <v>0.0259779</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0253818</v>
+        <v>0.0248487</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0267509</v>
+        <v>0.0266935</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0267458</v>
+        <v>0.0268538</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0274028</v>
+        <v>0.0274314</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0280877</v>
+        <v>0.0279897</v>
       </c>
       <c r="D99" t="n">
-        <v>0.028072</v>
+        <v>0.0284059</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0302749</v>
+        <v>0.0306935</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0301649</v>
+        <v>0.0304054</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0300703</v>
+        <v>0.0306247</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0343948</v>
+        <v>0.035453</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0331805</v>
+        <v>0.0332976</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0330534</v>
+        <v>0.0331652</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0400343</v>
+        <v>0.0398441</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0363381</v>
+        <v>0.0378228</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0363524</v>
+        <v>0.0367437</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0464975</v>
+        <v>0.0461055</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0396694</v>
+        <v>0.0398067</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0396849</v>
+        <v>0.0399506</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0545298</v>
+        <v>0.0543018</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0428229</v>
+        <v>0.0428465</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0428637</v>
+        <v>0.0430467</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.065554</v>
+        <v>0.06544609999999999</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0462345</v>
+        <v>0.0461975</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0461657</v>
+        <v>0.0461939</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0813749</v>
+        <v>0.0809177</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0508265</v>
+        <v>0.0508458</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0507177</v>
+        <v>0.0508097</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.103259</v>
+        <v>0.102833</v>
       </c>
       <c r="C107" t="n">
-        <v>0.0577258</v>
+        <v>0.0578518</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0575435</v>
+        <v>0.0577627</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.132627</v>
+        <v>0.132545</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0361971</v>
+        <v>0.0363476</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0360668</v>
+        <v>0.0363218</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.16885</v>
+        <v>0.168946</v>
       </c>
       <c r="C109" t="n">
-        <v>0.0372519</v>
+        <v>0.0372439</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0369507</v>
+        <v>0.037162</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0308993</v>
+        <v>0.0311101</v>
       </c>
       <c r="C110" t="n">
-        <v>0.038114</v>
+        <v>0.0381667</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0379854</v>
+        <v>0.0381415</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0323951</v>
+        <v>0.0328231</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0390005</v>
+        <v>0.0387952</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0388355</v>
+        <v>0.0389116</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0344981</v>
+        <v>0.034522</v>
       </c>
       <c r="C112" t="n">
-        <v>0.039763</v>
+        <v>0.0397878</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0396515</v>
+        <v>0.0396504</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0358829</v>
+        <v>0.0358552</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0406777</v>
+        <v>0.0406895</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0405136</v>
+        <v>0.0405162</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0380409</v>
+        <v>0.0382136</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0414215</v>
+        <v>0.0417124</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0416036</v>
+        <v>0.0417261</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.0407497</v>
+        <v>0.040898</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0427957</v>
+        <v>0.0426608</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0425168</v>
+        <v>0.0428423</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.0438277</v>
+        <v>0.0441855</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0441276</v>
+        <v>0.0439343</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0439802</v>
+        <v>0.0439675</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.0485227</v>
+        <v>0.0485994</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0456426</v>
+        <v>0.045655</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0455625</v>
+        <v>0.0455472</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.0554949</v>
+        <v>0.0552992</v>
       </c>
       <c r="C118" t="n">
-        <v>0.047595</v>
+        <v>0.0474392</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0474686</v>
+        <v>0.0476339</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.06496979999999999</v>
+        <v>0.06510390000000001</v>
       </c>
       <c r="C119" t="n">
-        <v>0.0502643</v>
+        <v>0.0502513</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0500855</v>
+        <v>0.0502808</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.0796646</v>
+        <v>0.0793003</v>
       </c>
       <c r="C120" t="n">
-        <v>0.054102</v>
+        <v>0.0543343</v>
       </c>
       <c r="D120" t="n">
-        <v>0.0540472</v>
+        <v>0.0540906</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.100182</v>
+        <v>0.100334</v>
       </c>
       <c r="C121" t="n">
-        <v>0.059971</v>
+        <v>0.0601813</v>
       </c>
       <c r="D121" t="n">
-        <v>0.0598373</v>
+        <v>0.0602997</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.128665</v>
+        <v>0.128317</v>
       </c>
       <c r="C122" t="n">
-        <v>0.07027079999999999</v>
+        <v>0.0705457</v>
       </c>
       <c r="D122" t="n">
-        <v>0.0702776</v>
+        <v>0.07025000000000001</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.165041</v>
+        <v>0.168431</v>
       </c>
       <c r="C123" t="n">
-        <v>0.0424921</v>
+        <v>0.0478324</v>
       </c>
       <c r="D123" t="n">
-        <v>0.0425168</v>
+        <v>0.0497911</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.0343111</v>
+        <v>0.0407063</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0431221</v>
+        <v>0.0528463</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0431419</v>
+        <v>0.0521478</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.0348923</v>
+        <v>0.043355</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0438365</v>
+        <v>0.0542596</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0436749</v>
+        <v>0.0531594</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.036436</v>
+        <v>0.0445765</v>
       </c>
       <c r="C126" t="n">
-        <v>0.0446385</v>
+        <v>0.0548721</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0445544</v>
+        <v>0.0527923</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.038564</v>
+        <v>0.0473404</v>
       </c>
       <c r="C127" t="n">
-        <v>0.0456301</v>
+        <v>0.0550155</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0453797</v>
+        <v>0.0560907</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0404232</v>
+        <v>0.0514745</v>
       </c>
       <c r="C128" t="n">
-        <v>0.046608</v>
+        <v>0.0594721</v>
       </c>
       <c r="D128" t="n">
-        <v>0.04644</v>
+        <v>0.0579601</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0432516</v>
+        <v>0.0534829</v>
       </c>
       <c r="C129" t="n">
-        <v>0.0476395</v>
+        <v>0.0592486</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0478474</v>
+        <v>0.0602178</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0461413</v>
+        <v>0.058768</v>
       </c>
       <c r="C130" t="n">
-        <v>0.0491323</v>
+        <v>0.0625168</v>
       </c>
       <c r="D130" t="n">
-        <v>0.049331</v>
+        <v>0.0610583</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0506178</v>
+        <v>0.06433270000000001</v>
       </c>
       <c r="C131" t="n">
-        <v>0.0506212</v>
+        <v>0.0710224</v>
       </c>
       <c r="D131" t="n">
-        <v>0.0511423</v>
+        <v>0.066328</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0584283</v>
+        <v>0.0751404</v>
       </c>
       <c r="C132" t="n">
-        <v>0.0527569</v>
+        <v>0.06588189999999999</v>
       </c>
       <c r="D132" t="n">
-        <v>0.0528307</v>
+        <v>0.07542600000000001</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.0677919</v>
+        <v>0.09581099999999999</v>
       </c>
       <c r="C133" t="n">
-        <v>0.0557055</v>
+        <v>0.08374570000000001</v>
       </c>
       <c r="D133" t="n">
-        <v>0.0556609</v>
+        <v>0.0827734</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.082276</v>
+        <v>0.11181</v>
       </c>
       <c r="C134" t="n">
-        <v>0.0633225</v>
+        <v>0.0852701</v>
       </c>
       <c r="D134" t="n">
-        <v>0.06587800000000001</v>
+        <v>0.08075549999999999</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.11148</v>
+        <v>0.106659</v>
       </c>
       <c r="C135" t="n">
-        <v>0.0762612</v>
+        <v>0.06505610000000001</v>
       </c>
       <c r="D135" t="n">
-        <v>0.07364859999999999</v>
+        <v>0.06520720000000001</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.151468</v>
+        <v>0.129614</v>
       </c>
       <c r="C136" t="n">
-        <v>0.0877796</v>
+        <v>0.0752092</v>
       </c>
       <c r="D136" t="n">
-        <v>0.0885364</v>
+        <v>0.07515380000000001</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.184948</v>
+        <v>0.162709</v>
       </c>
       <c r="C137" t="n">
-        <v>0.0722226</v>
+        <v>0.0599668</v>
       </c>
       <c r="D137" t="n">
-        <v>0.0766231</v>
+        <v>0.0641833</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0558564</v>
+        <v>0.0473744</v>
       </c>
       <c r="C138" t="n">
-        <v>0.0736864</v>
+        <v>0.0601259</v>
       </c>
       <c r="D138" t="n">
-        <v>0.07633479999999999</v>
+        <v>0.0605419</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0598427</v>
+        <v>0.0481247</v>
       </c>
       <c r="C139" t="n">
-        <v>0.07583769999999999</v>
+        <v>0.0607469</v>
       </c>
       <c r="D139" t="n">
-        <v>0.073184</v>
+        <v>0.0610631</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.0614767</v>
+        <v>0.0492524</v>
       </c>
       <c r="C140" t="n">
-        <v>0.0757483</v>
+        <v>0.0621075</v>
       </c>
       <c r="D140" t="n">
-        <v>0.0743109</v>
+        <v>0.0619569</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.06481339999999999</v>
+        <v>0.0509814</v>
       </c>
       <c r="C141" t="n">
-        <v>0.0810462</v>
+        <v>0.06261220000000001</v>
       </c>
       <c r="D141" t="n">
-        <v>0.0862893</v>
+        <v>0.0625279</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.0728924</v>
+        <v>0.0529377</v>
       </c>
       <c r="C142" t="n">
-        <v>0.0829467</v>
+        <v>0.0657037</v>
       </c>
       <c r="D142" t="n">
-        <v>0.0850108</v>
+        <v>0.06374489999999999</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.0816219</v>
+        <v>0.0560159</v>
       </c>
       <c r="C143" t="n">
-        <v>0.09529310000000001</v>
+        <v>0.06442680000000001</v>
       </c>
       <c r="D143" t="n">
-        <v>0.0953263</v>
+        <v>0.0647505</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered unsuccessful looukp.xlsx
+++ b/clang-arm64/Scattered unsuccessful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0195834</v>
+        <v>0.0231673</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0227184</v>
+        <v>0.0239859</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0230296</v>
+        <v>0.023118</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0218957</v>
+        <v>0.0262923</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0234515</v>
+        <v>0.0253243</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0236371</v>
+        <v>0.0240241</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0268233</v>
+        <v>0.0304265</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0240788</v>
+        <v>0.0269562</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0244116</v>
+        <v>0.0248054</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0359585</v>
+        <v>0.0348071</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0250481</v>
+        <v>0.0283191</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0248443</v>
+        <v>0.0257707</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0500891</v>
+        <v>0.0489628</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0262728</v>
+        <v>0.0301884</v>
       </c>
       <c r="D6" t="n">
-        <v>0.02595</v>
+        <v>0.0270499</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0723104</v>
+        <v>0.06318410000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0290453</v>
+        <v>0.0348661</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0297712</v>
+        <v>0.0317499</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.09610340000000001</v>
+        <v>0.091709</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0372051</v>
+        <v>0.0425298</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0409026</v>
+        <v>0.0407988</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.118361</v>
+        <v>0.109751</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0201312</v>
+        <v>0.0204628</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0203439</v>
+        <v>0.020435</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0165264</v>
+        <v>0.016996</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0203751</v>
+        <v>0.0207554</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0204024</v>
+        <v>0.0205281</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.016843</v>
+        <v>0.0177064</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0206377</v>
+        <v>0.0210826</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0207458</v>
+        <v>0.020746</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0174445</v>
+        <v>0.0184521</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0208463</v>
+        <v>0.0214427</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0211363</v>
+        <v>0.0211529</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0181888</v>
+        <v>0.0194292</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0211994</v>
+        <v>0.0217299</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0213216</v>
+        <v>0.0215224</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0190586</v>
+        <v>0.0207166</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0214074</v>
+        <v>0.0220299</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0215762</v>
+        <v>0.0216341</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0202445</v>
+        <v>0.0223423</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0219531</v>
+        <v>0.0226438</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0221027</v>
+        <v>0.0222291</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0229641</v>
+        <v>0.0248999</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0224387</v>
+        <v>0.0233231</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0226773</v>
+        <v>0.0225938</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0266523</v>
+        <v>0.0291403</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0231387</v>
+        <v>0.0242394</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0234091</v>
+        <v>0.0234695</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.032093</v>
+        <v>0.034272</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0239226</v>
+        <v>0.0252656</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0241018</v>
+        <v>0.0243813</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0385137</v>
+        <v>0.0420233</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0252563</v>
+        <v>0.0275009</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0256008</v>
+        <v>0.0258789</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0519542</v>
+        <v>0.0521319</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0276089</v>
+        <v>0.0303645</v>
       </c>
       <c r="D20" t="n">
-        <v>0.027572</v>
+        <v>0.0280795</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0693019</v>
+        <v>0.07019839999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0312184</v>
+        <v>0.0344155</v>
       </c>
       <c r="D21" t="n">
-        <v>0.03152</v>
+        <v>0.0322132</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0899644</v>
+        <v>0.0940459</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0393683</v>
+        <v>0.0430093</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0392582</v>
+        <v>0.0409308</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.118104</v>
+        <v>0.118183</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0200852</v>
+        <v>0.020389</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0200735</v>
+        <v>0.0200903</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0166766</v>
+        <v>0.0170946</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0203155</v>
+        <v>0.0206801</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0203244</v>
+        <v>0.0203316</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0174631</v>
+        <v>0.0180753</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0208794</v>
+        <v>0.0209483</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0208714</v>
+        <v>0.0206558</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0182321</v>
+        <v>0.0192255</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0211212</v>
+        <v>0.0212439</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0212486</v>
+        <v>0.0208924</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0193253</v>
+        <v>0.0207065</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0214887</v>
+        <v>0.0215639</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0217395</v>
+        <v>0.0211978</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.02074</v>
+        <v>0.0218734</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0220765</v>
+        <v>0.022067</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0221142</v>
+        <v>0.0216556</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0221459</v>
+        <v>0.023998</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0228856</v>
+        <v>0.0228322</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0231643</v>
+        <v>0.0223644</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0248731</v>
+        <v>0.0265351</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0236372</v>
+        <v>0.0236432</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0237646</v>
+        <v>0.0230724</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0286514</v>
+        <v>0.030126</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0244999</v>
+        <v>0.0246663</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0244602</v>
+        <v>0.0239356</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0344322</v>
+        <v>0.0362665</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0247453</v>
+        <v>0.0261284</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0249146</v>
+        <v>0.0251198</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0440191</v>
+        <v>0.0445735</v>
       </c>
       <c r="C33" t="n">
-        <v>0.026633</v>
+        <v>0.0280699</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0268224</v>
+        <v>0.0269047</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0547231</v>
+        <v>0.0565336</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0294125</v>
+        <v>0.0312603</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0296296</v>
+        <v>0.0299158</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0719064</v>
+        <v>0.0729939</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0331787</v>
+        <v>0.035076</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0333967</v>
+        <v>0.0333745</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0940211</v>
+        <v>0.09447220000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0405345</v>
+        <v>0.0418985</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0404256</v>
+        <v>0.0403896</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.120926</v>
+        <v>0.121589</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0210448</v>
+        <v>0.0211927</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0209498</v>
+        <v>0.0210066</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0168651</v>
+        <v>0.0173781</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0213202</v>
+        <v>0.0215534</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0213352</v>
+        <v>0.0213467</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.017637</v>
+        <v>0.0181882</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0216051</v>
+        <v>0.0218252</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0215956</v>
+        <v>0.0216092</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0186374</v>
+        <v>0.0192242</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0219542</v>
+        <v>0.0222263</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0219397</v>
+        <v>0.0219347</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0200013</v>
+        <v>0.0207314</v>
       </c>
       <c r="C41" t="n">
-        <v>0.022311</v>
+        <v>0.0226536</v>
       </c>
       <c r="D41" t="n">
-        <v>0.022358</v>
+        <v>0.0223539</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0215533</v>
+        <v>0.0223143</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0227687</v>
+        <v>0.0231242</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0227831</v>
+        <v>0.0227817</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0244106</v>
+        <v>0.0245956</v>
       </c>
       <c r="C43" t="n">
-        <v>0.023317</v>
+        <v>0.0236616</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0233018</v>
+        <v>0.023323</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.027034</v>
+        <v>0.027349</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0239343</v>
+        <v>0.0243569</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0239761</v>
+        <v>0.0239374</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.031569</v>
+        <v>0.031283</v>
       </c>
       <c r="C45" t="n">
-        <v>0.024764</v>
+        <v>0.0253754</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0248851</v>
+        <v>0.0248695</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0372815</v>
+        <v>0.0368344</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0259107</v>
+        <v>0.0266602</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0260593</v>
+        <v>0.0260327</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0442375</v>
+        <v>0.0444371</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0276116</v>
+        <v>0.0283948</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0277916</v>
+        <v>0.0278792</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0551328</v>
+        <v>0.0554447</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0306401</v>
+        <v>0.0313448</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0306762</v>
+        <v>0.0307</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0699945</v>
+        <v>0.07000580000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0348293</v>
+        <v>0.0356526</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0348689</v>
+        <v>0.0348102</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0907062</v>
+        <v>0.09141829999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0421287</v>
+        <v>0.0425233</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0418382</v>
+        <v>0.0416287</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.116547</v>
+        <v>0.117711</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0218437</v>
+        <v>0.0220384</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0218487</v>
+        <v>0.0218524</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.14277</v>
+        <v>0.143044</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0220975</v>
+        <v>0.0222784</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0220999</v>
+        <v>0.022094</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0190796</v>
+        <v>0.0195798</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0223805</v>
+        <v>0.0224839</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0223458</v>
+        <v>0.0223713</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.02029</v>
+        <v>0.0208709</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0226594</v>
+        <v>0.022831</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0226611</v>
+        <v>0.022698</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0218077</v>
+        <v>0.0224677</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0231067</v>
+        <v>0.0232834</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0230324</v>
+        <v>0.0231042</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0237942</v>
+        <v>0.0241378</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0235435</v>
+        <v>0.0237303</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0235294</v>
+        <v>0.0235843</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0265055</v>
+        <v>0.0268923</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0240853</v>
+        <v>0.0243614</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0241182</v>
+        <v>0.0241531</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0299963</v>
+        <v>0.0300226</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0248482</v>
+        <v>0.0251281</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0248998</v>
+        <v>0.0249053</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0342567</v>
+        <v>0.03392</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0259047</v>
+        <v>0.0261817</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0258893</v>
+        <v>0.0258932</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0395583</v>
+        <v>0.039512</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0271577</v>
+        <v>0.027423</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0271694</v>
+        <v>0.0272105</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0468701</v>
+        <v>0.0469936</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0290161</v>
+        <v>0.0292319</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0289985</v>
+        <v>0.0290935</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0563826</v>
+        <v>0.0570141</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0316714</v>
+        <v>0.0319642</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0316703</v>
+        <v>0.0316565</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.070478</v>
+        <v>0.07046189999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0359545</v>
+        <v>0.0363102</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0360027</v>
+        <v>0.0360788</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0896965</v>
+        <v>0.09017840000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0430591</v>
+        <v>0.043458</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0429309</v>
+        <v>0.0429443</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.115267</v>
+        <v>0.116173</v>
       </c>
       <c r="C65" t="n">
-        <v>0.055025</v>
+        <v>0.0553318</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0549639</v>
+        <v>0.0548188</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.146138</v>
+        <v>0.146961</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0225215</v>
+        <v>0.0225791</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0225374</v>
+        <v>0.0225119</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0197239</v>
+        <v>0.0199177</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0229008</v>
+        <v>0.0229519</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0229202</v>
+        <v>0.022874</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0210869</v>
+        <v>0.0211199</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0232759</v>
+        <v>0.0233314</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0232458</v>
+        <v>0.023266</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0225335</v>
+        <v>0.0228316</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0235989</v>
+        <v>0.023647</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0236256</v>
+        <v>0.0236162</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.024639</v>
+        <v>0.0247064</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0242016</v>
+        <v>0.0242287</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0241728</v>
+        <v>0.0241406</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0272072</v>
+        <v>0.0274575</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0247064</v>
+        <v>0.0247478</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0247038</v>
+        <v>0.024673</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0303356</v>
+        <v>0.0308605</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0254713</v>
+        <v>0.0255314</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0254941</v>
+        <v>0.0254443</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0344576</v>
+        <v>0.0350235</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0263541</v>
+        <v>0.0265547</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0264094</v>
+        <v>0.0263663</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0397721</v>
+        <v>0.0402902</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0276958</v>
+        <v>0.0277309</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0276125</v>
+        <v>0.0276027</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0466059</v>
+        <v>0.0470164</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0296115</v>
+        <v>0.0295892</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0295817</v>
+        <v>0.0294868</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0560923</v>
+        <v>0.0565801</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0322595</v>
+        <v>0.0322179</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0323324</v>
+        <v>0.0321523</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0689073</v>
+        <v>0.06956370000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0364201</v>
+        <v>0.0363599</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0363804</v>
+        <v>0.0363278</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.08750570000000001</v>
+        <v>0.0879939</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0428267</v>
+        <v>0.0425573</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0427316</v>
+        <v>0.0426052</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.112575</v>
+        <v>0.112299</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0534176</v>
+        <v>0.0532587</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0535161</v>
+        <v>0.0533011</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.143827</v>
+        <v>0.144118</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0228668</v>
+        <v>0.0228889</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0228486</v>
+        <v>0.022811</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0200702</v>
+        <v>0.0201215</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0231624</v>
+        <v>0.0231762</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0231945</v>
+        <v>0.0231657</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0212857</v>
+        <v>0.0212348</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0235163</v>
+        <v>0.023554</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0235338</v>
+        <v>0.0234771</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0231187</v>
+        <v>0.0228567</v>
       </c>
       <c r="C83" t="n">
-        <v>0.023936</v>
+        <v>0.0239914</v>
       </c>
       <c r="D83" t="n">
-        <v>0.023936</v>
+        <v>0.0238827</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0251082</v>
+        <v>0.0248182</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0244497</v>
+        <v>0.0245682</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0245196</v>
+        <v>0.0244389</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0276004</v>
+        <v>0.0272674</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0250892</v>
+        <v>0.0251475</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0250709</v>
+        <v>0.0250669</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0302926</v>
+        <v>0.0301855</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0259445</v>
+        <v>0.0259159</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0258745</v>
+        <v>0.0258596</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0341988</v>
+        <v>0.0342305</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0269492</v>
+        <v>0.0269699</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0269283</v>
+        <v>0.0269116</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0393012</v>
+        <v>0.0391951</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0283062</v>
+        <v>0.0283431</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0283169</v>
+        <v>0.0282785</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0461518</v>
+        <v>0.045828</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0300942</v>
+        <v>0.0299541</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0299968</v>
+        <v>0.0299314</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0547281</v>
+        <v>0.0548085</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0324996</v>
+        <v>0.0324821</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0325337</v>
+        <v>0.0325674</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.06687890000000001</v>
+        <v>0.0669858</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0361393</v>
+        <v>0.0360795</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0360905</v>
+        <v>0.0360389</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0836558</v>
+        <v>0.0838603</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0417279</v>
+        <v>0.0416326</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0417015</v>
+        <v>0.041809</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.107609</v>
+        <v>0.107181</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0509868</v>
+        <v>0.0508011</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0510255</v>
+        <v>0.0509648</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.138551</v>
+        <v>0.138193</v>
       </c>
       <c r="C94" t="n">
-        <v>0.024313</v>
+        <v>0.0243417</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0243689</v>
+        <v>0.0243693</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0205476</v>
+        <v>0.0210626</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0247811</v>
+        <v>0.0248454</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0249589</v>
+        <v>0.0249158</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0220317</v>
+        <v>0.0221436</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0253171</v>
+        <v>0.0253958</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0254092</v>
+        <v>0.0253339</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0231668</v>
+        <v>0.02311</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0259495</v>
+        <v>0.0259223</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0259779</v>
+        <v>0.0259473</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0248487</v>
+        <v>0.025298</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0266935</v>
+        <v>0.0266652</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0268538</v>
+        <v>0.0267545</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0274314</v>
+        <v>0.0272079</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0279897</v>
+        <v>0.0281378</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0284059</v>
+        <v>0.0281322</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0306935</v>
+        <v>0.0301961</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0304054</v>
+        <v>0.0301997</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0306247</v>
+        <v>0.0302107</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.035453</v>
+        <v>0.03485</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0332976</v>
+        <v>0.0332124</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0331652</v>
+        <v>0.0332227</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0398441</v>
+        <v>0.0396898</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0378228</v>
+        <v>0.0363474</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0367437</v>
+        <v>0.036354</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0461055</v>
+        <v>0.0464955</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0398067</v>
+        <v>0.0396035</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0399506</v>
+        <v>0.0396799</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0543018</v>
+        <v>0.0541925</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0428465</v>
+        <v>0.0428606</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0430467</v>
+        <v>0.0428295</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.06544609999999999</v>
+        <v>0.0654696</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0461975</v>
+        <v>0.0464026</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0461939</v>
+        <v>0.0464673</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0809177</v>
+        <v>0.0813272</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0508458</v>
+        <v>0.0508209</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0508097</v>
+        <v>0.0508579</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.102833</v>
+        <v>0.103531</v>
       </c>
       <c r="C107" t="n">
-        <v>0.0578518</v>
+        <v>0.0576653</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0577627</v>
+        <v>0.0575611</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.132545</v>
+        <v>0.133108</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0363476</v>
+        <v>0.0360975</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0363218</v>
+        <v>0.0360449</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.168946</v>
+        <v>0.169305</v>
       </c>
       <c r="C109" t="n">
-        <v>0.0372439</v>
+        <v>0.0369304</v>
       </c>
       <c r="D109" t="n">
-        <v>0.037162</v>
+        <v>0.0370818</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0311101</v>
+        <v>0.0310143</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0381667</v>
+        <v>0.0378432</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0381415</v>
+        <v>0.038</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0328231</v>
+        <v>0.0324472</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0387952</v>
+        <v>0.0388035</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0389116</v>
+        <v>0.0388085</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.034522</v>
+        <v>0.0341904</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0397878</v>
+        <v>0.0395875</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0396504</v>
+        <v>0.0396758</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0358552</v>
+        <v>0.0359406</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0406895</v>
+        <v>0.0404649</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0405162</v>
+        <v>0.0406253</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0382136</v>
+        <v>0.0379029</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0417124</v>
+        <v>0.0414165</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0417261</v>
+        <v>0.0415364</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.040898</v>
+        <v>0.0405995</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0426608</v>
+        <v>0.0424923</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0428423</v>
+        <v>0.0426357</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.0441855</v>
+        <v>0.0440429</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0439343</v>
+        <v>0.043895</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0439675</v>
+        <v>0.0437894</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.0485994</v>
+        <v>0.0484673</v>
       </c>
       <c r="C117" t="n">
-        <v>0.045655</v>
+        <v>0.0455491</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0455472</v>
+        <v>0.0454145</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.0552992</v>
+        <v>0.0550825</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0474392</v>
+        <v>0.0474633</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0476339</v>
+        <v>0.0475549</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.06510390000000001</v>
+        <v>0.06512220000000001</v>
       </c>
       <c r="C119" t="n">
-        <v>0.0502513</v>
+        <v>0.0502454</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0502808</v>
+        <v>0.050131</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.0793003</v>
+        <v>0.0794426</v>
       </c>
       <c r="C120" t="n">
-        <v>0.0543343</v>
+        <v>0.0539489</v>
       </c>
       <c r="D120" t="n">
-        <v>0.0540906</v>
+        <v>0.0540239</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.100334</v>
+        <v>0.09995800000000001</v>
       </c>
       <c r="C121" t="n">
-        <v>0.0601813</v>
+        <v>0.0598866</v>
       </c>
       <c r="D121" t="n">
-        <v>0.0602997</v>
+        <v>0.0600018</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.128317</v>
+        <v>0.128283</v>
       </c>
       <c r="C122" t="n">
-        <v>0.0705457</v>
+        <v>0.0701497</v>
       </c>
       <c r="D122" t="n">
-        <v>0.07025000000000001</v>
+        <v>0.07025380000000001</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.168431</v>
+        <v>0.163899</v>
       </c>
       <c r="C123" t="n">
-        <v>0.0478324</v>
+        <v>0.0424494</v>
       </c>
       <c r="D123" t="n">
-        <v>0.0497911</v>
+        <v>0.0416915</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.0407063</v>
+        <v>0.0341772</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0528463</v>
+        <v>0.0432011</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0521478</v>
+        <v>0.0430691</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.043355</v>
+        <v>0.0353909</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0542596</v>
+        <v>0.043927</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0531594</v>
+        <v>0.043763</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.0445765</v>
+        <v>0.0368663</v>
       </c>
       <c r="C126" t="n">
-        <v>0.0548721</v>
+        <v>0.0447723</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0527923</v>
+        <v>0.0446856</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.0473404</v>
+        <v>0.0386569</v>
       </c>
       <c r="C127" t="n">
-        <v>0.0550155</v>
+        <v>0.0455508</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0560907</v>
+        <v>0.0456799</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0514745</v>
+        <v>0.0407977</v>
       </c>
       <c r="C128" t="n">
-        <v>0.0594721</v>
+        <v>0.0466491</v>
       </c>
       <c r="D128" t="n">
-        <v>0.0579601</v>
+        <v>0.0466418</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0534829</v>
+        <v>0.0437408</v>
       </c>
       <c r="C129" t="n">
-        <v>0.0592486</v>
+        <v>0.0477556</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0602178</v>
+        <v>0.0476334</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.058768</v>
+        <v>0.0472474</v>
       </c>
       <c r="C130" t="n">
-        <v>0.0625168</v>
+        <v>0.0490846</v>
       </c>
       <c r="D130" t="n">
-        <v>0.0610583</v>
+        <v>0.0487357</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.06433270000000001</v>
+        <v>0.0520075</v>
       </c>
       <c r="C131" t="n">
-        <v>0.0710224</v>
+        <v>0.0506622</v>
       </c>
       <c r="D131" t="n">
-        <v>0.066328</v>
+        <v>0.0506885</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0751404</v>
+        <v>0.0585879</v>
       </c>
       <c r="C132" t="n">
-        <v>0.06588189999999999</v>
+        <v>0.05259</v>
       </c>
       <c r="D132" t="n">
-        <v>0.07542600000000001</v>
+        <v>0.0524747</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.09581099999999999</v>
+        <v>0.068352</v>
       </c>
       <c r="C133" t="n">
-        <v>0.08374570000000001</v>
+        <v>0.0553803</v>
       </c>
       <c r="D133" t="n">
-        <v>0.0827734</v>
+        <v>0.0549126</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.11181</v>
+        <v>0.08193110000000001</v>
       </c>
       <c r="C134" t="n">
-        <v>0.0852701</v>
+        <v>0.0592367</v>
       </c>
       <c r="D134" t="n">
-        <v>0.08075549999999999</v>
+        <v>0.0589368</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.106659</v>
+        <v>0.102201</v>
       </c>
       <c r="C135" t="n">
-        <v>0.06505610000000001</v>
+        <v>0.0651328</v>
       </c>
       <c r="D135" t="n">
-        <v>0.06520720000000001</v>
+        <v>0.0647234</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.129614</v>
+        <v>0.129606</v>
       </c>
       <c r="C136" t="n">
-        <v>0.0752092</v>
+        <v>0.0749561</v>
       </c>
       <c r="D136" t="n">
-        <v>0.07515380000000001</v>
+        <v>0.07443809999999999</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.162709</v>
+        <v>0.164195</v>
       </c>
       <c r="C137" t="n">
-        <v>0.0599668</v>
+        <v>0.0595461</v>
       </c>
       <c r="D137" t="n">
-        <v>0.0641833</v>
+        <v>0.0596931</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0473744</v>
+        <v>0.0469575</v>
       </c>
       <c r="C138" t="n">
-        <v>0.0601259</v>
+        <v>0.0600486</v>
       </c>
       <c r="D138" t="n">
-        <v>0.0605419</v>
+        <v>0.0602082</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0481247</v>
+        <v>0.048327</v>
       </c>
       <c r="C139" t="n">
-        <v>0.0607469</v>
+        <v>0.0611467</v>
       </c>
       <c r="D139" t="n">
-        <v>0.0610631</v>
+        <v>0.0610207</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.0492524</v>
+        <v>0.049296</v>
       </c>
       <c r="C140" t="n">
-        <v>0.0621075</v>
+        <v>0.0616599</v>
       </c>
       <c r="D140" t="n">
-        <v>0.0619569</v>
+        <v>0.0618369</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0509814</v>
+        <v>0.0513465</v>
       </c>
       <c r="C141" t="n">
-        <v>0.06261220000000001</v>
+        <v>0.0627009</v>
       </c>
       <c r="D141" t="n">
-        <v>0.0625279</v>
+        <v>0.0625927</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.0529377</v>
+        <v>0.0533143</v>
       </c>
       <c r="C142" t="n">
-        <v>0.0657037</v>
+        <v>0.0639607</v>
       </c>
       <c r="D142" t="n">
-        <v>0.06374489999999999</v>
+        <v>0.0634086</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.0560159</v>
+        <v>0.0561232</v>
       </c>
       <c r="C143" t="n">
-        <v>0.06442680000000001</v>
+        <v>0.0647533</v>
       </c>
       <c r="D143" t="n">
-        <v>0.0647505</v>
+        <v>0.06448139999999999</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered unsuccessful looukp.xlsx
+++ b/clang-arm64/Scattered unsuccessful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0196541</v>
+        <v>0.0192701</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0236953</v>
+        <v>0.0229555</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0628543</v>
+        <v>0.0702779</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.022714</v>
+        <v>0.0243228</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0249792</v>
+        <v>0.0236407</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0664814</v>
+        <v>0.0707641</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0280732</v>
+        <v>0.0272651</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0258301</v>
+        <v>0.0243926</v>
       </c>
       <c r="D4" t="n">
-        <v>0.07155309999999999</v>
+        <v>0.0760511</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0383508</v>
+        <v>0.036592</v>
       </c>
       <c r="C5" t="n">
-        <v>0.027365</v>
+        <v>0.0248982</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0787023</v>
+        <v>0.0787062</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.052548</v>
+        <v>0.0532488</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0285038</v>
+        <v>0.0263295</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0762729</v>
+        <v>0.0849548</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.066875</v>
+        <v>0.0708611</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0328798</v>
+        <v>0.0296795</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0596881</v>
+        <v>0.0596315</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0901585</v>
+        <v>0.088491</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0393672</v>
+        <v>0.0378334</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0581592</v>
+        <v>0.0595976</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.118385</v>
+        <v>0.121267</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0204906</v>
+        <v>0.0201712</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0642033</v>
+        <v>0.06508650000000001</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0166794</v>
+        <v>0.0162334</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0206485</v>
+        <v>0.020483</v>
       </c>
       <c r="D10" t="n">
-        <v>0.066584</v>
+        <v>0.06737079999999999</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.017095</v>
+        <v>0.0168355</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0211179</v>
+        <v>0.0207473</v>
       </c>
       <c r="D11" t="n">
-        <v>0.07067469999999999</v>
+        <v>0.07466730000000001</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0175332</v>
+        <v>0.0172626</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0213</v>
+        <v>0.0209175</v>
       </c>
       <c r="D12" t="n">
-        <v>0.07539460000000001</v>
+        <v>0.07599400000000001</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0179948</v>
+        <v>0.0179858</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0216018</v>
+        <v>0.0212455</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0776222</v>
+        <v>0.0795834</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0186281</v>
+        <v>0.018933</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0219038</v>
+        <v>0.0214335</v>
       </c>
       <c r="D14" t="n">
-        <v>0.08080030000000001</v>
+        <v>0.082548</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0208214</v>
+        <v>0.0204814</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0225654</v>
+        <v>0.0221448</v>
       </c>
       <c r="D15" t="n">
-        <v>0.08254499999999999</v>
+        <v>0.0860621</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0229571</v>
+        <v>0.0247615</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0230834</v>
+        <v>0.0224124</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0868236</v>
+        <v>0.0880512</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0261478</v>
+        <v>0.0298429</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0241669</v>
+        <v>0.0233675</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0901443</v>
+        <v>0.0918621</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0314248</v>
+        <v>0.0337264</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0251919</v>
+        <v>0.0241694</v>
       </c>
       <c r="D18" t="n">
-        <v>0.09041780000000001</v>
+        <v>0.09295200000000001</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0425587</v>
+        <v>0.0437462</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0266921</v>
+        <v>0.0256484</v>
       </c>
       <c r="D19" t="n">
-        <v>0.09432</v>
+        <v>0.0958155</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0519527</v>
+        <v>0.0583284</v>
       </c>
       <c r="C20" t="n">
-        <v>0.028982</v>
+        <v>0.027583</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0970657</v>
+        <v>0.0974735</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.07000199999999999</v>
+        <v>0.0750439</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0333148</v>
+        <v>0.0320519</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0672951</v>
+        <v>0.06758309999999999</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0890392</v>
+        <v>0.100417</v>
       </c>
       <c r="C22" t="n">
-        <v>0.041356</v>
+        <v>0.0400639</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0716408</v>
+        <v>0.0713961</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.119166</v>
+        <v>0.123214</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0202092</v>
+        <v>0.0201758</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0714137</v>
+        <v>0.0725722</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0162997</v>
+        <v>0.0165817</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0206159</v>
+        <v>0.0204105</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0762883</v>
+        <v>0.0758537</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0169862</v>
+        <v>0.0172017</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0208339</v>
+        <v>0.0206868</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0788282</v>
+        <v>0.0802508</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0176941</v>
+        <v>0.017777</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0210765</v>
+        <v>0.0208838</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0817253</v>
+        <v>0.0822746</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0184008</v>
+        <v>0.018627</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0214492</v>
+        <v>0.0212035</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0845086</v>
+        <v>0.08571139999999999</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0198508</v>
+        <v>0.0200808</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0218967</v>
+        <v>0.0216295</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0872682</v>
+        <v>0.0891204</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0220004</v>
+        <v>0.0221616</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0226372</v>
+        <v>0.0223627</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0900213</v>
+        <v>0.0909273</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0252038</v>
+        <v>0.0254043</v>
       </c>
       <c r="C30" t="n">
-        <v>0.023422</v>
+        <v>0.0230033</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0922123</v>
+        <v>0.0935366</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.029776</v>
+        <v>0.0307075</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0242916</v>
+        <v>0.0237776</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0951592</v>
+        <v>0.0960047</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0355674</v>
+        <v>0.0362828</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0254245</v>
+        <v>0.0249928</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0965795</v>
+        <v>0.0977346</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0445372</v>
+        <v>0.0454492</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0274613</v>
+        <v>0.0268032</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0983135</v>
+        <v>0.0999284</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0557284</v>
+        <v>0.0572476</v>
       </c>
       <c r="C34" t="n">
-        <v>0.030458</v>
+        <v>0.0296977</v>
       </c>
       <c r="D34" t="n">
-        <v>0.101668</v>
+        <v>0.101558</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0722409</v>
+        <v>0.0734906</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0342121</v>
+        <v>0.0335182</v>
       </c>
       <c r="D35" t="n">
-        <v>0.06976019999999999</v>
+        <v>0.06981229999999999</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0937438</v>
+        <v>0.09511269999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>0.040763</v>
+        <v>0.0404491</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0732333</v>
+        <v>0.07328419999999999</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.120898</v>
+        <v>0.120575</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0210932</v>
+        <v>0.0210204</v>
       </c>
       <c r="D37" t="n">
-        <v>0.07563</v>
+        <v>0.0763583</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.017101</v>
+        <v>0.0169311</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0214487</v>
+        <v>0.0213895</v>
       </c>
       <c r="D38" t="n">
-        <v>0.07849739999999999</v>
+        <v>0.0801655</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0179106</v>
+        <v>0.0176772</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0217322</v>
+        <v>0.0216525</v>
       </c>
       <c r="D39" t="n">
-        <v>0.082784</v>
+        <v>0.08316850000000001</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0187733</v>
+        <v>0.0188031</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0220884</v>
+        <v>0.0220144</v>
       </c>
       <c r="D40" t="n">
-        <v>0.08502469999999999</v>
+        <v>0.0855629</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0201048</v>
+        <v>0.0199969</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0225227</v>
+        <v>0.0223493</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0879409</v>
+        <v>0.088688</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0218759</v>
+        <v>0.0218049</v>
       </c>
       <c r="C42" t="n">
-        <v>0.022985</v>
+        <v>0.0228576</v>
       </c>
       <c r="D42" t="n">
-        <v>0.091546</v>
+        <v>0.0926399</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0240552</v>
+        <v>0.0242984</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0235789</v>
+        <v>0.0233719</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0944207</v>
+        <v>0.0944411</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0282097</v>
+        <v>0.0277475</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0242082</v>
+        <v>0.0239553</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0970037</v>
+        <v>0.0968704</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0323602</v>
+        <v>0.0326947</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0251386</v>
+        <v>0.0249083</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0991208</v>
+        <v>0.0992659</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0379086</v>
+        <v>0.0386564</v>
       </c>
       <c r="C46" t="n">
-        <v>0.026316</v>
+        <v>0.0260488</v>
       </c>
       <c r="D46" t="n">
-        <v>0.101009</v>
+        <v>0.101449</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.045608</v>
+        <v>0.0464566</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0281349</v>
+        <v>0.0277297</v>
       </c>
       <c r="D47" t="n">
-        <v>0.103707</v>
+        <v>0.10378</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.056116</v>
+        <v>0.0566538</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0309591</v>
+        <v>0.0306792</v>
       </c>
       <c r="D48" t="n">
-        <v>0.105854</v>
+        <v>0.106357</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0707222</v>
+        <v>0.0720233</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0351441</v>
+        <v>0.0347702</v>
       </c>
       <c r="D49" t="n">
-        <v>0.108622</v>
+        <v>0.108562</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0919893</v>
+        <v>0.09290909999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0422416</v>
+        <v>0.0418471</v>
       </c>
       <c r="D50" t="n">
-        <v>0.07991180000000001</v>
+        <v>0.07579420000000001</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.118674</v>
+        <v>0.118192</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0221848</v>
+        <v>0.0219167</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0852565</v>
+        <v>0.0786483</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.145772</v>
+        <v>0.141805</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0226422</v>
+        <v>0.0221804</v>
       </c>
       <c r="D52" t="n">
-        <v>0.09070300000000001</v>
+        <v>0.0819291</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0196284</v>
+        <v>0.0190424</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0230127</v>
+        <v>0.0223761</v>
       </c>
       <c r="D53" t="n">
-        <v>0.100166</v>
+        <v>0.0859284</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0208398</v>
+        <v>0.0201965</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0233388</v>
+        <v>0.0226798</v>
       </c>
       <c r="D54" t="n">
-        <v>0.104121</v>
+        <v>0.0895837</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0223922</v>
+        <v>0.0217061</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0237292</v>
+        <v>0.0230499</v>
       </c>
       <c r="D55" t="n">
-        <v>0.110505</v>
+        <v>0.0931172</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0244506</v>
+        <v>0.0236491</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0243318</v>
+        <v>0.0235837</v>
       </c>
       <c r="D56" t="n">
-        <v>0.118017</v>
+        <v>0.0967599</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.026822</v>
+        <v>0.0261766</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0249093</v>
+        <v>0.0241248</v>
       </c>
       <c r="D57" t="n">
-        <v>0.134799</v>
+        <v>0.0990302</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0309899</v>
+        <v>0.0295681</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0260608</v>
+        <v>0.0248958</v>
       </c>
       <c r="D58" t="n">
-        <v>0.150714</v>
+        <v>0.102356</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0354207</v>
+        <v>0.0338059</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0270795</v>
+        <v>0.0258893</v>
       </c>
       <c r="D59" t="n">
-        <v>0.149598</v>
+        <v>0.104875</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0417881</v>
+        <v>0.0395635</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0277862</v>
+        <v>0.0271584</v>
       </c>
       <c r="D60" t="n">
-        <v>0.106064</v>
+        <v>0.106273</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0476276</v>
+        <v>0.0461926</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0291051</v>
+        <v>0.0290121</v>
       </c>
       <c r="D61" t="n">
-        <v>0.110453</v>
+        <v>0.108794</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0572692</v>
+        <v>0.0559419</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0317252</v>
+        <v>0.031651</v>
       </c>
       <c r="D62" t="n">
-        <v>0.112451</v>
+        <v>0.113488</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0716026</v>
+        <v>0.0701972</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0360878</v>
+        <v>0.0360054</v>
       </c>
       <c r="D63" t="n">
-        <v>0.114784</v>
+        <v>0.114771</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0905608</v>
+        <v>0.0891171</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0429958</v>
+        <v>0.0429417</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0808511</v>
+        <v>0.080749</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.116785</v>
+        <v>0.115676</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0551095</v>
+        <v>0.0548794</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0851362</v>
+        <v>0.0846306</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.147933</v>
+        <v>0.146711</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0226031</v>
+        <v>0.0225223</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0905902</v>
+        <v>0.0899934</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0197012</v>
+        <v>0.0198306</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0229372</v>
+        <v>0.0229037</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0957775</v>
+        <v>0.0945588</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0211376</v>
+        <v>0.0212201</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0232973</v>
+        <v>0.0232374</v>
       </c>
       <c r="D68" t="n">
-        <v>0.09995809999999999</v>
+        <v>0.0990616</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0228213</v>
+        <v>0.022622</v>
       </c>
       <c r="C69" t="n">
-        <v>0.023692</v>
+        <v>0.0236348</v>
       </c>
       <c r="D69" t="n">
-        <v>0.105452</v>
+        <v>0.103907</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0247479</v>
+        <v>0.0244848</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0242143</v>
+        <v>0.0241746</v>
       </c>
       <c r="D70" t="n">
-        <v>0.110664</v>
+        <v>0.110512</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0274354</v>
+        <v>0.0270902</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0247678</v>
+        <v>0.0246745</v>
       </c>
       <c r="D71" t="n">
-        <v>0.115302</v>
+        <v>0.115842</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0306606</v>
+        <v>0.0303097</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0255057</v>
+        <v>0.0254376</v>
       </c>
       <c r="D72" t="n">
-        <v>0.119763</v>
+        <v>0.119479</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0349113</v>
+        <v>0.0346043</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0263971</v>
+        <v>0.0263496</v>
       </c>
       <c r="D73" t="n">
-        <v>0.125554</v>
+        <v>0.124464</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0401967</v>
+        <v>0.0397593</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0276756</v>
+        <v>0.027628</v>
       </c>
       <c r="D74" t="n">
-        <v>0.130129</v>
+        <v>0.130312</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0468474</v>
+        <v>0.0468248</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0295323</v>
+        <v>0.0295702</v>
       </c>
       <c r="D75" t="n">
-        <v>0.134996</v>
+        <v>0.134304</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0560401</v>
+        <v>0.0560536</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0321746</v>
+        <v>0.0322823</v>
       </c>
       <c r="D76" t="n">
-        <v>0.141567</v>
+        <v>0.140793</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0688926</v>
+        <v>0.0690201</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0363344</v>
+        <v>0.0363794</v>
       </c>
       <c r="D77" t="n">
-        <v>0.147833</v>
+        <v>0.146898</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0873152</v>
+        <v>0.0869891</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0425489</v>
+        <v>0.0427262</v>
       </c>
       <c r="D78" t="n">
-        <v>0.113894</v>
+        <v>0.111735</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.112319</v>
+        <v>0.112024</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0534234</v>
+        <v>0.0534947</v>
       </c>
       <c r="D79" t="n">
-        <v>0.121926</v>
+        <v>0.119301</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.143939</v>
+        <v>0.143597</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0228514</v>
+        <v>0.0228004</v>
       </c>
       <c r="D80" t="n">
-        <v>0.12561</v>
+        <v>0.124514</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0198688</v>
+        <v>0.0200396</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0231978</v>
+        <v>0.023118</v>
       </c>
       <c r="D81" t="n">
-        <v>0.134696</v>
+        <v>0.132597</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0212272</v>
+        <v>0.0213633</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0235633</v>
+        <v>0.0235022</v>
       </c>
       <c r="D82" t="n">
-        <v>0.13899</v>
+        <v>0.142669</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0227931</v>
+        <v>0.0228683</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0239172</v>
+        <v>0.0239312</v>
       </c>
       <c r="D83" t="n">
-        <v>0.149483</v>
+        <v>0.146992</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0248234</v>
+        <v>0.024799</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0244035</v>
+        <v>0.0245083</v>
       </c>
       <c r="D84" t="n">
-        <v>0.154065</v>
+        <v>0.153609</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0274348</v>
+        <v>0.027527</v>
       </c>
       <c r="C85" t="n">
-        <v>0.025024</v>
+        <v>0.025094</v>
       </c>
       <c r="D85" t="n">
-        <v>0.163029</v>
+        <v>0.161097</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0304566</v>
+        <v>0.0301555</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0259339</v>
+        <v>0.0260326</v>
       </c>
       <c r="D86" t="n">
-        <v>0.167705</v>
+        <v>0.170338</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.03421</v>
+        <v>0.0343742</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0269228</v>
+        <v>0.0269955</v>
       </c>
       <c r="D87" t="n">
-        <v>0.178539</v>
+        <v>0.178464</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0392722</v>
+        <v>0.0391245</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0282665</v>
+        <v>0.0283265</v>
       </c>
       <c r="D88" t="n">
-        <v>0.186083</v>
+        <v>0.185439</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0457853</v>
+        <v>0.0459719</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0299743</v>
+        <v>0.0300097</v>
       </c>
       <c r="D89" t="n">
-        <v>0.189656</v>
+        <v>0.192193</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0543613</v>
+        <v>0.0546779</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0325068</v>
+        <v>0.0325305</v>
       </c>
       <c r="D90" t="n">
-        <v>0.197145</v>
+        <v>0.201643</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0667861</v>
+        <v>0.0664754</v>
       </c>
       <c r="C91" t="n">
-        <v>0.03601</v>
+        <v>0.0360794</v>
       </c>
       <c r="D91" t="n">
-        <v>0.214136</v>
+        <v>0.209003</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0837842</v>
+        <v>0.083616</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0416961</v>
+        <v>0.0416749</v>
       </c>
       <c r="D92" t="n">
-        <v>0.155917</v>
+        <v>0.155102</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.107021</v>
+        <v>0.10758</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0509443</v>
+        <v>0.0509263</v>
       </c>
       <c r="D93" t="n">
-        <v>0.163239</v>
+        <v>0.162093</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.138367</v>
+        <v>0.138489</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0243696</v>
+        <v>0.0243533</v>
       </c>
       <c r="D94" t="n">
-        <v>0.170659</v>
+        <v>0.169494</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0206107</v>
+        <v>0.0210334</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0248253</v>
+        <v>0.024799</v>
       </c>
       <c r="D95" t="n">
-        <v>0.176032</v>
+        <v>0.175325</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.021977</v>
+        <v>0.0217159</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0253215</v>
+        <v>0.0252993</v>
       </c>
       <c r="D96" t="n">
-        <v>0.180564</v>
+        <v>0.182757</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0236946</v>
+        <v>0.023162</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0259145</v>
+        <v>0.0258731</v>
       </c>
       <c r="D97" t="n">
-        <v>0.187866</v>
+        <v>0.190353</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0252601</v>
+        <v>0.0250624</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0267649</v>
+        <v>0.0267694</v>
       </c>
       <c r="D98" t="n">
-        <v>0.197686</v>
+        <v>0.197218</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0278301</v>
+        <v>0.0275205</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0281154</v>
+        <v>0.0280914</v>
       </c>
       <c r="D99" t="n">
-        <v>0.205106</v>
+        <v>0.202948</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0304313</v>
+        <v>0.03058</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0301922</v>
+        <v>0.0302681</v>
       </c>
       <c r="D100" t="n">
-        <v>0.213378</v>
+        <v>0.212473</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0347894</v>
+        <v>0.0346568</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0330066</v>
+        <v>0.0331872</v>
       </c>
       <c r="D101" t="n">
-        <v>0.22001</v>
+        <v>0.220659</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0397493</v>
+        <v>0.0397003</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0364155</v>
+        <v>0.0362231</v>
       </c>
       <c r="D102" t="n">
-        <v>0.227646</v>
+        <v>0.227365</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0462983</v>
+        <v>0.046096</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0397311</v>
+        <v>0.039451</v>
       </c>
       <c r="D103" t="n">
-        <v>0.235713</v>
+        <v>0.236003</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0543709</v>
+        <v>0.0543946</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0428055</v>
+        <v>0.0426279</v>
       </c>
       <c r="D104" t="n">
-        <v>0.243297</v>
+        <v>0.243181</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0656243</v>
+        <v>0.0653705</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0463608</v>
+        <v>0.0460297</v>
       </c>
       <c r="D105" t="n">
-        <v>0.252123</v>
+        <v>0.252265</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0814584</v>
+        <v>0.0811148</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0508278</v>
+        <v>0.0507459</v>
       </c>
       <c r="D106" t="n">
-        <v>0.261676</v>
+        <v>0.261765</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.103239</v>
+        <v>0.103175</v>
       </c>
       <c r="C107" t="n">
-        <v>0.0575807</v>
+        <v>0.0577146</v>
       </c>
       <c r="D107" t="n">
-        <v>0.190199</v>
+        <v>0.190273</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.133268</v>
+        <v>0.132518</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0361449</v>
+        <v>0.0360949</v>
       </c>
       <c r="D108" t="n">
-        <v>0.197145</v>
+        <v>0.196864</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.169441</v>
+        <v>0.168322</v>
       </c>
       <c r="C109" t="n">
-        <v>0.0368822</v>
+        <v>0.0371062</v>
       </c>
       <c r="D109" t="n">
-        <v>0.204605</v>
+        <v>0.204761</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0309188</v>
+        <v>0.0310899</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0379133</v>
+        <v>0.0380285</v>
       </c>
       <c r="D110" t="n">
-        <v>0.21028</v>
+        <v>0.209844</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0323647</v>
+        <v>0.0322923</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0388181</v>
+        <v>0.0388656</v>
       </c>
       <c r="D111" t="n">
-        <v>0.217256</v>
+        <v>0.218665</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.034075</v>
+        <v>0.0342854</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0396854</v>
+        <v>0.0395924</v>
       </c>
       <c r="D112" t="n">
-        <v>0.224583</v>
+        <v>0.225693</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0358327</v>
+        <v>0.0359349</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0406322</v>
+        <v>0.0406176</v>
       </c>
       <c r="D113" t="n">
-        <v>0.233435</v>
+        <v>0.233521</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0383382</v>
+        <v>0.0379893</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0416831</v>
+        <v>0.0415856</v>
       </c>
       <c r="D114" t="n">
-        <v>0.241083</v>
+        <v>0.240745</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.0406737</v>
+        <v>0.0407585</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0427634</v>
+        <v>0.0426783</v>
       </c>
       <c r="D115" t="n">
-        <v>0.248226</v>
+        <v>0.247504</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.0441246</v>
+        <v>0.0441501</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0439657</v>
+        <v>0.0437707</v>
       </c>
       <c r="D116" t="n">
-        <v>0.256309</v>
+        <v>0.256019</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.048723</v>
+        <v>0.0484502</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0456052</v>
+        <v>0.045487</v>
       </c>
       <c r="D117" t="n">
-        <v>0.263815</v>
+        <v>0.263089</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.0551746</v>
+        <v>0.0551684</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0476259</v>
+        <v>0.0474878</v>
       </c>
       <c r="D118" t="n">
-        <v>0.272729</v>
+        <v>0.272028</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.0650047</v>
+        <v>0.0646458</v>
       </c>
       <c r="C119" t="n">
-        <v>0.0501364</v>
+        <v>0.0501857</v>
       </c>
       <c r="D119" t="n">
-        <v>0.281114</v>
+        <v>0.280548</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.07941529999999999</v>
+        <v>0.07932169999999999</v>
       </c>
       <c r="C120" t="n">
-        <v>0.0541071</v>
+        <v>0.0540451</v>
       </c>
       <c r="D120" t="n">
-        <v>0.29099</v>
+        <v>0.289957</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.100142</v>
+        <v>0.10005</v>
       </c>
       <c r="C121" t="n">
-        <v>0.0600156</v>
+        <v>0.0599734</v>
       </c>
       <c r="D121" t="n">
-        <v>0.206413</v>
+        <v>0.205523</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.128345</v>
+        <v>0.128252</v>
       </c>
       <c r="C122" t="n">
-        <v>0.0702492</v>
+        <v>0.07017039999999999</v>
       </c>
       <c r="D122" t="n">
-        <v>0.211988</v>
+        <v>0.212041</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.16426</v>
+        <v>0.164199</v>
       </c>
       <c r="C123" t="n">
-        <v>0.0426162</v>
+        <v>0.0416948</v>
       </c>
       <c r="D123" t="n">
-        <v>0.218375</v>
+        <v>0.21815</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.0340693</v>
+        <v>0.0342479</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0433137</v>
+        <v>0.0431438</v>
       </c>
       <c r="D124" t="n">
-        <v>0.225371</v>
+        <v>0.225052</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.035891</v>
+        <v>0.0355662</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0441334</v>
+        <v>0.0439373</v>
       </c>
       <c r="D125" t="n">
-        <v>0.233023</v>
+        <v>0.232228</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.0369158</v>
+        <v>0.0366507</v>
       </c>
       <c r="C126" t="n">
-        <v>0.0448138</v>
+        <v>0.04482</v>
       </c>
       <c r="D126" t="n">
-        <v>0.239145</v>
+        <v>0.238725</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.0387195</v>
+        <v>0.0385552</v>
       </c>
       <c r="C127" t="n">
-        <v>0.0457069</v>
+        <v>0.0457358</v>
       </c>
       <c r="D127" t="n">
-        <v>0.246948</v>
+        <v>0.246409</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0407176</v>
+        <v>0.0408535</v>
       </c>
       <c r="C128" t="n">
-        <v>0.0468309</v>
+        <v>0.046808</v>
       </c>
       <c r="D128" t="n">
-        <v>0.254198</v>
+        <v>0.253458</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0435753</v>
+        <v>0.0433283</v>
       </c>
       <c r="C129" t="n">
-        <v>0.047681</v>
+        <v>0.0478818</v>
       </c>
       <c r="D129" t="n">
-        <v>0.261944</v>
+        <v>0.261542</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0474413</v>
+        <v>0.0465491</v>
       </c>
       <c r="C130" t="n">
-        <v>0.0488768</v>
+        <v>0.049176</v>
       </c>
       <c r="D130" t="n">
-        <v>0.270874</v>
+        <v>0.269387</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0518101</v>
+        <v>0.0521202</v>
       </c>
       <c r="C131" t="n">
-        <v>0.0504662</v>
+        <v>0.0508097</v>
       </c>
       <c r="D131" t="n">
-        <v>0.277744</v>
+        <v>0.276993</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0586713</v>
+        <v>0.0592493</v>
       </c>
       <c r="C132" t="n">
-        <v>0.0524585</v>
+        <v>0.0527734</v>
       </c>
       <c r="D132" t="n">
-        <v>0.285401</v>
+        <v>0.285399</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.06794360000000001</v>
+        <v>0.0687511</v>
       </c>
       <c r="C133" t="n">
-        <v>0.0553225</v>
+        <v>0.0554515</v>
       </c>
       <c r="D133" t="n">
-        <v>0.294939</v>
+        <v>0.293612</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.0817268</v>
+        <v>0.0826658</v>
       </c>
       <c r="C134" t="n">
-        <v>0.0590454</v>
+        <v>0.0593293</v>
       </c>
       <c r="D134" t="n">
-        <v>0.304154</v>
+        <v>0.303166</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.101445</v>
+        <v>0.102514</v>
       </c>
       <c r="C135" t="n">
-        <v>0.0649672</v>
+        <v>0.06519079999999999</v>
       </c>
       <c r="D135" t="n">
-        <v>0.212796</v>
+        <v>0.213668</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.129425</v>
+        <v>0.130508</v>
       </c>
       <c r="C136" t="n">
-        <v>0.07502730000000001</v>
+        <v>0.0752613</v>
       </c>
       <c r="D136" t="n">
-        <v>0.219404</v>
+        <v>0.219449</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.163873</v>
+        <v>0.16469</v>
       </c>
       <c r="C137" t="n">
-        <v>0.0609618</v>
+        <v>0.0597122</v>
       </c>
       <c r="D137" t="n">
-        <v>0.226867</v>
+        <v>0.226324</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0473433</v>
+        <v>0.0467406</v>
       </c>
       <c r="C138" t="n">
-        <v>0.0606272</v>
+        <v>0.0603948</v>
       </c>
       <c r="D138" t="n">
-        <v>0.233183</v>
+        <v>0.233012</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0531312</v>
+        <v>0.0481232</v>
       </c>
       <c r="C139" t="n">
-        <v>0.0716113</v>
+        <v>0.0607825</v>
       </c>
       <c r="D139" t="n">
-        <v>0.258776</v>
+        <v>0.240247</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.058706</v>
+        <v>0.0489416</v>
       </c>
       <c r="C140" t="n">
-        <v>0.0740532</v>
+        <v>0.0616201</v>
       </c>
       <c r="D140" t="n">
-        <v>0.2671</v>
+        <v>0.247762</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0582968</v>
+        <v>0.0509875</v>
       </c>
       <c r="C141" t="n">
-        <v>0.075507</v>
+        <v>0.0624384</v>
       </c>
       <c r="D141" t="n">
-        <v>0.259936</v>
+        <v>0.255313</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.0553286</v>
+        <v>0.0531945</v>
       </c>
       <c r="C142" t="n">
-        <v>0.0709659</v>
+        <v>0.06323819999999999</v>
       </c>
       <c r="D142" t="n">
-        <v>0.270609</v>
+        <v>0.263005</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.0675741</v>
+        <v>0.0555251</v>
       </c>
       <c r="C143" t="n">
-        <v>0.0822119</v>
+        <v>0.06418989999999999</v>
       </c>
       <c r="D143" t="n">
-        <v>0.281995</v>
+        <v>0.270665</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered unsuccessful looukp.xlsx
+++ b/clang-arm64/Scattered unsuccessful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0192701</v>
+        <v>0.0187256</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0229555</v>
+        <v>0.0241788</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0702779</v>
+        <v>0.0658711</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0243228</v>
+        <v>0.0213146</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0236407</v>
+        <v>0.0254793</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0707641</v>
+        <v>0.0705529</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0272651</v>
+        <v>0.029306</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0243926</v>
+        <v>0.0267627</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0760511</v>
+        <v>0.07065979999999999</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.036592</v>
+        <v>0.0318611</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0248982</v>
+        <v>0.0280773</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0787062</v>
+        <v>0.0767825</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0532488</v>
+        <v>0.0534201</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0263295</v>
+        <v>0.0295603</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0849548</v>
+        <v>0.0806635</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0708611</v>
+        <v>0.07088460000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0296795</v>
+        <v>0.033978</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0596315</v>
+        <v>0.0614666</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.088491</v>
+        <v>0.0843463</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0378334</v>
+        <v>0.0423738</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0595976</v>
+        <v>0.0604025</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.121267</v>
+        <v>0.116676</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0201712</v>
+        <v>0.0210619</v>
       </c>
       <c r="D9" t="n">
-        <v>0.06508650000000001</v>
+        <v>0.0686988</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0162334</v>
+        <v>0.0162248</v>
       </c>
       <c r="C10" t="n">
-        <v>0.020483</v>
+        <v>0.0214222</v>
       </c>
       <c r="D10" t="n">
-        <v>0.06737079999999999</v>
+        <v>0.06545289999999999</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0168355</v>
+        <v>0.0167893</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0207473</v>
+        <v>0.0215745</v>
       </c>
       <c r="D11" t="n">
-        <v>0.07466730000000001</v>
+        <v>0.0691446</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0172626</v>
+        <v>0.0172892</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0209175</v>
+        <v>0.0218668</v>
       </c>
       <c r="D12" t="n">
-        <v>0.07599400000000001</v>
+        <v>0.073777</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0179858</v>
+        <v>0.0178417</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0212455</v>
+        <v>0.022216</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0795834</v>
+        <v>0.0786703</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.018933</v>
+        <v>0.0185985</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0214335</v>
+        <v>0.0227255</v>
       </c>
       <c r="D14" t="n">
-        <v>0.082548</v>
+        <v>0.0804391</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0204814</v>
+        <v>0.0200747</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0221448</v>
+        <v>0.023207</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0860621</v>
+        <v>0.0838758</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0247615</v>
+        <v>0.0220204</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0224124</v>
+        <v>0.0239688</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0880512</v>
+        <v>0.0867213</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0298429</v>
+        <v>0.0244469</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0233675</v>
+        <v>0.0247309</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0918621</v>
+        <v>0.0893917</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0337264</v>
+        <v>0.0328393</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0241694</v>
+        <v>0.025917</v>
       </c>
       <c r="D18" t="n">
-        <v>0.09295200000000001</v>
+        <v>0.09257749999999999</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0437462</v>
+        <v>0.0407254</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0256484</v>
+        <v>0.0274883</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0958155</v>
+        <v>0.09402480000000001</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0583284</v>
+        <v>0.0547025</v>
       </c>
       <c r="C20" t="n">
-        <v>0.027583</v>
+        <v>0.0299623</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0974735</v>
+        <v>0.0965761</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0750439</v>
+        <v>0.06914389999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0320519</v>
+        <v>0.0341283</v>
       </c>
       <c r="D21" t="n">
-        <v>0.06758309999999999</v>
+        <v>0.0676871</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.100417</v>
+        <v>0.0930597</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0400639</v>
+        <v>0.0415774</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0713961</v>
+        <v>0.0691314</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.123214</v>
+        <v>0.117334</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0201758</v>
+        <v>0.0210963</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0725722</v>
+        <v>0.0710662</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0165817</v>
+        <v>0.0164316</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0204105</v>
+        <v>0.0213145</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0758537</v>
+        <v>0.0751097</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0172017</v>
+        <v>0.0169305</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0206868</v>
+        <v>0.0215341</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0802508</v>
+        <v>0.0832299</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.017777</v>
+        <v>0.0175256</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0208838</v>
+        <v>0.0218132</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0822746</v>
+        <v>0.08154450000000001</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.018627</v>
+        <v>0.0183579</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0212035</v>
+        <v>0.0220802</v>
       </c>
       <c r="D27" t="n">
-        <v>0.08571139999999999</v>
+        <v>0.08649519999999999</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0200808</v>
+        <v>0.0198463</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0216295</v>
+        <v>0.0225429</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0891204</v>
+        <v>0.08793520000000001</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0221616</v>
+        <v>0.0217049</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0223627</v>
+        <v>0.023021</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0909273</v>
+        <v>0.0917495</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0254043</v>
+        <v>0.0249252</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0230033</v>
+        <v>0.0238444</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0935366</v>
+        <v>0.0924435</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0307075</v>
+        <v>0.0303716</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0237776</v>
+        <v>0.0246355</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0960047</v>
+        <v>0.094933</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0362828</v>
+        <v>0.0351019</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0249928</v>
+        <v>0.0258591</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0977346</v>
+        <v>0.0968604</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0454492</v>
+        <v>0.0438116</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0268032</v>
+        <v>0.0280954</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0999284</v>
+        <v>0.0990302</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0572476</v>
+        <v>0.0530222</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0296977</v>
+        <v>0.0311022</v>
       </c>
       <c r="D34" t="n">
-        <v>0.101558</v>
+        <v>0.09999570000000001</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0734906</v>
+        <v>0.0697802</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0335182</v>
+        <v>0.0353294</v>
       </c>
       <c r="D35" t="n">
-        <v>0.06981229999999999</v>
+        <v>0.0679703</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.09511269999999999</v>
+        <v>0.0922704</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0404491</v>
+        <v>0.0430874</v>
       </c>
       <c r="D36" t="n">
-        <v>0.07328419999999999</v>
+        <v>0.07152020000000001</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.120575</v>
+        <v>0.118798</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0210204</v>
+        <v>0.0215706</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0763583</v>
+        <v>0.0751124</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0169311</v>
+        <v>0.0171563</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0213895</v>
+        <v>0.0218236</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0801655</v>
+        <v>0.0782707</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0176772</v>
+        <v>0.017842</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0216525</v>
+        <v>0.022116</v>
       </c>
       <c r="D39" t="n">
-        <v>0.08316850000000001</v>
+        <v>0.0813817</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0188031</v>
+        <v>0.0187367</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0220144</v>
+        <v>0.0224312</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0855629</v>
+        <v>0.0846046</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0199969</v>
+        <v>0.0199489</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0223493</v>
+        <v>0.0228446</v>
       </c>
       <c r="D41" t="n">
-        <v>0.088688</v>
+        <v>0.0880152</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0218049</v>
+        <v>0.0217051</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0228576</v>
+        <v>0.0234978</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0926399</v>
+        <v>0.0920584</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0242984</v>
+        <v>0.0243601</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0233719</v>
+        <v>0.0240711</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0944411</v>
+        <v>0.095148</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0277475</v>
+        <v>0.0278623</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0239553</v>
+        <v>0.0249976</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0968704</v>
+        <v>0.09779409999999999</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0326947</v>
+        <v>0.0322258</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0249083</v>
+        <v>0.0257464</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0992659</v>
+        <v>0.0992661</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0386564</v>
+        <v>0.037777</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0260488</v>
+        <v>0.0266316</v>
       </c>
       <c r="D46" t="n">
-        <v>0.101449</v>
+        <v>0.100906</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0464566</v>
+        <v>0.046159</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0277297</v>
+        <v>0.0284496</v>
       </c>
       <c r="D47" t="n">
-        <v>0.10378</v>
+        <v>0.103679</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0566538</v>
+        <v>0.0569972</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0306792</v>
+        <v>0.0310894</v>
       </c>
       <c r="D48" t="n">
-        <v>0.106357</v>
+        <v>0.105683</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0720233</v>
+        <v>0.0713645</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0347702</v>
+        <v>0.035456</v>
       </c>
       <c r="D49" t="n">
-        <v>0.108562</v>
+        <v>0.109007</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.09290909999999999</v>
+        <v>0.0926913</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0418471</v>
+        <v>0.0428093</v>
       </c>
       <c r="D50" t="n">
-        <v>0.07579420000000001</v>
+        <v>0.07581019999999999</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.118192</v>
+        <v>0.116408</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0219167</v>
+        <v>0.0225976</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0786483</v>
+        <v>0.0783899</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.141805</v>
+        <v>0.142119</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0221804</v>
+        <v>0.0228965</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0819291</v>
+        <v>0.081911</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0190424</v>
+        <v>0.0189985</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0223761</v>
+        <v>0.0232007</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0859284</v>
+        <v>0.085951</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0201965</v>
+        <v>0.020359</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0226798</v>
+        <v>0.023491</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0895837</v>
+        <v>0.089411</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0217061</v>
+        <v>0.0218415</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0230499</v>
+        <v>0.0239289</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0931172</v>
+        <v>0.0924305</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0236491</v>
+        <v>0.0237748</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0235837</v>
+        <v>0.0242903</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0967599</v>
+        <v>0.095679</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0261766</v>
+        <v>0.0265629</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0241248</v>
+        <v>0.0248924</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0990302</v>
+        <v>0.09894799999999999</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0295681</v>
+        <v>0.0298232</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0248958</v>
+        <v>0.0256024</v>
       </c>
       <c r="D58" t="n">
-        <v>0.102356</v>
+        <v>0.102738</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0338059</v>
+        <v>0.0342479</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0258893</v>
+        <v>0.0265353</v>
       </c>
       <c r="D59" t="n">
-        <v>0.104875</v>
+        <v>0.104633</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0395635</v>
+        <v>0.039565</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0271584</v>
+        <v>0.027857</v>
       </c>
       <c r="D60" t="n">
-        <v>0.106273</v>
+        <v>0.106713</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0461926</v>
+        <v>0.0465692</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0290121</v>
+        <v>0.0296992</v>
       </c>
       <c r="D61" t="n">
-        <v>0.108794</v>
+        <v>0.109596</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0559419</v>
+        <v>0.0562874</v>
       </c>
       <c r="C62" t="n">
-        <v>0.031651</v>
+        <v>0.0326767</v>
       </c>
       <c r="D62" t="n">
-        <v>0.113488</v>
+        <v>0.11276</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0701972</v>
+        <v>0.0699887</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0360054</v>
+        <v>0.0370909</v>
       </c>
       <c r="D63" t="n">
-        <v>0.114771</v>
+        <v>0.116714</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0891171</v>
+        <v>0.08853659999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0429417</v>
+        <v>0.0441935</v>
       </c>
       <c r="D64" t="n">
-        <v>0.080749</v>
+        <v>0.0808203</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.115676</v>
+        <v>0.114461</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0548794</v>
+        <v>0.0558735</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0846306</v>
+        <v>0.08454830000000001</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.146711</v>
+        <v>0.145981</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0225223</v>
+        <v>0.0234914</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0899934</v>
+        <v>0.0888567</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0198306</v>
+        <v>0.0196991</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0229037</v>
+        <v>0.0238164</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0945588</v>
+        <v>0.0947841</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0212201</v>
+        <v>0.0209024</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0232374</v>
+        <v>0.0241257</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0990616</v>
+        <v>0.0989785</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.022622</v>
+        <v>0.0224707</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0236348</v>
+        <v>0.0245293</v>
       </c>
       <c r="D69" t="n">
-        <v>0.103907</v>
+        <v>0.109894</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0244848</v>
+        <v>0.0244528</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0241746</v>
+        <v>0.0249945</v>
       </c>
       <c r="D70" t="n">
-        <v>0.110512</v>
+        <v>0.110448</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0270902</v>
+        <v>0.0268848</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0246745</v>
+        <v>0.0255275</v>
       </c>
       <c r="D71" t="n">
-        <v>0.115842</v>
+        <v>0.115353</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0303097</v>
+        <v>0.030384</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0254376</v>
+        <v>0.0261947</v>
       </c>
       <c r="D72" t="n">
-        <v>0.119479</v>
+        <v>0.119801</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0346043</v>
+        <v>0.0343642</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0263496</v>
+        <v>0.0271308</v>
       </c>
       <c r="D73" t="n">
-        <v>0.124464</v>
+        <v>0.125339</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0397593</v>
+        <v>0.0398024</v>
       </c>
       <c r="C74" t="n">
-        <v>0.027628</v>
+        <v>0.0283055</v>
       </c>
       <c r="D74" t="n">
-        <v>0.130312</v>
+        <v>0.130226</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0468248</v>
+        <v>0.0464074</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0295702</v>
+        <v>0.0300044</v>
       </c>
       <c r="D75" t="n">
-        <v>0.134304</v>
+        <v>0.139512</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0560536</v>
+        <v>0.0554386</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0322823</v>
+        <v>0.0326379</v>
       </c>
       <c r="D76" t="n">
-        <v>0.140793</v>
+        <v>0.140345</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0690201</v>
+        <v>0.0685756</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0363794</v>
+        <v>0.036912</v>
       </c>
       <c r="D77" t="n">
-        <v>0.146898</v>
+        <v>0.14697</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0869891</v>
+        <v>0.0868845</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0427262</v>
+        <v>0.0433788</v>
       </c>
       <c r="D78" t="n">
-        <v>0.111735</v>
+        <v>0.109664</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.112024</v>
+        <v>0.112346</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0534947</v>
+        <v>0.0544544</v>
       </c>
       <c r="D79" t="n">
-        <v>0.119301</v>
+        <v>0.116945</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.143597</v>
+        <v>0.143687</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0228004</v>
+        <v>0.0235487</v>
       </c>
       <c r="D80" t="n">
-        <v>0.124514</v>
+        <v>0.124305</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0200396</v>
+        <v>0.0200323</v>
       </c>
       <c r="C81" t="n">
-        <v>0.023118</v>
+        <v>0.0238362</v>
       </c>
       <c r="D81" t="n">
-        <v>0.132597</v>
+        <v>0.131616</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0213633</v>
+        <v>0.0212941</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0235022</v>
+        <v>0.0241926</v>
       </c>
       <c r="D82" t="n">
-        <v>0.142669</v>
+        <v>0.138673</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0228683</v>
+        <v>0.0228477</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0239312</v>
+        <v>0.0246298</v>
       </c>
       <c r="D83" t="n">
-        <v>0.146992</v>
+        <v>0.146097</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.024799</v>
+        <v>0.0249093</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0245083</v>
+        <v>0.0251235</v>
       </c>
       <c r="D84" t="n">
-        <v>0.153609</v>
+        <v>0.153791</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.027527</v>
+        <v>0.0270988</v>
       </c>
       <c r="C85" t="n">
-        <v>0.025094</v>
+        <v>0.025784</v>
       </c>
       <c r="D85" t="n">
-        <v>0.161097</v>
+        <v>0.161094</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0301555</v>
+        <v>0.0301708</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0260326</v>
+        <v>0.0266293</v>
       </c>
       <c r="D86" t="n">
-        <v>0.170338</v>
+        <v>0.168354</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0343742</v>
+        <v>0.0342731</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0269955</v>
+        <v>0.0275845</v>
       </c>
       <c r="D87" t="n">
-        <v>0.178464</v>
+        <v>0.17477</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0391245</v>
+        <v>0.0389467</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0283265</v>
+        <v>0.0290383</v>
       </c>
       <c r="D88" t="n">
-        <v>0.185439</v>
+        <v>0.181858</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0459719</v>
+        <v>0.045642</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0300097</v>
+        <v>0.0307399</v>
       </c>
       <c r="D89" t="n">
-        <v>0.192193</v>
+        <v>0.190121</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0546779</v>
+        <v>0.0544673</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0325305</v>
+        <v>0.0332806</v>
       </c>
       <c r="D90" t="n">
-        <v>0.201643</v>
+        <v>0.196419</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0664754</v>
+        <v>0.0663936</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0360794</v>
+        <v>0.0368126</v>
       </c>
       <c r="D91" t="n">
-        <v>0.209003</v>
+        <v>0.205353</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.083616</v>
+        <v>0.0834387</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0416749</v>
+        <v>0.0426087</v>
       </c>
       <c r="D92" t="n">
-        <v>0.155102</v>
+        <v>0.155083</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.10758</v>
+        <v>0.107374</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0509263</v>
+        <v>0.0521509</v>
       </c>
       <c r="D93" t="n">
-        <v>0.162093</v>
+        <v>0.161304</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.138489</v>
+        <v>0.138223</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0243533</v>
+        <v>0.0252808</v>
       </c>
       <c r="D94" t="n">
-        <v>0.169494</v>
+        <v>0.16724</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0210334</v>
+        <v>0.0210578</v>
       </c>
       <c r="C95" t="n">
-        <v>0.024799</v>
+        <v>0.0257511</v>
       </c>
       <c r="D95" t="n">
-        <v>0.175325</v>
+        <v>0.175087</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0217159</v>
+        <v>0.0218022</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0252993</v>
+        <v>0.0262557</v>
       </c>
       <c r="D96" t="n">
-        <v>0.182757</v>
+        <v>0.18065</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.023162</v>
+        <v>0.0236971</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0258731</v>
+        <v>0.0269224</v>
       </c>
       <c r="D97" t="n">
-        <v>0.190353</v>
+        <v>0.187611</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0250624</v>
+        <v>0.0248854</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0267694</v>
+        <v>0.0276485</v>
       </c>
       <c r="D98" t="n">
-        <v>0.197218</v>
+        <v>0.195503</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0275205</v>
+        <v>0.0277937</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0280914</v>
+        <v>0.0290928</v>
       </c>
       <c r="D99" t="n">
-        <v>0.202948</v>
+        <v>0.202633</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.03058</v>
+        <v>0.030797</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0302681</v>
+        <v>0.031305</v>
       </c>
       <c r="D100" t="n">
-        <v>0.212473</v>
+        <v>0.209907</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0346568</v>
+        <v>0.0346734</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0331872</v>
+        <v>0.0341854</v>
       </c>
       <c r="D101" t="n">
-        <v>0.220659</v>
+        <v>0.216822</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0397003</v>
+        <v>0.0400011</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0362231</v>
+        <v>0.0378623</v>
       </c>
       <c r="D102" t="n">
-        <v>0.227365</v>
+        <v>0.225231</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.046096</v>
+        <v>0.0461826</v>
       </c>
       <c r="C103" t="n">
-        <v>0.039451</v>
+        <v>0.0408563</v>
       </c>
       <c r="D103" t="n">
-        <v>0.236003</v>
+        <v>0.233299</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0543946</v>
+        <v>0.0544406</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0426279</v>
+        <v>0.0440395</v>
       </c>
       <c r="D104" t="n">
-        <v>0.243181</v>
+        <v>0.241067</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0653705</v>
+        <v>0.0653783</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0460297</v>
+        <v>0.0477088</v>
       </c>
       <c r="D105" t="n">
-        <v>0.252265</v>
+        <v>0.249765</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0811148</v>
+        <v>0.08065700000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0507459</v>
+        <v>0.0523658</v>
       </c>
       <c r="D106" t="n">
-        <v>0.261765</v>
+        <v>0.259674</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.103175</v>
+        <v>0.102937</v>
       </c>
       <c r="C107" t="n">
-        <v>0.0577146</v>
+        <v>0.0593173</v>
       </c>
       <c r="D107" t="n">
-        <v>0.190273</v>
+        <v>0.188985</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.132518</v>
+        <v>0.13236</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0360949</v>
+        <v>0.0374706</v>
       </c>
       <c r="D108" t="n">
-        <v>0.196864</v>
+        <v>0.19516</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.168322</v>
+        <v>0.168816</v>
       </c>
       <c r="C109" t="n">
-        <v>0.0371062</v>
+        <v>0.0384314</v>
       </c>
       <c r="D109" t="n">
-        <v>0.204761</v>
+        <v>0.20154</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0310899</v>
+        <v>0.031141</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0380285</v>
+        <v>0.0393434</v>
       </c>
       <c r="D110" t="n">
-        <v>0.209844</v>
+        <v>0.20847</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0322923</v>
+        <v>0.0327085</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0388656</v>
+        <v>0.0402573</v>
       </c>
       <c r="D111" t="n">
-        <v>0.218665</v>
+        <v>0.215697</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0342854</v>
+        <v>0.0343939</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0395924</v>
+        <v>0.0411263</v>
       </c>
       <c r="D112" t="n">
-        <v>0.225693</v>
+        <v>0.223169</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0359349</v>
+        <v>0.0360318</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0406176</v>
+        <v>0.0422365</v>
       </c>
       <c r="D113" t="n">
-        <v>0.233521</v>
+        <v>0.230804</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0379893</v>
+        <v>0.038067</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0415856</v>
+        <v>0.0431728</v>
       </c>
       <c r="D114" t="n">
-        <v>0.240745</v>
+        <v>0.238649</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.0407585</v>
+        <v>0.0405954</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0426783</v>
+        <v>0.0440799</v>
       </c>
       <c r="D115" t="n">
-        <v>0.247504</v>
+        <v>0.246171</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.0441501</v>
+        <v>0.0439495</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0437707</v>
+        <v>0.0456233</v>
       </c>
       <c r="D116" t="n">
-        <v>0.256019</v>
+        <v>0.253413</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.0484502</v>
+        <v>0.0486903</v>
       </c>
       <c r="C117" t="n">
-        <v>0.045487</v>
+        <v>0.0473653</v>
       </c>
       <c r="D117" t="n">
-        <v>0.263089</v>
+        <v>0.261755</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.0551684</v>
+        <v>0.0551867</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0474878</v>
+        <v>0.0492501</v>
       </c>
       <c r="D118" t="n">
-        <v>0.272028</v>
+        <v>0.270807</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.0646458</v>
+        <v>0.0650158</v>
       </c>
       <c r="C119" t="n">
-        <v>0.0501857</v>
+        <v>0.0520308</v>
       </c>
       <c r="D119" t="n">
-        <v>0.280548</v>
+        <v>0.279454</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.07932169999999999</v>
+        <v>0.0793846</v>
       </c>
       <c r="C120" t="n">
-        <v>0.0540451</v>
+        <v>0.0559562</v>
       </c>
       <c r="D120" t="n">
-        <v>0.289957</v>
+        <v>0.288405</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.10005</v>
+        <v>0.100176</v>
       </c>
       <c r="C121" t="n">
-        <v>0.0599734</v>
+        <v>0.0622138</v>
       </c>
       <c r="D121" t="n">
-        <v>0.205523</v>
+        <v>0.206586</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.128252</v>
+        <v>0.1284</v>
       </c>
       <c r="C122" t="n">
-        <v>0.07017039999999999</v>
+        <v>0.0729288</v>
       </c>
       <c r="D122" t="n">
-        <v>0.212041</v>
+        <v>0.21243</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.164199</v>
+        <v>0.163768</v>
       </c>
       <c r="C123" t="n">
-        <v>0.0416948</v>
+        <v>0.0441033</v>
       </c>
       <c r="D123" t="n">
-        <v>0.21815</v>
+        <v>0.219101</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.0342479</v>
+        <v>0.0342933</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0431438</v>
+        <v>0.044921</v>
       </c>
       <c r="D124" t="n">
-        <v>0.225052</v>
+        <v>0.225996</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.0355662</v>
+        <v>0.0354295</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0439373</v>
+        <v>0.0457435</v>
       </c>
       <c r="D125" t="n">
-        <v>0.232228</v>
+        <v>0.232375</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.0366507</v>
+        <v>0.0367633</v>
       </c>
       <c r="C126" t="n">
-        <v>0.04482</v>
+        <v>0.046697</v>
       </c>
       <c r="D126" t="n">
-        <v>0.238725</v>
+        <v>0.23986</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.0385552</v>
+        <v>0.0381659</v>
       </c>
       <c r="C127" t="n">
-        <v>0.0457358</v>
+        <v>0.0473649</v>
       </c>
       <c r="D127" t="n">
-        <v>0.246409</v>
+        <v>0.247421</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0408535</v>
+        <v>0.040606</v>
       </c>
       <c r="C128" t="n">
-        <v>0.046808</v>
+        <v>0.0488454</v>
       </c>
       <c r="D128" t="n">
-        <v>0.253458</v>
+        <v>0.255655</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0433283</v>
+        <v>0.0434034</v>
       </c>
       <c r="C129" t="n">
-        <v>0.0478818</v>
+        <v>0.0500094</v>
       </c>
       <c r="D129" t="n">
-        <v>0.261542</v>
+        <v>0.263011</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0465491</v>
+        <v>0.0466424</v>
       </c>
       <c r="C130" t="n">
-        <v>0.049176</v>
+        <v>0.0508456</v>
       </c>
       <c r="D130" t="n">
-        <v>0.269387</v>
+        <v>0.27169</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0521202</v>
+        <v>0.0549163</v>
       </c>
       <c r="C131" t="n">
-        <v>0.0508097</v>
+        <v>0.0552709</v>
       </c>
       <c r="D131" t="n">
-        <v>0.276993</v>
+        <v>0.291759</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0592493</v>
+        <v>0.0599876</v>
       </c>
       <c r="C132" t="n">
-        <v>0.0527734</v>
+        <v>0.0563305</v>
       </c>
       <c r="D132" t="n">
-        <v>0.285399</v>
+        <v>0.301054</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.0687511</v>
+        <v>0.07004870000000001</v>
       </c>
       <c r="C133" t="n">
-        <v>0.0554515</v>
+        <v>0.0595108</v>
       </c>
       <c r="D133" t="n">
-        <v>0.293612</v>
+        <v>0.316032</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.0826658</v>
+        <v>0.0881909</v>
       </c>
       <c r="C134" t="n">
-        <v>0.0593293</v>
+        <v>0.06775879999999999</v>
       </c>
       <c r="D134" t="n">
-        <v>0.303166</v>
+        <v>0.334965</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.102514</v>
+        <v>0.110077</v>
       </c>
       <c r="C135" t="n">
-        <v>0.06519079999999999</v>
+        <v>0.0759648</v>
       </c>
       <c r="D135" t="n">
-        <v>0.213668</v>
+        <v>0.241724</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.130508</v>
+        <v>0.144845</v>
       </c>
       <c r="C136" t="n">
-        <v>0.0752613</v>
+        <v>0.0894891</v>
       </c>
       <c r="D136" t="n">
-        <v>0.219449</v>
+        <v>0.226473</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.16469</v>
+        <v>0.162781</v>
       </c>
       <c r="C137" t="n">
-        <v>0.0597122</v>
+        <v>0.0622038</v>
       </c>
       <c r="D137" t="n">
-        <v>0.226324</v>
+        <v>0.226964</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0467406</v>
+        <v>0.0468979</v>
       </c>
       <c r="C138" t="n">
-        <v>0.0603948</v>
+        <v>0.0634982</v>
       </c>
       <c r="D138" t="n">
-        <v>0.233012</v>
+        <v>0.233404</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0481232</v>
+        <v>0.0483513</v>
       </c>
       <c r="C139" t="n">
-        <v>0.0607825</v>
+        <v>0.06364980000000001</v>
       </c>
       <c r="D139" t="n">
-        <v>0.240247</v>
+        <v>0.241095</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.0489416</v>
+        <v>0.0493692</v>
       </c>
       <c r="C140" t="n">
-        <v>0.0616201</v>
+        <v>0.06442589999999999</v>
       </c>
       <c r="D140" t="n">
-        <v>0.247762</v>
+        <v>0.249192</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0509875</v>
+        <v>0.0514717</v>
       </c>
       <c r="C141" t="n">
-        <v>0.0624384</v>
+        <v>0.0659559</v>
       </c>
       <c r="D141" t="n">
-        <v>0.255313</v>
+        <v>0.256306</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.0531945</v>
+        <v>0.05305</v>
       </c>
       <c r="C142" t="n">
-        <v>0.06323819999999999</v>
+        <v>0.0664781</v>
       </c>
       <c r="D142" t="n">
-        <v>0.263005</v>
+        <v>0.263298</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.0555251</v>
+        <v>0.0556944</v>
       </c>
       <c r="C143" t="n">
-        <v>0.06418989999999999</v>
+        <v>0.0673005</v>
       </c>
       <c r="D143" t="n">
-        <v>0.270665</v>
+        <v>0.271688</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered unsuccessful looukp.xlsx
+++ b/clang-arm64/Scattered unsuccessful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0192701</v>
+        <v>0.0191067</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0229555</v>
+        <v>0.0230195</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0702779</v>
+        <v>0.0702146</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0243228</v>
+        <v>0.021966</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0236407</v>
+        <v>0.0237302</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0707641</v>
+        <v>0.07118969999999999</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0272651</v>
+        <v>0.0272832</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0243926</v>
+        <v>0.0244098</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0760511</v>
+        <v>0.0757125</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.036592</v>
+        <v>0.0361627</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0248982</v>
+        <v>0.0249733</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0787062</v>
+        <v>0.0797877</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0532488</v>
+        <v>0.0500981</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0263295</v>
+        <v>0.0261544</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0849548</v>
+        <v>0.0839121</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0708611</v>
+        <v>0.06810049999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0296795</v>
+        <v>0.0291584</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0596315</v>
+        <v>0.0586825</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.088491</v>
+        <v>0.09167790000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0378334</v>
+        <v>0.0370919</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0595976</v>
+        <v>0.0622204</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.121267</v>
+        <v>0.116274</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0201712</v>
+        <v>0.0201325</v>
       </c>
       <c r="D9" t="n">
-        <v>0.06508650000000001</v>
+        <v>0.0628659</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0162334</v>
+        <v>0.0168132</v>
       </c>
       <c r="C10" t="n">
-        <v>0.020483</v>
+        <v>0.0203751</v>
       </c>
       <c r="D10" t="n">
-        <v>0.06737079999999999</v>
+        <v>0.0673673</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0168355</v>
+        <v>0.0170881</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0207473</v>
+        <v>0.0207006</v>
       </c>
       <c r="D11" t="n">
-        <v>0.07466730000000001</v>
+        <v>0.0715616</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0172626</v>
+        <v>0.0175573</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0209175</v>
+        <v>0.020889</v>
       </c>
       <c r="D12" t="n">
-        <v>0.07599400000000001</v>
+        <v>0.0725161</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0179858</v>
+        <v>0.0176307</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0212455</v>
+        <v>0.0212121</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0795834</v>
+        <v>0.0755345</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.018933</v>
+        <v>0.0177352</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0214335</v>
+        <v>0.0214249</v>
       </c>
       <c r="D14" t="n">
-        <v>0.082548</v>
+        <v>0.08068259999999999</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0204814</v>
+        <v>0.0188244</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0221448</v>
+        <v>0.0219514</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0860621</v>
+        <v>0.0830531</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0247615</v>
+        <v>0.0204561</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0224124</v>
+        <v>0.0225217</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0880512</v>
+        <v>0.0828834</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0298429</v>
+        <v>0.0231044</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0233675</v>
+        <v>0.023151</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0918621</v>
+        <v>0.08656709999999999</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0337264</v>
+        <v>0.0282914</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0241694</v>
+        <v>0.0239131</v>
       </c>
       <c r="D18" t="n">
-        <v>0.09295200000000001</v>
+        <v>0.0874462</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0437462</v>
+        <v>0.0371876</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0256484</v>
+        <v>0.0251368</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0958155</v>
+        <v>0.0906918</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0583284</v>
+        <v>0.0505732</v>
       </c>
       <c r="C20" t="n">
-        <v>0.027583</v>
+        <v>0.0271027</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0974735</v>
+        <v>0.09223820000000001</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0750439</v>
+        <v>0.06951</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0320519</v>
+        <v>0.0306554</v>
       </c>
       <c r="D21" t="n">
-        <v>0.06758309999999999</v>
+        <v>0.0640622</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.100417</v>
+        <v>0.09128219999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0400639</v>
+        <v>0.0376683</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0713961</v>
+        <v>0.06793630000000001</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.123214</v>
+        <v>0.116995</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0201758</v>
+        <v>0.0202179</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0725722</v>
+        <v>0.07049610000000001</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0165817</v>
+        <v>0.0166113</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0204105</v>
+        <v>0.0205098</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0758537</v>
+        <v>0.0751923</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0172017</v>
+        <v>0.0172688</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0206868</v>
+        <v>0.0209195</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0802508</v>
+        <v>0.0789854</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.017777</v>
+        <v>0.0179311</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0208838</v>
+        <v>0.0211876</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0822746</v>
+        <v>0.0829843</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.018627</v>
+        <v>0.0191962</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0212035</v>
+        <v>0.0216588</v>
       </c>
       <c r="D27" t="n">
-        <v>0.08571139999999999</v>
+        <v>0.0862226</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0200808</v>
+        <v>0.0202945</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0216295</v>
+        <v>0.0220881</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0891204</v>
+        <v>0.08933869999999999</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0221616</v>
+        <v>0.0221043</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0223627</v>
+        <v>0.0229013</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0909273</v>
+        <v>0.0916951</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0254043</v>
+        <v>0.0242485</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0230033</v>
+        <v>0.0229269</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0935366</v>
+        <v>0.0934754</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0307075</v>
+        <v>0.0298746</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0237776</v>
+        <v>0.0238108</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0960047</v>
+        <v>0.0968321</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0362828</v>
+        <v>0.0360507</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0249928</v>
+        <v>0.0249848</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0977346</v>
+        <v>0.0985728</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0454492</v>
+        <v>0.0448356</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0268032</v>
+        <v>0.0266198</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0999284</v>
+        <v>0.100723</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0572476</v>
+        <v>0.0550905</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0296977</v>
+        <v>0.0297831</v>
       </c>
       <c r="D34" t="n">
-        <v>0.101558</v>
+        <v>0.10234</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0734906</v>
+        <v>0.0709405</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0335182</v>
+        <v>0.0332225</v>
       </c>
       <c r="D35" t="n">
-        <v>0.06981229999999999</v>
+        <v>0.0700065</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.09511269999999999</v>
+        <v>0.092431</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0404491</v>
+        <v>0.0406563</v>
       </c>
       <c r="D36" t="n">
-        <v>0.07328419999999999</v>
+        <v>0.07321560000000001</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.120575</v>
+        <v>0.122313</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0210204</v>
+        <v>0.0210349</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0763583</v>
+        <v>0.0765907</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0169311</v>
+        <v>0.0172694</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0213895</v>
+        <v>0.0213398</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0801655</v>
+        <v>0.08007930000000001</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0176772</v>
+        <v>0.0181273</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0216525</v>
+        <v>0.0216062</v>
       </c>
       <c r="D39" t="n">
-        <v>0.08316850000000001</v>
+        <v>0.08303480000000001</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0188031</v>
+        <v>0.0191131</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0220144</v>
+        <v>0.0221671</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0855629</v>
+        <v>0.085366</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0199969</v>
+        <v>0.0202115</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0223493</v>
+        <v>0.0223603</v>
       </c>
       <c r="D41" t="n">
-        <v>0.088688</v>
+        <v>0.0886692</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0218049</v>
+        <v>0.0219047</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0228576</v>
+        <v>0.0228289</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0926399</v>
+        <v>0.09194090000000001</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0242984</v>
+        <v>0.024889</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0233719</v>
+        <v>0.023322</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0944411</v>
+        <v>0.0954262</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0277475</v>
+        <v>0.0280292</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0239553</v>
+        <v>0.023959</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0968704</v>
+        <v>0.0968962</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0326947</v>
+        <v>0.0329421</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0249083</v>
+        <v>0.0248393</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0992659</v>
+        <v>0.09938950000000001</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0386564</v>
+        <v>0.0389836</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0260488</v>
+        <v>0.026052</v>
       </c>
       <c r="D46" t="n">
-        <v>0.101449</v>
+        <v>0.101585</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0464566</v>
+        <v>0.0473272</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0277297</v>
+        <v>0.0277473</v>
       </c>
       <c r="D47" t="n">
-        <v>0.10378</v>
+        <v>0.103922</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0566538</v>
+        <v>0.0572374</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0306792</v>
+        <v>0.0306647</v>
       </c>
       <c r="D48" t="n">
-        <v>0.106357</v>
+        <v>0.106627</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0720233</v>
+        <v>0.0726704</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0347702</v>
+        <v>0.0348084</v>
       </c>
       <c r="D49" t="n">
-        <v>0.108562</v>
+        <v>0.108862</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.09290909999999999</v>
+        <v>0.0928954</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0418471</v>
+        <v>0.0418141</v>
       </c>
       <c r="D50" t="n">
-        <v>0.07579420000000001</v>
+        <v>0.0754141</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.118192</v>
+        <v>0.116488</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0219167</v>
+        <v>0.0219092</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0786483</v>
+        <v>0.0789151</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.141805</v>
+        <v>0.141527</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0221804</v>
+        <v>0.0221299</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0819291</v>
+        <v>0.08289870000000001</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0190424</v>
+        <v>0.0192337</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0223761</v>
+        <v>0.0224038</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0859284</v>
+        <v>0.0859193</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0201965</v>
+        <v>0.0203408</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0226798</v>
+        <v>0.0226699</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0895837</v>
+        <v>0.0892594</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0217061</v>
+        <v>0.0220875</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0230499</v>
+        <v>0.0230662</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0931172</v>
+        <v>0.0923592</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0236491</v>
+        <v>0.023893</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0235837</v>
+        <v>0.0235801</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0967599</v>
+        <v>0.096244</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0261766</v>
+        <v>0.0262951</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0241248</v>
+        <v>0.0241116</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0990302</v>
+        <v>0.0995193</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0295681</v>
+        <v>0.0298855</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0248958</v>
+        <v>0.0248621</v>
       </c>
       <c r="D58" t="n">
-        <v>0.102356</v>
+        <v>0.101742</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0338059</v>
+        <v>0.0342177</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0258893</v>
+        <v>0.0258426</v>
       </c>
       <c r="D59" t="n">
-        <v>0.104875</v>
+        <v>0.103834</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0395635</v>
+        <v>0.0396585</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0271584</v>
+        <v>0.0271538</v>
       </c>
       <c r="D60" t="n">
-        <v>0.106273</v>
+        <v>0.106519</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0461926</v>
+        <v>0.0472657</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0290121</v>
+        <v>0.0289836</v>
       </c>
       <c r="D61" t="n">
-        <v>0.108794</v>
+        <v>0.10951</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0559419</v>
+        <v>0.056515</v>
       </c>
       <c r="C62" t="n">
-        <v>0.031651</v>
+        <v>0.031674</v>
       </c>
       <c r="D62" t="n">
-        <v>0.113488</v>
+        <v>0.111531</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0701972</v>
+        <v>0.0704174</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0360054</v>
+        <v>0.0359802</v>
       </c>
       <c r="D63" t="n">
-        <v>0.114771</v>
+        <v>0.114808</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0891171</v>
+        <v>0.09040810000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0429417</v>
+        <v>0.0429297</v>
       </c>
       <c r="D64" t="n">
-        <v>0.080749</v>
+        <v>0.0806167</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.115676</v>
+        <v>0.11661</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0548794</v>
+        <v>0.0549657</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0846306</v>
+        <v>0.0845627</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.146711</v>
+        <v>0.147077</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0225223</v>
+        <v>0.0225079</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0899934</v>
+        <v>0.0896824</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0198306</v>
+        <v>0.0199402</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0229037</v>
+        <v>0.0228769</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0945588</v>
+        <v>0.0940294</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0212201</v>
+        <v>0.0210632</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0232374</v>
+        <v>0.0232447</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0990616</v>
+        <v>0.0991543</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.022622</v>
+        <v>0.0227545</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0236348</v>
+        <v>0.0236044</v>
       </c>
       <c r="D69" t="n">
-        <v>0.103907</v>
+        <v>0.104765</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0244848</v>
+        <v>0.0246964</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0241746</v>
+        <v>0.0241649</v>
       </c>
       <c r="D70" t="n">
-        <v>0.110512</v>
+        <v>0.109499</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0270902</v>
+        <v>0.0270674</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0246745</v>
+        <v>0.024729</v>
       </c>
       <c r="D71" t="n">
-        <v>0.115842</v>
+        <v>0.113824</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0303097</v>
+        <v>0.0302733</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0254376</v>
+        <v>0.0254714</v>
       </c>
       <c r="D72" t="n">
-        <v>0.119479</v>
+        <v>0.122175</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0346043</v>
+        <v>0.0345635</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0263496</v>
+        <v>0.0263948</v>
       </c>
       <c r="D73" t="n">
-        <v>0.124464</v>
+        <v>0.123898</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0397593</v>
+        <v>0.039962</v>
       </c>
       <c r="C74" t="n">
-        <v>0.027628</v>
+        <v>0.0276162</v>
       </c>
       <c r="D74" t="n">
-        <v>0.130312</v>
+        <v>0.129515</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0468248</v>
+        <v>0.0469873</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0295702</v>
+        <v>0.0295484</v>
       </c>
       <c r="D75" t="n">
-        <v>0.134304</v>
+        <v>0.134744</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0560536</v>
+        <v>0.0559935</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0322823</v>
+        <v>0.0323175</v>
       </c>
       <c r="D76" t="n">
-        <v>0.140793</v>
+        <v>0.140499</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0690201</v>
+        <v>0.06928670000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0363794</v>
+        <v>0.0363989</v>
       </c>
       <c r="D77" t="n">
-        <v>0.146898</v>
+        <v>0.146422</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0869891</v>
+        <v>0.0874524</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0427262</v>
+        <v>0.0427283</v>
       </c>
       <c r="D78" t="n">
-        <v>0.111735</v>
+        <v>0.110687</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.112024</v>
+        <v>0.112079</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0534947</v>
+        <v>0.0535032</v>
       </c>
       <c r="D79" t="n">
-        <v>0.119301</v>
+        <v>0.117102</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.143597</v>
+        <v>0.144143</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0228004</v>
+        <v>0.0228149</v>
       </c>
       <c r="D80" t="n">
-        <v>0.124514</v>
+        <v>0.124701</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0200396</v>
+        <v>0.0202606</v>
       </c>
       <c r="C81" t="n">
-        <v>0.023118</v>
+        <v>0.0231293</v>
       </c>
       <c r="D81" t="n">
-        <v>0.132597</v>
+        <v>0.133169</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0213633</v>
+        <v>0.0215066</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0235022</v>
+        <v>0.0234724</v>
       </c>
       <c r="D82" t="n">
-        <v>0.142669</v>
+        <v>0.13862</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0228683</v>
+        <v>0.0229666</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0239312</v>
+        <v>0.023963</v>
       </c>
       <c r="D83" t="n">
-        <v>0.146992</v>
+        <v>0.146834</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.024799</v>
+        <v>0.0248391</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0245083</v>
+        <v>0.0244861</v>
       </c>
       <c r="D84" t="n">
-        <v>0.153609</v>
+        <v>0.1537</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.027527</v>
+        <v>0.0276016</v>
       </c>
       <c r="C85" t="n">
-        <v>0.025094</v>
+        <v>0.025126</v>
       </c>
       <c r="D85" t="n">
-        <v>0.161097</v>
+        <v>0.161005</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0301555</v>
+        <v>0.0303947</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0260326</v>
+        <v>0.0259477</v>
       </c>
       <c r="D86" t="n">
-        <v>0.170338</v>
+        <v>0.168363</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0343742</v>
+        <v>0.0345207</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0269955</v>
+        <v>0.0269618</v>
       </c>
       <c r="D87" t="n">
-        <v>0.178464</v>
+        <v>0.175274</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0391245</v>
+        <v>0.0393262</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0283265</v>
+        <v>0.0283417</v>
       </c>
       <c r="D88" t="n">
-        <v>0.185439</v>
+        <v>0.181665</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0459719</v>
+        <v>0.0462243</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0300097</v>
+        <v>0.0300571</v>
       </c>
       <c r="D89" t="n">
-        <v>0.192193</v>
+        <v>0.19083</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0546779</v>
+        <v>0.0547928</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0325305</v>
+        <v>0.0324964</v>
       </c>
       <c r="D90" t="n">
-        <v>0.201643</v>
+        <v>0.197244</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0664754</v>
+        <v>0.06697259999999999</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0360794</v>
+        <v>0.0360908</v>
       </c>
       <c r="D91" t="n">
-        <v>0.209003</v>
+        <v>0.206016</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.083616</v>
+        <v>0.0841235</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0416749</v>
+        <v>0.041671</v>
       </c>
       <c r="D92" t="n">
-        <v>0.155102</v>
+        <v>0.155431</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.10758</v>
+        <v>0.107929</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0509263</v>
+        <v>0.0510283</v>
       </c>
       <c r="D93" t="n">
-        <v>0.162093</v>
+        <v>0.161783</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.138489</v>
+        <v>0.138746</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0243533</v>
+        <v>0.0244039</v>
       </c>
       <c r="D94" t="n">
-        <v>0.169494</v>
+        <v>0.167142</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0210334</v>
+        <v>0.0206622</v>
       </c>
       <c r="C95" t="n">
-        <v>0.024799</v>
+        <v>0.0248442</v>
       </c>
       <c r="D95" t="n">
-        <v>0.175325</v>
+        <v>0.17406</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0217159</v>
+        <v>0.0223542</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0252993</v>
+        <v>0.025334</v>
       </c>
       <c r="D96" t="n">
-        <v>0.182757</v>
+        <v>0.181224</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.023162</v>
+        <v>0.023154</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0258731</v>
+        <v>0.0259315</v>
       </c>
       <c r="D97" t="n">
-        <v>0.190353</v>
+        <v>0.187625</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0250624</v>
+        <v>0.0249233</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0267694</v>
+        <v>0.0267633</v>
       </c>
       <c r="D98" t="n">
-        <v>0.197218</v>
+        <v>0.195212</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0275205</v>
+        <v>0.0276301</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0280914</v>
+        <v>0.0280441</v>
       </c>
       <c r="D99" t="n">
-        <v>0.202948</v>
+        <v>0.202963</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.03058</v>
+        <v>0.0304118</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0302681</v>
+        <v>0.0301054</v>
       </c>
       <c r="D100" t="n">
-        <v>0.212473</v>
+        <v>0.209973</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0346568</v>
+        <v>0.0346669</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0331872</v>
+        <v>0.0331091</v>
       </c>
       <c r="D101" t="n">
-        <v>0.220659</v>
+        <v>0.217756</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0397003</v>
+        <v>0.0401976</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0362231</v>
+        <v>0.0364172</v>
       </c>
       <c r="D102" t="n">
-        <v>0.227365</v>
+        <v>0.225368</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.046096</v>
+        <v>0.0466169</v>
       </c>
       <c r="C103" t="n">
-        <v>0.039451</v>
+        <v>0.0396435</v>
       </c>
       <c r="D103" t="n">
-        <v>0.236003</v>
+        <v>0.233273</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0543946</v>
+        <v>0.0545004</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0426279</v>
+        <v>0.0427579</v>
       </c>
       <c r="D104" t="n">
-        <v>0.243181</v>
+        <v>0.241091</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0653705</v>
+        <v>0.0659971</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0460297</v>
+        <v>0.0462514</v>
       </c>
       <c r="D105" t="n">
-        <v>0.252265</v>
+        <v>0.250011</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0811148</v>
+        <v>0.0817869</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0507459</v>
+        <v>0.0507247</v>
       </c>
       <c r="D106" t="n">
-        <v>0.261765</v>
+        <v>0.258684</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.103175</v>
+        <v>0.104144</v>
       </c>
       <c r="C107" t="n">
-        <v>0.0577146</v>
+        <v>0.0576475</v>
       </c>
       <c r="D107" t="n">
-        <v>0.190273</v>
+        <v>0.189309</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.132518</v>
+        <v>0.133061</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0360949</v>
+        <v>0.0363724</v>
       </c>
       <c r="D108" t="n">
-        <v>0.196864</v>
+        <v>0.195969</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.168322</v>
+        <v>0.168703</v>
       </c>
       <c r="C109" t="n">
-        <v>0.0371062</v>
+        <v>0.0373495</v>
       </c>
       <c r="D109" t="n">
-        <v>0.204761</v>
+        <v>0.202308</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0310899</v>
+        <v>0.0308929</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0380285</v>
+        <v>0.0384387</v>
       </c>
       <c r="D110" t="n">
-        <v>0.209844</v>
+        <v>0.209564</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0322923</v>
+        <v>0.032756</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0388656</v>
+        <v>0.0391099</v>
       </c>
       <c r="D111" t="n">
-        <v>0.218665</v>
+        <v>0.217054</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0342854</v>
+        <v>0.034619</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0395924</v>
+        <v>0.039898</v>
       </c>
       <c r="D112" t="n">
-        <v>0.225693</v>
+        <v>0.224302</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0359349</v>
+        <v>0.0363277</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0406176</v>
+        <v>0.0410003</v>
       </c>
       <c r="D113" t="n">
-        <v>0.233521</v>
+        <v>0.232178</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0379893</v>
+        <v>0.0397415</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0415856</v>
+        <v>0.0438956</v>
       </c>
       <c r="D114" t="n">
-        <v>0.240745</v>
+        <v>0.251726</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.0407585</v>
+        <v>0.0424061</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0426783</v>
+        <v>0.0445721</v>
       </c>
       <c r="D115" t="n">
-        <v>0.247504</v>
+        <v>0.260659</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.0441501</v>
+        <v>0.045662</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0437707</v>
+        <v>0.0459</v>
       </c>
       <c r="D116" t="n">
-        <v>0.256019</v>
+        <v>0.268902</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.0484502</v>
+        <v>0.0504382</v>
       </c>
       <c r="C117" t="n">
-        <v>0.045487</v>
+        <v>0.0479113</v>
       </c>
       <c r="D117" t="n">
-        <v>0.263089</v>
+        <v>0.27653</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.0551684</v>
+        <v>0.056992</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0474878</v>
+        <v>0.0494404</v>
       </c>
       <c r="D118" t="n">
-        <v>0.272028</v>
+        <v>0.285888</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.0646458</v>
+        <v>0.0665914</v>
       </c>
       <c r="C119" t="n">
-        <v>0.0501857</v>
+        <v>0.0525621</v>
       </c>
       <c r="D119" t="n">
-        <v>0.280548</v>
+        <v>0.297641</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.07932169999999999</v>
+        <v>0.0811422</v>
       </c>
       <c r="C120" t="n">
-        <v>0.0540451</v>
+        <v>0.0565657</v>
       </c>
       <c r="D120" t="n">
-        <v>0.289957</v>
+        <v>0.303483</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.10005</v>
+        <v>0.101571</v>
       </c>
       <c r="C121" t="n">
-        <v>0.0599734</v>
+        <v>0.0624046</v>
       </c>
       <c r="D121" t="n">
-        <v>0.205523</v>
+        <v>0.220375</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.128252</v>
+        <v>0.129977</v>
       </c>
       <c r="C122" t="n">
-        <v>0.07017039999999999</v>
+        <v>0.0734341</v>
       </c>
       <c r="D122" t="n">
-        <v>0.212041</v>
+        <v>0.225207</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.164199</v>
+        <v>0.165497</v>
       </c>
       <c r="C123" t="n">
-        <v>0.0416948</v>
+        <v>0.0442893</v>
       </c>
       <c r="D123" t="n">
-        <v>0.21815</v>
+        <v>0.231498</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.0342479</v>
+        <v>0.0355609</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0431438</v>
+        <v>0.0440296</v>
       </c>
       <c r="D124" t="n">
-        <v>0.225052</v>
+        <v>0.239525</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.0355662</v>
+        <v>0.0374226</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0439373</v>
+        <v>0.0446491</v>
       </c>
       <c r="D125" t="n">
-        <v>0.232228</v>
+        <v>0.268498</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.0366507</v>
+        <v>0.0384655</v>
       </c>
       <c r="C126" t="n">
-        <v>0.04482</v>
+        <v>0.0458921</v>
       </c>
       <c r="D126" t="n">
-        <v>0.238725</v>
+        <v>0.254998</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.0385552</v>
+        <v>0.0409186</v>
       </c>
       <c r="C127" t="n">
-        <v>0.0457358</v>
+        <v>0.0524924</v>
       </c>
       <c r="D127" t="n">
-        <v>0.246409</v>
+        <v>0.273385</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0408535</v>
+        <v>0.0417484</v>
       </c>
       <c r="C128" t="n">
-        <v>0.046808</v>
+        <v>0.0479287</v>
       </c>
       <c r="D128" t="n">
-        <v>0.253458</v>
+        <v>0.268847</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0433283</v>
+        <v>0.0448624</v>
       </c>
       <c r="C129" t="n">
-        <v>0.0478818</v>
+        <v>0.0495742</v>
       </c>
       <c r="D129" t="n">
-        <v>0.261542</v>
+        <v>0.276912</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0465491</v>
+        <v>0.0486399</v>
       </c>
       <c r="C130" t="n">
-        <v>0.049176</v>
+        <v>0.0508378</v>
       </c>
       <c r="D130" t="n">
-        <v>0.269387</v>
+        <v>0.284576</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0521202</v>
+        <v>0.0538583</v>
       </c>
       <c r="C131" t="n">
-        <v>0.0508097</v>
+        <v>0.052891</v>
       </c>
       <c r="D131" t="n">
-        <v>0.276993</v>
+        <v>0.293366</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0592493</v>
+        <v>0.0613148</v>
       </c>
       <c r="C132" t="n">
-        <v>0.0527734</v>
+        <v>0.0549025</v>
       </c>
       <c r="D132" t="n">
-        <v>0.285399</v>
+        <v>0.30267</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.0687511</v>
+        <v>0.0701107</v>
       </c>
       <c r="C133" t="n">
-        <v>0.0554515</v>
+        <v>0.0575948</v>
       </c>
       <c r="D133" t="n">
-        <v>0.293612</v>
+        <v>0.311274</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.0826658</v>
+        <v>0.08436009999999999</v>
       </c>
       <c r="C134" t="n">
-        <v>0.0593293</v>
+        <v>0.0614197</v>
       </c>
       <c r="D134" t="n">
-        <v>0.303166</v>
+        <v>0.321842</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.102514</v>
+        <v>0.104687</v>
       </c>
       <c r="C135" t="n">
-        <v>0.06519079999999999</v>
+        <v>0.0673699</v>
       </c>
       <c r="D135" t="n">
-        <v>0.213668</v>
+        <v>0.223484</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.130508</v>
+        <v>0.131607</v>
       </c>
       <c r="C136" t="n">
-        <v>0.0752613</v>
+        <v>0.07757550000000001</v>
       </c>
       <c r="D136" t="n">
-        <v>0.219449</v>
+        <v>0.230056</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.16469</v>
+        <v>0.168143</v>
       </c>
       <c r="C137" t="n">
-        <v>0.0597122</v>
+        <v>0.0649294</v>
       </c>
       <c r="D137" t="n">
-        <v>0.226324</v>
+        <v>0.239061</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0467406</v>
+        <v>0.0525882</v>
       </c>
       <c r="C138" t="n">
-        <v>0.0603948</v>
+        <v>0.0733032</v>
       </c>
       <c r="D138" t="n">
-        <v>0.233012</v>
+        <v>0.257774</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0481232</v>
+        <v>0.0581385</v>
       </c>
       <c r="C139" t="n">
-        <v>0.0607825</v>
+        <v>0.0746561</v>
       </c>
       <c r="D139" t="n">
-        <v>0.240247</v>
+        <v>0.273438</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.0489416</v>
+        <v>0.077488</v>
       </c>
       <c r="C140" t="n">
-        <v>0.0616201</v>
+        <v>0.0956489</v>
       </c>
       <c r="D140" t="n">
-        <v>0.247762</v>
+        <v>0.315592</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0509875</v>
+        <v>0.0608682</v>
       </c>
       <c r="C141" t="n">
-        <v>0.0624384</v>
+        <v>0.0692333</v>
       </c>
       <c r="D141" t="n">
-        <v>0.255313</v>
+        <v>0.258444</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.0531945</v>
+        <v>0.0528903</v>
       </c>
       <c r="C142" t="n">
-        <v>0.06323819999999999</v>
+        <v>0.06331009999999999</v>
       </c>
       <c r="D142" t="n">
-        <v>0.263005</v>
+        <v>0.265974</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.0555251</v>
+        <v>0.0556256</v>
       </c>
       <c r="C143" t="n">
-        <v>0.06418989999999999</v>
+        <v>0.0644976</v>
       </c>
       <c r="D143" t="n">
-        <v>0.270665</v>
+        <v>0.270481</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered unsuccessful looukp.xlsx
+++ b/clang-arm64/Scattered unsuccessful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0192701</v>
+        <v>0.0176655</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0229555</v>
+        <v>0.0211221</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0702779</v>
+        <v>0.06813180000000001</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0243228</v>
+        <v>0.0194338</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0236407</v>
+        <v>0.0218175</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0707641</v>
+        <v>0.06818150000000001</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0272651</v>
+        <v>0.0244015</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0243926</v>
+        <v>0.0226379</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0760511</v>
+        <v>0.07547280000000001</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.036592</v>
+        <v>0.0283103</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0248982</v>
+        <v>0.0238953</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0787062</v>
+        <v>0.0771005</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0532488</v>
+        <v>0.0450183</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0263295</v>
+        <v>0.0254206</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0849548</v>
+        <v>0.0800486</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0708611</v>
+        <v>0.0622461</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0296795</v>
+        <v>0.0282975</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0596315</v>
+        <v>0.0588009</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.088491</v>
+        <v>0.0849529</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0378334</v>
+        <v>0.0333787</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0595976</v>
+        <v>0.0605465</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.121267</v>
+        <v>0.113104</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0201712</v>
+        <v>0.0194571</v>
       </c>
       <c r="D9" t="n">
-        <v>0.06508650000000001</v>
+        <v>0.0653294</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0162334</v>
+        <v>0.016169</v>
       </c>
       <c r="C10" t="n">
-        <v>0.020483</v>
+        <v>0.0196103</v>
       </c>
       <c r="D10" t="n">
-        <v>0.06737079999999999</v>
+        <v>0.0674855</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0168355</v>
+        <v>0.0167491</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0207473</v>
+        <v>0.0198145</v>
       </c>
       <c r="D11" t="n">
-        <v>0.07466730000000001</v>
+        <v>0.0708949</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0172626</v>
+        <v>0.0171303</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0209175</v>
+        <v>0.0200043</v>
       </c>
       <c r="D12" t="n">
-        <v>0.07599400000000001</v>
+        <v>0.0742628</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0179858</v>
+        <v>0.0175117</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0212455</v>
+        <v>0.0202811</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0795834</v>
+        <v>0.07761319999999999</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.018933</v>
+        <v>0.0181351</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0214335</v>
+        <v>0.0207409</v>
       </c>
       <c r="D14" t="n">
-        <v>0.082548</v>
+        <v>0.0849997</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0204814</v>
+        <v>0.0193711</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0221448</v>
+        <v>0.0212053</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0860621</v>
+        <v>0.08332920000000001</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0247615</v>
+        <v>0.0221113</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0224124</v>
+        <v>0.0218457</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0880512</v>
+        <v>0.0863491</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0298429</v>
+        <v>0.0252432</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0233675</v>
+        <v>0.022528</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0918621</v>
+        <v>0.089615</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0337264</v>
+        <v>0.030379</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0241694</v>
+        <v>0.023411</v>
       </c>
       <c r="D18" t="n">
-        <v>0.09295200000000001</v>
+        <v>0.0920074</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0437462</v>
+        <v>0.0405839</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0256484</v>
+        <v>0.0245504</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0958155</v>
+        <v>0.0954869</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0583284</v>
+        <v>0.0504599</v>
       </c>
       <c r="C20" t="n">
-        <v>0.027583</v>
+        <v>0.0270925</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0974735</v>
+        <v>0.0950252</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0750439</v>
+        <v>0.07004009999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0320519</v>
+        <v>0.0303544</v>
       </c>
       <c r="D21" t="n">
-        <v>0.06758309999999999</v>
+        <v>0.0660747</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.100417</v>
+        <v>0.0930931</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0400639</v>
+        <v>0.0359359</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0713961</v>
+        <v>0.06935620000000001</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.123214</v>
+        <v>0.117736</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0201758</v>
+        <v>0.0190898</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0725722</v>
+        <v>0.071796</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0165817</v>
+        <v>0.0167886</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0204105</v>
+        <v>0.0192452</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0758537</v>
+        <v>0.0750579</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0172017</v>
+        <v>0.017393</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0206868</v>
+        <v>0.0194453</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0802508</v>
+        <v>0.0777549</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.017777</v>
+        <v>0.017903</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0208838</v>
+        <v>0.0197477</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0822746</v>
+        <v>0.08079749999999999</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.018627</v>
+        <v>0.0185914</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0212035</v>
+        <v>0.0199928</v>
       </c>
       <c r="D27" t="n">
-        <v>0.08571139999999999</v>
+        <v>0.0847562</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0200808</v>
+        <v>0.019674</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0216295</v>
+        <v>0.0203942</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0891204</v>
+        <v>0.08896179999999999</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0221616</v>
+        <v>0.0217419</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0223627</v>
+        <v>0.0208825</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0909273</v>
+        <v>0.0906463</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0254043</v>
+        <v>0.024766</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0230033</v>
+        <v>0.0214761</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0935366</v>
+        <v>0.092448</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0307075</v>
+        <v>0.0289965</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0237776</v>
+        <v>0.0223696</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0960047</v>
+        <v>0.0951394</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0362828</v>
+        <v>0.0344853</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0249928</v>
+        <v>0.0235788</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0977346</v>
+        <v>0.0971837</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0454492</v>
+        <v>0.0437663</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0268032</v>
+        <v>0.0252353</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0999284</v>
+        <v>0.09862600000000001</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0572476</v>
+        <v>0.0540567</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0296977</v>
+        <v>0.0275066</v>
       </c>
       <c r="D34" t="n">
-        <v>0.101558</v>
+        <v>0.101137</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0734906</v>
+        <v>0.071585</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0335182</v>
+        <v>0.0304005</v>
       </c>
       <c r="D35" t="n">
-        <v>0.06981229999999999</v>
+        <v>0.0691692</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.09511269999999999</v>
+        <v>0.09283</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0404491</v>
+        <v>0.0373687</v>
       </c>
       <c r="D36" t="n">
-        <v>0.07328419999999999</v>
+        <v>0.07185759999999999</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.120575</v>
+        <v>0.117777</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0210204</v>
+        <v>0.0194462</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0763583</v>
+        <v>0.0748833</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0169311</v>
+        <v>0.0173743</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0213895</v>
+        <v>0.0196996</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0801655</v>
+        <v>0.0787947</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0176772</v>
+        <v>0.0181403</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0216525</v>
+        <v>0.0200422</v>
       </c>
       <c r="D39" t="n">
-        <v>0.08316850000000001</v>
+        <v>0.0826718</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0188031</v>
+        <v>0.0188783</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0220144</v>
+        <v>0.0203187</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0855629</v>
+        <v>0.08586729999999999</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0199969</v>
+        <v>0.0201605</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0223493</v>
+        <v>0.0207226</v>
       </c>
       <c r="D41" t="n">
-        <v>0.088688</v>
+        <v>0.0884591</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0218049</v>
+        <v>0.0219069</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0228576</v>
+        <v>0.0210982</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0926399</v>
+        <v>0.0914568</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0242984</v>
+        <v>0.0243192</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0233719</v>
+        <v>0.0216723</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0944411</v>
+        <v>0.0944383</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0277475</v>
+        <v>0.0274753</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0239553</v>
+        <v>0.0224234</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0968704</v>
+        <v>0.09688090000000001</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0326947</v>
+        <v>0.0324396</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0249083</v>
+        <v>0.0233534</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0992659</v>
+        <v>0.0990362</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0386564</v>
+        <v>0.0371235</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0260488</v>
+        <v>0.0245196</v>
       </c>
       <c r="D46" t="n">
-        <v>0.101449</v>
+        <v>0.100755</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0464566</v>
+        <v>0.0456537</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0277297</v>
+        <v>0.0264267</v>
       </c>
       <c r="D47" t="n">
-        <v>0.10378</v>
+        <v>0.103277</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0566538</v>
+        <v>0.0563291</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0306792</v>
+        <v>0.0291105</v>
       </c>
       <c r="D48" t="n">
-        <v>0.106357</v>
+        <v>0.106601</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0720233</v>
+        <v>0.0711199</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0347702</v>
+        <v>0.0330274</v>
       </c>
       <c r="D49" t="n">
-        <v>0.108562</v>
+        <v>0.10833</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.09290909999999999</v>
+        <v>0.0918216</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0418471</v>
+        <v>0.0393942</v>
       </c>
       <c r="D50" t="n">
-        <v>0.07579420000000001</v>
+        <v>0.0748576</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.118192</v>
+        <v>0.119097</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0219167</v>
+        <v>0.0203853</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0786483</v>
+        <v>0.07888240000000001</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.141805</v>
+        <v>0.142413</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0221804</v>
+        <v>0.020661</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0819291</v>
+        <v>0.08217190000000001</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0190424</v>
+        <v>0.0190291</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0223761</v>
+        <v>0.0209474</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0859284</v>
+        <v>0.0853394</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0201965</v>
+        <v>0.0201202</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0226798</v>
+        <v>0.0212724</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0895837</v>
+        <v>0.0888891</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0217061</v>
+        <v>0.0216425</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0230499</v>
+        <v>0.0215945</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0931172</v>
+        <v>0.0922626</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0236491</v>
+        <v>0.0233436</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0235837</v>
+        <v>0.0220508</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0967599</v>
+        <v>0.09590600000000001</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0261766</v>
+        <v>0.026258</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0241248</v>
+        <v>0.0225567</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0990302</v>
+        <v>0.09920619999999999</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0295681</v>
+        <v>0.0295017</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0248958</v>
+        <v>0.0233212</v>
       </c>
       <c r="D58" t="n">
-        <v>0.102356</v>
+        <v>0.101837</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0338059</v>
+        <v>0.0336637</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0258893</v>
+        <v>0.0243586</v>
       </c>
       <c r="D59" t="n">
-        <v>0.104875</v>
+        <v>0.104135</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0395635</v>
+        <v>0.0393687</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0271584</v>
+        <v>0.0254656</v>
       </c>
       <c r="D60" t="n">
-        <v>0.106273</v>
+        <v>0.106756</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0461926</v>
+        <v>0.0462845</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0290121</v>
+        <v>0.0273385</v>
       </c>
       <c r="D61" t="n">
-        <v>0.108794</v>
+        <v>0.109306</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0559419</v>
+        <v>0.0566952</v>
       </c>
       <c r="C62" t="n">
-        <v>0.031651</v>
+        <v>0.0299877</v>
       </c>
       <c r="D62" t="n">
-        <v>0.113488</v>
+        <v>0.112447</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0701972</v>
+        <v>0.07016699999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0360054</v>
+        <v>0.0339905</v>
       </c>
       <c r="D63" t="n">
-        <v>0.114771</v>
+        <v>0.115409</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0891171</v>
+        <v>0.0894452</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0429417</v>
+        <v>0.0406421</v>
       </c>
       <c r="D64" t="n">
-        <v>0.080749</v>
+        <v>0.081704</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.115676</v>
+        <v>0.115354</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0548794</v>
+        <v>0.0523041</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0846306</v>
+        <v>0.0846259</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.146711</v>
+        <v>0.147332</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0225223</v>
+        <v>0.0209826</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0899934</v>
+        <v>0.0889078</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0198306</v>
+        <v>0.0195888</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0229037</v>
+        <v>0.0212524</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0945588</v>
+        <v>0.0961365</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0212201</v>
+        <v>0.0209142</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0232374</v>
+        <v>0.0216102</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0990616</v>
+        <v>0.100978</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.022622</v>
+        <v>0.0224867</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0236348</v>
+        <v>0.0220157</v>
       </c>
       <c r="D69" t="n">
-        <v>0.103907</v>
+        <v>0.103211</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0244848</v>
+        <v>0.0245435</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0241746</v>
+        <v>0.022463</v>
       </c>
       <c r="D70" t="n">
-        <v>0.110512</v>
+        <v>0.108633</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0270902</v>
+        <v>0.0271138</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0246745</v>
+        <v>0.0230164</v>
       </c>
       <c r="D71" t="n">
-        <v>0.115842</v>
+        <v>0.114464</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0303097</v>
+        <v>0.0303066</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0254376</v>
+        <v>0.0236276</v>
       </c>
       <c r="D72" t="n">
-        <v>0.119479</v>
+        <v>0.120191</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0346043</v>
+        <v>0.0342501</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0263496</v>
+        <v>0.0246309</v>
       </c>
       <c r="D73" t="n">
-        <v>0.124464</v>
+        <v>0.125181</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0397593</v>
+        <v>0.0393915</v>
       </c>
       <c r="C74" t="n">
-        <v>0.027628</v>
+        <v>0.0258085</v>
       </c>
       <c r="D74" t="n">
-        <v>0.130312</v>
+        <v>0.130638</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0468248</v>
+        <v>0.0461303</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0295702</v>
+        <v>0.02768</v>
       </c>
       <c r="D75" t="n">
-        <v>0.134304</v>
+        <v>0.134853</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0560536</v>
+        <v>0.0555292</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0322823</v>
+        <v>0.0299939</v>
       </c>
       <c r="D76" t="n">
-        <v>0.140793</v>
+        <v>0.140503</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0690201</v>
+        <v>0.0687193</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0363794</v>
+        <v>0.0340166</v>
       </c>
       <c r="D77" t="n">
-        <v>0.146898</v>
+        <v>0.147162</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0869891</v>
+        <v>0.0872539</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0427262</v>
+        <v>0.0400919</v>
       </c>
       <c r="D78" t="n">
-        <v>0.111735</v>
+        <v>0.114006</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.112024</v>
+        <v>0.112555</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0534947</v>
+        <v>0.0498337</v>
       </c>
       <c r="D79" t="n">
-        <v>0.119301</v>
+        <v>0.118076</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.143597</v>
+        <v>0.1442</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0228004</v>
+        <v>0.0213715</v>
       </c>
       <c r="D80" t="n">
-        <v>0.124514</v>
+        <v>0.124844</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0200396</v>
+        <v>0.0200138</v>
       </c>
       <c r="C81" t="n">
-        <v>0.023118</v>
+        <v>0.021649</v>
       </c>
       <c r="D81" t="n">
-        <v>0.132597</v>
+        <v>0.133137</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0213633</v>
+        <v>0.0214121</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0235022</v>
+        <v>0.0221272</v>
       </c>
       <c r="D82" t="n">
-        <v>0.142669</v>
+        <v>0.142035</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0228683</v>
+        <v>0.0229066</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0239312</v>
+        <v>0.0225539</v>
       </c>
       <c r="D83" t="n">
-        <v>0.146992</v>
+        <v>0.147762</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.024799</v>
+        <v>0.0249501</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0245083</v>
+        <v>0.0230736</v>
       </c>
       <c r="D84" t="n">
-        <v>0.153609</v>
+        <v>0.159452</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.027527</v>
+        <v>0.0274413</v>
       </c>
       <c r="C85" t="n">
-        <v>0.025094</v>
+        <v>0.0237227</v>
       </c>
       <c r="D85" t="n">
-        <v>0.161097</v>
+        <v>0.163894</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0301555</v>
+        <v>0.0302551</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0260326</v>
+        <v>0.0245202</v>
       </c>
       <c r="D86" t="n">
-        <v>0.170338</v>
+        <v>0.174032</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0343742</v>
+        <v>0.0344675</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0269955</v>
+        <v>0.0256429</v>
       </c>
       <c r="D87" t="n">
-        <v>0.178464</v>
+        <v>0.175538</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0391245</v>
+        <v>0.0395316</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0283265</v>
+        <v>0.0268427</v>
       </c>
       <c r="D88" t="n">
-        <v>0.185439</v>
+        <v>0.184658</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0459719</v>
+        <v>0.0462813</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0300097</v>
+        <v>0.0285546</v>
       </c>
       <c r="D89" t="n">
-        <v>0.192193</v>
+        <v>0.193025</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0546779</v>
+        <v>0.0549655</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0325305</v>
+        <v>0.0308154</v>
       </c>
       <c r="D90" t="n">
-        <v>0.201643</v>
+        <v>0.197905</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0664754</v>
+        <v>0.0669858</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0360794</v>
+        <v>0.034238</v>
       </c>
       <c r="D91" t="n">
-        <v>0.209003</v>
+        <v>0.209754</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.083616</v>
+        <v>0.0846548</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0416749</v>
+        <v>0.039522</v>
       </c>
       <c r="D92" t="n">
-        <v>0.155102</v>
+        <v>0.157672</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.10758</v>
+        <v>0.108165</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0509263</v>
+        <v>0.0482256</v>
       </c>
       <c r="D93" t="n">
-        <v>0.162093</v>
+        <v>0.16159</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.138489</v>
+        <v>0.139178</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0243533</v>
+        <v>0.0231676</v>
       </c>
       <c r="D94" t="n">
-        <v>0.169494</v>
+        <v>0.167719</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0210334</v>
+        <v>0.0205773</v>
       </c>
       <c r="C95" t="n">
-        <v>0.024799</v>
+        <v>0.0236546</v>
       </c>
       <c r="D95" t="n">
-        <v>0.175325</v>
+        <v>0.17444</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0217159</v>
+        <v>0.0218644</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0252993</v>
+        <v>0.0241851</v>
       </c>
       <c r="D96" t="n">
-        <v>0.182757</v>
+        <v>0.183706</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.023162</v>
+        <v>0.0233565</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0258731</v>
+        <v>0.0248393</v>
       </c>
       <c r="D97" t="n">
-        <v>0.190353</v>
+        <v>0.188203</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0250624</v>
+        <v>0.0254565</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0267694</v>
+        <v>0.0255325</v>
       </c>
       <c r="D98" t="n">
-        <v>0.197218</v>
+        <v>0.195522</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0275205</v>
+        <v>0.0277796</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0280914</v>
+        <v>0.0271063</v>
       </c>
       <c r="D99" t="n">
-        <v>0.202948</v>
+        <v>0.205289</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.03058</v>
+        <v>0.0305254</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0302681</v>
+        <v>0.0293883</v>
       </c>
       <c r="D100" t="n">
-        <v>0.212473</v>
+        <v>0.21028</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0346568</v>
+        <v>0.0347065</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0331872</v>
+        <v>0.0322303</v>
       </c>
       <c r="D101" t="n">
-        <v>0.220659</v>
+        <v>0.220112</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0397003</v>
+        <v>0.0398986</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0362231</v>
+        <v>0.035449</v>
       </c>
       <c r="D102" t="n">
-        <v>0.227365</v>
+        <v>0.227685</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.046096</v>
+        <v>0.0465312</v>
       </c>
       <c r="C103" t="n">
-        <v>0.039451</v>
+        <v>0.0384243</v>
       </c>
       <c r="D103" t="n">
-        <v>0.236003</v>
+        <v>0.235857</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0543946</v>
+        <v>0.0546243</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0426279</v>
+        <v>0.0417031</v>
       </c>
       <c r="D104" t="n">
-        <v>0.243181</v>
+        <v>0.243982</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0653705</v>
+        <v>0.06570040000000001</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0460297</v>
+        <v>0.0450213</v>
       </c>
       <c r="D105" t="n">
-        <v>0.252265</v>
+        <v>0.252558</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0811148</v>
+        <v>0.08129649999999999</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0507459</v>
+        <v>0.0493359</v>
       </c>
       <c r="D106" t="n">
-        <v>0.261765</v>
+        <v>0.258881</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.103175</v>
+        <v>0.103094</v>
       </c>
       <c r="C107" t="n">
-        <v>0.0577146</v>
+        <v>0.0556846</v>
       </c>
       <c r="D107" t="n">
-        <v>0.190273</v>
+        <v>0.190501</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.132518</v>
+        <v>0.132694</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0360949</v>
+        <v>0.0352899</v>
       </c>
       <c r="D108" t="n">
-        <v>0.196864</v>
+        <v>0.197548</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.168322</v>
+        <v>0.169151</v>
       </c>
       <c r="C109" t="n">
-        <v>0.0371062</v>
+        <v>0.0361103</v>
       </c>
       <c r="D109" t="n">
-        <v>0.204761</v>
+        <v>0.203504</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0310899</v>
+        <v>0.0310846</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0380285</v>
+        <v>0.0371831</v>
       </c>
       <c r="D110" t="n">
-        <v>0.209844</v>
+        <v>0.211607</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0322923</v>
+        <v>0.032761</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0388656</v>
+        <v>0.0379552</v>
       </c>
       <c r="D111" t="n">
-        <v>0.218665</v>
+        <v>0.218773</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0342854</v>
+        <v>0.0345442</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0395924</v>
+        <v>0.0389175</v>
       </c>
       <c r="D112" t="n">
-        <v>0.225693</v>
+        <v>0.224537</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0359349</v>
+        <v>0.0361978</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0406176</v>
+        <v>0.0397158</v>
       </c>
       <c r="D113" t="n">
-        <v>0.233521</v>
+        <v>0.232163</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0379893</v>
+        <v>0.0384188</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0415856</v>
+        <v>0.0406613</v>
       </c>
       <c r="D114" t="n">
-        <v>0.240745</v>
+        <v>0.241108</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.0407585</v>
+        <v>0.0408722</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0426783</v>
+        <v>0.0418803</v>
       </c>
       <c r="D115" t="n">
-        <v>0.247504</v>
+        <v>0.248926</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.0441501</v>
+        <v>0.0441685</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0437707</v>
+        <v>0.0429378</v>
       </c>
       <c r="D116" t="n">
-        <v>0.256019</v>
+        <v>0.255216</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.0484502</v>
+        <v>0.0486896</v>
       </c>
       <c r="C117" t="n">
-        <v>0.045487</v>
+        <v>0.0445159</v>
       </c>
       <c r="D117" t="n">
-        <v>0.263089</v>
+        <v>0.264551</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.0551684</v>
+        <v>0.0554204</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0474878</v>
+        <v>0.0464241</v>
       </c>
       <c r="D118" t="n">
-        <v>0.272028</v>
+        <v>0.272553</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.0646458</v>
+        <v>0.0651698</v>
       </c>
       <c r="C119" t="n">
-        <v>0.0501857</v>
+        <v>0.0490417</v>
       </c>
       <c r="D119" t="n">
-        <v>0.280548</v>
+        <v>0.280005</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.07932169999999999</v>
+        <v>0.0795087</v>
       </c>
       <c r="C120" t="n">
-        <v>0.0540451</v>
+        <v>0.0526306</v>
       </c>
       <c r="D120" t="n">
-        <v>0.289957</v>
+        <v>0.290939</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.10005</v>
+        <v>0.100338</v>
       </c>
       <c r="C121" t="n">
-        <v>0.0599734</v>
+        <v>0.0584382</v>
       </c>
       <c r="D121" t="n">
-        <v>0.205523</v>
+        <v>0.205777</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.128252</v>
+        <v>0.128346</v>
       </c>
       <c r="C122" t="n">
-        <v>0.07017039999999999</v>
+        <v>0.0680953</v>
       </c>
       <c r="D122" t="n">
-        <v>0.212041</v>
+        <v>0.212597</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.164199</v>
+        <v>0.16413</v>
       </c>
       <c r="C123" t="n">
-        <v>0.0416948</v>
+        <v>0.0414882</v>
       </c>
       <c r="D123" t="n">
-        <v>0.21815</v>
+        <v>0.218246</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.0342479</v>
+        <v>0.0341011</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0431438</v>
+        <v>0.042572</v>
       </c>
       <c r="D124" t="n">
-        <v>0.225052</v>
+        <v>0.225043</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.0355662</v>
+        <v>0.0356019</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0439373</v>
+        <v>0.0432126</v>
       </c>
       <c r="D125" t="n">
-        <v>0.232228</v>
+        <v>0.231677</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.0366507</v>
+        <v>0.0367387</v>
       </c>
       <c r="C126" t="n">
-        <v>0.04482</v>
+        <v>0.0439865</v>
       </c>
       <c r="D126" t="n">
-        <v>0.238725</v>
+        <v>0.239007</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.0385552</v>
+        <v>0.0384609</v>
       </c>
       <c r="C127" t="n">
-        <v>0.0457358</v>
+        <v>0.0448538</v>
       </c>
       <c r="D127" t="n">
-        <v>0.246409</v>
+        <v>0.246447</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0408535</v>
+        <v>0.0403902</v>
       </c>
       <c r="C128" t="n">
-        <v>0.046808</v>
+        <v>0.0460257</v>
       </c>
       <c r="D128" t="n">
-        <v>0.253458</v>
+        <v>0.253974</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0433283</v>
+        <v>0.0430187</v>
       </c>
       <c r="C129" t="n">
-        <v>0.0478818</v>
+        <v>0.047175</v>
       </c>
       <c r="D129" t="n">
-        <v>0.261542</v>
+        <v>0.261505</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0465491</v>
+        <v>0.0464721</v>
       </c>
       <c r="C130" t="n">
-        <v>0.049176</v>
+        <v>0.0482797</v>
       </c>
       <c r="D130" t="n">
-        <v>0.269387</v>
+        <v>0.269747</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0521202</v>
+        <v>0.050999</v>
       </c>
       <c r="C131" t="n">
-        <v>0.0508097</v>
+        <v>0.0499053</v>
       </c>
       <c r="D131" t="n">
-        <v>0.276993</v>
+        <v>0.277527</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0592493</v>
+        <v>0.058385</v>
       </c>
       <c r="C132" t="n">
-        <v>0.0527734</v>
+        <v>0.0519908</v>
       </c>
       <c r="D132" t="n">
-        <v>0.285399</v>
+        <v>0.285568</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.0687511</v>
+        <v>0.0684545</v>
       </c>
       <c r="C133" t="n">
-        <v>0.0554515</v>
+        <v>0.0545841</v>
       </c>
       <c r="D133" t="n">
-        <v>0.293612</v>
+        <v>0.294175</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.0826658</v>
+        <v>0.08206330000000001</v>
       </c>
       <c r="C134" t="n">
-        <v>0.0593293</v>
+        <v>0.0583397</v>
       </c>
       <c r="D134" t="n">
-        <v>0.303166</v>
+        <v>0.303404</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.102514</v>
+        <v>0.101818</v>
       </c>
       <c r="C135" t="n">
-        <v>0.06519079999999999</v>
+        <v>0.063946</v>
       </c>
       <c r="D135" t="n">
-        <v>0.213668</v>
+        <v>0.214282</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.130508</v>
+        <v>0.129554</v>
       </c>
       <c r="C136" t="n">
-        <v>0.0752613</v>
+        <v>0.0734004</v>
       </c>
       <c r="D136" t="n">
-        <v>0.219449</v>
+        <v>0.220073</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.16469</v>
+        <v>0.164185</v>
       </c>
       <c r="C137" t="n">
-        <v>0.0597122</v>
+        <v>0.059152</v>
       </c>
       <c r="D137" t="n">
-        <v>0.226324</v>
+        <v>0.226178</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0467406</v>
+        <v>0.0469761</v>
       </c>
       <c r="C138" t="n">
-        <v>0.0603948</v>
+        <v>0.0597074</v>
       </c>
       <c r="D138" t="n">
-        <v>0.233012</v>
+        <v>0.233146</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0481232</v>
+        <v>0.0479037</v>
       </c>
       <c r="C139" t="n">
-        <v>0.0607825</v>
+        <v>0.0601501</v>
       </c>
       <c r="D139" t="n">
-        <v>0.240247</v>
+        <v>0.240051</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.0489416</v>
+        <v>0.0498198</v>
       </c>
       <c r="C140" t="n">
-        <v>0.0616201</v>
+        <v>0.0609043</v>
       </c>
       <c r="D140" t="n">
-        <v>0.247762</v>
+        <v>0.247845</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0509875</v>
+        <v>0.0510411</v>
       </c>
       <c r="C141" t="n">
-        <v>0.0624384</v>
+        <v>0.061895</v>
       </c>
       <c r="D141" t="n">
-        <v>0.255313</v>
+        <v>0.255382</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.0531945</v>
+        <v>0.0529401</v>
       </c>
       <c r="C142" t="n">
-        <v>0.06323819999999999</v>
+        <v>0.0628059</v>
       </c>
       <c r="D142" t="n">
-        <v>0.263005</v>
+        <v>0.263471</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.0555251</v>
+        <v>0.0557583</v>
       </c>
       <c r="C143" t="n">
-        <v>0.06418989999999999</v>
+        <v>0.0640221</v>
       </c>
       <c r="D143" t="n">
-        <v>0.270665</v>
+        <v>0.271119</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered unsuccessful looukp.xlsx
+++ b/clang-arm64/Scattered unsuccessful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0176655</v>
+        <v>0.0177526</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0211221</v>
+        <v>0.0212912</v>
       </c>
       <c r="D2" t="n">
-        <v>0.06813180000000001</v>
+        <v>0.06704499999999999</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0194338</v>
+        <v>0.0192644</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0218175</v>
+        <v>0.0216516</v>
       </c>
       <c r="D3" t="n">
-        <v>0.06818150000000001</v>
+        <v>0.0714786</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0244015</v>
+        <v>0.0221008</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0226379</v>
+        <v>0.0223225</v>
       </c>
       <c r="D4" t="n">
-        <v>0.07547280000000001</v>
+        <v>0.0770328</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0283103</v>
+        <v>0.0334111</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0238953</v>
+        <v>0.0233009</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0771005</v>
+        <v>0.0761645</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0450183</v>
+        <v>0.0480316</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0254206</v>
+        <v>0.0246798</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0800486</v>
+        <v>0.0801861</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0622461</v>
+        <v>0.06401469999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0282975</v>
+        <v>0.0280586</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0588009</v>
+        <v>0.0580881</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0849529</v>
+        <v>0.0895789</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0333787</v>
+        <v>0.034615</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0605465</v>
+        <v>0.06484280000000001</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.113104</v>
+        <v>0.115276</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0194571</v>
+        <v>0.0191122</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0653294</v>
+        <v>0.0637684</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.016169</v>
+        <v>0.0166368</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0196103</v>
+        <v>0.0193527</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0674855</v>
+        <v>0.0679487</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0167491</v>
+        <v>0.0172356</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0198145</v>
+        <v>0.0196247</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0708949</v>
+        <v>0.0701368</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0171303</v>
+        <v>0.0174729</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0200043</v>
+        <v>0.0199459</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0742628</v>
+        <v>0.07469140000000001</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0175117</v>
+        <v>0.0180594</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0202811</v>
+        <v>0.0202259</v>
       </c>
       <c r="D13" t="n">
-        <v>0.07761319999999999</v>
+        <v>0.0785928</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0181351</v>
+        <v>0.0187153</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0207409</v>
+        <v>0.020512</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0849997</v>
+        <v>0.0794256</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0193711</v>
+        <v>0.0195088</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0212053</v>
+        <v>0.0208932</v>
       </c>
       <c r="D15" t="n">
-        <v>0.08332920000000001</v>
+        <v>0.08440449999999999</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0221113</v>
+        <v>0.0220073</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0218457</v>
+        <v>0.0215819</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0863491</v>
+        <v>0.0878314</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0252432</v>
+        <v>0.0262231</v>
       </c>
       <c r="C17" t="n">
-        <v>0.022528</v>
+        <v>0.0223038</v>
       </c>
       <c r="D17" t="n">
-        <v>0.089615</v>
+        <v>0.0908118</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.030379</v>
+        <v>0.0314059</v>
       </c>
       <c r="C18" t="n">
-        <v>0.023411</v>
+        <v>0.0231737</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0920074</v>
+        <v>0.0944296</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0405839</v>
+        <v>0.0399974</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0245504</v>
+        <v>0.0241602</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0954869</v>
+        <v>0.0950715</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0504599</v>
+        <v>0.0514455</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0270925</v>
+        <v>0.0261745</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0950252</v>
+        <v>0.0965995</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.07004009999999999</v>
+        <v>0.0675476</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0303544</v>
+        <v>0.0294677</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0660747</v>
+        <v>0.0660676</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0930931</v>
+        <v>0.0894634</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0359359</v>
+        <v>0.0371683</v>
       </c>
       <c r="D22" t="n">
-        <v>0.06935620000000001</v>
+        <v>0.06986340000000001</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.117736</v>
+        <v>0.118793</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0190898</v>
+        <v>0.0188362</v>
       </c>
       <c r="D23" t="n">
-        <v>0.071796</v>
+        <v>0.0725976</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0167886</v>
+        <v>0.016381</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0192452</v>
+        <v>0.019079</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0750579</v>
+        <v>0.07644040000000001</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.017393</v>
+        <v>0.0169863</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0194453</v>
+        <v>0.0192635</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0777549</v>
+        <v>0.07944610000000001</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.017903</v>
+        <v>0.0175966</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0197477</v>
+        <v>0.0194591</v>
       </c>
       <c r="D26" t="n">
-        <v>0.08079749999999999</v>
+        <v>0.08147</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0185914</v>
+        <v>0.0184602</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0199928</v>
+        <v>0.0198477</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0847562</v>
+        <v>0.08480409999999999</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.019674</v>
+        <v>0.0196536</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0203942</v>
+        <v>0.0201879</v>
       </c>
       <c r="D28" t="n">
-        <v>0.08896179999999999</v>
+        <v>0.0883557</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0217419</v>
+        <v>0.0213</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0208825</v>
+        <v>0.0208458</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0906463</v>
+        <v>0.0906204</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.024766</v>
+        <v>0.0238191</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0214761</v>
+        <v>0.0213106</v>
       </c>
       <c r="D30" t="n">
-        <v>0.092448</v>
+        <v>0.09308809999999999</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0289965</v>
+        <v>0.0280158</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0223696</v>
+        <v>0.0221398</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0951394</v>
+        <v>0.0951485</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0344853</v>
+        <v>0.0327975</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0235788</v>
+        <v>0.0230598</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0971837</v>
+        <v>0.0975138</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0437663</v>
+        <v>0.0425278</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0252353</v>
+        <v>0.0243773</v>
       </c>
       <c r="D33" t="n">
-        <v>0.09862600000000001</v>
+        <v>0.0992547</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0540567</v>
+        <v>0.0531204</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0275066</v>
+        <v>0.0266999</v>
       </c>
       <c r="D34" t="n">
-        <v>0.101137</v>
+        <v>0.101767</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.071585</v>
+        <v>0.06953529999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0304005</v>
+        <v>0.0303461</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0691692</v>
+        <v>0.0692879</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.09283</v>
+        <v>0.09048970000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0373687</v>
+        <v>0.0369777</v>
       </c>
       <c r="D36" t="n">
-        <v>0.07185759999999999</v>
+        <v>0.0722738</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.117777</v>
+        <v>0.116654</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0194462</v>
+        <v>0.0194503</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0748833</v>
+        <v>0.0755294</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0173743</v>
+        <v>0.0169933</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0196996</v>
+        <v>0.0197576</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0787947</v>
+        <v>0.0790622</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0181403</v>
+        <v>0.0179027</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0200422</v>
+        <v>0.0200535</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0826718</v>
+        <v>0.0829302</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0188783</v>
+        <v>0.0188302</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0203187</v>
+        <v>0.0203122</v>
       </c>
       <c r="D40" t="n">
-        <v>0.08586729999999999</v>
+        <v>0.08593430000000001</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0201605</v>
+        <v>0.0203604</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0207226</v>
+        <v>0.0206599</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0884591</v>
+        <v>0.088756</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0219069</v>
+        <v>0.0220957</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0210982</v>
+        <v>0.0210761</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0914568</v>
+        <v>0.0920829</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0243192</v>
+        <v>0.0244162</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0216723</v>
+        <v>0.0217154</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0944383</v>
+        <v>0.09451270000000001</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0274753</v>
+        <v>0.0276523</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0224234</v>
+        <v>0.0223928</v>
       </c>
       <c r="D44" t="n">
-        <v>0.09688090000000001</v>
+        <v>0.0974595</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0324396</v>
+        <v>0.0316972</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0233534</v>
+        <v>0.0232225</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0990362</v>
+        <v>0.0991026</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0371235</v>
+        <v>0.0377639</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0245196</v>
+        <v>0.0243899</v>
       </c>
       <c r="D46" t="n">
-        <v>0.100755</v>
+        <v>0.101066</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0456537</v>
+        <v>0.0455917</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0264267</v>
+        <v>0.0258346</v>
       </c>
       <c r="D47" t="n">
-        <v>0.103277</v>
+        <v>0.104201</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0563291</v>
+        <v>0.0563124</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0291105</v>
+        <v>0.0284054</v>
       </c>
       <c r="D48" t="n">
-        <v>0.106601</v>
+        <v>0.10622</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0711199</v>
+        <v>0.0710332</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0330274</v>
+        <v>0.031846</v>
       </c>
       <c r="D49" t="n">
-        <v>0.10833</v>
+        <v>0.108666</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0918216</v>
+        <v>0.0915357</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0393942</v>
+        <v>0.0375297</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0748576</v>
+        <v>0.07494919999999999</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.119097</v>
+        <v>0.118365</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0203853</v>
+        <v>0.0204569</v>
       </c>
       <c r="D51" t="n">
-        <v>0.07888240000000001</v>
+        <v>0.0782967</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.142413</v>
+        <v>0.143885</v>
       </c>
       <c r="C52" t="n">
-        <v>0.020661</v>
+        <v>0.0207355</v>
       </c>
       <c r="D52" t="n">
-        <v>0.08217190000000001</v>
+        <v>0.0824479</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0190291</v>
+        <v>0.0191379</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0209474</v>
+        <v>0.0210533</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0853394</v>
+        <v>0.0858618</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0201202</v>
+        <v>0.0200848</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0212724</v>
+        <v>0.021375</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0888891</v>
+        <v>0.0888982</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0216425</v>
+        <v>0.0219192</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0215945</v>
+        <v>0.021764</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0922626</v>
+        <v>0.0924348</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0233436</v>
+        <v>0.0239149</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0220508</v>
+        <v>0.0222322</v>
       </c>
       <c r="D56" t="n">
-        <v>0.09590600000000001</v>
+        <v>0.0961799</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.026258</v>
+        <v>0.0268583</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0225567</v>
+        <v>0.0227571</v>
       </c>
       <c r="D57" t="n">
-        <v>0.09920619999999999</v>
+        <v>0.0989097</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0295017</v>
+        <v>0.0304331</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0233212</v>
+        <v>0.0234015</v>
       </c>
       <c r="D58" t="n">
-        <v>0.101837</v>
+        <v>0.101586</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0336637</v>
+        <v>0.0346118</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0243586</v>
+        <v>0.0242453</v>
       </c>
       <c r="D59" t="n">
-        <v>0.104135</v>
+        <v>0.104191</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0393687</v>
+        <v>0.0401318</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0254656</v>
+        <v>0.0255726</v>
       </c>
       <c r="D60" t="n">
-        <v>0.106756</v>
+        <v>0.106591</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0462845</v>
+        <v>0.0472231</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0273385</v>
+        <v>0.0272738</v>
       </c>
       <c r="D61" t="n">
-        <v>0.109306</v>
+        <v>0.110221</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0566952</v>
+        <v>0.0571093</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0299877</v>
+        <v>0.0298441</v>
       </c>
       <c r="D62" t="n">
-        <v>0.112447</v>
+        <v>0.111548</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.07016699999999999</v>
+        <v>0.07100190000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0339905</v>
+        <v>0.0337454</v>
       </c>
       <c r="D63" t="n">
-        <v>0.115409</v>
+        <v>0.114516</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0894452</v>
+        <v>0.09000660000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0406421</v>
+        <v>0.0398621</v>
       </c>
       <c r="D64" t="n">
-        <v>0.081704</v>
+        <v>0.08097509999999999</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.115354</v>
+        <v>0.11552</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0523041</v>
+        <v>0.0510023</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0846259</v>
+        <v>0.08529490000000001</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.147332</v>
+        <v>0.146705</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0209826</v>
+        <v>0.0210345</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0889078</v>
+        <v>0.090153</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0195888</v>
+        <v>0.0198193</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0212524</v>
+        <v>0.021349</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0961365</v>
+        <v>0.0944198</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0209142</v>
+        <v>0.0210776</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0216102</v>
+        <v>0.0217555</v>
       </c>
       <c r="D68" t="n">
-        <v>0.100978</v>
+        <v>0.100055</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0224867</v>
+        <v>0.0228131</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0220157</v>
+        <v>0.0220941</v>
       </c>
       <c r="D69" t="n">
-        <v>0.103211</v>
+        <v>0.106238</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0245435</v>
+        <v>0.0246496</v>
       </c>
       <c r="C70" t="n">
-        <v>0.022463</v>
+        <v>0.0225322</v>
       </c>
       <c r="D70" t="n">
-        <v>0.108633</v>
+        <v>0.110772</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0271138</v>
+        <v>0.0272709</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0230164</v>
+        <v>0.023087</v>
       </c>
       <c r="D71" t="n">
-        <v>0.114464</v>
+        <v>0.11552</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0303066</v>
+        <v>0.0305097</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0236276</v>
+        <v>0.0237973</v>
       </c>
       <c r="D72" t="n">
-        <v>0.120191</v>
+        <v>0.11998</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0342501</v>
+        <v>0.0346068</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0246309</v>
+        <v>0.024673</v>
       </c>
       <c r="D73" t="n">
-        <v>0.125181</v>
+        <v>0.124794</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0393915</v>
+        <v>0.0397957</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0258085</v>
+        <v>0.0258703</v>
       </c>
       <c r="D74" t="n">
-        <v>0.130638</v>
+        <v>0.130119</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0461303</v>
+        <v>0.0466518</v>
       </c>
       <c r="C75" t="n">
-        <v>0.02768</v>
+        <v>0.0276214</v>
       </c>
       <c r="D75" t="n">
-        <v>0.134853</v>
+        <v>0.134952</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0555292</v>
+        <v>0.0557264</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0299939</v>
+        <v>0.0301362</v>
       </c>
       <c r="D76" t="n">
-        <v>0.140503</v>
+        <v>0.141117</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0687193</v>
+        <v>0.06858359999999999</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0340166</v>
+        <v>0.0339096</v>
       </c>
       <c r="D77" t="n">
-        <v>0.147162</v>
+        <v>0.147141</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0872539</v>
+        <v>0.08707869999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0400919</v>
+        <v>0.0396051</v>
       </c>
       <c r="D78" t="n">
-        <v>0.114006</v>
+        <v>0.112434</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.112555</v>
+        <v>0.111806</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0498337</v>
+        <v>0.0494159</v>
       </c>
       <c r="D79" t="n">
-        <v>0.118076</v>
+        <v>0.118383</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.1442</v>
+        <v>0.143283</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0213715</v>
+        <v>0.0212322</v>
       </c>
       <c r="D80" t="n">
-        <v>0.124844</v>
+        <v>0.125128</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0200138</v>
+        <v>0.0201003</v>
       </c>
       <c r="C81" t="n">
-        <v>0.021649</v>
+        <v>0.0215623</v>
       </c>
       <c r="D81" t="n">
-        <v>0.133137</v>
+        <v>0.133627</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0214121</v>
+        <v>0.0215969</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0221272</v>
+        <v>0.0219592</v>
       </c>
       <c r="D82" t="n">
-        <v>0.142035</v>
+        <v>0.139497</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0229066</v>
+        <v>0.022926</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0225539</v>
+        <v>0.0224371</v>
       </c>
       <c r="D83" t="n">
-        <v>0.147762</v>
+        <v>0.148368</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0249501</v>
+        <v>0.0248558</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0230736</v>
+        <v>0.0229076</v>
       </c>
       <c r="D84" t="n">
-        <v>0.159452</v>
+        <v>0.154534</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0274413</v>
+        <v>0.0275314</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0237227</v>
+        <v>0.0235728</v>
       </c>
       <c r="D85" t="n">
-        <v>0.163894</v>
+        <v>0.161623</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0302551</v>
+        <v>0.0303612</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0245202</v>
+        <v>0.0244214</v>
       </c>
       <c r="D86" t="n">
-        <v>0.174032</v>
+        <v>0.169049</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0344675</v>
+        <v>0.0340079</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0256429</v>
+        <v>0.0254311</v>
       </c>
       <c r="D87" t="n">
-        <v>0.175538</v>
+        <v>0.177362</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0395316</v>
+        <v>0.039124</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0268427</v>
+        <v>0.0267442</v>
       </c>
       <c r="D88" t="n">
-        <v>0.184658</v>
+        <v>0.184858</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0462813</v>
+        <v>0.0456925</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0285546</v>
+        <v>0.028469</v>
       </c>
       <c r="D89" t="n">
-        <v>0.193025</v>
+        <v>0.192157</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0549655</v>
+        <v>0.0544832</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0308154</v>
+        <v>0.0309771</v>
       </c>
       <c r="D90" t="n">
-        <v>0.197905</v>
+        <v>0.199936</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0669858</v>
+        <v>0.066552</v>
       </c>
       <c r="C91" t="n">
-        <v>0.034238</v>
+        <v>0.0343912</v>
       </c>
       <c r="D91" t="n">
-        <v>0.209754</v>
+        <v>0.206672</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0846548</v>
+        <v>0.0835157</v>
       </c>
       <c r="C92" t="n">
-        <v>0.039522</v>
+        <v>0.039465</v>
       </c>
       <c r="D92" t="n">
-        <v>0.157672</v>
+        <v>0.155802</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.108165</v>
+        <v>0.107391</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0482256</v>
+        <v>0.0483193</v>
       </c>
       <c r="D93" t="n">
-        <v>0.16159</v>
+        <v>0.161675</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.139178</v>
+        <v>0.138021</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0231676</v>
+        <v>0.0231013</v>
       </c>
       <c r="D94" t="n">
-        <v>0.167719</v>
+        <v>0.169348</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0205773</v>
+        <v>0.0206474</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0236546</v>
+        <v>0.0236165</v>
       </c>
       <c r="D95" t="n">
-        <v>0.17444</v>
+        <v>0.176095</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0218644</v>
+        <v>0.0221101</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0241851</v>
+        <v>0.0241596</v>
       </c>
       <c r="D96" t="n">
-        <v>0.183706</v>
+        <v>0.181262</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0233565</v>
+        <v>0.0232896</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0248393</v>
+        <v>0.0247202</v>
       </c>
       <c r="D97" t="n">
-        <v>0.188203</v>
+        <v>0.18991</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0254565</v>
+        <v>0.0252283</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0255325</v>
+        <v>0.0255991</v>
       </c>
       <c r="D98" t="n">
-        <v>0.195522</v>
+        <v>0.195994</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0277796</v>
+        <v>0.0273129</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0271063</v>
+        <v>0.0270169</v>
       </c>
       <c r="D99" t="n">
-        <v>0.205289</v>
+        <v>0.204642</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0305254</v>
+        <v>0.0301996</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0293883</v>
+        <v>0.0291834</v>
       </c>
       <c r="D100" t="n">
-        <v>0.21028</v>
+        <v>0.212057</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0347065</v>
+        <v>0.0347835</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0322303</v>
+        <v>0.0322329</v>
       </c>
       <c r="D101" t="n">
-        <v>0.220112</v>
+        <v>0.219293</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0398986</v>
+        <v>0.0399095</v>
       </c>
       <c r="C102" t="n">
-        <v>0.035449</v>
+        <v>0.035412</v>
       </c>
       <c r="D102" t="n">
-        <v>0.227685</v>
+        <v>0.225875</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0465312</v>
+        <v>0.0464964</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0384243</v>
+        <v>0.0385992</v>
       </c>
       <c r="D103" t="n">
-        <v>0.235857</v>
+        <v>0.235769</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0546243</v>
+        <v>0.0546615</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0417031</v>
+        <v>0.0416751</v>
       </c>
       <c r="D104" t="n">
-        <v>0.243982</v>
+        <v>0.243888</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.06570040000000001</v>
+        <v>0.0657228</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0450213</v>
+        <v>0.0449833</v>
       </c>
       <c r="D105" t="n">
-        <v>0.252558</v>
+        <v>0.252882</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.08129649999999999</v>
+        <v>0.08112610000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0493359</v>
+        <v>0.0493743</v>
       </c>
       <c r="D106" t="n">
-        <v>0.258881</v>
+        <v>0.261301</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.103094</v>
+        <v>0.103231</v>
       </c>
       <c r="C107" t="n">
-        <v>0.0556846</v>
+        <v>0.0558112</v>
       </c>
       <c r="D107" t="n">
-        <v>0.190501</v>
+        <v>0.190858</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.132694</v>
+        <v>0.132937</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0352899</v>
+        <v>0.0351976</v>
       </c>
       <c r="D108" t="n">
-        <v>0.197548</v>
+        <v>0.198469</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.169151</v>
+        <v>0.167876</v>
       </c>
       <c r="C109" t="n">
-        <v>0.0361103</v>
+        <v>0.0362059</v>
       </c>
       <c r="D109" t="n">
-        <v>0.203504</v>
+        <v>0.203909</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0310846</v>
+        <v>0.0312091</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0371831</v>
+        <v>0.0372565</v>
       </c>
       <c r="D110" t="n">
-        <v>0.211607</v>
+        <v>0.210725</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.032761</v>
+        <v>0.0325145</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0379552</v>
+        <v>0.0381175</v>
       </c>
       <c r="D111" t="n">
-        <v>0.218773</v>
+        <v>0.221752</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0345442</v>
+        <v>0.0341728</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0389175</v>
+        <v>0.0388175</v>
       </c>
       <c r="D112" t="n">
-        <v>0.224537</v>
+        <v>0.22644</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0361978</v>
+        <v>0.0358792</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0397158</v>
+        <v>0.0397339</v>
       </c>
       <c r="D113" t="n">
-        <v>0.232163</v>
+        <v>0.233526</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0384188</v>
+        <v>0.0379768</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0406613</v>
+        <v>0.0407829</v>
       </c>
       <c r="D114" t="n">
-        <v>0.241108</v>
+        <v>0.241241</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.0408722</v>
+        <v>0.0407898</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0418803</v>
+        <v>0.0418896</v>
       </c>
       <c r="D115" t="n">
-        <v>0.248926</v>
+        <v>0.24913</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.0441685</v>
+        <v>0.044146</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0429378</v>
+        <v>0.0431741</v>
       </c>
       <c r="D116" t="n">
-        <v>0.255216</v>
+        <v>0.256869</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.0486896</v>
+        <v>0.0487633</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0445159</v>
+        <v>0.0445746</v>
       </c>
       <c r="D117" t="n">
-        <v>0.264551</v>
+        <v>0.264893</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.0554204</v>
+        <v>0.0552544</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0464241</v>
+        <v>0.0466026</v>
       </c>
       <c r="D118" t="n">
-        <v>0.272553</v>
+        <v>0.273464</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.0651698</v>
+        <v>0.06481720000000001</v>
       </c>
       <c r="C119" t="n">
-        <v>0.0490417</v>
+        <v>0.0491739</v>
       </c>
       <c r="D119" t="n">
-        <v>0.280005</v>
+        <v>0.281942</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.0795087</v>
+        <v>0.0791539</v>
       </c>
       <c r="C120" t="n">
-        <v>0.0526306</v>
+        <v>0.052648</v>
       </c>
       <c r="D120" t="n">
-        <v>0.290939</v>
+        <v>0.291328</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.100338</v>
+        <v>0.0996108</v>
       </c>
       <c r="C121" t="n">
-        <v>0.0584382</v>
+        <v>0.0586086</v>
       </c>
       <c r="D121" t="n">
-        <v>0.205777</v>
+        <v>0.207296</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.128346</v>
+        <v>0.127644</v>
       </c>
       <c r="C122" t="n">
-        <v>0.0680953</v>
+        <v>0.068081</v>
       </c>
       <c r="D122" t="n">
-        <v>0.212597</v>
+        <v>0.213491</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.16413</v>
+        <v>0.163734</v>
       </c>
       <c r="C123" t="n">
-        <v>0.0414882</v>
+        <v>0.0406266</v>
       </c>
       <c r="D123" t="n">
-        <v>0.218246</v>
+        <v>0.219872</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.0341011</v>
+        <v>0.03439</v>
       </c>
       <c r="C124" t="n">
-        <v>0.042572</v>
+        <v>0.0415932</v>
       </c>
       <c r="D124" t="n">
-        <v>0.225043</v>
+        <v>0.226181</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.0356019</v>
+        <v>0.0355133</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0432126</v>
+        <v>0.0422614</v>
       </c>
       <c r="D125" t="n">
-        <v>0.231677</v>
+        <v>0.2328</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.0367387</v>
+        <v>0.0372471</v>
       </c>
       <c r="C126" t="n">
-        <v>0.0439865</v>
+        <v>0.0438288</v>
       </c>
       <c r="D126" t="n">
-        <v>0.239007</v>
+        <v>0.240741</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.0384609</v>
+        <v>0.0390015</v>
       </c>
       <c r="C127" t="n">
-        <v>0.0448538</v>
+        <v>0.0446996</v>
       </c>
       <c r="D127" t="n">
-        <v>0.246447</v>
+        <v>0.248211</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0403902</v>
+        <v>0.0408709</v>
       </c>
       <c r="C128" t="n">
-        <v>0.0460257</v>
+        <v>0.0456421</v>
       </c>
       <c r="D128" t="n">
-        <v>0.253974</v>
+        <v>0.255427</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0430187</v>
+        <v>0.0435916</v>
       </c>
       <c r="C129" t="n">
-        <v>0.047175</v>
+        <v>0.0467243</v>
       </c>
       <c r="D129" t="n">
-        <v>0.261505</v>
+        <v>0.263153</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0464721</v>
+        <v>0.0467193</v>
       </c>
       <c r="C130" t="n">
-        <v>0.0482797</v>
+        <v>0.0480938</v>
       </c>
       <c r="D130" t="n">
-        <v>0.269747</v>
+        <v>0.270758</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.050999</v>
+        <v>0.0526551</v>
       </c>
       <c r="C131" t="n">
-        <v>0.0499053</v>
+        <v>0.0495138</v>
       </c>
       <c r="D131" t="n">
-        <v>0.277527</v>
+        <v>0.27879</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.058385</v>
+        <v>0.0591377</v>
       </c>
       <c r="C132" t="n">
-        <v>0.0519908</v>
+        <v>0.0516935</v>
       </c>
       <c r="D132" t="n">
-        <v>0.285568</v>
+        <v>0.287043</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.0684545</v>
+        <v>0.06863089999999999</v>
       </c>
       <c r="C133" t="n">
-        <v>0.0545841</v>
+        <v>0.0541853</v>
       </c>
       <c r="D133" t="n">
-        <v>0.294175</v>
+        <v>0.295342</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.08206330000000001</v>
+        <v>0.0820678</v>
       </c>
       <c r="C134" t="n">
-        <v>0.0583397</v>
+        <v>0.0578628</v>
       </c>
       <c r="D134" t="n">
-        <v>0.303404</v>
+        <v>0.304276</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.101818</v>
+        <v>0.102031</v>
       </c>
       <c r="C135" t="n">
-        <v>0.063946</v>
+        <v>0.0634595</v>
       </c>
       <c r="D135" t="n">
-        <v>0.214282</v>
+        <v>0.214158</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.129554</v>
+        <v>0.130189</v>
       </c>
       <c r="C136" t="n">
-        <v>0.0734004</v>
+        <v>0.0729453</v>
       </c>
       <c r="D136" t="n">
-        <v>0.220073</v>
+        <v>0.220277</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.164185</v>
+        <v>0.16604</v>
       </c>
       <c r="C137" t="n">
-        <v>0.059152</v>
+        <v>0.0596466</v>
       </c>
       <c r="D137" t="n">
-        <v>0.226178</v>
+        <v>0.226749</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0469761</v>
+        <v>0.0468762</v>
       </c>
       <c r="C138" t="n">
-        <v>0.0597074</v>
+        <v>0.0599044</v>
       </c>
       <c r="D138" t="n">
-        <v>0.233146</v>
+        <v>0.233691</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0479037</v>
+        <v>0.0486278</v>
       </c>
       <c r="C139" t="n">
-        <v>0.0601501</v>
+        <v>0.0600301</v>
       </c>
       <c r="D139" t="n">
-        <v>0.240051</v>
+        <v>0.24071</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.0498198</v>
+        <v>0.049463</v>
       </c>
       <c r="C140" t="n">
-        <v>0.0609043</v>
+        <v>0.0617221</v>
       </c>
       <c r="D140" t="n">
-        <v>0.247845</v>
+        <v>0.248219</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0510411</v>
+        <v>0.0510159</v>
       </c>
       <c r="C141" t="n">
-        <v>0.061895</v>
+        <v>0.0618551</v>
       </c>
       <c r="D141" t="n">
-        <v>0.255382</v>
+        <v>0.256224</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.0529401</v>
+        <v>0.0529381</v>
       </c>
       <c r="C142" t="n">
-        <v>0.0628059</v>
+        <v>0.0630015</v>
       </c>
       <c r="D142" t="n">
-        <v>0.263471</v>
+        <v>0.264004</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.0557583</v>
+        <v>0.0557401</v>
       </c>
       <c r="C143" t="n">
-        <v>0.0640221</v>
+        <v>0.0639702</v>
       </c>
       <c r="D143" t="n">
-        <v>0.271119</v>
+        <v>0.272033</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered unsuccessful looukp.xlsx
+++ b/clang-arm64/Scattered unsuccessful looukp.xlsx
@@ -3213,7 +3213,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D143"/>
+  <dimension ref="A1:E143"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="G23" sqref="G23"/>
@@ -3246,13 +3246,16 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0177526</v>
+        <v>0.0188563</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0212912</v>
+        <v>0.0745743</v>
       </c>
       <c r="D2" t="n">
-        <v>0.06704499999999999</v>
+        <v>0.0212525</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0214076</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3263,16 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0192644</v>
+        <v>0.020482</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0216516</v>
+        <v>0.0818991</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0714786</v>
+        <v>0.0216004</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0220449</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3280,16 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0221008</v>
+        <v>0.0250918</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0223225</v>
+        <v>0.0759394</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0770328</v>
+        <v>0.0227228</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0228814</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3297,16 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0334111</v>
+        <v>0.0324396</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0233009</v>
+        <v>0.0880992</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0761645</v>
+        <v>0.0236692</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0238445</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3314,16 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0480316</v>
+        <v>0.0486736</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0246798</v>
+        <v>0.08153489999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0801861</v>
+        <v>0.025734</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0259967</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3331,16 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.06401469999999999</v>
+        <v>0.0676407</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0280586</v>
+        <v>0.0624356</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0580881</v>
+        <v>0.0307283</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0308818</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3348,16 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0895789</v>
+        <v>0.0914015</v>
       </c>
       <c r="C8" t="n">
-        <v>0.034615</v>
+        <v>0.061869</v>
       </c>
       <c r="D8" t="n">
-        <v>0.06484280000000001</v>
+        <v>0.0400074</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.0397899</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3365,16 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.115276</v>
+        <v>0.120117</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0191122</v>
+        <v>0.0683074</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0637684</v>
+        <v>0.0191859</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0190868</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3382,16 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0166368</v>
+        <v>0.0161742</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0193527</v>
+        <v>0.0686766</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0679487</v>
+        <v>0.0194145</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.0193166</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3399,16 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0172356</v>
+        <v>0.0167609</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0196247</v>
+        <v>0.07166640000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0701368</v>
+        <v>0.0197171</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.0195902</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3416,16 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0174729</v>
+        <v>0.017033</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0199459</v>
+        <v>0.0739997</v>
       </c>
       <c r="D12" t="n">
-        <v>0.07469140000000001</v>
+        <v>0.0200098</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.0199197</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3433,16 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0180594</v>
+        <v>0.0178156</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0202259</v>
+        <v>0.077265</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0785928</v>
+        <v>0.0202944</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.0202396</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3450,16 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0187153</v>
+        <v>0.0186429</v>
       </c>
       <c r="C14" t="n">
-        <v>0.020512</v>
+        <v>0.0817507</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0794256</v>
+        <v>0.0205605</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.0206034</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3467,16 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0195088</v>
+        <v>0.0201514</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0208932</v>
+        <v>0.0856117</v>
       </c>
       <c r="D15" t="n">
-        <v>0.08440449999999999</v>
+        <v>0.0210623</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.0211027</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3484,16 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0220073</v>
+        <v>0.0223364</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0215819</v>
+        <v>0.0866362</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0878314</v>
+        <v>0.021745</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.02181</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3501,16 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0262231</v>
+        <v>0.0265812</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0223038</v>
+        <v>0.09086229999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0908118</v>
+        <v>0.0224624</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.0225325</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3518,16 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0314059</v>
+        <v>0.0315209</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0231737</v>
+        <v>0.09648760000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0944296</v>
+        <v>0.0233932</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.0234089</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3535,16 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0399974</v>
+        <v>0.0404218</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0241602</v>
+        <v>0.096305</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0950715</v>
+        <v>0.0246564</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.0246829</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3552,16 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0514455</v>
+        <v>0.0523243</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0261745</v>
+        <v>0.09784320000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0965995</v>
+        <v>0.0274191</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.0272518</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3569,16 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0675476</v>
+        <v>0.068802</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0294677</v>
+        <v>0.0664341</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0660676</v>
+        <v>0.0316025</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.0319929</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3586,16 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0894634</v>
+        <v>0.0916015</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0371683</v>
+        <v>0.0712783</v>
       </c>
       <c r="D22" t="n">
-        <v>0.06986340000000001</v>
+        <v>0.0413247</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.0414377</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3603,16 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.118793</v>
+        <v>0.115789</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0188362</v>
+        <v>0.0762056</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0725976</v>
+        <v>0.0187664</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.0188357</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3620,16 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.016381</v>
+        <v>0.0165559</v>
       </c>
       <c r="C24" t="n">
-        <v>0.019079</v>
+        <v>0.0754963</v>
       </c>
       <c r="D24" t="n">
-        <v>0.07644040000000001</v>
+        <v>0.0190384</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.0191047</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3637,16 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0169863</v>
+        <v>0.01713</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0192635</v>
+        <v>0.0791755</v>
       </c>
       <c r="D25" t="n">
-        <v>0.07944610000000001</v>
+        <v>0.019321</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.019293</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3654,16 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0175966</v>
+        <v>0.017832</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0194591</v>
+        <v>0.0828492</v>
       </c>
       <c r="D26" t="n">
-        <v>0.08147</v>
+        <v>0.0195661</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.0195628</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3671,16 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0184602</v>
+        <v>0.0186431</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0198477</v>
+        <v>0.08543870000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>0.08480409999999999</v>
+        <v>0.0198599</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.020006</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3688,16 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0196536</v>
+        <v>0.0204344</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0201879</v>
+        <v>0.0887561</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0883557</v>
+        <v>0.0203393</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.0203576</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3705,16 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0213</v>
+        <v>0.0223797</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0208458</v>
+        <v>0.092414</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0906204</v>
+        <v>0.0209382</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.0209983</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3722,16 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0238191</v>
+        <v>0.0260575</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0213106</v>
+        <v>0.0948533</v>
       </c>
       <c r="D30" t="n">
-        <v>0.09308809999999999</v>
+        <v>0.0214818</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.0216036</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3739,16 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0280158</v>
+        <v>0.0296827</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0221398</v>
+        <v>0.0957143</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0951485</v>
+        <v>0.0223346</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.0224206</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3756,16 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0327975</v>
+        <v>0.0351294</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0230598</v>
+        <v>0.09790550000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0975138</v>
+        <v>0.0233779</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.0234567</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3773,16 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0425278</v>
+        <v>0.0439567</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0243773</v>
+        <v>0.09936730000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0992547</v>
+        <v>0.0247673</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.0248701</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3790,16 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0531204</v>
+        <v>0.0560566</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0266999</v>
+        <v>0.101587</v>
       </c>
       <c r="D34" t="n">
-        <v>0.101767</v>
+        <v>0.0273931</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.0276153</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3807,16 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.06953529999999999</v>
+        <v>0.0724226</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0303461</v>
+        <v>0.06934940000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0692879</v>
+        <v>0.0317286</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.0319171</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3824,16 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.09048970000000001</v>
+        <v>0.0942229</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0369777</v>
+        <v>0.0726347</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0722738</v>
+        <v>0.039339</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.0394712</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3841,16 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.116654</v>
+        <v>0.120526</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0194503</v>
+        <v>0.07564949999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0755294</v>
+        <v>0.0193829</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.0194612</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3858,16 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0169933</v>
+        <v>0.0171733</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0197576</v>
+        <v>0.0790356</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0790622</v>
+        <v>0.0197036</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.019774</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3875,16 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0179027</v>
+        <v>0.0178413</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0200535</v>
+        <v>0.0818281</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0829302</v>
+        <v>0.0199834</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.0200997</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3892,16 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0188302</v>
+        <v>0.0187789</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0203122</v>
+        <v>0.0856015</v>
       </c>
       <c r="D40" t="n">
-        <v>0.08593430000000001</v>
+        <v>0.0203028</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.0204224</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3909,16 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0203604</v>
+        <v>0.0201514</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0206599</v>
+        <v>0.08902640000000001</v>
       </c>
       <c r="D41" t="n">
-        <v>0.088756</v>
+        <v>0.0206416</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.0207986</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3926,16 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0220957</v>
+        <v>0.0218874</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0210761</v>
+        <v>0.0915702</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0920829</v>
+        <v>0.021054</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.0212501</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3943,16 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0244162</v>
+        <v>0.0244952</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0217154</v>
+        <v>0.0953242</v>
       </c>
       <c r="D43" t="n">
-        <v>0.09451270000000001</v>
+        <v>0.0216854</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.0218422</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3960,16 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0276523</v>
+        <v>0.0277145</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0223928</v>
+        <v>0.0973436</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0974595</v>
+        <v>0.0224175</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.0225976</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3977,16 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0316972</v>
+        <v>0.0318614</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0232225</v>
+        <v>0.100137</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0991026</v>
+        <v>0.0232548</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.023464</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3994,16 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0377639</v>
+        <v>0.038157</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0243899</v>
+        <v>0.102066</v>
       </c>
       <c r="D46" t="n">
-        <v>0.101066</v>
+        <v>0.0245789</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.0247861</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +4011,16 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0455917</v>
+        <v>0.0458946</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0258346</v>
+        <v>0.104689</v>
       </c>
       <c r="D47" t="n">
-        <v>0.104201</v>
+        <v>0.0261833</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.0263224</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +4028,16 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0563124</v>
+        <v>0.0561284</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0284054</v>
+        <v>0.106565</v>
       </c>
       <c r="D48" t="n">
-        <v>0.10622</v>
+        <v>0.0289704</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.0291543</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +4045,16 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0710332</v>
+        <v>0.07138170000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>0.031846</v>
+        <v>0.109417</v>
       </c>
       <c r="D49" t="n">
-        <v>0.108666</v>
+        <v>0.0328291</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.0329324</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +4062,16 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0915357</v>
+        <v>0.09212090000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0375297</v>
+        <v>0.0759278</v>
       </c>
       <c r="D50" t="n">
-        <v>0.07494919999999999</v>
+        <v>0.0389724</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.0390016</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +4079,16 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.118365</v>
+        <v>0.117399</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0204569</v>
+        <v>0.07929940000000001</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0782967</v>
+        <v>0.0204109</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.0204605</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +4096,16 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.143885</v>
+        <v>0.142611</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0207355</v>
+        <v>0.0833945</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0824479</v>
+        <v>0.0206887</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.020763</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +4113,16 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0191379</v>
+        <v>0.0191063</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0210533</v>
+        <v>0.08607579999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0858618</v>
+        <v>0.0209817</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.0211036</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +4130,16 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0200848</v>
+        <v>0.0202054</v>
       </c>
       <c r="C54" t="n">
-        <v>0.021375</v>
+        <v>0.0893982</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0888982</v>
+        <v>0.0212755</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.0214464</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +4147,16 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0219192</v>
+        <v>0.0216884</v>
       </c>
       <c r="C55" t="n">
-        <v>0.021764</v>
+        <v>0.0926165</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0924348</v>
+        <v>0.0216547</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.0218044</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4164,16 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0239149</v>
+        <v>0.023762</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0222322</v>
+        <v>0.09584810000000001</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0961799</v>
+        <v>0.0221738</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.02235</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4181,16 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0268583</v>
+        <v>0.0265754</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0227571</v>
+        <v>0.100165</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0989097</v>
+        <v>0.0227227</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.0228519</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4198,16 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0304331</v>
+        <v>0.0299431</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0234015</v>
+        <v>0.101736</v>
       </c>
       <c r="D58" t="n">
-        <v>0.101586</v>
+        <v>0.0233788</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.0235195</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4215,16 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0346118</v>
+        <v>0.0344095</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0242453</v>
+        <v>0.105135</v>
       </c>
       <c r="D59" t="n">
-        <v>0.104191</v>
+        <v>0.0243162</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.0244936</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4232,16 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0401318</v>
+        <v>0.0405591</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0255726</v>
+        <v>0.107339</v>
       </c>
       <c r="D60" t="n">
-        <v>0.106591</v>
+        <v>0.0256636</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.0258272</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4249,16 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0472231</v>
+        <v>0.0475581</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0272738</v>
+        <v>0.109803</v>
       </c>
       <c r="D61" t="n">
-        <v>0.110221</v>
+        <v>0.0275441</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.0276262</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4266,16 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0571093</v>
+        <v>0.0572633</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0298441</v>
+        <v>0.111709</v>
       </c>
       <c r="D62" t="n">
-        <v>0.111548</v>
+        <v>0.0301356</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.0303212</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4283,16 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.07100190000000001</v>
+        <v>0.0711276</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0337454</v>
+        <v>0.115496</v>
       </c>
       <c r="D63" t="n">
-        <v>0.114516</v>
+        <v>0.0341597</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.0343892</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4300,16 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.09000660000000001</v>
+        <v>0.0912027</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0398621</v>
+        <v>0.0812769</v>
       </c>
       <c r="D64" t="n">
-        <v>0.08097509999999999</v>
+        <v>0.0404667</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.0407201</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4317,16 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.11552</v>
+        <v>0.117531</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0510023</v>
+        <v>0.08581900000000001</v>
       </c>
       <c r="D65" t="n">
-        <v>0.08529490000000001</v>
+        <v>0.0516123</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.0517515</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4334,16 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.146705</v>
+        <v>0.147591</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0210345</v>
+        <v>0.09048920000000001</v>
       </c>
       <c r="D66" t="n">
-        <v>0.090153</v>
+        <v>0.0209483</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.0210642</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4351,16 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0198193</v>
+        <v>0.0198684</v>
       </c>
       <c r="C67" t="n">
-        <v>0.021349</v>
+        <v>0.09512900000000001</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0944198</v>
+        <v>0.0212904</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.0214078</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4368,16 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0210776</v>
+        <v>0.0210982</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0217555</v>
+        <v>0.09904019999999999</v>
       </c>
       <c r="D68" t="n">
-        <v>0.100055</v>
+        <v>0.0216414</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.0217171</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4385,16 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0228131</v>
+        <v>0.0228671</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0220941</v>
+        <v>0.103762</v>
       </c>
       <c r="D69" t="n">
-        <v>0.106238</v>
+        <v>0.0220066</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.0221679</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4402,16 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0246496</v>
+        <v>0.0250892</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0225322</v>
+        <v>0.109767</v>
       </c>
       <c r="D70" t="n">
-        <v>0.110772</v>
+        <v>0.022503</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.0225732</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4419,16 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0272709</v>
+        <v>0.0274858</v>
       </c>
       <c r="C71" t="n">
-        <v>0.023087</v>
+        <v>0.115064</v>
       </c>
       <c r="D71" t="n">
-        <v>0.11552</v>
+        <v>0.0230597</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.0231145</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4436,16 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0305097</v>
+        <v>0.0307585</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0237973</v>
+        <v>0.119625</v>
       </c>
       <c r="D72" t="n">
-        <v>0.11998</v>
+        <v>0.023794</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.023886</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4453,16 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0346068</v>
+        <v>0.0350439</v>
       </c>
       <c r="C73" t="n">
-        <v>0.024673</v>
+        <v>0.123912</v>
       </c>
       <c r="D73" t="n">
-        <v>0.124794</v>
+        <v>0.024724</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.0248041</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4470,16 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0397957</v>
+        <v>0.0401473</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0258703</v>
+        <v>0.128639</v>
       </c>
       <c r="D74" t="n">
-        <v>0.130119</v>
+        <v>0.0259069</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.0260928</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4487,16 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0466518</v>
+        <v>0.0470655</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0276214</v>
+        <v>0.136023</v>
       </c>
       <c r="D75" t="n">
-        <v>0.134952</v>
+        <v>0.0276355</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.0279417</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4504,16 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0557264</v>
+        <v>0.0565303</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0301362</v>
+        <v>0.141569</v>
       </c>
       <c r="D76" t="n">
-        <v>0.141117</v>
+        <v>0.0302519</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.0307152</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4521,16 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.06858359999999999</v>
+        <v>0.0694931</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0339096</v>
+        <v>0.147324</v>
       </c>
       <c r="D77" t="n">
-        <v>0.147141</v>
+        <v>0.0340355</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.0341993</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4538,16 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.08707869999999999</v>
+        <v>0.0876659</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0396051</v>
+        <v>0.114448</v>
       </c>
       <c r="D78" t="n">
-        <v>0.112434</v>
+        <v>0.0396979</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.0399898</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4555,16 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.111806</v>
+        <v>0.112976</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0494159</v>
+        <v>0.120419</v>
       </c>
       <c r="D79" t="n">
-        <v>0.118383</v>
+        <v>0.049477</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.0497379</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4572,16 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.143283</v>
+        <v>0.14429</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0212322</v>
+        <v>0.125131</v>
       </c>
       <c r="D80" t="n">
-        <v>0.125128</v>
+        <v>0.0212779</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.0218936</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4589,16 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0201003</v>
+        <v>0.0201115</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0215623</v>
+        <v>0.131477</v>
       </c>
       <c r="D81" t="n">
-        <v>0.133627</v>
+        <v>0.0216341</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.0223402</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4606,16 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0215969</v>
+        <v>0.0216766</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0219592</v>
+        <v>0.139604</v>
       </c>
       <c r="D82" t="n">
-        <v>0.139497</v>
+        <v>0.0219984</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.0229967</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4623,16 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.022926</v>
+        <v>0.0228365</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0224371</v>
+        <v>0.146445</v>
       </c>
       <c r="D83" t="n">
-        <v>0.148368</v>
+        <v>0.0224363</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.0238374</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4640,16 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0248558</v>
+        <v>0.0248985</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0229076</v>
+        <v>0.154887</v>
       </c>
       <c r="D84" t="n">
-        <v>0.154534</v>
+        <v>0.0229328</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.0244912</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4657,16 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0275314</v>
+        <v>0.0272584</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0235728</v>
+        <v>0.163154</v>
       </c>
       <c r="D85" t="n">
-        <v>0.161623</v>
+        <v>0.0235783</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.0255432</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4674,16 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0303612</v>
+        <v>0.0302977</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0244214</v>
+        <v>0.170385</v>
       </c>
       <c r="D86" t="n">
-        <v>0.169049</v>
+        <v>0.0244305</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.0269618</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4691,16 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0340079</v>
+        <v>0.0342083</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0254311</v>
+        <v>0.178312</v>
       </c>
       <c r="D87" t="n">
-        <v>0.177362</v>
+        <v>0.0254418</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.0283241</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4708,16 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.039124</v>
+        <v>0.039444</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0267442</v>
+        <v>0.182546</v>
       </c>
       <c r="D88" t="n">
-        <v>0.184858</v>
+        <v>0.0267137</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.0302692</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4725,16 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0456925</v>
+        <v>0.0458422</v>
       </c>
       <c r="C89" t="n">
-        <v>0.028469</v>
+        <v>0.19023</v>
       </c>
       <c r="D89" t="n">
-        <v>0.192157</v>
+        <v>0.0283454</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.0321612</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4742,16 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0544832</v>
+        <v>0.0546333</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0309771</v>
+        <v>0.200533</v>
       </c>
       <c r="D90" t="n">
-        <v>0.199936</v>
+        <v>0.0308527</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.0348082</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4759,16 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.066552</v>
+        <v>0.0669435</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0343912</v>
+        <v>0.208859</v>
       </c>
       <c r="D91" t="n">
-        <v>0.206672</v>
+        <v>0.0342322</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.0382122</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4776,16 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0835157</v>
+        <v>0.0841283</v>
       </c>
       <c r="C92" t="n">
-        <v>0.039465</v>
+        <v>0.157758</v>
       </c>
       <c r="D92" t="n">
-        <v>0.155802</v>
+        <v>0.03938</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.0434233</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4793,16 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.107391</v>
+        <v>0.108178</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0483193</v>
+        <v>0.162746</v>
       </c>
       <c r="D93" t="n">
-        <v>0.161675</v>
+        <v>0.048197</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.0534129</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4810,16 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.138021</v>
+        <v>0.139209</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0231013</v>
+        <v>0.168477</v>
       </c>
       <c r="D94" t="n">
-        <v>0.169348</v>
+        <v>0.0229879</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.0282249</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4827,16 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0206474</v>
+        <v>0.0208397</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0236165</v>
+        <v>0.17633</v>
       </c>
       <c r="D95" t="n">
-        <v>0.176095</v>
+        <v>0.0234516</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.029139</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4844,16 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0221101</v>
+        <v>0.0217789</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0241596</v>
+        <v>0.183525</v>
       </c>
       <c r="D96" t="n">
-        <v>0.181262</v>
+        <v>0.0240067</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.03133</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4861,16 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0232896</v>
+        <v>0.0236136</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0247202</v>
+        <v>0.190701</v>
       </c>
       <c r="D97" t="n">
-        <v>0.18991</v>
+        <v>0.0245912</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.0341335</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4878,16 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0252283</v>
+        <v>0.0250037</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0255991</v>
+        <v>0.19753</v>
       </c>
       <c r="D98" t="n">
-        <v>0.195994</v>
+        <v>0.0253619</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.0381704</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4895,16 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0273129</v>
+        <v>0.0272123</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0270169</v>
+        <v>0.204795</v>
       </c>
       <c r="D99" t="n">
-        <v>0.204642</v>
+        <v>0.0267537</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.0428413</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4912,16 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0301996</v>
+        <v>0.0306604</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0291834</v>
+        <v>0.226592</v>
       </c>
       <c r="D100" t="n">
-        <v>0.212057</v>
+        <v>0.0289872</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.0471767</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4929,16 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0347835</v>
+        <v>0.0359699</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0322329</v>
+        <v>0.219043</v>
       </c>
       <c r="D101" t="n">
-        <v>0.219293</v>
+        <v>0.0317781</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.0508107</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4946,16 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0399095</v>
+        <v>0.0400556</v>
       </c>
       <c r="C102" t="n">
-        <v>0.035412</v>
+        <v>0.227757</v>
       </c>
       <c r="D102" t="n">
-        <v>0.225875</v>
+        <v>0.0350402</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.0541568</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4963,16 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0464964</v>
+        <v>0.0464214</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0385992</v>
+        <v>0.233267</v>
       </c>
       <c r="D103" t="n">
-        <v>0.235769</v>
+        <v>0.0383243</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.0573175</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4980,16 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0546615</v>
+        <v>0.0543718</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0416751</v>
+        <v>0.243865</v>
       </c>
       <c r="D104" t="n">
-        <v>0.243888</v>
+        <v>0.0415289</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.0605919</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4997,16 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0657228</v>
+        <v>0.0654956</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0449833</v>
+        <v>0.252361</v>
       </c>
       <c r="D105" t="n">
-        <v>0.252882</v>
+        <v>0.0449303</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.06430470000000001</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +5014,16 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.08112610000000001</v>
+        <v>0.0810722</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0493743</v>
+        <v>0.261173</v>
       </c>
       <c r="D106" t="n">
-        <v>0.261301</v>
+        <v>0.0491857</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.06932820000000001</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +5031,16 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.103231</v>
+        <v>0.102897</v>
       </c>
       <c r="C107" t="n">
-        <v>0.0558112</v>
+        <v>0.190647</v>
       </c>
       <c r="D107" t="n">
-        <v>0.190858</v>
+        <v>0.0555259</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.07656540000000001</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +5048,16 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.132937</v>
+        <v>0.133253</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0351976</v>
+        <v>0.197526</v>
       </c>
       <c r="D108" t="n">
-        <v>0.198469</v>
+        <v>0.0351129</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.0513709</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +5065,16 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.167876</v>
+        <v>0.1679</v>
       </c>
       <c r="C109" t="n">
-        <v>0.0362059</v>
+        <v>0.203566</v>
       </c>
       <c r="D109" t="n">
-        <v>0.203909</v>
+        <v>0.0361988</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.0528133</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +5082,16 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0312091</v>
+        <v>0.0312378</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0372565</v>
+        <v>0.210146</v>
       </c>
       <c r="D110" t="n">
-        <v>0.210725</v>
+        <v>0.0370074</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.0541587</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +5099,16 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0325145</v>
+        <v>0.032867</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0381175</v>
+        <v>0.218257</v>
       </c>
       <c r="D111" t="n">
-        <v>0.221752</v>
+        <v>0.0378667</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.0555634</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +5116,16 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0341728</v>
+        <v>0.0343439</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0388175</v>
+        <v>0.224714</v>
       </c>
       <c r="D112" t="n">
-        <v>0.22644</v>
+        <v>0.0385583</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.0569233</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +5133,16 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0358792</v>
+        <v>0.0361309</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0397339</v>
+        <v>0.23258</v>
       </c>
       <c r="D113" t="n">
-        <v>0.233526</v>
+        <v>0.0395869</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.0585293</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +5150,16 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0379768</v>
+        <v>0.0383012</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0407829</v>
+        <v>0.239218</v>
       </c>
       <c r="D114" t="n">
-        <v>0.241241</v>
+        <v>0.0406235</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.0602617</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +5167,16 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.0407898</v>
+        <v>0.0408352</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0418896</v>
+        <v>0.24724</v>
       </c>
       <c r="D115" t="n">
-        <v>0.24913</v>
+        <v>0.0416052</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.0619037</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +5184,16 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.044146</v>
+        <v>0.0439366</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0431741</v>
+        <v>0.255715</v>
       </c>
       <c r="D116" t="n">
-        <v>0.256869</v>
+        <v>0.0428433</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.0640491</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +5201,16 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.0487633</v>
+        <v>0.0486743</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0445746</v>
+        <v>0.263655</v>
       </c>
       <c r="D117" t="n">
-        <v>0.264893</v>
+        <v>0.0445415</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.0662812</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +5218,16 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.0552544</v>
+        <v>0.0550738</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0466026</v>
+        <v>0.271989</v>
       </c>
       <c r="D118" t="n">
-        <v>0.273464</v>
+        <v>0.0464755</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.06915499999999999</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +5235,16 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.06481720000000001</v>
+        <v>0.0645583</v>
       </c>
       <c r="C119" t="n">
-        <v>0.0491739</v>
+        <v>0.282797</v>
       </c>
       <c r="D119" t="n">
-        <v>0.281942</v>
+        <v>0.0489272</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.07276100000000001</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +5252,16 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.0791539</v>
+        <v>0.0791676</v>
       </c>
       <c r="C120" t="n">
-        <v>0.052648</v>
+        <v>0.289767</v>
       </c>
       <c r="D120" t="n">
-        <v>0.291328</v>
+        <v>0.0526395</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.07756780000000001</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +5269,16 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.0996108</v>
+        <v>0.0998057</v>
       </c>
       <c r="C121" t="n">
-        <v>0.0586086</v>
+        <v>0.206007</v>
       </c>
       <c r="D121" t="n">
-        <v>0.207296</v>
+        <v>0.0583473</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.0847301</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +5286,16 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.127644</v>
+        <v>0.128197</v>
       </c>
       <c r="C122" t="n">
-        <v>0.068081</v>
+        <v>0.211597</v>
       </c>
       <c r="D122" t="n">
-        <v>0.213491</v>
+        <v>0.06810819999999999</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.0960261</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +5303,16 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.163734</v>
+        <v>0.163841</v>
       </c>
       <c r="C123" t="n">
-        <v>0.0406266</v>
+        <v>0.217961</v>
       </c>
       <c r="D123" t="n">
-        <v>0.219872</v>
+        <v>0.0412799</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.0604808</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +5320,16 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.03439</v>
+        <v>0.0345014</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0415932</v>
+        <v>0.22481</v>
       </c>
       <c r="D124" t="n">
-        <v>0.226181</v>
+        <v>0.0422281</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.0618613</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +5337,16 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.0355133</v>
+        <v>0.035219</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0422614</v>
+        <v>0.231511</v>
       </c>
       <c r="D125" t="n">
-        <v>0.2328</v>
+        <v>0.0429276</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.0635545</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +5354,16 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.0372471</v>
+        <v>0.0366214</v>
       </c>
       <c r="C126" t="n">
-        <v>0.0438288</v>
+        <v>0.23876</v>
       </c>
       <c r="D126" t="n">
-        <v>0.240741</v>
+        <v>0.0439297</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.0648304</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +5371,16 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.0390015</v>
+        <v>0.0384021</v>
       </c>
       <c r="C127" t="n">
-        <v>0.0446996</v>
+        <v>0.246015</v>
       </c>
       <c r="D127" t="n">
-        <v>0.248211</v>
+        <v>0.0447307</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.06670520000000001</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5388,16 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0408709</v>
+        <v>0.0405117</v>
       </c>
       <c r="C128" t="n">
-        <v>0.0456421</v>
+        <v>0.253902</v>
       </c>
       <c r="D128" t="n">
-        <v>0.255427</v>
+        <v>0.0457736</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.0683797</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5405,16 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0435916</v>
+        <v>0.0431668</v>
       </c>
       <c r="C129" t="n">
-        <v>0.0467243</v>
+        <v>0.261754</v>
       </c>
       <c r="D129" t="n">
-        <v>0.263153</v>
+        <v>0.0468762</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.0702016</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5422,16 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0467193</v>
+        <v>0.0465002</v>
       </c>
       <c r="C130" t="n">
-        <v>0.0480938</v>
+        <v>0.269215</v>
       </c>
       <c r="D130" t="n">
-        <v>0.270758</v>
+        <v>0.0480061</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.0724499</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5439,16 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0526551</v>
+        <v>0.0510499</v>
       </c>
       <c r="C131" t="n">
-        <v>0.0495138</v>
+        <v>0.276809</v>
       </c>
       <c r="D131" t="n">
-        <v>0.27879</v>
+        <v>0.0495994</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.07498920000000001</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5456,16 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0591377</v>
+        <v>0.0587435</v>
       </c>
       <c r="C132" t="n">
-        <v>0.0516935</v>
+        <v>0.285243</v>
       </c>
       <c r="D132" t="n">
-        <v>0.287043</v>
+        <v>0.0516555</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.0779345</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5473,16 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.06863089999999999</v>
+        <v>0.0679357</v>
       </c>
       <c r="C133" t="n">
-        <v>0.0541853</v>
+        <v>0.294416</v>
       </c>
       <c r="D133" t="n">
-        <v>0.295342</v>
+        <v>0.0541823</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.081499</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5490,16 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.0820678</v>
+        <v>0.0816269</v>
       </c>
       <c r="C134" t="n">
-        <v>0.0578628</v>
+        <v>0.303237</v>
       </c>
       <c r="D134" t="n">
-        <v>0.304276</v>
+        <v>0.0578916</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.0866347</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5507,16 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.102031</v>
+        <v>0.101812</v>
       </c>
       <c r="C135" t="n">
-        <v>0.0634595</v>
+        <v>0.212509</v>
       </c>
       <c r="D135" t="n">
-        <v>0.214158</v>
+        <v>0.0634131</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.09380090000000001</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5524,16 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.130189</v>
+        <v>0.129487</v>
       </c>
       <c r="C136" t="n">
-        <v>0.0729453</v>
+        <v>0.21893</v>
       </c>
       <c r="D136" t="n">
-        <v>0.220277</v>
+        <v>0.07260369999999999</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.105376</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5541,16 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.16604</v>
+        <v>0.164993</v>
       </c>
       <c r="C137" t="n">
-        <v>0.0596466</v>
+        <v>0.225118</v>
       </c>
       <c r="D137" t="n">
-        <v>0.226749</v>
+        <v>0.0591479</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.0789271</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5558,16 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0468762</v>
+        <v>0.0468838</v>
       </c>
       <c r="C138" t="n">
-        <v>0.0599044</v>
+        <v>0.232231</v>
       </c>
       <c r="D138" t="n">
-        <v>0.233691</v>
+        <v>0.0608915</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.0802612</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5575,16 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0486278</v>
+        <v>0.0484521</v>
       </c>
       <c r="C139" t="n">
-        <v>0.0600301</v>
+        <v>0.239705</v>
       </c>
       <c r="D139" t="n">
-        <v>0.24071</v>
+        <v>0.0603453</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.08157540000000001</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5592,16 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.049463</v>
+        <v>0.0493311</v>
       </c>
       <c r="C140" t="n">
-        <v>0.0617221</v>
+        <v>0.247032</v>
       </c>
       <c r="D140" t="n">
-        <v>0.248219</v>
+        <v>0.0608767</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.0829015</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5609,16 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0510159</v>
+        <v>0.0507617</v>
       </c>
       <c r="C141" t="n">
-        <v>0.0618551</v>
+        <v>0.255056</v>
       </c>
       <c r="D141" t="n">
-        <v>0.256224</v>
+        <v>0.0620272</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.0845514</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5626,16 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.0529381</v>
+        <v>0.0532957</v>
       </c>
       <c r="C142" t="n">
-        <v>0.0630015</v>
+        <v>0.262733</v>
       </c>
       <c r="D142" t="n">
-        <v>0.264004</v>
+        <v>0.0625593</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.08594209999999999</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5643,16 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.0557401</v>
+        <v>0.0554191</v>
       </c>
       <c r="C143" t="n">
-        <v>0.0639702</v>
+        <v>0.271863</v>
       </c>
       <c r="D143" t="n">
-        <v>0.272033</v>
+        <v>0.0640025</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.0877042</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered unsuccessful looukp.xlsx
+++ b/clang-arm64/Scattered unsuccessful looukp.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15840" windowWidth="29040" xWindow="-120" yWindow="-120"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15600" windowWidth="28800" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="plot" sheetId="1" state="visible" r:id="rId1"/>
@@ -89,10 +89,18 @@
         <scatterStyle val="lineMarker"/>
         <varyColors val="0"/>
         <ser>
-          <idx val="3"/>
+          <idx val="0"/>
           <order val="0"/>
           <tx>
-            <v>absl::flat_hash_map</v>
+            <strRef>
+              <f>plot!$B$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>absl::flat_hash_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -552,430 +560,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0196541</v>
+                  <v>0.0188563</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.022714</v>
+                  <v>0.020482</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0280732</v>
+                  <v>0.0250918</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0383508</v>
+                  <v>0.0324396</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.052548</v>
+                  <v>0.0486736</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.066875</v>
+                  <v>0.0676407</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0901585</v>
+                  <v>0.0914015</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.118385</v>
+                  <v>0.120117</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0166794</v>
+                  <v>0.0161742</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.017095</v>
+                  <v>0.0167609</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0175332</v>
+                  <v>0.017033</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0179948</v>
+                  <v>0.0178156</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0186281</v>
+                  <v>0.0186429</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0208214</v>
+                  <v>0.0201514</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0229571</v>
+                  <v>0.0223364</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0261478</v>
+                  <v>0.0265812</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0314248</v>
+                  <v>0.0315209</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0425587</v>
+                  <v>0.0404218</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0519527</v>
+                  <v>0.0523243</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.07000199999999999</v>
+                  <v>0.068802</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0890392</v>
+                  <v>0.0916015</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.119166</v>
+                  <v>0.115789</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0162997</v>
+                  <v>0.0165559</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0169862</v>
+                  <v>0.01713</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0176941</v>
+                  <v>0.017832</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0184008</v>
+                  <v>0.0186431</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0198508</v>
+                  <v>0.0204344</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0220004</v>
+                  <v>0.0223797</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0252038</v>
+                  <v>0.0260575</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.029776</v>
+                  <v>0.0296827</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0355674</v>
+                  <v>0.0351294</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0445372</v>
+                  <v>0.0439567</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0557284</v>
+                  <v>0.0560566</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0722409</v>
+                  <v>0.0724226</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0937438</v>
+                  <v>0.0942229</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.120898</v>
+                  <v>0.120526</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.017101</v>
+                  <v>0.0171733</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0179106</v>
+                  <v>0.0178413</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0187733</v>
+                  <v>0.0187789</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0201048</v>
+                  <v>0.0201514</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0218759</v>
+                  <v>0.0218874</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0240552</v>
+                  <v>0.0244952</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0282097</v>
+                  <v>0.0277145</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0323602</v>
+                  <v>0.0318614</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0379086</v>
+                  <v>0.038157</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.045608</v>
+                  <v>0.0458946</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.056116</v>
+                  <v>0.0561284</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0707222</v>
+                  <v>0.07138170000000001</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0919893</v>
+                  <v>0.09212090000000001</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.118674</v>
+                  <v>0.117399</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.145772</v>
+                  <v>0.142611</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0196284</v>
+                  <v>0.0191063</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0208398</v>
+                  <v>0.0202054</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0223922</v>
+                  <v>0.0216884</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0244506</v>
+                  <v>0.023762</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.026822</v>
+                  <v>0.0265754</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0309899</v>
+                  <v>0.0299431</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0354207</v>
+                  <v>0.0344095</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0417881</v>
+                  <v>0.0405591</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0476276</v>
+                  <v>0.0475581</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0572692</v>
+                  <v>0.0572633</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0716026</v>
+                  <v>0.0711276</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0905608</v>
+                  <v>0.0912027</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.116785</v>
+                  <v>0.117531</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.147933</v>
+                  <v>0.147591</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0197012</v>
+                  <v>0.0198684</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0211376</v>
+                  <v>0.0210982</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0228213</v>
+                  <v>0.0228671</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0247479</v>
+                  <v>0.0250892</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0274354</v>
+                  <v>0.0274858</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0306606</v>
+                  <v>0.0307585</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0349113</v>
+                  <v>0.0350439</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0401967</v>
+                  <v>0.0401473</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0468474</v>
+                  <v>0.0470655</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0560401</v>
+                  <v>0.0565303</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0688926</v>
+                  <v>0.0694931</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0873152</v>
+                  <v>0.0876659</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.112319</v>
+                  <v>0.112976</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.143939</v>
+                  <v>0.14429</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0198688</v>
+                  <v>0.0201115</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0212272</v>
+                  <v>0.0216766</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0227931</v>
+                  <v>0.0228365</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0248234</v>
+                  <v>0.0248985</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0274348</v>
+                  <v>0.0272584</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0304566</v>
+                  <v>0.0302977</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.03421</v>
+                  <v>0.0342083</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0392722</v>
+                  <v>0.039444</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0457853</v>
+                  <v>0.0458422</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0543613</v>
+                  <v>0.0546333</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0667861</v>
+                  <v>0.0669435</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0837842</v>
+                  <v>0.0841283</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.107021</v>
+                  <v>0.108178</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.138367</v>
+                  <v>0.139209</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0206107</v>
+                  <v>0.0208397</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.021977</v>
+                  <v>0.0217789</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0236946</v>
+                  <v>0.0236136</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0252601</v>
+                  <v>0.0250037</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0278301</v>
+                  <v>0.0272123</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0304313</v>
+                  <v>0.0306604</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0347894</v>
+                  <v>0.0359699</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0397493</v>
+                  <v>0.0400556</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0462983</v>
+                  <v>0.0464214</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0543709</v>
+                  <v>0.0543718</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0656243</v>
+                  <v>0.0654956</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0814584</v>
+                  <v>0.0810722</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.103239</v>
+                  <v>0.102897</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.133268</v>
+                  <v>0.133253</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.169441</v>
+                  <v>0.1679</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0309188</v>
+                  <v>0.0312378</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0323647</v>
+                  <v>0.032867</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.034075</v>
+                  <v>0.0343439</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0358327</v>
+                  <v>0.0361309</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0383382</v>
+                  <v>0.0383012</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0406737</v>
+                  <v>0.0408352</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0441246</v>
+                  <v>0.0439366</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.048723</v>
+                  <v>0.0486743</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0551746</v>
+                  <v>0.0550738</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.0650047</v>
+                  <v>0.0645583</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.07941529999999999</v>
+                  <v>0.0791676</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.100142</v>
+                  <v>0.0998057</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.128345</v>
+                  <v>0.128197</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.16426</v>
+                  <v>0.163841</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0340693</v>
+                  <v>0.0345014</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.035891</v>
+                  <v>0.035219</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.0369158</v>
+                  <v>0.0366214</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.0387195</v>
+                  <v>0.0384021</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.0407176</v>
+                  <v>0.0405117</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.0435753</v>
+                  <v>0.0431668</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.0474413</v>
+                  <v>0.0465002</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.0518101</v>
+                  <v>0.0510499</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0586713</v>
+                  <v>0.0587435</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.06794360000000001</v>
+                  <v>0.0679357</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.0817268</v>
+                  <v>0.0816269</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.101445</v>
+                  <v>0.101812</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.129425</v>
+                  <v>0.129487</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.163873</v>
+                  <v>0.164993</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0473433</v>
+                  <v>0.0468838</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.0531312</v>
+                  <v>0.0484521</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.058706</v>
+                  <v>0.0493311</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.0582968</v>
+                  <v>0.0507617</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.0553286</v>
+                  <v>0.0532957</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.0675741</v>
+                  <v>0.0554191</v>
                 </pt>
               </numCache>
             </numRef>
@@ -983,10 +991,18 @@
           <smooth val="0"/>
         </ser>
         <ser>
-          <idx val="4"/>
+          <idx val="1"/>
           <order val="1"/>
           <tx>
-            <v>boost::unordered_flat_map</v>
+            <strRef>
+              <f>plot!$C$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -1446,430 +1462,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0236953</v>
+                  <v>0.0745743</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0249792</v>
+                  <v>0.0818991</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0258301</v>
+                  <v>0.0759394</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.027365</v>
+                  <v>0.0880992</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0285038</v>
+                  <v>0.08153489999999999</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0328798</v>
+                  <v>0.0624356</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0393672</v>
+                  <v>0.061869</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0204906</v>
+                  <v>0.0683074</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0206485</v>
+                  <v>0.0686766</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0211179</v>
+                  <v>0.07166640000000001</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0213</v>
+                  <v>0.0739997</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0216018</v>
+                  <v>0.077265</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0219038</v>
+                  <v>0.0817507</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0225654</v>
+                  <v>0.0856117</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0230834</v>
+                  <v>0.0866362</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0241669</v>
+                  <v>0.09086229999999999</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0251919</v>
+                  <v>0.09648760000000001</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0266921</v>
+                  <v>0.096305</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.028982</v>
+                  <v>0.09784320000000001</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0333148</v>
+                  <v>0.0664341</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.041356</v>
+                  <v>0.0712783</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0202092</v>
+                  <v>0.0762056</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0206159</v>
+                  <v>0.0754963</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0208339</v>
+                  <v>0.0791755</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0210765</v>
+                  <v>0.0828492</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0214492</v>
+                  <v>0.08543870000000001</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0218967</v>
+                  <v>0.0887561</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0226372</v>
+                  <v>0.092414</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.023422</v>
+                  <v>0.0948533</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0242916</v>
+                  <v>0.0957143</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0254245</v>
+                  <v>0.09790550000000001</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0274613</v>
+                  <v>0.09936730000000001</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.030458</v>
+                  <v>0.101587</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0342121</v>
+                  <v>0.06934940000000001</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.040763</v>
+                  <v>0.0726347</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0210932</v>
+                  <v>0.07564949999999999</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0214487</v>
+                  <v>0.0790356</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0217322</v>
+                  <v>0.0818281</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0220884</v>
+                  <v>0.0856015</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0225227</v>
+                  <v>0.08902640000000001</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.022985</v>
+                  <v>0.0915702</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0235789</v>
+                  <v>0.0953242</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0242082</v>
+                  <v>0.0973436</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0251386</v>
+                  <v>0.100137</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.026316</v>
+                  <v>0.102066</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0281349</v>
+                  <v>0.104689</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0309591</v>
+                  <v>0.106565</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0351441</v>
+                  <v>0.109417</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0422416</v>
+                  <v>0.0759278</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0221848</v>
+                  <v>0.07929940000000001</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0226422</v>
+                  <v>0.0833945</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0230127</v>
+                  <v>0.08607579999999999</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0233388</v>
+                  <v>0.0893982</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0237292</v>
+                  <v>0.0926165</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0243318</v>
+                  <v>0.09584810000000001</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0249093</v>
+                  <v>0.100165</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0260608</v>
+                  <v>0.101736</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0270795</v>
+                  <v>0.105135</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0277862</v>
+                  <v>0.107339</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0291051</v>
+                  <v>0.109803</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0317252</v>
+                  <v>0.111709</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0360878</v>
+                  <v>0.115496</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0429958</v>
+                  <v>0.0812769</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0551095</v>
+                  <v>0.08581900000000001</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0226031</v>
+                  <v>0.09048920000000001</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0229372</v>
+                  <v>0.09512900000000001</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0232973</v>
+                  <v>0.09904019999999999</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.023692</v>
+                  <v>0.103762</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0242143</v>
+                  <v>0.109767</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0247678</v>
+                  <v>0.115064</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0255057</v>
+                  <v>0.119625</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0263971</v>
+                  <v>0.123912</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0276756</v>
+                  <v>0.128639</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0295323</v>
+                  <v>0.136023</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0321746</v>
+                  <v>0.141569</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0363344</v>
+                  <v>0.147324</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0425489</v>
+                  <v>0.114448</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0534234</v>
+                  <v>0.120419</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0228514</v>
+                  <v>0.125131</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0231978</v>
+                  <v>0.131477</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0235633</v>
+                  <v>0.139604</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0239172</v>
+                  <v>0.146445</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0244035</v>
+                  <v>0.154887</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.025024</v>
+                  <v>0.163154</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0259339</v>
+                  <v>0.170385</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0269228</v>
+                  <v>0.178312</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0282665</v>
+                  <v>0.182546</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0299743</v>
+                  <v>0.19023</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0325068</v>
+                  <v>0.200533</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.03601</v>
+                  <v>0.208859</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0416961</v>
+                  <v>0.157758</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0509443</v>
+                  <v>0.162746</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0243696</v>
+                  <v>0.168477</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0248253</v>
+                  <v>0.17633</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0253215</v>
+                  <v>0.183525</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0259145</v>
+                  <v>0.190701</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0267649</v>
+                  <v>0.19753</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0281154</v>
+                  <v>0.204795</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0301922</v>
+                  <v>0.226592</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0330066</v>
+                  <v>0.219043</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0364155</v>
+                  <v>0.227757</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0397311</v>
+                  <v>0.233267</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0428055</v>
+                  <v>0.243865</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0463608</v>
+                  <v>0.252361</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0508278</v>
+                  <v>0.261173</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0575807</v>
+                  <v>0.190647</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0361449</v>
+                  <v>0.197526</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0368822</v>
+                  <v>0.203566</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0379133</v>
+                  <v>0.210146</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0388181</v>
+                  <v>0.218257</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.0396854</v>
+                  <v>0.224714</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0406322</v>
+                  <v>0.23258</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0416831</v>
+                  <v>0.239218</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0427634</v>
+                  <v>0.24724</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0439657</v>
+                  <v>0.255715</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0456052</v>
+                  <v>0.263655</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0476259</v>
+                  <v>0.271989</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.0501364</v>
+                  <v>0.282797</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.0541071</v>
+                  <v>0.289767</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.0600156</v>
+                  <v>0.206007</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.0702492</v>
+                  <v>0.211597</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.0426162</v>
+                  <v>0.217961</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0433137</v>
+                  <v>0.22481</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.0441334</v>
+                  <v>0.231511</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.0448138</v>
+                  <v>0.23876</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.0457069</v>
+                  <v>0.246015</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.0468309</v>
+                  <v>0.253902</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.047681</v>
+                  <v>0.261754</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.0488768</v>
+                  <v>0.269215</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.0504662</v>
+                  <v>0.276809</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0524585</v>
+                  <v>0.285243</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.0553225</v>
+                  <v>0.294416</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.0590454</v>
+                  <v>0.303237</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.0649672</v>
+                  <v>0.212509</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.07502730000000001</v>
+                  <v>0.21893</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.0609618</v>
+                  <v>0.225118</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0606272</v>
+                  <v>0.232231</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.0716113</v>
+                  <v>0.239705</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.0740532</v>
+                  <v>0.247032</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.075507</v>
+                  <v>0.255056</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.0709659</v>
+                  <v>0.262733</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.0822119</v>
+                  <v>0.271863</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1877,10 +1893,18 @@
           <smooth val="0"/>
         </ser>
         <ser>
-          <idx val="5"/>
+          <idx val="2"/>
           <order val="2"/>
           <tx>
-            <v>boost::unordered_map</v>
+            <strRef>
+              <f>plot!$D$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_flat_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -2340,430 +2364,1332 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0628543</v>
+                  <v>0.0212525</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0664814</v>
+                  <v>0.0216004</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.07155309999999999</v>
+                  <v>0.0227228</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0787023</v>
+                  <v>0.0236692</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0762729</v>
+                  <v>0.025734</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0596881</v>
+                  <v>0.0307283</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0581592</v>
+                  <v>0.0400074</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0642033</v>
+                  <v>0.0191859</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.066584</v>
+                  <v>0.0194145</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.07067469999999999</v>
+                  <v>0.0197171</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.07539460000000001</v>
+                  <v>0.0200098</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0776222</v>
+                  <v>0.0202944</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.08080030000000001</v>
+                  <v>0.0205605</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.08254499999999999</v>
+                  <v>0.0210623</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0868236</v>
+                  <v>0.021745</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0901443</v>
+                  <v>0.0224624</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.09041780000000001</v>
+                  <v>0.0233932</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.09432</v>
+                  <v>0.0246564</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0970657</v>
+                  <v>0.0274191</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0672951</v>
+                  <v>0.0316025</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0716408</v>
+                  <v>0.0413247</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0714137</v>
+                  <v>0.0187664</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0762883</v>
+                  <v>0.0190384</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0788282</v>
+                  <v>0.019321</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0817253</v>
+                  <v>0.0195661</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0845086</v>
+                  <v>0.0198599</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0872682</v>
+                  <v>0.0203393</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0900213</v>
+                  <v>0.0209382</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0922123</v>
+                  <v>0.0214818</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0951592</v>
+                  <v>0.0223346</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0965795</v>
+                  <v>0.0233779</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0983135</v>
+                  <v>0.0247673</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.101668</v>
+                  <v>0.0273931</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.06976019999999999</v>
+                  <v>0.0317286</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0732333</v>
+                  <v>0.039339</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.07563</v>
+                  <v>0.0193829</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.07849739999999999</v>
+                  <v>0.0197036</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.082784</v>
+                  <v>0.0199834</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.08502469999999999</v>
+                  <v>0.0203028</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0879409</v>
+                  <v>0.0206416</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.091546</v>
+                  <v>0.021054</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0944207</v>
+                  <v>0.0216854</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0970037</v>
+                  <v>0.0224175</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0991208</v>
+                  <v>0.0232548</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.101009</v>
+                  <v>0.0245789</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.103707</v>
+                  <v>0.0261833</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.105854</v>
+                  <v>0.0289704</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.108622</v>
+                  <v>0.0328291</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.07991180000000001</v>
+                  <v>0.0389724</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0852565</v>
+                  <v>0.0204109</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.09070300000000001</v>
+                  <v>0.0206887</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.100166</v>
+                  <v>0.0209817</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.104121</v>
+                  <v>0.0212755</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.110505</v>
+                  <v>0.0216547</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.118017</v>
+                  <v>0.0221738</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.134799</v>
+                  <v>0.0227227</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.150714</v>
+                  <v>0.0233788</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.149598</v>
+                  <v>0.0243162</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.106064</v>
+                  <v>0.0256636</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.110453</v>
+                  <v>0.0275441</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.112451</v>
+                  <v>0.0301356</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.114784</v>
+                  <v>0.0341597</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0808511</v>
+                  <v>0.0404667</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0851362</v>
+                  <v>0.0516123</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0905902</v>
+                  <v>0.0209483</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0957775</v>
+                  <v>0.0212904</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.09995809999999999</v>
+                  <v>0.0216414</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.105452</v>
+                  <v>0.0220066</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.110664</v>
+                  <v>0.022503</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.115302</v>
+                  <v>0.0230597</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.119763</v>
+                  <v>0.023794</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.125554</v>
+                  <v>0.024724</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.130129</v>
+                  <v>0.0259069</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.134996</v>
+                  <v>0.0276355</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.141567</v>
+                  <v>0.0302519</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.147833</v>
+                  <v>0.0340355</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.113894</v>
+                  <v>0.0396979</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.121926</v>
+                  <v>0.049477</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.12561</v>
+                  <v>0.0212779</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.134696</v>
+                  <v>0.0216341</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.13899</v>
+                  <v>0.0219984</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.149483</v>
+                  <v>0.0224363</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.154065</v>
+                  <v>0.0229328</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.163029</v>
+                  <v>0.0235783</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.167705</v>
+                  <v>0.0244305</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.178539</v>
+                  <v>0.0254418</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.186083</v>
+                  <v>0.0267137</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.189656</v>
+                  <v>0.0283454</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.197145</v>
+                  <v>0.0308527</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.214136</v>
+                  <v>0.0342322</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.155917</v>
+                  <v>0.03938</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.163239</v>
+                  <v>0.048197</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.170659</v>
+                  <v>0.0229879</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.176032</v>
+                  <v>0.0234516</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.180564</v>
+                  <v>0.0240067</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.187866</v>
+                  <v>0.0245912</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.197686</v>
+                  <v>0.0253619</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.205106</v>
+                  <v>0.0267537</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.213378</v>
+                  <v>0.0289872</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.22001</v>
+                  <v>0.0317781</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.227646</v>
+                  <v>0.0350402</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.235713</v>
+                  <v>0.0383243</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.243297</v>
+                  <v>0.0415289</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.252123</v>
+                  <v>0.0449303</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.261676</v>
+                  <v>0.0491857</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.190199</v>
+                  <v>0.0555259</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.197145</v>
+                  <v>0.0351129</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.204605</v>
+                  <v>0.0361988</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.21028</v>
+                  <v>0.0370074</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.217256</v>
+                  <v>0.0378667</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.224583</v>
+                  <v>0.0385583</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.233435</v>
+                  <v>0.0395869</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.241083</v>
+                  <v>0.0406235</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.248226</v>
+                  <v>0.0416052</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.256309</v>
+                  <v>0.0428433</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.263815</v>
+                  <v>0.0445415</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.272729</v>
+                  <v>0.0464755</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.281114</v>
+                  <v>0.0489272</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.29099</v>
+                  <v>0.0526395</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.206413</v>
+                  <v>0.0583473</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.211988</v>
+                  <v>0.06810819999999999</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.218375</v>
+                  <v>0.0412799</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.225371</v>
+                  <v>0.0422281</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.233023</v>
+                  <v>0.0429276</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.239145</v>
+                  <v>0.0439297</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.246948</v>
+                  <v>0.0447307</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.254198</v>
+                  <v>0.0457736</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.261944</v>
+                  <v>0.0468762</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.270874</v>
+                  <v>0.0480061</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.277744</v>
+                  <v>0.0495994</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.285401</v>
+                  <v>0.0516555</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.294939</v>
+                  <v>0.0541823</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.304154</v>
+                  <v>0.0578916</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.212796</v>
+                  <v>0.0634131</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.219404</v>
+                  <v>0.07260369999999999</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.226867</v>
+                  <v>0.0591479</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.233183</v>
+                  <v>0.0608915</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.258776</v>
+                  <v>0.0603453</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.2671</v>
+                  <v>0.0608767</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.259936</v>
+                  <v>0.0620272</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.270609</v>
+                  <v>0.0625593</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.281995</v>
+                  <v>0.0640025</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>plot!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_node_map</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>plot!$A$2:$A$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>10000</v>
+                </pt>
+                <pt idx="1">
+                  <v>10500</v>
+                </pt>
+                <pt idx="2">
+                  <v>11025</v>
+                </pt>
+                <pt idx="3">
+                  <v>11576</v>
+                </pt>
+                <pt idx="4">
+                  <v>12154</v>
+                </pt>
+                <pt idx="5">
+                  <v>12760</v>
+                </pt>
+                <pt idx="6">
+                  <v>13396</v>
+                </pt>
+                <pt idx="7">
+                  <v>14063</v>
+                </pt>
+                <pt idx="8">
+                  <v>14763</v>
+                </pt>
+                <pt idx="9">
+                  <v>15498</v>
+                </pt>
+                <pt idx="10">
+                  <v>16269</v>
+                </pt>
+                <pt idx="11">
+                  <v>17078</v>
+                </pt>
+                <pt idx="12">
+                  <v>17927</v>
+                </pt>
+                <pt idx="13">
+                  <v>18818</v>
+                </pt>
+                <pt idx="14">
+                  <v>19753</v>
+                </pt>
+                <pt idx="15">
+                  <v>20734</v>
+                </pt>
+                <pt idx="16">
+                  <v>21764</v>
+                </pt>
+                <pt idx="17">
+                  <v>22845</v>
+                </pt>
+                <pt idx="18">
+                  <v>23980</v>
+                </pt>
+                <pt idx="19">
+                  <v>25171</v>
+                </pt>
+                <pt idx="20">
+                  <v>26421</v>
+                </pt>
+                <pt idx="21">
+                  <v>27733</v>
+                </pt>
+                <pt idx="22">
+                  <v>29110</v>
+                </pt>
+                <pt idx="23">
+                  <v>30555</v>
+                </pt>
+                <pt idx="24">
+                  <v>32072</v>
+                </pt>
+                <pt idx="25">
+                  <v>33664</v>
+                </pt>
+                <pt idx="26">
+                  <v>35335</v>
+                </pt>
+                <pt idx="27">
+                  <v>37089</v>
+                </pt>
+                <pt idx="28">
+                  <v>38930</v>
+                </pt>
+                <pt idx="29">
+                  <v>40863</v>
+                </pt>
+                <pt idx="30">
+                  <v>42892</v>
+                </pt>
+                <pt idx="31">
+                  <v>45022</v>
+                </pt>
+                <pt idx="32">
+                  <v>47258</v>
+                </pt>
+                <pt idx="33">
+                  <v>49605</v>
+                </pt>
+                <pt idx="34">
+                  <v>52069</v>
+                </pt>
+                <pt idx="35">
+                  <v>54656</v>
+                </pt>
+                <pt idx="36">
+                  <v>57372</v>
+                </pt>
+                <pt idx="37">
+                  <v>60223</v>
+                </pt>
+                <pt idx="38">
+                  <v>63216</v>
+                </pt>
+                <pt idx="39">
+                  <v>66358</v>
+                </pt>
+                <pt idx="40">
+                  <v>69657</v>
+                </pt>
+                <pt idx="41">
+                  <v>73120</v>
+                </pt>
+                <pt idx="42">
+                  <v>76756</v>
+                </pt>
+                <pt idx="43">
+                  <v>80573</v>
+                </pt>
+                <pt idx="44">
+                  <v>84580</v>
+                </pt>
+                <pt idx="45">
+                  <v>88787</v>
+                </pt>
+                <pt idx="46">
+                  <v>93204</v>
+                </pt>
+                <pt idx="47">
+                  <v>97841</v>
+                </pt>
+                <pt idx="48">
+                  <v>102709</v>
+                </pt>
+                <pt idx="49">
+                  <v>107820</v>
+                </pt>
+                <pt idx="50">
+                  <v>113186</v>
+                </pt>
+                <pt idx="51">
+                  <v>118820</v>
+                </pt>
+                <pt idx="52">
+                  <v>124735</v>
+                </pt>
+                <pt idx="53">
+                  <v>130945</v>
+                </pt>
+                <pt idx="54">
+                  <v>137465</v>
+                </pt>
+                <pt idx="55">
+                  <v>144311</v>
+                </pt>
+                <pt idx="56">
+                  <v>151499</v>
+                </pt>
+                <pt idx="57">
+                  <v>159046</v>
+                </pt>
+                <pt idx="58">
+                  <v>166970</v>
+                </pt>
+                <pt idx="59">
+                  <v>175290</v>
+                </pt>
+                <pt idx="60">
+                  <v>184026</v>
+                </pt>
+                <pt idx="61">
+                  <v>193198</v>
+                </pt>
+                <pt idx="62">
+                  <v>202828</v>
+                </pt>
+                <pt idx="63">
+                  <v>212939</v>
+                </pt>
+                <pt idx="64">
+                  <v>223555</v>
+                </pt>
+                <pt idx="65">
+                  <v>234701</v>
+                </pt>
+                <pt idx="66">
+                  <v>246404</v>
+                </pt>
+                <pt idx="67">
+                  <v>258692</v>
+                </pt>
+                <pt idx="68">
+                  <v>271594</v>
+                </pt>
+                <pt idx="69">
+                  <v>285141</v>
+                </pt>
+                <pt idx="70">
+                  <v>299365</v>
+                </pt>
+                <pt idx="71">
+                  <v>314300</v>
+                </pt>
+                <pt idx="72">
+                  <v>329981</v>
+                </pt>
+                <pt idx="73">
+                  <v>346446</v>
+                </pt>
+                <pt idx="74">
+                  <v>363734</v>
+                </pt>
+                <pt idx="75">
+                  <v>381886</v>
+                </pt>
+                <pt idx="76">
+                  <v>400945</v>
+                </pt>
+                <pt idx="77">
+                  <v>420956</v>
+                </pt>
+                <pt idx="78">
+                  <v>441967</v>
+                </pt>
+                <pt idx="79">
+                  <v>464028</v>
+                </pt>
+                <pt idx="80">
+                  <v>487192</v>
+                </pt>
+                <pt idx="81">
+                  <v>511514</v>
+                </pt>
+                <pt idx="82">
+                  <v>537052</v>
+                </pt>
+                <pt idx="83">
+                  <v>563866</v>
+                </pt>
+                <pt idx="84">
+                  <v>592020</v>
+                </pt>
+                <pt idx="85">
+                  <v>621581</v>
+                </pt>
+                <pt idx="86">
+                  <v>652620</v>
+                </pt>
+                <pt idx="87">
+                  <v>685210</v>
+                </pt>
+                <pt idx="88">
+                  <v>719429</v>
+                </pt>
+                <pt idx="89">
+                  <v>755358</v>
+                </pt>
+                <pt idx="90">
+                  <v>793083</v>
+                </pt>
+                <pt idx="91">
+                  <v>832694</v>
+                </pt>
+                <pt idx="92">
+                  <v>874285</v>
+                </pt>
+                <pt idx="93">
+                  <v>917955</v>
+                </pt>
+                <pt idx="94">
+                  <v>963808</v>
+                </pt>
+                <pt idx="95">
+                  <v>1011953</v>
+                </pt>
+                <pt idx="96">
+                  <v>1062505</v>
+                </pt>
+                <pt idx="97">
+                  <v>1115584</v>
+                </pt>
+                <pt idx="98">
+                  <v>1171316</v>
+                </pt>
+                <pt idx="99">
+                  <v>1229834</v>
+                </pt>
+                <pt idx="100">
+                  <v>1291277</v>
+                </pt>
+                <pt idx="101">
+                  <v>1355792</v>
+                </pt>
+                <pt idx="102">
+                  <v>1423532</v>
+                </pt>
+                <pt idx="103">
+                  <v>1494659</v>
+                </pt>
+                <pt idx="104">
+                  <v>1569342</v>
+                </pt>
+                <pt idx="105">
+                  <v>1647759</v>
+                </pt>
+                <pt idx="106">
+                  <v>1730096</v>
+                </pt>
+                <pt idx="107">
+                  <v>1816549</v>
+                </pt>
+                <pt idx="108">
+                  <v>1907324</v>
+                </pt>
+                <pt idx="109">
+                  <v>2002637</v>
+                </pt>
+                <pt idx="110">
+                  <v>2102715</v>
+                </pt>
+                <pt idx="111">
+                  <v>2207796</v>
+                </pt>
+                <pt idx="112">
+                  <v>2318131</v>
+                </pt>
+                <pt idx="113">
+                  <v>2433982</v>
+                </pt>
+                <pt idx="114">
+                  <v>2555625</v>
+                </pt>
+                <pt idx="115">
+                  <v>2683350</v>
+                </pt>
+                <pt idx="116">
+                  <v>2817461</v>
+                </pt>
+                <pt idx="117">
+                  <v>2958277</v>
+                </pt>
+                <pt idx="118">
+                  <v>3106133</v>
+                </pt>
+                <pt idx="119">
+                  <v>3261381</v>
+                </pt>
+                <pt idx="120">
+                  <v>3424391</v>
+                </pt>
+                <pt idx="121">
+                  <v>3595551</v>
+                </pt>
+                <pt idx="122">
+                  <v>3775269</v>
+                </pt>
+                <pt idx="123">
+                  <v>3963972</v>
+                </pt>
+                <pt idx="124">
+                  <v>4162110</v>
+                </pt>
+                <pt idx="125">
+                  <v>4370154</v>
+                </pt>
+                <pt idx="126">
+                  <v>4588600</v>
+                </pt>
+                <pt idx="127">
+                  <v>4817968</v>
+                </pt>
+                <pt idx="128">
+                  <v>5058804</v>
+                </pt>
+                <pt idx="129">
+                  <v>5311681</v>
+                </pt>
+                <pt idx="130">
+                  <v>5577201</v>
+                </pt>
+                <pt idx="131">
+                  <v>5855997</v>
+                </pt>
+                <pt idx="132">
+                  <v>6148732</v>
+                </pt>
+                <pt idx="133">
+                  <v>6456103</v>
+                </pt>
+                <pt idx="134">
+                  <v>6778842</v>
+                </pt>
+                <pt idx="135">
+                  <v>7117717</v>
+                </pt>
+                <pt idx="136">
+                  <v>7473535</v>
+                </pt>
+                <pt idx="137">
+                  <v>7847143</v>
+                </pt>
+                <pt idx="138">
+                  <v>8239431</v>
+                </pt>
+                <pt idx="139">
+                  <v>8651333</v>
+                </pt>
+                <pt idx="140">
+                  <v>9083830</v>
+                </pt>
+                <pt idx="141">
+                  <v>9537951</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>plot!$E$2:$E$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>0.0214076</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.0220449</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.0228814</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.0238445</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.0259967</v>
+                </pt>
+                <pt idx="5">
+                  <v>0.0308818</v>
+                </pt>
+                <pt idx="6">
+                  <v>0.0397899</v>
+                </pt>
+                <pt idx="7">
+                  <v>0.0190868</v>
+                </pt>
+                <pt idx="8">
+                  <v>0.0193166</v>
+                </pt>
+                <pt idx="9">
+                  <v>0.0195902</v>
+                </pt>
+                <pt idx="10">
+                  <v>0.0199197</v>
+                </pt>
+                <pt idx="11">
+                  <v>0.0202396</v>
+                </pt>
+                <pt idx="12">
+                  <v>0.0206034</v>
+                </pt>
+                <pt idx="13">
+                  <v>0.0211027</v>
+                </pt>
+                <pt idx="14">
+                  <v>0.02181</v>
+                </pt>
+                <pt idx="15">
+                  <v>0.0225325</v>
+                </pt>
+                <pt idx="16">
+                  <v>0.0234089</v>
+                </pt>
+                <pt idx="17">
+                  <v>0.0246829</v>
+                </pt>
+                <pt idx="18">
+                  <v>0.0272518</v>
+                </pt>
+                <pt idx="19">
+                  <v>0.0319929</v>
+                </pt>
+                <pt idx="20">
+                  <v>0.0414377</v>
+                </pt>
+                <pt idx="21">
+                  <v>0.0188357</v>
+                </pt>
+                <pt idx="22">
+                  <v>0.0191047</v>
+                </pt>
+                <pt idx="23">
+                  <v>0.019293</v>
+                </pt>
+                <pt idx="24">
+                  <v>0.0195628</v>
+                </pt>
+                <pt idx="25">
+                  <v>0.020006</v>
+                </pt>
+                <pt idx="26">
+                  <v>0.0203576</v>
+                </pt>
+                <pt idx="27">
+                  <v>0.0209983</v>
+                </pt>
+                <pt idx="28">
+                  <v>0.0216036</v>
+                </pt>
+                <pt idx="29">
+                  <v>0.0224206</v>
+                </pt>
+                <pt idx="30">
+                  <v>0.0234567</v>
+                </pt>
+                <pt idx="31">
+                  <v>0.0248701</v>
+                </pt>
+                <pt idx="32">
+                  <v>0.0276153</v>
+                </pt>
+                <pt idx="33">
+                  <v>0.0319171</v>
+                </pt>
+                <pt idx="34">
+                  <v>0.0394712</v>
+                </pt>
+                <pt idx="35">
+                  <v>0.0194612</v>
+                </pt>
+                <pt idx="36">
+                  <v>0.019774</v>
+                </pt>
+                <pt idx="37">
+                  <v>0.0200997</v>
+                </pt>
+                <pt idx="38">
+                  <v>0.0204224</v>
+                </pt>
+                <pt idx="39">
+                  <v>0.0207986</v>
+                </pt>
+                <pt idx="40">
+                  <v>0.0212501</v>
+                </pt>
+                <pt idx="41">
+                  <v>0.0218422</v>
+                </pt>
+                <pt idx="42">
+                  <v>0.0225976</v>
+                </pt>
+                <pt idx="43">
+                  <v>0.023464</v>
+                </pt>
+                <pt idx="44">
+                  <v>0.0247861</v>
+                </pt>
+                <pt idx="45">
+                  <v>0.0263224</v>
+                </pt>
+                <pt idx="46">
+                  <v>0.0291543</v>
+                </pt>
+                <pt idx="47">
+                  <v>0.0329324</v>
+                </pt>
+                <pt idx="48">
+                  <v>0.0390016</v>
+                </pt>
+                <pt idx="49">
+                  <v>0.0204605</v>
+                </pt>
+                <pt idx="50">
+                  <v>0.020763</v>
+                </pt>
+                <pt idx="51">
+                  <v>0.0211036</v>
+                </pt>
+                <pt idx="52">
+                  <v>0.0214464</v>
+                </pt>
+                <pt idx="53">
+                  <v>0.0218044</v>
+                </pt>
+                <pt idx="54">
+                  <v>0.02235</v>
+                </pt>
+                <pt idx="55">
+                  <v>0.0228519</v>
+                </pt>
+                <pt idx="56">
+                  <v>0.0235195</v>
+                </pt>
+                <pt idx="57">
+                  <v>0.0244936</v>
+                </pt>
+                <pt idx="58">
+                  <v>0.0258272</v>
+                </pt>
+                <pt idx="59">
+                  <v>0.0276262</v>
+                </pt>
+                <pt idx="60">
+                  <v>0.0303212</v>
+                </pt>
+                <pt idx="61">
+                  <v>0.0343892</v>
+                </pt>
+                <pt idx="62">
+                  <v>0.0407201</v>
+                </pt>
+                <pt idx="63">
+                  <v>0.0517515</v>
+                </pt>
+                <pt idx="64">
+                  <v>0.0210642</v>
+                </pt>
+                <pt idx="65">
+                  <v>0.0214078</v>
+                </pt>
+                <pt idx="66">
+                  <v>0.0217171</v>
+                </pt>
+                <pt idx="67">
+                  <v>0.0221679</v>
+                </pt>
+                <pt idx="68">
+                  <v>0.0225732</v>
+                </pt>
+                <pt idx="69">
+                  <v>0.0231145</v>
+                </pt>
+                <pt idx="70">
+                  <v>0.023886</v>
+                </pt>
+                <pt idx="71">
+                  <v>0.0248041</v>
+                </pt>
+                <pt idx="72">
+                  <v>0.0260928</v>
+                </pt>
+                <pt idx="73">
+                  <v>0.0279417</v>
+                </pt>
+                <pt idx="74">
+                  <v>0.0307152</v>
+                </pt>
+                <pt idx="75">
+                  <v>0.0341993</v>
+                </pt>
+                <pt idx="76">
+                  <v>0.0399898</v>
+                </pt>
+                <pt idx="77">
+                  <v>0.0497379</v>
+                </pt>
+                <pt idx="78">
+                  <v>0.0218936</v>
+                </pt>
+                <pt idx="79">
+                  <v>0.0223402</v>
+                </pt>
+                <pt idx="80">
+                  <v>0.0229967</v>
+                </pt>
+                <pt idx="81">
+                  <v>0.0238374</v>
+                </pt>
+                <pt idx="82">
+                  <v>0.0244912</v>
+                </pt>
+                <pt idx="83">
+                  <v>0.0255432</v>
+                </pt>
+                <pt idx="84">
+                  <v>0.0269618</v>
+                </pt>
+                <pt idx="85">
+                  <v>0.0283241</v>
+                </pt>
+                <pt idx="86">
+                  <v>0.0302692</v>
+                </pt>
+                <pt idx="87">
+                  <v>0.0321612</v>
+                </pt>
+                <pt idx="88">
+                  <v>0.0348082</v>
+                </pt>
+                <pt idx="89">
+                  <v>0.0382122</v>
+                </pt>
+                <pt idx="90">
+                  <v>0.0434233</v>
+                </pt>
+                <pt idx="91">
+                  <v>0.0534129</v>
+                </pt>
+                <pt idx="92">
+                  <v>0.0282249</v>
+                </pt>
+                <pt idx="93">
+                  <v>0.029139</v>
+                </pt>
+                <pt idx="94">
+                  <v>0.03133</v>
+                </pt>
+                <pt idx="95">
+                  <v>0.0341335</v>
+                </pt>
+                <pt idx="96">
+                  <v>0.0381704</v>
+                </pt>
+                <pt idx="97">
+                  <v>0.0428413</v>
+                </pt>
+                <pt idx="98">
+                  <v>0.0471767</v>
+                </pt>
+                <pt idx="99">
+                  <v>0.0508107</v>
+                </pt>
+                <pt idx="100">
+                  <v>0.0541568</v>
+                </pt>
+                <pt idx="101">
+                  <v>0.0573175</v>
+                </pt>
+                <pt idx="102">
+                  <v>0.0605919</v>
+                </pt>
+                <pt idx="103">
+                  <v>0.06430470000000001</v>
+                </pt>
+                <pt idx="104">
+                  <v>0.06932820000000001</v>
+                </pt>
+                <pt idx="105">
+                  <v>0.07656540000000001</v>
+                </pt>
+                <pt idx="106">
+                  <v>0.0513709</v>
+                </pt>
+                <pt idx="107">
+                  <v>0.0528133</v>
+                </pt>
+                <pt idx="108">
+                  <v>0.0541587</v>
+                </pt>
+                <pt idx="109">
+                  <v>0.0555634</v>
+                </pt>
+                <pt idx="110">
+                  <v>0.0569233</v>
+                </pt>
+                <pt idx="111">
+                  <v>0.0585293</v>
+                </pt>
+                <pt idx="112">
+                  <v>0.0602617</v>
+                </pt>
+                <pt idx="113">
+                  <v>0.0619037</v>
+                </pt>
+                <pt idx="114">
+                  <v>0.0640491</v>
+                </pt>
+                <pt idx="115">
+                  <v>0.0662812</v>
+                </pt>
+                <pt idx="116">
+                  <v>0.06915499999999999</v>
+                </pt>
+                <pt idx="117">
+                  <v>0.07276100000000001</v>
+                </pt>
+                <pt idx="118">
+                  <v>0.07756780000000001</v>
+                </pt>
+                <pt idx="119">
+                  <v>0.0847301</v>
+                </pt>
+                <pt idx="120">
+                  <v>0.0960261</v>
+                </pt>
+                <pt idx="121">
+                  <v>0.0604808</v>
+                </pt>
+                <pt idx="122">
+                  <v>0.0618613</v>
+                </pt>
+                <pt idx="123">
+                  <v>0.0635545</v>
+                </pt>
+                <pt idx="124">
+                  <v>0.0648304</v>
+                </pt>
+                <pt idx="125">
+                  <v>0.06670520000000001</v>
+                </pt>
+                <pt idx="126">
+                  <v>0.0683797</v>
+                </pt>
+                <pt idx="127">
+                  <v>0.0702016</v>
+                </pt>
+                <pt idx="128">
+                  <v>0.0724499</v>
+                </pt>
+                <pt idx="129">
+                  <v>0.07498920000000001</v>
+                </pt>
+                <pt idx="130">
+                  <v>0.0779345</v>
+                </pt>
+                <pt idx="131">
+                  <v>0.081499</v>
+                </pt>
+                <pt idx="132">
+                  <v>0.0866347</v>
+                </pt>
+                <pt idx="133">
+                  <v>0.09380090000000001</v>
+                </pt>
+                <pt idx="134">
+                  <v>0.105376</v>
+                </pt>
+                <pt idx="135">
+                  <v>0.0789271</v>
+                </pt>
+                <pt idx="136">
+                  <v>0.0802612</v>
+                </pt>
+                <pt idx="137">
+                  <v>0.08157540000000001</v>
+                </pt>
+                <pt idx="138">
+                  <v>0.0829015</v>
+                </pt>
+                <pt idx="139">
+                  <v>0.0845514</v>
+                </pt>
+                <pt idx="140">
+                  <v>0.08594209999999999</v>
+                </pt>
+                <pt idx="141">
+                  <v>0.0877042</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2865,8 +3791,8 @@
           <hMode val="factor"/>
           <x val="0.09943851078021188"/>
           <y val="0.05455922082745843"/>
-          <w val="0.3953147440728324"/>
-          <h val="0.2347463490140655"/>
+          <w val="0.3308817338426756"/>
+          <h val="0.2472877044215627"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -3215,8 +4141,8 @@
   </sheetPr>
   <dimension ref="A1:E143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3232,12 +4158,17 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc16_map</t>
+          <t>boost::unordered_map</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc15_map</t>
+          <t>boost::unordered_flat_map</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>boost::unordered_node_map</t>
         </is>
       </c>
     </row>

--- a/clang-arm64/Scattered unsuccessful looukp.xlsx
+++ b/clang-arm64/Scattered unsuccessful looukp.xlsx
@@ -4177,16 +4177,16 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0188563</v>
+        <v>0.0216424</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0745743</v>
+        <v>0.0187006</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0212525</v>
+        <v>0.0207309</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0214076</v>
+        <v>0.0207471</v>
       </c>
     </row>
     <row r="3">
@@ -4194,16 +4194,16 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.020482</v>
+        <v>0.0241401</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0818991</v>
+        <v>0.0194405</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0216004</v>
+        <v>0.0209532</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0220449</v>
+        <v>0.0209288</v>
       </c>
     </row>
     <row r="4">
@@ -4211,16 +4211,16 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0250918</v>
+        <v>0.0287708</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0759394</v>
+        <v>0.0244337</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0227228</v>
+        <v>0.0217925</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0228814</v>
+        <v>0.0214496</v>
       </c>
     </row>
     <row r="5">
@@ -4228,16 +4228,16 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0324396</v>
+        <v>0.0345147</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0880992</v>
+        <v>0.0330569</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0236692</v>
+        <v>0.0224295</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0238445</v>
+        <v>0.0221834</v>
       </c>
     </row>
     <row r="6">
@@ -4245,16 +4245,16 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0486736</v>
+        <v>0.045897</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08153489999999999</v>
+        <v>0.0460388</v>
       </c>
       <c r="D6" t="n">
-        <v>0.025734</v>
+        <v>0.023991</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0259967</v>
+        <v>0.0233206</v>
       </c>
     </row>
     <row r="7">
@@ -4262,16 +4262,16 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0676407</v>
+        <v>0.0651016</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0624356</v>
+        <v>0.0608764</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0307283</v>
+        <v>0.0269213</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0308818</v>
+        <v>0.0261485</v>
       </c>
     </row>
     <row r="8">
@@ -4279,16 +4279,16 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0914015</v>
+        <v>0.0878694</v>
       </c>
       <c r="C8" t="n">
-        <v>0.061869</v>
+        <v>0.08766259999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0400074</v>
+        <v>0.0320648</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0397899</v>
+        <v>0.0316173</v>
       </c>
     </row>
     <row r="9">
@@ -4296,16 +4296,16 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.120117</v>
+        <v>0.121937</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0683074</v>
+        <v>0.123663</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0191859</v>
+        <v>0.018915</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0190868</v>
+        <v>0.0189483</v>
       </c>
     </row>
     <row r="10">
@@ -4313,16 +4313,16 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0161742</v>
+        <v>0.0169768</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0686766</v>
+        <v>0.0163559</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0194145</v>
+        <v>0.0191197</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0193166</v>
+        <v>0.0192062</v>
       </c>
     </row>
     <row r="11">
@@ -4330,16 +4330,16 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0167609</v>
+        <v>0.0174908</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07166640000000001</v>
+        <v>0.0166472</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0197171</v>
+        <v>0.0194375</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0195902</v>
+        <v>0.0194534</v>
       </c>
     </row>
     <row r="12">
@@ -4347,16 +4347,16 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.017033</v>
+        <v>0.0180448</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0739997</v>
+        <v>0.0172835</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0200098</v>
+        <v>0.0197384</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0199197</v>
+        <v>0.0198428</v>
       </c>
     </row>
     <row r="13">
@@ -4364,16 +4364,16 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0178156</v>
+        <v>0.0189494</v>
       </c>
       <c r="C13" t="n">
-        <v>0.077265</v>
+        <v>0.0179615</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0202944</v>
+        <v>0.0200248</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0202396</v>
+        <v>0.0201128</v>
       </c>
     </row>
     <row r="14">
@@ -4381,16 +4381,16 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0186429</v>
+        <v>0.0198523</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0817507</v>
+        <v>0.0184018</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0205605</v>
+        <v>0.0202751</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0206034</v>
+        <v>0.0203459</v>
       </c>
     </row>
     <row r="15">
@@ -4398,16 +4398,16 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0201514</v>
+        <v>0.0217276</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0856117</v>
+        <v>0.0206524</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0210623</v>
+        <v>0.0206362</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0211027</v>
+        <v>0.0207897</v>
       </c>
     </row>
     <row r="16">
@@ -4415,16 +4415,16 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0223364</v>
+        <v>0.0239765</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0866362</v>
+        <v>0.0218221</v>
       </c>
       <c r="D16" t="n">
-        <v>0.021745</v>
+        <v>0.021243</v>
       </c>
       <c r="E16" t="n">
-        <v>0.02181</v>
+        <v>0.0213168</v>
       </c>
     </row>
     <row r="17">
@@ -4432,16 +4432,16 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0265812</v>
+        <v>0.0274261</v>
       </c>
       <c r="C17" t="n">
-        <v>0.09086229999999999</v>
+        <v>0.026061</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0224624</v>
+        <v>0.0219269</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0225325</v>
+        <v>0.0217971</v>
       </c>
     </row>
     <row r="18">
@@ -4449,16 +4449,16 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0315209</v>
+        <v>0.0331309</v>
       </c>
       <c r="C18" t="n">
-        <v>0.09648760000000001</v>
+        <v>0.031827</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0233932</v>
+        <v>0.022466</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0234089</v>
+        <v>0.022337</v>
       </c>
     </row>
     <row r="19">
@@ -4466,16 +4466,16 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0404218</v>
+        <v>0.0411514</v>
       </c>
       <c r="C19" t="n">
-        <v>0.096305</v>
+        <v>0.039037</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0246564</v>
+        <v>0.0236626</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0246829</v>
+        <v>0.0233737</v>
       </c>
     </row>
     <row r="20">
@@ -4483,16 +4483,16 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0523243</v>
+        <v>0.0537599</v>
       </c>
       <c r="C20" t="n">
-        <v>0.09784320000000001</v>
+        <v>0.0518573</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0274191</v>
+        <v>0.0256651</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0272518</v>
+        <v>0.0253446</v>
       </c>
     </row>
     <row r="21">
@@ -4500,16 +4500,16 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.068802</v>
+        <v>0.0731895</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0664341</v>
+        <v>0.0679975</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0316025</v>
+        <v>0.028737</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0319929</v>
+        <v>0.0289218</v>
       </c>
     </row>
     <row r="22">
@@ -4517,16 +4517,16 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0916015</v>
+        <v>0.0979435</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0712783</v>
+        <v>0.09303790000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0413247</v>
+        <v>0.0365851</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0414377</v>
+        <v>0.0367189</v>
       </c>
     </row>
     <row r="23">
@@ -4534,16 +4534,16 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.115789</v>
+        <v>0.123915</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0762056</v>
+        <v>0.118851</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0187664</v>
+        <v>0.018736</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0188357</v>
+        <v>0.018768</v>
       </c>
     </row>
     <row r="24">
@@ -4551,16 +4551,16 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0165559</v>
+        <v>0.0171084</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0754963</v>
+        <v>0.0165861</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0190384</v>
+        <v>0.0189694</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0191047</v>
+        <v>0.0189573</v>
       </c>
     </row>
     <row r="25">
@@ -4568,16 +4568,16 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.01713</v>
+        <v>0.017704</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0791755</v>
+        <v>0.0171457</v>
       </c>
       <c r="D25" t="n">
-        <v>0.019321</v>
+        <v>0.0191595</v>
       </c>
       <c r="E25" t="n">
-        <v>0.019293</v>
+        <v>0.0191798</v>
       </c>
     </row>
     <row r="26">
@@ -4585,16 +4585,16 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.017832</v>
+        <v>0.0187074</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0828492</v>
+        <v>0.018022</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0195661</v>
+        <v>0.0193872</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0195628</v>
+        <v>0.0194602</v>
       </c>
     </row>
     <row r="27">
@@ -4602,16 +4602,16 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0186431</v>
+        <v>0.0197395</v>
       </c>
       <c r="C27" t="n">
-        <v>0.08543870000000001</v>
+        <v>0.0189286</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0198599</v>
+        <v>0.0197888</v>
       </c>
       <c r="E27" t="n">
-        <v>0.020006</v>
+        <v>0.0197938</v>
       </c>
     </row>
     <row r="28">
@@ -4619,16 +4619,16 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0204344</v>
+        <v>0.0210078</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0887561</v>
+        <v>0.0203431</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0203393</v>
+        <v>0.0201337</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0203576</v>
+        <v>0.0201175</v>
       </c>
     </row>
     <row r="29">
@@ -4636,16 +4636,16 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0223797</v>
+        <v>0.0229191</v>
       </c>
       <c r="C29" t="n">
-        <v>0.092414</v>
+        <v>0.0223859</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0209382</v>
+        <v>0.0206926</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0209983</v>
+        <v>0.0206987</v>
       </c>
     </row>
     <row r="30">
@@ -4653,16 +4653,16 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0260575</v>
+        <v>0.0255706</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0948533</v>
+        <v>0.0250377</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0214818</v>
+        <v>0.021222</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0216036</v>
+        <v>0.0211467</v>
       </c>
     </row>
     <row r="31">
@@ -4670,16 +4670,16 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0296827</v>
+        <v>0.0296811</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0957143</v>
+        <v>0.0294509</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0223346</v>
+        <v>0.0219483</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0224206</v>
+        <v>0.0218897</v>
       </c>
     </row>
     <row r="32">
@@ -4687,16 +4687,16 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0351294</v>
+        <v>0.035135</v>
       </c>
       <c r="C32" t="n">
-        <v>0.09790550000000001</v>
+        <v>0.0351043</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0233779</v>
+        <v>0.0227922</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0234567</v>
+        <v>0.0227405</v>
       </c>
     </row>
     <row r="33">
@@ -4704,16 +4704,16 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0439567</v>
+        <v>0.0432128</v>
       </c>
       <c r="C33" t="n">
-        <v>0.09936730000000001</v>
+        <v>0.0424041</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0247673</v>
+        <v>0.0240454</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0248701</v>
+        <v>0.0239027</v>
       </c>
     </row>
     <row r="34">
@@ -4721,16 +4721,16 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0560566</v>
+        <v>0.0539116</v>
       </c>
       <c r="C34" t="n">
-        <v>0.101587</v>
+        <v>0.053545</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0273931</v>
+        <v>0.0262755</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0276153</v>
+        <v>0.026296</v>
       </c>
     </row>
     <row r="35">
@@ -4738,16 +4738,16 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0724226</v>
+        <v>0.06857199999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>0.06934940000000001</v>
+        <v>0.069919</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0317286</v>
+        <v>0.0301247</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0319171</v>
+        <v>0.0302065</v>
       </c>
     </row>
     <row r="36">
@@ -4755,16 +4755,16 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0942229</v>
+        <v>0.0871806</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0726347</v>
+        <v>0.0913976</v>
       </c>
       <c r="D36" t="n">
-        <v>0.039339</v>
+        <v>0.0369788</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0394712</v>
+        <v>0.0372667</v>
       </c>
     </row>
     <row r="37">
@@ -4772,16 +4772,16 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.120526</v>
+        <v>0.116412</v>
       </c>
       <c r="C37" t="n">
-        <v>0.07564949999999999</v>
+        <v>0.118723</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0193829</v>
+        <v>0.0192928</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0194612</v>
+        <v>0.0193607</v>
       </c>
     </row>
     <row r="38">
@@ -4789,16 +4789,16 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0171733</v>
+        <v>0.0172077</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0790356</v>
+        <v>0.0170595</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0197036</v>
+        <v>0.0195772</v>
       </c>
       <c r="E38" t="n">
-        <v>0.019774</v>
+        <v>0.0196485</v>
       </c>
     </row>
     <row r="39">
@@ -4806,16 +4806,16 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0178413</v>
+        <v>0.0180114</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0818281</v>
+        <v>0.0176992</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0199834</v>
+        <v>0.019849</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0200997</v>
+        <v>0.0199196</v>
       </c>
     </row>
     <row r="40">
@@ -4823,16 +4823,16 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0187789</v>
+        <v>0.0191287</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0856015</v>
+        <v>0.0186011</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0203028</v>
+        <v>0.0201755</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0204224</v>
+        <v>0.0202527</v>
       </c>
     </row>
     <row r="41">
@@ -4840,16 +4840,16 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0201514</v>
+        <v>0.0204291</v>
       </c>
       <c r="C41" t="n">
-        <v>0.08902640000000001</v>
+        <v>0.0198223</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0206416</v>
+        <v>0.0205045</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0207986</v>
+        <v>0.0205543</v>
       </c>
     </row>
     <row r="42">
@@ -4857,16 +4857,16 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0218874</v>
+        <v>0.0223401</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0915702</v>
+        <v>0.0216438</v>
       </c>
       <c r="D42" t="n">
-        <v>0.021054</v>
+        <v>0.0209259</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0212501</v>
+        <v>0.02102</v>
       </c>
     </row>
     <row r="43">
@@ -4874,16 +4874,16 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0244952</v>
+        <v>0.024467</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0953242</v>
+        <v>0.0241294</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0216854</v>
+        <v>0.0214846</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0218422</v>
+        <v>0.0215717</v>
       </c>
     </row>
     <row r="44">
@@ -4891,16 +4891,16 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0277145</v>
+        <v>0.0271327</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0973436</v>
+        <v>0.0274034</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0224175</v>
+        <v>0.0221758</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0225976</v>
+        <v>0.0222839</v>
       </c>
     </row>
     <row r="45">
@@ -4908,16 +4908,16 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0318614</v>
+        <v>0.0311818</v>
       </c>
       <c r="C45" t="n">
-        <v>0.100137</v>
+        <v>0.0316494</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0232548</v>
+        <v>0.0229679</v>
       </c>
       <c r="E45" t="n">
-        <v>0.023464</v>
+        <v>0.0230832</v>
       </c>
     </row>
     <row r="46">
@@ -4925,16 +4925,16 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.038157</v>
+        <v>0.0370629</v>
       </c>
       <c r="C46" t="n">
-        <v>0.102066</v>
+        <v>0.0378257</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0245789</v>
+        <v>0.0241491</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0247861</v>
+        <v>0.0242402</v>
       </c>
     </row>
     <row r="47">
@@ -4942,16 +4942,16 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0458946</v>
+        <v>0.0448007</v>
       </c>
       <c r="C47" t="n">
-        <v>0.104689</v>
+        <v>0.0447819</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0261833</v>
+        <v>0.0256956</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0263224</v>
+        <v>0.0257816</v>
       </c>
     </row>
     <row r="48">
@@ -4959,16 +4959,16 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0561284</v>
+        <v>0.0552034</v>
       </c>
       <c r="C48" t="n">
-        <v>0.106565</v>
+        <v>0.0564361</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0289704</v>
+        <v>0.0282221</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0291543</v>
+        <v>0.0281779</v>
       </c>
     </row>
     <row r="49">
@@ -4976,16 +4976,16 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.07138170000000001</v>
+        <v>0.0709703</v>
       </c>
       <c r="C49" t="n">
-        <v>0.109417</v>
+        <v>0.0713442</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0328291</v>
+        <v>0.0317729</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0329324</v>
+        <v>0.0318763</v>
       </c>
     </row>
     <row r="50">
@@ -4993,16 +4993,16 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.09212090000000001</v>
+        <v>0.0919372</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0759278</v>
+        <v>0.09333809999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0389724</v>
+        <v>0.0377477</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0390016</v>
+        <v>0.0379077</v>
       </c>
     </row>
     <row r="51">
@@ -5010,16 +5010,16 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.117399</v>
+        <v>0.117152</v>
       </c>
       <c r="C51" t="n">
-        <v>0.07929940000000001</v>
+        <v>0.119168</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0204109</v>
+        <v>0.0203533</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0204605</v>
+        <v>0.020392</v>
       </c>
     </row>
     <row r="52">
@@ -5027,16 +5027,16 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.142611</v>
+        <v>0.142026</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0833945</v>
+        <v>0.143956</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0206887</v>
+        <v>0.0206288</v>
       </c>
       <c r="E52" t="n">
-        <v>0.020763</v>
+        <v>0.0206829</v>
       </c>
     </row>
     <row r="53">
@@ -5044,16 +5044,16 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0191063</v>
+        <v>0.0192555</v>
       </c>
       <c r="C53" t="n">
-        <v>0.08607579999999999</v>
+        <v>0.0189051</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0209817</v>
+        <v>0.0209279</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0211036</v>
+        <v>0.0209684</v>
       </c>
     </row>
     <row r="54">
@@ -5061,16 +5061,16 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0202054</v>
+        <v>0.0204687</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0893982</v>
+        <v>0.020162</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0212755</v>
+        <v>0.0212661</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0214464</v>
+        <v>0.0213029</v>
       </c>
     </row>
     <row r="55">
@@ -5078,16 +5078,16 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0216884</v>
+        <v>0.0219248</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0926165</v>
+        <v>0.0217195</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0216547</v>
+        <v>0.0216367</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0218044</v>
+        <v>0.0217136</v>
       </c>
     </row>
     <row r="56">
@@ -5095,16 +5095,16 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.023762</v>
+        <v>0.0238514</v>
       </c>
       <c r="C56" t="n">
-        <v>0.09584810000000001</v>
+        <v>0.0237099</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0221738</v>
+        <v>0.0221088</v>
       </c>
       <c r="E56" t="n">
-        <v>0.02235</v>
+        <v>0.022161</v>
       </c>
     </row>
     <row r="57">
@@ -5112,16 +5112,16 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0265754</v>
+        <v>0.0262122</v>
       </c>
       <c r="C57" t="n">
-        <v>0.100165</v>
+        <v>0.0262558</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0227227</v>
+        <v>0.0226202</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0228519</v>
+        <v>0.0226822</v>
       </c>
     </row>
     <row r="58">
@@ -5129,16 +5129,16 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0299431</v>
+        <v>0.0293003</v>
       </c>
       <c r="C58" t="n">
-        <v>0.101736</v>
+        <v>0.0297523</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0233788</v>
+        <v>0.0232614</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0235195</v>
+        <v>0.0233801</v>
       </c>
     </row>
     <row r="59">
@@ -5146,16 +5146,16 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0344095</v>
+        <v>0.0334435</v>
       </c>
       <c r="C59" t="n">
-        <v>0.105135</v>
+        <v>0.0339789</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0243162</v>
+        <v>0.0241832</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0244936</v>
+        <v>0.0241936</v>
       </c>
     </row>
     <row r="60">
@@ -5163,16 +5163,16 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0405591</v>
+        <v>0.0392622</v>
       </c>
       <c r="C60" t="n">
-        <v>0.107339</v>
+        <v>0.0393074</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0256636</v>
+        <v>0.0255009</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0258272</v>
+        <v>0.0255013</v>
       </c>
     </row>
     <row r="61">
@@ -5180,16 +5180,16 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0475581</v>
+        <v>0.0465954</v>
       </c>
       <c r="C61" t="n">
-        <v>0.109803</v>
+        <v>0.0468203</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0275441</v>
+        <v>0.0272276</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0276262</v>
+        <v>0.0273321</v>
       </c>
     </row>
     <row r="62">
@@ -5197,16 +5197,16 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0572633</v>
+        <v>0.056908</v>
       </c>
       <c r="C62" t="n">
-        <v>0.111709</v>
+        <v>0.0564438</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0301356</v>
+        <v>0.0298142</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0303212</v>
+        <v>0.0298632</v>
       </c>
     </row>
     <row r="63">
@@ -5214,16 +5214,16 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0711276</v>
+        <v>0.07023020000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>0.115496</v>
+        <v>0.0707957</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0341597</v>
+        <v>0.0336776</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0343892</v>
+        <v>0.0337073</v>
       </c>
     </row>
     <row r="64">
@@ -5231,16 +5231,16 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0912027</v>
+        <v>0.0902144</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0812769</v>
+        <v>0.0900808</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0404667</v>
+        <v>0.0396749</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0407201</v>
+        <v>0.0398645</v>
       </c>
     </row>
     <row r="65">
@@ -5248,16 +5248,16 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.117531</v>
+        <v>0.11647</v>
       </c>
       <c r="C65" t="n">
-        <v>0.08581900000000001</v>
+        <v>0.117378</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0516123</v>
+        <v>0.0506399</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0517515</v>
+        <v>0.0508628</v>
       </c>
     </row>
     <row r="66">
@@ -5265,16 +5265,16 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.147591</v>
+        <v>0.147476</v>
       </c>
       <c r="C66" t="n">
-        <v>0.09048920000000001</v>
+        <v>0.147852</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0209483</v>
+        <v>0.0209641</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0210642</v>
+        <v>0.0210408</v>
       </c>
     </row>
     <row r="67">
@@ -5282,16 +5282,16 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0198684</v>
+        <v>0.0198087</v>
       </c>
       <c r="C67" t="n">
-        <v>0.09512900000000001</v>
+        <v>0.0195376</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0212904</v>
+        <v>0.021269</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0214078</v>
+        <v>0.0213345</v>
       </c>
     </row>
     <row r="68">
@@ -5299,16 +5299,16 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0210982</v>
+        <v>0.0210693</v>
       </c>
       <c r="C68" t="n">
-        <v>0.09904019999999999</v>
+        <v>0.0209421</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0216414</v>
+        <v>0.0216298</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0217171</v>
+        <v>0.0216703</v>
       </c>
     </row>
     <row r="69">
@@ -5316,16 +5316,16 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0228671</v>
+        <v>0.0226548</v>
       </c>
       <c r="C69" t="n">
-        <v>0.103762</v>
+        <v>0.0225385</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0220066</v>
+        <v>0.0219596</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0221679</v>
+        <v>0.0220282</v>
       </c>
     </row>
     <row r="70">
@@ -5333,16 +5333,16 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0250892</v>
+        <v>0.0246151</v>
       </c>
       <c r="C70" t="n">
-        <v>0.109767</v>
+        <v>0.0244956</v>
       </c>
       <c r="D70" t="n">
-        <v>0.022503</v>
+        <v>0.0223916</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0225732</v>
+        <v>0.0224697</v>
       </c>
     </row>
     <row r="71">
@@ -5350,16 +5350,16 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0274858</v>
+        <v>0.0270586</v>
       </c>
       <c r="C71" t="n">
-        <v>0.115064</v>
+        <v>0.0267934</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0230597</v>
+        <v>0.0229918</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0231145</v>
+        <v>0.0230609</v>
       </c>
     </row>
     <row r="72">
@@ -5367,16 +5367,16 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0307585</v>
+        <v>0.030186</v>
       </c>
       <c r="C72" t="n">
-        <v>0.119625</v>
+        <v>0.0300127</v>
       </c>
       <c r="D72" t="n">
-        <v>0.023794</v>
+        <v>0.0237492</v>
       </c>
       <c r="E72" t="n">
-        <v>0.023886</v>
+        <v>0.0238243</v>
       </c>
     </row>
     <row r="73">
@@ -5384,16 +5384,16 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0350439</v>
+        <v>0.0343724</v>
       </c>
       <c r="C73" t="n">
-        <v>0.123912</v>
+        <v>0.0342359</v>
       </c>
       <c r="D73" t="n">
-        <v>0.024724</v>
+        <v>0.0246679</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0248041</v>
+        <v>0.024753</v>
       </c>
     </row>
     <row r="74">
@@ -5401,16 +5401,16 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0401473</v>
+        <v>0.0395159</v>
       </c>
       <c r="C74" t="n">
-        <v>0.128639</v>
+        <v>0.0395693</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0259069</v>
+        <v>0.0258418</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0260928</v>
+        <v>0.0259482</v>
       </c>
     </row>
     <row r="75">
@@ -5418,16 +5418,16 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0470655</v>
+        <v>0.0467456</v>
       </c>
       <c r="C75" t="n">
-        <v>0.136023</v>
+        <v>0.046757</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0276355</v>
+        <v>0.0275651</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0279417</v>
+        <v>0.0277823</v>
       </c>
     </row>
     <row r="76">
@@ -5435,16 +5435,16 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0565303</v>
+        <v>0.0558434</v>
       </c>
       <c r="C76" t="n">
-        <v>0.141569</v>
+        <v>0.0559801</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0302519</v>
+        <v>0.0301194</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0307152</v>
+        <v>0.030401</v>
       </c>
     </row>
     <row r="77">
@@ -5452,16 +5452,16 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0694931</v>
+        <v>0.06889099999999999</v>
       </c>
       <c r="C77" t="n">
-        <v>0.147324</v>
+        <v>0.06883549999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0340355</v>
+        <v>0.0339015</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0341993</v>
+        <v>0.0340354</v>
       </c>
     </row>
     <row r="78">
@@ -5469,16 +5469,16 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0876659</v>
+        <v>0.0876821</v>
       </c>
       <c r="C78" t="n">
-        <v>0.114448</v>
+        <v>0.08702559999999999</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0396979</v>
+        <v>0.039673</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0399898</v>
+        <v>0.0398427</v>
       </c>
     </row>
     <row r="79">
@@ -5486,16 +5486,16 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.112976</v>
+        <v>0.11282</v>
       </c>
       <c r="C79" t="n">
-        <v>0.120419</v>
+        <v>0.112442</v>
       </c>
       <c r="D79" t="n">
-        <v>0.049477</v>
+        <v>0.0494484</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0497379</v>
+        <v>0.0497787</v>
       </c>
     </row>
     <row r="80">
@@ -5503,16 +5503,16 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.14429</v>
+        <v>0.143733</v>
       </c>
       <c r="C80" t="n">
-        <v>0.125131</v>
+        <v>0.14438</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0212779</v>
+        <v>0.0212506</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0218936</v>
+        <v>0.0217101</v>
       </c>
     </row>
     <row r="81">
@@ -5520,16 +5520,16 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0201115</v>
+        <v>0.0199501</v>
       </c>
       <c r="C81" t="n">
-        <v>0.131477</v>
+        <v>0.0200706</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0216341</v>
+        <v>0.0215577</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0223402</v>
+        <v>0.0222626</v>
       </c>
     </row>
     <row r="82">
@@ -5537,16 +5537,16 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0216766</v>
+        <v>0.021317</v>
       </c>
       <c r="C82" t="n">
-        <v>0.139604</v>
+        <v>0.0216927</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0219984</v>
+        <v>0.021943</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0229967</v>
+        <v>0.022863</v>
       </c>
     </row>
     <row r="83">
@@ -5554,16 +5554,16 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0228365</v>
+        <v>0.0228279</v>
       </c>
       <c r="C83" t="n">
-        <v>0.146445</v>
+        <v>0.0230303</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0224363</v>
+        <v>0.0224139</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0238374</v>
+        <v>0.0237265</v>
       </c>
     </row>
     <row r="84">
@@ -5571,16 +5571,16 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0248985</v>
+        <v>0.0246512</v>
       </c>
       <c r="C84" t="n">
-        <v>0.154887</v>
+        <v>0.025061</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0229328</v>
+        <v>0.0228685</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0244912</v>
+        <v>0.024444</v>
       </c>
     </row>
     <row r="85">
@@ -5588,16 +5588,16 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0272584</v>
+        <v>0.0272526</v>
       </c>
       <c r="C85" t="n">
-        <v>0.163154</v>
+        <v>0.0278287</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0235783</v>
+        <v>0.0235649</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0255432</v>
+        <v>0.025608</v>
       </c>
     </row>
     <row r="86">
@@ -5605,16 +5605,16 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0302977</v>
+        <v>0.030342</v>
       </c>
       <c r="C86" t="n">
-        <v>0.170385</v>
+        <v>0.0310617</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0244305</v>
+        <v>0.0243649</v>
       </c>
       <c r="E86" t="n">
-        <v>0.0269618</v>
+        <v>0.0269077</v>
       </c>
     </row>
     <row r="87">
@@ -5622,16 +5622,16 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0342083</v>
+        <v>0.0341437</v>
       </c>
       <c r="C87" t="n">
-        <v>0.178312</v>
+        <v>0.0345291</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0254418</v>
+        <v>0.0253862</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0283241</v>
+        <v>0.0282266</v>
       </c>
     </row>
     <row r="88">
@@ -5639,16 +5639,16 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.039444</v>
+        <v>0.0391066</v>
       </c>
       <c r="C88" t="n">
-        <v>0.182546</v>
+        <v>0.0394021</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0267137</v>
+        <v>0.026742</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0302692</v>
+        <v>0.0299063</v>
       </c>
     </row>
     <row r="89">
@@ -5656,16 +5656,16 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0458422</v>
+        <v>0.045858</v>
       </c>
       <c r="C89" t="n">
-        <v>0.19023</v>
+        <v>0.0457844</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0283454</v>
+        <v>0.0283994</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0321612</v>
+        <v>0.0320324</v>
       </c>
     </row>
     <row r="90">
@@ -5673,16 +5673,16 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0546333</v>
+        <v>0.0544253</v>
       </c>
       <c r="C90" t="n">
-        <v>0.200533</v>
+        <v>0.0542814</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0308527</v>
+        <v>0.0309093</v>
       </c>
       <c r="E90" t="n">
-        <v>0.0348082</v>
+        <v>0.034686</v>
       </c>
     </row>
     <row r="91">
@@ -5690,16 +5690,16 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0669435</v>
+        <v>0.0667484</v>
       </c>
       <c r="C91" t="n">
-        <v>0.208859</v>
+        <v>0.066681</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0342322</v>
+        <v>0.0343345</v>
       </c>
       <c r="E91" t="n">
-        <v>0.0382122</v>
+        <v>0.0380954</v>
       </c>
     </row>
     <row r="92">
@@ -5707,16 +5707,16 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0841283</v>
+        <v>0.0838324</v>
       </c>
       <c r="C92" t="n">
-        <v>0.157758</v>
+        <v>0.0841128</v>
       </c>
       <c r="D92" t="n">
-        <v>0.03938</v>
+        <v>0.0394305</v>
       </c>
       <c r="E92" t="n">
-        <v>0.0434233</v>
+        <v>0.0434294</v>
       </c>
     </row>
     <row r="93">
@@ -5724,16 +5724,16 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.108178</v>
+        <v>0.107926</v>
       </c>
       <c r="C93" t="n">
-        <v>0.162746</v>
+        <v>0.108113</v>
       </c>
       <c r="D93" t="n">
-        <v>0.048197</v>
+        <v>0.048219</v>
       </c>
       <c r="E93" t="n">
-        <v>0.0534129</v>
+        <v>0.0531503</v>
       </c>
     </row>
     <row r="94">
@@ -5741,16 +5741,16 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.139209</v>
+        <v>0.138966</v>
       </c>
       <c r="C94" t="n">
-        <v>0.168477</v>
+        <v>0.139839</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0229879</v>
+        <v>0.0230245</v>
       </c>
       <c r="E94" t="n">
-        <v>0.0282249</v>
+        <v>0.0280178</v>
       </c>
     </row>
     <row r="95">
@@ -5758,16 +5758,16 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0208397</v>
+        <v>0.0207688</v>
       </c>
       <c r="C95" t="n">
-        <v>0.17633</v>
+        <v>0.0250095</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0234516</v>
+        <v>0.0235614</v>
       </c>
       <c r="E95" t="n">
-        <v>0.029139</v>
+        <v>0.0291357</v>
       </c>
     </row>
     <row r="96">
@@ -5775,16 +5775,16 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0217789</v>
+        <v>0.0218251</v>
       </c>
       <c r="C96" t="n">
-        <v>0.183525</v>
+        <v>0.0268844</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0240067</v>
+        <v>0.0240573</v>
       </c>
       <c r="E96" t="n">
-        <v>0.03133</v>
+        <v>0.0310746</v>
       </c>
     </row>
     <row r="97">
@@ -5792,16 +5792,16 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0236136</v>
+        <v>0.0232799</v>
       </c>
       <c r="C97" t="n">
-        <v>0.190701</v>
+        <v>0.029214</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0245912</v>
+        <v>0.0246343</v>
       </c>
       <c r="E97" t="n">
-        <v>0.0341335</v>
+        <v>0.0339941</v>
       </c>
     </row>
     <row r="98">
@@ -5809,16 +5809,16 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0250037</v>
+        <v>0.0253366</v>
       </c>
       <c r="C98" t="n">
-        <v>0.19753</v>
+        <v>0.03314</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0253619</v>
+        <v>0.0254284</v>
       </c>
       <c r="E98" t="n">
-        <v>0.0381704</v>
+        <v>0.0378219</v>
       </c>
     </row>
     <row r="99">
@@ -5826,16 +5826,16 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0272123</v>
+        <v>0.0272913</v>
       </c>
       <c r="C99" t="n">
-        <v>0.204795</v>
+        <v>0.038202</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0267537</v>
+        <v>0.0269434</v>
       </c>
       <c r="E99" t="n">
-        <v>0.0428413</v>
+        <v>0.042462</v>
       </c>
     </row>
     <row r="100">
@@ -5843,16 +5843,16 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0306604</v>
+        <v>0.030515</v>
       </c>
       <c r="C100" t="n">
-        <v>0.226592</v>
+        <v>0.0442259</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0289872</v>
+        <v>0.028802</v>
       </c>
       <c r="E100" t="n">
-        <v>0.0471767</v>
+        <v>0.0466288</v>
       </c>
     </row>
     <row r="101">
@@ -5860,16 +5860,16 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0359699</v>
+        <v>0.0346348</v>
       </c>
       <c r="C101" t="n">
-        <v>0.219043</v>
+        <v>0.0500842</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0317781</v>
+        <v>0.0317879</v>
       </c>
       <c r="E101" t="n">
-        <v>0.0508107</v>
+        <v>0.0506267</v>
       </c>
     </row>
     <row r="102">
@@ -5877,16 +5877,16 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0400556</v>
+        <v>0.040011</v>
       </c>
       <c r="C102" t="n">
-        <v>0.227757</v>
+        <v>0.0561572</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0350402</v>
+        <v>0.0350073</v>
       </c>
       <c r="E102" t="n">
-        <v>0.0541568</v>
+        <v>0.0540458</v>
       </c>
     </row>
     <row r="103">
@@ -5894,16 +5894,16 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0464214</v>
+        <v>0.0465844</v>
       </c>
       <c r="C103" t="n">
-        <v>0.233267</v>
+        <v>0.0621682</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0383243</v>
+        <v>0.0382872</v>
       </c>
       <c r="E103" t="n">
-        <v>0.0573175</v>
+        <v>0.057243</v>
       </c>
     </row>
     <row r="104">
@@ -5911,16 +5911,16 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0543718</v>
+        <v>0.0546588</v>
       </c>
       <c r="C104" t="n">
-        <v>0.243865</v>
+        <v>0.06926939999999999</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0415289</v>
+        <v>0.0416169</v>
       </c>
       <c r="E104" t="n">
-        <v>0.0605919</v>
+        <v>0.0606749</v>
       </c>
     </row>
     <row r="105">
@@ -5928,16 +5928,16 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0654956</v>
+        <v>0.0654628</v>
       </c>
       <c r="C105" t="n">
-        <v>0.252361</v>
+        <v>0.0782894</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0449303</v>
+        <v>0.0447802</v>
       </c>
       <c r="E105" t="n">
-        <v>0.06430470000000001</v>
+        <v>0.0644986</v>
       </c>
     </row>
     <row r="106">
@@ -5945,16 +5945,16 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0810722</v>
+        <v>0.0809626</v>
       </c>
       <c r="C106" t="n">
-        <v>0.261173</v>
+        <v>0.0908992</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0491857</v>
+        <v>0.049201</v>
       </c>
       <c r="E106" t="n">
-        <v>0.06932820000000001</v>
+        <v>0.06943249999999999</v>
       </c>
     </row>
     <row r="107">
@@ -5962,16 +5962,16 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.102897</v>
+        <v>0.103823</v>
       </c>
       <c r="C107" t="n">
-        <v>0.190647</v>
+        <v>0.109877</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0555259</v>
+        <v>0.0556475</v>
       </c>
       <c r="E107" t="n">
-        <v>0.07656540000000001</v>
+        <v>0.07660160000000001</v>
       </c>
     </row>
     <row r="108">
@@ -5979,16 +5979,16 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.133253</v>
+        <v>0.133284</v>
       </c>
       <c r="C108" t="n">
-        <v>0.197526</v>
+        <v>0.13675</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0351129</v>
+        <v>0.0352381</v>
       </c>
       <c r="E108" t="n">
-        <v>0.0513709</v>
+        <v>0.0512516</v>
       </c>
     </row>
     <row r="109">
@@ -5996,16 +5996,16 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.1679</v>
+        <v>0.170068</v>
       </c>
       <c r="C109" t="n">
-        <v>0.203566</v>
+        <v>0.173635</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0361988</v>
+        <v>0.0362982</v>
       </c>
       <c r="E109" t="n">
-        <v>0.0528133</v>
+        <v>0.052586</v>
       </c>
     </row>
     <row r="110">
@@ -6013,16 +6013,16 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0312378</v>
+        <v>0.0311614</v>
       </c>
       <c r="C110" t="n">
-        <v>0.210146</v>
+        <v>0.0471324</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0370074</v>
+        <v>0.0371155</v>
       </c>
       <c r="E110" t="n">
-        <v>0.0541587</v>
+        <v>0.0539518</v>
       </c>
     </row>
     <row r="111">
@@ -6030,16 +6030,16 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.032867</v>
+        <v>0.0327739</v>
       </c>
       <c r="C111" t="n">
-        <v>0.218257</v>
+        <v>0.048765</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0378667</v>
+        <v>0.037984</v>
       </c>
       <c r="E111" t="n">
-        <v>0.0555634</v>
+        <v>0.0553426</v>
       </c>
     </row>
     <row r="112">
@@ -6047,16 +6047,16 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0343439</v>
+        <v>0.0342219</v>
       </c>
       <c r="C112" t="n">
-        <v>0.224714</v>
+        <v>0.0506318</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0385583</v>
+        <v>0.0388081</v>
       </c>
       <c r="E112" t="n">
-        <v>0.0569233</v>
+        <v>0.0567558</v>
       </c>
     </row>
     <row r="113">
@@ -6064,16 +6064,16 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0361309</v>
+        <v>0.0361224</v>
       </c>
       <c r="C113" t="n">
-        <v>0.23258</v>
+        <v>0.0530521</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0395869</v>
+        <v>0.039709</v>
       </c>
       <c r="E113" t="n">
-        <v>0.0585293</v>
+        <v>0.0581885</v>
       </c>
     </row>
     <row r="114">
@@ -6081,16 +6081,16 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0383012</v>
+        <v>0.0382959</v>
       </c>
       <c r="C114" t="n">
-        <v>0.239218</v>
+        <v>0.0558168</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0406235</v>
+        <v>0.0407201</v>
       </c>
       <c r="E114" t="n">
-        <v>0.0602617</v>
+        <v>0.0599101</v>
       </c>
     </row>
     <row r="115">
@@ -6098,16 +6098,16 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.0408352</v>
+        <v>0.0408686</v>
       </c>
       <c r="C115" t="n">
-        <v>0.24724</v>
+        <v>0.0590964</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0416052</v>
+        <v>0.0418563</v>
       </c>
       <c r="E115" t="n">
-        <v>0.0619037</v>
+        <v>0.0616815</v>
       </c>
     </row>
     <row r="116">
@@ -6115,16 +6115,16 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.0439366</v>
+        <v>0.0442974</v>
       </c>
       <c r="C116" t="n">
-        <v>0.255715</v>
+        <v>0.06304220000000001</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0428433</v>
+        <v>0.043013</v>
       </c>
       <c r="E116" t="n">
-        <v>0.0640491</v>
+        <v>0.06381240000000001</v>
       </c>
     </row>
     <row r="117">
@@ -6132,16 +6132,16 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.0486743</v>
+        <v>0.0487593</v>
       </c>
       <c r="C117" t="n">
-        <v>0.263655</v>
+        <v>0.0678544</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0445415</v>
+        <v>0.0446433</v>
       </c>
       <c r="E117" t="n">
-        <v>0.0662812</v>
+        <v>0.06614929999999999</v>
       </c>
     </row>
     <row r="118">
@@ -6149,16 +6149,16 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.0550738</v>
+        <v>0.0553776</v>
       </c>
       <c r="C118" t="n">
-        <v>0.271989</v>
+        <v>0.07434830000000001</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0464755</v>
+        <v>0.0464372</v>
       </c>
       <c r="E118" t="n">
-        <v>0.06915499999999999</v>
+        <v>0.0689857</v>
       </c>
     </row>
     <row r="119">
@@ -6166,16 +6166,16 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.0645583</v>
+        <v>0.0650806</v>
       </c>
       <c r="C119" t="n">
-        <v>0.282797</v>
+        <v>0.08250540000000001</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0489272</v>
+        <v>0.0490481</v>
       </c>
       <c r="E119" t="n">
-        <v>0.07276100000000001</v>
+        <v>0.0724322</v>
       </c>
     </row>
     <row r="120">
@@ -6183,16 +6183,16 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.0791676</v>
+        <v>0.0794662</v>
       </c>
       <c r="C120" t="n">
-        <v>0.289767</v>
+        <v>0.09416480000000001</v>
       </c>
       <c r="D120" t="n">
-        <v>0.0526395</v>
+        <v>0.0527466</v>
       </c>
       <c r="E120" t="n">
-        <v>0.07756780000000001</v>
+        <v>0.07736369999999999</v>
       </c>
     </row>
     <row r="121">
@@ -6200,16 +6200,16 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.0998057</v>
+        <v>0.100409</v>
       </c>
       <c r="C121" t="n">
-        <v>0.206007</v>
+        <v>0.110914</v>
       </c>
       <c r="D121" t="n">
-        <v>0.0583473</v>
+        <v>0.0584244</v>
       </c>
       <c r="E121" t="n">
-        <v>0.0847301</v>
+        <v>0.0847552</v>
       </c>
     </row>
     <row r="122">
@@ -6217,16 +6217,16 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.128197</v>
+        <v>0.12865</v>
       </c>
       <c r="C122" t="n">
-        <v>0.211597</v>
+        <v>0.135638</v>
       </c>
       <c r="D122" t="n">
-        <v>0.06810819999999999</v>
+        <v>0.0681438</v>
       </c>
       <c r="E122" t="n">
-        <v>0.0960261</v>
+        <v>0.0957346</v>
       </c>
     </row>
     <row r="123">
@@ -6234,16 +6234,16 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.163841</v>
+        <v>0.164695</v>
       </c>
       <c r="C123" t="n">
-        <v>0.217961</v>
+        <v>0.170759</v>
       </c>
       <c r="D123" t="n">
-        <v>0.0412799</v>
+        <v>0.0406256</v>
       </c>
       <c r="E123" t="n">
-        <v>0.0604808</v>
+        <v>0.0602682</v>
       </c>
     </row>
     <row r="124">
@@ -6251,16 +6251,16 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.0345014</v>
+        <v>0.034271</v>
       </c>
       <c r="C124" t="n">
-        <v>0.22481</v>
+        <v>0.0511796</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0422281</v>
+        <v>0.0413152</v>
       </c>
       <c r="E124" t="n">
-        <v>0.0618613</v>
+        <v>0.0617916</v>
       </c>
     </row>
     <row r="125">
@@ -6268,16 +6268,16 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.035219</v>
+        <v>0.0356692</v>
       </c>
       <c r="C125" t="n">
-        <v>0.231511</v>
+        <v>0.0529482</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0429276</v>
+        <v>0.0420873</v>
       </c>
       <c r="E125" t="n">
-        <v>0.0635545</v>
+        <v>0.0632606</v>
       </c>
     </row>
     <row r="126">
@@ -6285,16 +6285,16 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.0366214</v>
+        <v>0.0370521</v>
       </c>
       <c r="C126" t="n">
-        <v>0.23876</v>
+        <v>0.0551947</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0439297</v>
+        <v>0.0437113</v>
       </c>
       <c r="E126" t="n">
-        <v>0.0648304</v>
+        <v>0.0648161</v>
       </c>
     </row>
     <row r="127">
@@ -6302,16 +6302,16 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.0384021</v>
+        <v>0.0386634</v>
       </c>
       <c r="C127" t="n">
-        <v>0.246015</v>
+        <v>0.0576251</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0447307</v>
+        <v>0.0445876</v>
       </c>
       <c r="E127" t="n">
-        <v>0.06670520000000001</v>
+        <v>0.0665789</v>
       </c>
     </row>
     <row r="128">
@@ -6319,16 +6319,16 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0405117</v>
+        <v>0.0409154</v>
       </c>
       <c r="C128" t="n">
-        <v>0.253902</v>
+        <v>0.0611904</v>
       </c>
       <c r="D128" t="n">
-        <v>0.0457736</v>
+        <v>0.0455288</v>
       </c>
       <c r="E128" t="n">
-        <v>0.0683797</v>
+        <v>0.06830219999999999</v>
       </c>
     </row>
     <row r="129">
@@ -6336,16 +6336,16 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0431668</v>
+        <v>0.0436538</v>
       </c>
       <c r="C129" t="n">
-        <v>0.261754</v>
+        <v>0.0649277</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0468762</v>
+        <v>0.0466616</v>
       </c>
       <c r="E129" t="n">
-        <v>0.0702016</v>
+        <v>0.0701341</v>
       </c>
     </row>
     <row r="130">
@@ -6353,16 +6353,16 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0465002</v>
+        <v>0.0469784</v>
       </c>
       <c r="C130" t="n">
-        <v>0.269215</v>
+        <v>0.0692378</v>
       </c>
       <c r="D130" t="n">
-        <v>0.0480061</v>
+        <v>0.0478817</v>
       </c>
       <c r="E130" t="n">
-        <v>0.0724499</v>
+        <v>0.0722339</v>
       </c>
     </row>
     <row r="131">
@@ -6370,16 +6370,16 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0510499</v>
+        <v>0.0523339</v>
       </c>
       <c r="C131" t="n">
-        <v>0.276809</v>
+        <v>0.07468370000000001</v>
       </c>
       <c r="D131" t="n">
-        <v>0.0495994</v>
+        <v>0.0495905</v>
       </c>
       <c r="E131" t="n">
-        <v>0.07498920000000001</v>
+        <v>0.07483480000000001</v>
       </c>
     </row>
     <row r="132">
@@ -6387,16 +6387,16 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0587435</v>
+        <v>0.0590604</v>
       </c>
       <c r="C132" t="n">
-        <v>0.285243</v>
+        <v>0.0809699</v>
       </c>
       <c r="D132" t="n">
-        <v>0.0516555</v>
+        <v>0.0514572</v>
       </c>
       <c r="E132" t="n">
-        <v>0.0779345</v>
+        <v>0.0777067</v>
       </c>
     </row>
     <row r="133">
@@ -6404,16 +6404,16 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.0679357</v>
+        <v>0.06841220000000001</v>
       </c>
       <c r="C133" t="n">
-        <v>0.294416</v>
+        <v>0.0898631</v>
       </c>
       <c r="D133" t="n">
-        <v>0.0541823</v>
+        <v>0.0540439</v>
       </c>
       <c r="E133" t="n">
-        <v>0.081499</v>
+        <v>0.08164250000000001</v>
       </c>
     </row>
     <row r="134">
@@ -6421,16 +6421,16 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.0816269</v>
+        <v>0.0827063</v>
       </c>
       <c r="C134" t="n">
-        <v>0.303237</v>
+        <v>0.101225</v>
       </c>
       <c r="D134" t="n">
-        <v>0.0578916</v>
+        <v>0.057603</v>
       </c>
       <c r="E134" t="n">
-        <v>0.0866347</v>
+        <v>0.0864543</v>
       </c>
     </row>
     <row r="135">
@@ -6438,16 +6438,16 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.101812</v>
+        <v>0.102558</v>
       </c>
       <c r="C135" t="n">
-        <v>0.212509</v>
+        <v>0.117128</v>
       </c>
       <c r="D135" t="n">
-        <v>0.0634131</v>
+        <v>0.0634016</v>
       </c>
       <c r="E135" t="n">
-        <v>0.09380090000000001</v>
+        <v>0.09370729999999999</v>
       </c>
     </row>
     <row r="136">
@@ -6455,16 +6455,16 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.129487</v>
+        <v>0.130638</v>
       </c>
       <c r="C136" t="n">
-        <v>0.21893</v>
+        <v>0.141721</v>
       </c>
       <c r="D136" t="n">
-        <v>0.07260369999999999</v>
+        <v>0.07273110000000001</v>
       </c>
       <c r="E136" t="n">
-        <v>0.105376</v>
+        <v>0.105063</v>
       </c>
     </row>
     <row r="137">
@@ -6472,16 +6472,16 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.164993</v>
+        <v>0.164652</v>
       </c>
       <c r="C137" t="n">
-        <v>0.225118</v>
+        <v>0.174933</v>
       </c>
       <c r="D137" t="n">
-        <v>0.0591479</v>
+        <v>0.0585508</v>
       </c>
       <c r="E137" t="n">
-        <v>0.0789271</v>
+        <v>0.07941769999999999</v>
       </c>
     </row>
     <row r="138">
@@ -6489,16 +6489,16 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0468838</v>
+        <v>0.0473659</v>
       </c>
       <c r="C138" t="n">
-        <v>0.232231</v>
+        <v>0.06550209999999999</v>
       </c>
       <c r="D138" t="n">
-        <v>0.0608915</v>
+        <v>0.059517</v>
       </c>
       <c r="E138" t="n">
-        <v>0.0802612</v>
+        <v>0.0801946</v>
       </c>
     </row>
     <row r="139">
@@ -6506,16 +6506,16 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0484521</v>
+        <v>0.0482848</v>
       </c>
       <c r="C139" t="n">
-        <v>0.239705</v>
+        <v>0.06735670000000001</v>
       </c>
       <c r="D139" t="n">
-        <v>0.0603453</v>
+        <v>0.0602724</v>
       </c>
       <c r="E139" t="n">
-        <v>0.08157540000000001</v>
+        <v>0.08480119999999999</v>
       </c>
     </row>
     <row r="140">
@@ -6523,16 +6523,16 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.0493311</v>
+        <v>0.0493496</v>
       </c>
       <c r="C140" t="n">
-        <v>0.247032</v>
+        <v>0.0687799</v>
       </c>
       <c r="D140" t="n">
-        <v>0.0608767</v>
+        <v>0.0612593</v>
       </c>
       <c r="E140" t="n">
-        <v>0.0829015</v>
+        <v>0.0829756</v>
       </c>
     </row>
     <row r="141">
@@ -6540,16 +6540,16 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0507617</v>
+        <v>0.0510342</v>
       </c>
       <c r="C141" t="n">
-        <v>0.255056</v>
+        <v>0.071226</v>
       </c>
       <c r="D141" t="n">
-        <v>0.0620272</v>
+        <v>0.0621137</v>
       </c>
       <c r="E141" t="n">
-        <v>0.0845514</v>
+        <v>0.08389770000000001</v>
       </c>
     </row>
     <row r="142">
@@ -6557,16 +6557,16 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.0532957</v>
+        <v>0.0528858</v>
       </c>
       <c r="C142" t="n">
-        <v>0.262733</v>
+        <v>0.0738226</v>
       </c>
       <c r="D142" t="n">
-        <v>0.0625593</v>
+        <v>0.062986</v>
       </c>
       <c r="E142" t="n">
-        <v>0.08594209999999999</v>
+        <v>0.0853976</v>
       </c>
     </row>
     <row r="143">
@@ -6574,16 +6574,16 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.0554191</v>
+        <v>0.0559869</v>
       </c>
       <c r="C143" t="n">
-        <v>0.271863</v>
+        <v>0.07729519999999999</v>
       </c>
       <c r="D143" t="n">
-        <v>0.0640025</v>
+        <v>0.0639089</v>
       </c>
       <c r="E143" t="n">
-        <v>0.0877042</v>
+        <v>0.08697680000000001</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered unsuccessful looukp.xlsx
+++ b/clang-arm64/Scattered unsuccessful looukp.xlsx
@@ -4177,16 +4177,16 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0188563</v>
+        <v>0.0171852</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0745743</v>
+        <v>0.0744186</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0212525</v>
+        <v>0.0211819</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0214076</v>
+        <v>0.0213345</v>
       </c>
     </row>
     <row r="3">
@@ -4194,16 +4194,16 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.020482</v>
+        <v>0.020033</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0818991</v>
+        <v>0.0768645</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0216004</v>
+        <v>0.0215865</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0220449</v>
+        <v>0.0218802</v>
       </c>
     </row>
     <row r="4">
@@ -4211,16 +4211,16 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0250918</v>
+        <v>0.0234972</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0759394</v>
+        <v>0.07417269999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0227228</v>
+        <v>0.022596</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0228814</v>
+        <v>0.0227415</v>
       </c>
     </row>
     <row r="5">
@@ -4228,16 +4228,16 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0324396</v>
+        <v>0.0334114</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0880992</v>
+        <v>0.07515529999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0236692</v>
+        <v>0.0233857</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0238445</v>
+        <v>0.0238167</v>
       </c>
     </row>
     <row r="6">
@@ -4245,16 +4245,16 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0486736</v>
+        <v>0.0467826</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08153489999999999</v>
+        <v>0.0870998</v>
       </c>
       <c r="D6" t="n">
-        <v>0.025734</v>
+        <v>0.0254143</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0259967</v>
+        <v>0.0257115</v>
       </c>
     </row>
     <row r="7">
@@ -4262,16 +4262,16 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0676407</v>
+        <v>0.0725697</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0624356</v>
+        <v>0.0584436</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0307283</v>
+        <v>0.0303169</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0308818</v>
+        <v>0.0301773</v>
       </c>
     </row>
     <row r="8">
@@ -4279,16 +4279,16 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0914015</v>
+        <v>0.09528929999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>0.061869</v>
+        <v>0.0611253</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0400074</v>
+        <v>0.0384429</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0397899</v>
+        <v>0.0385708</v>
       </c>
     </row>
     <row r="9">
@@ -4296,16 +4296,16 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.120117</v>
+        <v>0.109813</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0683074</v>
+        <v>0.06386790000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0191859</v>
+        <v>0.0190234</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0190868</v>
+        <v>0.0191002</v>
       </c>
     </row>
     <row r="10">
@@ -4313,16 +4313,16 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0161742</v>
+        <v>0.016625</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0686766</v>
+        <v>0.0677649</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0194145</v>
+        <v>0.0192323</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0193166</v>
+        <v>0.0193512</v>
       </c>
     </row>
     <row r="11">
@@ -4330,16 +4330,16 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0167609</v>
+        <v>0.0170132</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07166640000000001</v>
+        <v>0.07088</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0197171</v>
+        <v>0.0196936</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0195902</v>
+        <v>0.0195933</v>
       </c>
     </row>
     <row r="12">
@@ -4347,16 +4347,16 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.017033</v>
+        <v>0.0173289</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0739997</v>
+        <v>0.0746926</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0200098</v>
+        <v>0.0198674</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0199197</v>
+        <v>0.01997</v>
       </c>
     </row>
     <row r="13">
@@ -4364,16 +4364,16 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0178156</v>
+        <v>0.0177845</v>
       </c>
       <c r="C13" t="n">
-        <v>0.077265</v>
+        <v>0.0791601</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0202944</v>
+        <v>0.0201633</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0202396</v>
+        <v>0.0202698</v>
       </c>
     </row>
     <row r="14">
@@ -4381,16 +4381,16 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0186429</v>
+        <v>0.0186011</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0817507</v>
+        <v>0.0828644</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0205605</v>
+        <v>0.0205677</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0206034</v>
+        <v>0.0205716</v>
       </c>
     </row>
     <row r="15">
@@ -4398,16 +4398,16 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0201514</v>
+        <v>0.019684</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0856117</v>
+        <v>0.0831283</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0210623</v>
+        <v>0.0209727</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0211027</v>
+        <v>0.0211233</v>
       </c>
     </row>
     <row r="16">
@@ -4415,16 +4415,16 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0223364</v>
+        <v>0.0218181</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0866362</v>
+        <v>0.0863915</v>
       </c>
       <c r="D16" t="n">
-        <v>0.021745</v>
+        <v>0.0216021</v>
       </c>
       <c r="E16" t="n">
-        <v>0.02181</v>
+        <v>0.0217858</v>
       </c>
     </row>
     <row r="17">
@@ -4432,16 +4432,16 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0265812</v>
+        <v>0.0245483</v>
       </c>
       <c r="C17" t="n">
-        <v>0.09086229999999999</v>
+        <v>0.0888929</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0224624</v>
+        <v>0.0224931</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0225325</v>
+        <v>0.0225849</v>
       </c>
     </row>
     <row r="18">
@@ -4449,16 +4449,16 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0315209</v>
+        <v>0.0313882</v>
       </c>
       <c r="C18" t="n">
-        <v>0.09648760000000001</v>
+        <v>0.091433</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0233932</v>
+        <v>0.0233984</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0234089</v>
+        <v>0.0233735</v>
       </c>
     </row>
     <row r="19">
@@ -4466,16 +4466,16 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0404218</v>
+        <v>0.0407747</v>
       </c>
       <c r="C19" t="n">
-        <v>0.096305</v>
+        <v>0.0962518</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0246564</v>
+        <v>0.0245184</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0246829</v>
+        <v>0.0245651</v>
       </c>
     </row>
     <row r="20">
@@ -4483,16 +4483,16 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0523243</v>
+        <v>0.0528165</v>
       </c>
       <c r="C20" t="n">
-        <v>0.09784320000000001</v>
+        <v>0.095453</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0274191</v>
+        <v>0.0272001</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0272518</v>
+        <v>0.0272455</v>
       </c>
     </row>
     <row r="21">
@@ -4500,16 +4500,16 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.068802</v>
+        <v>0.072601</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0664341</v>
+        <v>0.0649217</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0316025</v>
+        <v>0.031494</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0319929</v>
+        <v>0.031621</v>
       </c>
     </row>
     <row r="22">
@@ -4517,16 +4517,16 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0916015</v>
+        <v>0.0937964</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0712783</v>
+        <v>0.0693392</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0413247</v>
+        <v>0.0409628</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0414377</v>
+        <v>0.0412277</v>
       </c>
     </row>
     <row r="23">
@@ -4534,16 +4534,16 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.115789</v>
+        <v>0.120215</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0762056</v>
+        <v>0.0727245</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0187664</v>
+        <v>0.0187908</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0188357</v>
+        <v>0.018825</v>
       </c>
     </row>
     <row r="24">
@@ -4551,16 +4551,16 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0165559</v>
+        <v>0.0164388</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0754963</v>
+        <v>0.0746931</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0190384</v>
+        <v>0.0190536</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0191047</v>
+        <v>0.0190883</v>
       </c>
     </row>
     <row r="25">
@@ -4568,16 +4568,16 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.01713</v>
+        <v>0.0169085</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0791755</v>
+        <v>0.0792807</v>
       </c>
       <c r="D25" t="n">
-        <v>0.019321</v>
+        <v>0.0193153</v>
       </c>
       <c r="E25" t="n">
-        <v>0.019293</v>
+        <v>0.0193252</v>
       </c>
     </row>
     <row r="26">
@@ -4585,16 +4585,16 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.017832</v>
+        <v>0.0176731</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0828492</v>
+        <v>0.0821897</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0195661</v>
+        <v>0.0195841</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0195628</v>
+        <v>0.0195804</v>
       </c>
     </row>
     <row r="27">
@@ -4602,16 +4602,16 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0186431</v>
+        <v>0.0184767</v>
       </c>
       <c r="C27" t="n">
-        <v>0.08543870000000001</v>
+        <v>0.0857537</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0198599</v>
+        <v>0.0198764</v>
       </c>
       <c r="E27" t="n">
-        <v>0.020006</v>
+        <v>0.0199921</v>
       </c>
     </row>
     <row r="28">
@@ -4619,16 +4619,16 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0204344</v>
+        <v>0.0198949</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0887561</v>
+        <v>0.08903610000000001</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0203393</v>
+        <v>0.0202998</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0203576</v>
+        <v>0.020351</v>
       </c>
     </row>
     <row r="29">
@@ -4636,16 +4636,16 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0223797</v>
+        <v>0.0218638</v>
       </c>
       <c r="C29" t="n">
-        <v>0.092414</v>
+        <v>0.0918535</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0209382</v>
+        <v>0.0209616</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0209983</v>
+        <v>0.0209953</v>
       </c>
     </row>
     <row r="30">
@@ -4653,16 +4653,16 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0260575</v>
+        <v>0.0244505</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0948533</v>
+        <v>0.0940365</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0214818</v>
+        <v>0.0215291</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0216036</v>
+        <v>0.0216106</v>
       </c>
     </row>
     <row r="31">
@@ -4670,16 +4670,16 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0296827</v>
+        <v>0.0290116</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0957143</v>
+        <v>0.097202</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0223346</v>
+        <v>0.0223627</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0224206</v>
+        <v>0.0224246</v>
       </c>
     </row>
     <row r="32">
@@ -4687,16 +4687,16 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0351294</v>
+        <v>0.0357297</v>
       </c>
       <c r="C32" t="n">
-        <v>0.09790550000000001</v>
+        <v>0.09643409999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0233779</v>
+        <v>0.0233976</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0234567</v>
+        <v>0.0234454</v>
       </c>
     </row>
     <row r="33">
@@ -4704,16 +4704,16 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0439567</v>
+        <v>0.0442973</v>
       </c>
       <c r="C33" t="n">
-        <v>0.09936730000000001</v>
+        <v>0.09922980000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0247673</v>
+        <v>0.0248475</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0248701</v>
+        <v>0.0248845</v>
       </c>
     </row>
     <row r="34">
@@ -4721,16 +4721,16 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0560566</v>
+        <v>0.056851</v>
       </c>
       <c r="C34" t="n">
-        <v>0.101587</v>
+        <v>0.101272</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0273931</v>
+        <v>0.0274756</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0276153</v>
+        <v>0.0276358</v>
       </c>
     </row>
     <row r="35">
@@ -4738,16 +4738,16 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0724226</v>
+        <v>0.0729562</v>
       </c>
       <c r="C35" t="n">
-        <v>0.06934940000000001</v>
+        <v>0.0696194</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0317286</v>
+        <v>0.0317889</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0319171</v>
+        <v>0.0318699</v>
       </c>
     </row>
     <row r="36">
@@ -4755,16 +4755,16 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0942229</v>
+        <v>0.0948748</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0726347</v>
+        <v>0.0728569</v>
       </c>
       <c r="D36" t="n">
-        <v>0.039339</v>
+        <v>0.0392125</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0394712</v>
+        <v>0.0394617</v>
       </c>
     </row>
     <row r="37">
@@ -4772,16 +4772,16 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.120526</v>
+        <v>0.122201</v>
       </c>
       <c r="C37" t="n">
-        <v>0.07564949999999999</v>
+        <v>0.07499210000000001</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0193829</v>
+        <v>0.0194128</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0194612</v>
+        <v>0.0194713</v>
       </c>
     </row>
     <row r="38">
@@ -4789,16 +4789,16 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0171733</v>
+        <v>0.0171549</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0790356</v>
+        <v>0.0783997</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0197036</v>
+        <v>0.0197292</v>
       </c>
       <c r="E38" t="n">
-        <v>0.019774</v>
+        <v>0.0197855</v>
       </c>
     </row>
     <row r="39">
@@ -4806,16 +4806,16 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0178413</v>
+        <v>0.0178809</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0818281</v>
+        <v>0.0822191</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0199834</v>
+        <v>0.0200005</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0200997</v>
+        <v>0.020142</v>
       </c>
     </row>
     <row r="40">
@@ -4823,16 +4823,16 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0187789</v>
+        <v>0.0188118</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0856015</v>
+        <v>0.08549</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0203028</v>
+        <v>0.0202935</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0204224</v>
+        <v>0.0204368</v>
       </c>
     </row>
     <row r="41">
@@ -4840,16 +4840,16 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0201514</v>
+        <v>0.0200431</v>
       </c>
       <c r="C41" t="n">
-        <v>0.08902640000000001</v>
+        <v>0.08853320000000001</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0206416</v>
+        <v>0.02066</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0207986</v>
+        <v>0.0208058</v>
       </c>
     </row>
     <row r="42">
@@ -4857,16 +4857,16 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0218874</v>
+        <v>0.0218223</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0915702</v>
+        <v>0.09153790000000001</v>
       </c>
       <c r="D42" t="n">
-        <v>0.021054</v>
+        <v>0.0210828</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0212501</v>
+        <v>0.0212898</v>
       </c>
     </row>
     <row r="43">
@@ -4874,16 +4874,16 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0244952</v>
+        <v>0.0241742</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0953242</v>
+        <v>0.09546350000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0216854</v>
+        <v>0.0217097</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0218422</v>
+        <v>0.021862</v>
       </c>
     </row>
     <row r="44">
@@ -4891,16 +4891,16 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0277145</v>
+        <v>0.0278433</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0973436</v>
+        <v>0.0968111</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0224175</v>
+        <v>0.0224264</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0225976</v>
+        <v>0.0226133</v>
       </c>
     </row>
     <row r="45">
@@ -4908,16 +4908,16 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0318614</v>
+        <v>0.0320285</v>
       </c>
       <c r="C45" t="n">
-        <v>0.100137</v>
+        <v>0.09956139999999999</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0232548</v>
+        <v>0.0233263</v>
       </c>
       <c r="E45" t="n">
-        <v>0.023464</v>
+        <v>0.0235509</v>
       </c>
     </row>
     <row r="46">
@@ -4925,16 +4925,16 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.038157</v>
+        <v>0.0384291</v>
       </c>
       <c r="C46" t="n">
-        <v>0.102066</v>
+        <v>0.101966</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0245789</v>
+        <v>0.0246182</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0247861</v>
+        <v>0.0248182</v>
       </c>
     </row>
     <row r="47">
@@ -4942,16 +4942,16 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0458946</v>
+        <v>0.0462459</v>
       </c>
       <c r="C47" t="n">
-        <v>0.104689</v>
+        <v>0.103854</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0261833</v>
+        <v>0.0262007</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0263224</v>
+        <v>0.0263755</v>
       </c>
     </row>
     <row r="48">
@@ -4959,16 +4959,16 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0561284</v>
+        <v>0.0574003</v>
       </c>
       <c r="C48" t="n">
-        <v>0.106565</v>
+        <v>0.106694</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0289704</v>
+        <v>0.0289761</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0291543</v>
+        <v>0.029164</v>
       </c>
     </row>
     <row r="49">
@@ -4976,16 +4976,16 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.07138170000000001</v>
+        <v>0.07115009999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>0.109417</v>
+        <v>0.108324</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0328291</v>
+        <v>0.0328092</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0329324</v>
+        <v>0.0329328</v>
       </c>
     </row>
     <row r="50">
@@ -4993,16 +4993,16 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.09212090000000001</v>
+        <v>0.0931482</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0759278</v>
+        <v>0.0756893</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0389724</v>
+        <v>0.0389666</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0390016</v>
+        <v>0.039117</v>
       </c>
     </row>
     <row r="51">
@@ -5010,16 +5010,16 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.117399</v>
+        <v>0.120155</v>
       </c>
       <c r="C51" t="n">
-        <v>0.07929940000000001</v>
+        <v>0.07893409999999999</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0204109</v>
+        <v>0.0204094</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0204605</v>
+        <v>0.0204779</v>
       </c>
     </row>
     <row r="52">
@@ -5027,16 +5027,16 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.142611</v>
+        <v>0.143576</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0833945</v>
+        <v>0.0827513</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0206887</v>
+        <v>0.0206899</v>
       </c>
       <c r="E52" t="n">
-        <v>0.020763</v>
+        <v>0.0207876</v>
       </c>
     </row>
     <row r="53">
@@ -5044,16 +5044,16 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0191063</v>
+        <v>0.0190405</v>
       </c>
       <c r="C53" t="n">
-        <v>0.08607579999999999</v>
+        <v>0.0859528</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0209817</v>
+        <v>0.0210127</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0211036</v>
+        <v>0.0210598</v>
       </c>
     </row>
     <row r="54">
@@ -5061,16 +5061,16 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0202054</v>
+        <v>0.0200938</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0893982</v>
+        <v>0.09036470000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0212755</v>
+        <v>0.0212915</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0214464</v>
+        <v>0.0214545</v>
       </c>
     </row>
     <row r="55">
@@ -5078,16 +5078,16 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0216884</v>
+        <v>0.021693</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0926165</v>
+        <v>0.09277630000000001</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0216547</v>
+        <v>0.0217203</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0218044</v>
+        <v>0.021863</v>
       </c>
     </row>
     <row r="56">
@@ -5095,16 +5095,16 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.023762</v>
+        <v>0.0234208</v>
       </c>
       <c r="C56" t="n">
-        <v>0.09584810000000001</v>
+        <v>0.0961547</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0221738</v>
+        <v>0.0221906</v>
       </c>
       <c r="E56" t="n">
-        <v>0.02235</v>
+        <v>0.0223078</v>
       </c>
     </row>
     <row r="57">
@@ -5112,16 +5112,16 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0265754</v>
+        <v>0.0260325</v>
       </c>
       <c r="C57" t="n">
-        <v>0.100165</v>
+        <v>0.09976690000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0227227</v>
+        <v>0.0227112</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0228519</v>
+        <v>0.0228714</v>
       </c>
     </row>
     <row r="58">
@@ -5129,16 +5129,16 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0299431</v>
+        <v>0.0293022</v>
       </c>
       <c r="C58" t="n">
-        <v>0.101736</v>
+        <v>0.102591</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0233788</v>
+        <v>0.0233949</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0235195</v>
+        <v>0.0235032</v>
       </c>
     </row>
     <row r="59">
@@ -5146,16 +5146,16 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0344095</v>
+        <v>0.0336441</v>
       </c>
       <c r="C59" t="n">
-        <v>0.105135</v>
+        <v>0.104854</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0243162</v>
+        <v>0.0243238</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0244936</v>
+        <v>0.0244709</v>
       </c>
     </row>
     <row r="60">
@@ -5163,16 +5163,16 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0405591</v>
+        <v>0.039139</v>
       </c>
       <c r="C60" t="n">
-        <v>0.107339</v>
+        <v>0.107499</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0256636</v>
+        <v>0.0256775</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0258272</v>
+        <v>0.0257992</v>
       </c>
     </row>
     <row r="61">
@@ -5180,16 +5180,16 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0475581</v>
+        <v>0.046517</v>
       </c>
       <c r="C61" t="n">
-        <v>0.109803</v>
+        <v>0.111123</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0275441</v>
+        <v>0.0275108</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0276262</v>
+        <v>0.0276279</v>
       </c>
     </row>
     <row r="62">
@@ -5197,16 +5197,16 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0572633</v>
+        <v>0.0561217</v>
       </c>
       <c r="C62" t="n">
-        <v>0.111709</v>
+        <v>0.111975</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0301356</v>
+        <v>0.0301741</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0303212</v>
+        <v>0.0303352</v>
       </c>
     </row>
     <row r="63">
@@ -5214,16 +5214,16 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0711276</v>
+        <v>0.0704925</v>
       </c>
       <c r="C63" t="n">
-        <v>0.115496</v>
+        <v>0.115986</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0341597</v>
+        <v>0.0341845</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0343892</v>
+        <v>0.0343718</v>
       </c>
     </row>
     <row r="64">
@@ -5231,16 +5231,16 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0912027</v>
+        <v>0.0897912</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0812769</v>
+        <v>0.0815061</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0404667</v>
+        <v>0.040487</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0407201</v>
+        <v>0.0406366</v>
       </c>
     </row>
     <row r="65">
@@ -5248,16 +5248,16 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.117531</v>
+        <v>0.116721</v>
       </c>
       <c r="C65" t="n">
-        <v>0.08581900000000001</v>
+        <v>0.0852998</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0516123</v>
+        <v>0.0515562</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0517515</v>
+        <v>0.0518366</v>
       </c>
     </row>
     <row r="66">
@@ -5265,16 +5265,16 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.147591</v>
+        <v>0.147421</v>
       </c>
       <c r="C66" t="n">
-        <v>0.09048920000000001</v>
+        <v>0.08988</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0209483</v>
+        <v>0.0209795</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0210642</v>
+        <v>0.0210752</v>
       </c>
     </row>
     <row r="67">
@@ -5282,16 +5282,16 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0198684</v>
+        <v>0.0197937</v>
       </c>
       <c r="C67" t="n">
-        <v>0.09512900000000001</v>
+        <v>0.0949045</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0212904</v>
+        <v>0.021361</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0214078</v>
+        <v>0.0214063</v>
       </c>
     </row>
     <row r="68">
@@ -5299,16 +5299,16 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0210982</v>
+        <v>0.0209823</v>
       </c>
       <c r="C68" t="n">
-        <v>0.09904019999999999</v>
+        <v>0.100513</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0216414</v>
+        <v>0.0216573</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0217171</v>
+        <v>0.0217439</v>
       </c>
     </row>
     <row r="69">
@@ -5316,16 +5316,16 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0228671</v>
+        <v>0.0226505</v>
       </c>
       <c r="C69" t="n">
-        <v>0.103762</v>
+        <v>0.104696</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0220066</v>
+        <v>0.0220183</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0221679</v>
+        <v>0.0221286</v>
       </c>
     </row>
     <row r="70">
@@ -5333,16 +5333,16 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0250892</v>
+        <v>0.0245514</v>
       </c>
       <c r="C70" t="n">
-        <v>0.109767</v>
+        <v>0.110914</v>
       </c>
       <c r="D70" t="n">
-        <v>0.022503</v>
+        <v>0.0224987</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0225732</v>
+        <v>0.0226355</v>
       </c>
     </row>
     <row r="71">
@@ -5350,16 +5350,16 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0274858</v>
+        <v>0.027241</v>
       </c>
       <c r="C71" t="n">
-        <v>0.115064</v>
+        <v>0.11414</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0230597</v>
+        <v>0.0230726</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0231145</v>
+        <v>0.0231393</v>
       </c>
     </row>
     <row r="72">
@@ -5367,16 +5367,16 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0307585</v>
+        <v>0.030362</v>
       </c>
       <c r="C72" t="n">
-        <v>0.119625</v>
+        <v>0.120795</v>
       </c>
       <c r="D72" t="n">
-        <v>0.023794</v>
+        <v>0.0238058</v>
       </c>
       <c r="E72" t="n">
-        <v>0.023886</v>
+        <v>0.0239599</v>
       </c>
     </row>
     <row r="73">
@@ -5384,16 +5384,16 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0350439</v>
+        <v>0.0342544</v>
       </c>
       <c r="C73" t="n">
-        <v>0.123912</v>
+        <v>0.125242</v>
       </c>
       <c r="D73" t="n">
-        <v>0.024724</v>
+        <v>0.0247106</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0248041</v>
+        <v>0.0249456</v>
       </c>
     </row>
     <row r="74">
@@ -5401,16 +5401,16 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0401473</v>
+        <v>0.03957</v>
       </c>
       <c r="C74" t="n">
-        <v>0.128639</v>
+        <v>0.130703</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0259069</v>
+        <v>0.0259615</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0260928</v>
+        <v>0.0261385</v>
       </c>
     </row>
     <row r="75">
@@ -5418,16 +5418,16 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0470655</v>
+        <v>0.0463634</v>
       </c>
       <c r="C75" t="n">
-        <v>0.136023</v>
+        <v>0.134763</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0276355</v>
+        <v>0.0276406</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0279417</v>
+        <v>0.0281123</v>
       </c>
     </row>
     <row r="76">
@@ -5435,16 +5435,16 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0565303</v>
+        <v>0.0559217</v>
       </c>
       <c r="C76" t="n">
-        <v>0.141569</v>
+        <v>0.141971</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0302519</v>
+        <v>0.0302123</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0307152</v>
+        <v>0.030428</v>
       </c>
     </row>
     <row r="77">
@@ -5452,16 +5452,16 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0694931</v>
+        <v>0.0686967</v>
       </c>
       <c r="C77" t="n">
-        <v>0.147324</v>
+        <v>0.147898</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0340355</v>
+        <v>0.0340698</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0341993</v>
+        <v>0.0342205</v>
       </c>
     </row>
     <row r="78">
@@ -5469,16 +5469,16 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0876659</v>
+        <v>0.08667130000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>0.114448</v>
+        <v>0.112198</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0396979</v>
+        <v>0.039615</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0399898</v>
+        <v>0.0399239</v>
       </c>
     </row>
     <row r="79">
@@ -5486,16 +5486,16 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.112976</v>
+        <v>0.112582</v>
       </c>
       <c r="C79" t="n">
-        <v>0.120419</v>
+        <v>0.118598</v>
       </c>
       <c r="D79" t="n">
-        <v>0.049477</v>
+        <v>0.0495381</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0497379</v>
+        <v>0.0497512</v>
       </c>
     </row>
     <row r="80">
@@ -5503,16 +5503,16 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.14429</v>
+        <v>0.144324</v>
       </c>
       <c r="C80" t="n">
-        <v>0.125131</v>
+        <v>0.125722</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0212779</v>
+        <v>0.0211746</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0218936</v>
+        <v>0.0214852</v>
       </c>
     </row>
     <row r="81">
@@ -5520,16 +5520,16 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0201115</v>
+        <v>0.0199936</v>
       </c>
       <c r="C81" t="n">
-        <v>0.131477</v>
+        <v>0.132221</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0216341</v>
+        <v>0.021519</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0223402</v>
+        <v>0.0221437</v>
       </c>
     </row>
     <row r="82">
@@ -5537,16 +5537,16 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0216766</v>
+        <v>0.0213138</v>
       </c>
       <c r="C82" t="n">
-        <v>0.139604</v>
+        <v>0.139861</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0219984</v>
+        <v>0.021935</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0229967</v>
+        <v>0.0227388</v>
       </c>
     </row>
     <row r="83">
@@ -5554,16 +5554,16 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0228365</v>
+        <v>0.0229091</v>
       </c>
       <c r="C83" t="n">
-        <v>0.146445</v>
+        <v>0.147213</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0224363</v>
+        <v>0.0223917</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0238374</v>
+        <v>0.023453</v>
       </c>
     </row>
     <row r="84">
@@ -5571,16 +5571,16 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0248985</v>
+        <v>0.0247114</v>
       </c>
       <c r="C84" t="n">
-        <v>0.154887</v>
+        <v>0.156112</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0229328</v>
+        <v>0.022851</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0244912</v>
+        <v>0.0243526</v>
       </c>
     </row>
     <row r="85">
@@ -5588,16 +5588,16 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0272584</v>
+        <v>0.0271269</v>
       </c>
       <c r="C85" t="n">
-        <v>0.163154</v>
+        <v>0.164543</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0235783</v>
+        <v>0.023547</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0255432</v>
+        <v>0.0255805</v>
       </c>
     </row>
     <row r="86">
@@ -5605,16 +5605,16 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0302977</v>
+        <v>0.0303163</v>
       </c>
       <c r="C86" t="n">
-        <v>0.170385</v>
+        <v>0.171796</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0244305</v>
+        <v>0.0243914</v>
       </c>
       <c r="E86" t="n">
-        <v>0.0269618</v>
+        <v>0.0268713</v>
       </c>
     </row>
     <row r="87">
@@ -5622,16 +5622,16 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0342083</v>
+        <v>0.0339606</v>
       </c>
       <c r="C87" t="n">
-        <v>0.178312</v>
+        <v>0.175967</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0254418</v>
+        <v>0.0253735</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0283241</v>
+        <v>0.0284375</v>
       </c>
     </row>
     <row r="88">
@@ -5639,16 +5639,16 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.039444</v>
+        <v>0.0390652</v>
       </c>
       <c r="C88" t="n">
-        <v>0.182546</v>
+        <v>0.18267</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0267137</v>
+        <v>0.0268078</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0302692</v>
+        <v>0.0301568</v>
       </c>
     </row>
     <row r="89">
@@ -5656,16 +5656,16 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0458422</v>
+        <v>0.0455234</v>
       </c>
       <c r="C89" t="n">
-        <v>0.19023</v>
+        <v>0.191966</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0283454</v>
+        <v>0.0284918</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0321612</v>
+        <v>0.0321648</v>
       </c>
     </row>
     <row r="90">
@@ -5673,16 +5673,16 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0546333</v>
+        <v>0.054498</v>
       </c>
       <c r="C90" t="n">
-        <v>0.200533</v>
+        <v>0.199081</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0308527</v>
+        <v>0.0310015</v>
       </c>
       <c r="E90" t="n">
-        <v>0.0348082</v>
+        <v>0.0348868</v>
       </c>
     </row>
     <row r="91">
@@ -5690,16 +5690,16 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0669435</v>
+        <v>0.06700830000000001</v>
       </c>
       <c r="C91" t="n">
-        <v>0.208859</v>
+        <v>0.206317</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0342322</v>
+        <v>0.0343804</v>
       </c>
       <c r="E91" t="n">
-        <v>0.0382122</v>
+        <v>0.0382948</v>
       </c>
     </row>
     <row r="92">
@@ -5707,16 +5707,16 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0841283</v>
+        <v>0.08452460000000001</v>
       </c>
       <c r="C92" t="n">
-        <v>0.157758</v>
+        <v>0.155742</v>
       </c>
       <c r="D92" t="n">
-        <v>0.03938</v>
+        <v>0.039481</v>
       </c>
       <c r="E92" t="n">
-        <v>0.0434233</v>
+        <v>0.0437864</v>
       </c>
     </row>
     <row r="93">
@@ -5724,16 +5724,16 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.108178</v>
+        <v>0.108206</v>
       </c>
       <c r="C93" t="n">
-        <v>0.162746</v>
+        <v>0.161702</v>
       </c>
       <c r="D93" t="n">
-        <v>0.048197</v>
+        <v>0.0482386</v>
       </c>
       <c r="E93" t="n">
-        <v>0.0534129</v>
+        <v>0.053617</v>
       </c>
     </row>
     <row r="94">
@@ -5741,16 +5741,16 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.139209</v>
+        <v>0.138927</v>
       </c>
       <c r="C94" t="n">
-        <v>0.168477</v>
+        <v>0.167969</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0229879</v>
+        <v>0.0230508</v>
       </c>
       <c r="E94" t="n">
-        <v>0.0282249</v>
+        <v>0.0283338</v>
       </c>
     </row>
     <row r="95">
@@ -5758,16 +5758,16 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0208397</v>
+        <v>0.0208791</v>
       </c>
       <c r="C95" t="n">
-        <v>0.17633</v>
+        <v>0.174745</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0234516</v>
+        <v>0.0236422</v>
       </c>
       <c r="E95" t="n">
-        <v>0.029139</v>
+        <v>0.0295503</v>
       </c>
     </row>
     <row r="96">
@@ -5775,16 +5775,16 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0217789</v>
+        <v>0.022091</v>
       </c>
       <c r="C96" t="n">
-        <v>0.183525</v>
+        <v>0.181416</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0240067</v>
+        <v>0.0241968</v>
       </c>
       <c r="E96" t="n">
-        <v>0.03133</v>
+        <v>0.0313979</v>
       </c>
     </row>
     <row r="97">
@@ -5792,16 +5792,16 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0236136</v>
+        <v>0.0235838</v>
       </c>
       <c r="C97" t="n">
-        <v>0.190701</v>
+        <v>0.188823</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0245912</v>
+        <v>0.0247983</v>
       </c>
       <c r="E97" t="n">
-        <v>0.0341335</v>
+        <v>0.0343639</v>
       </c>
     </row>
     <row r="98">
@@ -5809,16 +5809,16 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0250037</v>
+        <v>0.0249851</v>
       </c>
       <c r="C98" t="n">
-        <v>0.19753</v>
+        <v>0.195753</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0253619</v>
+        <v>0.0255599</v>
       </c>
       <c r="E98" t="n">
-        <v>0.0381704</v>
+        <v>0.0384825</v>
       </c>
     </row>
     <row r="99">
@@ -5826,16 +5826,16 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0272123</v>
+        <v>0.027228</v>
       </c>
       <c r="C99" t="n">
-        <v>0.204795</v>
+        <v>0.202596</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0267537</v>
+        <v>0.0270485</v>
       </c>
       <c r="E99" t="n">
-        <v>0.0428413</v>
+        <v>0.0430986</v>
       </c>
     </row>
     <row r="100">
@@ -5843,16 +5843,16 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0306604</v>
+        <v>0.0306897</v>
       </c>
       <c r="C100" t="n">
-        <v>0.226592</v>
+        <v>0.21043</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0289872</v>
+        <v>0.0292589</v>
       </c>
       <c r="E100" t="n">
-        <v>0.0471767</v>
+        <v>0.0473051</v>
       </c>
     </row>
     <row r="101">
@@ -5860,16 +5860,16 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0359699</v>
+        <v>0.0347153</v>
       </c>
       <c r="C101" t="n">
-        <v>0.219043</v>
+        <v>0.217537</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0317781</v>
+        <v>0.0323384</v>
       </c>
       <c r="E101" t="n">
-        <v>0.0508107</v>
+        <v>0.0513097</v>
       </c>
     </row>
     <row r="102">
@@ -5877,16 +5877,16 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0400556</v>
+        <v>0.0399273</v>
       </c>
       <c r="C102" t="n">
-        <v>0.227757</v>
+        <v>0.225299</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0350402</v>
+        <v>0.0355268</v>
       </c>
       <c r="E102" t="n">
-        <v>0.0541568</v>
+        <v>0.0546139</v>
       </c>
     </row>
     <row r="103">
@@ -5894,16 +5894,16 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0464214</v>
+        <v>0.0465852</v>
       </c>
       <c r="C103" t="n">
-        <v>0.233267</v>
+        <v>0.23338</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0383243</v>
+        <v>0.0386822</v>
       </c>
       <c r="E103" t="n">
-        <v>0.0573175</v>
+        <v>0.0576913</v>
       </c>
     </row>
     <row r="104">
@@ -5911,16 +5911,16 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0543718</v>
+        <v>0.0543505</v>
       </c>
       <c r="C104" t="n">
-        <v>0.243865</v>
+        <v>0.241438</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0415289</v>
+        <v>0.0417031</v>
       </c>
       <c r="E104" t="n">
-        <v>0.0605919</v>
+        <v>0.0610285</v>
       </c>
     </row>
     <row r="105">
@@ -5928,16 +5928,16 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0654956</v>
+        <v>0.0657079</v>
       </c>
       <c r="C105" t="n">
-        <v>0.252361</v>
+        <v>0.250612</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0449303</v>
+        <v>0.0451096</v>
       </c>
       <c r="E105" t="n">
-        <v>0.06430470000000001</v>
+        <v>0.0647167</v>
       </c>
     </row>
     <row r="106">
@@ -5945,16 +5945,16 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0810722</v>
+        <v>0.0815626</v>
       </c>
       <c r="C106" t="n">
-        <v>0.261173</v>
+        <v>0.26005</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0491857</v>
+        <v>0.0493674</v>
       </c>
       <c r="E106" t="n">
-        <v>0.06932820000000001</v>
+        <v>0.0696518</v>
       </c>
     </row>
     <row r="107">
@@ -5962,16 +5962,16 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.102897</v>
+        <v>0.104094</v>
       </c>
       <c r="C107" t="n">
-        <v>0.190647</v>
+        <v>0.189985</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0555259</v>
+        <v>0.0556609</v>
       </c>
       <c r="E107" t="n">
-        <v>0.07656540000000001</v>
+        <v>0.07683959999999999</v>
       </c>
     </row>
     <row r="108">
@@ -5979,16 +5979,16 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.133253</v>
+        <v>0.134082</v>
       </c>
       <c r="C108" t="n">
-        <v>0.197526</v>
+        <v>0.196457</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0351129</v>
+        <v>0.0352346</v>
       </c>
       <c r="E108" t="n">
-        <v>0.0513709</v>
+        <v>0.051427</v>
       </c>
     </row>
     <row r="109">
@@ -5996,16 +5996,16 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.1679</v>
+        <v>0.169592</v>
       </c>
       <c r="C109" t="n">
-        <v>0.203566</v>
+        <v>0.202728</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0361988</v>
+        <v>0.0362055</v>
       </c>
       <c r="E109" t="n">
-        <v>0.0528133</v>
+        <v>0.0528373</v>
       </c>
     </row>
     <row r="110">
@@ -6013,16 +6013,16 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0312378</v>
+        <v>0.0314151</v>
       </c>
       <c r="C110" t="n">
-        <v>0.210146</v>
+        <v>0.209726</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0370074</v>
+        <v>0.0370666</v>
       </c>
       <c r="E110" t="n">
-        <v>0.0541587</v>
+        <v>0.0541618</v>
       </c>
     </row>
     <row r="111">
@@ -6030,16 +6030,16 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.032867</v>
+        <v>0.0329522</v>
       </c>
       <c r="C111" t="n">
-        <v>0.218257</v>
+        <v>0.216766</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0378667</v>
+        <v>0.038022</v>
       </c>
       <c r="E111" t="n">
-        <v>0.0555634</v>
+        <v>0.0553589</v>
       </c>
     </row>
     <row r="112">
@@ -6047,16 +6047,16 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0343439</v>
+        <v>0.0343747</v>
       </c>
       <c r="C112" t="n">
-        <v>0.224714</v>
+        <v>0.223966</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0385583</v>
+        <v>0.0387635</v>
       </c>
       <c r="E112" t="n">
-        <v>0.0569233</v>
+        <v>0.056831</v>
       </c>
     </row>
     <row r="113">
@@ -6064,16 +6064,16 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0361309</v>
+        <v>0.0362642</v>
       </c>
       <c r="C113" t="n">
-        <v>0.23258</v>
+        <v>0.231313</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0395869</v>
+        <v>0.0396283</v>
       </c>
       <c r="E113" t="n">
-        <v>0.0585293</v>
+        <v>0.0584354</v>
       </c>
     </row>
     <row r="114">
@@ -6081,16 +6081,16 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0383012</v>
+        <v>0.0380206</v>
       </c>
       <c r="C114" t="n">
-        <v>0.239218</v>
+        <v>0.23894</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0406235</v>
+        <v>0.0406345</v>
       </c>
       <c r="E114" t="n">
-        <v>0.0602617</v>
+        <v>0.0601276</v>
       </c>
     </row>
     <row r="115">
@@ -6098,16 +6098,16 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.0408352</v>
+        <v>0.0408977</v>
       </c>
       <c r="C115" t="n">
-        <v>0.24724</v>
+        <v>0.246622</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0416052</v>
+        <v>0.0417463</v>
       </c>
       <c r="E115" t="n">
-        <v>0.0619037</v>
+        <v>0.0620062</v>
       </c>
     </row>
     <row r="116">
@@ -6115,16 +6115,16 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.0439366</v>
+        <v>0.0440145</v>
       </c>
       <c r="C116" t="n">
-        <v>0.255715</v>
+        <v>0.254501</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0428433</v>
+        <v>0.0431587</v>
       </c>
       <c r="E116" t="n">
-        <v>0.0640491</v>
+        <v>0.0638941</v>
       </c>
     </row>
     <row r="117">
@@ -6132,16 +6132,16 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.0486743</v>
+        <v>0.0488379</v>
       </c>
       <c r="C117" t="n">
-        <v>0.263655</v>
+        <v>0.262881</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0445415</v>
+        <v>0.0446629</v>
       </c>
       <c r="E117" t="n">
-        <v>0.0662812</v>
+        <v>0.0662819</v>
       </c>
     </row>
     <row r="118">
@@ -6149,16 +6149,16 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.0550738</v>
+        <v>0.0553968</v>
       </c>
       <c r="C118" t="n">
-        <v>0.271989</v>
+        <v>0.27181</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0464755</v>
+        <v>0.0465721</v>
       </c>
       <c r="E118" t="n">
-        <v>0.06915499999999999</v>
+        <v>0.06927129999999999</v>
       </c>
     </row>
     <row r="119">
@@ -6166,16 +6166,16 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.0645583</v>
+        <v>0.0651385</v>
       </c>
       <c r="C119" t="n">
-        <v>0.282797</v>
+        <v>0.279961</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0489272</v>
+        <v>0.0491236</v>
       </c>
       <c r="E119" t="n">
-        <v>0.07276100000000001</v>
+        <v>0.0727946</v>
       </c>
     </row>
     <row r="120">
@@ -6183,16 +6183,16 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.0791676</v>
+        <v>0.07962229999999999</v>
       </c>
       <c r="C120" t="n">
-        <v>0.289767</v>
+        <v>0.290313</v>
       </c>
       <c r="D120" t="n">
-        <v>0.0526395</v>
+        <v>0.0528439</v>
       </c>
       <c r="E120" t="n">
-        <v>0.07756780000000001</v>
+        <v>0.0776757</v>
       </c>
     </row>
     <row r="121">
@@ -6200,16 +6200,16 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.0998057</v>
+        <v>0.100705</v>
       </c>
       <c r="C121" t="n">
-        <v>0.206007</v>
+        <v>0.206164</v>
       </c>
       <c r="D121" t="n">
-        <v>0.0583473</v>
+        <v>0.0584943</v>
       </c>
       <c r="E121" t="n">
-        <v>0.0847301</v>
+        <v>0.0848653</v>
       </c>
     </row>
     <row r="122">
@@ -6217,16 +6217,16 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.128197</v>
+        <v>0.128994</v>
       </c>
       <c r="C122" t="n">
-        <v>0.211597</v>
+        <v>0.21175</v>
       </c>
       <c r="D122" t="n">
-        <v>0.06810819999999999</v>
+        <v>0.0680414</v>
       </c>
       <c r="E122" t="n">
-        <v>0.0960261</v>
+        <v>0.09610779999999999</v>
       </c>
     </row>
     <row r="123">
@@ -6234,16 +6234,16 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.163841</v>
+        <v>0.164438</v>
       </c>
       <c r="C123" t="n">
-        <v>0.217961</v>
+        <v>0.218666</v>
       </c>
       <c r="D123" t="n">
-        <v>0.0412799</v>
+        <v>0.0406216</v>
       </c>
       <c r="E123" t="n">
-        <v>0.0604808</v>
+        <v>0.0602174</v>
       </c>
     </row>
     <row r="124">
@@ -6251,16 +6251,16 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.0345014</v>
+        <v>0.0343942</v>
       </c>
       <c r="C124" t="n">
-        <v>0.22481</v>
+        <v>0.22526</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0422281</v>
+        <v>0.0412509</v>
       </c>
       <c r="E124" t="n">
-        <v>0.0618613</v>
+        <v>0.0616185</v>
       </c>
     </row>
     <row r="125">
@@ -6268,16 +6268,16 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.035219</v>
+        <v>0.0353823</v>
       </c>
       <c r="C125" t="n">
-        <v>0.231511</v>
+        <v>0.232519</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0429276</v>
+        <v>0.042888</v>
       </c>
       <c r="E125" t="n">
-        <v>0.0635545</v>
+        <v>0.0631307</v>
       </c>
     </row>
     <row r="126">
@@ -6285,16 +6285,16 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.0366214</v>
+        <v>0.0367656</v>
       </c>
       <c r="C126" t="n">
-        <v>0.23876</v>
+        <v>0.239873</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0439297</v>
+        <v>0.0437232</v>
       </c>
       <c r="E126" t="n">
-        <v>0.0648304</v>
+        <v>0.0647192</v>
       </c>
     </row>
     <row r="127">
@@ -6302,16 +6302,16 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.0384021</v>
+        <v>0.0388096</v>
       </c>
       <c r="C127" t="n">
-        <v>0.246015</v>
+        <v>0.247261</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0447307</v>
+        <v>0.0445673</v>
       </c>
       <c r="E127" t="n">
-        <v>0.06670520000000001</v>
+        <v>0.0663181</v>
       </c>
     </row>
     <row r="128">
@@ -6319,16 +6319,16 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0405117</v>
+        <v>0.040882</v>
       </c>
       <c r="C128" t="n">
-        <v>0.253902</v>
+        <v>0.254478</v>
       </c>
       <c r="D128" t="n">
-        <v>0.0457736</v>
+        <v>0.0455283</v>
       </c>
       <c r="E128" t="n">
-        <v>0.0683797</v>
+        <v>0.0681745</v>
       </c>
     </row>
     <row r="129">
@@ -6336,16 +6336,16 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0431668</v>
+        <v>0.0435764</v>
       </c>
       <c r="C129" t="n">
-        <v>0.261754</v>
+        <v>0.262115</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0468762</v>
+        <v>0.0467573</v>
       </c>
       <c r="E129" t="n">
-        <v>0.0702016</v>
+        <v>0.06995659999999999</v>
       </c>
     </row>
     <row r="130">
@@ -6353,16 +6353,16 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0465002</v>
+        <v>0.0467557</v>
       </c>
       <c r="C130" t="n">
-        <v>0.269215</v>
+        <v>0.270622</v>
       </c>
       <c r="D130" t="n">
-        <v>0.0480061</v>
+        <v>0.0479864</v>
       </c>
       <c r="E130" t="n">
-        <v>0.0724499</v>
+        <v>0.0721054</v>
       </c>
     </row>
     <row r="131">
@@ -6370,16 +6370,16 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0510499</v>
+        <v>0.0514441</v>
       </c>
       <c r="C131" t="n">
-        <v>0.276809</v>
+        <v>0.278958</v>
       </c>
       <c r="D131" t="n">
-        <v>0.0495994</v>
+        <v>0.0495246</v>
       </c>
       <c r="E131" t="n">
-        <v>0.07498920000000001</v>
+        <v>0.0746444</v>
       </c>
     </row>
     <row r="132">
@@ -6387,16 +6387,16 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0587435</v>
+        <v>0.0591311</v>
       </c>
       <c r="C132" t="n">
-        <v>0.285243</v>
+        <v>0.287043</v>
       </c>
       <c r="D132" t="n">
-        <v>0.0516555</v>
+        <v>0.0515231</v>
       </c>
       <c r="E132" t="n">
-        <v>0.0779345</v>
+        <v>0.0777052</v>
       </c>
     </row>
     <row r="133">
@@ -6404,16 +6404,16 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.0679357</v>
+        <v>0.0690043</v>
       </c>
       <c r="C133" t="n">
-        <v>0.294416</v>
+        <v>0.295832</v>
       </c>
       <c r="D133" t="n">
-        <v>0.0541823</v>
+        <v>0.0540231</v>
       </c>
       <c r="E133" t="n">
-        <v>0.081499</v>
+        <v>0.08135680000000001</v>
       </c>
     </row>
     <row r="134">
@@ -6421,16 +6421,16 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.0816269</v>
+        <v>0.08254549999999999</v>
       </c>
       <c r="C134" t="n">
-        <v>0.303237</v>
+        <v>0.304775</v>
       </c>
       <c r="D134" t="n">
-        <v>0.0578916</v>
+        <v>0.0577243</v>
       </c>
       <c r="E134" t="n">
-        <v>0.0866347</v>
+        <v>0.0864135</v>
       </c>
     </row>
     <row r="135">
@@ -6438,16 +6438,16 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.101812</v>
+        <v>0.102885</v>
       </c>
       <c r="C135" t="n">
-        <v>0.212509</v>
+        <v>0.214149</v>
       </c>
       <c r="D135" t="n">
-        <v>0.0634131</v>
+        <v>0.0633928</v>
       </c>
       <c r="E135" t="n">
-        <v>0.09380090000000001</v>
+        <v>0.0936081</v>
       </c>
     </row>
     <row r="136">
@@ -6455,16 +6455,16 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.129487</v>
+        <v>0.131319</v>
       </c>
       <c r="C136" t="n">
-        <v>0.21893</v>
+        <v>0.219656</v>
       </c>
       <c r="D136" t="n">
-        <v>0.07260369999999999</v>
+        <v>0.07259160000000001</v>
       </c>
       <c r="E136" t="n">
-        <v>0.105376</v>
+        <v>0.104653</v>
       </c>
     </row>
     <row r="137">
@@ -6472,16 +6472,16 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.164993</v>
+        <v>0.165639</v>
       </c>
       <c r="C137" t="n">
-        <v>0.225118</v>
+        <v>0.226722</v>
       </c>
       <c r="D137" t="n">
-        <v>0.0591479</v>
+        <v>0.0590915</v>
       </c>
       <c r="E137" t="n">
-        <v>0.0789271</v>
+        <v>0.0788959</v>
       </c>
     </row>
     <row r="138">
@@ -6489,16 +6489,16 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0468838</v>
+        <v>0.0475872</v>
       </c>
       <c r="C138" t="n">
-        <v>0.232231</v>
+        <v>0.23334</v>
       </c>
       <c r="D138" t="n">
-        <v>0.0608915</v>
+        <v>0.059582</v>
       </c>
       <c r="E138" t="n">
-        <v>0.0802612</v>
+        <v>0.080217</v>
       </c>
     </row>
     <row r="139">
@@ -6506,16 +6506,16 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0484521</v>
+        <v>0.0482213</v>
       </c>
       <c r="C139" t="n">
-        <v>0.239705</v>
+        <v>0.240858</v>
       </c>
       <c r="D139" t="n">
-        <v>0.0603453</v>
+        <v>0.0603003</v>
       </c>
       <c r="E139" t="n">
-        <v>0.08157540000000001</v>
+        <v>0.0813024</v>
       </c>
     </row>
     <row r="140">
@@ -6523,16 +6523,16 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.0493311</v>
+        <v>0.0493912</v>
       </c>
       <c r="C140" t="n">
-        <v>0.247032</v>
+        <v>0.24798</v>
       </c>
       <c r="D140" t="n">
-        <v>0.0608767</v>
+        <v>0.0610572</v>
       </c>
       <c r="E140" t="n">
-        <v>0.0829015</v>
+        <v>0.0827228</v>
       </c>
     </row>
     <row r="141">
@@ -6540,16 +6540,16 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0507617</v>
+        <v>0.0511004</v>
       </c>
       <c r="C141" t="n">
-        <v>0.255056</v>
+        <v>0.256153</v>
       </c>
       <c r="D141" t="n">
-        <v>0.0620272</v>
+        <v>0.06260689999999999</v>
       </c>
       <c r="E141" t="n">
-        <v>0.0845514</v>
+        <v>0.0841578</v>
       </c>
     </row>
     <row r="142">
@@ -6557,16 +6557,16 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.0532957</v>
+        <v>0.0532397</v>
       </c>
       <c r="C142" t="n">
-        <v>0.262733</v>
+        <v>0.263718</v>
       </c>
       <c r="D142" t="n">
-        <v>0.0625593</v>
+        <v>0.06262239999999999</v>
       </c>
       <c r="E142" t="n">
-        <v>0.08594209999999999</v>
+        <v>0.0857908</v>
       </c>
     </row>
     <row r="143">
@@ -6574,16 +6574,16 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.0554191</v>
+        <v>0.0559383</v>
       </c>
       <c r="C143" t="n">
-        <v>0.271863</v>
+        <v>0.271343</v>
       </c>
       <c r="D143" t="n">
-        <v>0.0640025</v>
+        <v>0.0638976</v>
       </c>
       <c r="E143" t="n">
-        <v>0.0877042</v>
+        <v>0.0874161</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered unsuccessful looukp.xlsx
+++ b/clang-arm64/Scattered unsuccessful looukp.xlsx
@@ -4139,7 +4139,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E143"/>
+  <dimension ref="A1:F143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I27" sqref="I27"/>
@@ -4177,16 +4177,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0171852</v>
+        <v>0.0201731</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0744186</v>
+        <v>0.0194065</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0211819</v>
+        <v>0.0719905</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0213345</v>
+        <v>0.0216009</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0213731</v>
       </c>
     </row>
     <row r="3">
@@ -4194,16 +4197,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.020033</v>
+        <v>0.0223373</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0768645</v>
+        <v>0.0224007</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0215865</v>
+        <v>0.0729974</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0218802</v>
+        <v>0.0221084</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0219128</v>
       </c>
     </row>
     <row r="4">
@@ -4211,16 +4217,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0234972</v>
+        <v>0.0283973</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07417269999999999</v>
+        <v>0.0288135</v>
       </c>
       <c r="D4" t="n">
-        <v>0.022596</v>
+        <v>0.082431</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0227415</v>
+        <v>0.0230466</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0229614</v>
       </c>
     </row>
     <row r="5">
@@ -4228,16 +4237,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0334114</v>
+        <v>0.0359745</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07515529999999999</v>
+        <v>0.0338387</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0233857</v>
+        <v>0.0738939</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0238167</v>
+        <v>0.0244666</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0237155</v>
       </c>
     </row>
     <row r="6">
@@ -4245,16 +4257,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0467826</v>
+        <v>0.0468578</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0870998</v>
+        <v>0.0464436</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0254143</v>
+        <v>0.0825699</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0257115</v>
+        <v>0.0265716</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.025576</v>
       </c>
     </row>
     <row r="7">
@@ -4262,16 +4277,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0725697</v>
+        <v>0.0662001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0584436</v>
+        <v>0.0656384</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0303169</v>
+        <v>0.0649699</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0301773</v>
+        <v>0.0306845</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.029993</v>
       </c>
     </row>
     <row r="8">
@@ -4279,16 +4297,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.09528929999999999</v>
+        <v>0.0874499</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0611253</v>
+        <v>0.0870889</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0384429</v>
+        <v>0.0601928</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0385708</v>
+        <v>0.0377971</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.0372132</v>
       </c>
     </row>
     <row r="9">
@@ -4296,16 +4317,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.109813</v>
+        <v>0.118178</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06386790000000001</v>
+        <v>0.116853</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0190234</v>
+        <v>0.0616023</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0191002</v>
+        <v>0.0191766</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.0191559</v>
       </c>
     </row>
     <row r="10">
@@ -4313,16 +4337,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.016625</v>
+        <v>0.0163823</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0677649</v>
+        <v>0.016173</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0192323</v>
+        <v>0.0644928</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0193512</v>
+        <v>0.0193893</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0193448</v>
       </c>
     </row>
     <row r="11">
@@ -4330,16 +4357,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0170132</v>
+        <v>0.0169442</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07088</v>
+        <v>0.0167609</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0196936</v>
+        <v>0.07119880000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0195933</v>
+        <v>0.0197043</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.0196525</v>
       </c>
     </row>
     <row r="12">
@@ -4347,16 +4377,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0173289</v>
+        <v>0.0173203</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0746926</v>
+        <v>0.0172318</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0198674</v>
+        <v>0.07261140000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>0.01997</v>
+        <v>0.0200607</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.0200966</v>
       </c>
     </row>
     <row r="13">
@@ -4364,16 +4397,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0177845</v>
+        <v>0.0179112</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0791601</v>
+        <v>0.0179025</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0201633</v>
+        <v>0.07676910000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0202698</v>
+        <v>0.0204068</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.0202894</v>
       </c>
     </row>
     <row r="14">
@@ -4381,16 +4417,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0186011</v>
+        <v>0.0186739</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0828644</v>
+        <v>0.0189746</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0205677</v>
+        <v>0.0821347</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0205716</v>
+        <v>0.0206994</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.0206235</v>
       </c>
     </row>
     <row r="15">
@@ -4398,16 +4437,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.019684</v>
+        <v>0.0206062</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0831283</v>
+        <v>0.019983</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0209727</v>
+        <v>0.0866618</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0211233</v>
+        <v>0.0212233</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.0211043</v>
       </c>
     </row>
     <row r="16">
@@ -4415,16 +4457,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0218181</v>
+        <v>0.0231143</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0863915</v>
+        <v>0.0223099</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0216021</v>
+        <v>0.08824650000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0217858</v>
+        <v>0.0219078</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.0218162</v>
       </c>
     </row>
     <row r="17">
@@ -4432,16 +4477,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0245483</v>
+        <v>0.0271457</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0888929</v>
+        <v>0.0264348</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0224931</v>
+        <v>0.0907429</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0225849</v>
+        <v>0.0227165</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.0225323</v>
       </c>
     </row>
     <row r="18">
@@ -4449,16 +4497,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0313882</v>
+        <v>0.0334194</v>
       </c>
       <c r="C18" t="n">
-        <v>0.091433</v>
+        <v>0.0312478</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0233984</v>
+        <v>0.09464789999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0233735</v>
+        <v>0.0235386</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.023233</v>
       </c>
     </row>
     <row r="19">
@@ -4466,16 +4517,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0407747</v>
+        <v>0.0418801</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0962518</v>
+        <v>0.0404906</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0245184</v>
+        <v>0.0952583</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0245651</v>
+        <v>0.0248559</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.0243677</v>
       </c>
     </row>
     <row r="20">
@@ -4483,16 +4537,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0528165</v>
+        <v>0.0544232</v>
       </c>
       <c r="C20" t="n">
-        <v>0.095453</v>
+        <v>0.0537627</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0272001</v>
+        <v>0.0964115</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0272455</v>
+        <v>0.0272925</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.0267946</v>
       </c>
     </row>
     <row r="21">
@@ -4500,16 +4557,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.072601</v>
+        <v>0.06979779999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0649217</v>
+        <v>0.0690885</v>
       </c>
       <c r="D21" t="n">
-        <v>0.031494</v>
+        <v>0.0694861</v>
       </c>
       <c r="E21" t="n">
-        <v>0.031621</v>
+        <v>0.0311581</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.0309274</v>
       </c>
     </row>
     <row r="22">
@@ -4517,16 +4577,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0937964</v>
+        <v>0.0938215</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0693392</v>
+        <v>0.0933016</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0409628</v>
+        <v>0.07024809999999999</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0412277</v>
+        <v>0.039445</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.0396682</v>
       </c>
     </row>
     <row r="23">
@@ -4534,16 +4597,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.120215</v>
+        <v>0.121481</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0727245</v>
+        <v>0.118794</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0187908</v>
+        <v>0.0724142</v>
       </c>
       <c r="E23" t="n">
-        <v>0.018825</v>
+        <v>0.0189417</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.0188515</v>
       </c>
     </row>
     <row r="24">
@@ -4551,16 +4617,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0164388</v>
+        <v>0.0166604</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0746931</v>
+        <v>0.0162717</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0190536</v>
+        <v>0.07515040000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0190883</v>
+        <v>0.0192166</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.0191092</v>
       </c>
     </row>
     <row r="25">
@@ -4568,16 +4637,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0169085</v>
+        <v>0.0171542</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0792807</v>
+        <v>0.0168356</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0193153</v>
+        <v>0.07962320000000001</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0193252</v>
+        <v>0.0194402</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.0193229</v>
       </c>
     </row>
     <row r="26">
@@ -4585,16 +4657,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0176731</v>
+        <v>0.0177934</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0821897</v>
+        <v>0.017468</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0195841</v>
+        <v>0.0832406</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0195804</v>
+        <v>0.01967</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.0195956</v>
       </c>
     </row>
     <row r="27">
@@ -4602,16 +4677,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0184767</v>
+        <v>0.0184952</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0857537</v>
+        <v>0.0182377</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0198764</v>
+        <v>0.0852619</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0199921</v>
+        <v>0.0200648</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.0199672</v>
       </c>
     </row>
     <row r="28">
@@ -4619,16 +4697,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0198949</v>
+        <v>0.0201196</v>
       </c>
       <c r="C28" t="n">
-        <v>0.08903610000000001</v>
+        <v>0.0194683</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0202998</v>
+        <v>0.0896028</v>
       </c>
       <c r="E28" t="n">
-        <v>0.020351</v>
+        <v>0.0205084</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.0203555</v>
       </c>
     </row>
     <row r="29">
@@ -4636,16 +4717,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0218638</v>
+        <v>0.0218972</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0918535</v>
+        <v>0.0212317</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0209616</v>
+        <v>0.09148480000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0209953</v>
+        <v>0.0211482</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.0210076</v>
       </c>
     </row>
     <row r="30">
@@ -4653,16 +4737,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0244505</v>
+        <v>0.0251077</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0940365</v>
+        <v>0.0242552</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0215291</v>
+        <v>0.0939405</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0216106</v>
+        <v>0.0217413</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.0216355</v>
       </c>
     </row>
     <row r="31">
@@ -4670,16 +4757,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0290116</v>
+        <v>0.0292352</v>
       </c>
       <c r="C31" t="n">
-        <v>0.097202</v>
+        <v>0.0284577</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0223627</v>
+        <v>0.0965188</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0224246</v>
+        <v>0.0226275</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.0223774</v>
       </c>
     </row>
     <row r="32">
@@ -4687,16 +4777,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0357297</v>
+        <v>0.0347619</v>
       </c>
       <c r="C32" t="n">
-        <v>0.09643409999999999</v>
+        <v>0.0343277</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0233976</v>
+        <v>0.09831380000000001</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0234454</v>
+        <v>0.023562</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.0233702</v>
       </c>
     </row>
     <row r="33">
@@ -4704,16 +4797,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0442973</v>
+        <v>0.0435356</v>
       </c>
       <c r="C33" t="n">
-        <v>0.09922980000000001</v>
+        <v>0.0428176</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0248475</v>
+        <v>0.100199</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0248845</v>
+        <v>0.0249451</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.0247201</v>
       </c>
     </row>
     <row r="34">
@@ -4721,16 +4817,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.056851</v>
+        <v>0.0537204</v>
       </c>
       <c r="C34" t="n">
-        <v>0.101272</v>
+        <v>0.0534805</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0274756</v>
+        <v>0.102902</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0276358</v>
+        <v>0.0273574</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.0272634</v>
       </c>
     </row>
     <row r="35">
@@ -4738,16 +4837,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0729562</v>
+        <v>0.0688154</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0696194</v>
+        <v>0.0688173</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0317889</v>
+        <v>0.0698054</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0318699</v>
+        <v>0.0311211</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.0312534</v>
       </c>
     </row>
     <row r="36">
@@ -4755,16 +4857,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0948748</v>
+        <v>0.09015720000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0728569</v>
+        <v>0.0907517</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0392125</v>
+        <v>0.0726036</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0394617</v>
+        <v>0.0379297</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.0380069</v>
       </c>
     </row>
     <row r="37">
@@ -4772,16 +4877,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.122201</v>
+        <v>0.116026</v>
       </c>
       <c r="C37" t="n">
-        <v>0.07499210000000001</v>
+        <v>0.117543</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0194128</v>
+        <v>0.0757068</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0194713</v>
+        <v>0.0194402</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.0194619</v>
       </c>
     </row>
     <row r="38">
@@ -4789,16 +4897,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0171549</v>
+        <v>0.0170183</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0783997</v>
+        <v>0.0168393</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0197292</v>
+        <v>0.0793538</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0197855</v>
+        <v>0.0197588</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.0197841</v>
       </c>
     </row>
     <row r="39">
@@ -4806,16 +4917,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0178809</v>
+        <v>0.0178123</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0822191</v>
+        <v>0.0175714</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0200005</v>
+        <v>0.083243</v>
       </c>
       <c r="E39" t="n">
-        <v>0.020142</v>
+        <v>0.020083</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.0201213</v>
       </c>
     </row>
     <row r="40">
@@ -4823,16 +4937,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0188118</v>
+        <v>0.01864</v>
       </c>
       <c r="C40" t="n">
-        <v>0.08549</v>
+        <v>0.0184474</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0202935</v>
+        <v>0.08550199999999999</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0204368</v>
+        <v>0.0204271</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.0204515</v>
       </c>
     </row>
     <row r="41">
@@ -4840,16 +4957,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0200431</v>
+        <v>0.0197201</v>
       </c>
       <c r="C41" t="n">
-        <v>0.08853320000000001</v>
+        <v>0.0198324</v>
       </c>
       <c r="D41" t="n">
-        <v>0.02066</v>
+        <v>0.08859019999999999</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0208058</v>
+        <v>0.020797</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.0207924</v>
       </c>
     </row>
     <row r="42">
@@ -4857,16 +4977,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0218223</v>
+        <v>0.0215528</v>
       </c>
       <c r="C42" t="n">
-        <v>0.09153790000000001</v>
+        <v>0.021464</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0210828</v>
+        <v>0.09167649999999999</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0212898</v>
+        <v>0.0212094</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.021191</v>
       </c>
     </row>
     <row r="43">
@@ -4874,16 +4997,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0241742</v>
+        <v>0.0238953</v>
       </c>
       <c r="C43" t="n">
-        <v>0.09546350000000001</v>
+        <v>0.0237258</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0217097</v>
+        <v>0.0949025</v>
       </c>
       <c r="E43" t="n">
-        <v>0.021862</v>
+        <v>0.0218012</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.0218251</v>
       </c>
     </row>
     <row r="44">
@@ -4891,16 +5017,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0278433</v>
+        <v>0.0270839</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0968111</v>
+        <v>0.0270856</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0224264</v>
+        <v>0.0970295</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0226133</v>
+        <v>0.0225426</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.0226156</v>
       </c>
     </row>
     <row r="45">
@@ -4908,16 +5037,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0320285</v>
+        <v>0.0315753</v>
       </c>
       <c r="C45" t="n">
-        <v>0.09956139999999999</v>
+        <v>0.0315007</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0233263</v>
+        <v>0.100157</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0235509</v>
+        <v>0.0233782</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.0234105</v>
       </c>
     </row>
     <row r="46">
@@ -4925,16 +5057,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0384291</v>
+        <v>0.0372642</v>
       </c>
       <c r="C46" t="n">
-        <v>0.101966</v>
+        <v>0.0372003</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0246182</v>
+        <v>0.102332</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0248182</v>
+        <v>0.0246526</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.0246226</v>
       </c>
     </row>
     <row r="47">
@@ -4942,16 +5077,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0462459</v>
+        <v>0.0449549</v>
       </c>
       <c r="C47" t="n">
-        <v>0.103854</v>
+        <v>0.0443335</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0262007</v>
+        <v>0.104522</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0263755</v>
+        <v>0.0261541</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.0262507</v>
       </c>
     </row>
     <row r="48">
@@ -4959,16 +5097,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0574003</v>
+        <v>0.0551349</v>
       </c>
       <c r="C48" t="n">
-        <v>0.106694</v>
+        <v>0.0545841</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0289761</v>
+        <v>0.105831</v>
       </c>
       <c r="E48" t="n">
-        <v>0.029164</v>
+        <v>0.0288267</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.0288559</v>
       </c>
     </row>
     <row r="49">
@@ -4976,16 +5117,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.07115009999999999</v>
+        <v>0.06987989999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>0.108324</v>
+        <v>0.06922639999999999</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0328092</v>
+        <v>0.108825</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0329328</v>
+        <v>0.0324146</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.0324919</v>
       </c>
     </row>
     <row r="50">
@@ -4993,16 +5137,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0931482</v>
+        <v>0.09050619999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0756893</v>
+        <v>0.0899831</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0389666</v>
+        <v>0.0755461</v>
       </c>
       <c r="E50" t="n">
-        <v>0.039117</v>
+        <v>0.0383102</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.0384891</v>
       </c>
     </row>
     <row r="51">
@@ -5010,16 +5157,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.120155</v>
+        <v>0.116517</v>
       </c>
       <c r="C51" t="n">
-        <v>0.07893409999999999</v>
+        <v>0.117779</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0204094</v>
+        <v>0.078995</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0204779</v>
+        <v>0.0205245</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.0204688</v>
       </c>
     </row>
     <row r="52">
@@ -5027,16 +5177,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.143576</v>
+        <v>0.142867</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0827513</v>
+        <v>0.142876</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0206899</v>
+        <v>0.0825134</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0207876</v>
+        <v>0.0207576</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.0207663</v>
       </c>
     </row>
     <row r="53">
@@ -5044,16 +5197,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0190405</v>
+        <v>0.0189245</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0859528</v>
+        <v>0.0191296</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0210127</v>
+        <v>0.0867947</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0210598</v>
+        <v>0.0210818</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.0210612</v>
       </c>
     </row>
     <row r="54">
@@ -5061,16 +5217,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0200938</v>
+        <v>0.0202459</v>
       </c>
       <c r="C54" t="n">
-        <v>0.09036470000000001</v>
+        <v>0.0201955</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0212915</v>
+        <v>0.0901161</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0214545</v>
+        <v>0.0214063</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.0213982</v>
       </c>
     </row>
     <row r="55">
@@ -5078,16 +5237,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.021693</v>
+        <v>0.0217405</v>
       </c>
       <c r="C55" t="n">
-        <v>0.09277630000000001</v>
+        <v>0.0216483</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0217203</v>
+        <v>0.09300659999999999</v>
       </c>
       <c r="E55" t="n">
-        <v>0.021863</v>
+        <v>0.0217707</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.0217859</v>
       </c>
     </row>
     <row r="56">
@@ -5095,16 +5257,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0234208</v>
+        <v>0.0238386</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0961547</v>
+        <v>0.023403</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0221906</v>
+        <v>0.0971045</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0223078</v>
+        <v>0.0222808</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.0222653</v>
       </c>
     </row>
     <row r="57">
@@ -5112,16 +5277,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0260325</v>
+        <v>0.0263284</v>
       </c>
       <c r="C57" t="n">
-        <v>0.09976690000000001</v>
+        <v>0.026064</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0227112</v>
+        <v>0.10016</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0228714</v>
+        <v>0.0227865</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.0228454</v>
       </c>
     </row>
     <row r="58">
@@ -5129,16 +5297,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0293022</v>
+        <v>0.0295381</v>
       </c>
       <c r="C58" t="n">
-        <v>0.102591</v>
+        <v>0.0294373</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0233949</v>
+        <v>0.102369</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0235032</v>
+        <v>0.0234609</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.0235124</v>
       </c>
     </row>
     <row r="59">
@@ -5146,16 +5317,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0336441</v>
+        <v>0.0336662</v>
       </c>
       <c r="C59" t="n">
-        <v>0.104854</v>
+        <v>0.0339117</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0243238</v>
+        <v>0.105472</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0244709</v>
+        <v>0.0243803</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.0243594</v>
       </c>
     </row>
     <row r="60">
@@ -5163,16 +5337,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.039139</v>
+        <v>0.0393238</v>
       </c>
       <c r="C60" t="n">
-        <v>0.107499</v>
+        <v>0.0393543</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0256775</v>
+        <v>0.108186</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0257992</v>
+        <v>0.0256999</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.0256987</v>
       </c>
     </row>
     <row r="61">
@@ -5180,16 +5357,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.046517</v>
+        <v>0.0464554</v>
       </c>
       <c r="C61" t="n">
-        <v>0.111123</v>
+        <v>0.0465728</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0275108</v>
+        <v>0.110002</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0276279</v>
+        <v>0.0274345</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.0274883</v>
       </c>
     </row>
     <row r="62">
@@ -5197,16 +5377,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0561217</v>
+        <v>0.0563056</v>
       </c>
       <c r="C62" t="n">
-        <v>0.111975</v>
+        <v>0.056655</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0301741</v>
+        <v>0.112754</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0303352</v>
+        <v>0.0299708</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.0300593</v>
       </c>
     </row>
     <row r="63">
@@ -5214,16 +5397,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0704925</v>
+        <v>0.0704912</v>
       </c>
       <c r="C63" t="n">
-        <v>0.115986</v>
+        <v>0.0699357</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0341845</v>
+        <v>0.115747</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0343718</v>
+        <v>0.0339134</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.0340648</v>
       </c>
     </row>
     <row r="64">
@@ -5231,16 +5417,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0897912</v>
+        <v>0.090473</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0815061</v>
+        <v>0.0901044</v>
       </c>
       <c r="D64" t="n">
-        <v>0.040487</v>
+        <v>0.0811159</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0406366</v>
+        <v>0.0399682</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.0401741</v>
       </c>
     </row>
     <row r="65">
@@ -5248,16 +5437,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.116721</v>
+        <v>0.116153</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0852998</v>
+        <v>0.117115</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0515562</v>
+        <v>0.08591849999999999</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0518366</v>
+        <v>0.0509853</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.0512194</v>
       </c>
     </row>
     <row r="66">
@@ -5265,16 +5457,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.147421</v>
+        <v>0.148156</v>
       </c>
       <c r="C66" t="n">
-        <v>0.08988</v>
+        <v>0.147525</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0209795</v>
+        <v>0.0904712</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0210752</v>
+        <v>0.0210663</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.0210961</v>
       </c>
     </row>
     <row r="67">
@@ -5282,16 +5477,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0197937</v>
+        <v>0.0199809</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0949045</v>
+        <v>0.0200422</v>
       </c>
       <c r="D67" t="n">
-        <v>0.021361</v>
+        <v>0.094886</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0214063</v>
+        <v>0.0214128</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.0213836</v>
       </c>
     </row>
     <row r="68">
@@ -5299,16 +5497,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0209823</v>
+        <v>0.0212024</v>
       </c>
       <c r="C68" t="n">
-        <v>0.100513</v>
+        <v>0.0210888</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0216573</v>
+        <v>0.0995163</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0217439</v>
+        <v>0.0217044</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.0217762</v>
       </c>
     </row>
     <row r="69">
@@ -5316,16 +5517,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0226505</v>
+        <v>0.0226467</v>
       </c>
       <c r="C69" t="n">
-        <v>0.104696</v>
+        <v>0.0229847</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0220183</v>
+        <v>0.10423</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0221286</v>
+        <v>0.0220793</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.0220643</v>
       </c>
     </row>
     <row r="70">
@@ -5333,16 +5537,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0245514</v>
+        <v>0.0247555</v>
       </c>
       <c r="C70" t="n">
-        <v>0.110914</v>
+        <v>0.0248889</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0224987</v>
+        <v>0.108446</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0226355</v>
+        <v>0.0225101</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.0226375</v>
       </c>
     </row>
     <row r="71">
@@ -5350,16 +5557,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.027241</v>
+        <v>0.0272389</v>
       </c>
       <c r="C71" t="n">
-        <v>0.11414</v>
+        <v>0.0271453</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0230726</v>
+        <v>0.115564</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0231393</v>
+        <v>0.0230847</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.0232502</v>
       </c>
     </row>
     <row r="72">
@@ -5367,16 +5577,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.030362</v>
+        <v>0.0304965</v>
       </c>
       <c r="C72" t="n">
-        <v>0.120795</v>
+        <v>0.0304582</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0238058</v>
+        <v>0.120256</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0239599</v>
+        <v>0.0238389</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.0239062</v>
       </c>
     </row>
     <row r="73">
@@ -5384,16 +5597,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0342544</v>
+        <v>0.034774</v>
       </c>
       <c r="C73" t="n">
-        <v>0.125242</v>
+        <v>0.0344984</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0247106</v>
+        <v>0.124687</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0249456</v>
+        <v>0.0247061</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.0248356</v>
       </c>
     </row>
     <row r="74">
@@ -5401,16 +5617,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.03957</v>
+        <v>0.0399272</v>
       </c>
       <c r="C74" t="n">
-        <v>0.130703</v>
+        <v>0.0397809</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0259615</v>
+        <v>0.130917</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0261385</v>
+        <v>0.0259229</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.026065</v>
       </c>
     </row>
     <row r="75">
@@ -5418,16 +5637,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0463634</v>
+        <v>0.0466726</v>
       </c>
       <c r="C75" t="n">
-        <v>0.134763</v>
+        <v>0.0470601</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0276406</v>
+        <v>0.135851</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0281123</v>
+        <v>0.027636</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.0279232</v>
       </c>
     </row>
     <row r="76">
@@ -5435,16 +5657,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0559217</v>
+        <v>0.0562112</v>
       </c>
       <c r="C76" t="n">
-        <v>0.141971</v>
+        <v>0.0565718</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0302123</v>
+        <v>0.141198</v>
       </c>
       <c r="E76" t="n">
-        <v>0.030428</v>
+        <v>0.0300556</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.0305011</v>
       </c>
     </row>
     <row r="77">
@@ -5452,16 +5677,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0686967</v>
+        <v>0.0692453</v>
       </c>
       <c r="C77" t="n">
-        <v>0.147898</v>
+        <v>0.06901500000000001</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0340698</v>
+        <v>0.147703</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0342205</v>
+        <v>0.033803</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.0343393</v>
       </c>
     </row>
     <row r="78">
@@ -5469,16 +5697,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.08667130000000001</v>
+        <v>0.08731709999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>0.112198</v>
+        <v>0.087157</v>
       </c>
       <c r="D78" t="n">
-        <v>0.039615</v>
+        <v>0.111012</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0399239</v>
+        <v>0.0394898</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.0399486</v>
       </c>
     </row>
     <row r="79">
@@ -5486,16 +5717,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.112582</v>
+        <v>0.112012</v>
       </c>
       <c r="C79" t="n">
-        <v>0.118598</v>
+        <v>0.112264</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0495381</v>
+        <v>0.120113</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0497512</v>
+        <v>0.0492793</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.0496558</v>
       </c>
     </row>
     <row r="80">
@@ -5503,16 +5737,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.144324</v>
+        <v>0.143596</v>
       </c>
       <c r="C80" t="n">
-        <v>0.125722</v>
+        <v>0.144133</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0211746</v>
+        <v>0.124171</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0214852</v>
+        <v>0.0212983</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.0218532</v>
       </c>
     </row>
     <row r="81">
@@ -5520,16 +5757,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0199936</v>
+        <v>0.0198969</v>
       </c>
       <c r="C81" t="n">
-        <v>0.132221</v>
+        <v>0.0200835</v>
       </c>
       <c r="D81" t="n">
-        <v>0.021519</v>
+        <v>0.131036</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0221437</v>
+        <v>0.0216173</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.0222095</v>
       </c>
     </row>
     <row r="82">
@@ -5537,16 +5777,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0213138</v>
+        <v>0.0211685</v>
       </c>
       <c r="C82" t="n">
-        <v>0.139861</v>
+        <v>0.0214419</v>
       </c>
       <c r="D82" t="n">
-        <v>0.021935</v>
+        <v>0.138476</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0227388</v>
+        <v>0.0220136</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.0228944</v>
       </c>
     </row>
     <row r="83">
@@ -5554,16 +5797,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0229091</v>
+        <v>0.0228963</v>
       </c>
       <c r="C83" t="n">
-        <v>0.147213</v>
+        <v>0.0229504</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0223917</v>
+        <v>0.145921</v>
       </c>
       <c r="E83" t="n">
-        <v>0.023453</v>
+        <v>0.0224719</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.0236355</v>
       </c>
     </row>
     <row r="84">
@@ -5571,16 +5817,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0247114</v>
+        <v>0.0246315</v>
       </c>
       <c r="C84" t="n">
-        <v>0.156112</v>
+        <v>0.0250695</v>
       </c>
       <c r="D84" t="n">
-        <v>0.022851</v>
+        <v>0.154954</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0243526</v>
+        <v>0.0229306</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.0243062</v>
       </c>
     </row>
     <row r="85">
@@ -5588,16 +5837,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0271269</v>
+        <v>0.0270319</v>
       </c>
       <c r="C85" t="n">
-        <v>0.164543</v>
+        <v>0.0273812</v>
       </c>
       <c r="D85" t="n">
-        <v>0.023547</v>
+        <v>0.163989</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0255805</v>
+        <v>0.0235925</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.0253495</v>
       </c>
     </row>
     <row r="86">
@@ -5605,16 +5857,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0303163</v>
+        <v>0.0301633</v>
       </c>
       <c r="C86" t="n">
-        <v>0.171796</v>
+        <v>0.0308585</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0243914</v>
+        <v>0.168326</v>
       </c>
       <c r="E86" t="n">
-        <v>0.0268713</v>
+        <v>0.0244368</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.0267319</v>
       </c>
     </row>
     <row r="87">
@@ -5622,16 +5877,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0339606</v>
+        <v>0.0343003</v>
       </c>
       <c r="C87" t="n">
-        <v>0.175967</v>
+        <v>0.0344507</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0253735</v>
+        <v>0.177149</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0284375</v>
+        <v>0.0254208</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.0282859</v>
       </c>
     </row>
     <row r="88">
@@ -5639,16 +5897,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0390652</v>
+        <v>0.0392099</v>
       </c>
       <c r="C88" t="n">
-        <v>0.18267</v>
+        <v>0.0394985</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0268078</v>
+        <v>0.182049</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0301568</v>
+        <v>0.0267328</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.0299437</v>
       </c>
     </row>
     <row r="89">
@@ -5656,16 +5917,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0455234</v>
+        <v>0.0461135</v>
       </c>
       <c r="C89" t="n">
-        <v>0.191966</v>
+        <v>0.0460324</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0284918</v>
+        <v>0.18983</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0321648</v>
+        <v>0.0283669</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.0317743</v>
       </c>
     </row>
     <row r="90">
@@ -5673,16 +5937,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.054498</v>
+        <v>0.0547299</v>
       </c>
       <c r="C90" t="n">
-        <v>0.199081</v>
+        <v>0.0550461</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0310015</v>
+        <v>0.198267</v>
       </c>
       <c r="E90" t="n">
-        <v>0.0348868</v>
+        <v>0.0308234</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.0345472</v>
       </c>
     </row>
     <row r="91">
@@ -5690,16 +5957,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.06700830000000001</v>
+        <v>0.0668189</v>
       </c>
       <c r="C91" t="n">
-        <v>0.206317</v>
+        <v>0.0671224</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0343804</v>
+        <v>0.205699</v>
       </c>
       <c r="E91" t="n">
-        <v>0.0382948</v>
+        <v>0.0342177</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.0380622</v>
       </c>
     </row>
     <row r="92">
@@ -5707,16 +5977,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.08452460000000001</v>
+        <v>0.0836469</v>
       </c>
       <c r="C92" t="n">
-        <v>0.155742</v>
+        <v>0.0844076</v>
       </c>
       <c r="D92" t="n">
-        <v>0.039481</v>
+        <v>0.155131</v>
       </c>
       <c r="E92" t="n">
-        <v>0.0437864</v>
+        <v>0.0393046</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.0432275</v>
       </c>
     </row>
     <row r="93">
@@ -5724,16 +5997,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.108206</v>
+        <v>0.107787</v>
       </c>
       <c r="C93" t="n">
-        <v>0.161702</v>
+        <v>0.109009</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0482386</v>
+        <v>0.161371</v>
       </c>
       <c r="E93" t="n">
-        <v>0.053617</v>
+        <v>0.0481634</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.0531484</v>
       </c>
     </row>
     <row r="94">
@@ -5741,16 +6017,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.138927</v>
+        <v>0.138233</v>
       </c>
       <c r="C94" t="n">
-        <v>0.167969</v>
+        <v>0.139885</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0230508</v>
+        <v>0.167644</v>
       </c>
       <c r="E94" t="n">
-        <v>0.0283338</v>
+        <v>0.0230218</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.0281559</v>
       </c>
     </row>
     <row r="95">
@@ -5758,16 +6037,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0208791</v>
+        <v>0.021069</v>
       </c>
       <c r="C95" t="n">
-        <v>0.174745</v>
+        <v>0.0246877</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0236422</v>
+        <v>0.174382</v>
       </c>
       <c r="E95" t="n">
-        <v>0.0295503</v>
+        <v>0.0235096</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.0293133</v>
       </c>
     </row>
     <row r="96">
@@ -5775,16 +6057,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.022091</v>
+        <v>0.0216843</v>
       </c>
       <c r="C96" t="n">
-        <v>0.181416</v>
+        <v>0.0262639</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0241968</v>
+        <v>0.180841</v>
       </c>
       <c r="E96" t="n">
-        <v>0.0313979</v>
+        <v>0.024067</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.031368</v>
       </c>
     </row>
     <row r="97">
@@ -5792,16 +6077,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0235838</v>
+        <v>0.0235278</v>
       </c>
       <c r="C97" t="n">
-        <v>0.188823</v>
+        <v>0.0285106</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0247983</v>
+        <v>0.18713</v>
       </c>
       <c r="E97" t="n">
-        <v>0.0343639</v>
+        <v>0.0247073</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.0340943</v>
       </c>
     </row>
     <row r="98">
@@ -5809,16 +6097,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0249851</v>
+        <v>0.0252833</v>
       </c>
       <c r="C98" t="n">
-        <v>0.195753</v>
+        <v>0.0326365</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0255599</v>
+        <v>0.194952</v>
       </c>
       <c r="E98" t="n">
-        <v>0.0384825</v>
+        <v>0.0254037</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.0378803</v>
       </c>
     </row>
     <row r="99">
@@ -5826,16 +6117,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.027228</v>
+        <v>0.0276404</v>
       </c>
       <c r="C99" t="n">
-        <v>0.202596</v>
+        <v>0.0376421</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0270485</v>
+        <v>0.202006</v>
       </c>
       <c r="E99" t="n">
-        <v>0.0430986</v>
+        <v>0.0268593</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.0424448</v>
       </c>
     </row>
     <row r="100">
@@ -5843,16 +6137,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0306897</v>
+        <v>0.0303935</v>
       </c>
       <c r="C100" t="n">
-        <v>0.21043</v>
+        <v>0.0431873</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0292589</v>
+        <v>0.210399</v>
       </c>
       <c r="E100" t="n">
-        <v>0.0473051</v>
+        <v>0.0290853</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.0466268</v>
       </c>
     </row>
     <row r="101">
@@ -5860,16 +6157,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0347153</v>
+        <v>0.0347047</v>
       </c>
       <c r="C101" t="n">
-        <v>0.217537</v>
+        <v>0.0495911</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0323384</v>
+        <v>0.216909</v>
       </c>
       <c r="E101" t="n">
-        <v>0.0513097</v>
+        <v>0.0319312</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.0506328</v>
       </c>
     </row>
     <row r="102">
@@ -5877,16 +6177,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0399273</v>
+        <v>0.03961</v>
       </c>
       <c r="C102" t="n">
-        <v>0.225299</v>
+        <v>0.0557668</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0355268</v>
+        <v>0.225263</v>
       </c>
       <c r="E102" t="n">
-        <v>0.0546139</v>
+        <v>0.0351347</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.0540476</v>
       </c>
     </row>
     <row r="103">
@@ -5894,16 +6197,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0465852</v>
+        <v>0.0462842</v>
       </c>
       <c r="C103" t="n">
-        <v>0.23338</v>
+        <v>0.0618652</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0386822</v>
+        <v>0.232957</v>
       </c>
       <c r="E103" t="n">
-        <v>0.0576913</v>
+        <v>0.0384163</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.0572826</v>
       </c>
     </row>
     <row r="104">
@@ -5911,16 +6217,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0543505</v>
+        <v>0.0542663</v>
       </c>
       <c r="C104" t="n">
-        <v>0.241438</v>
+        <v>0.0688729</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0417031</v>
+        <v>0.240595</v>
       </c>
       <c r="E104" t="n">
-        <v>0.0610285</v>
+        <v>0.0415243</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.0607623</v>
       </c>
     </row>
     <row r="105">
@@ -5928,16 +6237,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0657079</v>
+        <v>0.06533070000000001</v>
       </c>
       <c r="C105" t="n">
-        <v>0.250612</v>
+        <v>0.0776963</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0451096</v>
+        <v>0.24943</v>
       </c>
       <c r="E105" t="n">
-        <v>0.0647167</v>
+        <v>0.0448445</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.0644699</v>
       </c>
     </row>
     <row r="106">
@@ -5945,16 +6257,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0815626</v>
+        <v>0.0810447</v>
       </c>
       <c r="C106" t="n">
-        <v>0.26005</v>
+        <v>0.0907839</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0493674</v>
+        <v>0.259096</v>
       </c>
       <c r="E106" t="n">
-        <v>0.0696518</v>
+        <v>0.049027</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.0693695</v>
       </c>
     </row>
     <row r="107">
@@ -5962,16 +6277,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.104094</v>
+        <v>0.102744</v>
       </c>
       <c r="C107" t="n">
-        <v>0.189985</v>
+        <v>0.109448</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0556609</v>
+        <v>0.189204</v>
       </c>
       <c r="E107" t="n">
-        <v>0.07683959999999999</v>
+        <v>0.0554999</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.0764777</v>
       </c>
     </row>
     <row r="108">
@@ -5979,16 +6297,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.134082</v>
+        <v>0.132435</v>
       </c>
       <c r="C108" t="n">
-        <v>0.196457</v>
+        <v>0.136707</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0352346</v>
+        <v>0.195409</v>
       </c>
       <c r="E108" t="n">
-        <v>0.051427</v>
+        <v>0.0351618</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.0511115</v>
       </c>
     </row>
     <row r="109">
@@ -5996,16 +6317,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.169592</v>
+        <v>0.168123</v>
       </c>
       <c r="C109" t="n">
-        <v>0.202728</v>
+        <v>0.172459</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0362055</v>
+        <v>0.202101</v>
       </c>
       <c r="E109" t="n">
-        <v>0.0528373</v>
+        <v>0.0362013</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.05263</v>
       </c>
     </row>
     <row r="110">
@@ -6013,16 +6337,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0314151</v>
+        <v>0.0311566</v>
       </c>
       <c r="C110" t="n">
-        <v>0.209726</v>
+        <v>0.0467682</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0370666</v>
+        <v>0.208914</v>
       </c>
       <c r="E110" t="n">
-        <v>0.0541618</v>
+        <v>0.0370039</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.0540065</v>
       </c>
     </row>
     <row r="111">
@@ -6030,16 +6357,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0329522</v>
+        <v>0.0327274</v>
       </c>
       <c r="C111" t="n">
-        <v>0.216766</v>
+        <v>0.0483897</v>
       </c>
       <c r="D111" t="n">
-        <v>0.038022</v>
+        <v>0.216123</v>
       </c>
       <c r="E111" t="n">
-        <v>0.0553589</v>
+        <v>0.0378586</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.0553181</v>
       </c>
     </row>
     <row r="112">
@@ -6047,16 +6377,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0343747</v>
+        <v>0.0342032</v>
       </c>
       <c r="C112" t="n">
-        <v>0.223966</v>
+        <v>0.0507314</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0387635</v>
+        <v>0.223325</v>
       </c>
       <c r="E112" t="n">
-        <v>0.056831</v>
+        <v>0.0386194</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.0566814</v>
       </c>
     </row>
     <row r="113">
@@ -6064,16 +6397,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0362642</v>
+        <v>0.0360288</v>
       </c>
       <c r="C113" t="n">
-        <v>0.231313</v>
+        <v>0.0528627</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0396283</v>
+        <v>0.230562</v>
       </c>
       <c r="E113" t="n">
-        <v>0.0584354</v>
+        <v>0.0394682</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.0582196</v>
       </c>
     </row>
     <row r="114">
@@ -6081,16 +6417,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0380206</v>
+        <v>0.038221</v>
       </c>
       <c r="C114" t="n">
-        <v>0.23894</v>
+        <v>0.0555484</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0406345</v>
+        <v>0.23813</v>
       </c>
       <c r="E114" t="n">
-        <v>0.0601276</v>
+        <v>0.040537</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.0599567</v>
       </c>
     </row>
     <row r="115">
@@ -6098,16 +6437,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.0408977</v>
+        <v>0.0407202</v>
       </c>
       <c r="C115" t="n">
-        <v>0.246622</v>
+        <v>0.0590007</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0417463</v>
+        <v>0.245517</v>
       </c>
       <c r="E115" t="n">
-        <v>0.0620062</v>
+        <v>0.0416614</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.0618321</v>
       </c>
     </row>
     <row r="116">
@@ -6115,16 +6457,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.0440145</v>
+        <v>0.0443612</v>
       </c>
       <c r="C116" t="n">
-        <v>0.254501</v>
+        <v>0.0628261</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0431587</v>
+        <v>0.253672</v>
       </c>
       <c r="E116" t="n">
-        <v>0.0638941</v>
+        <v>0.0430189</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.0637921</v>
       </c>
     </row>
     <row r="117">
@@ -6132,16 +6477,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.0488379</v>
+        <v>0.0487038</v>
       </c>
       <c r="C117" t="n">
-        <v>0.262881</v>
+        <v>0.0678373</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0446629</v>
+        <v>0.262325</v>
       </c>
       <c r="E117" t="n">
-        <v>0.0662819</v>
+        <v>0.0444291</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.0661122</v>
       </c>
     </row>
     <row r="118">
@@ -6149,16 +6497,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.0553968</v>
+        <v>0.0551061</v>
       </c>
       <c r="C118" t="n">
-        <v>0.27181</v>
+        <v>0.0743669</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0465721</v>
+        <v>0.270451</v>
       </c>
       <c r="E118" t="n">
-        <v>0.06927129999999999</v>
+        <v>0.0463979</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.0689598</v>
       </c>
     </row>
     <row r="119">
@@ -6166,16 +6517,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.0651385</v>
+        <v>0.0650413</v>
       </c>
       <c r="C119" t="n">
-        <v>0.279961</v>
+        <v>0.08271000000000001</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0491236</v>
+        <v>0.279981</v>
       </c>
       <c r="E119" t="n">
-        <v>0.0727946</v>
+        <v>0.0489896</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.0725898</v>
       </c>
     </row>
     <row r="120">
@@ -6183,16 +6537,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.07962229999999999</v>
+        <v>0.0796751</v>
       </c>
       <c r="C120" t="n">
-        <v>0.290313</v>
+        <v>0.0944628</v>
       </c>
       <c r="D120" t="n">
-        <v>0.0528439</v>
+        <v>0.288965</v>
       </c>
       <c r="E120" t="n">
-        <v>0.0776757</v>
+        <v>0.0528205</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.077532</v>
       </c>
     </row>
     <row r="121">
@@ -6200,16 +6557,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.100705</v>
+        <v>0.100197</v>
       </c>
       <c r="C121" t="n">
-        <v>0.206164</v>
+        <v>0.11085</v>
       </c>
       <c r="D121" t="n">
-        <v>0.0584943</v>
+        <v>0.20558</v>
       </c>
       <c r="E121" t="n">
-        <v>0.0848653</v>
+        <v>0.058274</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.08458259999999999</v>
       </c>
     </row>
     <row r="122">
@@ -6217,16 +6577,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.128994</v>
+        <v>0.128476</v>
       </c>
       <c r="C122" t="n">
-        <v>0.21175</v>
+        <v>0.135461</v>
       </c>
       <c r="D122" t="n">
-        <v>0.0680414</v>
+        <v>0.211153</v>
       </c>
       <c r="E122" t="n">
-        <v>0.09610779999999999</v>
+        <v>0.06796190000000001</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.0955395</v>
       </c>
     </row>
     <row r="123">
@@ -6234,16 +6597,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.164438</v>
+        <v>0.164648</v>
       </c>
       <c r="C123" t="n">
-        <v>0.218666</v>
+        <v>0.170368</v>
       </c>
       <c r="D123" t="n">
-        <v>0.0406216</v>
+        <v>0.21773</v>
       </c>
       <c r="E123" t="n">
-        <v>0.0602174</v>
+        <v>0.0403819</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.0601745</v>
       </c>
     </row>
     <row r="124">
@@ -6251,16 +6617,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.0343942</v>
+        <v>0.0347131</v>
       </c>
       <c r="C124" t="n">
-        <v>0.22526</v>
+        <v>0.0512479</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0412509</v>
+        <v>0.224538</v>
       </c>
       <c r="E124" t="n">
-        <v>0.0616185</v>
+        <v>0.0411282</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.0615969</v>
       </c>
     </row>
     <row r="125">
@@ -6268,16 +6637,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.0353823</v>
+        <v>0.0356762</v>
       </c>
       <c r="C125" t="n">
-        <v>0.232519</v>
+        <v>0.052865</v>
       </c>
       <c r="D125" t="n">
-        <v>0.042888</v>
+        <v>0.231602</v>
       </c>
       <c r="E125" t="n">
-        <v>0.0631307</v>
+        <v>0.0420223</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.0631738</v>
       </c>
     </row>
     <row r="126">
@@ -6285,16 +6657,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.0367656</v>
+        <v>0.0366723</v>
       </c>
       <c r="C126" t="n">
-        <v>0.239873</v>
+        <v>0.0549309</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0437232</v>
+        <v>0.239227</v>
       </c>
       <c r="E126" t="n">
-        <v>0.0647192</v>
+        <v>0.043459</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.06469229999999999</v>
       </c>
     </row>
     <row r="127">
@@ -6302,16 +6677,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.0388096</v>
+        <v>0.0385512</v>
       </c>
       <c r="C127" t="n">
-        <v>0.247261</v>
+        <v>0.058871</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0445673</v>
+        <v>0.246785</v>
       </c>
       <c r="E127" t="n">
-        <v>0.0663181</v>
+        <v>0.0444712</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.06635340000000001</v>
       </c>
     </row>
     <row r="128">
@@ -6319,16 +6697,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.040882</v>
+        <v>0.0406167</v>
       </c>
       <c r="C128" t="n">
-        <v>0.254478</v>
+        <v>0.0612004</v>
       </c>
       <c r="D128" t="n">
-        <v>0.0455283</v>
+        <v>0.254214</v>
       </c>
       <c r="E128" t="n">
-        <v>0.0681745</v>
+        <v>0.0454145</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.0679819</v>
       </c>
     </row>
     <row r="129">
@@ -6336,16 +6717,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0435764</v>
+        <v>0.0432628</v>
       </c>
       <c r="C129" t="n">
-        <v>0.262115</v>
+        <v>0.0650288</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0467573</v>
+        <v>0.26216</v>
       </c>
       <c r="E129" t="n">
-        <v>0.06995659999999999</v>
+        <v>0.0465307</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.0698984</v>
       </c>
     </row>
     <row r="130">
@@ -6353,16 +6737,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0467557</v>
+        <v>0.0469616</v>
       </c>
       <c r="C130" t="n">
-        <v>0.270622</v>
+        <v>0.069248</v>
       </c>
       <c r="D130" t="n">
-        <v>0.0479864</v>
+        <v>0.269644</v>
       </c>
       <c r="E130" t="n">
-        <v>0.0721054</v>
+        <v>0.0478298</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.0721822</v>
       </c>
     </row>
     <row r="131">
@@ -6370,16 +6757,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0514441</v>
+        <v>0.0522871</v>
       </c>
       <c r="C131" t="n">
-        <v>0.278958</v>
+        <v>0.0746687</v>
       </c>
       <c r="D131" t="n">
-        <v>0.0495246</v>
+        <v>0.278269</v>
       </c>
       <c r="E131" t="n">
-        <v>0.0746444</v>
+        <v>0.0494071</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.07472959999999999</v>
       </c>
     </row>
     <row r="132">
@@ -6387,16 +6777,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0591311</v>
+        <v>0.0587787</v>
       </c>
       <c r="C132" t="n">
-        <v>0.287043</v>
+        <v>0.08118839999999999</v>
       </c>
       <c r="D132" t="n">
-        <v>0.0515231</v>
+        <v>0.28676</v>
       </c>
       <c r="E132" t="n">
-        <v>0.0777052</v>
+        <v>0.0513635</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.0777127</v>
       </c>
     </row>
     <row r="133">
@@ -6404,16 +6797,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.0690043</v>
+        <v>0.06793159999999999</v>
       </c>
       <c r="C133" t="n">
-        <v>0.295832</v>
+        <v>0.0896735</v>
       </c>
       <c r="D133" t="n">
-        <v>0.0540231</v>
+        <v>0.294905</v>
       </c>
       <c r="E133" t="n">
-        <v>0.08135680000000001</v>
+        <v>0.0537652</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.08139440000000001</v>
       </c>
     </row>
     <row r="134">
@@ -6421,16 +6817,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.08254549999999999</v>
+        <v>0.0818242</v>
       </c>
       <c r="C134" t="n">
-        <v>0.304775</v>
+        <v>0.101136</v>
       </c>
       <c r="D134" t="n">
-        <v>0.0577243</v>
+        <v>0.304292</v>
       </c>
       <c r="E134" t="n">
-        <v>0.0864135</v>
+        <v>0.0575184</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.0863636</v>
       </c>
     </row>
     <row r="135">
@@ -6438,16 +6837,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.102885</v>
+        <v>0.10117</v>
       </c>
       <c r="C135" t="n">
-        <v>0.214149</v>
+        <v>0.117614</v>
       </c>
       <c r="D135" t="n">
-        <v>0.0633928</v>
+        <v>0.213434</v>
       </c>
       <c r="E135" t="n">
-        <v>0.0936081</v>
+        <v>0.06303880000000001</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.0936022</v>
       </c>
     </row>
     <row r="136">
@@ -6455,16 +6857,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.131319</v>
+        <v>0.129216</v>
       </c>
       <c r="C136" t="n">
-        <v>0.219656</v>
+        <v>0.141623</v>
       </c>
       <c r="D136" t="n">
-        <v>0.07259160000000001</v>
+        <v>0.219307</v>
       </c>
       <c r="E136" t="n">
-        <v>0.104653</v>
+        <v>0.0724042</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.104572</v>
       </c>
     </row>
     <row r="137">
@@ -6472,16 +6877,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.165639</v>
+        <v>0.164833</v>
       </c>
       <c r="C137" t="n">
-        <v>0.226722</v>
+        <v>0.176838</v>
       </c>
       <c r="D137" t="n">
-        <v>0.0590915</v>
+        <v>0.226031</v>
       </c>
       <c r="E137" t="n">
-        <v>0.0788959</v>
+        <v>0.0589715</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.0791782</v>
       </c>
     </row>
     <row r="138">
@@ -6489,16 +6897,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0475872</v>
+        <v>0.04719</v>
       </c>
       <c r="C138" t="n">
-        <v>0.23334</v>
+        <v>0.0654614</v>
       </c>
       <c r="D138" t="n">
-        <v>0.059582</v>
+        <v>0.233449</v>
       </c>
       <c r="E138" t="n">
-        <v>0.080217</v>
+        <v>0.0597273</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.0801432</v>
       </c>
     </row>
     <row r="139">
@@ -6506,16 +6917,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0482213</v>
+        <v>0.0477155</v>
       </c>
       <c r="C139" t="n">
-        <v>0.240858</v>
+        <v>0.0667495</v>
       </c>
       <c r="D139" t="n">
-        <v>0.0603003</v>
+        <v>0.239676</v>
       </c>
       <c r="E139" t="n">
-        <v>0.0813024</v>
+        <v>0.0603338</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.0817592</v>
       </c>
     </row>
     <row r="140">
@@ -6523,16 +6937,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.0493912</v>
+        <v>0.0498207</v>
       </c>
       <c r="C140" t="n">
-        <v>0.24798</v>
+        <v>0.06891559999999999</v>
       </c>
       <c r="D140" t="n">
-        <v>0.0610572</v>
+        <v>0.247679</v>
       </c>
       <c r="E140" t="n">
-        <v>0.0827228</v>
+        <v>0.0607136</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.0831262</v>
       </c>
     </row>
     <row r="141">
@@ -6540,16 +6957,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0511004</v>
+        <v>0.0506207</v>
       </c>
       <c r="C141" t="n">
-        <v>0.256153</v>
+        <v>0.07127269999999999</v>
       </c>
       <c r="D141" t="n">
-        <v>0.06260689999999999</v>
+        <v>0.255283</v>
       </c>
       <c r="E141" t="n">
-        <v>0.0841578</v>
+        <v>0.0616614</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.0843787</v>
       </c>
     </row>
     <row r="142">
@@ -6557,16 +6977,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.0532397</v>
+        <v>0.0533573</v>
       </c>
       <c r="C142" t="n">
-        <v>0.263718</v>
+        <v>0.0736226</v>
       </c>
       <c r="D142" t="n">
-        <v>0.06262239999999999</v>
+        <v>0.262438</v>
       </c>
       <c r="E142" t="n">
-        <v>0.0857908</v>
+        <v>0.0623911</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.0859061</v>
       </c>
     </row>
     <row r="143">
@@ -6574,16 +6997,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.0559383</v>
+        <v>0.0561423</v>
       </c>
       <c r="C143" t="n">
-        <v>0.271343</v>
+        <v>0.077071</v>
       </c>
       <c r="D143" t="n">
-        <v>0.0638976</v>
+        <v>0.270371</v>
       </c>
       <c r="E143" t="n">
-        <v>0.0874161</v>
+        <v>0.0637191</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.0897927</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered unsuccessful looukp.xlsx
+++ b/clang-arm64/Scattered unsuccessful looukp.xlsx
@@ -560,430 +560,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0188563</v>
+                  <v>0.0201731</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.020482</v>
+                  <v>0.0223373</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0250918</v>
+                  <v>0.0283973</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0324396</v>
+                  <v>0.0359745</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0486736</v>
+                  <v>0.0468578</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0676407</v>
+                  <v>0.0662001</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0914015</v>
+                  <v>0.0874499</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.120117</v>
+                  <v>0.118178</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0161742</v>
+                  <v>0.0163823</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0167609</v>
+                  <v>0.0169442</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.017033</v>
+                  <v>0.0173203</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0178156</v>
+                  <v>0.0179112</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0186429</v>
+                  <v>0.0186739</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0201514</v>
+                  <v>0.0206062</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0223364</v>
+                  <v>0.0231143</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0265812</v>
+                  <v>0.0271457</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0315209</v>
+                  <v>0.0334194</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0404218</v>
+                  <v>0.0418801</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0523243</v>
+                  <v>0.0544232</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.068802</v>
+                  <v>0.06979779999999999</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0916015</v>
+                  <v>0.0938215</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.115789</v>
+                  <v>0.121481</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0165559</v>
+                  <v>0.0166604</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.01713</v>
+                  <v>0.0171542</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.017832</v>
+                  <v>0.0177934</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0186431</v>
+                  <v>0.0184952</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0204344</v>
+                  <v>0.0201196</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0223797</v>
+                  <v>0.0218972</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0260575</v>
+                  <v>0.0251077</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0296827</v>
+                  <v>0.0292352</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0351294</v>
+                  <v>0.0347619</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0439567</v>
+                  <v>0.0435356</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0560566</v>
+                  <v>0.0537204</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0724226</v>
+                  <v>0.0688154</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0942229</v>
+                  <v>0.09015720000000001</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.120526</v>
+                  <v>0.116026</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0171733</v>
+                  <v>0.0170183</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0178413</v>
+                  <v>0.0178123</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0187789</v>
+                  <v>0.01864</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0201514</v>
+                  <v>0.0197201</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0218874</v>
+                  <v>0.0215528</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0244952</v>
+                  <v>0.0238953</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0277145</v>
+                  <v>0.0270839</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0318614</v>
+                  <v>0.0315753</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.038157</v>
+                  <v>0.0372642</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0458946</v>
+                  <v>0.0449549</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0561284</v>
+                  <v>0.0551349</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.07138170000000001</v>
+                  <v>0.06987989999999999</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.09212090000000001</v>
+                  <v>0.09050619999999999</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.117399</v>
+                  <v>0.116517</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.142611</v>
+                  <v>0.142867</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0191063</v>
+                  <v>0.0189245</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0202054</v>
+                  <v>0.0202459</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0216884</v>
+                  <v>0.0217405</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.023762</v>
+                  <v>0.0238386</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0265754</v>
+                  <v>0.0263284</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0299431</v>
+                  <v>0.0295381</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0344095</v>
+                  <v>0.0336662</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0405591</v>
+                  <v>0.0393238</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0475581</v>
+                  <v>0.0464554</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0572633</v>
+                  <v>0.0563056</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0711276</v>
+                  <v>0.0704912</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0912027</v>
+                  <v>0.090473</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.117531</v>
+                  <v>0.116153</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.147591</v>
+                  <v>0.148156</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0198684</v>
+                  <v>0.0199809</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0210982</v>
+                  <v>0.0212024</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0228671</v>
+                  <v>0.0226467</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0250892</v>
+                  <v>0.0247555</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0274858</v>
+                  <v>0.0272389</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0307585</v>
+                  <v>0.0304965</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0350439</v>
+                  <v>0.034774</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0401473</v>
+                  <v>0.0399272</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0470655</v>
+                  <v>0.0466726</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0565303</v>
+                  <v>0.0562112</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0694931</v>
+                  <v>0.0692453</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0876659</v>
+                  <v>0.08731709999999999</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.112976</v>
+                  <v>0.112012</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.14429</v>
+                  <v>0.143596</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0201115</v>
+                  <v>0.0198969</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0216766</v>
+                  <v>0.0211685</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0228365</v>
+                  <v>0.0228963</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0248985</v>
+                  <v>0.0246315</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0272584</v>
+                  <v>0.0270319</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0302977</v>
+                  <v>0.0301633</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0342083</v>
+                  <v>0.0343003</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.039444</v>
+                  <v>0.0392099</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0458422</v>
+                  <v>0.0461135</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0546333</v>
+                  <v>0.0547299</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0669435</v>
+                  <v>0.0668189</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0841283</v>
+                  <v>0.0836469</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.108178</v>
+                  <v>0.107787</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.139209</v>
+                  <v>0.138233</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0208397</v>
+                  <v>0.021069</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0217789</v>
+                  <v>0.0216843</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0236136</v>
+                  <v>0.0235278</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0250037</v>
+                  <v>0.0252833</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0272123</v>
+                  <v>0.0276404</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0306604</v>
+                  <v>0.0303935</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0359699</v>
+                  <v>0.0347047</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0400556</v>
+                  <v>0.03961</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0464214</v>
+                  <v>0.0462842</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0543718</v>
+                  <v>0.0542663</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0654956</v>
+                  <v>0.06533070000000001</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0810722</v>
+                  <v>0.0810447</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.102897</v>
+                  <v>0.102744</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.133253</v>
+                  <v>0.132435</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.1679</v>
+                  <v>0.168123</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0312378</v>
+                  <v>0.0311566</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.032867</v>
+                  <v>0.0327274</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.0343439</v>
+                  <v>0.0342032</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0361309</v>
+                  <v>0.0360288</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0383012</v>
+                  <v>0.038221</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0408352</v>
+                  <v>0.0407202</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0439366</v>
+                  <v>0.0443612</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0486743</v>
+                  <v>0.0487038</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0550738</v>
+                  <v>0.0551061</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.0645583</v>
+                  <v>0.0650413</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.0791676</v>
+                  <v>0.0796751</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.0998057</v>
+                  <v>0.100197</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.128197</v>
+                  <v>0.128476</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.163841</v>
+                  <v>0.164648</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0345014</v>
+                  <v>0.0347131</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.035219</v>
+                  <v>0.0356762</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.0366214</v>
+                  <v>0.0366723</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.0384021</v>
+                  <v>0.0385512</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.0405117</v>
+                  <v>0.0406167</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.0431668</v>
+                  <v>0.0432628</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.0465002</v>
+                  <v>0.0469616</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.0510499</v>
+                  <v>0.0522871</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0587435</v>
+                  <v>0.0587787</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.0679357</v>
+                  <v>0.06793159999999999</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.0816269</v>
+                  <v>0.0818242</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.101812</v>
+                  <v>0.10117</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.129487</v>
+                  <v>0.129216</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.164993</v>
+                  <v>0.164833</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0468838</v>
+                  <v>0.04719</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.0484521</v>
+                  <v>0.0477155</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.0493311</v>
+                  <v>0.0498207</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.0507617</v>
+                  <v>0.0506207</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.0532957</v>
+                  <v>0.0533573</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.0554191</v>
+                  <v>0.0561423</v>
                 </pt>
               </numCache>
             </numRef>
@@ -999,7 +999,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::unordered_map</v>
+                  <v>absl::node_hash_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -1462,430 +1462,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0745743</v>
+                  <v>0.0194065</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0818991</v>
+                  <v>0.0224007</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0759394</v>
+                  <v>0.0288135</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0880992</v>
+                  <v>0.0338387</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.08153489999999999</v>
+                  <v>0.0464436</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0624356</v>
+                  <v>0.0656384</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.061869</v>
+                  <v>0.0870889</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0683074</v>
+                  <v>0.116853</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0686766</v>
+                  <v>0.016173</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.07166640000000001</v>
+                  <v>0.0167609</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0739997</v>
+                  <v>0.0172318</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.077265</v>
+                  <v>0.0179025</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0817507</v>
+                  <v>0.0189746</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0856117</v>
+                  <v>0.019983</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0866362</v>
+                  <v>0.0223099</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.09086229999999999</v>
+                  <v>0.0264348</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.09648760000000001</v>
+                  <v>0.0312478</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.096305</v>
+                  <v>0.0404906</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.09784320000000001</v>
+                  <v>0.0537627</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0664341</v>
+                  <v>0.0690885</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0712783</v>
+                  <v>0.0933016</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0762056</v>
+                  <v>0.118794</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0754963</v>
+                  <v>0.0162717</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0791755</v>
+                  <v>0.0168356</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0828492</v>
+                  <v>0.017468</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.08543870000000001</v>
+                  <v>0.0182377</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0887561</v>
+                  <v>0.0194683</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.092414</v>
+                  <v>0.0212317</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0948533</v>
+                  <v>0.0242552</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0957143</v>
+                  <v>0.0284577</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.09790550000000001</v>
+                  <v>0.0343277</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.09936730000000001</v>
+                  <v>0.0428176</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.101587</v>
+                  <v>0.0534805</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.06934940000000001</v>
+                  <v>0.0688173</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0726347</v>
+                  <v>0.0907517</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.07564949999999999</v>
+                  <v>0.117543</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0790356</v>
+                  <v>0.0168393</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0818281</v>
+                  <v>0.0175714</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0856015</v>
+                  <v>0.0184474</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.08902640000000001</v>
+                  <v>0.0198324</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0915702</v>
+                  <v>0.021464</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0953242</v>
+                  <v>0.0237258</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0973436</v>
+                  <v>0.0270856</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.100137</v>
+                  <v>0.0315007</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.102066</v>
+                  <v>0.0372003</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.104689</v>
+                  <v>0.0443335</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.106565</v>
+                  <v>0.0545841</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.109417</v>
+                  <v>0.06922639999999999</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0759278</v>
+                  <v>0.0899831</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.07929940000000001</v>
+                  <v>0.117779</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0833945</v>
+                  <v>0.142876</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.08607579999999999</v>
+                  <v>0.0191296</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0893982</v>
+                  <v>0.0201955</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0926165</v>
+                  <v>0.0216483</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.09584810000000001</v>
+                  <v>0.023403</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.100165</v>
+                  <v>0.026064</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.101736</v>
+                  <v>0.0294373</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.105135</v>
+                  <v>0.0339117</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.107339</v>
+                  <v>0.0393543</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.109803</v>
+                  <v>0.0465728</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.111709</v>
+                  <v>0.056655</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.115496</v>
+                  <v>0.0699357</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0812769</v>
+                  <v>0.0901044</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.08581900000000001</v>
+                  <v>0.117115</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.09048920000000001</v>
+                  <v>0.147525</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.09512900000000001</v>
+                  <v>0.0200422</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.09904019999999999</v>
+                  <v>0.0210888</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.103762</v>
+                  <v>0.0229847</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.109767</v>
+                  <v>0.0248889</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.115064</v>
+                  <v>0.0271453</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.119625</v>
+                  <v>0.0304582</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.123912</v>
+                  <v>0.0344984</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.128639</v>
+                  <v>0.0397809</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.136023</v>
+                  <v>0.0470601</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.141569</v>
+                  <v>0.0565718</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.147324</v>
+                  <v>0.06901500000000001</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.114448</v>
+                  <v>0.087157</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.120419</v>
+                  <v>0.112264</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.125131</v>
+                  <v>0.144133</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.131477</v>
+                  <v>0.0200835</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.139604</v>
+                  <v>0.0214419</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.146445</v>
+                  <v>0.0229504</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.154887</v>
+                  <v>0.0250695</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.163154</v>
+                  <v>0.0273812</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.170385</v>
+                  <v>0.0308585</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.178312</v>
+                  <v>0.0344507</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.182546</v>
+                  <v>0.0394985</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.19023</v>
+                  <v>0.0460324</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.200533</v>
+                  <v>0.0550461</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.208859</v>
+                  <v>0.0671224</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.157758</v>
+                  <v>0.0844076</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.162746</v>
+                  <v>0.109009</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.168477</v>
+                  <v>0.139885</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.17633</v>
+                  <v>0.0246877</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.183525</v>
+                  <v>0.0262639</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.190701</v>
+                  <v>0.0285106</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.19753</v>
+                  <v>0.0326365</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.204795</v>
+                  <v>0.0376421</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.226592</v>
+                  <v>0.0431873</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.219043</v>
+                  <v>0.0495911</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.227757</v>
+                  <v>0.0557668</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.233267</v>
+                  <v>0.0618652</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.243865</v>
+                  <v>0.0688729</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.252361</v>
+                  <v>0.0776963</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.261173</v>
+                  <v>0.0907839</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.190647</v>
+                  <v>0.109448</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.197526</v>
+                  <v>0.136707</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.203566</v>
+                  <v>0.172459</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.210146</v>
+                  <v>0.0467682</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.218257</v>
+                  <v>0.0483897</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.224714</v>
+                  <v>0.0507314</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.23258</v>
+                  <v>0.0528627</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.239218</v>
+                  <v>0.0555484</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.24724</v>
+                  <v>0.0590007</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.255715</v>
+                  <v>0.0628261</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.263655</v>
+                  <v>0.0678373</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.271989</v>
+                  <v>0.0743669</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.282797</v>
+                  <v>0.08271000000000001</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.289767</v>
+                  <v>0.0944628</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.206007</v>
+                  <v>0.11085</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.211597</v>
+                  <v>0.135461</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.217961</v>
+                  <v>0.170368</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.22481</v>
+                  <v>0.0512479</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.231511</v>
+                  <v>0.052865</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.23876</v>
+                  <v>0.0549309</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.246015</v>
+                  <v>0.058871</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.253902</v>
+                  <v>0.0612004</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.261754</v>
+                  <v>0.0650288</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.269215</v>
+                  <v>0.069248</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.276809</v>
+                  <v>0.0746687</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.285243</v>
+                  <v>0.08118839999999999</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.294416</v>
+                  <v>0.0896735</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.303237</v>
+                  <v>0.101136</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.212509</v>
+                  <v>0.117614</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.21893</v>
+                  <v>0.141623</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.225118</v>
+                  <v>0.176838</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.232231</v>
+                  <v>0.0654614</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.239705</v>
+                  <v>0.0667495</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.247032</v>
+                  <v>0.06891559999999999</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.255056</v>
+                  <v>0.07127269999999999</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.262733</v>
+                  <v>0.0736226</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.271863</v>
+                  <v>0.077071</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1901,7 +1901,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::unordered_flat_map</v>
+                  <v>boost::unordered_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -2364,430 +2364,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0212525</v>
+                  <v>0.0719905</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0216004</v>
+                  <v>0.0729974</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0227228</v>
+                  <v>0.082431</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0236692</v>
+                  <v>0.0738939</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.025734</v>
+                  <v>0.0825699</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0307283</v>
+                  <v>0.0649699</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0400074</v>
+                  <v>0.0601928</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0191859</v>
+                  <v>0.0616023</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0194145</v>
+                  <v>0.0644928</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0197171</v>
+                  <v>0.07119880000000001</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0200098</v>
+                  <v>0.07261140000000001</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0202944</v>
+                  <v>0.07676910000000001</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0205605</v>
+                  <v>0.0821347</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0210623</v>
+                  <v>0.0866618</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.021745</v>
+                  <v>0.08824650000000001</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0224624</v>
+                  <v>0.0907429</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0233932</v>
+                  <v>0.09464789999999999</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0246564</v>
+                  <v>0.0952583</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0274191</v>
+                  <v>0.0964115</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0316025</v>
+                  <v>0.0694861</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0413247</v>
+                  <v>0.07024809999999999</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0187664</v>
+                  <v>0.0724142</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0190384</v>
+                  <v>0.07515040000000001</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.019321</v>
+                  <v>0.07962320000000001</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0195661</v>
+                  <v>0.0832406</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0198599</v>
+                  <v>0.0852619</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0203393</v>
+                  <v>0.0896028</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0209382</v>
+                  <v>0.09148480000000001</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0214818</v>
+                  <v>0.0939405</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0223346</v>
+                  <v>0.0965188</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0233779</v>
+                  <v>0.09831380000000001</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0247673</v>
+                  <v>0.100199</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0273931</v>
+                  <v>0.102902</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0317286</v>
+                  <v>0.0698054</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.039339</v>
+                  <v>0.0726036</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0193829</v>
+                  <v>0.0757068</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0197036</v>
+                  <v>0.0793538</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0199834</v>
+                  <v>0.083243</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0203028</v>
+                  <v>0.08550199999999999</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0206416</v>
+                  <v>0.08859019999999999</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.021054</v>
+                  <v>0.09167649999999999</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0216854</v>
+                  <v>0.0949025</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0224175</v>
+                  <v>0.0970295</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0232548</v>
+                  <v>0.100157</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0245789</v>
+                  <v>0.102332</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0261833</v>
+                  <v>0.104522</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0289704</v>
+                  <v>0.105831</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0328291</v>
+                  <v>0.108825</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0389724</v>
+                  <v>0.0755461</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0204109</v>
+                  <v>0.078995</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0206887</v>
+                  <v>0.0825134</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0209817</v>
+                  <v>0.0867947</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0212755</v>
+                  <v>0.0901161</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0216547</v>
+                  <v>0.09300659999999999</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0221738</v>
+                  <v>0.0971045</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0227227</v>
+                  <v>0.10016</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0233788</v>
+                  <v>0.102369</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0243162</v>
+                  <v>0.105472</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0256636</v>
+                  <v>0.108186</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0275441</v>
+                  <v>0.110002</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0301356</v>
+                  <v>0.112754</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0341597</v>
+                  <v>0.115747</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0404667</v>
+                  <v>0.0811159</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0516123</v>
+                  <v>0.08591849999999999</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0209483</v>
+                  <v>0.0904712</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0212904</v>
+                  <v>0.094886</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0216414</v>
+                  <v>0.0995163</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0220066</v>
+                  <v>0.10423</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.022503</v>
+                  <v>0.108446</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0230597</v>
+                  <v>0.115564</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.023794</v>
+                  <v>0.120256</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.024724</v>
+                  <v>0.124687</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0259069</v>
+                  <v>0.130917</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0276355</v>
+                  <v>0.135851</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0302519</v>
+                  <v>0.141198</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0340355</v>
+                  <v>0.147703</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0396979</v>
+                  <v>0.111012</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.049477</v>
+                  <v>0.120113</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0212779</v>
+                  <v>0.124171</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0216341</v>
+                  <v>0.131036</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0219984</v>
+                  <v>0.138476</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0224363</v>
+                  <v>0.145921</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0229328</v>
+                  <v>0.154954</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0235783</v>
+                  <v>0.163989</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0244305</v>
+                  <v>0.168326</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0254418</v>
+                  <v>0.177149</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0267137</v>
+                  <v>0.182049</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0283454</v>
+                  <v>0.18983</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0308527</v>
+                  <v>0.198267</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0342322</v>
+                  <v>0.205699</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.03938</v>
+                  <v>0.155131</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.048197</v>
+                  <v>0.161371</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0229879</v>
+                  <v>0.167644</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0234516</v>
+                  <v>0.174382</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0240067</v>
+                  <v>0.180841</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0245912</v>
+                  <v>0.18713</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0253619</v>
+                  <v>0.194952</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0267537</v>
+                  <v>0.202006</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0289872</v>
+                  <v>0.210399</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0317781</v>
+                  <v>0.216909</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0350402</v>
+                  <v>0.225263</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0383243</v>
+                  <v>0.232957</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0415289</v>
+                  <v>0.240595</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0449303</v>
+                  <v>0.24943</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0491857</v>
+                  <v>0.259096</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0555259</v>
+                  <v>0.189204</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0351129</v>
+                  <v>0.195409</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0361988</v>
+                  <v>0.202101</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0370074</v>
+                  <v>0.208914</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0378667</v>
+                  <v>0.216123</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.0385583</v>
+                  <v>0.223325</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0395869</v>
+                  <v>0.230562</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0406235</v>
+                  <v>0.23813</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0416052</v>
+                  <v>0.245517</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0428433</v>
+                  <v>0.253672</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0445415</v>
+                  <v>0.262325</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0464755</v>
+                  <v>0.270451</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.0489272</v>
+                  <v>0.279981</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.0526395</v>
+                  <v>0.288965</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.0583473</v>
+                  <v>0.20558</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.06810819999999999</v>
+                  <v>0.211153</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.0412799</v>
+                  <v>0.21773</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0422281</v>
+                  <v>0.224538</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.0429276</v>
+                  <v>0.231602</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.0439297</v>
+                  <v>0.239227</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.0447307</v>
+                  <v>0.246785</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.0457736</v>
+                  <v>0.254214</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.0468762</v>
+                  <v>0.26216</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.0480061</v>
+                  <v>0.269644</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.0495994</v>
+                  <v>0.278269</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0516555</v>
+                  <v>0.28676</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.0541823</v>
+                  <v>0.294905</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.0578916</v>
+                  <v>0.304292</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.0634131</v>
+                  <v>0.213434</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.07260369999999999</v>
+                  <v>0.219307</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.0591479</v>
+                  <v>0.226031</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0608915</v>
+                  <v>0.233449</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.0603453</v>
+                  <v>0.239676</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.0608767</v>
+                  <v>0.247679</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.0620272</v>
+                  <v>0.255283</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.0625593</v>
+                  <v>0.262438</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.0640025</v>
+                  <v>0.270371</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2803,7 +2803,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::unordered_node_map</v>
+                  <v>boost::unordered_flat_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -3266,430 +3266,1332 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0214076</v>
+                  <v>0.0216009</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0220449</v>
+                  <v>0.0221084</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0228814</v>
+                  <v>0.0230466</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0238445</v>
+                  <v>0.0244666</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0259967</v>
+                  <v>0.0265716</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0308818</v>
+                  <v>0.0306845</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0397899</v>
+                  <v>0.0377971</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0190868</v>
+                  <v>0.0191766</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0193166</v>
+                  <v>0.0193893</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0195902</v>
+                  <v>0.0197043</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0199197</v>
+                  <v>0.0200607</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0202396</v>
+                  <v>0.0204068</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0206034</v>
+                  <v>0.0206994</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0211027</v>
+                  <v>0.0212233</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.02181</v>
+                  <v>0.0219078</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0225325</v>
+                  <v>0.0227165</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0234089</v>
+                  <v>0.0235386</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0246829</v>
+                  <v>0.0248559</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0272518</v>
+                  <v>0.0272925</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0319929</v>
+                  <v>0.0311581</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0414377</v>
+                  <v>0.039445</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0188357</v>
+                  <v>0.0189417</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0191047</v>
+                  <v>0.0192166</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.019293</v>
+                  <v>0.0194402</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0195628</v>
+                  <v>0.01967</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.020006</v>
+                  <v>0.0200648</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0203576</v>
+                  <v>0.0205084</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0209983</v>
+                  <v>0.0211482</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0216036</v>
+                  <v>0.0217413</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0224206</v>
+                  <v>0.0226275</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0234567</v>
+                  <v>0.023562</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0248701</v>
+                  <v>0.0249451</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0276153</v>
+                  <v>0.0273574</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0319171</v>
+                  <v>0.0311211</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0394712</v>
+                  <v>0.0379297</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0194612</v>
+                  <v>0.0194402</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.019774</v>
+                  <v>0.0197588</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0200997</v>
+                  <v>0.020083</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0204224</v>
+                  <v>0.0204271</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0207986</v>
+                  <v>0.020797</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0212501</v>
+                  <v>0.0212094</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0218422</v>
+                  <v>0.0218012</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0225976</v>
+                  <v>0.0225426</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.023464</v>
+                  <v>0.0233782</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0247861</v>
+                  <v>0.0246526</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0263224</v>
+                  <v>0.0261541</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0291543</v>
+                  <v>0.0288267</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0329324</v>
+                  <v>0.0324146</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0390016</v>
+                  <v>0.0383102</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0204605</v>
+                  <v>0.0205245</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.020763</v>
+                  <v>0.0207576</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0211036</v>
+                  <v>0.0210818</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0214464</v>
+                  <v>0.0214063</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0218044</v>
+                  <v>0.0217707</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.02235</v>
+                  <v>0.0222808</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0228519</v>
+                  <v>0.0227865</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0235195</v>
+                  <v>0.0234609</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0244936</v>
+                  <v>0.0243803</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0258272</v>
+                  <v>0.0256999</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0276262</v>
+                  <v>0.0274345</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0303212</v>
+                  <v>0.0299708</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0343892</v>
+                  <v>0.0339134</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0407201</v>
+                  <v>0.0399682</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0517515</v>
+                  <v>0.0509853</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0210642</v>
+                  <v>0.0210663</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0214078</v>
+                  <v>0.0214128</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0217171</v>
+                  <v>0.0217044</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0221679</v>
+                  <v>0.0220793</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0225732</v>
+                  <v>0.0225101</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0231145</v>
+                  <v>0.0230847</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.023886</v>
+                  <v>0.0238389</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0248041</v>
+                  <v>0.0247061</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0260928</v>
+                  <v>0.0259229</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0279417</v>
+                  <v>0.027636</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0307152</v>
+                  <v>0.0300556</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0341993</v>
+                  <v>0.033803</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0399898</v>
+                  <v>0.0394898</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0497379</v>
+                  <v>0.0492793</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0218936</v>
+                  <v>0.0212983</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0223402</v>
+                  <v>0.0216173</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0229967</v>
+                  <v>0.0220136</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0238374</v>
+                  <v>0.0224719</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0244912</v>
+                  <v>0.0229306</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0255432</v>
+                  <v>0.0235925</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0269618</v>
+                  <v>0.0244368</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0283241</v>
+                  <v>0.0254208</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0302692</v>
+                  <v>0.0267328</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0321612</v>
+                  <v>0.0283669</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0348082</v>
+                  <v>0.0308234</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0382122</v>
+                  <v>0.0342177</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0434233</v>
+                  <v>0.0393046</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0534129</v>
+                  <v>0.0481634</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0282249</v>
+                  <v>0.0230218</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.029139</v>
+                  <v>0.0235096</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.03133</v>
+                  <v>0.024067</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0341335</v>
+                  <v>0.0247073</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0381704</v>
+                  <v>0.0254037</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0428413</v>
+                  <v>0.0268593</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0471767</v>
+                  <v>0.0290853</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0508107</v>
+                  <v>0.0319312</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0541568</v>
+                  <v>0.0351347</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0573175</v>
+                  <v>0.0384163</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0605919</v>
+                  <v>0.0415243</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.06430470000000001</v>
+                  <v>0.0448445</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.06932820000000001</v>
+                  <v>0.049027</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.07656540000000001</v>
+                  <v>0.0554999</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0513709</v>
+                  <v>0.0351618</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0528133</v>
+                  <v>0.0362013</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0541587</v>
+                  <v>0.0370039</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0555634</v>
+                  <v>0.0378586</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.0569233</v>
+                  <v>0.0386194</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0585293</v>
+                  <v>0.0394682</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0602617</v>
+                  <v>0.040537</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0619037</v>
+                  <v>0.0416614</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0640491</v>
+                  <v>0.0430189</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0662812</v>
+                  <v>0.0444291</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.06915499999999999</v>
+                  <v>0.0463979</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.07276100000000001</v>
+                  <v>0.0489896</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.07756780000000001</v>
+                  <v>0.0528205</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.0847301</v>
+                  <v>0.058274</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.0960261</v>
+                  <v>0.06796190000000001</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.0604808</v>
+                  <v>0.0403819</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0618613</v>
+                  <v>0.0411282</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.0635545</v>
+                  <v>0.0420223</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.0648304</v>
+                  <v>0.043459</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.06670520000000001</v>
+                  <v>0.0444712</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.0683797</v>
+                  <v>0.0454145</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.0702016</v>
+                  <v>0.0465307</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.0724499</v>
+                  <v>0.0478298</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.07498920000000001</v>
+                  <v>0.0494071</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0779345</v>
+                  <v>0.0513635</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.081499</v>
+                  <v>0.0537652</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.0866347</v>
+                  <v>0.0575184</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.09380090000000001</v>
+                  <v>0.06303880000000001</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.105376</v>
+                  <v>0.0724042</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.0789271</v>
+                  <v>0.0589715</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0802612</v>
+                  <v>0.0597273</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.08157540000000001</v>
+                  <v>0.0603338</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.0829015</v>
+                  <v>0.0607136</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.0845514</v>
+                  <v>0.0616614</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.08594209999999999</v>
+                  <v>0.0623911</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.0877042</v>
+                  <v>0.0637191</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <tx>
+            <strRef>
+              <f>plot!$F$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_node_map</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF66FF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>plot!$A$2:$A$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>10000</v>
+                </pt>
+                <pt idx="1">
+                  <v>10500</v>
+                </pt>
+                <pt idx="2">
+                  <v>11025</v>
+                </pt>
+                <pt idx="3">
+                  <v>11576</v>
+                </pt>
+                <pt idx="4">
+                  <v>12154</v>
+                </pt>
+                <pt idx="5">
+                  <v>12760</v>
+                </pt>
+                <pt idx="6">
+                  <v>13396</v>
+                </pt>
+                <pt idx="7">
+                  <v>14063</v>
+                </pt>
+                <pt idx="8">
+                  <v>14763</v>
+                </pt>
+                <pt idx="9">
+                  <v>15498</v>
+                </pt>
+                <pt idx="10">
+                  <v>16269</v>
+                </pt>
+                <pt idx="11">
+                  <v>17078</v>
+                </pt>
+                <pt idx="12">
+                  <v>17927</v>
+                </pt>
+                <pt idx="13">
+                  <v>18818</v>
+                </pt>
+                <pt idx="14">
+                  <v>19753</v>
+                </pt>
+                <pt idx="15">
+                  <v>20734</v>
+                </pt>
+                <pt idx="16">
+                  <v>21764</v>
+                </pt>
+                <pt idx="17">
+                  <v>22845</v>
+                </pt>
+                <pt idx="18">
+                  <v>23980</v>
+                </pt>
+                <pt idx="19">
+                  <v>25171</v>
+                </pt>
+                <pt idx="20">
+                  <v>26421</v>
+                </pt>
+                <pt idx="21">
+                  <v>27733</v>
+                </pt>
+                <pt idx="22">
+                  <v>29110</v>
+                </pt>
+                <pt idx="23">
+                  <v>30555</v>
+                </pt>
+                <pt idx="24">
+                  <v>32072</v>
+                </pt>
+                <pt idx="25">
+                  <v>33664</v>
+                </pt>
+                <pt idx="26">
+                  <v>35335</v>
+                </pt>
+                <pt idx="27">
+                  <v>37089</v>
+                </pt>
+                <pt idx="28">
+                  <v>38930</v>
+                </pt>
+                <pt idx="29">
+                  <v>40863</v>
+                </pt>
+                <pt idx="30">
+                  <v>42892</v>
+                </pt>
+                <pt idx="31">
+                  <v>45022</v>
+                </pt>
+                <pt idx="32">
+                  <v>47258</v>
+                </pt>
+                <pt idx="33">
+                  <v>49605</v>
+                </pt>
+                <pt idx="34">
+                  <v>52069</v>
+                </pt>
+                <pt idx="35">
+                  <v>54656</v>
+                </pt>
+                <pt idx="36">
+                  <v>57372</v>
+                </pt>
+                <pt idx="37">
+                  <v>60223</v>
+                </pt>
+                <pt idx="38">
+                  <v>63216</v>
+                </pt>
+                <pt idx="39">
+                  <v>66358</v>
+                </pt>
+                <pt idx="40">
+                  <v>69657</v>
+                </pt>
+                <pt idx="41">
+                  <v>73120</v>
+                </pt>
+                <pt idx="42">
+                  <v>76756</v>
+                </pt>
+                <pt idx="43">
+                  <v>80573</v>
+                </pt>
+                <pt idx="44">
+                  <v>84580</v>
+                </pt>
+                <pt idx="45">
+                  <v>88787</v>
+                </pt>
+                <pt idx="46">
+                  <v>93204</v>
+                </pt>
+                <pt idx="47">
+                  <v>97841</v>
+                </pt>
+                <pt idx="48">
+                  <v>102709</v>
+                </pt>
+                <pt idx="49">
+                  <v>107820</v>
+                </pt>
+                <pt idx="50">
+                  <v>113186</v>
+                </pt>
+                <pt idx="51">
+                  <v>118820</v>
+                </pt>
+                <pt idx="52">
+                  <v>124735</v>
+                </pt>
+                <pt idx="53">
+                  <v>130945</v>
+                </pt>
+                <pt idx="54">
+                  <v>137465</v>
+                </pt>
+                <pt idx="55">
+                  <v>144311</v>
+                </pt>
+                <pt idx="56">
+                  <v>151499</v>
+                </pt>
+                <pt idx="57">
+                  <v>159046</v>
+                </pt>
+                <pt idx="58">
+                  <v>166970</v>
+                </pt>
+                <pt idx="59">
+                  <v>175290</v>
+                </pt>
+                <pt idx="60">
+                  <v>184026</v>
+                </pt>
+                <pt idx="61">
+                  <v>193198</v>
+                </pt>
+                <pt idx="62">
+                  <v>202828</v>
+                </pt>
+                <pt idx="63">
+                  <v>212939</v>
+                </pt>
+                <pt idx="64">
+                  <v>223555</v>
+                </pt>
+                <pt idx="65">
+                  <v>234701</v>
+                </pt>
+                <pt idx="66">
+                  <v>246404</v>
+                </pt>
+                <pt idx="67">
+                  <v>258692</v>
+                </pt>
+                <pt idx="68">
+                  <v>271594</v>
+                </pt>
+                <pt idx="69">
+                  <v>285141</v>
+                </pt>
+                <pt idx="70">
+                  <v>299365</v>
+                </pt>
+                <pt idx="71">
+                  <v>314300</v>
+                </pt>
+                <pt idx="72">
+                  <v>329981</v>
+                </pt>
+                <pt idx="73">
+                  <v>346446</v>
+                </pt>
+                <pt idx="74">
+                  <v>363734</v>
+                </pt>
+                <pt idx="75">
+                  <v>381886</v>
+                </pt>
+                <pt idx="76">
+                  <v>400945</v>
+                </pt>
+                <pt idx="77">
+                  <v>420956</v>
+                </pt>
+                <pt idx="78">
+                  <v>441967</v>
+                </pt>
+                <pt idx="79">
+                  <v>464028</v>
+                </pt>
+                <pt idx="80">
+                  <v>487192</v>
+                </pt>
+                <pt idx="81">
+                  <v>511514</v>
+                </pt>
+                <pt idx="82">
+                  <v>537052</v>
+                </pt>
+                <pt idx="83">
+                  <v>563866</v>
+                </pt>
+                <pt idx="84">
+                  <v>592020</v>
+                </pt>
+                <pt idx="85">
+                  <v>621581</v>
+                </pt>
+                <pt idx="86">
+                  <v>652620</v>
+                </pt>
+                <pt idx="87">
+                  <v>685210</v>
+                </pt>
+                <pt idx="88">
+                  <v>719429</v>
+                </pt>
+                <pt idx="89">
+                  <v>755358</v>
+                </pt>
+                <pt idx="90">
+                  <v>793083</v>
+                </pt>
+                <pt idx="91">
+                  <v>832694</v>
+                </pt>
+                <pt idx="92">
+                  <v>874285</v>
+                </pt>
+                <pt idx="93">
+                  <v>917955</v>
+                </pt>
+                <pt idx="94">
+                  <v>963808</v>
+                </pt>
+                <pt idx="95">
+                  <v>1011953</v>
+                </pt>
+                <pt idx="96">
+                  <v>1062505</v>
+                </pt>
+                <pt idx="97">
+                  <v>1115584</v>
+                </pt>
+                <pt idx="98">
+                  <v>1171316</v>
+                </pt>
+                <pt idx="99">
+                  <v>1229834</v>
+                </pt>
+                <pt idx="100">
+                  <v>1291277</v>
+                </pt>
+                <pt idx="101">
+                  <v>1355792</v>
+                </pt>
+                <pt idx="102">
+                  <v>1423532</v>
+                </pt>
+                <pt idx="103">
+                  <v>1494659</v>
+                </pt>
+                <pt idx="104">
+                  <v>1569342</v>
+                </pt>
+                <pt idx="105">
+                  <v>1647759</v>
+                </pt>
+                <pt idx="106">
+                  <v>1730096</v>
+                </pt>
+                <pt idx="107">
+                  <v>1816549</v>
+                </pt>
+                <pt idx="108">
+                  <v>1907324</v>
+                </pt>
+                <pt idx="109">
+                  <v>2002637</v>
+                </pt>
+                <pt idx="110">
+                  <v>2102715</v>
+                </pt>
+                <pt idx="111">
+                  <v>2207796</v>
+                </pt>
+                <pt idx="112">
+                  <v>2318131</v>
+                </pt>
+                <pt idx="113">
+                  <v>2433982</v>
+                </pt>
+                <pt idx="114">
+                  <v>2555625</v>
+                </pt>
+                <pt idx="115">
+                  <v>2683350</v>
+                </pt>
+                <pt idx="116">
+                  <v>2817461</v>
+                </pt>
+                <pt idx="117">
+                  <v>2958277</v>
+                </pt>
+                <pt idx="118">
+                  <v>3106133</v>
+                </pt>
+                <pt idx="119">
+                  <v>3261381</v>
+                </pt>
+                <pt idx="120">
+                  <v>3424391</v>
+                </pt>
+                <pt idx="121">
+                  <v>3595551</v>
+                </pt>
+                <pt idx="122">
+                  <v>3775269</v>
+                </pt>
+                <pt idx="123">
+                  <v>3963972</v>
+                </pt>
+                <pt idx="124">
+                  <v>4162110</v>
+                </pt>
+                <pt idx="125">
+                  <v>4370154</v>
+                </pt>
+                <pt idx="126">
+                  <v>4588600</v>
+                </pt>
+                <pt idx="127">
+                  <v>4817968</v>
+                </pt>
+                <pt idx="128">
+                  <v>5058804</v>
+                </pt>
+                <pt idx="129">
+                  <v>5311681</v>
+                </pt>
+                <pt idx="130">
+                  <v>5577201</v>
+                </pt>
+                <pt idx="131">
+                  <v>5855997</v>
+                </pt>
+                <pt idx="132">
+                  <v>6148732</v>
+                </pt>
+                <pt idx="133">
+                  <v>6456103</v>
+                </pt>
+                <pt idx="134">
+                  <v>6778842</v>
+                </pt>
+                <pt idx="135">
+                  <v>7117717</v>
+                </pt>
+                <pt idx="136">
+                  <v>7473535</v>
+                </pt>
+                <pt idx="137">
+                  <v>7847143</v>
+                </pt>
+                <pt idx="138">
+                  <v>8239431</v>
+                </pt>
+                <pt idx="139">
+                  <v>8651333</v>
+                </pt>
+                <pt idx="140">
+                  <v>9083830</v>
+                </pt>
+                <pt idx="141">
+                  <v>9537951</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>plot!$F$2:$F$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>0.0213731</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.0219128</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.0229614</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.0237155</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.025576</v>
+                </pt>
+                <pt idx="5">
+                  <v>0.029993</v>
+                </pt>
+                <pt idx="6">
+                  <v>0.0372132</v>
+                </pt>
+                <pt idx="7">
+                  <v>0.0191559</v>
+                </pt>
+                <pt idx="8">
+                  <v>0.0193448</v>
+                </pt>
+                <pt idx="9">
+                  <v>0.0196525</v>
+                </pt>
+                <pt idx="10">
+                  <v>0.0200966</v>
+                </pt>
+                <pt idx="11">
+                  <v>0.0202894</v>
+                </pt>
+                <pt idx="12">
+                  <v>0.0206235</v>
+                </pt>
+                <pt idx="13">
+                  <v>0.0211043</v>
+                </pt>
+                <pt idx="14">
+                  <v>0.0218162</v>
+                </pt>
+                <pt idx="15">
+                  <v>0.0225323</v>
+                </pt>
+                <pt idx="16">
+                  <v>0.023233</v>
+                </pt>
+                <pt idx="17">
+                  <v>0.0243677</v>
+                </pt>
+                <pt idx="18">
+                  <v>0.0267946</v>
+                </pt>
+                <pt idx="19">
+                  <v>0.0309274</v>
+                </pt>
+                <pt idx="20">
+                  <v>0.0396682</v>
+                </pt>
+                <pt idx="21">
+                  <v>0.0188515</v>
+                </pt>
+                <pt idx="22">
+                  <v>0.0191092</v>
+                </pt>
+                <pt idx="23">
+                  <v>0.0193229</v>
+                </pt>
+                <pt idx="24">
+                  <v>0.0195956</v>
+                </pt>
+                <pt idx="25">
+                  <v>0.0199672</v>
+                </pt>
+                <pt idx="26">
+                  <v>0.0203555</v>
+                </pt>
+                <pt idx="27">
+                  <v>0.0210076</v>
+                </pt>
+                <pt idx="28">
+                  <v>0.0216355</v>
+                </pt>
+                <pt idx="29">
+                  <v>0.0223774</v>
+                </pt>
+                <pt idx="30">
+                  <v>0.0233702</v>
+                </pt>
+                <pt idx="31">
+                  <v>0.0247201</v>
+                </pt>
+                <pt idx="32">
+                  <v>0.0272634</v>
+                </pt>
+                <pt idx="33">
+                  <v>0.0312534</v>
+                </pt>
+                <pt idx="34">
+                  <v>0.0380069</v>
+                </pt>
+                <pt idx="35">
+                  <v>0.0194619</v>
+                </pt>
+                <pt idx="36">
+                  <v>0.0197841</v>
+                </pt>
+                <pt idx="37">
+                  <v>0.0201213</v>
+                </pt>
+                <pt idx="38">
+                  <v>0.0204515</v>
+                </pt>
+                <pt idx="39">
+                  <v>0.0207924</v>
+                </pt>
+                <pt idx="40">
+                  <v>0.021191</v>
+                </pt>
+                <pt idx="41">
+                  <v>0.0218251</v>
+                </pt>
+                <pt idx="42">
+                  <v>0.0226156</v>
+                </pt>
+                <pt idx="43">
+                  <v>0.0234105</v>
+                </pt>
+                <pt idx="44">
+                  <v>0.0246226</v>
+                </pt>
+                <pt idx="45">
+                  <v>0.0262507</v>
+                </pt>
+                <pt idx="46">
+                  <v>0.0288559</v>
+                </pt>
+                <pt idx="47">
+                  <v>0.0324919</v>
+                </pt>
+                <pt idx="48">
+                  <v>0.0384891</v>
+                </pt>
+                <pt idx="49">
+                  <v>0.0204688</v>
+                </pt>
+                <pt idx="50">
+                  <v>0.0207663</v>
+                </pt>
+                <pt idx="51">
+                  <v>0.0210612</v>
+                </pt>
+                <pt idx="52">
+                  <v>0.0213982</v>
+                </pt>
+                <pt idx="53">
+                  <v>0.0217859</v>
+                </pt>
+                <pt idx="54">
+                  <v>0.0222653</v>
+                </pt>
+                <pt idx="55">
+                  <v>0.0228454</v>
+                </pt>
+                <pt idx="56">
+                  <v>0.0235124</v>
+                </pt>
+                <pt idx="57">
+                  <v>0.0243594</v>
+                </pt>
+                <pt idx="58">
+                  <v>0.0256987</v>
+                </pt>
+                <pt idx="59">
+                  <v>0.0274883</v>
+                </pt>
+                <pt idx="60">
+                  <v>0.0300593</v>
+                </pt>
+                <pt idx="61">
+                  <v>0.0340648</v>
+                </pt>
+                <pt idx="62">
+                  <v>0.0401741</v>
+                </pt>
+                <pt idx="63">
+                  <v>0.0512194</v>
+                </pt>
+                <pt idx="64">
+                  <v>0.0210961</v>
+                </pt>
+                <pt idx="65">
+                  <v>0.0213836</v>
+                </pt>
+                <pt idx="66">
+                  <v>0.0217762</v>
+                </pt>
+                <pt idx="67">
+                  <v>0.0220643</v>
+                </pt>
+                <pt idx="68">
+                  <v>0.0226375</v>
+                </pt>
+                <pt idx="69">
+                  <v>0.0232502</v>
+                </pt>
+                <pt idx="70">
+                  <v>0.0239062</v>
+                </pt>
+                <pt idx="71">
+                  <v>0.0248356</v>
+                </pt>
+                <pt idx="72">
+                  <v>0.026065</v>
+                </pt>
+                <pt idx="73">
+                  <v>0.0279232</v>
+                </pt>
+                <pt idx="74">
+                  <v>0.0305011</v>
+                </pt>
+                <pt idx="75">
+                  <v>0.0343393</v>
+                </pt>
+                <pt idx="76">
+                  <v>0.0399486</v>
+                </pt>
+                <pt idx="77">
+                  <v>0.0496558</v>
+                </pt>
+                <pt idx="78">
+                  <v>0.0218532</v>
+                </pt>
+                <pt idx="79">
+                  <v>0.0222095</v>
+                </pt>
+                <pt idx="80">
+                  <v>0.0228944</v>
+                </pt>
+                <pt idx="81">
+                  <v>0.0236355</v>
+                </pt>
+                <pt idx="82">
+                  <v>0.0243062</v>
+                </pt>
+                <pt idx="83">
+                  <v>0.0253495</v>
+                </pt>
+                <pt idx="84">
+                  <v>0.0267319</v>
+                </pt>
+                <pt idx="85">
+                  <v>0.0282859</v>
+                </pt>
+                <pt idx="86">
+                  <v>0.0299437</v>
+                </pt>
+                <pt idx="87">
+                  <v>0.0317743</v>
+                </pt>
+                <pt idx="88">
+                  <v>0.0345472</v>
+                </pt>
+                <pt idx="89">
+                  <v>0.0380622</v>
+                </pt>
+                <pt idx="90">
+                  <v>0.0432275</v>
+                </pt>
+                <pt idx="91">
+                  <v>0.0531484</v>
+                </pt>
+                <pt idx="92">
+                  <v>0.0281559</v>
+                </pt>
+                <pt idx="93">
+                  <v>0.0293133</v>
+                </pt>
+                <pt idx="94">
+                  <v>0.031368</v>
+                </pt>
+                <pt idx="95">
+                  <v>0.0340943</v>
+                </pt>
+                <pt idx="96">
+                  <v>0.0378803</v>
+                </pt>
+                <pt idx="97">
+                  <v>0.0424448</v>
+                </pt>
+                <pt idx="98">
+                  <v>0.0466268</v>
+                </pt>
+                <pt idx="99">
+                  <v>0.0506328</v>
+                </pt>
+                <pt idx="100">
+                  <v>0.0540476</v>
+                </pt>
+                <pt idx="101">
+                  <v>0.0572826</v>
+                </pt>
+                <pt idx="102">
+                  <v>0.0607623</v>
+                </pt>
+                <pt idx="103">
+                  <v>0.0644699</v>
+                </pt>
+                <pt idx="104">
+                  <v>0.0693695</v>
+                </pt>
+                <pt idx="105">
+                  <v>0.0764777</v>
+                </pt>
+                <pt idx="106">
+                  <v>0.0511115</v>
+                </pt>
+                <pt idx="107">
+                  <v>0.05263</v>
+                </pt>
+                <pt idx="108">
+                  <v>0.0540065</v>
+                </pt>
+                <pt idx="109">
+                  <v>0.0553181</v>
+                </pt>
+                <pt idx="110">
+                  <v>0.0566814</v>
+                </pt>
+                <pt idx="111">
+                  <v>0.0582196</v>
+                </pt>
+                <pt idx="112">
+                  <v>0.0599567</v>
+                </pt>
+                <pt idx="113">
+                  <v>0.0618321</v>
+                </pt>
+                <pt idx="114">
+                  <v>0.0637921</v>
+                </pt>
+                <pt idx="115">
+                  <v>0.0661122</v>
+                </pt>
+                <pt idx="116">
+                  <v>0.0689598</v>
+                </pt>
+                <pt idx="117">
+                  <v>0.0725898</v>
+                </pt>
+                <pt idx="118">
+                  <v>0.077532</v>
+                </pt>
+                <pt idx="119">
+                  <v>0.08458259999999999</v>
+                </pt>
+                <pt idx="120">
+                  <v>0.0955395</v>
+                </pt>
+                <pt idx="121">
+                  <v>0.0601745</v>
+                </pt>
+                <pt idx="122">
+                  <v>0.0615969</v>
+                </pt>
+                <pt idx="123">
+                  <v>0.0631738</v>
+                </pt>
+                <pt idx="124">
+                  <v>0.06469229999999999</v>
+                </pt>
+                <pt idx="125">
+                  <v>0.06635340000000001</v>
+                </pt>
+                <pt idx="126">
+                  <v>0.0679819</v>
+                </pt>
+                <pt idx="127">
+                  <v>0.0698984</v>
+                </pt>
+                <pt idx="128">
+                  <v>0.0721822</v>
+                </pt>
+                <pt idx="129">
+                  <v>0.07472959999999999</v>
+                </pt>
+                <pt idx="130">
+                  <v>0.0777127</v>
+                </pt>
+                <pt idx="131">
+                  <v>0.08139440000000001</v>
+                </pt>
+                <pt idx="132">
+                  <v>0.0863636</v>
+                </pt>
+                <pt idx="133">
+                  <v>0.0936022</v>
+                </pt>
+                <pt idx="134">
+                  <v>0.104572</v>
+                </pt>
+                <pt idx="135">
+                  <v>0.0791782</v>
+                </pt>
+                <pt idx="136">
+                  <v>0.0801432</v>
+                </pt>
+                <pt idx="137">
+                  <v>0.0817592</v>
+                </pt>
+                <pt idx="138">
+                  <v>0.0831262</v>
+                </pt>
+                <pt idx="139">
+                  <v>0.0843787</v>
+                </pt>
+                <pt idx="140">
+                  <v>0.0859061</v>
+                </pt>
+                <pt idx="141">
+                  <v>0.0897927</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3792,7 +4694,7 @@
           <x val="0.09943851078021188"/>
           <y val="0.05455922082745843"/>
           <w val="0.3308817338426756"/>
-          <h val="0.2472877044215627"/>
+          <h val="0.3091096305269533"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -4142,7 +5044,7 @@
   <dimension ref="A1:F143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4158,15 +5060,20 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>absl::node_hash_map</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>boost::unordered_map</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>boost::unordered_flat_map</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>boost::unordered_node_map</t>
         </is>

--- a/clang-arm64/Scattered unsuccessful looukp.xlsx
+++ b/clang-arm64/Scattered unsuccessful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0201731</v>
+        <v>0.0193921</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0194065</v>
+        <v>0.0186471</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0719905</v>
+        <v>0.0651211</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0216009</v>
+        <v>0.0215684</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0213731</v>
+        <v>0.0213484</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0223373</v>
+        <v>0.020618</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0224007</v>
+        <v>0.0218034</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0729974</v>
+        <v>0.0764127</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0221084</v>
+        <v>0.0221425</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0219128</v>
+        <v>0.0218909</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0283973</v>
+        <v>0.0263035</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0288135</v>
+        <v>0.0249392</v>
       </c>
       <c r="D4" t="n">
-        <v>0.082431</v>
+        <v>0.07617649999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0230466</v>
+        <v>0.0229772</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0229614</v>
+        <v>0.023075</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0359745</v>
+        <v>0.0323933</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0338387</v>
+        <v>0.0400993</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0738939</v>
+        <v>0.0742215</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0244666</v>
+        <v>0.024339</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0237155</v>
+        <v>0.0237757</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0468578</v>
+        <v>0.0449133</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0464436</v>
+        <v>0.0442192</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0825699</v>
+        <v>0.0845709</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0265716</v>
+        <v>0.0265505</v>
       </c>
       <c r="F6" t="n">
-        <v>0.025576</v>
+        <v>0.0256298</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0662001</v>
+        <v>0.0658818</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0656384</v>
+        <v>0.0617719</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0649699</v>
+        <v>0.0559362</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0306845</v>
+        <v>0.0304389</v>
       </c>
       <c r="F7" t="n">
-        <v>0.029993</v>
+        <v>0.0299406</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0874499</v>
+        <v>0.0882787</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0870889</v>
+        <v>0.0902507</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0601928</v>
+        <v>0.0635037</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0377971</v>
+        <v>0.037888</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0372132</v>
+        <v>0.0380036</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.118178</v>
+        <v>0.118697</v>
       </c>
       <c r="C9" t="n">
-        <v>0.116853</v>
+        <v>0.114995</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0616023</v>
+        <v>0.06752370000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0191766</v>
+        <v>0.019199</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0191559</v>
+        <v>0.0191674</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0163823</v>
+        <v>0.0162873</v>
       </c>
       <c r="C10" t="n">
-        <v>0.016173</v>
+        <v>0.0161849</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0644928</v>
+        <v>0.0675765</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0193893</v>
+        <v>0.0194519</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0193448</v>
+        <v>0.0193773</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0169442</v>
+        <v>0.016551</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0167609</v>
+        <v>0.0165878</v>
       </c>
       <c r="D11" t="n">
-        <v>0.07119880000000001</v>
+        <v>0.0711338</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0197043</v>
+        <v>0.0197467</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0196525</v>
+        <v>0.019672</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0173203</v>
+        <v>0.0170852</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0172318</v>
+        <v>0.0169578</v>
       </c>
       <c r="D12" t="n">
-        <v>0.07261140000000001</v>
+        <v>0.07486429999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0200607</v>
+        <v>0.0200974</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0200966</v>
+        <v>0.0201385</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0179112</v>
+        <v>0.0177161</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0179025</v>
+        <v>0.0178173</v>
       </c>
       <c r="D13" t="n">
-        <v>0.07676910000000001</v>
+        <v>0.0783652</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0204068</v>
+        <v>0.0203996</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0202894</v>
+        <v>0.020303</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0186739</v>
+        <v>0.0180446</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0189746</v>
+        <v>0.0183742</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0821347</v>
+        <v>0.0817447</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0206994</v>
+        <v>0.0206951</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0206235</v>
+        <v>0.020624</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0206062</v>
+        <v>0.0198239</v>
       </c>
       <c r="C15" t="n">
-        <v>0.019983</v>
+        <v>0.0197087</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0866618</v>
+        <v>0.08310389999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0212233</v>
+        <v>0.0212329</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0211043</v>
+        <v>0.0211459</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0231143</v>
+        <v>0.0218668</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0223099</v>
+        <v>0.0214985</v>
       </c>
       <c r="D16" t="n">
-        <v>0.08824650000000001</v>
+        <v>0.0876065</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0219078</v>
+        <v>0.0219412</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0218162</v>
+        <v>0.0218317</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0271457</v>
+        <v>0.0254473</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0264348</v>
+        <v>0.025924</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0907429</v>
+        <v>0.0922468</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0227165</v>
+        <v>0.0227317</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0225323</v>
+        <v>0.0225283</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0334194</v>
+        <v>0.0321027</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0312478</v>
+        <v>0.0309021</v>
       </c>
       <c r="D18" t="n">
-        <v>0.09464789999999999</v>
+        <v>0.0935482</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0235386</v>
+        <v>0.0235165</v>
       </c>
       <c r="F18" t="n">
-        <v>0.023233</v>
+        <v>0.023215</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0418801</v>
+        <v>0.0408143</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0404906</v>
+        <v>0.0403713</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0952583</v>
+        <v>0.0930976</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0248559</v>
+        <v>0.0248624</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0243677</v>
+        <v>0.0244384</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0544232</v>
+        <v>0.0506906</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0537627</v>
+        <v>0.053136</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0964115</v>
+        <v>0.09793350000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0272925</v>
+        <v>0.0273377</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0267946</v>
+        <v>0.0268834</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.06979779999999999</v>
+        <v>0.06947589999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0690885</v>
+        <v>0.06895179999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0694861</v>
+        <v>0.06559</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0311581</v>
+        <v>0.0309656</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0309274</v>
+        <v>0.030805</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0938215</v>
+        <v>0.09165810000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0933016</v>
+        <v>0.0938047</v>
       </c>
       <c r="D22" t="n">
-        <v>0.07024809999999999</v>
+        <v>0.0688617</v>
       </c>
       <c r="E22" t="n">
-        <v>0.039445</v>
+        <v>0.039284</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0396682</v>
+        <v>0.039488</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.121481</v>
+        <v>0.12086</v>
       </c>
       <c r="C23" t="n">
-        <v>0.118794</v>
+        <v>0.120831</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0724142</v>
+        <v>0.0720817</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0189417</v>
+        <v>0.0189961</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0188515</v>
+        <v>0.0188608</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0166604</v>
+        <v>0.0164095</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0162717</v>
+        <v>0.0162748</v>
       </c>
       <c r="D24" t="n">
-        <v>0.07515040000000001</v>
+        <v>0.0760073</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0192166</v>
+        <v>0.0192505</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0191092</v>
+        <v>0.0191287</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0171542</v>
+        <v>0.0169585</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0168356</v>
+        <v>0.0167885</v>
       </c>
       <c r="D25" t="n">
-        <v>0.07962320000000001</v>
+        <v>0.0798798</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0194402</v>
+        <v>0.0194386</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0193229</v>
+        <v>0.0193447</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0177934</v>
+        <v>0.0178776</v>
       </c>
       <c r="C26" t="n">
-        <v>0.017468</v>
+        <v>0.0175541</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0832406</v>
+        <v>0.0819307</v>
       </c>
       <c r="E26" t="n">
-        <v>0.01967</v>
+        <v>0.0196797</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0195956</v>
+        <v>0.0195872</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0184952</v>
+        <v>0.018628</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0182377</v>
+        <v>0.0183243</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0852619</v>
+        <v>0.0855178</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0200648</v>
+        <v>0.020071</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0199672</v>
+        <v>0.0199798</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0201196</v>
+        <v>0.0204023</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0194683</v>
+        <v>0.0198278</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0896028</v>
+        <v>0.08837680000000001</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0205084</v>
+        <v>0.0205075</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0203555</v>
+        <v>0.020382</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0218972</v>
+        <v>0.0226629</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0212317</v>
+        <v>0.0221165</v>
       </c>
       <c r="D29" t="n">
-        <v>0.09148480000000001</v>
+        <v>0.09076190000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0211482</v>
+        <v>0.0212009</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0210076</v>
+        <v>0.0210324</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0251077</v>
+        <v>0.0254525</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0242552</v>
+        <v>0.0250608</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0939405</v>
+        <v>0.09438340000000001</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0217413</v>
+        <v>0.0217353</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0216355</v>
+        <v>0.0216515</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0292352</v>
+        <v>0.0298213</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0284577</v>
+        <v>0.029972</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0965188</v>
+        <v>0.0972643</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0226275</v>
+        <v>0.0226093</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0223774</v>
+        <v>0.0224072</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0347619</v>
+        <v>0.036106</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0343277</v>
+        <v>0.0363934</v>
       </c>
       <c r="D32" t="n">
-        <v>0.09831380000000001</v>
+        <v>0.0986947</v>
       </c>
       <c r="E32" t="n">
-        <v>0.023562</v>
+        <v>0.0235648</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0233702</v>
+        <v>0.0233654</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0435356</v>
+        <v>0.0440745</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0428176</v>
+        <v>0.0430802</v>
       </c>
       <c r="D33" t="n">
-        <v>0.100199</v>
+        <v>0.10026</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0249451</v>
+        <v>0.0249615</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0247201</v>
+        <v>0.024737</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0537204</v>
+        <v>0.0561342</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0534805</v>
+        <v>0.0548774</v>
       </c>
       <c r="D34" t="n">
-        <v>0.102902</v>
+        <v>0.102641</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0273574</v>
+        <v>0.027374</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0272634</v>
+        <v>0.0273187</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0688154</v>
+        <v>0.071795</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0688173</v>
+        <v>0.07086969999999999</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0698054</v>
+        <v>0.0693397</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0311211</v>
+        <v>0.0311926</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0312534</v>
+        <v>0.0311931</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.09015720000000001</v>
+        <v>0.09422079999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0907517</v>
+        <v>0.09481299999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0726036</v>
+        <v>0.0723775</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0379297</v>
+        <v>0.0378414</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0380069</v>
+        <v>0.0381778</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.116026</v>
+        <v>0.120452</v>
       </c>
       <c r="C37" t="n">
-        <v>0.117543</v>
+        <v>0.121287</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0757068</v>
+        <v>0.0756555</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0194402</v>
+        <v>0.0194256</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0194619</v>
+        <v>0.0194562</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0170183</v>
+        <v>0.0171413</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0168393</v>
+        <v>0.0170702</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0793538</v>
+        <v>0.0793841</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0197588</v>
+        <v>0.0197583</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0197841</v>
+        <v>0.0197826</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0178123</v>
+        <v>0.0177468</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0175714</v>
+        <v>0.0177177</v>
       </c>
       <c r="D39" t="n">
-        <v>0.083243</v>
+        <v>0.08290989999999999</v>
       </c>
       <c r="E39" t="n">
-        <v>0.020083</v>
+        <v>0.0200972</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0201213</v>
+        <v>0.0201021</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.01864</v>
+        <v>0.0187144</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0184474</v>
+        <v>0.0186241</v>
       </c>
       <c r="D40" t="n">
-        <v>0.08550199999999999</v>
+        <v>0.0859959</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0204271</v>
+        <v>0.0204109</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0204515</v>
+        <v>0.0204636</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0197201</v>
+        <v>0.0200622</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0198324</v>
+        <v>0.0197243</v>
       </c>
       <c r="D41" t="n">
-        <v>0.08859019999999999</v>
+        <v>0.0890005</v>
       </c>
       <c r="E41" t="n">
-        <v>0.020797</v>
+        <v>0.0207591</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0207924</v>
+        <v>0.0207786</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0215528</v>
+        <v>0.0219765</v>
       </c>
       <c r="C42" t="n">
-        <v>0.021464</v>
+        <v>0.0215504</v>
       </c>
       <c r="D42" t="n">
-        <v>0.09167649999999999</v>
+        <v>0.0921848</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0212094</v>
+        <v>0.0211956</v>
       </c>
       <c r="F42" t="n">
-        <v>0.021191</v>
+        <v>0.0212001</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0238953</v>
+        <v>0.0246508</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0237258</v>
+        <v>0.0237497</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0949025</v>
+        <v>0.09515129999999999</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0218012</v>
+        <v>0.0217942</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0218251</v>
+        <v>0.021836</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0270839</v>
+        <v>0.0284382</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0270856</v>
+        <v>0.0270054</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0970295</v>
+        <v>0.097174</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0225426</v>
+        <v>0.0225308</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0226156</v>
+        <v>0.0226352</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0315753</v>
+        <v>0.0326313</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0315007</v>
+        <v>0.0317255</v>
       </c>
       <c r="D45" t="n">
-        <v>0.100157</v>
+        <v>0.099564</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0233782</v>
+        <v>0.0233512</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0234105</v>
+        <v>0.023419</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0372642</v>
+        <v>0.0383704</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0372003</v>
+        <v>0.0374348</v>
       </c>
       <c r="D46" t="n">
-        <v>0.102332</v>
+        <v>0.101999</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0246526</v>
+        <v>0.0245701</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0246226</v>
+        <v>0.0246073</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0449549</v>
+        <v>0.0459481</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0443335</v>
+        <v>0.0440827</v>
       </c>
       <c r="D47" t="n">
-        <v>0.104522</v>
+        <v>0.104099</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0261541</v>
+        <v>0.0261002</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0262507</v>
+        <v>0.0261741</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0551349</v>
+        <v>0.057032</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0545841</v>
+        <v>0.0556613</v>
       </c>
       <c r="D48" t="n">
-        <v>0.105831</v>
+        <v>0.106553</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0288267</v>
+        <v>0.0287808</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0288559</v>
+        <v>0.0288264</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.06987989999999999</v>
+        <v>0.0705218</v>
       </c>
       <c r="C49" t="n">
-        <v>0.06922639999999999</v>
+        <v>0.06965730000000001</v>
       </c>
       <c r="D49" t="n">
-        <v>0.108825</v>
+        <v>0.108721</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0324146</v>
+        <v>0.0323138</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0324919</v>
+        <v>0.0324916</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.09050619999999999</v>
+        <v>0.09185260000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0899831</v>
+        <v>0.09092359999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0755461</v>
+        <v>0.07556499999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0383102</v>
+        <v>0.0382581</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0384891</v>
+        <v>0.0384712</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.116517</v>
+        <v>0.116607</v>
       </c>
       <c r="C51" t="n">
-        <v>0.117779</v>
+        <v>0.118591</v>
       </c>
       <c r="D51" t="n">
-        <v>0.078995</v>
+        <v>0.0790884</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0205245</v>
+        <v>0.0204735</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0204688</v>
+        <v>0.0204761</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.142867</v>
+        <v>0.142549</v>
       </c>
       <c r="C52" t="n">
-        <v>0.142876</v>
+        <v>0.143182</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0825134</v>
+        <v>0.0827669</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0207576</v>
+        <v>0.020735</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0207663</v>
+        <v>0.0207501</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0189245</v>
+        <v>0.0190122</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0191296</v>
+        <v>0.018924</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0867947</v>
+        <v>0.0863516</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0210818</v>
+        <v>0.0210508</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0210612</v>
+        <v>0.0211446</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0202459</v>
+        <v>0.0203591</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0201955</v>
+        <v>0.0199103</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0901161</v>
+        <v>0.0894914</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0214063</v>
+        <v>0.0213765</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0213982</v>
+        <v>0.0214243</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0217405</v>
+        <v>0.0218336</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0216483</v>
+        <v>0.0214253</v>
       </c>
       <c r="D55" t="n">
-        <v>0.09300659999999999</v>
+        <v>0.0937707</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0217707</v>
+        <v>0.0217619</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0217859</v>
+        <v>0.0218284</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0238386</v>
+        <v>0.0239355</v>
       </c>
       <c r="C56" t="n">
-        <v>0.023403</v>
+        <v>0.0233444</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0971045</v>
+        <v>0.09633220000000001</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0222808</v>
+        <v>0.0222242</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0222653</v>
+        <v>0.022363</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0263284</v>
+        <v>0.0263712</v>
       </c>
       <c r="C57" t="n">
-        <v>0.026064</v>
+        <v>0.0258938</v>
       </c>
       <c r="D57" t="n">
-        <v>0.10016</v>
+        <v>0.0987913</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0227865</v>
+        <v>0.0228002</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0228454</v>
+        <v>0.0228464</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0295381</v>
+        <v>0.0297518</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0294373</v>
+        <v>0.0293701</v>
       </c>
       <c r="D58" t="n">
-        <v>0.102369</v>
+        <v>0.102741</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0234609</v>
+        <v>0.0234287</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0235124</v>
+        <v>0.0236149</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0336662</v>
+        <v>0.0341056</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0339117</v>
+        <v>0.0335721</v>
       </c>
       <c r="D59" t="n">
-        <v>0.105472</v>
+        <v>0.104289</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0243803</v>
+        <v>0.0243463</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0243594</v>
+        <v>0.0244278</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0393238</v>
+        <v>0.0397462</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0393543</v>
+        <v>0.0394424</v>
       </c>
       <c r="D60" t="n">
-        <v>0.108186</v>
+        <v>0.107621</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0256999</v>
+        <v>0.0256516</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0256987</v>
+        <v>0.0257151</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0464554</v>
+        <v>0.0469187</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0465728</v>
+        <v>0.0469272</v>
       </c>
       <c r="D61" t="n">
-        <v>0.110002</v>
+        <v>0.109695</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0274345</v>
+        <v>0.0273995</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0274883</v>
+        <v>0.0274599</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0563056</v>
+        <v>0.056764</v>
       </c>
       <c r="C62" t="n">
-        <v>0.056655</v>
+        <v>0.0566263</v>
       </c>
       <c r="D62" t="n">
-        <v>0.112754</v>
+        <v>0.111102</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0299708</v>
+        <v>0.0299676</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0300593</v>
+        <v>0.0300871</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0704912</v>
+        <v>0.0700862</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0699357</v>
+        <v>0.07079779999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>0.115747</v>
+        <v>0.117279</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0339134</v>
+        <v>0.0338032</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0340648</v>
+        <v>0.0340411</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.090473</v>
+        <v>0.08950139999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0901044</v>
+        <v>0.0901092</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0811159</v>
+        <v>0.0810985</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0399682</v>
+        <v>0.0399663</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0401741</v>
+        <v>0.0403834</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.116153</v>
+        <v>0.114579</v>
       </c>
       <c r="C65" t="n">
-        <v>0.117115</v>
+        <v>0.116232</v>
       </c>
       <c r="D65" t="n">
-        <v>0.08591849999999999</v>
+        <v>0.0862299</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0509853</v>
+        <v>0.0508814</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0512194</v>
+        <v>0.0513471</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.148156</v>
+        <v>0.146011</v>
       </c>
       <c r="C66" t="n">
-        <v>0.147525</v>
+        <v>0.147167</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0904712</v>
+        <v>0.0901192</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0210663</v>
+        <v>0.021015</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0210961</v>
+        <v>0.0210611</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0199809</v>
+        <v>0.0196827</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0200422</v>
+        <v>0.0195891</v>
       </c>
       <c r="D67" t="n">
-        <v>0.094886</v>
+        <v>0.0958891</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0214128</v>
+        <v>0.0213736</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0213836</v>
+        <v>0.0214012</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0212024</v>
+        <v>0.0210043</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0210888</v>
+        <v>0.0209604</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0995163</v>
+        <v>0.100875</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0217044</v>
+        <v>0.0216872</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0217762</v>
+        <v>0.0217405</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0226467</v>
+        <v>0.0227553</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0229847</v>
+        <v>0.0225167</v>
       </c>
       <c r="D69" t="n">
-        <v>0.10423</v>
+        <v>0.10523</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0220793</v>
+        <v>0.0220352</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0220643</v>
+        <v>0.0220833</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0247555</v>
+        <v>0.0245665</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0248889</v>
+        <v>0.024636</v>
       </c>
       <c r="D70" t="n">
-        <v>0.108446</v>
+        <v>0.111795</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0225101</v>
+        <v>0.0224802</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0226375</v>
+        <v>0.0225525</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0272389</v>
+        <v>0.027391</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0271453</v>
+        <v>0.0268421</v>
       </c>
       <c r="D71" t="n">
-        <v>0.115564</v>
+        <v>0.115617</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0230847</v>
+        <v>0.0230233</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0232502</v>
+        <v>0.023081</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0304965</v>
+        <v>0.0306565</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0304582</v>
+        <v>0.0301264</v>
       </c>
       <c r="D72" t="n">
-        <v>0.120256</v>
+        <v>0.119828</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0238389</v>
+        <v>0.0238197</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0239062</v>
+        <v>0.0238651</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.034774</v>
+        <v>0.0345612</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0344984</v>
+        <v>0.0343956</v>
       </c>
       <c r="D73" t="n">
-        <v>0.124687</v>
+        <v>0.12519</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0247061</v>
+        <v>0.0247535</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0248356</v>
+        <v>0.024777</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0399272</v>
+        <v>0.0399292</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0397809</v>
+        <v>0.0394395</v>
       </c>
       <c r="D74" t="n">
-        <v>0.130917</v>
+        <v>0.131924</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0259229</v>
+        <v>0.0258309</v>
       </c>
       <c r="F74" t="n">
-        <v>0.026065</v>
+        <v>0.0260074</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0466726</v>
+        <v>0.0467449</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0470601</v>
+        <v>0.0464104</v>
       </c>
       <c r="D75" t="n">
-        <v>0.135851</v>
+        <v>0.135437</v>
       </c>
       <c r="E75" t="n">
-        <v>0.027636</v>
+        <v>0.0275913</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0279232</v>
+        <v>0.0277357</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0562112</v>
+        <v>0.0563424</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0565718</v>
+        <v>0.0557607</v>
       </c>
       <c r="D76" t="n">
-        <v>0.141198</v>
+        <v>0.140617</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0300556</v>
+        <v>0.0300138</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0305011</v>
+        <v>0.030224</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0692453</v>
+        <v>0.0692763</v>
       </c>
       <c r="C77" t="n">
-        <v>0.06901500000000001</v>
+        <v>0.0688764</v>
       </c>
       <c r="D77" t="n">
-        <v>0.147703</v>
+        <v>0.147474</v>
       </c>
       <c r="E77" t="n">
-        <v>0.033803</v>
+        <v>0.033718</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0343393</v>
+        <v>0.0341281</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.08731709999999999</v>
+        <v>0.0872874</v>
       </c>
       <c r="C78" t="n">
-        <v>0.087157</v>
+        <v>0.0875397</v>
       </c>
       <c r="D78" t="n">
-        <v>0.111012</v>
+        <v>0.110139</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0394898</v>
+        <v>0.0394789</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0399486</v>
+        <v>0.039898</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.112012</v>
+        <v>0.111582</v>
       </c>
       <c r="C79" t="n">
-        <v>0.112264</v>
+        <v>0.112531</v>
       </c>
       <c r="D79" t="n">
-        <v>0.120113</v>
+        <v>0.121269</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0492793</v>
+        <v>0.0492263</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0496558</v>
+        <v>0.0495261</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.143596</v>
+        <v>0.143639</v>
       </c>
       <c r="C80" t="n">
-        <v>0.144133</v>
+        <v>0.143794</v>
       </c>
       <c r="D80" t="n">
-        <v>0.124171</v>
+        <v>0.125326</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0212983</v>
+        <v>0.0212785</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0218532</v>
+        <v>0.0218031</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0198969</v>
+        <v>0.020281</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0200835</v>
+        <v>0.0201123</v>
       </c>
       <c r="D81" t="n">
-        <v>0.131036</v>
+        <v>0.134418</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0216173</v>
+        <v>0.0216399</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0222095</v>
+        <v>0.0223031</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0211685</v>
+        <v>0.0213587</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0214419</v>
+        <v>0.0218663</v>
       </c>
       <c r="D82" t="n">
-        <v>0.138476</v>
+        <v>0.143541</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0220136</v>
+        <v>0.022039</v>
       </c>
       <c r="F82" t="n">
-        <v>0.0228944</v>
+        <v>0.0231573</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0228963</v>
+        <v>0.0229456</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0229504</v>
+        <v>0.0231395</v>
       </c>
       <c r="D83" t="n">
-        <v>0.145921</v>
+        <v>0.151115</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0224719</v>
+        <v>0.0224322</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0236355</v>
+        <v>0.0237331</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0246315</v>
+        <v>0.0247706</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0250695</v>
+        <v>0.025173</v>
       </c>
       <c r="D84" t="n">
-        <v>0.154954</v>
+        <v>0.156752</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0229306</v>
+        <v>0.0229647</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0243062</v>
+        <v>0.0245643</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0270319</v>
+        <v>0.0275588</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0273812</v>
+        <v>0.0279864</v>
       </c>
       <c r="D85" t="n">
-        <v>0.163989</v>
+        <v>0.161516</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0235925</v>
+        <v>0.0236027</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0253495</v>
+        <v>0.0259733</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0301633</v>
+        <v>0.0302908</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0308585</v>
+        <v>0.0308174</v>
       </c>
       <c r="D86" t="n">
-        <v>0.168326</v>
+        <v>0.17028</v>
       </c>
       <c r="E86" t="n">
-        <v>0.0244368</v>
+        <v>0.0244762</v>
       </c>
       <c r="F86" t="n">
-        <v>0.0267319</v>
+        <v>0.0268836</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0343003</v>
+        <v>0.0342801</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0344507</v>
+        <v>0.0348105</v>
       </c>
       <c r="D87" t="n">
-        <v>0.177149</v>
+        <v>0.180825</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0254208</v>
+        <v>0.0254823</v>
       </c>
       <c r="F87" t="n">
-        <v>0.0282859</v>
+        <v>0.0284036</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0392099</v>
+        <v>0.0392986</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0394985</v>
+        <v>0.0395328</v>
       </c>
       <c r="D88" t="n">
-        <v>0.182049</v>
+        <v>0.182283</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0267328</v>
+        <v>0.0267595</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0299437</v>
+        <v>0.0301789</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0461135</v>
+        <v>0.0459011</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0460324</v>
+        <v>0.0459677</v>
       </c>
       <c r="D89" t="n">
-        <v>0.18983</v>
+        <v>0.193123</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0283669</v>
+        <v>0.0283939</v>
       </c>
       <c r="F89" t="n">
-        <v>0.0317743</v>
+        <v>0.03203</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0547299</v>
+        <v>0.054482</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0550461</v>
+        <v>0.054831</v>
       </c>
       <c r="D90" t="n">
-        <v>0.198267</v>
+        <v>0.198804</v>
       </c>
       <c r="E90" t="n">
-        <v>0.0308234</v>
+        <v>0.0308088</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0345472</v>
+        <v>0.0348003</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0668189</v>
+        <v>0.06651650000000001</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0671224</v>
+        <v>0.0668122</v>
       </c>
       <c r="D91" t="n">
-        <v>0.205699</v>
+        <v>0.207925</v>
       </c>
       <c r="E91" t="n">
-        <v>0.0342177</v>
+        <v>0.034144</v>
       </c>
       <c r="F91" t="n">
-        <v>0.0380622</v>
+        <v>0.0382636</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0836469</v>
+        <v>0.0835526</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0844076</v>
+        <v>0.08425920000000001</v>
       </c>
       <c r="D92" t="n">
-        <v>0.155131</v>
+        <v>0.156239</v>
       </c>
       <c r="E92" t="n">
-        <v>0.0393046</v>
+        <v>0.0392969</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0432275</v>
+        <v>0.0438451</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.107787</v>
+        <v>0.107487</v>
       </c>
       <c r="C93" t="n">
-        <v>0.109009</v>
+        <v>0.108763</v>
       </c>
       <c r="D93" t="n">
-        <v>0.161371</v>
+        <v>0.163923</v>
       </c>
       <c r="E93" t="n">
-        <v>0.0481634</v>
+        <v>0.0481543</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0531484</v>
+        <v>0.0535145</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.138233</v>
+        <v>0.138296</v>
       </c>
       <c r="C94" t="n">
-        <v>0.139885</v>
+        <v>0.13957</v>
       </c>
       <c r="D94" t="n">
-        <v>0.167644</v>
+        <v>0.167816</v>
       </c>
       <c r="E94" t="n">
-        <v>0.0230218</v>
+        <v>0.0230102</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0281559</v>
+        <v>0.0283301</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.021069</v>
+        <v>0.0211004</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0246877</v>
+        <v>0.0246706</v>
       </c>
       <c r="D95" t="n">
-        <v>0.174382</v>
+        <v>0.176707</v>
       </c>
       <c r="E95" t="n">
-        <v>0.0235096</v>
+        <v>0.0234709</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0293133</v>
+        <v>0.0295818</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0216843</v>
+        <v>0.0218996</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0262639</v>
+        <v>0.0263776</v>
       </c>
       <c r="D96" t="n">
-        <v>0.180841</v>
+        <v>0.182879</v>
       </c>
       <c r="E96" t="n">
-        <v>0.024067</v>
+        <v>0.0239962</v>
       </c>
       <c r="F96" t="n">
-        <v>0.031368</v>
+        <v>0.0314223</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0235278</v>
+        <v>0.023416</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0285106</v>
+        <v>0.0294247</v>
       </c>
       <c r="D97" t="n">
-        <v>0.18713</v>
+        <v>0.190234</v>
       </c>
       <c r="E97" t="n">
-        <v>0.0247073</v>
+        <v>0.0246296</v>
       </c>
       <c r="F97" t="n">
-        <v>0.0340943</v>
+        <v>0.0345996</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0252833</v>
+        <v>0.0253312</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0326365</v>
+        <v>0.0329781</v>
       </c>
       <c r="D98" t="n">
-        <v>0.194952</v>
+        <v>0.194777</v>
       </c>
       <c r="E98" t="n">
-        <v>0.0254037</v>
+        <v>0.0254916</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0378803</v>
+        <v>0.0383183</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0276404</v>
+        <v>0.0271447</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0376421</v>
+        <v>0.0379096</v>
       </c>
       <c r="D99" t="n">
-        <v>0.202006</v>
+        <v>0.204823</v>
       </c>
       <c r="E99" t="n">
-        <v>0.0268593</v>
+        <v>0.0268811</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0424448</v>
+        <v>0.0426534</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0303935</v>
+        <v>0.0303647</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0431873</v>
+        <v>0.0439735</v>
       </c>
       <c r="D100" t="n">
-        <v>0.210399</v>
+        <v>0.212582</v>
       </c>
       <c r="E100" t="n">
-        <v>0.0290853</v>
+        <v>0.0290289</v>
       </c>
       <c r="F100" t="n">
-        <v>0.0466268</v>
+        <v>0.0467389</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0347047</v>
+        <v>0.0344804</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0495911</v>
+        <v>0.049874</v>
       </c>
       <c r="D101" t="n">
-        <v>0.216909</v>
+        <v>0.219687</v>
       </c>
       <c r="E101" t="n">
-        <v>0.0319312</v>
+        <v>0.0319421</v>
       </c>
       <c r="F101" t="n">
-        <v>0.0506328</v>
+        <v>0.0507136</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.03961</v>
+        <v>0.039691</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0557668</v>
+        <v>0.0556005</v>
       </c>
       <c r="D102" t="n">
-        <v>0.225263</v>
+        <v>0.227683</v>
       </c>
       <c r="E102" t="n">
-        <v>0.0351347</v>
+        <v>0.0350408</v>
       </c>
       <c r="F102" t="n">
-        <v>0.0540476</v>
+        <v>0.0540343</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0462842</v>
+        <v>0.046215</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0618652</v>
+        <v>0.0619463</v>
       </c>
       <c r="D103" t="n">
-        <v>0.232957</v>
+        <v>0.234811</v>
       </c>
       <c r="E103" t="n">
-        <v>0.0384163</v>
+        <v>0.0383281</v>
       </c>
       <c r="F103" t="n">
-        <v>0.0572826</v>
+        <v>0.0573311</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0542663</v>
+        <v>0.0541473</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0688729</v>
+        <v>0.0689983</v>
       </c>
       <c r="D104" t="n">
-        <v>0.240595</v>
+        <v>0.243525</v>
       </c>
       <c r="E104" t="n">
-        <v>0.0415243</v>
+        <v>0.0415427</v>
       </c>
       <c r="F104" t="n">
-        <v>0.0607623</v>
+        <v>0.0607456</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.06533070000000001</v>
+        <v>0.0654028</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0776963</v>
+        <v>0.078289</v>
       </c>
       <c r="D105" t="n">
-        <v>0.24943</v>
+        <v>0.252271</v>
       </c>
       <c r="E105" t="n">
-        <v>0.0448445</v>
+        <v>0.0446478</v>
       </c>
       <c r="F105" t="n">
-        <v>0.0644699</v>
+        <v>0.06443500000000001</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0810447</v>
+        <v>0.0810232</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0907839</v>
+        <v>0.091019</v>
       </c>
       <c r="D106" t="n">
-        <v>0.259096</v>
+        <v>0.262135</v>
       </c>
       <c r="E106" t="n">
-        <v>0.049027</v>
+        <v>0.0489929</v>
       </c>
       <c r="F106" t="n">
-        <v>0.0693695</v>
+        <v>0.0704224</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.102744</v>
+        <v>0.102845</v>
       </c>
       <c r="C107" t="n">
-        <v>0.109448</v>
+        <v>0.1096</v>
       </c>
       <c r="D107" t="n">
-        <v>0.189204</v>
+        <v>0.190932</v>
       </c>
       <c r="E107" t="n">
-        <v>0.0554999</v>
+        <v>0.0556547</v>
       </c>
       <c r="F107" t="n">
-        <v>0.0764777</v>
+        <v>0.07683329999999999</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.132435</v>
+        <v>0.132617</v>
       </c>
       <c r="C108" t="n">
-        <v>0.136707</v>
+        <v>0.136481</v>
       </c>
       <c r="D108" t="n">
-        <v>0.195409</v>
+        <v>0.19874</v>
       </c>
       <c r="E108" t="n">
-        <v>0.0351618</v>
+        <v>0.0351601</v>
       </c>
       <c r="F108" t="n">
-        <v>0.0511115</v>
+        <v>0.0515045</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.168123</v>
+        <v>0.168021</v>
       </c>
       <c r="C109" t="n">
-        <v>0.172459</v>
+        <v>0.17219</v>
       </c>
       <c r="D109" t="n">
-        <v>0.202101</v>
+        <v>0.203793</v>
       </c>
       <c r="E109" t="n">
-        <v>0.0362013</v>
+        <v>0.036178</v>
       </c>
       <c r="F109" t="n">
-        <v>0.05263</v>
+        <v>0.0528525</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0311566</v>
+        <v>0.031487</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0467682</v>
+        <v>0.0470141</v>
       </c>
       <c r="D110" t="n">
-        <v>0.208914</v>
+        <v>0.211789</v>
       </c>
       <c r="E110" t="n">
-        <v>0.0370039</v>
+        <v>0.0370797</v>
       </c>
       <c r="F110" t="n">
-        <v>0.0540065</v>
+        <v>0.0543075</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0327274</v>
+        <v>0.0328896</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0483897</v>
+        <v>0.0490185</v>
       </c>
       <c r="D111" t="n">
-        <v>0.216123</v>
+        <v>0.217334</v>
       </c>
       <c r="E111" t="n">
-        <v>0.0378586</v>
+        <v>0.0378829</v>
       </c>
       <c r="F111" t="n">
-        <v>0.0553181</v>
+        <v>0.0557337</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0342032</v>
+        <v>0.0342325</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0507314</v>
+        <v>0.0507457</v>
       </c>
       <c r="D112" t="n">
-        <v>0.223325</v>
+        <v>0.225225</v>
       </c>
       <c r="E112" t="n">
-        <v>0.0386194</v>
+        <v>0.0386958</v>
       </c>
       <c r="F112" t="n">
-        <v>0.0566814</v>
+        <v>0.0571167</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0360288</v>
+        <v>0.0361657</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0528627</v>
+        <v>0.0532522</v>
       </c>
       <c r="D113" t="n">
-        <v>0.230562</v>
+        <v>0.233621</v>
       </c>
       <c r="E113" t="n">
-        <v>0.0394682</v>
+        <v>0.039647</v>
       </c>
       <c r="F113" t="n">
-        <v>0.0582196</v>
+        <v>0.0587627</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.038221</v>
+        <v>0.0383906</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0555484</v>
+        <v>0.0560578</v>
       </c>
       <c r="D114" t="n">
-        <v>0.23813</v>
+        <v>0.242221</v>
       </c>
       <c r="E114" t="n">
-        <v>0.040537</v>
+        <v>0.0405658</v>
       </c>
       <c r="F114" t="n">
-        <v>0.0599567</v>
+        <v>0.0603238</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.0407202</v>
+        <v>0.040929</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0590007</v>
+        <v>0.0593512</v>
       </c>
       <c r="D115" t="n">
-        <v>0.245517</v>
+        <v>0.247876</v>
       </c>
       <c r="E115" t="n">
-        <v>0.0416614</v>
+        <v>0.0418052</v>
       </c>
       <c r="F115" t="n">
-        <v>0.0618321</v>
+        <v>0.0620963</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.0443612</v>
+        <v>0.0442441</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0628261</v>
+        <v>0.0631478</v>
       </c>
       <c r="D116" t="n">
-        <v>0.253672</v>
+        <v>0.256535</v>
       </c>
       <c r="E116" t="n">
-        <v>0.0430189</v>
+        <v>0.0430108</v>
       </c>
       <c r="F116" t="n">
-        <v>0.0637921</v>
+        <v>0.0639692</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.0487038</v>
+        <v>0.0487765</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0678373</v>
+        <v>0.0679352</v>
       </c>
       <c r="D117" t="n">
-        <v>0.262325</v>
+        <v>0.264912</v>
       </c>
       <c r="E117" t="n">
-        <v>0.0444291</v>
+        <v>0.0445312</v>
       </c>
       <c r="F117" t="n">
-        <v>0.0661122</v>
+        <v>0.06634900000000001</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.0551061</v>
+        <v>0.0553593</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0743669</v>
+        <v>0.0742525</v>
       </c>
       <c r="D118" t="n">
-        <v>0.270451</v>
+        <v>0.273086</v>
       </c>
       <c r="E118" t="n">
-        <v>0.0463979</v>
+        <v>0.0465129</v>
       </c>
       <c r="F118" t="n">
-        <v>0.0689598</v>
+        <v>0.0692691</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.0650413</v>
+        <v>0.06492299999999999</v>
       </c>
       <c r="C119" t="n">
-        <v>0.08271000000000001</v>
+        <v>0.0829809</v>
       </c>
       <c r="D119" t="n">
-        <v>0.279981</v>
+        <v>0.281599</v>
       </c>
       <c r="E119" t="n">
-        <v>0.0489896</v>
+        <v>0.0490687</v>
       </c>
       <c r="F119" t="n">
-        <v>0.0725898</v>
+        <v>0.0728111</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.0796751</v>
+        <v>0.079196</v>
       </c>
       <c r="C120" t="n">
-        <v>0.0944628</v>
+        <v>0.0946695</v>
       </c>
       <c r="D120" t="n">
-        <v>0.288965</v>
+        <v>0.290415</v>
       </c>
       <c r="E120" t="n">
-        <v>0.0528205</v>
+        <v>0.0526222</v>
       </c>
       <c r="F120" t="n">
-        <v>0.077532</v>
+        <v>0.077516</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.100197</v>
+        <v>0.100099</v>
       </c>
       <c r="C121" t="n">
-        <v>0.11085</v>
+        <v>0.111426</v>
       </c>
       <c r="D121" t="n">
-        <v>0.20558</v>
+        <v>0.206756</v>
       </c>
       <c r="E121" t="n">
-        <v>0.058274</v>
+        <v>0.0582512</v>
       </c>
       <c r="F121" t="n">
-        <v>0.08458259999999999</v>
+        <v>0.0847875</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.128476</v>
+        <v>0.128392</v>
       </c>
       <c r="C122" t="n">
-        <v>0.135461</v>
+        <v>0.135993</v>
       </c>
       <c r="D122" t="n">
-        <v>0.211153</v>
+        <v>0.212364</v>
       </c>
       <c r="E122" t="n">
-        <v>0.06796190000000001</v>
+        <v>0.06793680000000001</v>
       </c>
       <c r="F122" t="n">
-        <v>0.0955395</v>
+        <v>0.0960468</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.164648</v>
+        <v>0.16413</v>
       </c>
       <c r="C123" t="n">
-        <v>0.170368</v>
+        <v>0.169873</v>
       </c>
       <c r="D123" t="n">
-        <v>0.21773</v>
+        <v>0.218516</v>
       </c>
       <c r="E123" t="n">
-        <v>0.0403819</v>
+        <v>0.040944</v>
       </c>
       <c r="F123" t="n">
-        <v>0.0601745</v>
+        <v>0.0602957</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.0347131</v>
+        <v>0.0340874</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0512479</v>
+        <v>0.0512027</v>
       </c>
       <c r="D124" t="n">
-        <v>0.224538</v>
+        <v>0.224991</v>
       </c>
       <c r="E124" t="n">
-        <v>0.0411282</v>
+        <v>0.0419828</v>
       </c>
       <c r="F124" t="n">
-        <v>0.0615969</v>
+        <v>0.0617134</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.0356762</v>
+        <v>0.0357014</v>
       </c>
       <c r="C125" t="n">
-        <v>0.052865</v>
+        <v>0.0529638</v>
       </c>
       <c r="D125" t="n">
-        <v>0.231602</v>
+        <v>0.232495</v>
       </c>
       <c r="E125" t="n">
-        <v>0.0420223</v>
+        <v>0.0428353</v>
       </c>
       <c r="F125" t="n">
-        <v>0.0631738</v>
+        <v>0.0631791</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.0366723</v>
+        <v>0.0366147</v>
       </c>
       <c r="C126" t="n">
-        <v>0.0549309</v>
+        <v>0.055234</v>
       </c>
       <c r="D126" t="n">
-        <v>0.239227</v>
+        <v>0.239296</v>
       </c>
       <c r="E126" t="n">
-        <v>0.043459</v>
+        <v>0.0436027</v>
       </c>
       <c r="F126" t="n">
-        <v>0.06469229999999999</v>
+        <v>0.06495629999999999</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.0385512</v>
+        <v>0.0385755</v>
       </c>
       <c r="C127" t="n">
-        <v>0.058871</v>
+        <v>0.0587982</v>
       </c>
       <c r="D127" t="n">
-        <v>0.246785</v>
+        <v>0.246483</v>
       </c>
       <c r="E127" t="n">
-        <v>0.0444712</v>
+        <v>0.0445843</v>
       </c>
       <c r="F127" t="n">
-        <v>0.06635340000000001</v>
+        <v>0.06639299999999999</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0406167</v>
+        <v>0.0407353</v>
       </c>
       <c r="C128" t="n">
-        <v>0.0612004</v>
+        <v>0.0615995</v>
       </c>
       <c r="D128" t="n">
-        <v>0.254214</v>
+        <v>0.254062</v>
       </c>
       <c r="E128" t="n">
-        <v>0.0454145</v>
+        <v>0.04556</v>
       </c>
       <c r="F128" t="n">
-        <v>0.0679819</v>
+        <v>0.0681887</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0432628</v>
+        <v>0.0431985</v>
       </c>
       <c r="C129" t="n">
-        <v>0.0650288</v>
+        <v>0.06533310000000001</v>
       </c>
       <c r="D129" t="n">
-        <v>0.26216</v>
+        <v>0.262117</v>
       </c>
       <c r="E129" t="n">
-        <v>0.0465307</v>
+        <v>0.0467907</v>
       </c>
       <c r="F129" t="n">
-        <v>0.0698984</v>
+        <v>0.0700805</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0469616</v>
+        <v>0.0465529</v>
       </c>
       <c r="C130" t="n">
-        <v>0.069248</v>
+        <v>0.0696871</v>
       </c>
       <c r="D130" t="n">
-        <v>0.269644</v>
+        <v>0.269312</v>
       </c>
       <c r="E130" t="n">
-        <v>0.0478298</v>
+        <v>0.0479818</v>
       </c>
       <c r="F130" t="n">
-        <v>0.0721822</v>
+        <v>0.07227550000000001</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0522871</v>
+        <v>0.0527919</v>
       </c>
       <c r="C131" t="n">
-        <v>0.0746687</v>
+        <v>0.0751077</v>
       </c>
       <c r="D131" t="n">
-        <v>0.278269</v>
+        <v>0.278039</v>
       </c>
       <c r="E131" t="n">
-        <v>0.0494071</v>
+        <v>0.0494242</v>
       </c>
       <c r="F131" t="n">
-        <v>0.07472959999999999</v>
+        <v>0.0747632</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0587787</v>
+        <v>0.0590614</v>
       </c>
       <c r="C132" t="n">
-        <v>0.08118839999999999</v>
+        <v>0.0818502</v>
       </c>
       <c r="D132" t="n">
-        <v>0.28676</v>
+        <v>0.285872</v>
       </c>
       <c r="E132" t="n">
-        <v>0.0513635</v>
+        <v>0.051548</v>
       </c>
       <c r="F132" t="n">
-        <v>0.0777127</v>
+        <v>0.0778035</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.06793159999999999</v>
+        <v>0.0687658</v>
       </c>
       <c r="C133" t="n">
-        <v>0.0896735</v>
+        <v>0.09033090000000001</v>
       </c>
       <c r="D133" t="n">
-        <v>0.294905</v>
+        <v>0.294693</v>
       </c>
       <c r="E133" t="n">
-        <v>0.0537652</v>
+        <v>0.054109</v>
       </c>
       <c r="F133" t="n">
-        <v>0.08139440000000001</v>
+        <v>0.081452</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.0818242</v>
+        <v>0.0824826</v>
       </c>
       <c r="C134" t="n">
-        <v>0.101136</v>
+        <v>0.101739</v>
       </c>
       <c r="D134" t="n">
-        <v>0.304292</v>
+        <v>0.303556</v>
       </c>
       <c r="E134" t="n">
-        <v>0.0575184</v>
+        <v>0.057606</v>
       </c>
       <c r="F134" t="n">
-        <v>0.0863636</v>
+        <v>0.0864822</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.10117</v>
+        <v>0.102236</v>
       </c>
       <c r="C135" t="n">
-        <v>0.117614</v>
+        <v>0.118168</v>
       </c>
       <c r="D135" t="n">
-        <v>0.213434</v>
+        <v>0.212597</v>
       </c>
       <c r="E135" t="n">
-        <v>0.06303880000000001</v>
+        <v>0.0633793</v>
       </c>
       <c r="F135" t="n">
-        <v>0.0936022</v>
+        <v>0.0935284</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.129216</v>
+        <v>0.130582</v>
       </c>
       <c r="C136" t="n">
-        <v>0.141623</v>
+        <v>0.142527</v>
       </c>
       <c r="D136" t="n">
-        <v>0.219307</v>
+        <v>0.218627</v>
       </c>
       <c r="E136" t="n">
-        <v>0.0724042</v>
+        <v>0.0725597</v>
       </c>
       <c r="F136" t="n">
-        <v>0.104572</v>
+        <v>0.104598</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.164833</v>
+        <v>0.163628</v>
       </c>
       <c r="C137" t="n">
-        <v>0.176838</v>
+        <v>0.178176</v>
       </c>
       <c r="D137" t="n">
-        <v>0.226031</v>
+        <v>0.224808</v>
       </c>
       <c r="E137" t="n">
-        <v>0.0589715</v>
+        <v>0.0589974</v>
       </c>
       <c r="F137" t="n">
-        <v>0.0791782</v>
+        <v>0.0786389</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.04719</v>
+        <v>0.0471309</v>
       </c>
       <c r="C138" t="n">
-        <v>0.0654614</v>
+        <v>0.065856</v>
       </c>
       <c r="D138" t="n">
-        <v>0.233449</v>
+        <v>0.232074</v>
       </c>
       <c r="E138" t="n">
-        <v>0.0597273</v>
+        <v>0.0608849</v>
       </c>
       <c r="F138" t="n">
-        <v>0.0801432</v>
+        <v>0.08029210000000001</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0477155</v>
+        <v>0.0482982</v>
       </c>
       <c r="C139" t="n">
-        <v>0.0667495</v>
+        <v>0.06751740000000001</v>
       </c>
       <c r="D139" t="n">
-        <v>0.239676</v>
+        <v>0.23916</v>
       </c>
       <c r="E139" t="n">
-        <v>0.0603338</v>
+        <v>0.0600938</v>
       </c>
       <c r="F139" t="n">
-        <v>0.0817592</v>
+        <v>0.0813233</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.0498207</v>
+        <v>0.04912</v>
       </c>
       <c r="C140" t="n">
-        <v>0.06891559999999999</v>
+        <v>0.0693743</v>
       </c>
       <c r="D140" t="n">
-        <v>0.247679</v>
+        <v>0.246493</v>
       </c>
       <c r="E140" t="n">
-        <v>0.0607136</v>
+        <v>0.0607663</v>
       </c>
       <c r="F140" t="n">
-        <v>0.0831262</v>
+        <v>0.082719</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0506207</v>
+        <v>0.0507248</v>
       </c>
       <c r="C141" t="n">
-        <v>0.07127269999999999</v>
+        <v>0.0715558</v>
       </c>
       <c r="D141" t="n">
-        <v>0.255283</v>
+        <v>0.254763</v>
       </c>
       <c r="E141" t="n">
-        <v>0.0616614</v>
+        <v>0.061946</v>
       </c>
       <c r="F141" t="n">
-        <v>0.0843787</v>
+        <v>0.0847668</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.0533573</v>
+        <v>0.0531879</v>
       </c>
       <c r="C142" t="n">
-        <v>0.0736226</v>
+        <v>0.0743809</v>
       </c>
       <c r="D142" t="n">
-        <v>0.262438</v>
+        <v>0.262403</v>
       </c>
       <c r="E142" t="n">
-        <v>0.0623911</v>
+        <v>0.06338630000000001</v>
       </c>
       <c r="F142" t="n">
-        <v>0.0859061</v>
+        <v>0.0855035</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.0561423</v>
+        <v>0.0555798</v>
       </c>
       <c r="C143" t="n">
-        <v>0.077071</v>
+        <v>0.0774687</v>
       </c>
       <c r="D143" t="n">
-        <v>0.270371</v>
+        <v>0.270398</v>
       </c>
       <c r="E143" t="n">
-        <v>0.0637191</v>
+        <v>0.0640505</v>
       </c>
       <c r="F143" t="n">
-        <v>0.0897927</v>
+        <v>0.08710329999999999</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered unsuccessful looukp.xlsx
+++ b/clang-arm64/Scattered unsuccessful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0193921</v>
+        <v>0.0180847</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0186471</v>
+        <v>0.0187701</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0651211</v>
+        <v>0.0682398</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0215684</v>
+        <v>0.021542</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0213484</v>
+        <v>0.0213724</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.020618</v>
+        <v>0.0214274</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0218034</v>
+        <v>0.0195531</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0764127</v>
+        <v>0.0709634</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0221425</v>
+        <v>0.0220444</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0218909</v>
+        <v>0.0219177</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0263035</v>
+        <v>0.0274174</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0249392</v>
+        <v>0.0237169</v>
       </c>
       <c r="D4" t="n">
-        <v>0.07617649999999999</v>
+        <v>0.06906370000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0229772</v>
+        <v>0.0229141</v>
       </c>
       <c r="F4" t="n">
-        <v>0.023075</v>
+        <v>0.0229234</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0323933</v>
+        <v>0.0339774</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0400993</v>
+        <v>0.0310438</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0742215</v>
+        <v>0.07128900000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>0.024339</v>
+        <v>0.0243009</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0237757</v>
+        <v>0.0236396</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0449133</v>
+        <v>0.0440761</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0442192</v>
+        <v>0.0452699</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0845709</v>
+        <v>0.078274</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0265505</v>
+        <v>0.0261477</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0256298</v>
+        <v>0.0254887</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0658818</v>
+        <v>0.0647417</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0617719</v>
+        <v>0.0627207</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0559362</v>
+        <v>0.0555099</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0304389</v>
+        <v>0.0298654</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0299406</v>
+        <v>0.0298617</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0882787</v>
+        <v>0.0901971</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0902507</v>
+        <v>0.0898523</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0635037</v>
+        <v>0.0611611</v>
       </c>
       <c r="E8" t="n">
-        <v>0.037888</v>
+        <v>0.0373589</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0380036</v>
+        <v>0.0378249</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.118697</v>
+        <v>0.119497</v>
       </c>
       <c r="C9" t="n">
-        <v>0.114995</v>
+        <v>0.117134</v>
       </c>
       <c r="D9" t="n">
-        <v>0.06752370000000001</v>
+        <v>0.0667112</v>
       </c>
       <c r="E9" t="n">
-        <v>0.019199</v>
+        <v>0.0192022</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0191674</v>
+        <v>0.0191644</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0162873</v>
+        <v>0.0161453</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0161849</v>
+        <v>0.016264</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0675765</v>
+        <v>0.0676248</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0194519</v>
+        <v>0.0194401</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0193773</v>
+        <v>0.0193591</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.016551</v>
+        <v>0.0167791</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0165878</v>
+        <v>0.0166005</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0711338</v>
+        <v>0.0706692</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0197467</v>
+        <v>0.0196957</v>
       </c>
       <c r="F11" t="n">
-        <v>0.019672</v>
+        <v>0.0196863</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0170852</v>
+        <v>0.0172193</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0169578</v>
+        <v>0.0170594</v>
       </c>
       <c r="D12" t="n">
-        <v>0.07486429999999999</v>
+        <v>0.0737559</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0200974</v>
+        <v>0.0200497</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0201385</v>
+        <v>0.0201132</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0177161</v>
+        <v>0.0177622</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0178173</v>
+        <v>0.0176618</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0783652</v>
+        <v>0.0778524</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0203996</v>
+        <v>0.0203983</v>
       </c>
       <c r="F13" t="n">
-        <v>0.020303</v>
+        <v>0.0202921</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0180446</v>
+        <v>0.0181425</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0183742</v>
+        <v>0.0183425</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0817447</v>
+        <v>0.0816282</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0206951</v>
+        <v>0.0206866</v>
       </c>
       <c r="F14" t="n">
-        <v>0.020624</v>
+        <v>0.0206182</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0198239</v>
+        <v>0.0199585</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0197087</v>
+        <v>0.0191825</v>
       </c>
       <c r="D15" t="n">
-        <v>0.08310389999999999</v>
+        <v>0.0832546</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0212329</v>
+        <v>0.0212491</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0211459</v>
+        <v>0.0211287</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0218668</v>
+        <v>0.0222814</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0214985</v>
+        <v>0.0213691</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0876065</v>
+        <v>0.0886352</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0219412</v>
+        <v>0.0219368</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0218317</v>
+        <v>0.0218503</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0254473</v>
+        <v>0.0254974</v>
       </c>
       <c r="C17" t="n">
-        <v>0.025924</v>
+        <v>0.0244011</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0922468</v>
+        <v>0.0886048</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0227317</v>
+        <v>0.0227714</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0225283</v>
+        <v>0.022551</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0321027</v>
+        <v>0.0318052</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0309021</v>
+        <v>0.0317391</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0935482</v>
+        <v>0.0915552</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0235165</v>
+        <v>0.0235075</v>
       </c>
       <c r="F18" t="n">
-        <v>0.023215</v>
+        <v>0.0232267</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0408143</v>
+        <v>0.0405726</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0403713</v>
+        <v>0.0435142</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0930976</v>
+        <v>0.0964985</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0248624</v>
+        <v>0.02489</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0244384</v>
+        <v>0.0243733</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0506906</v>
+        <v>0.0511292</v>
       </c>
       <c r="C20" t="n">
-        <v>0.053136</v>
+        <v>0.050305</v>
       </c>
       <c r="D20" t="n">
-        <v>0.09793350000000001</v>
+        <v>0.097177</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0273377</v>
+        <v>0.0272518</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0268834</v>
+        <v>0.0269006</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.06947589999999999</v>
+        <v>0.0684826</v>
       </c>
       <c r="C21" t="n">
-        <v>0.06895179999999999</v>
+        <v>0.06773460000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>0.06559</v>
+        <v>0.0656955</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0309656</v>
+        <v>0.0310795</v>
       </c>
       <c r="F21" t="n">
-        <v>0.030805</v>
+        <v>0.0306608</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.09165810000000001</v>
+        <v>0.09394950000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0938047</v>
+        <v>0.0915851</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0688617</v>
+        <v>0.0687678</v>
       </c>
       <c r="E22" t="n">
-        <v>0.039284</v>
+        <v>0.0391184</v>
       </c>
       <c r="F22" t="n">
-        <v>0.039488</v>
+        <v>0.0395749</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.12086</v>
+        <v>0.118599</v>
       </c>
       <c r="C23" t="n">
-        <v>0.120831</v>
+        <v>0.119144</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0720817</v>
+        <v>0.073851</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0189961</v>
+        <v>0.0189473</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0188608</v>
+        <v>0.0188613</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0164095</v>
+        <v>0.0165265</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0162748</v>
+        <v>0.0163257</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0760073</v>
+        <v>0.0753799</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0192505</v>
+        <v>0.0192143</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0191287</v>
+        <v>0.0191313</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0169585</v>
+        <v>0.0169796</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0167885</v>
+        <v>0.0168233</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0798798</v>
+        <v>0.07859729999999999</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0194386</v>
+        <v>0.0194382</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0193447</v>
+        <v>0.0193293</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0178776</v>
+        <v>0.0175738</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0175541</v>
+        <v>0.0175723</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0819307</v>
+        <v>0.0823803</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0196797</v>
+        <v>0.0196547</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0195872</v>
+        <v>0.0195861</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.018628</v>
+        <v>0.0185704</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0183243</v>
+        <v>0.0184284</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0855178</v>
+        <v>0.0850706</v>
       </c>
       <c r="E27" t="n">
-        <v>0.020071</v>
+        <v>0.0200862</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0199798</v>
+        <v>0.0199757</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0204023</v>
+        <v>0.0202236</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0198278</v>
+        <v>0.0196964</v>
       </c>
       <c r="D28" t="n">
-        <v>0.08837680000000001</v>
+        <v>0.0885314</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0205075</v>
+        <v>0.0205106</v>
       </c>
       <c r="F28" t="n">
-        <v>0.020382</v>
+        <v>0.0203587</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0226629</v>
+        <v>0.0222185</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0221165</v>
+        <v>0.0216821</v>
       </c>
       <c r="D29" t="n">
-        <v>0.09076190000000001</v>
+        <v>0.0912737</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0212009</v>
+        <v>0.0211517</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0210324</v>
+        <v>0.0210055</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0254525</v>
+        <v>0.0254755</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0250608</v>
+        <v>0.0249518</v>
       </c>
       <c r="D30" t="n">
-        <v>0.09438340000000001</v>
+        <v>0.0934633</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0217353</v>
+        <v>0.0217377</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0216515</v>
+        <v>0.0216199</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0298213</v>
+        <v>0.029739</v>
       </c>
       <c r="C31" t="n">
-        <v>0.029972</v>
+        <v>0.028464</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0972643</v>
+        <v>0.0968508</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0226093</v>
+        <v>0.0226372</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0224072</v>
+        <v>0.0223869</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.036106</v>
+        <v>0.0360377</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0363934</v>
+        <v>0.0362681</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0986947</v>
+        <v>0.0977394</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0235648</v>
+        <v>0.0235642</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0233654</v>
+        <v>0.0233535</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0440745</v>
+        <v>0.044235</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0430802</v>
+        <v>0.0439686</v>
       </c>
       <c r="D33" t="n">
-        <v>0.10026</v>
+        <v>0.0994</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0249615</v>
+        <v>0.0249552</v>
       </c>
       <c r="F33" t="n">
-        <v>0.024737</v>
+        <v>0.0247468</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0561342</v>
+        <v>0.0556708</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0548774</v>
+        <v>0.0552072</v>
       </c>
       <c r="D34" t="n">
-        <v>0.102641</v>
+        <v>0.101592</v>
       </c>
       <c r="E34" t="n">
-        <v>0.027374</v>
+        <v>0.0273678</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0273187</v>
+        <v>0.0272485</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.071795</v>
+        <v>0.072648</v>
       </c>
       <c r="C35" t="n">
-        <v>0.07086969999999999</v>
+        <v>0.07399169999999999</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0693397</v>
+        <v>0.0690354</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0311926</v>
+        <v>0.0312033</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0311931</v>
+        <v>0.0312373</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.09422079999999999</v>
+        <v>0.09492250000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>0.09481299999999999</v>
+        <v>0.0944402</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0723775</v>
+        <v>0.07293860000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0378414</v>
+        <v>0.0380531</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0381778</v>
+        <v>0.0381547</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.120452</v>
+        <v>0.119952</v>
       </c>
       <c r="C37" t="n">
-        <v>0.121287</v>
+        <v>0.121881</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0756555</v>
+        <v>0.07573820000000001</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0194256</v>
+        <v>0.0194598</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0194562</v>
+        <v>0.01946</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0171413</v>
+        <v>0.0170485</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0170702</v>
+        <v>0.0170632</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0793841</v>
+        <v>0.0792892</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0197583</v>
+        <v>0.0197456</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0197826</v>
+        <v>0.0197997</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0177468</v>
+        <v>0.0177499</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0177177</v>
+        <v>0.017755</v>
       </c>
       <c r="D39" t="n">
-        <v>0.08290989999999999</v>
+        <v>0.0833342</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0200972</v>
+        <v>0.0200774</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0201021</v>
+        <v>0.0201285</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0187144</v>
+        <v>0.0186781</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0186241</v>
+        <v>0.0186644</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0859959</v>
+        <v>0.0846713</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0204109</v>
+        <v>0.0204214</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0204636</v>
+        <v>0.0204808</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0200622</v>
+        <v>0.0201816</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0197243</v>
+        <v>0.0201157</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0890005</v>
+        <v>0.08867949999999999</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0207591</v>
+        <v>0.0207573</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0207786</v>
+        <v>0.0208489</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0219765</v>
+        <v>0.0219571</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0215504</v>
+        <v>0.0219191</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0921848</v>
+        <v>0.09181400000000001</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0211956</v>
+        <v>0.0212286</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0212001</v>
+        <v>0.0212047</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0246508</v>
+        <v>0.0245954</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0237497</v>
+        <v>0.0244899</v>
       </c>
       <c r="D43" t="n">
-        <v>0.09515129999999999</v>
+        <v>0.0950419</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0217942</v>
+        <v>0.0217993</v>
       </c>
       <c r="F43" t="n">
-        <v>0.021836</v>
+        <v>0.0218306</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0284382</v>
+        <v>0.0278018</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0270054</v>
+        <v>0.0278976</v>
       </c>
       <c r="D44" t="n">
-        <v>0.097174</v>
+        <v>0.0969684</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0225308</v>
+        <v>0.0225584</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0226352</v>
+        <v>0.0226415</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0326313</v>
+        <v>0.0324384</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0317255</v>
+        <v>0.0331522</v>
       </c>
       <c r="D45" t="n">
-        <v>0.099564</v>
+        <v>0.0990856</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0233512</v>
+        <v>0.0233212</v>
       </c>
       <c r="F45" t="n">
-        <v>0.023419</v>
+        <v>0.0234653</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0383704</v>
+        <v>0.0385785</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0374348</v>
+        <v>0.0388258</v>
       </c>
       <c r="D46" t="n">
-        <v>0.101999</v>
+        <v>0.101209</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0245701</v>
+        <v>0.024619</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0246073</v>
+        <v>0.0246284</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0459481</v>
+        <v>0.0465554</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0440827</v>
+        <v>0.047273</v>
       </c>
       <c r="D47" t="n">
-        <v>0.104099</v>
+        <v>0.103578</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0261002</v>
+        <v>0.026075</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0261741</v>
+        <v>0.0261604</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.057032</v>
+        <v>0.0576041</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0556613</v>
+        <v>0.0577314</v>
       </c>
       <c r="D48" t="n">
-        <v>0.106553</v>
+        <v>0.105792</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0287808</v>
+        <v>0.0287391</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0288264</v>
+        <v>0.0288114</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0705218</v>
+        <v>0.0726929</v>
       </c>
       <c r="C49" t="n">
-        <v>0.06965730000000001</v>
+        <v>0.0731709</v>
       </c>
       <c r="D49" t="n">
-        <v>0.108721</v>
+        <v>0.108688</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0323138</v>
+        <v>0.0323281</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0324916</v>
+        <v>0.0324829</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.09185260000000001</v>
+        <v>0.0931265</v>
       </c>
       <c r="C50" t="n">
-        <v>0.09092359999999999</v>
+        <v>0.09318269999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>0.07556499999999999</v>
+        <v>0.0757587</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0382581</v>
+        <v>0.0382463</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0384712</v>
+        <v>0.0384995</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.116607</v>
+        <v>0.119486</v>
       </c>
       <c r="C51" t="n">
-        <v>0.118591</v>
+        <v>0.118639</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0790884</v>
+        <v>0.0799996</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0204735</v>
+        <v>0.0204534</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0204761</v>
+        <v>0.0204836</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.142549</v>
+        <v>0.142908</v>
       </c>
       <c r="C52" t="n">
-        <v>0.143182</v>
+        <v>0.143569</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0827669</v>
+        <v>0.08259619999999999</v>
       </c>
       <c r="E52" t="n">
-        <v>0.020735</v>
+        <v>0.0207517</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0207501</v>
+        <v>0.0207659</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0190122</v>
+        <v>0.0192521</v>
       </c>
       <c r="C53" t="n">
-        <v>0.018924</v>
+        <v>0.0191325</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0863516</v>
+        <v>0.0859548</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0210508</v>
+        <v>0.0210578</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0211446</v>
+        <v>0.0210984</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0203591</v>
+        <v>0.0203016</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0199103</v>
+        <v>0.0203366</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0894914</v>
+        <v>0.0900634</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0213765</v>
+        <v>0.0213625</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0214243</v>
+        <v>0.0213885</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0218336</v>
+        <v>0.021914</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0214253</v>
+        <v>0.0219622</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0937707</v>
+        <v>0.0930068</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0217619</v>
+        <v>0.0217731</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0218284</v>
+        <v>0.0217941</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0239355</v>
+        <v>0.0237483</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0233444</v>
+        <v>0.0237399</v>
       </c>
       <c r="D56" t="n">
-        <v>0.09633220000000001</v>
+        <v>0.0961709</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0222242</v>
+        <v>0.0222448</v>
       </c>
       <c r="F56" t="n">
-        <v>0.022363</v>
+        <v>0.0222699</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0263712</v>
+        <v>0.0264127</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0258938</v>
+        <v>0.0265577</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0987913</v>
+        <v>0.09937890000000001</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0228002</v>
+        <v>0.0227707</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0228464</v>
+        <v>0.0228251</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0297518</v>
+        <v>0.0298857</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0293701</v>
+        <v>0.0300699</v>
       </c>
       <c r="D58" t="n">
-        <v>0.102741</v>
+        <v>0.102777</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0234287</v>
+        <v>0.0234263</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0236149</v>
+        <v>0.0235236</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0341056</v>
+        <v>0.0343184</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0335721</v>
+        <v>0.0345821</v>
       </c>
       <c r="D59" t="n">
-        <v>0.104289</v>
+        <v>0.104652</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0243463</v>
+        <v>0.0243572</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0244278</v>
+        <v>0.0244243</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0397462</v>
+        <v>0.04004</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0394424</v>
+        <v>0.0401455</v>
       </c>
       <c r="D60" t="n">
-        <v>0.107621</v>
+        <v>0.107489</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0256516</v>
+        <v>0.0256753</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0257151</v>
+        <v>0.025745</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0469187</v>
+        <v>0.0475297</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0469272</v>
+        <v>0.0473011</v>
       </c>
       <c r="D61" t="n">
-        <v>0.109695</v>
+        <v>0.109739</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0273995</v>
+        <v>0.0273935</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0274599</v>
+        <v>0.0274898</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.056764</v>
+        <v>0.0571916</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0566263</v>
+        <v>0.0579257</v>
       </c>
       <c r="D62" t="n">
-        <v>0.111102</v>
+        <v>0.112987</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0299676</v>
+        <v>0.0299955</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0300871</v>
+        <v>0.0300594</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0700862</v>
+        <v>0.0710327</v>
       </c>
       <c r="C63" t="n">
-        <v>0.07079779999999999</v>
+        <v>0.0711952</v>
       </c>
       <c r="D63" t="n">
-        <v>0.117279</v>
+        <v>0.115269</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0338032</v>
+        <v>0.0337278</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0340411</v>
+        <v>0.0339535</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.08950139999999999</v>
+        <v>0.09049459999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0901092</v>
+        <v>0.0905796</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0810985</v>
+        <v>0.0809163</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0399663</v>
+        <v>0.0398668</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0403834</v>
+        <v>0.0402428</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.114579</v>
+        <v>0.115621</v>
       </c>
       <c r="C65" t="n">
-        <v>0.116232</v>
+        <v>0.116428</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0862299</v>
+        <v>0.0841703</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0508814</v>
+        <v>0.0509206</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0513471</v>
+        <v>0.0512811</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.146011</v>
+        <v>0.147365</v>
       </c>
       <c r="C66" t="n">
-        <v>0.147167</v>
+        <v>0.147677</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0901192</v>
+        <v>0.0894455</v>
       </c>
       <c r="E66" t="n">
-        <v>0.021015</v>
+        <v>0.0210311</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0210611</v>
+        <v>0.0210754</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0196827</v>
+        <v>0.0198901</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0195891</v>
+        <v>0.0197677</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0958891</v>
+        <v>0.0941531</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0213736</v>
+        <v>0.0213684</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0214012</v>
+        <v>0.0214273</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0210043</v>
+        <v>0.0212106</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0209604</v>
+        <v>0.021076</v>
       </c>
       <c r="D68" t="n">
-        <v>0.100875</v>
+        <v>0.0993991</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0216872</v>
+        <v>0.0217293</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0217405</v>
+        <v>0.0217579</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0227553</v>
+        <v>0.0227437</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0225167</v>
+        <v>0.0224508</v>
       </c>
       <c r="D69" t="n">
-        <v>0.10523</v>
+        <v>0.103551</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0220352</v>
+        <v>0.0220518</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0220833</v>
+        <v>0.0221697</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0245665</v>
+        <v>0.0246764</v>
       </c>
       <c r="C70" t="n">
-        <v>0.024636</v>
+        <v>0.0244704</v>
       </c>
       <c r="D70" t="n">
-        <v>0.111795</v>
+        <v>0.108804</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0224802</v>
+        <v>0.0225514</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0225525</v>
+        <v>0.0225718</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.027391</v>
+        <v>0.0270231</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0268421</v>
+        <v>0.0268723</v>
       </c>
       <c r="D71" t="n">
-        <v>0.115617</v>
+        <v>0.113522</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0230233</v>
+        <v>0.0231203</v>
       </c>
       <c r="F71" t="n">
-        <v>0.023081</v>
+        <v>0.023207</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0306565</v>
+        <v>0.0303766</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0301264</v>
+        <v>0.0300228</v>
       </c>
       <c r="D72" t="n">
-        <v>0.119828</v>
+        <v>0.117627</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0238197</v>
+        <v>0.0238038</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0238651</v>
+        <v>0.0238546</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0345612</v>
+        <v>0.0344251</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0343956</v>
+        <v>0.0341801</v>
       </c>
       <c r="D73" t="n">
-        <v>0.12519</v>
+        <v>0.124834</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0247535</v>
+        <v>0.0246995</v>
       </c>
       <c r="F73" t="n">
-        <v>0.024777</v>
+        <v>0.024803</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0399292</v>
+        <v>0.0396787</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0394395</v>
+        <v>0.0395502</v>
       </c>
       <c r="D74" t="n">
-        <v>0.131924</v>
+        <v>0.129209</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0258309</v>
+        <v>0.0258866</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0260074</v>
+        <v>0.0260487</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0467449</v>
+        <v>0.0466498</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0464104</v>
+        <v>0.0463904</v>
       </c>
       <c r="D75" t="n">
-        <v>0.135437</v>
+        <v>0.134656</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0275913</v>
+        <v>0.0276201</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0277357</v>
+        <v>0.0277301</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0563424</v>
+        <v>0.055862</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0557607</v>
+        <v>0.0559034</v>
       </c>
       <c r="D76" t="n">
-        <v>0.140617</v>
+        <v>0.141296</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0300138</v>
+        <v>0.0300769</v>
       </c>
       <c r="F76" t="n">
-        <v>0.030224</v>
+        <v>0.0304101</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0692763</v>
+        <v>0.0686848</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0688764</v>
+        <v>0.0691358</v>
       </c>
       <c r="D77" t="n">
-        <v>0.147474</v>
+        <v>0.147096</v>
       </c>
       <c r="E77" t="n">
-        <v>0.033718</v>
+        <v>0.0337315</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0341281</v>
+        <v>0.0341432</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0872874</v>
+        <v>0.08703909999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0875397</v>
+        <v>0.0870769</v>
       </c>
       <c r="D78" t="n">
-        <v>0.110139</v>
+        <v>0.110707</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0394789</v>
+        <v>0.0394817</v>
       </c>
       <c r="F78" t="n">
-        <v>0.039898</v>
+        <v>0.0397802</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.111582</v>
+        <v>0.111595</v>
       </c>
       <c r="C79" t="n">
-        <v>0.112531</v>
+        <v>0.112077</v>
       </c>
       <c r="D79" t="n">
-        <v>0.121269</v>
+        <v>0.116906</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0492263</v>
+        <v>0.0493255</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0495261</v>
+        <v>0.0494901</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.143639</v>
+        <v>0.143186</v>
       </c>
       <c r="C80" t="n">
-        <v>0.143794</v>
+        <v>0.144018</v>
       </c>
       <c r="D80" t="n">
-        <v>0.125326</v>
+        <v>0.124316</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0212785</v>
+        <v>0.0212448</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0218031</v>
+        <v>0.0215878</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.020281</v>
+        <v>0.0199294</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0201123</v>
+        <v>0.0200223</v>
       </c>
       <c r="D81" t="n">
-        <v>0.134418</v>
+        <v>0.132692</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0216399</v>
+        <v>0.0215791</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0223031</v>
+        <v>0.0220465</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0213587</v>
+        <v>0.0214204</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0218663</v>
+        <v>0.0213494</v>
       </c>
       <c r="D82" t="n">
-        <v>0.143541</v>
+        <v>0.142344</v>
       </c>
       <c r="E82" t="n">
-        <v>0.022039</v>
+        <v>0.0219428</v>
       </c>
       <c r="F82" t="n">
-        <v>0.0231573</v>
+        <v>0.0227132</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0229456</v>
+        <v>0.0228045</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0231395</v>
+        <v>0.0231629</v>
       </c>
       <c r="D83" t="n">
-        <v>0.151115</v>
+        <v>0.146243</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0224322</v>
+        <v>0.0223866</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0237331</v>
+        <v>0.0235389</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0247706</v>
+        <v>0.025162</v>
       </c>
       <c r="C84" t="n">
-        <v>0.025173</v>
+        <v>0.0253234</v>
       </c>
       <c r="D84" t="n">
-        <v>0.156752</v>
+        <v>0.153855</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0229647</v>
+        <v>0.0228759</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0245643</v>
+        <v>0.0243883</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0275588</v>
+        <v>0.0273095</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0279864</v>
+        <v>0.0277947</v>
       </c>
       <c r="D85" t="n">
-        <v>0.161516</v>
+        <v>0.160987</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0236027</v>
+        <v>0.023488</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0259733</v>
+        <v>0.0256145</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0302908</v>
+        <v>0.0304513</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0308174</v>
+        <v>0.0308783</v>
       </c>
       <c r="D86" t="n">
-        <v>0.17028</v>
+        <v>0.168182</v>
       </c>
       <c r="E86" t="n">
-        <v>0.0244762</v>
+        <v>0.0243301</v>
       </c>
       <c r="F86" t="n">
-        <v>0.0268836</v>
+        <v>0.0266775</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0342801</v>
+        <v>0.0342955</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0348105</v>
+        <v>0.0348449</v>
       </c>
       <c r="D87" t="n">
-        <v>0.180825</v>
+        <v>0.176947</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0254823</v>
+        <v>0.0254199</v>
       </c>
       <c r="F87" t="n">
-        <v>0.0284036</v>
+        <v>0.0282793</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0392986</v>
+        <v>0.0391817</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0395328</v>
+        <v>0.0395178</v>
       </c>
       <c r="D88" t="n">
-        <v>0.182283</v>
+        <v>0.184377</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0267595</v>
+        <v>0.0267694</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0301789</v>
+        <v>0.0301406</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0459011</v>
+        <v>0.046079</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0459677</v>
+        <v>0.0460554</v>
       </c>
       <c r="D89" t="n">
-        <v>0.193123</v>
+        <v>0.189647</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0283939</v>
+        <v>0.0284513</v>
       </c>
       <c r="F89" t="n">
-        <v>0.03203</v>
+        <v>0.0321767</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.054482</v>
+        <v>0.0544724</v>
       </c>
       <c r="C90" t="n">
-        <v>0.054831</v>
+        <v>0.0549275</v>
       </c>
       <c r="D90" t="n">
-        <v>0.198804</v>
+        <v>0.197943</v>
       </c>
       <c r="E90" t="n">
-        <v>0.0308088</v>
+        <v>0.0308939</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0348003</v>
+        <v>0.0347918</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.06651650000000001</v>
+        <v>0.06688379999999999</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0668122</v>
+        <v>0.0669838</v>
       </c>
       <c r="D91" t="n">
-        <v>0.207925</v>
+        <v>0.205082</v>
       </c>
       <c r="E91" t="n">
-        <v>0.034144</v>
+        <v>0.034232</v>
       </c>
       <c r="F91" t="n">
-        <v>0.0382636</v>
+        <v>0.0381395</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0835526</v>
+        <v>0.0839995</v>
       </c>
       <c r="C92" t="n">
-        <v>0.08425920000000001</v>
+        <v>0.0846823</v>
       </c>
       <c r="D92" t="n">
-        <v>0.156239</v>
+        <v>0.155144</v>
       </c>
       <c r="E92" t="n">
-        <v>0.0392969</v>
+        <v>0.0393548</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0438451</v>
+        <v>0.0433389</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.107487</v>
+        <v>0.108142</v>
       </c>
       <c r="C93" t="n">
-        <v>0.108763</v>
+        <v>0.109279</v>
       </c>
       <c r="D93" t="n">
-        <v>0.163923</v>
+        <v>0.160938</v>
       </c>
       <c r="E93" t="n">
-        <v>0.0481543</v>
+        <v>0.048148</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0535145</v>
+        <v>0.0535144</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.138296</v>
+        <v>0.1382</v>
       </c>
       <c r="C94" t="n">
-        <v>0.13957</v>
+        <v>0.139801</v>
       </c>
       <c r="D94" t="n">
-        <v>0.167816</v>
+        <v>0.167662</v>
       </c>
       <c r="E94" t="n">
-        <v>0.0230102</v>
+        <v>0.0230579</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0283301</v>
+        <v>0.0282215</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0211004</v>
+        <v>0.0205134</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0246706</v>
+        <v>0.02472</v>
       </c>
       <c r="D95" t="n">
-        <v>0.176707</v>
+        <v>0.174319</v>
       </c>
       <c r="E95" t="n">
-        <v>0.0234709</v>
+        <v>0.0234914</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0295818</v>
+        <v>0.0292472</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0218996</v>
+        <v>0.0221176</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0263776</v>
+        <v>0.0260357</v>
       </c>
       <c r="D96" t="n">
-        <v>0.182879</v>
+        <v>0.180908</v>
       </c>
       <c r="E96" t="n">
-        <v>0.0239962</v>
+        <v>0.0241662</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0314223</v>
+        <v>0.0310037</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.023416</v>
+        <v>0.0234695</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0294247</v>
+        <v>0.0283482</v>
       </c>
       <c r="D97" t="n">
-        <v>0.190234</v>
+        <v>0.189324</v>
       </c>
       <c r="E97" t="n">
-        <v>0.0246296</v>
+        <v>0.0246349</v>
       </c>
       <c r="F97" t="n">
-        <v>0.0345996</v>
+        <v>0.0338411</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0253312</v>
+        <v>0.0250948</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0329781</v>
+        <v>0.0319891</v>
       </c>
       <c r="D98" t="n">
-        <v>0.194777</v>
+        <v>0.194366</v>
       </c>
       <c r="E98" t="n">
-        <v>0.0254916</v>
+        <v>0.0254051</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0383183</v>
+        <v>0.0377669</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0271447</v>
+        <v>0.0273376</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0379096</v>
+        <v>0.0373613</v>
       </c>
       <c r="D99" t="n">
-        <v>0.204823</v>
+        <v>0.202719</v>
       </c>
       <c r="E99" t="n">
-        <v>0.0268811</v>
+        <v>0.0267527</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0426534</v>
+        <v>0.0424692</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0303647</v>
+        <v>0.0305913</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0439735</v>
+        <v>0.0432267</v>
       </c>
       <c r="D100" t="n">
-        <v>0.212582</v>
+        <v>0.210061</v>
       </c>
       <c r="E100" t="n">
-        <v>0.0290289</v>
+        <v>0.0289711</v>
       </c>
       <c r="F100" t="n">
-        <v>0.0467389</v>
+        <v>0.0467984</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0344804</v>
+        <v>0.0348709</v>
       </c>
       <c r="C101" t="n">
-        <v>0.049874</v>
+        <v>0.0495413</v>
       </c>
       <c r="D101" t="n">
-        <v>0.219687</v>
+        <v>0.216882</v>
       </c>
       <c r="E101" t="n">
-        <v>0.0319421</v>
+        <v>0.031997</v>
       </c>
       <c r="F101" t="n">
-        <v>0.0507136</v>
+        <v>0.0508045</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.039691</v>
+        <v>0.0399354</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0556005</v>
+        <v>0.0557906</v>
       </c>
       <c r="D102" t="n">
-        <v>0.227683</v>
+        <v>0.224985</v>
       </c>
       <c r="E102" t="n">
-        <v>0.0350408</v>
+        <v>0.0351154</v>
       </c>
       <c r="F102" t="n">
-        <v>0.0540343</v>
+        <v>0.0540794</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.046215</v>
+        <v>0.0463128</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0619463</v>
+        <v>0.0615368</v>
       </c>
       <c r="D103" t="n">
-        <v>0.234811</v>
+        <v>0.23335</v>
       </c>
       <c r="E103" t="n">
-        <v>0.0383281</v>
+        <v>0.0383836</v>
       </c>
       <c r="F103" t="n">
-        <v>0.0573311</v>
+        <v>0.0574113</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0541473</v>
+        <v>0.0546111</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0689983</v>
+        <v>0.0687165</v>
       </c>
       <c r="D104" t="n">
-        <v>0.243525</v>
+        <v>0.24023</v>
       </c>
       <c r="E104" t="n">
-        <v>0.0415427</v>
+        <v>0.0413973</v>
       </c>
       <c r="F104" t="n">
-        <v>0.0607456</v>
+        <v>0.0607931</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0654028</v>
+        <v>0.0652686</v>
       </c>
       <c r="C105" t="n">
-        <v>0.078289</v>
+        <v>0.077704</v>
       </c>
       <c r="D105" t="n">
-        <v>0.252271</v>
+        <v>0.249109</v>
       </c>
       <c r="E105" t="n">
-        <v>0.0446478</v>
+        <v>0.044912</v>
       </c>
       <c r="F105" t="n">
-        <v>0.06443500000000001</v>
+        <v>0.06443740000000001</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0810232</v>
+        <v>0.08115260000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>0.091019</v>
+        <v>0.0908815</v>
       </c>
       <c r="D106" t="n">
-        <v>0.262135</v>
+        <v>0.259025</v>
       </c>
       <c r="E106" t="n">
-        <v>0.0489929</v>
+        <v>0.0490589</v>
       </c>
       <c r="F106" t="n">
-        <v>0.0704224</v>
+        <v>0.0693872</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.102845</v>
+        <v>0.102848</v>
       </c>
       <c r="C107" t="n">
-        <v>0.1096</v>
+        <v>0.109354</v>
       </c>
       <c r="D107" t="n">
-        <v>0.190932</v>
+        <v>0.188604</v>
       </c>
       <c r="E107" t="n">
-        <v>0.0556547</v>
+        <v>0.0557107</v>
       </c>
       <c r="F107" t="n">
-        <v>0.07683329999999999</v>
+        <v>0.0767225</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.132617</v>
+        <v>0.132358</v>
       </c>
       <c r="C108" t="n">
-        <v>0.136481</v>
+        <v>0.13638</v>
       </c>
       <c r="D108" t="n">
-        <v>0.19874</v>
+        <v>0.194982</v>
       </c>
       <c r="E108" t="n">
-        <v>0.0351601</v>
+        <v>0.0352917</v>
       </c>
       <c r="F108" t="n">
-        <v>0.0515045</v>
+        <v>0.0512891</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.168021</v>
+        <v>0.16838</v>
       </c>
       <c r="C109" t="n">
-        <v>0.17219</v>
+        <v>0.172601</v>
       </c>
       <c r="D109" t="n">
-        <v>0.203793</v>
+        <v>0.201748</v>
       </c>
       <c r="E109" t="n">
-        <v>0.036178</v>
+        <v>0.0361736</v>
       </c>
       <c r="F109" t="n">
-        <v>0.0528525</v>
+        <v>0.0527904</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.031487</v>
+        <v>0.0312433</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0470141</v>
+        <v>0.0468909</v>
       </c>
       <c r="D110" t="n">
-        <v>0.211789</v>
+        <v>0.209368</v>
       </c>
       <c r="E110" t="n">
-        <v>0.0370797</v>
+        <v>0.0372325</v>
       </c>
       <c r="F110" t="n">
-        <v>0.0543075</v>
+        <v>0.0541555</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0328896</v>
+        <v>0.0328852</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0490185</v>
+        <v>0.0485327</v>
       </c>
       <c r="D111" t="n">
-        <v>0.217334</v>
+        <v>0.21534</v>
       </c>
       <c r="E111" t="n">
-        <v>0.0378829</v>
+        <v>0.0378805</v>
       </c>
       <c r="F111" t="n">
-        <v>0.0557337</v>
+        <v>0.0554411</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0342325</v>
+        <v>0.0342327</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0507457</v>
+        <v>0.0503231</v>
       </c>
       <c r="D112" t="n">
-        <v>0.225225</v>
+        <v>0.222884</v>
       </c>
       <c r="E112" t="n">
-        <v>0.0386958</v>
+        <v>0.0386859</v>
       </c>
       <c r="F112" t="n">
-        <v>0.0571167</v>
+        <v>0.0568267</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0361657</v>
+        <v>0.0359993</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0532522</v>
+        <v>0.0529023</v>
       </c>
       <c r="D113" t="n">
-        <v>0.233621</v>
+        <v>0.230371</v>
       </c>
       <c r="E113" t="n">
-        <v>0.039647</v>
+        <v>0.0396569</v>
       </c>
       <c r="F113" t="n">
-        <v>0.0587627</v>
+        <v>0.0583253</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0383906</v>
+        <v>0.0380906</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0560578</v>
+        <v>0.0558567</v>
       </c>
       <c r="D114" t="n">
-        <v>0.242221</v>
+        <v>0.237469</v>
       </c>
       <c r="E114" t="n">
-        <v>0.0405658</v>
+        <v>0.0406009</v>
       </c>
       <c r="F114" t="n">
-        <v>0.0603238</v>
+        <v>0.0600216</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.040929</v>
+        <v>0.0407056</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0593512</v>
+        <v>0.0590213</v>
       </c>
       <c r="D115" t="n">
-        <v>0.247876</v>
+        <v>0.245385</v>
       </c>
       <c r="E115" t="n">
-        <v>0.0418052</v>
+        <v>0.0417302</v>
       </c>
       <c r="F115" t="n">
-        <v>0.0620963</v>
+        <v>0.0619847</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.0442441</v>
+        <v>0.0440104</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0631478</v>
+        <v>0.0631693</v>
       </c>
       <c r="D116" t="n">
-        <v>0.256535</v>
+        <v>0.253458</v>
       </c>
       <c r="E116" t="n">
-        <v>0.0430108</v>
+        <v>0.0429644</v>
       </c>
       <c r="F116" t="n">
-        <v>0.0639692</v>
+        <v>0.0638606</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.0487765</v>
+        <v>0.0487662</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0679352</v>
+        <v>0.0679831</v>
       </c>
       <c r="D117" t="n">
-        <v>0.264912</v>
+        <v>0.261352</v>
       </c>
       <c r="E117" t="n">
-        <v>0.0445312</v>
+        <v>0.0444496</v>
       </c>
       <c r="F117" t="n">
-        <v>0.06634900000000001</v>
+        <v>0.0660342</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.0553593</v>
+        <v>0.0553649</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0742525</v>
+        <v>0.074264</v>
       </c>
       <c r="D118" t="n">
-        <v>0.273086</v>
+        <v>0.269552</v>
       </c>
       <c r="E118" t="n">
-        <v>0.0465129</v>
+        <v>0.0463814</v>
       </c>
       <c r="F118" t="n">
-        <v>0.0692691</v>
+        <v>0.06904150000000001</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.06492299999999999</v>
+        <v>0.0646127</v>
       </c>
       <c r="C119" t="n">
-        <v>0.0829809</v>
+        <v>0.082608</v>
       </c>
       <c r="D119" t="n">
-        <v>0.281599</v>
+        <v>0.278263</v>
       </c>
       <c r="E119" t="n">
-        <v>0.0490687</v>
+        <v>0.0490944</v>
       </c>
       <c r="F119" t="n">
-        <v>0.0728111</v>
+        <v>0.07258539999999999</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.079196</v>
+        <v>0.0792086</v>
       </c>
       <c r="C120" t="n">
-        <v>0.0946695</v>
+        <v>0.0943005</v>
       </c>
       <c r="D120" t="n">
-        <v>0.290415</v>
+        <v>0.288881</v>
       </c>
       <c r="E120" t="n">
-        <v>0.0526222</v>
+        <v>0.0526911</v>
       </c>
       <c r="F120" t="n">
-        <v>0.077516</v>
+        <v>0.0776493</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.100099</v>
+        <v>0.0997711</v>
       </c>
       <c r="C121" t="n">
-        <v>0.111426</v>
+        <v>0.110645</v>
       </c>
       <c r="D121" t="n">
-        <v>0.206756</v>
+        <v>0.205825</v>
       </c>
       <c r="E121" t="n">
-        <v>0.0582512</v>
+        <v>0.0584958</v>
       </c>
       <c r="F121" t="n">
-        <v>0.0847875</v>
+        <v>0.0846382</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.128392</v>
+        <v>0.128211</v>
       </c>
       <c r="C122" t="n">
-        <v>0.135993</v>
+        <v>0.135467</v>
       </c>
       <c r="D122" t="n">
-        <v>0.212364</v>
+        <v>0.210489</v>
       </c>
       <c r="E122" t="n">
-        <v>0.06793680000000001</v>
+        <v>0.0681872</v>
       </c>
       <c r="F122" t="n">
-        <v>0.0960468</v>
+        <v>0.0958522</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.16413</v>
+        <v>0.163587</v>
       </c>
       <c r="C123" t="n">
-        <v>0.169873</v>
+        <v>0.16997</v>
       </c>
       <c r="D123" t="n">
-        <v>0.218516</v>
+        <v>0.216742</v>
       </c>
       <c r="E123" t="n">
-        <v>0.040944</v>
+        <v>0.0406866</v>
       </c>
       <c r="F123" t="n">
-        <v>0.0602957</v>
+        <v>0.0602076</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.0340874</v>
+        <v>0.0340747</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0512027</v>
+        <v>0.0516893</v>
       </c>
       <c r="D124" t="n">
-        <v>0.224991</v>
+        <v>0.223432</v>
       </c>
       <c r="E124" t="n">
-        <v>0.0419828</v>
+        <v>0.0422197</v>
       </c>
       <c r="F124" t="n">
-        <v>0.0617134</v>
+        <v>0.0617364</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.0357014</v>
+        <v>0.0351775</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0529638</v>
+        <v>0.053602</v>
       </c>
       <c r="D125" t="n">
-        <v>0.232495</v>
+        <v>0.23083</v>
       </c>
       <c r="E125" t="n">
-        <v>0.0428353</v>
+        <v>0.0430851</v>
       </c>
       <c r="F125" t="n">
-        <v>0.0631791</v>
+        <v>0.0631393</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.0366147</v>
+        <v>0.0371246</v>
       </c>
       <c r="C126" t="n">
-        <v>0.055234</v>
+        <v>0.0567176</v>
       </c>
       <c r="D126" t="n">
-        <v>0.239296</v>
+        <v>0.238009</v>
       </c>
       <c r="E126" t="n">
-        <v>0.0436027</v>
+        <v>0.04384</v>
       </c>
       <c r="F126" t="n">
-        <v>0.06495629999999999</v>
+        <v>0.0648183</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.0385755</v>
+        <v>0.0385126</v>
       </c>
       <c r="C127" t="n">
-        <v>0.0587982</v>
+        <v>0.0590241</v>
       </c>
       <c r="D127" t="n">
-        <v>0.246483</v>
+        <v>0.245527</v>
       </c>
       <c r="E127" t="n">
-        <v>0.0445843</v>
+        <v>0.0448081</v>
       </c>
       <c r="F127" t="n">
-        <v>0.06639299999999999</v>
+        <v>0.066479</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0407353</v>
+        <v>0.0407735</v>
       </c>
       <c r="C128" t="n">
-        <v>0.0615995</v>
+        <v>0.062152</v>
       </c>
       <c r="D128" t="n">
-        <v>0.254062</v>
+        <v>0.257491</v>
       </c>
       <c r="E128" t="n">
-        <v>0.04556</v>
+        <v>0.0458123</v>
       </c>
       <c r="F128" t="n">
-        <v>0.0681887</v>
+        <v>0.06804209999999999</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0431985</v>
+        <v>0.0429853</v>
       </c>
       <c r="C129" t="n">
-        <v>0.06533310000000001</v>
+        <v>0.0657465</v>
       </c>
       <c r="D129" t="n">
-        <v>0.262117</v>
+        <v>0.261125</v>
       </c>
       <c r="E129" t="n">
-        <v>0.0467907</v>
+        <v>0.0468604</v>
       </c>
       <c r="F129" t="n">
-        <v>0.0700805</v>
+        <v>0.07016219999999999</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0465529</v>
+        <v>0.0467372</v>
       </c>
       <c r="C130" t="n">
-        <v>0.0696871</v>
+        <v>0.0700828</v>
       </c>
       <c r="D130" t="n">
-        <v>0.269312</v>
+        <v>0.26918</v>
       </c>
       <c r="E130" t="n">
-        <v>0.0479818</v>
+        <v>0.0481769</v>
       </c>
       <c r="F130" t="n">
-        <v>0.07227550000000001</v>
+        <v>0.0722638</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0527919</v>
+        <v>0.0510247</v>
       </c>
       <c r="C131" t="n">
-        <v>0.0751077</v>
+        <v>0.0754099</v>
       </c>
       <c r="D131" t="n">
-        <v>0.278039</v>
+        <v>0.277199</v>
       </c>
       <c r="E131" t="n">
-        <v>0.0494242</v>
+        <v>0.0497093</v>
       </c>
       <c r="F131" t="n">
-        <v>0.0747632</v>
+        <v>0.07473829999999999</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0590614</v>
+        <v>0.058146</v>
       </c>
       <c r="C132" t="n">
-        <v>0.0818502</v>
+        <v>0.0821703</v>
       </c>
       <c r="D132" t="n">
-        <v>0.285872</v>
+        <v>0.285443</v>
       </c>
       <c r="E132" t="n">
-        <v>0.051548</v>
+        <v>0.051664</v>
       </c>
       <c r="F132" t="n">
-        <v>0.0778035</v>
+        <v>0.077787</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.0687658</v>
+        <v>0.0682306</v>
       </c>
       <c r="C133" t="n">
-        <v>0.09033090000000001</v>
+        <v>0.09095640000000001</v>
       </c>
       <c r="D133" t="n">
-        <v>0.294693</v>
+        <v>0.294529</v>
       </c>
       <c r="E133" t="n">
-        <v>0.054109</v>
+        <v>0.0543129</v>
       </c>
       <c r="F133" t="n">
-        <v>0.081452</v>
+        <v>0.0813927</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.0824826</v>
+        <v>0.0821838</v>
       </c>
       <c r="C134" t="n">
-        <v>0.101739</v>
+        <v>0.102229</v>
       </c>
       <c r="D134" t="n">
-        <v>0.303556</v>
+        <v>0.30385</v>
       </c>
       <c r="E134" t="n">
-        <v>0.057606</v>
+        <v>0.0579062</v>
       </c>
       <c r="F134" t="n">
-        <v>0.0864822</v>
+        <v>0.0864721</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.102236</v>
+        <v>0.101547</v>
       </c>
       <c r="C135" t="n">
-        <v>0.118168</v>
+        <v>0.118679</v>
       </c>
       <c r="D135" t="n">
-        <v>0.212597</v>
+        <v>0.213909</v>
       </c>
       <c r="E135" t="n">
-        <v>0.0633793</v>
+        <v>0.06357930000000001</v>
       </c>
       <c r="F135" t="n">
-        <v>0.0935284</v>
+        <v>0.09355140000000001</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.130582</v>
+        <v>0.129433</v>
       </c>
       <c r="C136" t="n">
-        <v>0.142527</v>
+        <v>0.143268</v>
       </c>
       <c r="D136" t="n">
-        <v>0.218627</v>
+        <v>0.220682</v>
       </c>
       <c r="E136" t="n">
-        <v>0.0725597</v>
+        <v>0.0730644</v>
       </c>
       <c r="F136" t="n">
-        <v>0.104598</v>
+        <v>0.104612</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.163628</v>
+        <v>0.163616</v>
       </c>
       <c r="C137" t="n">
-        <v>0.178176</v>
+        <v>0.180634</v>
       </c>
       <c r="D137" t="n">
-        <v>0.224808</v>
+        <v>0.226125</v>
       </c>
       <c r="E137" t="n">
-        <v>0.0589974</v>
+        <v>0.0588517</v>
       </c>
       <c r="F137" t="n">
-        <v>0.0786389</v>
+        <v>0.0790838</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0471309</v>
+        <v>0.0468927</v>
       </c>
       <c r="C138" t="n">
-        <v>0.065856</v>
+        <v>0.0655824</v>
       </c>
       <c r="D138" t="n">
-        <v>0.232074</v>
+        <v>0.232917</v>
       </c>
       <c r="E138" t="n">
-        <v>0.0608849</v>
+        <v>0.0597327</v>
       </c>
       <c r="F138" t="n">
-        <v>0.08029210000000001</v>
+        <v>0.0802484</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0482982</v>
+        <v>0.0476043</v>
       </c>
       <c r="C139" t="n">
-        <v>0.06751740000000001</v>
+        <v>0.06737079999999999</v>
       </c>
       <c r="D139" t="n">
-        <v>0.23916</v>
+        <v>0.239746</v>
       </c>
       <c r="E139" t="n">
-        <v>0.0600938</v>
+        <v>0.0604784</v>
       </c>
       <c r="F139" t="n">
-        <v>0.0813233</v>
+        <v>0.0816554</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.04912</v>
+        <v>0.0494418</v>
       </c>
       <c r="C140" t="n">
-        <v>0.0693743</v>
+        <v>0.0687802</v>
       </c>
       <c r="D140" t="n">
-        <v>0.246493</v>
+        <v>0.247056</v>
       </c>
       <c r="E140" t="n">
-        <v>0.0607663</v>
+        <v>0.0609192</v>
       </c>
       <c r="F140" t="n">
-        <v>0.082719</v>
+        <v>0.0830004</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0507248</v>
+        <v>0.0510091</v>
       </c>
       <c r="C141" t="n">
-        <v>0.0715558</v>
+        <v>0.0711039</v>
       </c>
       <c r="D141" t="n">
-        <v>0.254763</v>
+        <v>0.254996</v>
       </c>
       <c r="E141" t="n">
-        <v>0.061946</v>
+        <v>0.0620821</v>
       </c>
       <c r="F141" t="n">
-        <v>0.0847668</v>
+        <v>0.08448460000000001</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.0531879</v>
+        <v>0.0530079</v>
       </c>
       <c r="C142" t="n">
-        <v>0.0743809</v>
+        <v>0.0741115</v>
       </c>
       <c r="D142" t="n">
-        <v>0.262403</v>
+        <v>0.262823</v>
       </c>
       <c r="E142" t="n">
-        <v>0.06338630000000001</v>
+        <v>0.0629378</v>
       </c>
       <c r="F142" t="n">
-        <v>0.0855035</v>
+        <v>0.0857006</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.0555798</v>
+        <v>0.0554431</v>
       </c>
       <c r="C143" t="n">
-        <v>0.0774687</v>
+        <v>0.07699789999999999</v>
       </c>
       <c r="D143" t="n">
-        <v>0.270398</v>
+        <v>0.269907</v>
       </c>
       <c r="E143" t="n">
-        <v>0.0640505</v>
+        <v>0.06351569999999999</v>
       </c>
       <c r="F143" t="n">
-        <v>0.08710329999999999</v>
+        <v>0.0875432</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered unsuccessful looukp.xlsx
+++ b/clang-arm64/Scattered unsuccessful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0180847</v>
+        <v>0.0191119</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0187701</v>
+        <v>0.0214681</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0682398</v>
+        <v>0.0731609</v>
       </c>
       <c r="E2" t="n">
-        <v>0.021542</v>
+        <v>0.0215823</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0213724</v>
+        <v>0.0214147</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0214274</v>
+        <v>0.02107</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0195531</v>
+        <v>0.0236641</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0709634</v>
+        <v>0.07241640000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0220444</v>
+        <v>0.0220226</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0219177</v>
+        <v>0.021944</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0274174</v>
+        <v>0.0251085</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0237169</v>
+        <v>0.0262065</v>
       </c>
       <c r="D4" t="n">
-        <v>0.06906370000000001</v>
+        <v>0.0707861</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0229141</v>
+        <v>0.0229671</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0229234</v>
+        <v>0.0230034</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0339774</v>
+        <v>0.0320827</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0310438</v>
+        <v>0.0357524</v>
       </c>
       <c r="D5" t="n">
-        <v>0.07128900000000001</v>
+        <v>0.07309549999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0243009</v>
+        <v>0.0244047</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0236396</v>
+        <v>0.0236992</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0440761</v>
+        <v>0.0443</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0452699</v>
+        <v>0.0510488</v>
       </c>
       <c r="D6" t="n">
-        <v>0.078274</v>
+        <v>0.0904596</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0261477</v>
+        <v>0.0265997</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0254887</v>
+        <v>0.0257044</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0647417</v>
+        <v>0.0634426</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0627207</v>
+        <v>0.0639919</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0555099</v>
+        <v>0.061383</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0298654</v>
+        <v>0.0302977</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0298617</v>
+        <v>0.0300182</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0901971</v>
+        <v>0.0958136</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0898523</v>
+        <v>0.0903982</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0611611</v>
+        <v>0.059254</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0373589</v>
+        <v>0.0381879</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0378249</v>
+        <v>0.0376883</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.119497</v>
+        <v>0.117027</v>
       </c>
       <c r="C9" t="n">
-        <v>0.117134</v>
+        <v>0.115451</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0667112</v>
+        <v>0.06333469999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0192022</v>
+        <v>0.0191807</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0191644</v>
+        <v>0.0192037</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0161453</v>
+        <v>0.016623</v>
       </c>
       <c r="C10" t="n">
-        <v>0.016264</v>
+        <v>0.0163543</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0676248</v>
+        <v>0.0671567</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0194401</v>
+        <v>0.0194386</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0193591</v>
+        <v>0.0193732</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0167791</v>
+        <v>0.0171326</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0166005</v>
+        <v>0.0167803</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0706692</v>
+        <v>0.07158200000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0196957</v>
+        <v>0.0197049</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0196863</v>
+        <v>0.0196576</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0172193</v>
+        <v>0.0176781</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0170594</v>
+        <v>0.017193</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0737559</v>
+        <v>0.0735831</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0200497</v>
+        <v>0.02008</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0201132</v>
+        <v>0.0201052</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0177622</v>
+        <v>0.0182564</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0176618</v>
+        <v>0.0178956</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0778524</v>
+        <v>0.0766158</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0203983</v>
+        <v>0.0204207</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0202921</v>
+        <v>0.0203003</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0181425</v>
+        <v>0.0193211</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0183425</v>
+        <v>0.0189107</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0816282</v>
+        <v>0.082424</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0206866</v>
+        <v>0.0206772</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0206182</v>
+        <v>0.0206378</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0199585</v>
+        <v>0.0212489</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0191825</v>
+        <v>0.0199941</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0832546</v>
+        <v>0.0839809</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0212491</v>
+        <v>0.0212014</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0211287</v>
+        <v>0.021107</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0222814</v>
+        <v>0.0242486</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0213691</v>
+        <v>0.0222136</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0886352</v>
+        <v>0.08683929999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0219368</v>
+        <v>0.0219271</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0218503</v>
+        <v>0.0218055</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0254974</v>
+        <v>0.028646</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0244011</v>
+        <v>0.0264073</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0886048</v>
+        <v>0.09016680000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0227714</v>
+        <v>0.0227747</v>
       </c>
       <c r="F17" t="n">
-        <v>0.022551</v>
+        <v>0.0226989</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0318052</v>
+        <v>0.0358252</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0317391</v>
+        <v>0.0326827</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0915552</v>
+        <v>0.0910562</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0235075</v>
+        <v>0.0235203</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0232267</v>
+        <v>0.0232353</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0405726</v>
+        <v>0.044956</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0435142</v>
+        <v>0.0415177</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0964985</v>
+        <v>0.0958808</v>
       </c>
       <c r="E19" t="n">
-        <v>0.02489</v>
+        <v>0.0248668</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0243733</v>
+        <v>0.0243878</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0511292</v>
+        <v>0.0566064</v>
       </c>
       <c r="C20" t="n">
-        <v>0.050305</v>
+        <v>0.0522957</v>
       </c>
       <c r="D20" t="n">
-        <v>0.097177</v>
+        <v>0.09817960000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0272518</v>
+        <v>0.0272721</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0269006</v>
+        <v>0.0269284</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0684826</v>
+        <v>0.07646219999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>0.06773460000000001</v>
+        <v>0.07113659999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0656955</v>
+        <v>0.06929730000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0310795</v>
+        <v>0.0310116</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0306608</v>
+        <v>0.0308541</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.09394950000000001</v>
+        <v>0.100558</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0915851</v>
+        <v>0.09384199999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0687678</v>
+        <v>0.069102</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0391184</v>
+        <v>0.0392891</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0395749</v>
+        <v>0.0397672</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.118599</v>
+        <v>0.127864</v>
       </c>
       <c r="C23" t="n">
-        <v>0.119144</v>
+        <v>0.12214</v>
       </c>
       <c r="D23" t="n">
-        <v>0.073851</v>
+        <v>0.07170799999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0189473</v>
+        <v>0.0189417</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0188613</v>
+        <v>0.0188653</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0165265</v>
+        <v>0.0167841</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0163257</v>
+        <v>0.0163851</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0753799</v>
+        <v>0.07635840000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0192143</v>
+        <v>0.0192128</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0191313</v>
+        <v>0.0191062</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0169796</v>
+        <v>0.0173399</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0168233</v>
+        <v>0.0169891</v>
       </c>
       <c r="D25" t="n">
-        <v>0.07859729999999999</v>
+        <v>0.0793186</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0194382</v>
+        <v>0.0194398</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0193293</v>
+        <v>0.0193244</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0175738</v>
+        <v>0.0179848</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0175723</v>
+        <v>0.0177075</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0823803</v>
+        <v>0.08218350000000001</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0196547</v>
+        <v>0.0196668</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0195861</v>
+        <v>0.0195815</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0185704</v>
+        <v>0.0191293</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0184284</v>
+        <v>0.0189282</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0850706</v>
+        <v>0.085393</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0200862</v>
+        <v>0.0200846</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0199757</v>
+        <v>0.0199689</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0202236</v>
+        <v>0.0204949</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0196964</v>
+        <v>0.0203825</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0885314</v>
+        <v>0.087931</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0205106</v>
+        <v>0.0205037</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0203587</v>
+        <v>0.0203593</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0222185</v>
+        <v>0.0226238</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0216821</v>
+        <v>0.0224747</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0912737</v>
+        <v>0.0918013</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0211517</v>
+        <v>0.0211438</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0210055</v>
+        <v>0.0210108</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0254755</v>
+        <v>0.0261252</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0249518</v>
+        <v>0.0261972</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0934633</v>
+        <v>0.0943051</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0217377</v>
+        <v>0.0217457</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0216199</v>
+        <v>0.0216399</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.029739</v>
+        <v>0.0304791</v>
       </c>
       <c r="C31" t="n">
-        <v>0.028464</v>
+        <v>0.0308899</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0968508</v>
+        <v>0.09575450000000001</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0226372</v>
+        <v>0.0226454</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0223869</v>
+        <v>0.0223838</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0360377</v>
+        <v>0.0363094</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0362681</v>
+        <v>0.0361743</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0977394</v>
+        <v>0.09759660000000001</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0235642</v>
+        <v>0.0235641</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0233535</v>
+        <v>0.0233369</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.044235</v>
+        <v>0.0447172</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0439686</v>
+        <v>0.0451444</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0994</v>
+        <v>0.100934</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0249552</v>
+        <v>0.0249661</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0247468</v>
+        <v>0.024767</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0556708</v>
+        <v>0.0565939</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0552072</v>
+        <v>0.0580678</v>
       </c>
       <c r="D34" t="n">
-        <v>0.101592</v>
+        <v>0.10265</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0273678</v>
+        <v>0.0273604</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0272485</v>
+        <v>0.027301</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.072648</v>
+        <v>0.0716608</v>
       </c>
       <c r="C35" t="n">
-        <v>0.07399169999999999</v>
+        <v>0.0738872</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0690354</v>
+        <v>0.0686425</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0312033</v>
+        <v>0.0311518</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0312373</v>
+        <v>0.0311988</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.09492250000000001</v>
+        <v>0.0932824</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0944402</v>
+        <v>0.0969739</v>
       </c>
       <c r="D36" t="n">
-        <v>0.07293860000000001</v>
+        <v>0.0723825</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0380531</v>
+        <v>0.0377518</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0381547</v>
+        <v>0.0381502</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.119952</v>
+        <v>0.119474</v>
       </c>
       <c r="C37" t="n">
-        <v>0.121881</v>
+        <v>0.123165</v>
       </c>
       <c r="D37" t="n">
-        <v>0.07573820000000001</v>
+        <v>0.0753463</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0194598</v>
+        <v>0.0194955</v>
       </c>
       <c r="F37" t="n">
-        <v>0.01946</v>
+        <v>0.0194823</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0170485</v>
+        <v>0.017354</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0170632</v>
+        <v>0.0173476</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0792892</v>
+        <v>0.0787567</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0197456</v>
+        <v>0.019755</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0197997</v>
+        <v>0.0197673</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0177499</v>
+        <v>0.0181733</v>
       </c>
       <c r="C39" t="n">
-        <v>0.017755</v>
+        <v>0.0180635</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0833342</v>
+        <v>0.0817697</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0200774</v>
+        <v>0.0200982</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0201285</v>
+        <v>0.0200759</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0186781</v>
+        <v>0.0189611</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0186644</v>
+        <v>0.018987</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0846713</v>
+        <v>0.0858878</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0204214</v>
+        <v>0.0203898</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0204808</v>
+        <v>0.0204595</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0201816</v>
+        <v>0.0202358</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0201157</v>
+        <v>0.0199865</v>
       </c>
       <c r="D41" t="n">
-        <v>0.08867949999999999</v>
+        <v>0.0888046</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0207573</v>
+        <v>0.0208278</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0208489</v>
+        <v>0.0207762</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0219571</v>
+        <v>0.0222157</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0219191</v>
+        <v>0.0218352</v>
       </c>
       <c r="D42" t="n">
-        <v>0.09181400000000001</v>
+        <v>0.0917675</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0212286</v>
+        <v>0.0212281</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0212047</v>
+        <v>0.0212199</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0245954</v>
+        <v>0.0248199</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0244899</v>
+        <v>0.0245509</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0950419</v>
+        <v>0.09471250000000001</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0217993</v>
+        <v>0.0218353</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0218306</v>
+        <v>0.0218572</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0278018</v>
+        <v>0.028197</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0278976</v>
+        <v>0.0276627</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0969684</v>
+        <v>0.09725880000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0225584</v>
+        <v>0.022558</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0226415</v>
+        <v>0.022635</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0324384</v>
+        <v>0.0327399</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0331522</v>
+        <v>0.032531</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0990856</v>
+        <v>0.0989913</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0233212</v>
+        <v>0.0233427</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0234653</v>
+        <v>0.0234015</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0385785</v>
+        <v>0.0383612</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0388258</v>
+        <v>0.0376186</v>
       </c>
       <c r="D46" t="n">
-        <v>0.101209</v>
+        <v>0.102176</v>
       </c>
       <c r="E46" t="n">
-        <v>0.024619</v>
+        <v>0.0246889</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0246284</v>
+        <v>0.0246503</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0465554</v>
+        <v>0.0457518</v>
       </c>
       <c r="C47" t="n">
-        <v>0.047273</v>
+        <v>0.0455507</v>
       </c>
       <c r="D47" t="n">
-        <v>0.103578</v>
+        <v>0.10329</v>
       </c>
       <c r="E47" t="n">
-        <v>0.026075</v>
+        <v>0.0261505</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0261604</v>
+        <v>0.0261874</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0576041</v>
+        <v>0.0562043</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0577314</v>
+        <v>0.0560867</v>
       </c>
       <c r="D48" t="n">
-        <v>0.105792</v>
+        <v>0.106282</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0287391</v>
+        <v>0.0288165</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0288114</v>
+        <v>0.0288291</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0726929</v>
+        <v>0.07003810000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0731709</v>
+        <v>0.0704799</v>
       </c>
       <c r="D49" t="n">
-        <v>0.108688</v>
+        <v>0.108899</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0323281</v>
+        <v>0.0323573</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0324829</v>
+        <v>0.0324631</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0931265</v>
+        <v>0.0897457</v>
       </c>
       <c r="C50" t="n">
-        <v>0.09318269999999999</v>
+        <v>0.09144099999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0757587</v>
+        <v>0.0759867</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0382463</v>
+        <v>0.0382972</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0384995</v>
+        <v>0.038457</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.119486</v>
+        <v>0.115631</v>
       </c>
       <c r="C51" t="n">
-        <v>0.118639</v>
+        <v>0.117651</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0799996</v>
+        <v>0.07921839999999999</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0204534</v>
+        <v>0.0204953</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0204836</v>
+        <v>0.0204607</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.142908</v>
+        <v>0.14145</v>
       </c>
       <c r="C52" t="n">
-        <v>0.143569</v>
+        <v>0.143187</v>
       </c>
       <c r="D52" t="n">
-        <v>0.08259619999999999</v>
+        <v>0.08284320000000001</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0207517</v>
+        <v>0.0207693</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0207659</v>
+        <v>0.0207683</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0192521</v>
+        <v>0.0190863</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0191325</v>
+        <v>0.0191179</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0859548</v>
+        <v>0.0867025</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0210578</v>
+        <v>0.0210851</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0210984</v>
+        <v>0.0211048</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0203016</v>
+        <v>0.0202314</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0203366</v>
+        <v>0.0204345</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0900634</v>
+        <v>0.090243</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0213625</v>
+        <v>0.021431</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0213885</v>
+        <v>0.0213899</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.021914</v>
+        <v>0.0216895</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0219622</v>
+        <v>0.0218731</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0930068</v>
+        <v>0.0933905</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0217731</v>
+        <v>0.0218135</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0217941</v>
+        <v>0.0217969</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0237483</v>
+        <v>0.0235897</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0237399</v>
+        <v>0.0236016</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0961709</v>
+        <v>0.09641039999999999</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0222448</v>
+        <v>0.0222622</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0222699</v>
+        <v>0.0223156</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0264127</v>
+        <v>0.0267687</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0265577</v>
+        <v>0.0264563</v>
       </c>
       <c r="D57" t="n">
-        <v>0.09937890000000001</v>
+        <v>0.100149</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0227707</v>
+        <v>0.0228101</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0228251</v>
+        <v>0.0228457</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0298857</v>
+        <v>0.0296411</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0300699</v>
+        <v>0.0295895</v>
       </c>
       <c r="D58" t="n">
-        <v>0.102777</v>
+        <v>0.102354</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0234263</v>
+        <v>0.0234616</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0235236</v>
+        <v>0.0235497</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0343184</v>
+        <v>0.0337432</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0345821</v>
+        <v>0.034075</v>
       </c>
       <c r="D59" t="n">
-        <v>0.104652</v>
+        <v>0.104919</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0243572</v>
+        <v>0.0243678</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0244243</v>
+        <v>0.0244684</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.04004</v>
+        <v>0.0392495</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0401455</v>
+        <v>0.0391413</v>
       </c>
       <c r="D60" t="n">
-        <v>0.107489</v>
+        <v>0.107333</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0256753</v>
+        <v>0.0256915</v>
       </c>
       <c r="F60" t="n">
-        <v>0.025745</v>
+        <v>0.0256896</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0475297</v>
+        <v>0.0465847</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0473011</v>
+        <v>0.046313</v>
       </c>
       <c r="D61" t="n">
-        <v>0.109739</v>
+        <v>0.111023</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0273935</v>
+        <v>0.0274166</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0274898</v>
+        <v>0.0275073</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0571916</v>
+        <v>0.0561985</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0579257</v>
+        <v>0.0560438</v>
       </c>
       <c r="D62" t="n">
-        <v>0.112987</v>
+        <v>0.112907</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0299955</v>
+        <v>0.030013</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0300594</v>
+        <v>0.0300588</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0710327</v>
+        <v>0.0696215</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0711952</v>
+        <v>0.07083739999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>0.115269</v>
+        <v>0.114725</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0337278</v>
+        <v>0.0338225</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0339535</v>
+        <v>0.0340386</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.09049459999999999</v>
+        <v>0.08933339999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0905796</v>
+        <v>0.09086610000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0809163</v>
+        <v>0.0812727</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0398668</v>
+        <v>0.0399765</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0402428</v>
+        <v>0.0402864</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.115621</v>
+        <v>0.115137</v>
       </c>
       <c r="C65" t="n">
-        <v>0.116428</v>
+        <v>0.116838</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0841703</v>
+        <v>0.08604340000000001</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0509206</v>
+        <v>0.0509484</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0512811</v>
+        <v>0.0513114</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.147365</v>
+        <v>0.146209</v>
       </c>
       <c r="C66" t="n">
-        <v>0.147677</v>
+        <v>0.146986</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0894455</v>
+        <v>0.09113640000000001</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0210311</v>
+        <v>0.0210613</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0210754</v>
+        <v>0.0211328</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0198901</v>
+        <v>0.0198376</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0197677</v>
+        <v>0.0196892</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0941531</v>
+        <v>0.0964197</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0213684</v>
+        <v>0.0213885</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0214273</v>
+        <v>0.0214338</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0212106</v>
+        <v>0.0209326</v>
       </c>
       <c r="C68" t="n">
-        <v>0.021076</v>
+        <v>0.0208873</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0993991</v>
+        <v>0.0996706</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0217293</v>
+        <v>0.0216938</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0217579</v>
+        <v>0.0217362</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0227437</v>
+        <v>0.0228213</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0224508</v>
+        <v>0.0226135</v>
       </c>
       <c r="D69" t="n">
-        <v>0.103551</v>
+        <v>0.106731</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0220518</v>
+        <v>0.0220722</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0221697</v>
+        <v>0.0220755</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0246764</v>
+        <v>0.0245697</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0244704</v>
+        <v>0.0245634</v>
       </c>
       <c r="D70" t="n">
-        <v>0.108804</v>
+        <v>0.111572</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0225514</v>
+        <v>0.0225176</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0225718</v>
+        <v>0.0226135</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0270231</v>
+        <v>0.0273554</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0268723</v>
+        <v>0.026777</v>
       </c>
       <c r="D71" t="n">
-        <v>0.113522</v>
+        <v>0.114298</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0231203</v>
+        <v>0.0230715</v>
       </c>
       <c r="F71" t="n">
-        <v>0.023207</v>
+        <v>0.023106</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0303766</v>
+        <v>0.0306904</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0300228</v>
+        <v>0.0303531</v>
       </c>
       <c r="D72" t="n">
-        <v>0.117627</v>
+        <v>0.118696</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0238038</v>
+        <v>0.023843</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0238546</v>
+        <v>0.0238471</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0344251</v>
+        <v>0.0345488</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0341801</v>
+        <v>0.0344845</v>
       </c>
       <c r="D73" t="n">
-        <v>0.124834</v>
+        <v>0.124126</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0246995</v>
+        <v>0.0247839</v>
       </c>
       <c r="F73" t="n">
-        <v>0.024803</v>
+        <v>0.0249249</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0396787</v>
+        <v>0.0397238</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0395502</v>
+        <v>0.0395638</v>
       </c>
       <c r="D74" t="n">
-        <v>0.129209</v>
+        <v>0.129537</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0258866</v>
+        <v>0.0258692</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0260487</v>
+        <v>0.0261096</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0466498</v>
+        <v>0.0467302</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0463904</v>
+        <v>0.0466286</v>
       </c>
       <c r="D75" t="n">
-        <v>0.134656</v>
+        <v>0.135744</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0276201</v>
+        <v>0.0275822</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0277301</v>
+        <v>0.0277577</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.055862</v>
+        <v>0.0559159</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0559034</v>
+        <v>0.0560905</v>
       </c>
       <c r="D76" t="n">
-        <v>0.141296</v>
+        <v>0.14107</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0300769</v>
+        <v>0.0300908</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0304101</v>
+        <v>0.0304178</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0686848</v>
+        <v>0.0689961</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0691358</v>
+        <v>0.0691039</v>
       </c>
       <c r="D77" t="n">
-        <v>0.147096</v>
+        <v>0.147414</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0337315</v>
+        <v>0.0337916</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0341432</v>
+        <v>0.0341625</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.08703909999999999</v>
+        <v>0.08747389999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0870769</v>
+        <v>0.08714769999999999</v>
       </c>
       <c r="D78" t="n">
-        <v>0.110707</v>
+        <v>0.111073</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0394817</v>
+        <v>0.0395343</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0397802</v>
+        <v>0.0397992</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.111595</v>
+        <v>0.112664</v>
       </c>
       <c r="C79" t="n">
-        <v>0.112077</v>
+        <v>0.1128</v>
       </c>
       <c r="D79" t="n">
-        <v>0.116906</v>
+        <v>0.120048</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0493255</v>
+        <v>0.0491987</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0494901</v>
+        <v>0.0495591</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.143186</v>
+        <v>0.144702</v>
       </c>
       <c r="C80" t="n">
-        <v>0.144018</v>
+        <v>0.14472</v>
       </c>
       <c r="D80" t="n">
-        <v>0.124316</v>
+        <v>0.125011</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0212448</v>
+        <v>0.0212761</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0215878</v>
+        <v>0.0219199</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0199294</v>
+        <v>0.0200335</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0200223</v>
+        <v>0.0203493</v>
       </c>
       <c r="D81" t="n">
-        <v>0.132692</v>
+        <v>0.137677</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0215791</v>
+        <v>0.0216199</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0220465</v>
+        <v>0.0225618</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0214204</v>
+        <v>0.0212829</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0213494</v>
+        <v>0.0218153</v>
       </c>
       <c r="D82" t="n">
-        <v>0.142344</v>
+        <v>0.142158</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0219428</v>
+        <v>0.0220722</v>
       </c>
       <c r="F82" t="n">
-        <v>0.0227132</v>
+        <v>0.023019</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0228045</v>
+        <v>0.0230315</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0231629</v>
+        <v>0.0235155</v>
       </c>
       <c r="D83" t="n">
-        <v>0.146243</v>
+        <v>0.150469</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0223866</v>
+        <v>0.0224861</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0235389</v>
+        <v>0.0238629</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.025162</v>
+        <v>0.0248485</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0253234</v>
+        <v>0.0253688</v>
       </c>
       <c r="D84" t="n">
-        <v>0.153855</v>
+        <v>0.156838</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0228759</v>
+        <v>0.0229694</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0243883</v>
+        <v>0.0244399</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0273095</v>
+        <v>0.0274903</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0277947</v>
+        <v>0.0278863</v>
       </c>
       <c r="D85" t="n">
-        <v>0.160987</v>
+        <v>0.167049</v>
       </c>
       <c r="E85" t="n">
-        <v>0.023488</v>
+        <v>0.023573</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0256145</v>
+        <v>0.0258869</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0304513</v>
+        <v>0.0303856</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0308783</v>
+        <v>0.0309289</v>
       </c>
       <c r="D86" t="n">
-        <v>0.168182</v>
+        <v>0.169762</v>
       </c>
       <c r="E86" t="n">
-        <v>0.0243301</v>
+        <v>0.0244203</v>
       </c>
       <c r="F86" t="n">
-        <v>0.0266775</v>
+        <v>0.0270053</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0342955</v>
+        <v>0.0342764</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0348449</v>
+        <v>0.0347598</v>
       </c>
       <c r="D87" t="n">
-        <v>0.176947</v>
+        <v>0.178205</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0254199</v>
+        <v>0.0253867</v>
       </c>
       <c r="F87" t="n">
-        <v>0.0282793</v>
+        <v>0.0284669</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0391817</v>
+        <v>0.0393794</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0395178</v>
+        <v>0.0398371</v>
       </c>
       <c r="D88" t="n">
-        <v>0.184377</v>
+        <v>0.184115</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0267694</v>
+        <v>0.0267288</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0301406</v>
+        <v>0.03001</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.046079</v>
+        <v>0.0460585</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0460554</v>
+        <v>0.0461902</v>
       </c>
       <c r="D89" t="n">
-        <v>0.189647</v>
+        <v>0.191478</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0284513</v>
+        <v>0.0284361</v>
       </c>
       <c r="F89" t="n">
-        <v>0.0321767</v>
+        <v>0.0322084</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0544724</v>
+        <v>0.0552448</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0549275</v>
+        <v>0.0553706</v>
       </c>
       <c r="D90" t="n">
-        <v>0.197943</v>
+        <v>0.197938</v>
       </c>
       <c r="E90" t="n">
-        <v>0.0308939</v>
+        <v>0.0308557</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0347918</v>
+        <v>0.0345902</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.06688379999999999</v>
+        <v>0.0670878</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0669838</v>
+        <v>0.0673695</v>
       </c>
       <c r="D91" t="n">
-        <v>0.205082</v>
+        <v>0.209648</v>
       </c>
       <c r="E91" t="n">
-        <v>0.034232</v>
+        <v>0.0341819</v>
       </c>
       <c r="F91" t="n">
-        <v>0.0381395</v>
+        <v>0.0381179</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0839995</v>
+        <v>0.083749</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0846823</v>
+        <v>0.084663</v>
       </c>
       <c r="D92" t="n">
-        <v>0.155144</v>
+        <v>0.157742</v>
       </c>
       <c r="E92" t="n">
-        <v>0.0393548</v>
+        <v>0.0393454</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0433389</v>
+        <v>0.0436293</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.108142</v>
+        <v>0.107615</v>
       </c>
       <c r="C93" t="n">
-        <v>0.109279</v>
+        <v>0.108888</v>
       </c>
       <c r="D93" t="n">
-        <v>0.160938</v>
+        <v>0.162721</v>
       </c>
       <c r="E93" t="n">
-        <v>0.048148</v>
+        <v>0.0481541</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0535144</v>
+        <v>0.0535665</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.1382</v>
+        <v>0.138738</v>
       </c>
       <c r="C94" t="n">
-        <v>0.139801</v>
+        <v>0.140002</v>
       </c>
       <c r="D94" t="n">
-        <v>0.167662</v>
+        <v>0.170074</v>
       </c>
       <c r="E94" t="n">
-        <v>0.0230579</v>
+        <v>0.0230598</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0282215</v>
+        <v>0.0282648</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0205134</v>
+        <v>0.0206714</v>
       </c>
       <c r="C95" t="n">
-        <v>0.02472</v>
+        <v>0.0245429</v>
       </c>
       <c r="D95" t="n">
-        <v>0.174319</v>
+        <v>0.176223</v>
       </c>
       <c r="E95" t="n">
-        <v>0.0234914</v>
+        <v>0.0235199</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0292472</v>
+        <v>0.0295415</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0221176</v>
+        <v>0.0216526</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0260357</v>
+        <v>0.0260512</v>
       </c>
       <c r="D96" t="n">
-        <v>0.180908</v>
+        <v>0.185016</v>
       </c>
       <c r="E96" t="n">
-        <v>0.0241662</v>
+        <v>0.0240474</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0310037</v>
+        <v>0.0311209</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0234695</v>
+        <v>0.0231137</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0283482</v>
+        <v>0.0288639</v>
       </c>
       <c r="D97" t="n">
-        <v>0.189324</v>
+        <v>0.188224</v>
       </c>
       <c r="E97" t="n">
-        <v>0.0246349</v>
+        <v>0.0246719</v>
       </c>
       <c r="F97" t="n">
-        <v>0.0338411</v>
+        <v>0.0342058</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0250948</v>
+        <v>0.0251599</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0319891</v>
+        <v>0.0327826</v>
       </c>
       <c r="D98" t="n">
-        <v>0.194366</v>
+        <v>0.198353</v>
       </c>
       <c r="E98" t="n">
-        <v>0.0254051</v>
+        <v>0.0255078</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0377669</v>
+        <v>0.0390684</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0273376</v>
+        <v>0.0270647</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0373613</v>
+        <v>0.0381343</v>
       </c>
       <c r="D99" t="n">
-        <v>0.202719</v>
+        <v>0.20495</v>
       </c>
       <c r="E99" t="n">
-        <v>0.0267527</v>
+        <v>0.0270245</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0424692</v>
+        <v>0.0446865</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0305913</v>
+        <v>0.0304094</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0432267</v>
+        <v>0.0438783</v>
       </c>
       <c r="D100" t="n">
-        <v>0.210061</v>
+        <v>0.212737</v>
       </c>
       <c r="E100" t="n">
-        <v>0.0289711</v>
+        <v>0.0290008</v>
       </c>
       <c r="F100" t="n">
-        <v>0.0467984</v>
+        <v>0.0471517</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0348709</v>
+        <v>0.0347321</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0495413</v>
+        <v>0.0496372</v>
       </c>
       <c r="D101" t="n">
-        <v>0.216882</v>
+        <v>0.219814</v>
       </c>
       <c r="E101" t="n">
-        <v>0.031997</v>
+        <v>0.0318569</v>
       </c>
       <c r="F101" t="n">
-        <v>0.0508045</v>
+        <v>0.0508707</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0399354</v>
+        <v>0.0398787</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0557906</v>
+        <v>0.0554641</v>
       </c>
       <c r="D102" t="n">
-        <v>0.224985</v>
+        <v>0.227133</v>
       </c>
       <c r="E102" t="n">
-        <v>0.0351154</v>
+        <v>0.0351888</v>
       </c>
       <c r="F102" t="n">
-        <v>0.0540794</v>
+        <v>0.0542794</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0463128</v>
+        <v>0.0460653</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0615368</v>
+        <v>0.061433</v>
       </c>
       <c r="D103" t="n">
-        <v>0.23335</v>
+        <v>0.235509</v>
       </c>
       <c r="E103" t="n">
-        <v>0.0383836</v>
+        <v>0.0382577</v>
       </c>
       <c r="F103" t="n">
-        <v>0.0574113</v>
+        <v>0.0572114</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0546111</v>
+        <v>0.0545134</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0687165</v>
+        <v>0.06885090000000001</v>
       </c>
       <c r="D104" t="n">
-        <v>0.24023</v>
+        <v>0.243024</v>
       </c>
       <c r="E104" t="n">
-        <v>0.0413973</v>
+        <v>0.041436</v>
       </c>
       <c r="F104" t="n">
-        <v>0.0607931</v>
+        <v>0.0606314</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0652686</v>
+        <v>0.0657288</v>
       </c>
       <c r="C105" t="n">
-        <v>0.077704</v>
+        <v>0.0780149</v>
       </c>
       <c r="D105" t="n">
-        <v>0.249109</v>
+        <v>0.249426</v>
       </c>
       <c r="E105" t="n">
-        <v>0.044912</v>
+        <v>0.0449463</v>
       </c>
       <c r="F105" t="n">
-        <v>0.06443740000000001</v>
+        <v>0.06445919999999999</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.08115260000000001</v>
+        <v>0.0811289</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0908815</v>
+        <v>0.0909744</v>
       </c>
       <c r="D106" t="n">
-        <v>0.259025</v>
+        <v>0.261821</v>
       </c>
       <c r="E106" t="n">
-        <v>0.0490589</v>
+        <v>0.0491634</v>
       </c>
       <c r="F106" t="n">
-        <v>0.0693872</v>
+        <v>0.0693102</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.102848</v>
+        <v>0.102766</v>
       </c>
       <c r="C107" t="n">
-        <v>0.109354</v>
+        <v>0.109614</v>
       </c>
       <c r="D107" t="n">
-        <v>0.188604</v>
+        <v>0.190437</v>
       </c>
       <c r="E107" t="n">
-        <v>0.0557107</v>
+        <v>0.0557074</v>
       </c>
       <c r="F107" t="n">
-        <v>0.0767225</v>
+        <v>0.0766179</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.132358</v>
+        <v>0.132434</v>
       </c>
       <c r="C108" t="n">
-        <v>0.13638</v>
+        <v>0.136784</v>
       </c>
       <c r="D108" t="n">
-        <v>0.194982</v>
+        <v>0.196802</v>
       </c>
       <c r="E108" t="n">
-        <v>0.0352917</v>
+        <v>0.0353497</v>
       </c>
       <c r="F108" t="n">
-        <v>0.0512891</v>
+        <v>0.0514575</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.16838</v>
+        <v>0.168631</v>
       </c>
       <c r="C109" t="n">
-        <v>0.172601</v>
+        <v>0.172995</v>
       </c>
       <c r="D109" t="n">
-        <v>0.201748</v>
+        <v>0.204173</v>
       </c>
       <c r="E109" t="n">
-        <v>0.0361736</v>
+        <v>0.0363803</v>
       </c>
       <c r="F109" t="n">
-        <v>0.0527904</v>
+        <v>0.0528036</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0312433</v>
+        <v>0.0310585</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0468909</v>
+        <v>0.0464864</v>
       </c>
       <c r="D110" t="n">
-        <v>0.209368</v>
+        <v>0.211708</v>
       </c>
       <c r="E110" t="n">
-        <v>0.0372325</v>
+        <v>0.0371458</v>
       </c>
       <c r="F110" t="n">
-        <v>0.0541555</v>
+        <v>0.0541547</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0328852</v>
+        <v>0.0325007</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0485327</v>
+        <v>0.0483234</v>
       </c>
       <c r="D111" t="n">
-        <v>0.21534</v>
+        <v>0.219264</v>
       </c>
       <c r="E111" t="n">
-        <v>0.0378805</v>
+        <v>0.0378826</v>
       </c>
       <c r="F111" t="n">
-        <v>0.0554411</v>
+        <v>0.0555342</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0342327</v>
+        <v>0.0340799</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0503231</v>
+        <v>0.0507502</v>
       </c>
       <c r="D112" t="n">
-        <v>0.222884</v>
+        <v>0.224703</v>
       </c>
       <c r="E112" t="n">
-        <v>0.0386859</v>
+        <v>0.0387536</v>
       </c>
       <c r="F112" t="n">
-        <v>0.0568267</v>
+        <v>0.0569388</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0359993</v>
+        <v>0.0361519</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0529023</v>
+        <v>0.053054</v>
       </c>
       <c r="D113" t="n">
-        <v>0.230371</v>
+        <v>0.233608</v>
       </c>
       <c r="E113" t="n">
-        <v>0.0396569</v>
+        <v>0.0397651</v>
       </c>
       <c r="F113" t="n">
-        <v>0.0583253</v>
+        <v>0.0584398</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0380906</v>
+        <v>0.0381006</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0558567</v>
+        <v>0.0558983</v>
       </c>
       <c r="D114" t="n">
-        <v>0.237469</v>
+        <v>0.241024</v>
       </c>
       <c r="E114" t="n">
-        <v>0.0406009</v>
+        <v>0.0406591</v>
       </c>
       <c r="F114" t="n">
-        <v>0.0600216</v>
+        <v>0.0602662</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.0407056</v>
+        <v>0.0405394</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0590213</v>
+        <v>0.0590749</v>
       </c>
       <c r="D115" t="n">
-        <v>0.245385</v>
+        <v>0.247657</v>
       </c>
       <c r="E115" t="n">
-        <v>0.0417302</v>
+        <v>0.0419096</v>
       </c>
       <c r="F115" t="n">
-        <v>0.0619847</v>
+        <v>0.0620322</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.0440104</v>
+        <v>0.0438885</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0631693</v>
+        <v>0.0630583</v>
       </c>
       <c r="D116" t="n">
-        <v>0.253458</v>
+        <v>0.256373</v>
       </c>
       <c r="E116" t="n">
-        <v>0.0429644</v>
+        <v>0.0429662</v>
       </c>
       <c r="F116" t="n">
-        <v>0.0638606</v>
+        <v>0.0640656</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.0487662</v>
+        <v>0.0483786</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0679831</v>
+        <v>0.06798419999999999</v>
       </c>
       <c r="D117" t="n">
-        <v>0.261352</v>
+        <v>0.263874</v>
       </c>
       <c r="E117" t="n">
-        <v>0.0444496</v>
+        <v>0.0446725</v>
       </c>
       <c r="F117" t="n">
-        <v>0.0660342</v>
+        <v>0.0662204</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.0553649</v>
+        <v>0.0551569</v>
       </c>
       <c r="C118" t="n">
-        <v>0.074264</v>
+        <v>0.07402839999999999</v>
       </c>
       <c r="D118" t="n">
-        <v>0.269552</v>
+        <v>0.271619</v>
       </c>
       <c r="E118" t="n">
-        <v>0.0463814</v>
+        <v>0.0465355</v>
       </c>
       <c r="F118" t="n">
-        <v>0.06904150000000001</v>
+        <v>0.0690934</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.0646127</v>
+        <v>0.06487560000000001</v>
       </c>
       <c r="C119" t="n">
-        <v>0.082608</v>
+        <v>0.08267919999999999</v>
       </c>
       <c r="D119" t="n">
-        <v>0.278263</v>
+        <v>0.281314</v>
       </c>
       <c r="E119" t="n">
-        <v>0.0490944</v>
+        <v>0.0490012</v>
       </c>
       <c r="F119" t="n">
-        <v>0.07258539999999999</v>
+        <v>0.0727421</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.0792086</v>
+        <v>0.0792953</v>
       </c>
       <c r="C120" t="n">
-        <v>0.0943005</v>
+        <v>0.0946873</v>
       </c>
       <c r="D120" t="n">
-        <v>0.288881</v>
+        <v>0.290079</v>
       </c>
       <c r="E120" t="n">
-        <v>0.0526911</v>
+        <v>0.0527236</v>
       </c>
       <c r="F120" t="n">
-        <v>0.0776493</v>
+        <v>0.07757790000000001</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.0997711</v>
+        <v>0.0998381</v>
       </c>
       <c r="C121" t="n">
-        <v>0.110645</v>
+        <v>0.110996</v>
       </c>
       <c r="D121" t="n">
-        <v>0.205825</v>
+        <v>0.206008</v>
       </c>
       <c r="E121" t="n">
-        <v>0.0584958</v>
+        <v>0.0585651</v>
       </c>
       <c r="F121" t="n">
-        <v>0.0846382</v>
+        <v>0.0848903</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.128211</v>
+        <v>0.127985</v>
       </c>
       <c r="C122" t="n">
-        <v>0.135467</v>
+        <v>0.135605</v>
       </c>
       <c r="D122" t="n">
-        <v>0.210489</v>
+        <v>0.211873</v>
       </c>
       <c r="E122" t="n">
-        <v>0.0681872</v>
+        <v>0.0682828</v>
       </c>
       <c r="F122" t="n">
-        <v>0.0958522</v>
+        <v>0.09606679999999999</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.163587</v>
+        <v>0.16362</v>
       </c>
       <c r="C123" t="n">
-        <v>0.16997</v>
+        <v>0.170092</v>
       </c>
       <c r="D123" t="n">
-        <v>0.216742</v>
+        <v>0.21834</v>
       </c>
       <c r="E123" t="n">
-        <v>0.0406866</v>
+        <v>0.0406533</v>
       </c>
       <c r="F123" t="n">
-        <v>0.0602076</v>
+        <v>0.0606798</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.0340747</v>
+        <v>0.0340812</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0516893</v>
+        <v>0.0518004</v>
       </c>
       <c r="D124" t="n">
-        <v>0.223432</v>
+        <v>0.225216</v>
       </c>
       <c r="E124" t="n">
-        <v>0.0422197</v>
+        <v>0.0422384</v>
       </c>
       <c r="F124" t="n">
-        <v>0.0617364</v>
+        <v>0.0620466</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.0351775</v>
+        <v>0.0353542</v>
       </c>
       <c r="C125" t="n">
-        <v>0.053602</v>
+        <v>0.0538382</v>
       </c>
       <c r="D125" t="n">
-        <v>0.23083</v>
+        <v>0.232178</v>
       </c>
       <c r="E125" t="n">
-        <v>0.0430851</v>
+        <v>0.0429597</v>
       </c>
       <c r="F125" t="n">
-        <v>0.0631393</v>
+        <v>0.0634417</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.0371246</v>
+        <v>0.0363056</v>
       </c>
       <c r="C126" t="n">
-        <v>0.0567176</v>
+        <v>0.0562724</v>
       </c>
       <c r="D126" t="n">
-        <v>0.238009</v>
+        <v>0.239391</v>
       </c>
       <c r="E126" t="n">
-        <v>0.04384</v>
+        <v>0.0439001</v>
       </c>
       <c r="F126" t="n">
-        <v>0.0648183</v>
+        <v>0.06513770000000001</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.0385126</v>
+        <v>0.0382911</v>
       </c>
       <c r="C127" t="n">
-        <v>0.0590241</v>
+        <v>0.0584108</v>
       </c>
       <c r="D127" t="n">
-        <v>0.245527</v>
+        <v>0.246951</v>
       </c>
       <c r="E127" t="n">
-        <v>0.0448081</v>
+        <v>0.0448297</v>
       </c>
       <c r="F127" t="n">
-        <v>0.066479</v>
+        <v>0.0667712</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0407735</v>
+        <v>0.0402566</v>
       </c>
       <c r="C128" t="n">
-        <v>0.062152</v>
+        <v>0.0616591</v>
       </c>
       <c r="D128" t="n">
-        <v>0.257491</v>
+        <v>0.254457</v>
       </c>
       <c r="E128" t="n">
-        <v>0.0458123</v>
+        <v>0.0458001</v>
       </c>
       <c r="F128" t="n">
-        <v>0.06804209999999999</v>
+        <v>0.068485</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0429853</v>
+        <v>0.0429359</v>
       </c>
       <c r="C129" t="n">
-        <v>0.0657465</v>
+        <v>0.065762</v>
       </c>
       <c r="D129" t="n">
-        <v>0.261125</v>
+        <v>0.261864</v>
       </c>
       <c r="E129" t="n">
-        <v>0.0468604</v>
+        <v>0.0469124</v>
       </c>
       <c r="F129" t="n">
-        <v>0.07016219999999999</v>
+        <v>0.0704024</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0467372</v>
+        <v>0.0465302</v>
       </c>
       <c r="C130" t="n">
-        <v>0.0700828</v>
+        <v>0.06966749999999999</v>
       </c>
       <c r="D130" t="n">
-        <v>0.26918</v>
+        <v>0.269292</v>
       </c>
       <c r="E130" t="n">
-        <v>0.0481769</v>
+        <v>0.0480977</v>
       </c>
       <c r="F130" t="n">
-        <v>0.0722638</v>
+        <v>0.0724424</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0510247</v>
+        <v>0.0507424</v>
       </c>
       <c r="C131" t="n">
-        <v>0.0754099</v>
+        <v>0.0752005</v>
       </c>
       <c r="D131" t="n">
-        <v>0.277199</v>
+        <v>0.280117</v>
       </c>
       <c r="E131" t="n">
-        <v>0.0497093</v>
+        <v>0.049834</v>
       </c>
       <c r="F131" t="n">
-        <v>0.07473829999999999</v>
+        <v>0.0748939</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.058146</v>
+        <v>0.0586724</v>
       </c>
       <c r="C132" t="n">
-        <v>0.0821703</v>
+        <v>0.0819356</v>
       </c>
       <c r="D132" t="n">
-        <v>0.285443</v>
+        <v>0.285798</v>
       </c>
       <c r="E132" t="n">
-        <v>0.051664</v>
+        <v>0.0518165</v>
       </c>
       <c r="F132" t="n">
-        <v>0.077787</v>
+        <v>0.0781039</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.0682306</v>
+        <v>0.06797540000000001</v>
       </c>
       <c r="C133" t="n">
-        <v>0.09095640000000001</v>
+        <v>0.09027490000000001</v>
       </c>
       <c r="D133" t="n">
-        <v>0.294529</v>
+        <v>0.294002</v>
       </c>
       <c r="E133" t="n">
-        <v>0.0543129</v>
+        <v>0.0542682</v>
       </c>
       <c r="F133" t="n">
-        <v>0.0813927</v>
+        <v>0.0816991</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.0821838</v>
+        <v>0.0817959</v>
       </c>
       <c r="C134" t="n">
-        <v>0.102229</v>
+        <v>0.101929</v>
       </c>
       <c r="D134" t="n">
-        <v>0.30385</v>
+        <v>0.303073</v>
       </c>
       <c r="E134" t="n">
-        <v>0.0579062</v>
+        <v>0.057907</v>
       </c>
       <c r="F134" t="n">
-        <v>0.0864721</v>
+        <v>0.0866811</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.101547</v>
+        <v>0.10215</v>
       </c>
       <c r="C135" t="n">
-        <v>0.118679</v>
+        <v>0.118497</v>
       </c>
       <c r="D135" t="n">
-        <v>0.213909</v>
+        <v>0.21409</v>
       </c>
       <c r="E135" t="n">
-        <v>0.06357930000000001</v>
+        <v>0.0635312</v>
       </c>
       <c r="F135" t="n">
-        <v>0.09355140000000001</v>
+        <v>0.09384290000000001</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.129433</v>
+        <v>0.129476</v>
       </c>
       <c r="C136" t="n">
-        <v>0.143268</v>
+        <v>0.143063</v>
       </c>
       <c r="D136" t="n">
-        <v>0.220682</v>
+        <v>0.220031</v>
       </c>
       <c r="E136" t="n">
-        <v>0.0730644</v>
+        <v>0.0731131</v>
       </c>
       <c r="F136" t="n">
-        <v>0.104612</v>
+        <v>0.104995</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.163616</v>
+        <v>0.163451</v>
       </c>
       <c r="C137" t="n">
-        <v>0.180634</v>
+        <v>0.179102</v>
       </c>
       <c r="D137" t="n">
-        <v>0.226125</v>
+        <v>0.226115</v>
       </c>
       <c r="E137" t="n">
-        <v>0.0588517</v>
+        <v>0.0591003</v>
       </c>
       <c r="F137" t="n">
-        <v>0.0790838</v>
+        <v>0.0789272</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0468927</v>
+        <v>0.047092</v>
       </c>
       <c r="C138" t="n">
-        <v>0.0655824</v>
+        <v>0.06540600000000001</v>
       </c>
       <c r="D138" t="n">
-        <v>0.232917</v>
+        <v>0.233647</v>
       </c>
       <c r="E138" t="n">
-        <v>0.0597327</v>
+        <v>0.0594514</v>
       </c>
       <c r="F138" t="n">
-        <v>0.0802484</v>
+        <v>0.08008759999999999</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0476043</v>
+        <v>0.0481829</v>
       </c>
       <c r="C139" t="n">
-        <v>0.06737079999999999</v>
+        <v>0.0732047</v>
       </c>
       <c r="D139" t="n">
         <v>0.239746</v>
       </c>
       <c r="E139" t="n">
-        <v>0.0604784</v>
+        <v>0.0604957</v>
       </c>
       <c r="F139" t="n">
-        <v>0.0816554</v>
+        <v>0.0812803</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.0494418</v>
+        <v>0.0493735</v>
       </c>
       <c r="C140" t="n">
-        <v>0.0687802</v>
+        <v>0.06916799999999999</v>
       </c>
       <c r="D140" t="n">
-        <v>0.247056</v>
+        <v>0.24763</v>
       </c>
       <c r="E140" t="n">
-        <v>0.0609192</v>
+        <v>0.0623416</v>
       </c>
       <c r="F140" t="n">
-        <v>0.0830004</v>
+        <v>0.082985</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0510091</v>
+        <v>0.0508823</v>
       </c>
       <c r="C141" t="n">
-        <v>0.0711039</v>
+        <v>0.07149519999999999</v>
       </c>
       <c r="D141" t="n">
-        <v>0.254996</v>
+        <v>0.255167</v>
       </c>
       <c r="E141" t="n">
-        <v>0.0620821</v>
+        <v>0.0620003</v>
       </c>
       <c r="F141" t="n">
-        <v>0.08448460000000001</v>
+        <v>0.0844666</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.0530079</v>
+        <v>0.0531477</v>
       </c>
       <c r="C142" t="n">
-        <v>0.0741115</v>
+        <v>0.0742766</v>
       </c>
       <c r="D142" t="n">
-        <v>0.262823</v>
+        <v>0.262841</v>
       </c>
       <c r="E142" t="n">
-        <v>0.0629378</v>
+        <v>0.06259430000000001</v>
       </c>
       <c r="F142" t="n">
-        <v>0.0857006</v>
+        <v>0.0857233</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.0554431</v>
+        <v>0.0556151</v>
       </c>
       <c r="C143" t="n">
-        <v>0.07699789999999999</v>
+        <v>0.077276</v>
       </c>
       <c r="D143" t="n">
-        <v>0.269907</v>
+        <v>0.27068</v>
       </c>
       <c r="E143" t="n">
-        <v>0.06351569999999999</v>
+        <v>0.0636347</v>
       </c>
       <c r="F143" t="n">
-        <v>0.0875432</v>
+        <v>0.08728089999999999</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered unsuccessful looukp.xlsx
+++ b/clang-arm64/Scattered unsuccessful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0193921</v>
+        <v>0.01773</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0186471</v>
+        <v>0.0179259</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0651211</v>
+        <v>0.0602033</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0215684</v>
+        <v>0.0215195</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0213484</v>
+        <v>0.0213772</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.020618</v>
+        <v>0.0191853</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0218034</v>
+        <v>0.0193275</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0764127</v>
+        <v>0.07139620000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0221425</v>
+        <v>0.0220754</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0218909</v>
+        <v>0.0219271</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0263035</v>
+        <v>0.0240565</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0249392</v>
+        <v>0.0238417</v>
       </c>
       <c r="D4" t="n">
-        <v>0.07617649999999999</v>
+        <v>0.07239470000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0229772</v>
+        <v>0.022993</v>
       </c>
       <c r="F4" t="n">
-        <v>0.023075</v>
+        <v>0.0229585</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0323933</v>
+        <v>0.0329327</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0400993</v>
+        <v>0.0332902</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0742215</v>
+        <v>0.073903</v>
       </c>
       <c r="E5" t="n">
-        <v>0.024339</v>
+        <v>0.0242773</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0237757</v>
+        <v>0.0236749</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0449133</v>
+        <v>0.0463729</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0442192</v>
+        <v>0.0477578</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0845709</v>
+        <v>0.090515</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0265505</v>
+        <v>0.0263168</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0256298</v>
+        <v>0.0254104</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0658818</v>
+        <v>0.0644082</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0617719</v>
+        <v>0.0643471</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0559362</v>
+        <v>0.0553608</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0304389</v>
+        <v>0.0301537</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0299406</v>
+        <v>0.0294869</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0882787</v>
+        <v>0.0908215</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0902507</v>
+        <v>0.0852613</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0635037</v>
+        <v>0.0588115</v>
       </c>
       <c r="E8" t="n">
-        <v>0.037888</v>
+        <v>0.0374989</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0380036</v>
+        <v>0.0367418</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.118697</v>
+        <v>0.117151</v>
       </c>
       <c r="C9" t="n">
-        <v>0.114995</v>
+        <v>0.113794</v>
       </c>
       <c r="D9" t="n">
-        <v>0.06752370000000001</v>
+        <v>0.0605799</v>
       </c>
       <c r="E9" t="n">
-        <v>0.019199</v>
+        <v>0.0191758</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0191674</v>
+        <v>0.0191795</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0162873</v>
+        <v>0.0165877</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0161849</v>
+        <v>0.0164243</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0675765</v>
+        <v>0.0666968</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0194519</v>
+        <v>0.019428</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0193773</v>
+        <v>0.0193708</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.016551</v>
+        <v>0.0169908</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0165878</v>
+        <v>0.0169859</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0711338</v>
+        <v>0.0701864</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0197467</v>
+        <v>0.0197192</v>
       </c>
       <c r="F11" t="n">
-        <v>0.019672</v>
+        <v>0.0196934</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0170852</v>
+        <v>0.0172883</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0169578</v>
+        <v>0.0172098</v>
       </c>
       <c r="D12" t="n">
-        <v>0.07486429999999999</v>
+        <v>0.0727976</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0200974</v>
+        <v>0.0200592</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0201385</v>
+        <v>0.0201025</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0177161</v>
+        <v>0.0178488</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0178173</v>
+        <v>0.0177383</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0783652</v>
+        <v>0.0759292</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0203996</v>
+        <v>0.0204021</v>
       </c>
       <c r="F13" t="n">
-        <v>0.020303</v>
+        <v>0.0203091</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0180446</v>
+        <v>0.018399</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0183742</v>
+        <v>0.0182052</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0817447</v>
+        <v>0.0789734</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0206951</v>
+        <v>0.0206778</v>
       </c>
       <c r="F14" t="n">
-        <v>0.020624</v>
+        <v>0.0206388</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0198239</v>
+        <v>0.0195484</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0197087</v>
+        <v>0.0189114</v>
       </c>
       <c r="D15" t="n">
-        <v>0.08310389999999999</v>
+        <v>0.0817749</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0212329</v>
+        <v>0.0212625</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0211459</v>
+        <v>0.021132</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0218668</v>
+        <v>0.0209395</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0214985</v>
+        <v>0.0210506</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0876065</v>
+        <v>0.0863409</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0219412</v>
+        <v>0.0219142</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0218317</v>
+        <v>0.0218404</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0254473</v>
+        <v>0.0255969</v>
       </c>
       <c r="C17" t="n">
-        <v>0.025924</v>
+        <v>0.0244311</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0922468</v>
+        <v>0.09085799999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0227317</v>
+        <v>0.0227159</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0225283</v>
+        <v>0.0225183</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0321027</v>
+        <v>0.0311808</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0309021</v>
+        <v>0.0294175</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0935482</v>
+        <v>0.09263109999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0235165</v>
+        <v>0.0235121</v>
       </c>
       <c r="F18" t="n">
-        <v>0.023215</v>
+        <v>0.0232314</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0408143</v>
+        <v>0.03856</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0403713</v>
+        <v>0.0374709</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0930976</v>
+        <v>0.09274780000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0248624</v>
+        <v>0.024914</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0244384</v>
+        <v>0.0243964</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0506906</v>
+        <v>0.0491892</v>
       </c>
       <c r="C20" t="n">
-        <v>0.053136</v>
+        <v>0.0505746</v>
       </c>
       <c r="D20" t="n">
-        <v>0.09793350000000001</v>
+        <v>0.0959185</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0273377</v>
+        <v>0.0272831</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0268834</v>
+        <v>0.0268653</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.06947589999999999</v>
+        <v>0.0681783</v>
       </c>
       <c r="C21" t="n">
-        <v>0.06895179999999999</v>
+        <v>0.0684636</v>
       </c>
       <c r="D21" t="n">
-        <v>0.06559</v>
+        <v>0.06465460000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0309656</v>
+        <v>0.0309812</v>
       </c>
       <c r="F21" t="n">
-        <v>0.030805</v>
+        <v>0.0305751</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.09165810000000001</v>
+        <v>0.09340420000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0938047</v>
+        <v>0.0944141</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0688617</v>
+        <v>0.06791460000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>0.039284</v>
+        <v>0.0389769</v>
       </c>
       <c r="F22" t="n">
-        <v>0.039488</v>
+        <v>0.0391912</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.12086</v>
+        <v>0.120192</v>
       </c>
       <c r="C23" t="n">
-        <v>0.120831</v>
+        <v>0.120089</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0720817</v>
+        <v>0.0724441</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0189961</v>
+        <v>0.0189531</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0188608</v>
+        <v>0.0188646</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0164095</v>
+        <v>0.0162951</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0162748</v>
+        <v>0.0160841</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0760073</v>
+        <v>0.0760106</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0192505</v>
+        <v>0.0192241</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0191287</v>
+        <v>0.0191276</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0169585</v>
+        <v>0.0168736</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0167885</v>
+        <v>0.0167913</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0798798</v>
+        <v>0.0792016</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0194386</v>
+        <v>0.0194508</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0193447</v>
+        <v>0.0193513</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0178776</v>
+        <v>0.0174866</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0175541</v>
+        <v>0.0174459</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0819307</v>
+        <v>0.0813094</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0196797</v>
+        <v>0.0196662</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0195872</v>
+        <v>0.019633</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.018628</v>
+        <v>0.0183445</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0183243</v>
+        <v>0.018342</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0855178</v>
+        <v>0.0850173</v>
       </c>
       <c r="E27" t="n">
-        <v>0.020071</v>
+        <v>0.0200878</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0199798</v>
+        <v>0.0199887</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0204023</v>
+        <v>0.0195392</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0198278</v>
+        <v>0.0194716</v>
       </c>
       <c r="D28" t="n">
-        <v>0.08837680000000001</v>
+        <v>0.0879273</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0205075</v>
+        <v>0.020535</v>
       </c>
       <c r="F28" t="n">
-        <v>0.020382</v>
+        <v>0.0203915</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0226629</v>
+        <v>0.0210663</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0221165</v>
+        <v>0.0211858</v>
       </c>
       <c r="D29" t="n">
-        <v>0.09076190000000001</v>
+        <v>0.09108479999999999</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0212009</v>
+        <v>0.0211515</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0210324</v>
+        <v>0.0209973</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0254525</v>
+        <v>0.0245235</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0250608</v>
+        <v>0.0235206</v>
       </c>
       <c r="D30" t="n">
-        <v>0.09438340000000001</v>
+        <v>0.09396889999999999</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0217353</v>
+        <v>0.0217496</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0216515</v>
+        <v>0.0216303</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0298213</v>
+        <v>0.029057</v>
       </c>
       <c r="C31" t="n">
-        <v>0.029972</v>
+        <v>0.0280898</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0972643</v>
+        <v>0.096275</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0226093</v>
+        <v>0.02264</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0224072</v>
+        <v>0.0224144</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.036106</v>
+        <v>0.0349058</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0363934</v>
+        <v>0.0350899</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0986947</v>
+        <v>0.0973398</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0235648</v>
+        <v>0.0235773</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0233654</v>
+        <v>0.0233841</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0440745</v>
+        <v>0.0418279</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0430802</v>
+        <v>0.0433584</v>
       </c>
       <c r="D33" t="n">
-        <v>0.10026</v>
+        <v>0.09887890000000001</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0249615</v>
+        <v>0.0249746</v>
       </c>
       <c r="F33" t="n">
-        <v>0.024737</v>
+        <v>0.0247501</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0561342</v>
+        <v>0.0537547</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0548774</v>
+        <v>0.0538962</v>
       </c>
       <c r="D34" t="n">
-        <v>0.102641</v>
+        <v>0.101304</v>
       </c>
       <c r="E34" t="n">
-        <v>0.027374</v>
+        <v>0.0273903</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0273187</v>
+        <v>0.0272418</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.071795</v>
+        <v>0.06938329999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>0.07086969999999999</v>
+        <v>0.07062690000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0693397</v>
+        <v>0.0691816</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0311926</v>
+        <v>0.0312236</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0311931</v>
+        <v>0.0312633</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.09422079999999999</v>
+        <v>0.0918795</v>
       </c>
       <c r="C36" t="n">
-        <v>0.09481299999999999</v>
+        <v>0.093204</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0723775</v>
+        <v>0.0725625</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0378414</v>
+        <v>0.0378522</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0381778</v>
+        <v>0.038137</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.120452</v>
+        <v>0.117567</v>
       </c>
       <c r="C37" t="n">
-        <v>0.121287</v>
+        <v>0.119043</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0756555</v>
+        <v>0.07594239999999999</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0194256</v>
+        <v>0.0194715</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0194562</v>
+        <v>0.0194776</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0171413</v>
+        <v>0.0168725</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0170702</v>
+        <v>0.0171711</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0793841</v>
+        <v>0.0795423</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0197583</v>
+        <v>0.0197854</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0197826</v>
+        <v>0.0198883</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0177468</v>
+        <v>0.0176983</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0177177</v>
+        <v>0.0179444</v>
       </c>
       <c r="D39" t="n">
-        <v>0.08290989999999999</v>
+        <v>0.08293159999999999</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0200972</v>
+        <v>0.0201342</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0201021</v>
+        <v>0.0201325</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0187144</v>
+        <v>0.0187568</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0186241</v>
+        <v>0.0189074</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0859959</v>
+        <v>0.085815</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0204109</v>
+        <v>0.020435</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0204636</v>
+        <v>0.0204926</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0200622</v>
+        <v>0.0199559</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0197243</v>
+        <v>0.0200657</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0890005</v>
+        <v>0.0890695</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0207591</v>
+        <v>0.0207747</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0207786</v>
+        <v>0.0208172</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0219765</v>
+        <v>0.0216091</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0215504</v>
+        <v>0.0217666</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0921848</v>
+        <v>0.09177</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0211956</v>
+        <v>0.021283</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0212001</v>
+        <v>0.0212361</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0246508</v>
+        <v>0.0240214</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0237497</v>
+        <v>0.0239417</v>
       </c>
       <c r="D43" t="n">
-        <v>0.09515129999999999</v>
+        <v>0.0945339</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0217942</v>
+        <v>0.0218021</v>
       </c>
       <c r="F43" t="n">
-        <v>0.021836</v>
+        <v>0.0218597</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0284382</v>
+        <v>0.0274382</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0270054</v>
+        <v>0.0274268</v>
       </c>
       <c r="D44" t="n">
-        <v>0.097174</v>
+        <v>0.09750399999999999</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0225308</v>
+        <v>0.0225736</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0226352</v>
+        <v>0.0226398</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0326313</v>
+        <v>0.0318758</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0317255</v>
+        <v>0.032294</v>
       </c>
       <c r="D45" t="n">
-        <v>0.099564</v>
+        <v>0.0993108</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0233512</v>
+        <v>0.0233724</v>
       </c>
       <c r="F45" t="n">
-        <v>0.023419</v>
+        <v>0.0234097</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0383704</v>
+        <v>0.0380294</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0374348</v>
+        <v>0.0380675</v>
       </c>
       <c r="D46" t="n">
-        <v>0.101999</v>
+        <v>0.101566</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0245701</v>
+        <v>0.024636</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0246073</v>
+        <v>0.0246827</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0459481</v>
+        <v>0.0456824</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0440827</v>
+        <v>0.0458821</v>
       </c>
       <c r="D47" t="n">
-        <v>0.104099</v>
+        <v>0.104423</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0261002</v>
+        <v>0.0261799</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0261741</v>
+        <v>0.0262942</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.057032</v>
+        <v>0.05601</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0556613</v>
+        <v>0.0555683</v>
       </c>
       <c r="D48" t="n">
-        <v>0.106553</v>
+        <v>0.105976</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0287808</v>
+        <v>0.0288474</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0288264</v>
+        <v>0.0288777</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0705218</v>
+        <v>0.07139280000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>0.06965730000000001</v>
+        <v>0.0706463</v>
       </c>
       <c r="D49" t="n">
-        <v>0.108721</v>
+        <v>0.108805</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0323138</v>
+        <v>0.0324156</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0324916</v>
+        <v>0.0325327</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.09185260000000001</v>
+        <v>0.0910197</v>
       </c>
       <c r="C50" t="n">
-        <v>0.09092359999999999</v>
+        <v>0.09145200000000001</v>
       </c>
       <c r="D50" t="n">
-        <v>0.07556499999999999</v>
+        <v>0.0753254</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0382581</v>
+        <v>0.0382745</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0384712</v>
+        <v>0.0384774</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.116607</v>
+        <v>0.116493</v>
       </c>
       <c r="C51" t="n">
-        <v>0.118591</v>
+        <v>0.118627</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0790884</v>
+        <v>0.07859969999999999</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0204735</v>
+        <v>0.020493</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0204761</v>
+        <v>0.0205257</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.142549</v>
+        <v>0.142453</v>
       </c>
       <c r="C52" t="n">
-        <v>0.143182</v>
+        <v>0.142917</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0827669</v>
+        <v>0.0819092</v>
       </c>
       <c r="E52" t="n">
-        <v>0.020735</v>
+        <v>0.0207653</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0207501</v>
+        <v>0.020738</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0190122</v>
+        <v>0.0188899</v>
       </c>
       <c r="C53" t="n">
-        <v>0.018924</v>
+        <v>0.0188614</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0863516</v>
+        <v>0.0853212</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0210508</v>
+        <v>0.0210836</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0211446</v>
+        <v>0.0210949</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0203591</v>
+        <v>0.020011</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0199103</v>
+        <v>0.019964</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0894914</v>
+        <v>0.09040339999999999</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0213765</v>
+        <v>0.0213836</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0214243</v>
+        <v>0.0214073</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0218336</v>
+        <v>0.0214987</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0214253</v>
+        <v>0.0214644</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0937707</v>
+        <v>0.0926453</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0217619</v>
+        <v>0.0217811</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0218284</v>
+        <v>0.0218132</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0239355</v>
+        <v>0.0234427</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0233444</v>
+        <v>0.0234577</v>
       </c>
       <c r="D56" t="n">
-        <v>0.09633220000000001</v>
+        <v>0.0960748</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0222242</v>
+        <v>0.0223037</v>
       </c>
       <c r="F56" t="n">
-        <v>0.022363</v>
+        <v>0.0223315</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0263712</v>
+        <v>0.0259951</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0258938</v>
+        <v>0.0259952</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0987913</v>
+        <v>0.0998074</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0228002</v>
+        <v>0.0228374</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0228464</v>
+        <v>0.0228409</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0297518</v>
+        <v>0.0295093</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0293701</v>
+        <v>0.0291301</v>
       </c>
       <c r="D58" t="n">
-        <v>0.102741</v>
+        <v>0.1023</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0234287</v>
+        <v>0.0234883</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0236149</v>
+        <v>0.0235064</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0341056</v>
+        <v>0.0338851</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0335721</v>
+        <v>0.0336542</v>
       </c>
       <c r="D59" t="n">
-        <v>0.104289</v>
+        <v>0.104708</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0243463</v>
+        <v>0.024331</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0244278</v>
+        <v>0.02441</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0397462</v>
+        <v>0.0389995</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0394424</v>
+        <v>0.0388076</v>
       </c>
       <c r="D60" t="n">
-        <v>0.107621</v>
+        <v>0.106465</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0256516</v>
+        <v>0.0257129</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0257151</v>
+        <v>0.0257242</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0469187</v>
+        <v>0.046044</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0469272</v>
+        <v>0.0458861</v>
       </c>
       <c r="D61" t="n">
-        <v>0.109695</v>
+        <v>0.110048</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0273995</v>
+        <v>0.0274751</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0274599</v>
+        <v>0.0275104</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.056764</v>
+        <v>0.0556376</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0566263</v>
+        <v>0.0557327</v>
       </c>
       <c r="D62" t="n">
-        <v>0.111102</v>
+        <v>0.113465</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0299676</v>
+        <v>0.0299568</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0300871</v>
+        <v>0.0300383</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0700862</v>
+        <v>0.0688095</v>
       </c>
       <c r="C63" t="n">
-        <v>0.07079779999999999</v>
+        <v>0.068902</v>
       </c>
       <c r="D63" t="n">
-        <v>0.117279</v>
+        <v>0.116059</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0338032</v>
+        <v>0.0338641</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0340411</v>
+        <v>0.034023</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.08950139999999999</v>
+        <v>0.0883935</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0901092</v>
+        <v>0.0890625</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0810985</v>
+        <v>0.0800865</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0399663</v>
+        <v>0.0399036</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0403834</v>
+        <v>0.0402149</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.114579</v>
+        <v>0.115168</v>
       </c>
       <c r="C65" t="n">
-        <v>0.116232</v>
+        <v>0.115642</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0862299</v>
+        <v>0.08598219999999999</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0508814</v>
+        <v>0.0509982</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0513471</v>
+        <v>0.0511929</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.146011</v>
+        <v>0.146029</v>
       </c>
       <c r="C66" t="n">
-        <v>0.147167</v>
+        <v>0.146955</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0901192</v>
+        <v>0.08886479999999999</v>
       </c>
       <c r="E66" t="n">
-        <v>0.021015</v>
+        <v>0.0210784</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0210611</v>
+        <v>0.0210923</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0196827</v>
+        <v>0.0199526</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0195891</v>
+        <v>0.0195228</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0958891</v>
+        <v>0.0935725</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0213736</v>
+        <v>0.0213859</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0214012</v>
+        <v>0.0213998</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0210043</v>
+        <v>0.0210636</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0209604</v>
+        <v>0.0210455</v>
       </c>
       <c r="D68" t="n">
-        <v>0.100875</v>
+        <v>0.099741</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0216872</v>
+        <v>0.0217439</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0217405</v>
+        <v>0.0217401</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0227553</v>
+        <v>0.0226319</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0225167</v>
+        <v>0.0223163</v>
       </c>
       <c r="D69" t="n">
-        <v>0.10523</v>
+        <v>0.104101</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0220352</v>
+        <v>0.0220686</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0220833</v>
+        <v>0.0221189</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0245665</v>
+        <v>0.0244316</v>
       </c>
       <c r="C70" t="n">
-        <v>0.024636</v>
+        <v>0.024248</v>
       </c>
       <c r="D70" t="n">
-        <v>0.111795</v>
+        <v>0.109363</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0224802</v>
+        <v>0.0225641</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0225525</v>
+        <v>0.0225812</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.027391</v>
+        <v>0.0269802</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0268421</v>
+        <v>0.0269158</v>
       </c>
       <c r="D71" t="n">
-        <v>0.115617</v>
+        <v>0.114371</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0230233</v>
+        <v>0.0230885</v>
       </c>
       <c r="F71" t="n">
-        <v>0.023081</v>
+        <v>0.0231377</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0306565</v>
+        <v>0.0301536</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0301264</v>
+        <v>0.0299256</v>
       </c>
       <c r="D72" t="n">
-        <v>0.119828</v>
+        <v>0.120524</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0238197</v>
+        <v>0.0238431</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0238651</v>
+        <v>0.0239264</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0345612</v>
+        <v>0.0341911</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0343956</v>
+        <v>0.0338831</v>
       </c>
       <c r="D73" t="n">
-        <v>0.12519</v>
+        <v>0.123474</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0247535</v>
+        <v>0.0247613</v>
       </c>
       <c r="F73" t="n">
-        <v>0.024777</v>
+        <v>0.0248627</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0399292</v>
+        <v>0.0391829</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0394395</v>
+        <v>0.0392874</v>
       </c>
       <c r="D74" t="n">
-        <v>0.131924</v>
+        <v>0.127911</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0258309</v>
+        <v>0.025951</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0260074</v>
+        <v>0.0261457</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0467449</v>
+        <v>0.0459771</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0464104</v>
+        <v>0.0458706</v>
       </c>
       <c r="D75" t="n">
-        <v>0.135437</v>
+        <v>0.135143</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0275913</v>
+        <v>0.0276272</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0277357</v>
+        <v>0.0278679</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0563424</v>
+        <v>0.0553648</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0557607</v>
+        <v>0.0547307</v>
       </c>
       <c r="D76" t="n">
-        <v>0.140617</v>
+        <v>0.141009</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0300138</v>
+        <v>0.0300898</v>
       </c>
       <c r="F76" t="n">
-        <v>0.030224</v>
+        <v>0.030333</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0692763</v>
+        <v>0.0678665</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0688764</v>
+        <v>0.0675391</v>
       </c>
       <c r="D77" t="n">
-        <v>0.147474</v>
+        <v>0.147319</v>
       </c>
       <c r="E77" t="n">
-        <v>0.033718</v>
+        <v>0.033794</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0341281</v>
+        <v>0.0341236</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0872874</v>
+        <v>0.0858757</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0875397</v>
+        <v>0.08623069999999999</v>
       </c>
       <c r="D78" t="n">
-        <v>0.110139</v>
+        <v>0.110237</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0394789</v>
+        <v>0.0395035</v>
       </c>
       <c r="F78" t="n">
-        <v>0.039898</v>
+        <v>0.0398651</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.111582</v>
+        <v>0.110261</v>
       </c>
       <c r="C79" t="n">
-        <v>0.112531</v>
+        <v>0.111911</v>
       </c>
       <c r="D79" t="n">
-        <v>0.121269</v>
+        <v>0.11758</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0492263</v>
+        <v>0.0492771</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0495261</v>
+        <v>0.0494909</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.143639</v>
+        <v>0.141714</v>
       </c>
       <c r="C80" t="n">
-        <v>0.143794</v>
+        <v>0.143149</v>
       </c>
       <c r="D80" t="n">
-        <v>0.125326</v>
+        <v>0.124632</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0212785</v>
+        <v>0.0213334</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0218031</v>
+        <v>0.0216901</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.020281</v>
+        <v>0.0200952</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0201123</v>
+        <v>0.0202175</v>
       </c>
       <c r="D81" t="n">
-        <v>0.134418</v>
+        <v>0.132229</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0216399</v>
+        <v>0.0217022</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0223031</v>
+        <v>0.0221909</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0213587</v>
+        <v>0.0213044</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0218663</v>
+        <v>0.0217273</v>
       </c>
       <c r="D82" t="n">
-        <v>0.143541</v>
+        <v>0.139324</v>
       </c>
       <c r="E82" t="n">
-        <v>0.022039</v>
+        <v>0.0220515</v>
       </c>
       <c r="F82" t="n">
-        <v>0.0231573</v>
+        <v>0.0229474</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0229456</v>
+        <v>0.0231159</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0231395</v>
+        <v>0.0234274</v>
       </c>
       <c r="D83" t="n">
-        <v>0.151115</v>
+        <v>0.148509</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0224322</v>
+        <v>0.0225254</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0237331</v>
+        <v>0.0236969</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0247706</v>
+        <v>0.0248072</v>
       </c>
       <c r="C84" t="n">
-        <v>0.025173</v>
+        <v>0.025625</v>
       </c>
       <c r="D84" t="n">
-        <v>0.156752</v>
+        <v>0.153757</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0229647</v>
+        <v>0.0229986</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0245643</v>
+        <v>0.0246897</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0275588</v>
+        <v>0.0274014</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0279864</v>
+        <v>0.0277643</v>
       </c>
       <c r="D85" t="n">
-        <v>0.161516</v>
+        <v>0.161903</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0236027</v>
+        <v>0.0236789</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0259733</v>
+        <v>0.0256105</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0302908</v>
+        <v>0.0303535</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0308174</v>
+        <v>0.030982</v>
       </c>
       <c r="D86" t="n">
-        <v>0.17028</v>
+        <v>0.168449</v>
       </c>
       <c r="E86" t="n">
-        <v>0.0244762</v>
+        <v>0.0244776</v>
       </c>
       <c r="F86" t="n">
-        <v>0.0268836</v>
+        <v>0.0270354</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0342801</v>
+        <v>0.0342292</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0348105</v>
+        <v>0.0346017</v>
       </c>
       <c r="D87" t="n">
-        <v>0.180825</v>
+        <v>0.17622</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0254823</v>
+        <v>0.0254657</v>
       </c>
       <c r="F87" t="n">
-        <v>0.0284036</v>
+        <v>0.0284889</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0392986</v>
+        <v>0.0393708</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0395328</v>
+        <v>0.0395257</v>
       </c>
       <c r="D88" t="n">
-        <v>0.182283</v>
+        <v>0.18345</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0267595</v>
+        <v>0.0268015</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0301789</v>
+        <v>0.0301707</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0459011</v>
+        <v>0.045799</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0459677</v>
+        <v>0.0460679</v>
       </c>
       <c r="D89" t="n">
-        <v>0.193123</v>
+        <v>0.189634</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0283939</v>
+        <v>0.0284378</v>
       </c>
       <c r="F89" t="n">
-        <v>0.03203</v>
+        <v>0.0320726</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.054482</v>
+        <v>0.0545706</v>
       </c>
       <c r="C90" t="n">
-        <v>0.054831</v>
+        <v>0.0549685</v>
       </c>
       <c r="D90" t="n">
-        <v>0.198804</v>
+        <v>0.198761</v>
       </c>
       <c r="E90" t="n">
-        <v>0.0308088</v>
+        <v>0.0308883</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0348003</v>
+        <v>0.0349343</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.06651650000000001</v>
+        <v>0.0671134</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0668122</v>
+        <v>0.0675915</v>
       </c>
       <c r="D91" t="n">
-        <v>0.207925</v>
+        <v>0.206313</v>
       </c>
       <c r="E91" t="n">
-        <v>0.034144</v>
+        <v>0.0342961</v>
       </c>
       <c r="F91" t="n">
-        <v>0.0382636</v>
+        <v>0.0383683</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0835526</v>
+        <v>0.0840423</v>
       </c>
       <c r="C92" t="n">
-        <v>0.08425920000000001</v>
+        <v>0.0851112</v>
       </c>
       <c r="D92" t="n">
-        <v>0.156239</v>
+        <v>0.157643</v>
       </c>
       <c r="E92" t="n">
-        <v>0.0392969</v>
+        <v>0.0394045</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0438451</v>
+        <v>0.0440922</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.107487</v>
+        <v>0.107671</v>
       </c>
       <c r="C93" t="n">
-        <v>0.108763</v>
+        <v>0.108826</v>
       </c>
       <c r="D93" t="n">
-        <v>0.163923</v>
+        <v>0.163716</v>
       </c>
       <c r="E93" t="n">
-        <v>0.0481543</v>
+        <v>0.0482887</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0535145</v>
+        <v>0.0545123</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.138296</v>
+        <v>0.138537</v>
       </c>
       <c r="C94" t="n">
-        <v>0.13957</v>
+        <v>0.13985</v>
       </c>
       <c r="D94" t="n">
-        <v>0.167816</v>
+        <v>0.169959</v>
       </c>
       <c r="E94" t="n">
-        <v>0.0230102</v>
+        <v>0.0230355</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0283301</v>
+        <v>0.0282352</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0211004</v>
+        <v>0.0212044</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0246706</v>
+        <v>0.0254631</v>
       </c>
       <c r="D95" t="n">
-        <v>0.176707</v>
+        <v>0.177154</v>
       </c>
       <c r="E95" t="n">
-        <v>0.0234709</v>
+        <v>0.0235538</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0295818</v>
+        <v>0.0295636</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0218996</v>
+        <v>0.0223649</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0263776</v>
+        <v>0.0270286</v>
       </c>
       <c r="D96" t="n">
-        <v>0.182879</v>
+        <v>0.184251</v>
       </c>
       <c r="E96" t="n">
-        <v>0.0239962</v>
+        <v>0.0240745</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0314223</v>
+        <v>0.0316172</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.023416</v>
+        <v>0.0238436</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0294247</v>
+        <v>0.0296043</v>
       </c>
       <c r="D97" t="n">
-        <v>0.190234</v>
+        <v>0.190378</v>
       </c>
       <c r="E97" t="n">
-        <v>0.0246296</v>
+        <v>0.0247926</v>
       </c>
       <c r="F97" t="n">
-        <v>0.0345996</v>
+        <v>0.034776</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0253312</v>
+        <v>0.0253669</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0329781</v>
+        <v>0.0338346</v>
       </c>
       <c r="D98" t="n">
-        <v>0.194777</v>
+        <v>0.199838</v>
       </c>
       <c r="E98" t="n">
-        <v>0.0254916</v>
+        <v>0.0255622</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0383183</v>
+        <v>0.0383054</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0271447</v>
+        <v>0.0279812</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0379096</v>
+        <v>0.038534</v>
       </c>
       <c r="D99" t="n">
-        <v>0.204823</v>
+        <v>0.205245</v>
       </c>
       <c r="E99" t="n">
-        <v>0.0268811</v>
+        <v>0.0271087</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0426534</v>
+        <v>0.0427693</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0303647</v>
+        <v>0.0306577</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0439735</v>
+        <v>0.0440774</v>
       </c>
       <c r="D100" t="n">
-        <v>0.212582</v>
+        <v>0.212825</v>
       </c>
       <c r="E100" t="n">
-        <v>0.0290289</v>
+        <v>0.0292447</v>
       </c>
       <c r="F100" t="n">
-        <v>0.0467389</v>
+        <v>0.0469783</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0344804</v>
+        <v>0.0348279</v>
       </c>
       <c r="C101" t="n">
-        <v>0.049874</v>
+        <v>0.0503411</v>
       </c>
       <c r="D101" t="n">
-        <v>0.219687</v>
+        <v>0.220298</v>
       </c>
       <c r="E101" t="n">
-        <v>0.0319421</v>
+        <v>0.0320674</v>
       </c>
       <c r="F101" t="n">
-        <v>0.0507136</v>
+        <v>0.0509715</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.039691</v>
+        <v>0.0403364</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0556005</v>
+        <v>0.0557444</v>
       </c>
       <c r="D102" t="n">
-        <v>0.227683</v>
+        <v>0.227855</v>
       </c>
       <c r="E102" t="n">
-        <v>0.0350408</v>
+        <v>0.0352926</v>
       </c>
       <c r="F102" t="n">
-        <v>0.0540343</v>
+        <v>0.0543241</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.046215</v>
+        <v>0.046455</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0619463</v>
+        <v>0.0619176</v>
       </c>
       <c r="D103" t="n">
-        <v>0.234811</v>
+        <v>0.235842</v>
       </c>
       <c r="E103" t="n">
-        <v>0.0383281</v>
+        <v>0.0382794</v>
       </c>
       <c r="F103" t="n">
-        <v>0.0573311</v>
+        <v>0.0574746</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0541473</v>
+        <v>0.0546995</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0689983</v>
+        <v>0.06923029999999999</v>
       </c>
       <c r="D104" t="n">
-        <v>0.243525</v>
+        <v>0.244016</v>
       </c>
       <c r="E104" t="n">
-        <v>0.0415427</v>
+        <v>0.0415146</v>
       </c>
       <c r="F104" t="n">
-        <v>0.0607456</v>
+        <v>0.0609745</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0654028</v>
+        <v>0.0659848</v>
       </c>
       <c r="C105" t="n">
-        <v>0.078289</v>
+        <v>0.0786583</v>
       </c>
       <c r="D105" t="n">
-        <v>0.252271</v>
+        <v>0.253326</v>
       </c>
       <c r="E105" t="n">
-        <v>0.0446478</v>
+        <v>0.0449338</v>
       </c>
       <c r="F105" t="n">
-        <v>0.06443500000000001</v>
+        <v>0.06469129999999999</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0810232</v>
+        <v>0.08156099999999999</v>
       </c>
       <c r="C106" t="n">
-        <v>0.091019</v>
+        <v>0.09162960000000001</v>
       </c>
       <c r="D106" t="n">
-        <v>0.262135</v>
+        <v>0.262208</v>
       </c>
       <c r="E106" t="n">
-        <v>0.0489929</v>
+        <v>0.0492511</v>
       </c>
       <c r="F106" t="n">
-        <v>0.0704224</v>
+        <v>0.06954879999999999</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.102845</v>
+        <v>0.103463</v>
       </c>
       <c r="C107" t="n">
-        <v>0.1096</v>
+        <v>0.110063</v>
       </c>
       <c r="D107" t="n">
-        <v>0.190932</v>
+        <v>0.189331</v>
       </c>
       <c r="E107" t="n">
-        <v>0.0556547</v>
+        <v>0.0557113</v>
       </c>
       <c r="F107" t="n">
-        <v>0.07683329999999999</v>
+        <v>0.0768778</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.132617</v>
+        <v>0.133162</v>
       </c>
       <c r="C108" t="n">
-        <v>0.136481</v>
+        <v>0.137412</v>
       </c>
       <c r="D108" t="n">
-        <v>0.19874</v>
+        <v>0.195684</v>
       </c>
       <c r="E108" t="n">
-        <v>0.0351601</v>
+        <v>0.0353426</v>
       </c>
       <c r="F108" t="n">
-        <v>0.0515045</v>
+        <v>0.0514672</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.168021</v>
+        <v>0.168928</v>
       </c>
       <c r="C109" t="n">
-        <v>0.17219</v>
+        <v>0.17331</v>
       </c>
       <c r="D109" t="n">
-        <v>0.203793</v>
+        <v>0.202151</v>
       </c>
       <c r="E109" t="n">
-        <v>0.036178</v>
+        <v>0.0363465</v>
       </c>
       <c r="F109" t="n">
-        <v>0.0528525</v>
+        <v>0.0529374</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.031487</v>
+        <v>0.0315774</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0470141</v>
+        <v>0.0470559</v>
       </c>
       <c r="D110" t="n">
-        <v>0.211789</v>
+        <v>0.208995</v>
       </c>
       <c r="E110" t="n">
-        <v>0.0370797</v>
+        <v>0.0371271</v>
       </c>
       <c r="F110" t="n">
-        <v>0.0543075</v>
+        <v>0.0542606</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0328896</v>
+        <v>0.0327695</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0490185</v>
+        <v>0.0486718</v>
       </c>
       <c r="D111" t="n">
-        <v>0.217334</v>
+        <v>0.216232</v>
       </c>
       <c r="E111" t="n">
-        <v>0.0378829</v>
+        <v>0.0380933</v>
       </c>
       <c r="F111" t="n">
-        <v>0.0557337</v>
+        <v>0.0555987</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0342325</v>
+        <v>0.0345995</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0507457</v>
+        <v>0.0506802</v>
       </c>
       <c r="D112" t="n">
-        <v>0.225225</v>
+        <v>0.223402</v>
       </c>
       <c r="E112" t="n">
-        <v>0.0386958</v>
+        <v>0.0389329</v>
       </c>
       <c r="F112" t="n">
-        <v>0.0571167</v>
+        <v>0.0570345</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0361657</v>
+        <v>0.0363255</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0532522</v>
+        <v>0.052947</v>
       </c>
       <c r="D113" t="n">
-        <v>0.233621</v>
+        <v>0.230888</v>
       </c>
       <c r="E113" t="n">
-        <v>0.039647</v>
+        <v>0.0398379</v>
       </c>
       <c r="F113" t="n">
-        <v>0.0587627</v>
+        <v>0.0585316</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0383906</v>
+        <v>0.0384024</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0560578</v>
+        <v>0.0556251</v>
       </c>
       <c r="D114" t="n">
-        <v>0.242221</v>
+        <v>0.238885</v>
       </c>
       <c r="E114" t="n">
-        <v>0.0405658</v>
+        <v>0.0408077</v>
       </c>
       <c r="F114" t="n">
-        <v>0.0603238</v>
+        <v>0.0601215</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.040929</v>
+        <v>0.0407716</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0593512</v>
+        <v>0.0593599</v>
       </c>
       <c r="D115" t="n">
-        <v>0.247876</v>
+        <v>0.246217</v>
       </c>
       <c r="E115" t="n">
-        <v>0.0418052</v>
+        <v>0.0418857</v>
       </c>
       <c r="F115" t="n">
-        <v>0.0620963</v>
+        <v>0.0619381</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.0442441</v>
+        <v>0.0442804</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0631478</v>
+        <v>0.06315519999999999</v>
       </c>
       <c r="D116" t="n">
-        <v>0.256535</v>
+        <v>0.254171</v>
       </c>
       <c r="E116" t="n">
-        <v>0.0430108</v>
+        <v>0.0432619</v>
       </c>
       <c r="F116" t="n">
-        <v>0.0639692</v>
+        <v>0.0640908</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.0487765</v>
+        <v>0.0488506</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0679352</v>
+        <v>0.0712555</v>
       </c>
       <c r="D117" t="n">
-        <v>0.264912</v>
+        <v>0.262078</v>
       </c>
       <c r="E117" t="n">
-        <v>0.0445312</v>
+        <v>0.0447307</v>
       </c>
       <c r="F117" t="n">
-        <v>0.06634900000000001</v>
+        <v>0.0663369</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.0553593</v>
+        <v>0.0554689</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0742525</v>
+        <v>0.0746367</v>
       </c>
       <c r="D118" t="n">
-        <v>0.273086</v>
+        <v>0.270311</v>
       </c>
       <c r="E118" t="n">
-        <v>0.0465129</v>
+        <v>0.0467129</v>
       </c>
       <c r="F118" t="n">
-        <v>0.0692691</v>
+        <v>0.06914869999999999</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.06492299999999999</v>
+        <v>0.0653077</v>
       </c>
       <c r="C119" t="n">
-        <v>0.0829809</v>
+        <v>0.0828238</v>
       </c>
       <c r="D119" t="n">
-        <v>0.281599</v>
+        <v>0.279419</v>
       </c>
       <c r="E119" t="n">
-        <v>0.0490687</v>
+        <v>0.0491326</v>
       </c>
       <c r="F119" t="n">
-        <v>0.0728111</v>
+        <v>0.07270600000000001</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.079196</v>
+        <v>0.0797899</v>
       </c>
       <c r="C120" t="n">
-        <v>0.0946695</v>
+        <v>0.0945839</v>
       </c>
       <c r="D120" t="n">
-        <v>0.290415</v>
+        <v>0.288874</v>
       </c>
       <c r="E120" t="n">
-        <v>0.0526222</v>
+        <v>0.0528422</v>
       </c>
       <c r="F120" t="n">
-        <v>0.077516</v>
+        <v>0.0776302</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.100099</v>
+        <v>0.100423</v>
       </c>
       <c r="C121" t="n">
-        <v>0.111426</v>
+        <v>0.111413</v>
       </c>
       <c r="D121" t="n">
-        <v>0.206756</v>
+        <v>0.205047</v>
       </c>
       <c r="E121" t="n">
-        <v>0.0582512</v>
+        <v>0.0586823</v>
       </c>
       <c r="F121" t="n">
-        <v>0.0847875</v>
+        <v>0.0848086</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.128392</v>
+        <v>0.128561</v>
       </c>
       <c r="C122" t="n">
-        <v>0.135993</v>
+        <v>0.136012</v>
       </c>
       <c r="D122" t="n">
-        <v>0.212364</v>
+        <v>0.211055</v>
       </c>
       <c r="E122" t="n">
-        <v>0.06793680000000001</v>
+        <v>0.06839339999999999</v>
       </c>
       <c r="F122" t="n">
-        <v>0.0960468</v>
+        <v>0.0960375</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.16413</v>
+        <v>0.164485</v>
       </c>
       <c r="C123" t="n">
-        <v>0.169873</v>
+        <v>0.170858</v>
       </c>
       <c r="D123" t="n">
-        <v>0.218516</v>
+        <v>0.217011</v>
       </c>
       <c r="E123" t="n">
-        <v>0.040944</v>
+        <v>0.0416168</v>
       </c>
       <c r="F123" t="n">
-        <v>0.0602957</v>
+        <v>0.060497</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.0340874</v>
+        <v>0.0342933</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0512027</v>
+        <v>0.0518093</v>
       </c>
       <c r="D124" t="n">
-        <v>0.224991</v>
+        <v>0.223794</v>
       </c>
       <c r="E124" t="n">
-        <v>0.0419828</v>
+        <v>0.0424243</v>
       </c>
       <c r="F124" t="n">
-        <v>0.0617134</v>
+        <v>0.0620695</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.0357014</v>
+        <v>0.0354791</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0529638</v>
+        <v>0.053571</v>
       </c>
       <c r="D125" t="n">
-        <v>0.232495</v>
+        <v>0.230605</v>
       </c>
       <c r="E125" t="n">
-        <v>0.0428353</v>
+        <v>0.0431471</v>
       </c>
       <c r="F125" t="n">
-        <v>0.0631791</v>
+        <v>0.0634919</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.0366147</v>
+        <v>0.0371095</v>
       </c>
       <c r="C126" t="n">
-        <v>0.055234</v>
+        <v>0.0559386</v>
       </c>
       <c r="D126" t="n">
-        <v>0.239296</v>
+        <v>0.238064</v>
       </c>
       <c r="E126" t="n">
-        <v>0.0436027</v>
+        <v>0.0439816</v>
       </c>
       <c r="F126" t="n">
-        <v>0.06495629999999999</v>
+        <v>0.06520339999999999</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.0385755</v>
+        <v>0.038659</v>
       </c>
       <c r="C127" t="n">
-        <v>0.0587982</v>
+        <v>0.0585379</v>
       </c>
       <c r="D127" t="n">
-        <v>0.246483</v>
+        <v>0.245462</v>
       </c>
       <c r="E127" t="n">
-        <v>0.0445843</v>
+        <v>0.0449482</v>
       </c>
       <c r="F127" t="n">
-        <v>0.06639299999999999</v>
+        <v>0.0668072</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0407353</v>
+        <v>0.0403492</v>
       </c>
       <c r="C128" t="n">
-        <v>0.0615995</v>
+        <v>0.0614022</v>
       </c>
       <c r="D128" t="n">
-        <v>0.254062</v>
+        <v>0.252965</v>
       </c>
       <c r="E128" t="n">
-        <v>0.04556</v>
+        <v>0.0458577</v>
       </c>
       <c r="F128" t="n">
-        <v>0.0681887</v>
+        <v>0.0686031</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0431985</v>
+        <v>0.043317</v>
       </c>
       <c r="C129" t="n">
-        <v>0.06533310000000001</v>
+        <v>0.0652611</v>
       </c>
       <c r="D129" t="n">
-        <v>0.262117</v>
+        <v>0.26072</v>
       </c>
       <c r="E129" t="n">
-        <v>0.0467907</v>
+        <v>0.047045</v>
       </c>
       <c r="F129" t="n">
-        <v>0.0700805</v>
+        <v>0.0704085</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0465529</v>
+        <v>0.0467839</v>
       </c>
       <c r="C130" t="n">
-        <v>0.0696871</v>
+        <v>0.0695421</v>
       </c>
       <c r="D130" t="n">
-        <v>0.269312</v>
+        <v>0.268604</v>
       </c>
       <c r="E130" t="n">
-        <v>0.0479818</v>
+        <v>0.0484058</v>
       </c>
       <c r="F130" t="n">
-        <v>0.07227550000000001</v>
+        <v>0.0726633</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0527919</v>
+        <v>0.0523134</v>
       </c>
       <c r="C131" t="n">
-        <v>0.0751077</v>
+        <v>0.0747588</v>
       </c>
       <c r="D131" t="n">
-        <v>0.278039</v>
+        <v>0.277331</v>
       </c>
       <c r="E131" t="n">
-        <v>0.0494242</v>
+        <v>0.049968</v>
       </c>
       <c r="F131" t="n">
-        <v>0.0747632</v>
+        <v>0.07502499999999999</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0590614</v>
+        <v>0.0590555</v>
       </c>
       <c r="C132" t="n">
-        <v>0.0818502</v>
+        <v>0.0815615</v>
       </c>
       <c r="D132" t="n">
-        <v>0.285872</v>
+        <v>0.285424</v>
       </c>
       <c r="E132" t="n">
-        <v>0.051548</v>
+        <v>0.0518653</v>
       </c>
       <c r="F132" t="n">
-        <v>0.0778035</v>
+        <v>0.0782612</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.0687658</v>
+        <v>0.06834079999999999</v>
       </c>
       <c r="C133" t="n">
-        <v>0.09033090000000001</v>
+        <v>0.0899393</v>
       </c>
       <c r="D133" t="n">
-        <v>0.294693</v>
+        <v>0.294243</v>
       </c>
       <c r="E133" t="n">
-        <v>0.054109</v>
+        <v>0.0545153</v>
       </c>
       <c r="F133" t="n">
-        <v>0.081452</v>
+        <v>0.0817793</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.0824826</v>
+        <v>0.082466</v>
       </c>
       <c r="C134" t="n">
-        <v>0.101739</v>
+        <v>0.101588</v>
       </c>
       <c r="D134" t="n">
-        <v>0.303556</v>
+        <v>0.303242</v>
       </c>
       <c r="E134" t="n">
-        <v>0.057606</v>
+        <v>0.058223</v>
       </c>
       <c r="F134" t="n">
-        <v>0.0864822</v>
+        <v>0.086796</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.102236</v>
+        <v>0.102115</v>
       </c>
       <c r="C135" t="n">
-        <v>0.118168</v>
+        <v>0.118078</v>
       </c>
       <c r="D135" t="n">
-        <v>0.212597</v>
+        <v>0.214082</v>
       </c>
       <c r="E135" t="n">
-        <v>0.0633793</v>
+        <v>0.0639339</v>
       </c>
       <c r="F135" t="n">
-        <v>0.0935284</v>
+        <v>0.0941794</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.130582</v>
+        <v>0.129975</v>
       </c>
       <c r="C136" t="n">
-        <v>0.142527</v>
+        <v>0.142344</v>
       </c>
       <c r="D136" t="n">
-        <v>0.218627</v>
+        <v>0.219925</v>
       </c>
       <c r="E136" t="n">
-        <v>0.0725597</v>
+        <v>0.07320980000000001</v>
       </c>
       <c r="F136" t="n">
-        <v>0.104598</v>
+        <v>0.105257</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.163628</v>
+        <v>0.164054</v>
       </c>
       <c r="C137" t="n">
-        <v>0.178176</v>
+        <v>0.178725</v>
       </c>
       <c r="D137" t="n">
-        <v>0.224808</v>
+        <v>0.226582</v>
       </c>
       <c r="E137" t="n">
-        <v>0.0589974</v>
+        <v>0.0591797</v>
       </c>
       <c r="F137" t="n">
-        <v>0.0786389</v>
+        <v>0.0793257</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0471309</v>
+        <v>0.0471358</v>
       </c>
       <c r="C138" t="n">
-        <v>0.065856</v>
+        <v>0.06580279999999999</v>
       </c>
       <c r="D138" t="n">
-        <v>0.232074</v>
+        <v>0.233607</v>
       </c>
       <c r="E138" t="n">
-        <v>0.0608849</v>
+        <v>0.0596438</v>
       </c>
       <c r="F138" t="n">
-        <v>0.08029210000000001</v>
+        <v>0.08046150000000001</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0482982</v>
+        <v>0.0483952</v>
       </c>
       <c r="C139" t="n">
-        <v>0.06751740000000001</v>
+        <v>0.0672082</v>
       </c>
       <c r="D139" t="n">
-        <v>0.23916</v>
+        <v>0.240567</v>
       </c>
       <c r="E139" t="n">
-        <v>0.0600938</v>
+        <v>0.0605633</v>
       </c>
       <c r="F139" t="n">
-        <v>0.0813233</v>
+        <v>0.08195</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.04912</v>
+        <v>0.0496657</v>
       </c>
       <c r="C140" t="n">
-        <v>0.0693743</v>
+        <v>0.06914099999999999</v>
       </c>
       <c r="D140" t="n">
-        <v>0.246493</v>
+        <v>0.248162</v>
       </c>
       <c r="E140" t="n">
-        <v>0.0607663</v>
+        <v>0.0615398</v>
       </c>
       <c r="F140" t="n">
-        <v>0.082719</v>
+        <v>0.0829647</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0507248</v>
+        <v>0.0512901</v>
       </c>
       <c r="C141" t="n">
-        <v>0.0715558</v>
+        <v>0.071252</v>
       </c>
       <c r="D141" t="n">
-        <v>0.254763</v>
+        <v>0.255564</v>
       </c>
       <c r="E141" t="n">
-        <v>0.061946</v>
+        <v>0.0622958</v>
       </c>
       <c r="F141" t="n">
-        <v>0.0847668</v>
+        <v>0.08434030000000001</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.0531879</v>
+        <v>0.0530369</v>
       </c>
       <c r="C142" t="n">
-        <v>0.0743809</v>
+        <v>0.0736062</v>
       </c>
       <c r="D142" t="n">
-        <v>0.262403</v>
+        <v>0.263107</v>
       </c>
       <c r="E142" t="n">
-        <v>0.06338630000000001</v>
+        <v>0.06301</v>
       </c>
       <c r="F142" t="n">
-        <v>0.0855035</v>
+        <v>0.0858942</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.0555798</v>
+        <v>0.055998</v>
       </c>
       <c r="C143" t="n">
-        <v>0.0774687</v>
+        <v>0.07768700000000001</v>
       </c>
       <c r="D143" t="n">
-        <v>0.270398</v>
+        <v>0.271322</v>
       </c>
       <c r="E143" t="n">
-        <v>0.0640505</v>
+        <v>0.0639039</v>
       </c>
       <c r="F143" t="n">
-        <v>0.08710329999999999</v>
+        <v>0.0870387</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered unsuccessful looukp.xlsx
+++ b/clang-arm64/Scattered unsuccessful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01773</v>
+        <v>0.0173261</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0179259</v>
+        <v>0.017661</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0602033</v>
+        <v>0.068909</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0215195</v>
+        <v>0.0215858</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0213772</v>
+        <v>0.0213725</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0191853</v>
+        <v>0.0198</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0193275</v>
+        <v>0.019992</v>
       </c>
       <c r="D3" t="n">
-        <v>0.07139620000000001</v>
+        <v>0.07366010000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0220754</v>
+        <v>0.0220259</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0219271</v>
+        <v>0.0219452</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0240565</v>
+        <v>0.0218443</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0238417</v>
+        <v>0.02336</v>
       </c>
       <c r="D4" t="n">
-        <v>0.07239470000000001</v>
+        <v>0.07346560000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>0.022993</v>
+        <v>0.0229427</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0229585</v>
+        <v>0.0229731</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0329327</v>
+        <v>0.0339244</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0332902</v>
+        <v>0.0306198</v>
       </c>
       <c r="D5" t="n">
-        <v>0.073903</v>
+        <v>0.0734281</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0242773</v>
+        <v>0.0243761</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0236749</v>
+        <v>0.0237039</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0463729</v>
+        <v>0.0475962</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0477578</v>
+        <v>0.0543051</v>
       </c>
       <c r="D6" t="n">
-        <v>0.090515</v>
+        <v>0.0842188</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0263168</v>
+        <v>0.0263571</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0254104</v>
+        <v>0.0255312</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0644082</v>
+        <v>0.0657016</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0643471</v>
+        <v>0.0677972</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0553608</v>
+        <v>0.055427</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0301537</v>
+        <v>0.0303458</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0294869</v>
+        <v>0.0295293</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0908215</v>
+        <v>0.0896796</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0852613</v>
+        <v>0.082723</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0588115</v>
+        <v>0.0588466</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0374989</v>
+        <v>0.0373669</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0367418</v>
+        <v>0.0369598</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.117151</v>
+        <v>0.114628</v>
       </c>
       <c r="C9" t="n">
-        <v>0.113794</v>
+        <v>0.114362</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0605799</v>
+        <v>0.0611602</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0191758</v>
+        <v>0.019207</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0191795</v>
+        <v>0.0191662</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0165877</v>
+        <v>0.0162242</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0164243</v>
+        <v>0.0162656</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0666968</v>
+        <v>0.0668614</v>
       </c>
       <c r="E10" t="n">
-        <v>0.019428</v>
+        <v>0.0194263</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0193708</v>
+        <v>0.0193835</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0169908</v>
+        <v>0.0168121</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0169859</v>
+        <v>0.0167312</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0701864</v>
+        <v>0.0701551</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0197192</v>
+        <v>0.0197035</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0196934</v>
+        <v>0.0196557</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0172883</v>
+        <v>0.017156</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0172098</v>
+        <v>0.017379</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0727976</v>
+        <v>0.073092</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0200592</v>
+        <v>0.0200562</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0201025</v>
+        <v>0.0201179</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0178488</v>
+        <v>0.0178719</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0177383</v>
+        <v>0.0178616</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0759292</v>
+        <v>0.0749716</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0204021</v>
+        <v>0.020413</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0203091</v>
+        <v>0.020301</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.018399</v>
+        <v>0.0184566</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0182052</v>
+        <v>0.0184944</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0789734</v>
+        <v>0.08231769999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0206778</v>
+        <v>0.0206568</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0206388</v>
+        <v>0.020621</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0195484</v>
+        <v>0.0191001</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0189114</v>
+        <v>0.0195688</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0817749</v>
+        <v>0.0822678</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0212625</v>
+        <v>0.0212474</v>
       </c>
       <c r="F15" t="n">
-        <v>0.021132</v>
+        <v>0.021113</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0209395</v>
+        <v>0.0204224</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0210506</v>
+        <v>0.0214489</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0863409</v>
+        <v>0.0864607</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0219142</v>
+        <v>0.0219144</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0218404</v>
+        <v>0.0218065</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0255969</v>
+        <v>0.0240687</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0244311</v>
+        <v>0.025227</v>
       </c>
       <c r="D17" t="n">
-        <v>0.09085799999999999</v>
+        <v>0.09037969999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0227159</v>
+        <v>0.0227651</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0225183</v>
+        <v>0.0225243</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0311808</v>
+        <v>0.0296409</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0294175</v>
+        <v>0.0306928</v>
       </c>
       <c r="D18" t="n">
-        <v>0.09263109999999999</v>
+        <v>0.0904399</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0235121</v>
+        <v>0.0234977</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0232314</v>
+        <v>0.0231974</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.03856</v>
+        <v>0.0383228</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0374709</v>
+        <v>0.0401133</v>
       </c>
       <c r="D19" t="n">
-        <v>0.09274780000000001</v>
+        <v>0.0937591</v>
       </c>
       <c r="E19" t="n">
-        <v>0.024914</v>
+        <v>0.0248836</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0243964</v>
+        <v>0.0243263</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0491892</v>
+        <v>0.0509098</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0505746</v>
+        <v>0.0521359</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0959185</v>
+        <v>0.0953233</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0272831</v>
+        <v>0.0272139</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0268653</v>
+        <v>0.0268796</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0681783</v>
+        <v>0.0687579</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0684636</v>
+        <v>0.06828869999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>0.06465460000000001</v>
+        <v>0.0641206</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0309812</v>
+        <v>0.0308918</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0305751</v>
+        <v>0.0305681</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.09340420000000001</v>
+        <v>0.0932548</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0944141</v>
+        <v>0.0887955</v>
       </c>
       <c r="D22" t="n">
-        <v>0.06791460000000001</v>
+        <v>0.0673728</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0389769</v>
+        <v>0.0390641</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0391912</v>
+        <v>0.0391927</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.120192</v>
+        <v>0.118991</v>
       </c>
       <c r="C23" t="n">
-        <v>0.120089</v>
+        <v>0.117193</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0724441</v>
+        <v>0.0712424</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0189531</v>
+        <v>0.0189521</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0188646</v>
+        <v>0.0188713</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0162951</v>
+        <v>0.0163486</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0160841</v>
+        <v>0.0162107</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0760106</v>
+        <v>0.0744214</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0192241</v>
+        <v>0.0192163</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0191276</v>
+        <v>0.0191909</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0168736</v>
+        <v>0.016833</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0167913</v>
+        <v>0.0168321</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0792016</v>
+        <v>0.07815859999999999</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0194508</v>
+        <v>0.0194477</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0193513</v>
+        <v>0.0193481</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0174866</v>
+        <v>0.0174432</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0174459</v>
+        <v>0.0176876</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0813094</v>
+        <v>0.0808191</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0196662</v>
+        <v>0.0196769</v>
       </c>
       <c r="F26" t="n">
-        <v>0.019633</v>
+        <v>0.0196688</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0183445</v>
+        <v>0.0184708</v>
       </c>
       <c r="C27" t="n">
-        <v>0.018342</v>
+        <v>0.0186239</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0850173</v>
+        <v>0.0840852</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0200878</v>
+        <v>0.0200868</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0199887</v>
+        <v>0.0200335</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0195392</v>
+        <v>0.0199964</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0194716</v>
+        <v>0.0197935</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0879273</v>
+        <v>0.0878326</v>
       </c>
       <c r="E28" t="n">
-        <v>0.020535</v>
+        <v>0.0205182</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0203915</v>
+        <v>0.0203639</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0210663</v>
+        <v>0.0217954</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0211858</v>
+        <v>0.0220189</v>
       </c>
       <c r="D29" t="n">
-        <v>0.09108479999999999</v>
+        <v>0.0913588</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0211515</v>
+        <v>0.0211583</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0209973</v>
+        <v>0.0210717</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0245235</v>
+        <v>0.0245086</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0235206</v>
+        <v>0.0244277</v>
       </c>
       <c r="D30" t="n">
-        <v>0.09396889999999999</v>
+        <v>0.0940062</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0217496</v>
+        <v>0.0217609</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0216303</v>
+        <v>0.0216667</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.029057</v>
+        <v>0.0283246</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0280898</v>
+        <v>0.0286671</v>
       </c>
       <c r="D31" t="n">
-        <v>0.096275</v>
+        <v>0.0961875</v>
       </c>
       <c r="E31" t="n">
-        <v>0.02264</v>
+        <v>0.0226236</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0224144</v>
+        <v>0.0224065</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0349058</v>
+        <v>0.0355685</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0350899</v>
+        <v>0.0357021</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0973398</v>
+        <v>0.09759569999999999</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0235773</v>
+        <v>0.0235628</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0233841</v>
+        <v>0.0234142</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0418279</v>
+        <v>0.0425788</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0433584</v>
+        <v>0.0431017</v>
       </c>
       <c r="D33" t="n">
-        <v>0.09887890000000001</v>
+        <v>0.099464</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0249746</v>
+        <v>0.0249589</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0247501</v>
+        <v>0.0247305</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0537547</v>
+        <v>0.0557868</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0538962</v>
+        <v>0.0535962</v>
       </c>
       <c r="D34" t="n">
-        <v>0.101304</v>
+        <v>0.10221</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0273903</v>
+        <v>0.0273713</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0272418</v>
+        <v>0.0272725</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.06938329999999999</v>
+        <v>0.06937790000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>0.07062690000000001</v>
+        <v>0.0698906</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0691816</v>
+        <v>0.06924379999999999</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0312236</v>
+        <v>0.0311413</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0312633</v>
+        <v>0.0312493</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0918795</v>
+        <v>0.0921153</v>
       </c>
       <c r="C36" t="n">
-        <v>0.093204</v>
+        <v>0.0916889</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0725625</v>
+        <v>0.0726166</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0378522</v>
+        <v>0.03774</v>
       </c>
       <c r="F36" t="n">
-        <v>0.038137</v>
+        <v>0.0380532</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.117567</v>
+        <v>0.118015</v>
       </c>
       <c r="C37" t="n">
-        <v>0.119043</v>
+        <v>0.120085</v>
       </c>
       <c r="D37" t="n">
-        <v>0.07594239999999999</v>
+        <v>0.07549</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0194715</v>
+        <v>0.0194432</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0194776</v>
+        <v>0.0194601</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0168725</v>
+        <v>0.0169711</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0171711</v>
+        <v>0.0169311</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0795423</v>
+        <v>0.0794923</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0197854</v>
+        <v>0.0197579</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0198883</v>
+        <v>0.0197746</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0176983</v>
+        <v>0.0178469</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0179444</v>
+        <v>0.0177404</v>
       </c>
       <c r="D39" t="n">
-        <v>0.08293159999999999</v>
+        <v>0.0830891</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0201342</v>
+        <v>0.0200854</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0201325</v>
+        <v>0.020111</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0187568</v>
+        <v>0.0189368</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0189074</v>
+        <v>0.0188082</v>
       </c>
       <c r="D40" t="n">
-        <v>0.085815</v>
+        <v>0.08631800000000001</v>
       </c>
       <c r="E40" t="n">
-        <v>0.020435</v>
+        <v>0.0204326</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0204926</v>
+        <v>0.0204824</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0199559</v>
+        <v>0.020191</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0200657</v>
+        <v>0.0199012</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0890695</v>
+        <v>0.0887384</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0207747</v>
+        <v>0.0207563</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0208172</v>
+        <v>0.0207878</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0216091</v>
+        <v>0.0217918</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0217666</v>
+        <v>0.0215498</v>
       </c>
       <c r="D42" t="n">
-        <v>0.09177</v>
+        <v>0.0913704</v>
       </c>
       <c r="E42" t="n">
-        <v>0.021283</v>
+        <v>0.0212077</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0212361</v>
+        <v>0.0212218</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0240214</v>
+        <v>0.0243569</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0239417</v>
+        <v>0.024015</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0945339</v>
+        <v>0.0946105</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0218021</v>
+        <v>0.0218285</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0218597</v>
+        <v>0.0218594</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0274382</v>
+        <v>0.0275577</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0274268</v>
+        <v>0.0273689</v>
       </c>
       <c r="D44" t="n">
-        <v>0.09750399999999999</v>
+        <v>0.0972903</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0225736</v>
+        <v>0.0225484</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0226398</v>
+        <v>0.0226487</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0318758</v>
+        <v>0.0311974</v>
       </c>
       <c r="C45" t="n">
-        <v>0.032294</v>
+        <v>0.0317425</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0993108</v>
+        <v>0.0996722</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0233724</v>
+        <v>0.0233645</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0234097</v>
+        <v>0.0234239</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0380294</v>
+        <v>0.0377985</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0380675</v>
+        <v>0.0378913</v>
       </c>
       <c r="D46" t="n">
-        <v>0.101566</v>
+        <v>0.101495</v>
       </c>
       <c r="E46" t="n">
-        <v>0.024636</v>
+        <v>0.0246076</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0246827</v>
+        <v>0.0246417</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0456824</v>
+        <v>0.04606</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0458821</v>
+        <v>0.0457764</v>
       </c>
       <c r="D47" t="n">
-        <v>0.104423</v>
+        <v>0.10407</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0261799</v>
+        <v>0.0261495</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0262942</v>
+        <v>0.0262233</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.05601</v>
+        <v>0.0562936</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0555683</v>
+        <v>0.0563187</v>
       </c>
       <c r="D48" t="n">
-        <v>0.105976</v>
+        <v>0.106632</v>
       </c>
       <c r="E48" t="n">
+        <v>0.0287672</v>
+      </c>
+      <c r="F48" t="n">
         <v>0.0288474</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0.0288777</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.07139280000000001</v>
+        <v>0.07125339999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0706463</v>
+        <v>0.071507</v>
       </c>
       <c r="D49" t="n">
-        <v>0.108805</v>
+        <v>0.108562</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0324156</v>
+        <v>0.0323268</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0325327</v>
+        <v>0.032469</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0910197</v>
+        <v>0.0917467</v>
       </c>
       <c r="C50" t="n">
-        <v>0.09145200000000001</v>
+        <v>0.0919618</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0753254</v>
+        <v>0.0755343</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0382745</v>
+        <v>0.0382156</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0384774</v>
+        <v>0.0383939</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.116493</v>
+        <v>0.117255</v>
       </c>
       <c r="C51" t="n">
-        <v>0.118627</v>
+        <v>0.118544</v>
       </c>
       <c r="D51" t="n">
-        <v>0.07859969999999999</v>
+        <v>0.0786765</v>
       </c>
       <c r="E51" t="n">
-        <v>0.020493</v>
+        <v>0.0204646</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0205257</v>
+        <v>0.0204601</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.142453</v>
+        <v>0.14249</v>
       </c>
       <c r="C52" t="n">
-        <v>0.142917</v>
+        <v>0.144043</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0819092</v>
+        <v>0.08236499999999999</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0207653</v>
+        <v>0.0207463</v>
       </c>
       <c r="F52" t="n">
-        <v>0.020738</v>
+        <v>0.0207538</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0188899</v>
+        <v>0.0192094</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0188614</v>
+        <v>0.0189785</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0853212</v>
+        <v>0.0859692</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0210836</v>
+        <v>0.0210506</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0210949</v>
+        <v>0.0210725</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.020011</v>
+        <v>0.020429</v>
       </c>
       <c r="C54" t="n">
-        <v>0.019964</v>
+        <v>0.0201878</v>
       </c>
       <c r="D54" t="n">
-        <v>0.09040339999999999</v>
+        <v>0.08932329999999999</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0213836</v>
+        <v>0.021373</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0214073</v>
+        <v>0.0213796</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0214987</v>
+        <v>0.0219327</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0214644</v>
+        <v>0.0216117</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0926453</v>
+        <v>0.0925604</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0217811</v>
+        <v>0.0217604</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0218132</v>
+        <v>0.021793</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0234427</v>
+        <v>0.0238376</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0234577</v>
+        <v>0.0236439</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0960748</v>
+        <v>0.0962636</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0223037</v>
+        <v>0.0222498</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0223315</v>
+        <v>0.0222797</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0259951</v>
+        <v>0.0266129</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0259952</v>
+        <v>0.0261093</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0998074</v>
+        <v>0.0991166</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0228374</v>
+        <v>0.0228102</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0228409</v>
+        <v>0.0228188</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0295093</v>
+        <v>0.0302766</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0291301</v>
+        <v>0.0297075</v>
       </c>
       <c r="D58" t="n">
-        <v>0.1023</v>
+        <v>0.1021</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0234883</v>
+        <v>0.0234471</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0235064</v>
+        <v>0.0235386</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0338851</v>
+        <v>0.0345592</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0336542</v>
+        <v>0.0343522</v>
       </c>
       <c r="D59" t="n">
-        <v>0.104708</v>
+        <v>0.104663</v>
       </c>
       <c r="E59" t="n">
-        <v>0.024331</v>
+        <v>0.0243345</v>
       </c>
       <c r="F59" t="n">
-        <v>0.02441</v>
+        <v>0.024424</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0389995</v>
+        <v>0.0399929</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0388076</v>
+        <v>0.0397998</v>
       </c>
       <c r="D60" t="n">
-        <v>0.106465</v>
+        <v>0.10792</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0257129</v>
+        <v>0.0256384</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0257242</v>
+        <v>0.0257044</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.046044</v>
+        <v>0.0473843</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0458861</v>
+        <v>0.0467394</v>
       </c>
       <c r="D61" t="n">
-        <v>0.110048</v>
+        <v>0.109718</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0274751</v>
+        <v>0.0273611</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0275104</v>
+        <v>0.0274423</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0556376</v>
+        <v>0.0571898</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0557327</v>
+        <v>0.0567978</v>
       </c>
       <c r="D62" t="n">
-        <v>0.113465</v>
+        <v>0.112384</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0299568</v>
+        <v>0.0299455</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0300383</v>
+        <v>0.0300069</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0688095</v>
+        <v>0.070698</v>
       </c>
       <c r="C63" t="n">
-        <v>0.068902</v>
+        <v>0.07023</v>
       </c>
       <c r="D63" t="n">
-        <v>0.116059</v>
+        <v>0.115345</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0338641</v>
+        <v>0.0337767</v>
       </c>
       <c r="F63" t="n">
-        <v>0.034023</v>
+        <v>0.0340227</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0883935</v>
+        <v>0.0895685</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0890625</v>
+        <v>0.0896342</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0800865</v>
+        <v>0.0804528</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0399036</v>
+        <v>0.0398882</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0402149</v>
+        <v>0.0402511</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.115168</v>
+        <v>0.117112</v>
       </c>
       <c r="C65" t="n">
-        <v>0.115642</v>
+        <v>0.116046</v>
       </c>
       <c r="D65" t="n">
-        <v>0.08598219999999999</v>
+        <v>0.084351</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0509982</v>
+        <v>0.0508686</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0511929</v>
+        <v>0.0512267</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.146029</v>
+        <v>0.148051</v>
       </c>
       <c r="C66" t="n">
-        <v>0.146955</v>
+        <v>0.147461</v>
       </c>
       <c r="D66" t="n">
-        <v>0.08886479999999999</v>
+        <v>0.08882089999999999</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0210784</v>
+        <v>0.0210277</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0210923</v>
+        <v>0.0210838</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0199526</v>
+        <v>0.0199328</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0195228</v>
+        <v>0.0197327</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0935725</v>
+        <v>0.09426279999999999</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0213859</v>
+        <v>0.021377</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0213998</v>
+        <v>0.0213846</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0210636</v>
+        <v>0.021093</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0210455</v>
+        <v>0.0210188</v>
       </c>
       <c r="D68" t="n">
-        <v>0.099741</v>
+        <v>0.10046</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0217439</v>
+        <v>0.0216995</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0217401</v>
+        <v>0.0217483</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0226319</v>
+        <v>0.022842</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0223163</v>
+        <v>0.0226508</v>
       </c>
       <c r="D69" t="n">
-        <v>0.104101</v>
+        <v>0.104784</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0220686</v>
+        <v>0.0220326</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0221189</v>
+        <v>0.0220989</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0244316</v>
+        <v>0.0246718</v>
       </c>
       <c r="C70" t="n">
-        <v>0.024248</v>
+        <v>0.0245572</v>
       </c>
       <c r="D70" t="n">
-        <v>0.109363</v>
+        <v>0.111627</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0225641</v>
+        <v>0.0225094</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0225812</v>
+        <v>0.0225383</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0269802</v>
+        <v>0.0273984</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0269158</v>
+        <v>0.0270487</v>
       </c>
       <c r="D71" t="n">
-        <v>0.114371</v>
+        <v>0.116223</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0230885</v>
+        <v>0.0230537</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0231377</v>
+        <v>0.0230919</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0301536</v>
+        <v>0.0306559</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0299256</v>
+        <v>0.0302035</v>
       </c>
       <c r="D72" t="n">
-        <v>0.120524</v>
+        <v>0.120515</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0238431</v>
+        <v>0.0237916</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0239264</v>
+        <v>0.0239378</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0341911</v>
+        <v>0.0349929</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0338831</v>
+        <v>0.0343957</v>
       </c>
       <c r="D73" t="n">
-        <v>0.123474</v>
+        <v>0.126655</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0247613</v>
+        <v>0.0247281</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0248627</v>
+        <v>0.0248123</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0391829</v>
+        <v>0.0402237</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0392874</v>
+        <v>0.0397512</v>
       </c>
       <c r="D74" t="n">
-        <v>0.127911</v>
+        <v>0.131132</v>
       </c>
       <c r="E74" t="n">
-        <v>0.025951</v>
+        <v>0.0258679</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0261457</v>
+        <v>0.0259781</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0459771</v>
+        <v>0.0471215</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0458706</v>
+        <v>0.0464531</v>
       </c>
       <c r="D75" t="n">
-        <v>0.135143</v>
+        <v>0.135905</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0276272</v>
+        <v>0.0275897</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0278679</v>
+        <v>0.0277078</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0553648</v>
+        <v>0.0563788</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0547307</v>
+        <v>0.0556848</v>
       </c>
       <c r="D76" t="n">
-        <v>0.141009</v>
+        <v>0.140809</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0300898</v>
+        <v>0.0300781</v>
       </c>
       <c r="F76" t="n">
-        <v>0.030333</v>
+        <v>0.0303337</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0678665</v>
+        <v>0.06921860000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0675391</v>
+        <v>0.068997</v>
       </c>
       <c r="D77" t="n">
-        <v>0.147319</v>
+        <v>0.147543</v>
       </c>
       <c r="E77" t="n">
-        <v>0.033794</v>
+        <v>0.0337429</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0341236</v>
+        <v>0.0341042</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0858757</v>
+        <v>0.08749179999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>0.08623069999999999</v>
+        <v>0.08767809999999999</v>
       </c>
       <c r="D78" t="n">
-        <v>0.110237</v>
+        <v>0.110745</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0395035</v>
+        <v>0.0394434</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0398651</v>
+        <v>0.0398613</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.110261</v>
+        <v>0.112004</v>
       </c>
       <c r="C79" t="n">
-        <v>0.111911</v>
+        <v>0.112691</v>
       </c>
       <c r="D79" t="n">
-        <v>0.11758</v>
+        <v>0.117433</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0492771</v>
+        <v>0.0492465</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0494909</v>
+        <v>0.0495638</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.141714</v>
+        <v>0.144469</v>
       </c>
       <c r="C80" t="n">
-        <v>0.143149</v>
+        <v>0.144668</v>
       </c>
       <c r="D80" t="n">
-        <v>0.124632</v>
+        <v>0.125153</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0213334</v>
+        <v>0.0212039</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0216901</v>
+        <v>0.0216686</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0200952</v>
+        <v>0.0200686</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0202175</v>
+        <v>0.0202105</v>
       </c>
       <c r="D81" t="n">
-        <v>0.132229</v>
+        <v>0.13476</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0217022</v>
+        <v>0.0215754</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0221909</v>
+        <v>0.0222804</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0213044</v>
+        <v>0.0212526</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0217273</v>
+        <v>0.0215928</v>
       </c>
       <c r="D82" t="n">
-        <v>0.139324</v>
+        <v>0.1422</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0220515</v>
+        <v>0.0219515</v>
       </c>
       <c r="F82" t="n">
-        <v>0.0229474</v>
+        <v>0.0229223</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0231159</v>
+        <v>0.0230375</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0234274</v>
+        <v>0.0231892</v>
       </c>
       <c r="D83" t="n">
-        <v>0.148509</v>
+        <v>0.149514</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0225254</v>
+        <v>0.0224155</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0236969</v>
+        <v>0.0237411</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0248072</v>
+        <v>0.0249497</v>
       </c>
       <c r="C84" t="n">
-        <v>0.025625</v>
+        <v>0.0254322</v>
       </c>
       <c r="D84" t="n">
-        <v>0.153757</v>
+        <v>0.15362</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0229986</v>
+        <v>0.0228792</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0246897</v>
+        <v>0.0246264</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0274014</v>
+        <v>0.0272775</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0277643</v>
+        <v>0.0278294</v>
       </c>
       <c r="D85" t="n">
-        <v>0.161903</v>
+        <v>0.162077</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0236789</v>
+        <v>0.0234985</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0256105</v>
+        <v>0.025841</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0303535</v>
+        <v>0.0304162</v>
       </c>
       <c r="C86" t="n">
-        <v>0.030982</v>
+        <v>0.0307608</v>
       </c>
       <c r="D86" t="n">
-        <v>0.168449</v>
+        <v>0.168004</v>
       </c>
       <c r="E86" t="n">
-        <v>0.0244776</v>
+        <v>0.0242778</v>
       </c>
       <c r="F86" t="n">
-        <v>0.0270354</v>
+        <v>0.0269407</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0342292</v>
+        <v>0.0344007</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0346017</v>
+        <v>0.0347947</v>
       </c>
       <c r="D87" t="n">
-        <v>0.17622</v>
+        <v>0.177268</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0254657</v>
+        <v>0.0252997</v>
       </c>
       <c r="F87" t="n">
-        <v>0.0284889</v>
+        <v>0.0283867</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0393708</v>
+        <v>0.0391765</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0395257</v>
+        <v>0.0395749</v>
       </c>
       <c r="D88" t="n">
-        <v>0.18345</v>
+        <v>0.185156</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0268015</v>
+        <v>0.0266852</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0301707</v>
+        <v>0.0301794</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.045799</v>
+        <v>0.0457212</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0460679</v>
+        <v>0.0459975</v>
       </c>
       <c r="D89" t="n">
-        <v>0.189634</v>
+        <v>0.190896</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0284378</v>
+        <v>0.0283945</v>
       </c>
       <c r="F89" t="n">
-        <v>0.0320726</v>
+        <v>0.0322151</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0545706</v>
+        <v>0.0545525</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0549685</v>
+        <v>0.0546504</v>
       </c>
       <c r="D90" t="n">
-        <v>0.198761</v>
+        <v>0.197788</v>
       </c>
       <c r="E90" t="n">
-        <v>0.0308883</v>
+        <v>0.030826</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0349343</v>
+        <v>0.0348108</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0671134</v>
+        <v>0.0667575</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0675915</v>
+        <v>0.0669482</v>
       </c>
       <c r="D91" t="n">
-        <v>0.206313</v>
+        <v>0.208378</v>
       </c>
       <c r="E91" t="n">
-        <v>0.0342961</v>
+        <v>0.0341736</v>
       </c>
       <c r="F91" t="n">
-        <v>0.0383683</v>
+        <v>0.0380528</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0840423</v>
+        <v>0.0841696</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0851112</v>
+        <v>0.08486539999999999</v>
       </c>
       <c r="D92" t="n">
-        <v>0.157643</v>
+        <v>0.157248</v>
       </c>
       <c r="E92" t="n">
-        <v>0.0394045</v>
+        <v>0.0392508</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0440922</v>
+        <v>0.0436551</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.107671</v>
+        <v>0.10782</v>
       </c>
       <c r="C93" t="n">
-        <v>0.108826</v>
+        <v>0.109018</v>
       </c>
       <c r="D93" t="n">
-        <v>0.163716</v>
+        <v>0.161104</v>
       </c>
       <c r="E93" t="n">
-        <v>0.0482887</v>
+        <v>0.0480453</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0545123</v>
+        <v>0.0532727</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.138537</v>
+        <v>0.138359</v>
       </c>
       <c r="C94" t="n">
-        <v>0.13985</v>
+        <v>0.139749</v>
       </c>
       <c r="D94" t="n">
-        <v>0.169959</v>
+        <v>0.169076</v>
       </c>
       <c r="E94" t="n">
-        <v>0.0230355</v>
+        <v>0.0230466</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0282352</v>
+        <v>0.0283945</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0212044</v>
+        <v>0.0207815</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0254631</v>
+        <v>0.0246982</v>
       </c>
       <c r="D95" t="n">
-        <v>0.177154</v>
+        <v>0.17646</v>
       </c>
       <c r="E95" t="n">
-        <v>0.0235538</v>
+        <v>0.0236036</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0295636</v>
+        <v>0.0297085</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0223649</v>
+        <v>0.021932</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0270286</v>
+        <v>0.0264802</v>
       </c>
       <c r="D96" t="n">
-        <v>0.184251</v>
+        <v>0.182736</v>
       </c>
       <c r="E96" t="n">
-        <v>0.0240745</v>
+        <v>0.0240706</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0316172</v>
+        <v>0.0314518</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0238436</v>
+        <v>0.023203</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0296043</v>
+        <v>0.028667</v>
       </c>
       <c r="D97" t="n">
-        <v>0.190378</v>
+        <v>0.190242</v>
       </c>
       <c r="E97" t="n">
-        <v>0.0247926</v>
+        <v>0.0246561</v>
       </c>
       <c r="F97" t="n">
-        <v>0.034776</v>
+        <v>0.0343571</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0253669</v>
+        <v>0.0251844</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0338346</v>
+        <v>0.0320603</v>
       </c>
       <c r="D98" t="n">
-        <v>0.199838</v>
+        <v>0.19759</v>
       </c>
       <c r="E98" t="n">
-        <v>0.0255622</v>
+        <v>0.0254494</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0383054</v>
+        <v>0.0382727</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0279812</v>
+        <v>0.0274913</v>
       </c>
       <c r="C99" t="n">
-        <v>0.038534</v>
+        <v>0.0374962</v>
       </c>
       <c r="D99" t="n">
-        <v>0.205245</v>
+        <v>0.204711</v>
       </c>
       <c r="E99" t="n">
-        <v>0.0271087</v>
+        <v>0.0269003</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0427693</v>
+        <v>0.0429815</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0306577</v>
+        <v>0.0302461</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0440774</v>
+        <v>0.0435346</v>
       </c>
       <c r="D100" t="n">
-        <v>0.212825</v>
+        <v>0.212238</v>
       </c>
       <c r="E100" t="n">
-        <v>0.0292447</v>
+        <v>0.0290596</v>
       </c>
       <c r="F100" t="n">
-        <v>0.0469783</v>
+        <v>0.0469438</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0348279</v>
+        <v>0.034821</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0503411</v>
+        <v>0.0494894</v>
       </c>
       <c r="D101" t="n">
-        <v>0.220298</v>
+        <v>0.218611</v>
       </c>
       <c r="E101" t="n">
-        <v>0.0320674</v>
+        <v>0.0320252</v>
       </c>
       <c r="F101" t="n">
-        <v>0.0509715</v>
+        <v>0.0509317</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0403364</v>
+        <v>0.0399007</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0557444</v>
+        <v>0.0555799</v>
       </c>
       <c r="D102" t="n">
-        <v>0.227855</v>
+        <v>0.227495</v>
       </c>
       <c r="E102" t="n">
-        <v>0.0352926</v>
+        <v>0.0353051</v>
       </c>
       <c r="F102" t="n">
-        <v>0.0543241</v>
+        <v>0.0542248</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.046455</v>
+        <v>0.0464342</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0619176</v>
+        <v>0.0616673</v>
       </c>
       <c r="D103" t="n">
-        <v>0.235842</v>
+        <v>0.235661</v>
       </c>
       <c r="E103" t="n">
-        <v>0.0382794</v>
+        <v>0.0385271</v>
       </c>
       <c r="F103" t="n">
-        <v>0.0574746</v>
+        <v>0.0573225</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0546995</v>
+        <v>0.0548004</v>
       </c>
       <c r="C104" t="n">
-        <v>0.06923029999999999</v>
+        <v>0.0688695</v>
       </c>
       <c r="D104" t="n">
-        <v>0.244016</v>
+        <v>0.24317</v>
       </c>
       <c r="E104" t="n">
-        <v>0.0415146</v>
+        <v>0.0415385</v>
       </c>
       <c r="F104" t="n">
-        <v>0.0609745</v>
+        <v>0.0607308</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0659848</v>
+        <v>0.0658527</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0786583</v>
+        <v>0.0782461</v>
       </c>
       <c r="D105" t="n">
-        <v>0.253326</v>
+        <v>0.251137</v>
       </c>
       <c r="E105" t="n">
-        <v>0.0449338</v>
+        <v>0.0448027</v>
       </c>
       <c r="F105" t="n">
-        <v>0.06469129999999999</v>
+        <v>0.06445099999999999</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.08156099999999999</v>
+        <v>0.08130660000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>0.09162960000000001</v>
+        <v>0.0909307</v>
       </c>
       <c r="D106" t="n">
-        <v>0.262208</v>
+        <v>0.262225</v>
       </c>
       <c r="E106" t="n">
-        <v>0.0492511</v>
+        <v>0.0491768</v>
       </c>
       <c r="F106" t="n">
-        <v>0.06954879999999999</v>
+        <v>0.06928090000000001</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.103463</v>
+        <v>0.103488</v>
       </c>
       <c r="C107" t="n">
-        <v>0.110063</v>
+        <v>0.109808</v>
       </c>
       <c r="D107" t="n">
-        <v>0.189331</v>
+        <v>0.19025</v>
       </c>
       <c r="E107" t="n">
-        <v>0.0557113</v>
+        <v>0.0556207</v>
       </c>
       <c r="F107" t="n">
-        <v>0.0768778</v>
+        <v>0.07659729999999999</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.133162</v>
+        <v>0.132866</v>
       </c>
       <c r="C108" t="n">
-        <v>0.137412</v>
+        <v>0.136987</v>
       </c>
       <c r="D108" t="n">
-        <v>0.195684</v>
+        <v>0.196679</v>
       </c>
       <c r="E108" t="n">
-        <v>0.0353426</v>
+        <v>0.035128</v>
       </c>
       <c r="F108" t="n">
-        <v>0.0514672</v>
+        <v>0.0513984</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.168928</v>
+        <v>0.167605</v>
       </c>
       <c r="C109" t="n">
-        <v>0.17331</v>
+        <v>0.172594</v>
       </c>
       <c r="D109" t="n">
-        <v>0.202151</v>
+        <v>0.203243</v>
       </c>
       <c r="E109" t="n">
-        <v>0.0363465</v>
+        <v>0.0362003</v>
       </c>
       <c r="F109" t="n">
-        <v>0.0529374</v>
+        <v>0.0528351</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0315774</v>
+        <v>0.0311005</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0470559</v>
+        <v>0.0464745</v>
       </c>
       <c r="D110" t="n">
-        <v>0.208995</v>
+        <v>0.211682</v>
       </c>
       <c r="E110" t="n">
-        <v>0.0371271</v>
+        <v>0.0371074</v>
       </c>
       <c r="F110" t="n">
-        <v>0.0542606</v>
+        <v>0.0542817</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0327695</v>
+        <v>0.0327681</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0486718</v>
+        <v>0.0483892</v>
       </c>
       <c r="D111" t="n">
-        <v>0.216232</v>
+        <v>0.217407</v>
       </c>
       <c r="E111" t="n">
-        <v>0.0380933</v>
+        <v>0.037896</v>
       </c>
       <c r="F111" t="n">
-        <v>0.0555987</v>
+        <v>0.0555553</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0345995</v>
+        <v>0.0342311</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0506802</v>
+        <v>0.0507223</v>
       </c>
       <c r="D112" t="n">
-        <v>0.223402</v>
+        <v>0.226056</v>
       </c>
       <c r="E112" t="n">
-        <v>0.0389329</v>
+        <v>0.0387163</v>
       </c>
       <c r="F112" t="n">
-        <v>0.0570345</v>
+        <v>0.0570904</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0363255</v>
+        <v>0.0362246</v>
       </c>
       <c r="C113" t="n">
-        <v>0.052947</v>
+        <v>0.0529308</v>
       </c>
       <c r="D113" t="n">
-        <v>0.230888</v>
+        <v>0.231918</v>
       </c>
       <c r="E113" t="n">
-        <v>0.0398379</v>
+        <v>0.0396789</v>
       </c>
       <c r="F113" t="n">
-        <v>0.0585316</v>
+        <v>0.0585965</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0384024</v>
+        <v>0.0380059</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0556251</v>
+        <v>0.0557347</v>
       </c>
       <c r="D114" t="n">
-        <v>0.238885</v>
+        <v>0.240949</v>
       </c>
       <c r="E114" t="n">
-        <v>0.0408077</v>
+        <v>0.0406424</v>
       </c>
       <c r="F114" t="n">
-        <v>0.0601215</v>
+        <v>0.0602711</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.0407716</v>
+        <v>0.0409087</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0593599</v>
+        <v>0.0588323</v>
       </c>
       <c r="D115" t="n">
-        <v>0.246217</v>
+        <v>0.247363</v>
       </c>
       <c r="E115" t="n">
-        <v>0.0418857</v>
+        <v>0.0416843</v>
       </c>
       <c r="F115" t="n">
-        <v>0.0619381</v>
+        <v>0.0620862</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.0442804</v>
+        <v>0.044168</v>
       </c>
       <c r="C116" t="n">
-        <v>0.06315519999999999</v>
+        <v>0.0631989</v>
       </c>
       <c r="D116" t="n">
-        <v>0.254171</v>
+        <v>0.255839</v>
       </c>
       <c r="E116" t="n">
-        <v>0.0432619</v>
+        <v>0.043017</v>
       </c>
       <c r="F116" t="n">
-        <v>0.0640908</v>
+        <v>0.06396789999999999</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.0488506</v>
+        <v>0.0487911</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0712555</v>
+        <v>0.0680306</v>
       </c>
       <c r="D117" t="n">
-        <v>0.262078</v>
+        <v>0.264335</v>
       </c>
       <c r="E117" t="n">
-        <v>0.0447307</v>
+        <v>0.0445887</v>
       </c>
       <c r="F117" t="n">
-        <v>0.0663369</v>
+        <v>0.0663532</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.0554689</v>
+        <v>0.055452</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0746367</v>
+        <v>0.0746059</v>
       </c>
       <c r="D118" t="n">
-        <v>0.270311</v>
+        <v>0.271926</v>
       </c>
       <c r="E118" t="n">
-        <v>0.0467129</v>
+        <v>0.0465016</v>
       </c>
       <c r="F118" t="n">
-        <v>0.06914869999999999</v>
+        <v>0.06912649999999999</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.0653077</v>
+        <v>0.0651578</v>
       </c>
       <c r="C119" t="n">
-        <v>0.0828238</v>
+        <v>0.0830056</v>
       </c>
       <c r="D119" t="n">
-        <v>0.279419</v>
+        <v>0.281073</v>
       </c>
       <c r="E119" t="n">
-        <v>0.0491326</v>
+        <v>0.048993</v>
       </c>
       <c r="F119" t="n">
-        <v>0.07270600000000001</v>
+        <v>0.0728567</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.0797899</v>
+        <v>0.07953</v>
       </c>
       <c r="C120" t="n">
-        <v>0.0945839</v>
+        <v>0.0944255</v>
       </c>
       <c r="D120" t="n">
-        <v>0.288874</v>
+        <v>0.290059</v>
       </c>
       <c r="E120" t="n">
-        <v>0.0528422</v>
+        <v>0.052683</v>
       </c>
       <c r="F120" t="n">
-        <v>0.0776302</v>
+        <v>0.0776434</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.100423</v>
+        <v>0.100056</v>
       </c>
       <c r="C121" t="n">
-        <v>0.111413</v>
+        <v>0.111059</v>
       </c>
       <c r="D121" t="n">
-        <v>0.205047</v>
+        <v>0.205827</v>
       </c>
       <c r="E121" t="n">
-        <v>0.0586823</v>
+        <v>0.0582343</v>
       </c>
       <c r="F121" t="n">
-        <v>0.0848086</v>
+        <v>0.08472449999999999</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.128561</v>
+        <v>0.128336</v>
       </c>
       <c r="C122" t="n">
-        <v>0.136012</v>
+        <v>0.135791</v>
       </c>
       <c r="D122" t="n">
-        <v>0.211055</v>
+        <v>0.211922</v>
       </c>
       <c r="E122" t="n">
-        <v>0.06839339999999999</v>
+        <v>0.0678863</v>
       </c>
       <c r="F122" t="n">
-        <v>0.0960375</v>
+        <v>0.096055</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.164485</v>
+        <v>0.164323</v>
       </c>
       <c r="C123" t="n">
-        <v>0.170858</v>
+        <v>0.170614</v>
       </c>
       <c r="D123" t="n">
-        <v>0.217011</v>
+        <v>0.218085</v>
       </c>
       <c r="E123" t="n">
-        <v>0.0416168</v>
+        <v>0.040838</v>
       </c>
       <c r="F123" t="n">
-        <v>0.060497</v>
+        <v>0.0604932</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.0342933</v>
+        <v>0.0345723</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0518093</v>
+        <v>0.0516285</v>
       </c>
       <c r="D124" t="n">
-        <v>0.223794</v>
+        <v>0.224908</v>
       </c>
       <c r="E124" t="n">
-        <v>0.0424243</v>
+        <v>0.0416448</v>
       </c>
       <c r="F124" t="n">
-        <v>0.0620695</v>
+        <v>0.0619235</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.0354791</v>
+        <v>0.035722</v>
       </c>
       <c r="C125" t="n">
-        <v>0.053571</v>
+        <v>0.053299</v>
       </c>
       <c r="D125" t="n">
-        <v>0.230605</v>
+        <v>0.232232</v>
       </c>
       <c r="E125" t="n">
-        <v>0.0431471</v>
+        <v>0.0430449</v>
       </c>
       <c r="F125" t="n">
-        <v>0.0634919</v>
+        <v>0.0633235</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.0371095</v>
+        <v>0.0368389</v>
       </c>
       <c r="C126" t="n">
-        <v>0.0559386</v>
+        <v>0.0555349</v>
       </c>
       <c r="D126" t="n">
-        <v>0.238064</v>
+        <v>0.239514</v>
       </c>
       <c r="E126" t="n">
-        <v>0.0439816</v>
+        <v>0.0440558</v>
       </c>
       <c r="F126" t="n">
-        <v>0.06520339999999999</v>
+        <v>0.06507019999999999</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.038659</v>
+        <v>0.0389423</v>
       </c>
       <c r="C127" t="n">
-        <v>0.0585379</v>
+        <v>0.0587198</v>
       </c>
       <c r="D127" t="n">
-        <v>0.245462</v>
+        <v>0.247151</v>
       </c>
       <c r="E127" t="n">
-        <v>0.0449482</v>
+        <v>0.0447093</v>
       </c>
       <c r="F127" t="n">
-        <v>0.0668072</v>
+        <v>0.0666207</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0403492</v>
+        <v>0.0407378</v>
       </c>
       <c r="C128" t="n">
-        <v>0.0614022</v>
+        <v>0.0620118</v>
       </c>
       <c r="D128" t="n">
-        <v>0.252965</v>
+        <v>0.253742</v>
       </c>
       <c r="E128" t="n">
-        <v>0.0458577</v>
+        <v>0.0456811</v>
       </c>
       <c r="F128" t="n">
-        <v>0.0686031</v>
+        <v>0.06835049999999999</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.043317</v>
+        <v>0.0434952</v>
       </c>
       <c r="C129" t="n">
-        <v>0.0652611</v>
+        <v>0.06542729999999999</v>
       </c>
       <c r="D129" t="n">
-        <v>0.26072</v>
+        <v>0.261425</v>
       </c>
       <c r="E129" t="n">
-        <v>0.047045</v>
+        <v>0.0468728</v>
       </c>
       <c r="F129" t="n">
-        <v>0.0704085</v>
+        <v>0.07029050000000001</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0467839</v>
+        <v>0.0468862</v>
       </c>
       <c r="C130" t="n">
-        <v>0.0695421</v>
+        <v>0.0698826</v>
       </c>
       <c r="D130" t="n">
-        <v>0.268604</v>
+        <v>0.269871</v>
       </c>
       <c r="E130" t="n">
-        <v>0.0484058</v>
+        <v>0.0481471</v>
       </c>
       <c r="F130" t="n">
-        <v>0.0726633</v>
+        <v>0.07237689999999999</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0523134</v>
+        <v>0.0525512</v>
       </c>
       <c r="C131" t="n">
-        <v>0.0747588</v>
+        <v>0.0752133</v>
       </c>
       <c r="D131" t="n">
-        <v>0.277331</v>
+        <v>0.277404</v>
       </c>
       <c r="E131" t="n">
-        <v>0.049968</v>
+        <v>0.0497366</v>
       </c>
       <c r="F131" t="n">
-        <v>0.07502499999999999</v>
+        <v>0.0749235</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0590555</v>
+        <v>0.0589394</v>
       </c>
       <c r="C132" t="n">
-        <v>0.0815615</v>
+        <v>0.0816515</v>
       </c>
       <c r="D132" t="n">
-        <v>0.285424</v>
+        <v>0.286157</v>
       </c>
       <c r="E132" t="n">
-        <v>0.0518653</v>
+        <v>0.0516065</v>
       </c>
       <c r="F132" t="n">
-        <v>0.0782612</v>
+        <v>0.0779495</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.06834079999999999</v>
+        <v>0.0684202</v>
       </c>
       <c r="C133" t="n">
-        <v>0.0899393</v>
+        <v>0.090294</v>
       </c>
       <c r="D133" t="n">
-        <v>0.294243</v>
+        <v>0.294487</v>
       </c>
       <c r="E133" t="n">
-        <v>0.0545153</v>
+        <v>0.0541839</v>
       </c>
       <c r="F133" t="n">
-        <v>0.0817793</v>
+        <v>0.08152429999999999</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.082466</v>
+        <v>0.08271050000000001</v>
       </c>
       <c r="C134" t="n">
-        <v>0.101588</v>
+        <v>0.101722</v>
       </c>
       <c r="D134" t="n">
-        <v>0.303242</v>
+        <v>0.303311</v>
       </c>
       <c r="E134" t="n">
-        <v>0.058223</v>
+        <v>0.0577558</v>
       </c>
       <c r="F134" t="n">
-        <v>0.086796</v>
+        <v>0.08661770000000001</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.102115</v>
+        <v>0.102397</v>
       </c>
       <c r="C135" t="n">
-        <v>0.118078</v>
+        <v>0.118314</v>
       </c>
       <c r="D135" t="n">
-        <v>0.214082</v>
+        <v>0.212468</v>
       </c>
       <c r="E135" t="n">
-        <v>0.0639339</v>
+        <v>0.06330330000000001</v>
       </c>
       <c r="F135" t="n">
-        <v>0.0941794</v>
+        <v>0.0937472</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.129975</v>
+        <v>0.129993</v>
       </c>
       <c r="C136" t="n">
-        <v>0.142344</v>
+        <v>0.142896</v>
       </c>
       <c r="D136" t="n">
-        <v>0.219925</v>
+        <v>0.218477</v>
       </c>
       <c r="E136" t="n">
-        <v>0.07320980000000001</v>
+        <v>0.07274419999999999</v>
       </c>
       <c r="F136" t="n">
-        <v>0.105257</v>
+        <v>0.104998</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.164054</v>
+        <v>0.164209</v>
       </c>
       <c r="C137" t="n">
-        <v>0.178725</v>
+        <v>0.178696</v>
       </c>
       <c r="D137" t="n">
-        <v>0.226582</v>
+        <v>0.224866</v>
       </c>
       <c r="E137" t="n">
-        <v>0.0591797</v>
+        <v>0.0586268</v>
       </c>
       <c r="F137" t="n">
-        <v>0.0793257</v>
+        <v>0.0791738</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0471358</v>
+        <v>0.0470602</v>
       </c>
       <c r="C138" t="n">
-        <v>0.06580279999999999</v>
+        <v>0.0657123</v>
       </c>
       <c r="D138" t="n">
-        <v>0.233607</v>
+        <v>0.231883</v>
       </c>
       <c r="E138" t="n">
-        <v>0.0596438</v>
+        <v>0.059215</v>
       </c>
       <c r="F138" t="n">
-        <v>0.08046150000000001</v>
+        <v>0.0804337</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0483952</v>
+        <v>0.0480323</v>
       </c>
       <c r="C139" t="n">
-        <v>0.0672082</v>
+        <v>0.0673991</v>
       </c>
       <c r="D139" t="n">
-        <v>0.240567</v>
+        <v>0.238993</v>
       </c>
       <c r="E139" t="n">
-        <v>0.0605633</v>
+        <v>0.0597638</v>
       </c>
       <c r="F139" t="n">
-        <v>0.08195</v>
+        <v>0.08186839999999999</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.0496657</v>
+        <v>0.0491524</v>
       </c>
       <c r="C140" t="n">
-        <v>0.06914099999999999</v>
+        <v>0.0693358</v>
       </c>
       <c r="D140" t="n">
-        <v>0.248162</v>
+        <v>0.246513</v>
       </c>
       <c r="E140" t="n">
-        <v>0.0615398</v>
+        <v>0.0609346</v>
       </c>
       <c r="F140" t="n">
-        <v>0.0829647</v>
+        <v>0.08333939999999999</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0512901</v>
+        <v>0.0510303</v>
       </c>
       <c r="C141" t="n">
-        <v>0.071252</v>
+        <v>0.0713887</v>
       </c>
       <c r="D141" t="n">
-        <v>0.255564</v>
+        <v>0.254515</v>
       </c>
       <c r="E141" t="n">
-        <v>0.0622958</v>
+        <v>0.0620102</v>
       </c>
       <c r="F141" t="n">
-        <v>0.08434030000000001</v>
+        <v>0.0846269</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.0530369</v>
+        <v>0.0530341</v>
       </c>
       <c r="C142" t="n">
-        <v>0.0736062</v>
+        <v>0.074041</v>
       </c>
       <c r="D142" t="n">
-        <v>0.263107</v>
+        <v>0.262474</v>
       </c>
       <c r="E142" t="n">
-        <v>0.06301</v>
+        <v>0.0628575</v>
       </c>
       <c r="F142" t="n">
-        <v>0.0858942</v>
+        <v>0.0860514</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.055998</v>
+        <v>0.0559773</v>
       </c>
       <c r="C143" t="n">
-        <v>0.07768700000000001</v>
+        <v>0.07743899999999999</v>
       </c>
       <c r="D143" t="n">
-        <v>0.271322</v>
+        <v>0.27491</v>
       </c>
       <c r="E143" t="n">
-        <v>0.0639039</v>
+        <v>0.0635566</v>
       </c>
       <c r="F143" t="n">
-        <v>0.0870387</v>
+        <v>0.087436</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered unsuccessful looukp.xlsx
+++ b/clang-arm64/Scattered unsuccessful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0193921</v>
+        <v>0.0181545</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0186471</v>
+        <v>0.0193273</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0651211</v>
+        <v>0.0709288</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0215684</v>
+        <v>0.021588</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0213484</v>
+        <v>0.0213605</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.020618</v>
+        <v>0.0200272</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0218034</v>
+        <v>0.0216845</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0764127</v>
+        <v>0.0672127</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0221425</v>
+        <v>0.0220776</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0218909</v>
+        <v>0.0219248</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0263035</v>
+        <v>0.0254052</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0249392</v>
+        <v>0.0252175</v>
       </c>
       <c r="D4" t="n">
-        <v>0.07617649999999999</v>
+        <v>0.072548</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0229772</v>
+        <v>0.0230358</v>
       </c>
       <c r="F4" t="n">
-        <v>0.023075</v>
+        <v>0.0230068</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0323933</v>
+        <v>0.0333975</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0400993</v>
+        <v>0.0329478</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0742215</v>
+        <v>0.07516059999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>0.024339</v>
+        <v>0.0243518</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0237757</v>
+        <v>0.0236702</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0449133</v>
+        <v>0.0462212</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0442192</v>
+        <v>0.0486387</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0845709</v>
+        <v>0.091027</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0265505</v>
+        <v>0.0265062</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0256298</v>
+        <v>0.0257205</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0658818</v>
+        <v>0.06660140000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0617719</v>
+        <v>0.06403010000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0559362</v>
+        <v>0.0564276</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0304389</v>
+        <v>0.03035</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0299406</v>
+        <v>0.029968</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0882787</v>
+        <v>0.0896878</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0902507</v>
+        <v>0.0889026</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0635037</v>
+        <v>0.0599999</v>
       </c>
       <c r="E8" t="n">
-        <v>0.037888</v>
+        <v>0.0374513</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0380036</v>
+        <v>0.0370761</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.118697</v>
+        <v>0.117508</v>
       </c>
       <c r="C9" t="n">
-        <v>0.114995</v>
+        <v>0.119401</v>
       </c>
       <c r="D9" t="n">
-        <v>0.06752370000000001</v>
+        <v>0.061999</v>
       </c>
       <c r="E9" t="n">
-        <v>0.019199</v>
+        <v>0.0192162</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0191674</v>
+        <v>0.0193712</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0162873</v>
+        <v>0.0161306</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0161849</v>
+        <v>0.016519</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0675765</v>
+        <v>0.0672532</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0194519</v>
+        <v>0.0194958</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0193773</v>
+        <v>0.0193881</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.016551</v>
+        <v>0.0167922</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0165878</v>
+        <v>0.0168396</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0711338</v>
+        <v>0.06884899999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0197467</v>
+        <v>0.0197295</v>
       </c>
       <c r="F11" t="n">
-        <v>0.019672</v>
+        <v>0.0198802</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0170852</v>
+        <v>0.0172259</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0169578</v>
+        <v>0.0173544</v>
       </c>
       <c r="D12" t="n">
-        <v>0.07486429999999999</v>
+        <v>0.07344680000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0200974</v>
+        <v>0.0200789</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0201385</v>
+        <v>0.020292</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0177161</v>
+        <v>0.0177658</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0178173</v>
+        <v>0.0179616</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0783652</v>
+        <v>0.0768026</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0203996</v>
+        <v>0.020425</v>
       </c>
       <c r="F13" t="n">
-        <v>0.020303</v>
+        <v>0.0203137</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0180446</v>
+        <v>0.0184126</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0183742</v>
+        <v>0.0185691</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0817447</v>
+        <v>0.0815081</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0206951</v>
+        <v>0.0206995</v>
       </c>
       <c r="F14" t="n">
-        <v>0.020624</v>
+        <v>0.02061</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0198239</v>
+        <v>0.0195285</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0197087</v>
+        <v>0.0199121</v>
       </c>
       <c r="D15" t="n">
-        <v>0.08310389999999999</v>
+        <v>0.08216420000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0212329</v>
+        <v>0.0212206</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0211459</v>
+        <v>0.0212848</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0218668</v>
+        <v>0.0216649</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0214985</v>
+        <v>0.0221114</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0876065</v>
+        <v>0.0874892</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0219412</v>
+        <v>0.0219293</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0218317</v>
+        <v>0.0219864</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0254473</v>
+        <v>0.0257211</v>
       </c>
       <c r="C17" t="n">
-        <v>0.025924</v>
+        <v>0.0264409</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0922468</v>
+        <v>0.0884672</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0227317</v>
+        <v>0.0227354</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0225283</v>
+        <v>0.0225361</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0321027</v>
+        <v>0.0327152</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0309021</v>
+        <v>0.0310691</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0935482</v>
+        <v>0.0922009</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0235165</v>
+        <v>0.0235206</v>
       </c>
       <c r="F18" t="n">
-        <v>0.023215</v>
+        <v>0.0231972</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0408143</v>
+        <v>0.0390874</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0403713</v>
+        <v>0.0407826</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0930976</v>
+        <v>0.0952244</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0248624</v>
+        <v>0.0249234</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0244384</v>
+        <v>0.0244465</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0506906</v>
+        <v>0.0544315</v>
       </c>
       <c r="C20" t="n">
-        <v>0.053136</v>
+        <v>0.0550966</v>
       </c>
       <c r="D20" t="n">
-        <v>0.09793350000000001</v>
+        <v>0.09756339999999999</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0273377</v>
+        <v>0.027241</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0268834</v>
+        <v>0.0269522</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.06947589999999999</v>
+        <v>0.0715898</v>
       </c>
       <c r="C21" t="n">
-        <v>0.06895179999999999</v>
+        <v>0.0708575</v>
       </c>
       <c r="D21" t="n">
-        <v>0.06559</v>
+        <v>0.0644815</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0309656</v>
+        <v>0.030814</v>
       </c>
       <c r="F21" t="n">
-        <v>0.030805</v>
+        <v>0.030588</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.09165810000000001</v>
+        <v>0.095844</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0938047</v>
+        <v>0.09617580000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0688617</v>
+        <v>0.06811780000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>0.039284</v>
+        <v>0.0389289</v>
       </c>
       <c r="F22" t="n">
-        <v>0.039488</v>
+        <v>0.0390436</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.12086</v>
+        <v>0.121076</v>
       </c>
       <c r="C23" t="n">
-        <v>0.120831</v>
+        <v>0.122434</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0720817</v>
+        <v>0.0719361</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0189961</v>
+        <v>0.01897</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0188608</v>
+        <v>0.0188757</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0164095</v>
+        <v>0.0163481</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0162748</v>
+        <v>0.0161837</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0760073</v>
+        <v>0.0757356</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0192505</v>
+        <v>0.0192253</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0191287</v>
+        <v>0.0192093</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0169585</v>
+        <v>0.0170314</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0167885</v>
+        <v>0.0168753</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0798798</v>
+        <v>0.0790225</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0194386</v>
+        <v>0.0194498</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0193447</v>
+        <v>0.019334</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0178776</v>
+        <v>0.0178683</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0175541</v>
+        <v>0.0176509</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0819307</v>
+        <v>0.0824826</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0196797</v>
+        <v>0.0196851</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0195872</v>
+        <v>0.0196614</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.018628</v>
+        <v>0.0187132</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0183243</v>
+        <v>0.0187913</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0855178</v>
+        <v>0.08488859999999999</v>
       </c>
       <c r="E27" t="n">
-        <v>0.020071</v>
+        <v>0.0200989</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0199798</v>
+        <v>0.0200117</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0204023</v>
+        <v>0.0197946</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0198278</v>
+        <v>0.0199508</v>
       </c>
       <c r="D28" t="n">
-        <v>0.08837680000000001</v>
+        <v>0.08882230000000001</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0205075</v>
+        <v>0.0205237</v>
       </c>
       <c r="F28" t="n">
-        <v>0.020382</v>
+        <v>0.0204406</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0226629</v>
+        <v>0.0219507</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0221165</v>
+        <v>0.0216906</v>
       </c>
       <c r="D29" t="n">
-        <v>0.09076190000000001</v>
+        <v>0.0919111</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0212009</v>
+        <v>0.0211592</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0210324</v>
+        <v>0.0210818</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0254525</v>
+        <v>0.0250377</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0250608</v>
+        <v>0.0247232</v>
       </c>
       <c r="D30" t="n">
-        <v>0.09438340000000001</v>
+        <v>0.0937982</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0217353</v>
+        <v>0.0217268</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0216515</v>
+        <v>0.021662</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0298213</v>
+        <v>0.030022</v>
       </c>
       <c r="C31" t="n">
-        <v>0.029972</v>
+        <v>0.028718</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0972643</v>
+        <v>0.0958763</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0226093</v>
+        <v>0.0226481</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0224072</v>
+        <v>0.0224117</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.036106</v>
+        <v>0.0362634</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0363934</v>
+        <v>0.0343315</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0986947</v>
+        <v>0.09692580000000001</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0235648</v>
+        <v>0.0235732</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0233654</v>
+        <v>0.0233541</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0440745</v>
+        <v>0.0437815</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0430802</v>
+        <v>0.0434499</v>
       </c>
       <c r="D33" t="n">
-        <v>0.10026</v>
+        <v>0.09951309999999999</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0249615</v>
+        <v>0.0249724</v>
       </c>
       <c r="F33" t="n">
-        <v>0.024737</v>
+        <v>0.0247928</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0561342</v>
+        <v>0.0560837</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0548774</v>
+        <v>0.0555496</v>
       </c>
       <c r="D34" t="n">
-        <v>0.102641</v>
+        <v>0.101934</v>
       </c>
       <c r="E34" t="n">
-        <v>0.027374</v>
+        <v>0.0273835</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0273187</v>
+        <v>0.0272735</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.071795</v>
+        <v>0.0722733</v>
       </c>
       <c r="C35" t="n">
-        <v>0.07086969999999999</v>
+        <v>0.0728287</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0693397</v>
+        <v>0.0686345</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0311926</v>
+        <v>0.0312201</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0311931</v>
+        <v>0.031214</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.09422079999999999</v>
+        <v>0.09479949999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>0.09481299999999999</v>
+        <v>0.0943754</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0723775</v>
+        <v>0.07244689999999999</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0378414</v>
+        <v>0.037799</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0381778</v>
+        <v>0.0379878</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.120452</v>
+        <v>0.119594</v>
       </c>
       <c r="C37" t="n">
-        <v>0.121287</v>
+        <v>0.120944</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0756555</v>
+        <v>0.0753129</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0194256</v>
+        <v>0.019437</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0194562</v>
+        <v>0.0194422</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0171413</v>
+        <v>0.0169259</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0170702</v>
+        <v>0.0169939</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0793841</v>
+        <v>0.07870249999999999</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0197583</v>
+        <v>0.0197262</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0197826</v>
+        <v>0.0197894</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0177468</v>
+        <v>0.0177058</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0177177</v>
+        <v>0.0177861</v>
       </c>
       <c r="D39" t="n">
-        <v>0.08290989999999999</v>
+        <v>0.0820381</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0200972</v>
+        <v>0.0200894</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0201021</v>
+        <v>0.0201299</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0187144</v>
+        <v>0.018498</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0186241</v>
+        <v>0.0186478</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0859959</v>
+        <v>0.0850495</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0204109</v>
+        <v>0.0204488</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0204636</v>
+        <v>0.0204822</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0200622</v>
+        <v>0.0198188</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0197243</v>
+        <v>0.0198288</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0890005</v>
+        <v>0.08868769999999999</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0207591</v>
+        <v>0.0207597</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0207786</v>
+        <v>0.0208035</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0219765</v>
+        <v>0.0215067</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0215504</v>
+        <v>0.021349</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0921848</v>
+        <v>0.09111859999999999</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0211956</v>
+        <v>0.0212409</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0212001</v>
+        <v>0.0212282</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0246508</v>
+        <v>0.0238587</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0237497</v>
+        <v>0.0237394</v>
       </c>
       <c r="D43" t="n">
-        <v>0.09515129999999999</v>
+        <v>0.0948667</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0217942</v>
+        <v>0.0218156</v>
       </c>
       <c r="F43" t="n">
-        <v>0.021836</v>
+        <v>0.0218983</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0284382</v>
+        <v>0.0273712</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0270054</v>
+        <v>0.0268805</v>
       </c>
       <c r="D44" t="n">
-        <v>0.097174</v>
+        <v>0.0967432</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0225308</v>
+        <v>0.022545</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0226352</v>
+        <v>0.0226598</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0326313</v>
+        <v>0.0315114</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0317255</v>
+        <v>0.0311396</v>
       </c>
       <c r="D45" t="n">
-        <v>0.099564</v>
+        <v>0.0995771</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0233512</v>
+        <v>0.0233463</v>
       </c>
       <c r="F45" t="n">
-        <v>0.023419</v>
+        <v>0.0234452</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0383704</v>
+        <v>0.0374659</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0374348</v>
+        <v>0.0366654</v>
       </c>
       <c r="D46" t="n">
-        <v>0.101999</v>
+        <v>0.101255</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0245701</v>
+        <v>0.0246249</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0246073</v>
+        <v>0.0246885</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0459481</v>
+        <v>0.0445764</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0440827</v>
+        <v>0.0437077</v>
       </c>
       <c r="D47" t="n">
-        <v>0.104099</v>
+        <v>0.104329</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0261002</v>
+        <v>0.0261517</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0261741</v>
+        <v>0.0262144</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.057032</v>
+        <v>0.054445</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0556613</v>
+        <v>0.0551794</v>
       </c>
       <c r="D48" t="n">
-        <v>0.106553</v>
+        <v>0.106222</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0287808</v>
+        <v>0.0287881</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0288264</v>
+        <v>0.0288396</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0705218</v>
+        <v>0.0691425</v>
       </c>
       <c r="C49" t="n">
-        <v>0.06965730000000001</v>
+        <v>0.0699608</v>
       </c>
       <c r="D49" t="n">
-        <v>0.108721</v>
+        <v>0.108493</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0323138</v>
+        <v>0.0323507</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0324916</v>
+        <v>0.0324721</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.09185260000000001</v>
+        <v>0.0896762</v>
       </c>
       <c r="C50" t="n">
-        <v>0.09092359999999999</v>
+        <v>0.0904996</v>
       </c>
       <c r="D50" t="n">
-        <v>0.07556499999999999</v>
+        <v>0.0749445</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0382581</v>
+        <v>0.0382674</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0384712</v>
+        <v>0.0384272</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.116607</v>
+        <v>0.115545</v>
       </c>
       <c r="C51" t="n">
-        <v>0.118591</v>
+        <v>0.11765</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0790884</v>
+        <v>0.07879319999999999</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0204735</v>
+        <v>0.020467</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0204761</v>
+        <v>0.0204893</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.142549</v>
+        <v>0.142311</v>
       </c>
       <c r="C52" t="n">
-        <v>0.143182</v>
+        <v>0.143397</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0827669</v>
+        <v>0.0819116</v>
       </c>
       <c r="E52" t="n">
-        <v>0.020735</v>
+        <v>0.0207678</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0207501</v>
+        <v>0.0207957</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0190122</v>
+        <v>0.0188795</v>
       </c>
       <c r="C53" t="n">
-        <v>0.018924</v>
+        <v>0.0189373</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0863516</v>
+        <v>0.0854187</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0210508</v>
+        <v>0.0210626</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0211446</v>
+        <v>0.0210781</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0203591</v>
+        <v>0.020139</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0199103</v>
+        <v>0.0202486</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0894914</v>
+        <v>0.0892434</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0213765</v>
+        <v>0.0214255</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0214243</v>
+        <v>0.0213927</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0218336</v>
+        <v>0.0217118</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0214253</v>
+        <v>0.0216799</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0937707</v>
+        <v>0.09258</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0217619</v>
+        <v>0.0218111</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0218284</v>
+        <v>0.0218078</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0239355</v>
+        <v>0.0236717</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0233444</v>
+        <v>0.023408</v>
       </c>
       <c r="D56" t="n">
-        <v>0.09633220000000001</v>
+        <v>0.09585109999999999</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0222242</v>
+        <v>0.0222447</v>
       </c>
       <c r="F56" t="n">
-        <v>0.022363</v>
+        <v>0.0223107</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0263712</v>
+        <v>0.0263355</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0258938</v>
+        <v>0.0262231</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0987913</v>
+        <v>0.0994569</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0228002</v>
+        <v>0.0227933</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0228464</v>
+        <v>0.0228342</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0297518</v>
+        <v>0.0297821</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0293701</v>
+        <v>0.0295515</v>
       </c>
       <c r="D58" t="n">
-        <v>0.102741</v>
+        <v>0.102174</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0234287</v>
+        <v>0.0234423</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0236149</v>
+        <v>0.023522</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0341056</v>
+        <v>0.0338591</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0335721</v>
+        <v>0.0337502</v>
       </c>
       <c r="D59" t="n">
-        <v>0.104289</v>
+        <v>0.104313</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0243463</v>
+        <v>0.0243723</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0244278</v>
+        <v>0.0244039</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0397462</v>
+        <v>0.0396259</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0394424</v>
+        <v>0.0391601</v>
       </c>
       <c r="D60" t="n">
-        <v>0.107621</v>
+        <v>0.107546</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0256516</v>
+        <v>0.0257339</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0257151</v>
+        <v>0.0257555</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0469187</v>
+        <v>0.0466292</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0469272</v>
+        <v>0.046618</v>
       </c>
       <c r="D61" t="n">
-        <v>0.109695</v>
+        <v>0.109503</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0273995</v>
+        <v>0.0274284</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0274599</v>
+        <v>0.0275177</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.056764</v>
+        <v>0.0558572</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0566263</v>
+        <v>0.0566272</v>
       </c>
       <c r="D62" t="n">
-        <v>0.111102</v>
+        <v>0.111448</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0299676</v>
+        <v>0.0299791</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0300871</v>
+        <v>0.0300577</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0700862</v>
+        <v>0.0704779</v>
       </c>
       <c r="C63" t="n">
-        <v>0.07079779999999999</v>
+        <v>0.070581</v>
       </c>
       <c r="D63" t="n">
-        <v>0.117279</v>
+        <v>0.116068</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0338032</v>
+        <v>0.0338949</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0340411</v>
+        <v>0.0340177</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.08950139999999999</v>
+        <v>0.0907384</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0901092</v>
+        <v>0.0906867</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0810985</v>
+        <v>0.07979319999999999</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0399663</v>
+        <v>0.0399925</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0403834</v>
+        <v>0.0402704</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.114579</v>
+        <v>0.115657</v>
       </c>
       <c r="C65" t="n">
-        <v>0.116232</v>
+        <v>0.117485</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0862299</v>
+        <v>0.0840747</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0508814</v>
+        <v>0.0509111</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0513471</v>
+        <v>0.0512149</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.146011</v>
+        <v>0.146911</v>
       </c>
       <c r="C66" t="n">
-        <v>0.147167</v>
+        <v>0.147301</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0901192</v>
+        <v>0.0888251</v>
       </c>
       <c r="E66" t="n">
-        <v>0.021015</v>
+        <v>0.0210323</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0210611</v>
+        <v>0.0210804</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0196827</v>
+        <v>0.0198248</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0195891</v>
+        <v>0.0196026</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0958891</v>
+        <v>0.09388489999999999</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0213736</v>
+        <v>0.0213684</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0214012</v>
+        <v>0.0214409</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0210043</v>
+        <v>0.0210014</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0209604</v>
+        <v>0.0208426</v>
       </c>
       <c r="D68" t="n">
-        <v>0.100875</v>
+        <v>0.09941120000000001</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0216872</v>
+        <v>0.0216923</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0217405</v>
+        <v>0.0217412</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0227553</v>
+        <v>0.0225928</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0225167</v>
+        <v>0.0223552</v>
       </c>
       <c r="D69" t="n">
-        <v>0.10523</v>
+        <v>0.103364</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0220352</v>
+        <v>0.0220575</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0220833</v>
+        <v>0.0220944</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0245665</v>
+        <v>0.0245101</v>
       </c>
       <c r="C70" t="n">
-        <v>0.024636</v>
+        <v>0.0245444</v>
       </c>
       <c r="D70" t="n">
-        <v>0.111795</v>
+        <v>0.108713</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0224802</v>
+        <v>0.0225565</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0225525</v>
+        <v>0.0226373</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.027391</v>
+        <v>0.0271407</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0268421</v>
+        <v>0.0266916</v>
       </c>
       <c r="D71" t="n">
-        <v>0.115617</v>
+        <v>0.115841</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0230233</v>
+        <v>0.0230849</v>
       </c>
       <c r="F71" t="n">
-        <v>0.023081</v>
+        <v>0.0231141</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0306565</v>
+        <v>0.0303399</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0301264</v>
+        <v>0.0298986</v>
       </c>
       <c r="D72" t="n">
-        <v>0.119828</v>
+        <v>0.120166</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0238197</v>
+        <v>0.0238261</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0238651</v>
+        <v>0.0238992</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0345612</v>
+        <v>0.0347376</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0343956</v>
+        <v>0.0342113</v>
       </c>
       <c r="D73" t="n">
-        <v>0.12519</v>
+        <v>0.12539</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0247535</v>
+        <v>0.0247333</v>
       </c>
       <c r="F73" t="n">
-        <v>0.024777</v>
+        <v>0.0248475</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0399292</v>
+        <v>0.039643</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0394395</v>
+        <v>0.039611</v>
       </c>
       <c r="D74" t="n">
-        <v>0.131924</v>
+        <v>0.130352</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0258309</v>
+        <v>0.025909</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0260074</v>
+        <v>0.0260186</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0467449</v>
+        <v>0.0465145</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0464104</v>
+        <v>0.0463426</v>
       </c>
       <c r="D75" t="n">
-        <v>0.135437</v>
+        <v>0.1348</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0275913</v>
+        <v>0.027587</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0277357</v>
+        <v>0.0277706</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0563424</v>
+        <v>0.0554795</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0557607</v>
+        <v>0.0557653</v>
       </c>
       <c r="D76" t="n">
-        <v>0.140617</v>
+        <v>0.141303</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0300138</v>
+        <v>0.0301295</v>
       </c>
       <c r="F76" t="n">
-        <v>0.030224</v>
+        <v>0.0302965</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0692763</v>
+        <v>0.0683864</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0688764</v>
+        <v>0.0687065</v>
       </c>
       <c r="D77" t="n">
-        <v>0.147474</v>
+        <v>0.146889</v>
       </c>
       <c r="E77" t="n">
-        <v>0.033718</v>
+        <v>0.0337619</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0341281</v>
+        <v>0.03406</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0872874</v>
+        <v>0.0865302</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0875397</v>
+        <v>0.0875079</v>
       </c>
       <c r="D78" t="n">
-        <v>0.110139</v>
+        <v>0.112061</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0394789</v>
+        <v>0.0394495</v>
       </c>
       <c r="F78" t="n">
-        <v>0.039898</v>
+        <v>0.0398282</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.111582</v>
+        <v>0.111553</v>
       </c>
       <c r="C79" t="n">
-        <v>0.112531</v>
+        <v>0.112701</v>
       </c>
       <c r="D79" t="n">
-        <v>0.121269</v>
+        <v>0.118509</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0492263</v>
+        <v>0.0492506</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0495261</v>
+        <v>0.0496073</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.143639</v>
+        <v>0.143664</v>
       </c>
       <c r="C80" t="n">
-        <v>0.143794</v>
+        <v>0.144211</v>
       </c>
       <c r="D80" t="n">
-        <v>0.125326</v>
+        <v>0.125983</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0212785</v>
+        <v>0.0212742</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0218031</v>
+        <v>0.0217386</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.020281</v>
+        <v>0.0199078</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0201123</v>
+        <v>0.0201275</v>
       </c>
       <c r="D81" t="n">
-        <v>0.134418</v>
+        <v>0.132515</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0216399</v>
+        <v>0.0215824</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0223031</v>
+        <v>0.0224108</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0213587</v>
+        <v>0.0212406</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0218663</v>
+        <v>0.0215934</v>
       </c>
       <c r="D82" t="n">
-        <v>0.143541</v>
+        <v>0.141711</v>
       </c>
       <c r="E82" t="n">
-        <v>0.022039</v>
+        <v>0.0219587</v>
       </c>
       <c r="F82" t="n">
-        <v>0.0231573</v>
+        <v>0.0227914</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0229456</v>
+        <v>0.0228108</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0231395</v>
+        <v>0.0232181</v>
       </c>
       <c r="D83" t="n">
-        <v>0.151115</v>
+        <v>0.150786</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0224322</v>
+        <v>0.0224079</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0237331</v>
+        <v>0.0236206</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0247706</v>
+        <v>0.0247728</v>
       </c>
       <c r="C84" t="n">
-        <v>0.025173</v>
+        <v>0.0251318</v>
       </c>
       <c r="D84" t="n">
-        <v>0.156752</v>
+        <v>0.154417</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0229647</v>
+        <v>0.0228719</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0245643</v>
+        <v>0.024605</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0275588</v>
+        <v>0.0274214</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0279864</v>
+        <v>0.028041</v>
       </c>
       <c r="D85" t="n">
-        <v>0.161516</v>
+        <v>0.163472</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0236027</v>
+        <v>0.0235419</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0259733</v>
+        <v>0.0257471</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0302908</v>
+        <v>0.0303699</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0308174</v>
+        <v>0.0307268</v>
       </c>
       <c r="D86" t="n">
-        <v>0.17028</v>
+        <v>0.168838</v>
       </c>
       <c r="E86" t="n">
-        <v>0.0244762</v>
+        <v>0.0243515</v>
       </c>
       <c r="F86" t="n">
-        <v>0.0268836</v>
+        <v>0.0270402</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0342801</v>
+        <v>0.034211</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0348105</v>
+        <v>0.0346889</v>
       </c>
       <c r="D87" t="n">
-        <v>0.180825</v>
+        <v>0.178337</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0254823</v>
+        <v>0.0253814</v>
       </c>
       <c r="F87" t="n">
-        <v>0.0284036</v>
+        <v>0.028521</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0392986</v>
+        <v>0.0391495</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0395328</v>
+        <v>0.0395477</v>
       </c>
       <c r="D88" t="n">
-        <v>0.182283</v>
+        <v>0.185649</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0267595</v>
+        <v>0.0267181</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0301789</v>
+        <v>0.03031</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0459011</v>
+        <v>0.0457123</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0459677</v>
+        <v>0.0458883</v>
       </c>
       <c r="D89" t="n">
-        <v>0.193123</v>
+        <v>0.192845</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0283939</v>
+        <v>0.0284017</v>
       </c>
       <c r="F89" t="n">
-        <v>0.03203</v>
+        <v>0.0322797</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.054482</v>
+        <v>0.0544175</v>
       </c>
       <c r="C90" t="n">
-        <v>0.054831</v>
+        <v>0.0545928</v>
       </c>
       <c r="D90" t="n">
-        <v>0.198804</v>
+        <v>0.199389</v>
       </c>
       <c r="E90" t="n">
-        <v>0.0308088</v>
+        <v>0.0308203</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0348003</v>
+        <v>0.0348224</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.06651650000000001</v>
+        <v>0.0662735</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0668122</v>
+        <v>0.0667304</v>
       </c>
       <c r="D91" t="n">
-        <v>0.207925</v>
+        <v>0.209251</v>
       </c>
       <c r="E91" t="n">
-        <v>0.034144</v>
+        <v>0.0342183</v>
       </c>
       <c r="F91" t="n">
-        <v>0.0382636</v>
+        <v>0.0383959</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0835526</v>
+        <v>0.0840658</v>
       </c>
       <c r="C92" t="n">
-        <v>0.08425920000000001</v>
+        <v>0.0847203</v>
       </c>
       <c r="D92" t="n">
-        <v>0.156239</v>
+        <v>0.158032</v>
       </c>
       <c r="E92" t="n">
-        <v>0.0392969</v>
+        <v>0.0393331</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0438451</v>
+        <v>0.0438332</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.107487</v>
+        <v>0.107778</v>
       </c>
       <c r="C93" t="n">
-        <v>0.108763</v>
+        <v>0.108957</v>
       </c>
       <c r="D93" t="n">
-        <v>0.163923</v>
+        <v>0.162747</v>
       </c>
       <c r="E93" t="n">
-        <v>0.0481543</v>
+        <v>0.0481202</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0535145</v>
+        <v>0.0541216</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.138296</v>
+        <v>0.138768</v>
       </c>
       <c r="C94" t="n">
-        <v>0.13957</v>
+        <v>0.140323</v>
       </c>
       <c r="D94" t="n">
-        <v>0.167816</v>
+        <v>0.170579</v>
       </c>
       <c r="E94" t="n">
-        <v>0.0230102</v>
+        <v>0.0229976</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0283301</v>
+        <v>0.028374</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0211004</v>
+        <v>0.0208139</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0246706</v>
+        <v>0.0248614</v>
       </c>
       <c r="D95" t="n">
-        <v>0.176707</v>
+        <v>0.174822</v>
       </c>
       <c r="E95" t="n">
-        <v>0.0234709</v>
+        <v>0.0235644</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0295818</v>
+        <v>0.0294527</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0218996</v>
+        <v>0.0216655</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0263776</v>
+        <v>0.026613</v>
       </c>
       <c r="D96" t="n">
-        <v>0.182879</v>
+        <v>0.184211</v>
       </c>
       <c r="E96" t="n">
-        <v>0.0239962</v>
+        <v>0.0239936</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0314223</v>
+        <v>0.0319639</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.023416</v>
+        <v>0.0233552</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0294247</v>
+        <v>0.0289791</v>
       </c>
       <c r="D97" t="n">
-        <v>0.190234</v>
+        <v>0.19117</v>
       </c>
       <c r="E97" t="n">
-        <v>0.0246296</v>
+        <v>0.024649</v>
       </c>
       <c r="F97" t="n">
-        <v>0.0345996</v>
+        <v>0.0347311</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0253312</v>
+        <v>0.0249131</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0329781</v>
+        <v>0.0333305</v>
       </c>
       <c r="D98" t="n">
-        <v>0.194777</v>
+        <v>0.19831</v>
       </c>
       <c r="E98" t="n">
-        <v>0.0254916</v>
+        <v>0.0255376</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0383183</v>
+        <v>0.038436</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0271447</v>
+        <v>0.0272324</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0379096</v>
+        <v>0.0384562</v>
       </c>
       <c r="D99" t="n">
-        <v>0.204823</v>
+        <v>0.205429</v>
       </c>
       <c r="E99" t="n">
-        <v>0.0268811</v>
+        <v>0.0268852</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0426534</v>
+        <v>0.0433331</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0303647</v>
+        <v>0.0305706</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0439735</v>
+        <v>0.0444458</v>
       </c>
       <c r="D100" t="n">
-        <v>0.212582</v>
+        <v>0.213193</v>
       </c>
       <c r="E100" t="n">
-        <v>0.0290289</v>
+        <v>0.0291856</v>
       </c>
       <c r="F100" t="n">
-        <v>0.0467389</v>
+        <v>0.0473175</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0344804</v>
+        <v>0.0343086</v>
       </c>
       <c r="C101" t="n">
-        <v>0.049874</v>
+        <v>0.0503849</v>
       </c>
       <c r="D101" t="n">
-        <v>0.219687</v>
+        <v>0.219499</v>
       </c>
       <c r="E101" t="n">
-        <v>0.0319421</v>
+        <v>0.0322289</v>
       </c>
       <c r="F101" t="n">
-        <v>0.0507136</v>
+        <v>0.0512178</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.039691</v>
+        <v>0.0398191</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0556005</v>
+        <v>0.0559085</v>
       </c>
       <c r="D102" t="n">
-        <v>0.227683</v>
+        <v>0.228351</v>
       </c>
       <c r="E102" t="n">
-        <v>0.0350408</v>
+        <v>0.0353127</v>
       </c>
       <c r="F102" t="n">
-        <v>0.0540343</v>
+        <v>0.0543701</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.046215</v>
+        <v>0.0462167</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0619463</v>
+        <v>0.0619673</v>
       </c>
       <c r="D103" t="n">
-        <v>0.234811</v>
+        <v>0.236364</v>
       </c>
       <c r="E103" t="n">
-        <v>0.0383281</v>
+        <v>0.0384609</v>
       </c>
       <c r="F103" t="n">
-        <v>0.0573311</v>
+        <v>0.057576</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0541473</v>
+        <v>0.0543472</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0689983</v>
+        <v>0.06921049999999999</v>
       </c>
       <c r="D104" t="n">
-        <v>0.243525</v>
+        <v>0.243925</v>
       </c>
       <c r="E104" t="n">
-        <v>0.0415427</v>
+        <v>0.0416003</v>
       </c>
       <c r="F104" t="n">
-        <v>0.0607456</v>
+        <v>0.0608722</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0654028</v>
+        <v>0.0651535</v>
       </c>
       <c r="C105" t="n">
-        <v>0.078289</v>
+        <v>0.0782048</v>
       </c>
       <c r="D105" t="n">
-        <v>0.252271</v>
+        <v>0.252838</v>
       </c>
       <c r="E105" t="n">
-        <v>0.0446478</v>
+        <v>0.0450195</v>
       </c>
       <c r="F105" t="n">
-        <v>0.06443500000000001</v>
+        <v>0.064744</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0810232</v>
+        <v>0.0810049</v>
       </c>
       <c r="C106" t="n">
-        <v>0.091019</v>
+        <v>0.091123</v>
       </c>
       <c r="D106" t="n">
-        <v>0.262135</v>
+        <v>0.263178</v>
       </c>
       <c r="E106" t="n">
-        <v>0.0489929</v>
+        <v>0.0491404</v>
       </c>
       <c r="F106" t="n">
-        <v>0.0704224</v>
+        <v>0.0695809</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.102845</v>
+        <v>0.103289</v>
       </c>
       <c r="C107" t="n">
-        <v>0.1096</v>
+        <v>0.109906</v>
       </c>
       <c r="D107" t="n">
-        <v>0.190932</v>
+        <v>0.19077</v>
       </c>
       <c r="E107" t="n">
-        <v>0.0556547</v>
+        <v>0.0557596</v>
       </c>
       <c r="F107" t="n">
-        <v>0.07683329999999999</v>
+        <v>0.0770585</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.132617</v>
+        <v>0.132734</v>
       </c>
       <c r="C108" t="n">
-        <v>0.136481</v>
+        <v>0.136638</v>
       </c>
       <c r="D108" t="n">
-        <v>0.19874</v>
+        <v>0.197042</v>
       </c>
       <c r="E108" t="n">
-        <v>0.0351601</v>
+        <v>0.0352939</v>
       </c>
       <c r="F108" t="n">
-        <v>0.0515045</v>
+        <v>0.0515099</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.168021</v>
+        <v>0.16849</v>
       </c>
       <c r="C109" t="n">
-        <v>0.17219</v>
+        <v>0.172433</v>
       </c>
       <c r="D109" t="n">
-        <v>0.203793</v>
+        <v>0.203823</v>
       </c>
       <c r="E109" t="n">
-        <v>0.036178</v>
+        <v>0.0362241</v>
       </c>
       <c r="F109" t="n">
-        <v>0.0528525</v>
+        <v>0.0529056</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.031487</v>
+        <v>0.0313254</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0470141</v>
+        <v>0.0466413</v>
       </c>
       <c r="D110" t="n">
-        <v>0.211789</v>
+        <v>0.211463</v>
       </c>
       <c r="E110" t="n">
-        <v>0.0370797</v>
+        <v>0.0371398</v>
       </c>
       <c r="F110" t="n">
-        <v>0.0543075</v>
+        <v>0.0542447</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0328896</v>
+        <v>0.032882</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0490185</v>
+        <v>0.0486558</v>
       </c>
       <c r="D111" t="n">
-        <v>0.217334</v>
+        <v>0.218012</v>
       </c>
       <c r="E111" t="n">
-        <v>0.0378829</v>
+        <v>0.0378674</v>
       </c>
       <c r="F111" t="n">
-        <v>0.0557337</v>
+        <v>0.055639</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0342325</v>
+        <v>0.0340605</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0507457</v>
+        <v>0.0508202</v>
       </c>
       <c r="D112" t="n">
-        <v>0.225225</v>
+        <v>0.224122</v>
       </c>
       <c r="E112" t="n">
-        <v>0.0386958</v>
+        <v>0.0387855</v>
       </c>
       <c r="F112" t="n">
-        <v>0.0571167</v>
+        <v>0.0571176</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0361657</v>
+        <v>0.0362786</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0532522</v>
+        <v>0.0531506</v>
       </c>
       <c r="D113" t="n">
-        <v>0.233621</v>
+        <v>0.232412</v>
       </c>
       <c r="E113" t="n">
-        <v>0.039647</v>
+        <v>0.0397171</v>
       </c>
       <c r="F113" t="n">
-        <v>0.0587627</v>
+        <v>0.0586448</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0383906</v>
+        <v>0.0379959</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0560578</v>
+        <v>0.0556745</v>
       </c>
       <c r="D114" t="n">
-        <v>0.242221</v>
+        <v>0.239201</v>
       </c>
       <c r="E114" t="n">
-        <v>0.0405658</v>
+        <v>0.0406991</v>
       </c>
       <c r="F114" t="n">
-        <v>0.0603238</v>
+        <v>0.0602049</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.040929</v>
+        <v>0.0407781</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0593512</v>
+        <v>0.0589175</v>
       </c>
       <c r="D115" t="n">
-        <v>0.247876</v>
+        <v>0.247698</v>
       </c>
       <c r="E115" t="n">
-        <v>0.0418052</v>
+        <v>0.0418466</v>
       </c>
       <c r="F115" t="n">
-        <v>0.0620963</v>
+        <v>0.0620375</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.0442441</v>
+        <v>0.0441244</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0631478</v>
+        <v>0.0629541</v>
       </c>
       <c r="D116" t="n">
-        <v>0.256535</v>
+        <v>0.255992</v>
       </c>
       <c r="E116" t="n">
-        <v>0.0430108</v>
+        <v>0.0430456</v>
       </c>
       <c r="F116" t="n">
-        <v>0.0639692</v>
+        <v>0.0639604</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.0487765</v>
+        <v>0.0488898</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0679352</v>
+        <v>0.0681942</v>
       </c>
       <c r="D117" t="n">
-        <v>0.264912</v>
+        <v>0.263652</v>
       </c>
       <c r="E117" t="n">
-        <v>0.0445312</v>
+        <v>0.0444863</v>
       </c>
       <c r="F117" t="n">
-        <v>0.06634900000000001</v>
+        <v>0.06643010000000001</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.0553593</v>
+        <v>0.0553724</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0742525</v>
+        <v>0.0744643</v>
       </c>
       <c r="D118" t="n">
-        <v>0.273086</v>
+        <v>0.271932</v>
       </c>
       <c r="E118" t="n">
-        <v>0.0465129</v>
+        <v>0.0463311</v>
       </c>
       <c r="F118" t="n">
-        <v>0.0692691</v>
+        <v>0.06924130000000001</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.06492299999999999</v>
+        <v>0.06506629999999999</v>
       </c>
       <c r="C119" t="n">
-        <v>0.0829809</v>
+        <v>0.0829665</v>
       </c>
       <c r="D119" t="n">
-        <v>0.281599</v>
+        <v>0.280595</v>
       </c>
       <c r="E119" t="n">
-        <v>0.0490687</v>
+        <v>0.0490008</v>
       </c>
       <c r="F119" t="n">
-        <v>0.0728111</v>
+        <v>0.0728062</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.079196</v>
+        <v>0.0794074</v>
       </c>
       <c r="C120" t="n">
-        <v>0.0946695</v>
+        <v>0.0944628</v>
       </c>
       <c r="D120" t="n">
-        <v>0.290415</v>
+        <v>0.290043</v>
       </c>
       <c r="E120" t="n">
-        <v>0.0526222</v>
+        <v>0.0527962</v>
       </c>
       <c r="F120" t="n">
-        <v>0.077516</v>
+        <v>0.0777171</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.100099</v>
+        <v>0.100234</v>
       </c>
       <c r="C121" t="n">
-        <v>0.111426</v>
+        <v>0.111284</v>
       </c>
       <c r="D121" t="n">
-        <v>0.206756</v>
+        <v>0.206029</v>
       </c>
       <c r="E121" t="n">
-        <v>0.0582512</v>
+        <v>0.058437</v>
       </c>
       <c r="F121" t="n">
-        <v>0.0847875</v>
+        <v>0.0849365</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.128392</v>
+        <v>0.128301</v>
       </c>
       <c r="C122" t="n">
-        <v>0.135993</v>
+        <v>0.135769</v>
       </c>
       <c r="D122" t="n">
-        <v>0.212364</v>
+        <v>0.211829</v>
       </c>
       <c r="E122" t="n">
-        <v>0.06793680000000001</v>
+        <v>0.0681899</v>
       </c>
       <c r="F122" t="n">
-        <v>0.0960468</v>
+        <v>0.0960048</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.16413</v>
+        <v>0.163615</v>
       </c>
       <c r="C123" t="n">
-        <v>0.169873</v>
+        <v>0.170402</v>
       </c>
       <c r="D123" t="n">
-        <v>0.218516</v>
+        <v>0.218212</v>
       </c>
       <c r="E123" t="n">
-        <v>0.040944</v>
+        <v>0.0404853</v>
       </c>
       <c r="F123" t="n">
-        <v>0.0602957</v>
+        <v>0.0606063</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.0340874</v>
+        <v>0.0345532</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0512027</v>
+        <v>0.051508</v>
       </c>
       <c r="D124" t="n">
-        <v>0.224991</v>
+        <v>0.225385</v>
       </c>
       <c r="E124" t="n">
-        <v>0.0419828</v>
+        <v>0.041195</v>
       </c>
       <c r="F124" t="n">
-        <v>0.0617134</v>
+        <v>0.0619743</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.0357014</v>
+        <v>0.0353796</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0529638</v>
+        <v>0.0533186</v>
       </c>
       <c r="D125" t="n">
-        <v>0.232495</v>
+        <v>0.231721</v>
       </c>
       <c r="E125" t="n">
-        <v>0.0428353</v>
+        <v>0.0419655</v>
       </c>
       <c r="F125" t="n">
-        <v>0.0631791</v>
+        <v>0.0635406</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.0366147</v>
+        <v>0.0369896</v>
       </c>
       <c r="C126" t="n">
-        <v>0.055234</v>
+        <v>0.0550913</v>
       </c>
       <c r="D126" t="n">
-        <v>0.239296</v>
+        <v>0.239029</v>
       </c>
       <c r="E126" t="n">
-        <v>0.0436027</v>
+        <v>0.0427332</v>
       </c>
       <c r="F126" t="n">
-        <v>0.06495629999999999</v>
+        <v>0.06503009999999999</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.0385755</v>
+        <v>0.038983</v>
       </c>
       <c r="C127" t="n">
-        <v>0.0587982</v>
+        <v>0.0580075</v>
       </c>
       <c r="D127" t="n">
-        <v>0.246483</v>
+        <v>0.246675</v>
       </c>
       <c r="E127" t="n">
-        <v>0.0445843</v>
+        <v>0.0445327</v>
       </c>
       <c r="F127" t="n">
-        <v>0.06639299999999999</v>
+        <v>0.0666868</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0407353</v>
+        <v>0.0406242</v>
       </c>
       <c r="C128" t="n">
-        <v>0.0615995</v>
+        <v>0.0618704</v>
       </c>
       <c r="D128" t="n">
-        <v>0.254062</v>
+        <v>0.254226</v>
       </c>
       <c r="E128" t="n">
-        <v>0.04556</v>
+        <v>0.0454032</v>
       </c>
       <c r="F128" t="n">
-        <v>0.0681887</v>
+        <v>0.0684739</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0431985</v>
+        <v>0.0431646</v>
       </c>
       <c r="C129" t="n">
-        <v>0.06533310000000001</v>
+        <v>0.0650387</v>
       </c>
       <c r="D129" t="n">
-        <v>0.262117</v>
+        <v>0.261772</v>
       </c>
       <c r="E129" t="n">
-        <v>0.0467907</v>
+        <v>0.0466305</v>
       </c>
       <c r="F129" t="n">
-        <v>0.0700805</v>
+        <v>0.0703339</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0465529</v>
+        <v>0.0475596</v>
       </c>
       <c r="C130" t="n">
-        <v>0.0696871</v>
+        <v>0.06972589999999999</v>
       </c>
       <c r="D130" t="n">
-        <v>0.269312</v>
+        <v>0.26957</v>
       </c>
       <c r="E130" t="n">
-        <v>0.0479818</v>
+        <v>0.0479081</v>
       </c>
       <c r="F130" t="n">
-        <v>0.07227550000000001</v>
+        <v>0.07256029999999999</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0527919</v>
+        <v>0.0524782</v>
       </c>
       <c r="C131" t="n">
-        <v>0.0751077</v>
+        <v>0.07517939999999999</v>
       </c>
       <c r="D131" t="n">
-        <v>0.278039</v>
+        <v>0.277514</v>
       </c>
       <c r="E131" t="n">
-        <v>0.0494242</v>
+        <v>0.0494587</v>
       </c>
       <c r="F131" t="n">
-        <v>0.0747632</v>
+        <v>0.07498390000000001</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0590614</v>
+        <v>0.0585497</v>
       </c>
       <c r="C132" t="n">
-        <v>0.0818502</v>
+        <v>0.0815027</v>
       </c>
       <c r="D132" t="n">
-        <v>0.285872</v>
+        <v>0.286005</v>
       </c>
       <c r="E132" t="n">
-        <v>0.051548</v>
+        <v>0.0512765</v>
       </c>
       <c r="F132" t="n">
-        <v>0.0778035</v>
+        <v>0.07802630000000001</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.0687658</v>
+        <v>0.0684939</v>
       </c>
       <c r="C133" t="n">
-        <v>0.09033090000000001</v>
+        <v>0.0901642</v>
       </c>
       <c r="D133" t="n">
-        <v>0.294693</v>
+        <v>0.294089</v>
       </c>
       <c r="E133" t="n">
-        <v>0.054109</v>
+        <v>0.0539213</v>
       </c>
       <c r="F133" t="n">
-        <v>0.081452</v>
+        <v>0.0817485</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.0824826</v>
+        <v>0.0821127</v>
       </c>
       <c r="C134" t="n">
-        <v>0.101739</v>
+        <v>0.101762</v>
       </c>
       <c r="D134" t="n">
-        <v>0.303556</v>
+        <v>0.304016</v>
       </c>
       <c r="E134" t="n">
-        <v>0.057606</v>
+        <v>0.0576889</v>
       </c>
       <c r="F134" t="n">
-        <v>0.0864822</v>
+        <v>0.0867342</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.102236</v>
+        <v>0.102127</v>
       </c>
       <c r="C135" t="n">
-        <v>0.118168</v>
+        <v>0.117991</v>
       </c>
       <c r="D135" t="n">
-        <v>0.212597</v>
+        <v>0.212968</v>
       </c>
       <c r="E135" t="n">
-        <v>0.0633793</v>
+        <v>0.0631398</v>
       </c>
       <c r="F135" t="n">
-        <v>0.0935284</v>
+        <v>0.0940082</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.130582</v>
+        <v>0.130285</v>
       </c>
       <c r="C136" t="n">
-        <v>0.142527</v>
+        <v>0.142394</v>
       </c>
       <c r="D136" t="n">
-        <v>0.218627</v>
+        <v>0.219267</v>
       </c>
       <c r="E136" t="n">
-        <v>0.0725597</v>
+        <v>0.0725736</v>
       </c>
       <c r="F136" t="n">
-        <v>0.104598</v>
+        <v>0.105098</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.163628</v>
+        <v>0.164496</v>
       </c>
       <c r="C137" t="n">
-        <v>0.178176</v>
+        <v>0.178187</v>
       </c>
       <c r="D137" t="n">
-        <v>0.224808</v>
+        <v>0.225791</v>
       </c>
       <c r="E137" t="n">
-        <v>0.0589974</v>
+        <v>0.0592957</v>
       </c>
       <c r="F137" t="n">
-        <v>0.0786389</v>
+        <v>0.0793896</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0471309</v>
+        <v>0.0465705</v>
       </c>
       <c r="C138" t="n">
-        <v>0.065856</v>
+        <v>0.0656963</v>
       </c>
       <c r="D138" t="n">
-        <v>0.232074</v>
+        <v>0.232663</v>
       </c>
       <c r="E138" t="n">
-        <v>0.0608849</v>
+        <v>0.060016</v>
       </c>
       <c r="F138" t="n">
-        <v>0.08029210000000001</v>
+        <v>0.0809214</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0482982</v>
+        <v>0.0483688</v>
       </c>
       <c r="C139" t="n">
-        <v>0.06751740000000001</v>
+        <v>0.06757440000000001</v>
       </c>
       <c r="D139" t="n">
-        <v>0.23916</v>
+        <v>0.239581</v>
       </c>
       <c r="E139" t="n">
-        <v>0.0600938</v>
+        <v>0.0606531</v>
       </c>
       <c r="F139" t="n">
-        <v>0.0813233</v>
+        <v>0.0820912</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.04912</v>
+        <v>0.0496799</v>
       </c>
       <c r="C140" t="n">
-        <v>0.0693743</v>
+        <v>0.06945220000000001</v>
       </c>
       <c r="D140" t="n">
-        <v>0.246493</v>
+        <v>0.247378</v>
       </c>
       <c r="E140" t="n">
-        <v>0.0607663</v>
+        <v>0.0609999</v>
       </c>
       <c r="F140" t="n">
-        <v>0.082719</v>
+        <v>0.0834288</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0507248</v>
+        <v>0.0508073</v>
       </c>
       <c r="C141" t="n">
-        <v>0.0715558</v>
+        <v>0.0718931</v>
       </c>
       <c r="D141" t="n">
-        <v>0.254763</v>
+        <v>0.255193</v>
       </c>
       <c r="E141" t="n">
-        <v>0.061946</v>
+        <v>0.0620756</v>
       </c>
       <c r="F141" t="n">
-        <v>0.0847668</v>
+        <v>0.0849256</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.0531879</v>
+        <v>0.0532871</v>
       </c>
       <c r="C142" t="n">
-        <v>0.0743809</v>
+        <v>0.07424600000000001</v>
       </c>
       <c r="D142" t="n">
-        <v>0.262403</v>
+        <v>0.263434</v>
       </c>
       <c r="E142" t="n">
-        <v>0.06338630000000001</v>
+        <v>0.06292540000000001</v>
       </c>
       <c r="F142" t="n">
-        <v>0.0855035</v>
+        <v>0.0862733</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.0555798</v>
+        <v>0.0561472</v>
       </c>
       <c r="C143" t="n">
-        <v>0.0774687</v>
+        <v>0.077796</v>
       </c>
       <c r="D143" t="n">
-        <v>0.270398</v>
+        <v>0.272268</v>
       </c>
       <c r="E143" t="n">
-        <v>0.0640505</v>
+        <v>0.063837</v>
       </c>
       <c r="F143" t="n">
-        <v>0.08710329999999999</v>
+        <v>0.0878748</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered unsuccessful looukp.xlsx
+++ b/clang-arm64/Scattered unsuccessful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0193921</v>
+        <v>0.0173588</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0186471</v>
+        <v>0.0174954</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0651211</v>
+        <v>0.0611907</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0215684</v>
+        <v>0.0207818</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0213484</v>
+        <v>0.020762</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.020618</v>
+        <v>0.0186888</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0218034</v>
+        <v>0.0198533</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0764127</v>
+        <v>0.0683076</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0221425</v>
+        <v>0.021106</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0218909</v>
+        <v>0.0208938</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0263035</v>
+        <v>0.0235718</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0249392</v>
+        <v>0.0239012</v>
       </c>
       <c r="D4" t="n">
-        <v>0.07617649999999999</v>
+        <v>0.07255159999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0229772</v>
+        <v>0.0217946</v>
       </c>
       <c r="F4" t="n">
-        <v>0.023075</v>
+        <v>0.0214679</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0323933</v>
+        <v>0.0343134</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0400993</v>
+        <v>0.0347708</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0742215</v>
+        <v>0.07744810000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>0.024339</v>
+        <v>0.0228002</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0237757</v>
+        <v>0.0222379</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0449133</v>
+        <v>0.0465645</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0442192</v>
+        <v>0.0461361</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0845709</v>
+        <v>0.0750378</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0265505</v>
+        <v>0.0246249</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0256298</v>
+        <v>0.0235178</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0658818</v>
+        <v>0.0637795</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0617719</v>
+        <v>0.0632291</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0559362</v>
+        <v>0.0547532</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0304389</v>
+        <v>0.0290116</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0299406</v>
+        <v>0.0258927</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0882787</v>
+        <v>0.08661969999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0902507</v>
+        <v>0.08558590000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0635037</v>
+        <v>0.0592781</v>
       </c>
       <c r="E8" t="n">
-        <v>0.037888</v>
+        <v>0.0361087</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0380036</v>
+        <v>0.0311841</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.118697</v>
+        <v>0.116456</v>
       </c>
       <c r="C9" t="n">
-        <v>0.114995</v>
+        <v>0.110962</v>
       </c>
       <c r="D9" t="n">
-        <v>0.06752370000000001</v>
+        <v>0.0651747</v>
       </c>
       <c r="E9" t="n">
-        <v>0.019199</v>
+        <v>0.0188473</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0191674</v>
+        <v>0.0190926</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0162873</v>
+        <v>0.0163281</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0161849</v>
+        <v>0.0162387</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0675765</v>
+        <v>0.0681903</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0194519</v>
+        <v>0.0191695</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0193773</v>
+        <v>0.0192117</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.016551</v>
+        <v>0.0168344</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0165878</v>
+        <v>0.0167533</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0711338</v>
+        <v>0.0696808</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0197467</v>
+        <v>0.0193823</v>
       </c>
       <c r="F11" t="n">
-        <v>0.019672</v>
+        <v>0.0195097</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0170852</v>
+        <v>0.0174287</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0169578</v>
+        <v>0.0173908</v>
       </c>
       <c r="D12" t="n">
-        <v>0.07486429999999999</v>
+        <v>0.07468080000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0200974</v>
+        <v>0.0197072</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0201385</v>
+        <v>0.0197914</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0177161</v>
+        <v>0.0175716</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0178173</v>
+        <v>0.0177233</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0783652</v>
+        <v>0.0781804</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0203996</v>
+        <v>0.0201262</v>
       </c>
       <c r="F13" t="n">
-        <v>0.020303</v>
+        <v>0.0202259</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0180446</v>
+        <v>0.0180594</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0183742</v>
+        <v>0.0185998</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0817447</v>
+        <v>0.0815601</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0206951</v>
+        <v>0.0203539</v>
       </c>
       <c r="F14" t="n">
-        <v>0.020624</v>
+        <v>0.0202859</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0198239</v>
+        <v>0.0196454</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0197087</v>
+        <v>0.0192443</v>
       </c>
       <c r="D15" t="n">
-        <v>0.08310389999999999</v>
+        <v>0.08332870000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0212329</v>
+        <v>0.0208887</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0211459</v>
+        <v>0.0208794</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0218668</v>
+        <v>0.0212342</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0214985</v>
+        <v>0.0216019</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0876065</v>
+        <v>0.0880383</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0219412</v>
+        <v>0.0214607</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0218317</v>
+        <v>0.0213782</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0254473</v>
+        <v>0.024251</v>
       </c>
       <c r="C17" t="n">
-        <v>0.025924</v>
+        <v>0.0251513</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0922468</v>
+        <v>0.08644839999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0227317</v>
+        <v>0.0221077</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0225283</v>
+        <v>0.0218597</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0321027</v>
+        <v>0.0305879</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0309021</v>
+        <v>0.0291532</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0935482</v>
+        <v>0.0922038</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0235165</v>
+        <v>0.0229444</v>
       </c>
       <c r="F18" t="n">
-        <v>0.023215</v>
+        <v>0.0224341</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0408143</v>
+        <v>0.040506</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0403713</v>
+        <v>0.0388347</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0930976</v>
+        <v>0.095779</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0248624</v>
+        <v>0.0240543</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0244384</v>
+        <v>0.0235418</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0506906</v>
+        <v>0.051028</v>
       </c>
       <c r="C20" t="n">
-        <v>0.053136</v>
+        <v>0.0503113</v>
       </c>
       <c r="D20" t="n">
-        <v>0.09793350000000001</v>
+        <v>0.0987204</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0273377</v>
+        <v>0.0265435</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0268834</v>
+        <v>0.0253972</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.06947589999999999</v>
+        <v>0.0662803</v>
       </c>
       <c r="C21" t="n">
-        <v>0.06895179999999999</v>
+        <v>0.065035</v>
       </c>
       <c r="D21" t="n">
-        <v>0.06559</v>
+        <v>0.0649805</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0309656</v>
+        <v>0.0304416</v>
       </c>
       <c r="F21" t="n">
-        <v>0.030805</v>
+        <v>0.0285732</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.09165810000000001</v>
+        <v>0.09262040000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0938047</v>
+        <v>0.0884195</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0688617</v>
+        <v>0.0687271</v>
       </c>
       <c r="E22" t="n">
-        <v>0.039284</v>
+        <v>0.0402473</v>
       </c>
       <c r="F22" t="n">
-        <v>0.039488</v>
+        <v>0.0361827</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.12086</v>
+        <v>0.121817</v>
       </c>
       <c r="C23" t="n">
-        <v>0.120831</v>
+        <v>0.117727</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0720817</v>
+        <v>0.0717111</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0189961</v>
+        <v>0.0186541</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0188608</v>
+        <v>0.0187925</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0164095</v>
+        <v>0.0163929</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0162748</v>
+        <v>0.0163169</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0760073</v>
+        <v>0.0756236</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0192505</v>
+        <v>0.0189036</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0191287</v>
+        <v>0.0190311</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0169585</v>
+        <v>0.0168883</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0167885</v>
+        <v>0.0168584</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0798798</v>
+        <v>0.0795979</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0194386</v>
+        <v>0.0191072</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0193447</v>
+        <v>0.0192224</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0178776</v>
+        <v>0.0175916</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0175541</v>
+        <v>0.0175292</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0819307</v>
+        <v>0.0828406</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0196797</v>
+        <v>0.0193571</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0195872</v>
+        <v>0.0194553</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.018628</v>
+        <v>0.0182702</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0183243</v>
+        <v>0.0184525</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0855178</v>
+        <v>0.0857552</v>
       </c>
       <c r="E27" t="n">
-        <v>0.020071</v>
+        <v>0.0197557</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0199798</v>
+        <v>0.0198131</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0204023</v>
+        <v>0.0197048</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0198278</v>
+        <v>0.0197554</v>
       </c>
       <c r="D28" t="n">
-        <v>0.08837680000000001</v>
+        <v>0.0887348</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0205075</v>
+        <v>0.0201353</v>
       </c>
       <c r="F28" t="n">
-        <v>0.020382</v>
+        <v>0.0201355</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0226629</v>
+        <v>0.0213392</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0221165</v>
+        <v>0.0217285</v>
       </c>
       <c r="D29" t="n">
-        <v>0.09076190000000001</v>
+        <v>0.0906064</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0212009</v>
+        <v>0.0207197</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0210324</v>
+        <v>0.0207412</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0254525</v>
+        <v>0.0242727</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0250608</v>
+        <v>0.0241402</v>
       </c>
       <c r="D30" t="n">
-        <v>0.09438340000000001</v>
+        <v>0.0936109</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0217353</v>
+        <v>0.021321</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0216515</v>
+        <v>0.0212529</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0298213</v>
+        <v>0.0278453</v>
       </c>
       <c r="C31" t="n">
-        <v>0.029972</v>
+        <v>0.0279819</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0972643</v>
+        <v>0.0960292</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0226093</v>
+        <v>0.0221711</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0224072</v>
+        <v>0.0219866</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.036106</v>
+        <v>0.0349519</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0363934</v>
+        <v>0.0333305</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0986947</v>
+        <v>0.0972715</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0235648</v>
+        <v>0.0231566</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0233654</v>
+        <v>0.0228415</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0440745</v>
+        <v>0.0424621</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0430802</v>
+        <v>0.0417673</v>
       </c>
       <c r="D33" t="n">
-        <v>0.10026</v>
+        <v>0.0994921</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0249615</v>
+        <v>0.0245596</v>
       </c>
       <c r="F33" t="n">
-        <v>0.024737</v>
+        <v>0.0240349</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0561342</v>
+        <v>0.054635</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0548774</v>
+        <v>0.0530289</v>
       </c>
       <c r="D34" t="n">
-        <v>0.102641</v>
+        <v>0.101481</v>
       </c>
       <c r="E34" t="n">
-        <v>0.027374</v>
+        <v>0.0271417</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0273187</v>
+        <v>0.0264514</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.071795</v>
+        <v>0.0710697</v>
       </c>
       <c r="C35" t="n">
-        <v>0.07086969999999999</v>
+        <v>0.0692363</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0693397</v>
+        <v>0.0693507</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0311926</v>
+        <v>0.031493</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0311931</v>
+        <v>0.0302272</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.09422079999999999</v>
+        <v>0.091058</v>
       </c>
       <c r="C36" t="n">
-        <v>0.09481299999999999</v>
+        <v>0.09171600000000001</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0723775</v>
+        <v>0.0727169</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0378414</v>
+        <v>0.0391793</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0381778</v>
+        <v>0.0368313</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.120452</v>
+        <v>0.119063</v>
       </c>
       <c r="C37" t="n">
-        <v>0.121287</v>
+        <v>0.11857</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0756555</v>
+        <v>0.07520979999999999</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0194256</v>
+        <v>0.0193077</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0194562</v>
+        <v>0.019392</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0171413</v>
+        <v>0.0171511</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0170702</v>
+        <v>0.0171801</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0793841</v>
+        <v>0.078318</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0197583</v>
+        <v>0.0196586</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0197826</v>
+        <v>0.0197009</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0177468</v>
+        <v>0.0178522</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0177177</v>
+        <v>0.0179264</v>
       </c>
       <c r="D39" t="n">
-        <v>0.08290989999999999</v>
+        <v>0.0822383</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0200972</v>
+        <v>0.0199911</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0201021</v>
+        <v>0.019942</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0187144</v>
+        <v>0.0186594</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0186241</v>
+        <v>0.0189336</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0859959</v>
+        <v>0.0864297</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0204109</v>
+        <v>0.0202216</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0204636</v>
+        <v>0.020285</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0200622</v>
+        <v>0.0198715</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0197243</v>
+        <v>0.0203093</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0890005</v>
+        <v>0.0887054</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0207591</v>
+        <v>0.0206348</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0207786</v>
+        <v>0.0206385</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0219765</v>
+        <v>0.0215368</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0215504</v>
+        <v>0.0220957</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0921848</v>
+        <v>0.09219810000000001</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0211956</v>
+        <v>0.0210637</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0212001</v>
+        <v>0.021074</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0246508</v>
+        <v>0.024069</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0237497</v>
+        <v>0.0245399</v>
       </c>
       <c r="D43" t="n">
-        <v>0.09515129999999999</v>
+        <v>0.09435739999999999</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0217942</v>
+        <v>0.0215759</v>
       </c>
       <c r="F43" t="n">
-        <v>0.021836</v>
+        <v>0.0215934</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0284382</v>
+        <v>0.0274292</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0270054</v>
+        <v>0.0275678</v>
       </c>
       <c r="D44" t="n">
-        <v>0.097174</v>
+        <v>0.0963258</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0225308</v>
+        <v>0.0223642</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0226352</v>
+        <v>0.0223479</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0326313</v>
+        <v>0.0321462</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0317255</v>
+        <v>0.0317681</v>
       </c>
       <c r="D45" t="n">
-        <v>0.099564</v>
+        <v>0.09945329999999999</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0233512</v>
+        <v>0.0232755</v>
       </c>
       <c r="F45" t="n">
-        <v>0.023419</v>
+        <v>0.0231032</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0383704</v>
+        <v>0.0377929</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0374348</v>
+        <v>0.0379845</v>
       </c>
       <c r="D46" t="n">
-        <v>0.101999</v>
+        <v>0.101216</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0245701</v>
+        <v>0.0244918</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0246073</v>
+        <v>0.0243156</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0459481</v>
+        <v>0.0455621</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0440827</v>
+        <v>0.0449681</v>
       </c>
       <c r="D47" t="n">
-        <v>0.104099</v>
+        <v>0.103714</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0261002</v>
+        <v>0.0260687</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0261741</v>
+        <v>0.0258118</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.057032</v>
+        <v>0.0560636</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0556613</v>
+        <v>0.0553029</v>
       </c>
       <c r="D48" t="n">
-        <v>0.106553</v>
+        <v>0.105787</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0287808</v>
+        <v>0.0288689</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0288264</v>
+        <v>0.0283543</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0705218</v>
+        <v>0.06996960000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>0.06965730000000001</v>
+        <v>0.0694738</v>
       </c>
       <c r="D49" t="n">
-        <v>0.108721</v>
+        <v>0.108562</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0323138</v>
+        <v>0.0327672</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0324916</v>
+        <v>0.0318591</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.09185260000000001</v>
+        <v>0.0901165</v>
       </c>
       <c r="C50" t="n">
-        <v>0.09092359999999999</v>
+        <v>0.08996609999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>0.07556499999999999</v>
+        <v>0.0757239</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0382581</v>
+        <v>0.0390327</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0384712</v>
+        <v>0.0378065</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.116607</v>
+        <v>0.116684</v>
       </c>
       <c r="C51" t="n">
-        <v>0.118591</v>
+        <v>0.117145</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0790884</v>
+        <v>0.07887950000000001</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0204735</v>
+        <v>0.0203536</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0204761</v>
+        <v>0.0204122</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.142549</v>
+        <v>0.143014</v>
       </c>
       <c r="C52" t="n">
-        <v>0.143182</v>
+        <v>0.143415</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0827669</v>
+        <v>0.0823175</v>
       </c>
       <c r="E52" t="n">
-        <v>0.020735</v>
+        <v>0.0206381</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0207501</v>
+        <v>0.0207255</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0190122</v>
+        <v>0.0190429</v>
       </c>
       <c r="C53" t="n">
-        <v>0.018924</v>
+        <v>0.0190955</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0863516</v>
+        <v>0.0858534</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0210508</v>
+        <v>0.0209344</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0211446</v>
+        <v>0.0210107</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0203591</v>
+        <v>0.0202618</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0199103</v>
+        <v>0.020302</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0894914</v>
+        <v>0.0895118</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0213765</v>
+        <v>0.0213015</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0214243</v>
+        <v>0.0213822</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0218336</v>
+        <v>0.0218501</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0214253</v>
+        <v>0.021791</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0937707</v>
+        <v>0.09260400000000001</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0217619</v>
+        <v>0.0217029</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0218284</v>
+        <v>0.0217454</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0239355</v>
+        <v>0.0236896</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0233444</v>
+        <v>0.0236399</v>
       </c>
       <c r="D56" t="n">
-        <v>0.09633220000000001</v>
+        <v>0.09577040000000001</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0222242</v>
+        <v>0.022214</v>
       </c>
       <c r="F56" t="n">
-        <v>0.022363</v>
+        <v>0.0222517</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0263712</v>
+        <v>0.0263866</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0258938</v>
+        <v>0.0261485</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0987913</v>
+        <v>0.0992405</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0228002</v>
+        <v>0.0227323</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0228464</v>
+        <v>0.0227604</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0297518</v>
+        <v>0.0301995</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0293701</v>
+        <v>0.0296696</v>
       </c>
       <c r="D58" t="n">
-        <v>0.102741</v>
+        <v>0.102111</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0234287</v>
+        <v>0.023406</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0236149</v>
+        <v>0.0234353</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0341056</v>
+        <v>0.0343733</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0335721</v>
+        <v>0.0337839</v>
       </c>
       <c r="D59" t="n">
-        <v>0.104289</v>
+        <v>0.104182</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0243463</v>
+        <v>0.0242964</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0244278</v>
+        <v>0.0242856</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0397462</v>
+        <v>0.0398112</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0394424</v>
+        <v>0.0392447</v>
       </c>
       <c r="D60" t="n">
-        <v>0.107621</v>
+        <v>0.106853</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0256516</v>
+        <v>0.025709</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0257151</v>
+        <v>0.0256213</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0469187</v>
+        <v>0.0468086</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0469272</v>
+        <v>0.046935</v>
       </c>
       <c r="D61" t="n">
-        <v>0.109695</v>
+        <v>0.109264</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0273995</v>
+        <v>0.0274728</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0274599</v>
+        <v>0.0273371</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.056764</v>
+        <v>0.0568036</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0566263</v>
+        <v>0.0570448</v>
       </c>
       <c r="D62" t="n">
-        <v>0.111102</v>
+        <v>0.111265</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0299676</v>
+        <v>0.0301265</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0300871</v>
+        <v>0.0299253</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0700862</v>
+        <v>0.0705582</v>
       </c>
       <c r="C63" t="n">
-        <v>0.07079779999999999</v>
+        <v>0.07138269999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>0.117279</v>
+        <v>0.114893</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0338032</v>
+        <v>0.0342475</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0340411</v>
+        <v>0.0338044</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.08950139999999999</v>
+        <v>0.09040280000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0901092</v>
+        <v>0.0908997</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0810985</v>
+        <v>0.0795833</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0399663</v>
+        <v>0.0403014</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0403834</v>
+        <v>0.0398643</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.114579</v>
+        <v>0.115296</v>
       </c>
       <c r="C65" t="n">
-        <v>0.116232</v>
+        <v>0.117447</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0862299</v>
+        <v>0.0852856</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0508814</v>
+        <v>0.0512582</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0513471</v>
+        <v>0.0507752</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.146011</v>
+        <v>0.145844</v>
       </c>
       <c r="C66" t="n">
-        <v>0.147167</v>
+        <v>0.147417</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0901192</v>
+        <v>0.0900516</v>
       </c>
       <c r="E66" t="n">
-        <v>0.021015</v>
+        <v>0.021038</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0210611</v>
+        <v>0.0210636</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0196827</v>
+        <v>0.0197735</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0195891</v>
+        <v>0.0199295</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0958891</v>
+        <v>0.0944692</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0213736</v>
+        <v>0.0213531</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0214012</v>
+        <v>0.0214102</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0210043</v>
+        <v>0.0211093</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0209604</v>
+        <v>0.0210405</v>
       </c>
       <c r="D68" t="n">
-        <v>0.100875</v>
+        <v>0.09979689999999999</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0216872</v>
+        <v>0.021736</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0217405</v>
+        <v>0.0217734</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0227553</v>
+        <v>0.0228314</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0225167</v>
+        <v>0.0227593</v>
       </c>
       <c r="D69" t="n">
-        <v>0.10523</v>
+        <v>0.105212</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0220352</v>
+        <v>0.0220397</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0220833</v>
+        <v>0.0221038</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0245665</v>
+        <v>0.0248196</v>
       </c>
       <c r="C70" t="n">
-        <v>0.024636</v>
+        <v>0.024938</v>
       </c>
       <c r="D70" t="n">
-        <v>0.111795</v>
+        <v>0.108533</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0224802</v>
+        <v>0.0225013</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0225525</v>
+        <v>0.0226461</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.027391</v>
+        <v>0.0274349</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0268421</v>
+        <v>0.0272967</v>
       </c>
       <c r="D71" t="n">
-        <v>0.115617</v>
+        <v>0.114329</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0230233</v>
+        <v>0.023121</v>
       </c>
       <c r="F71" t="n">
-        <v>0.023081</v>
+        <v>0.0232218</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0306565</v>
+        <v>0.0307995</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0301264</v>
+        <v>0.0303304</v>
       </c>
       <c r="D72" t="n">
-        <v>0.119828</v>
+        <v>0.119864</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0238197</v>
+        <v>0.0238953</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0238651</v>
+        <v>0.023976</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0345612</v>
+        <v>0.0345873</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0343956</v>
+        <v>0.0343646</v>
       </c>
       <c r="D73" t="n">
-        <v>0.12519</v>
+        <v>0.123395</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0247535</v>
+        <v>0.024775</v>
       </c>
       <c r="F73" t="n">
-        <v>0.024777</v>
+        <v>0.0249339</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0399292</v>
+        <v>0.0400089</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0394395</v>
+        <v>0.0391368</v>
       </c>
       <c r="D74" t="n">
-        <v>0.131924</v>
+        <v>0.131417</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0258309</v>
+        <v>0.0259235</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0260074</v>
+        <v>0.0261574</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0467449</v>
+        <v>0.0467348</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0464104</v>
+        <v>0.0463819</v>
       </c>
       <c r="D75" t="n">
-        <v>0.135437</v>
+        <v>0.1353</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0275913</v>
+        <v>0.0277478</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0277357</v>
+        <v>0.0278459</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0563424</v>
+        <v>0.05576</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0557607</v>
+        <v>0.0557719</v>
       </c>
       <c r="D76" t="n">
-        <v>0.140617</v>
+        <v>0.139711</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0300138</v>
+        <v>0.0302897</v>
       </c>
       <c r="F76" t="n">
-        <v>0.030224</v>
+        <v>0.0304032</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0692763</v>
+        <v>0.0685108</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0688764</v>
+        <v>0.06904970000000001</v>
       </c>
       <c r="D77" t="n">
-        <v>0.147474</v>
+        <v>0.146387</v>
       </c>
       <c r="E77" t="n">
-        <v>0.033718</v>
+        <v>0.0341323</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0341281</v>
+        <v>0.0342149</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0872874</v>
+        <v>0.08707670000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0875397</v>
+        <v>0.0875605</v>
       </c>
       <c r="D78" t="n">
-        <v>0.110139</v>
+        <v>0.110734</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0394789</v>
+        <v>0.0398324</v>
       </c>
       <c r="F78" t="n">
-        <v>0.039898</v>
+        <v>0.0400315</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.111582</v>
+        <v>0.111984</v>
       </c>
       <c r="C79" t="n">
-        <v>0.112531</v>
+        <v>0.112772</v>
       </c>
       <c r="D79" t="n">
-        <v>0.121269</v>
+        <v>0.118009</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0492263</v>
+        <v>0.0496982</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0495261</v>
+        <v>0.0497665</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.143639</v>
+        <v>0.143055</v>
       </c>
       <c r="C80" t="n">
-        <v>0.143794</v>
+        <v>0.144289</v>
       </c>
       <c r="D80" t="n">
-        <v>0.125326</v>
+        <v>0.124947</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0212785</v>
+        <v>0.0212605</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0218031</v>
+        <v>0.0217914</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.020281</v>
+        <v>0.0201759</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0201123</v>
+        <v>0.0202905</v>
       </c>
       <c r="D81" t="n">
-        <v>0.134418</v>
+        <v>0.132843</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0216399</v>
+        <v>0.021594</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0223031</v>
+        <v>0.0221438</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0213587</v>
+        <v>0.0215226</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0218663</v>
+        <v>0.0217798</v>
       </c>
       <c r="D82" t="n">
-        <v>0.143541</v>
+        <v>0.139514</v>
       </c>
       <c r="E82" t="n">
-        <v>0.022039</v>
+        <v>0.0220021</v>
       </c>
       <c r="F82" t="n">
-        <v>0.0231573</v>
+        <v>0.0228204</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0229456</v>
+        <v>0.0230052</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0231395</v>
+        <v>0.0231663</v>
       </c>
       <c r="D83" t="n">
-        <v>0.151115</v>
+        <v>0.146676</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0224322</v>
+        <v>0.022451</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0237331</v>
+        <v>0.0237277</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0247706</v>
+        <v>0.024925</v>
       </c>
       <c r="C84" t="n">
-        <v>0.025173</v>
+        <v>0.0252518</v>
       </c>
       <c r="D84" t="n">
-        <v>0.156752</v>
+        <v>0.154259</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0229647</v>
+        <v>0.0229146</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0245643</v>
+        <v>0.0245375</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0275588</v>
+        <v>0.0275171</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0279864</v>
+        <v>0.0277751</v>
       </c>
       <c r="D85" t="n">
-        <v>0.161516</v>
+        <v>0.161632</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0236027</v>
+        <v>0.0235815</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0259733</v>
+        <v>0.0256877</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0302908</v>
+        <v>0.0304896</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0308174</v>
+        <v>0.031193</v>
       </c>
       <c r="D86" t="n">
-        <v>0.17028</v>
+        <v>0.168994</v>
       </c>
       <c r="E86" t="n">
-        <v>0.0244762</v>
+        <v>0.0244469</v>
       </c>
       <c r="F86" t="n">
-        <v>0.0268836</v>
+        <v>0.0269664</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0342801</v>
+        <v>0.0343382</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0348105</v>
+        <v>0.0347064</v>
       </c>
       <c r="D87" t="n">
-        <v>0.180825</v>
+        <v>0.175761</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0254823</v>
+        <v>0.0254928</v>
       </c>
       <c r="F87" t="n">
-        <v>0.0284036</v>
+        <v>0.0286138</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0392986</v>
+        <v>0.0392377</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0395328</v>
+        <v>0.0395868</v>
       </c>
       <c r="D88" t="n">
-        <v>0.182283</v>
+        <v>0.183193</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0267595</v>
+        <v>0.0268895</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0301789</v>
+        <v>0.0302345</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0459011</v>
+        <v>0.0456925</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0459677</v>
+        <v>0.0461258</v>
       </c>
       <c r="D89" t="n">
-        <v>0.193123</v>
+        <v>0.190332</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0283939</v>
+        <v>0.0285695</v>
       </c>
       <c r="F89" t="n">
-        <v>0.03203</v>
+        <v>0.0321969</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.054482</v>
+        <v>0.0545828</v>
       </c>
       <c r="C90" t="n">
-        <v>0.054831</v>
+        <v>0.0544153</v>
       </c>
       <c r="D90" t="n">
-        <v>0.198804</v>
+        <v>0.197927</v>
       </c>
       <c r="E90" t="n">
-        <v>0.0308088</v>
+        <v>0.0310459</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0348003</v>
+        <v>0.0348121</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.06651650000000001</v>
+        <v>0.0668135</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0668122</v>
+        <v>0.0670526</v>
       </c>
       <c r="D91" t="n">
-        <v>0.207925</v>
+        <v>0.206032</v>
       </c>
       <c r="E91" t="n">
-        <v>0.034144</v>
+        <v>0.0343815</v>
       </c>
       <c r="F91" t="n">
-        <v>0.0382636</v>
+        <v>0.0382943</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0835526</v>
+        <v>0.0837828</v>
       </c>
       <c r="C92" t="n">
-        <v>0.08425920000000001</v>
+        <v>0.0846635</v>
       </c>
       <c r="D92" t="n">
-        <v>0.156239</v>
+        <v>0.155293</v>
       </c>
       <c r="E92" t="n">
-        <v>0.0392969</v>
+        <v>0.0394744</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0438451</v>
+        <v>0.0437008</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.107487</v>
+        <v>0.107518</v>
       </c>
       <c r="C93" t="n">
-        <v>0.108763</v>
+        <v>0.108737</v>
       </c>
       <c r="D93" t="n">
-        <v>0.163923</v>
+        <v>0.161429</v>
       </c>
       <c r="E93" t="n">
-        <v>0.0481543</v>
+        <v>0.0482468</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0535145</v>
+        <v>0.0537662</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.138296</v>
+        <v>0.137281</v>
       </c>
       <c r="C94" t="n">
-        <v>0.13957</v>
+        <v>0.139506</v>
       </c>
       <c r="D94" t="n">
-        <v>0.167816</v>
+        <v>0.167976</v>
       </c>
       <c r="E94" t="n">
-        <v>0.0230102</v>
+        <v>0.0231198</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0283301</v>
+        <v>0.0283777</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0211004</v>
+        <v>0.0206075</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0246706</v>
+        <v>0.0246227</v>
       </c>
       <c r="D95" t="n">
-        <v>0.176707</v>
+        <v>0.174652</v>
       </c>
       <c r="E95" t="n">
-        <v>0.0234709</v>
+        <v>0.0235739</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0295818</v>
+        <v>0.029693</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0218996</v>
+        <v>0.0218602</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0263776</v>
+        <v>0.0262111</v>
       </c>
       <c r="D96" t="n">
-        <v>0.182879</v>
+        <v>0.181282</v>
       </c>
       <c r="E96" t="n">
-        <v>0.0239962</v>
+        <v>0.0240596</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0314223</v>
+        <v>0.031474</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.023416</v>
+        <v>0.0236551</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0294247</v>
+        <v>0.0290958</v>
       </c>
       <c r="D97" t="n">
-        <v>0.190234</v>
+        <v>0.187716</v>
       </c>
       <c r="E97" t="n">
-        <v>0.0246296</v>
+        <v>0.0247657</v>
       </c>
       <c r="F97" t="n">
-        <v>0.0345996</v>
+        <v>0.0343917</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0253312</v>
+        <v>0.0250634</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0329781</v>
+        <v>0.0325208</v>
       </c>
       <c r="D98" t="n">
-        <v>0.194777</v>
+        <v>0.195709</v>
       </c>
       <c r="E98" t="n">
-        <v>0.0254916</v>
+        <v>0.0255882</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0383183</v>
+        <v>0.0383197</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0271447</v>
+        <v>0.027571</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0379096</v>
+        <v>0.0376098</v>
       </c>
       <c r="D99" t="n">
-        <v>0.204823</v>
+        <v>0.202643</v>
       </c>
       <c r="E99" t="n">
-        <v>0.0268811</v>
+        <v>0.0270965</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0426534</v>
+        <v>0.0429432</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0303647</v>
+        <v>0.030505</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0439735</v>
+        <v>0.0438227</v>
       </c>
       <c r="D100" t="n">
-        <v>0.212582</v>
+        <v>0.210638</v>
       </c>
       <c r="E100" t="n">
-        <v>0.0290289</v>
+        <v>0.0291988</v>
       </c>
       <c r="F100" t="n">
-        <v>0.0467389</v>
+        <v>0.0472074</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0344804</v>
+        <v>0.0350163</v>
       </c>
       <c r="C101" t="n">
-        <v>0.049874</v>
+        <v>0.0494948</v>
       </c>
       <c r="D101" t="n">
-        <v>0.219687</v>
+        <v>0.217651</v>
       </c>
       <c r="E101" t="n">
-        <v>0.0319421</v>
+        <v>0.0320499</v>
       </c>
       <c r="F101" t="n">
-        <v>0.0507136</v>
+        <v>0.0509986</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.039691</v>
+        <v>0.0400024</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0556005</v>
+        <v>0.0558043</v>
       </c>
       <c r="D102" t="n">
-        <v>0.227683</v>
+        <v>0.225019</v>
       </c>
       <c r="E102" t="n">
-        <v>0.0350408</v>
+        <v>0.0350771</v>
       </c>
       <c r="F102" t="n">
-        <v>0.0540343</v>
+        <v>0.0543266</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.046215</v>
+        <v>0.0463686</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0619463</v>
+        <v>0.0617077</v>
       </c>
       <c r="D103" t="n">
-        <v>0.234811</v>
+        <v>0.2328</v>
       </c>
       <c r="E103" t="n">
-        <v>0.0383281</v>
+        <v>0.0383303</v>
       </c>
       <c r="F103" t="n">
-        <v>0.0573311</v>
+        <v>0.0576331</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0541473</v>
+        <v>0.0545425</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0689983</v>
+        <v>0.06883690000000001</v>
       </c>
       <c r="D104" t="n">
-        <v>0.243525</v>
+        <v>0.241819</v>
       </c>
       <c r="E104" t="n">
-        <v>0.0415427</v>
+        <v>0.0414892</v>
       </c>
       <c r="F104" t="n">
-        <v>0.0607456</v>
+        <v>0.0609084</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0654028</v>
+        <v>0.0652673</v>
       </c>
       <c r="C105" t="n">
-        <v>0.078289</v>
+        <v>0.0780739</v>
       </c>
       <c r="D105" t="n">
-        <v>0.252271</v>
+        <v>0.250229</v>
       </c>
       <c r="E105" t="n">
-        <v>0.0446478</v>
+        <v>0.0450573</v>
       </c>
       <c r="F105" t="n">
-        <v>0.06443500000000001</v>
+        <v>0.0647828</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0810232</v>
+        <v>0.0808714</v>
       </c>
       <c r="C106" t="n">
-        <v>0.091019</v>
+        <v>0.0906672</v>
       </c>
       <c r="D106" t="n">
-        <v>0.262135</v>
+        <v>0.260084</v>
       </c>
       <c r="E106" t="n">
-        <v>0.0489929</v>
+        <v>0.0492195</v>
       </c>
       <c r="F106" t="n">
-        <v>0.0704224</v>
+        <v>0.06972250000000001</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.102845</v>
+        <v>0.103076</v>
       </c>
       <c r="C107" t="n">
-        <v>0.1096</v>
+        <v>0.109545</v>
       </c>
       <c r="D107" t="n">
-        <v>0.190932</v>
+        <v>0.189618</v>
       </c>
       <c r="E107" t="n">
-        <v>0.0556547</v>
+        <v>0.0557528</v>
       </c>
       <c r="F107" t="n">
-        <v>0.07683329999999999</v>
+        <v>0.0769552</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.132617</v>
+        <v>0.132107</v>
       </c>
       <c r="C108" t="n">
-        <v>0.136481</v>
+        <v>0.136223</v>
       </c>
       <c r="D108" t="n">
-        <v>0.19874</v>
+        <v>0.195821</v>
       </c>
       <c r="E108" t="n">
-        <v>0.0351601</v>
+        <v>0.0353056</v>
       </c>
       <c r="F108" t="n">
-        <v>0.0515045</v>
+        <v>0.0514534</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.168021</v>
+        <v>0.16767</v>
       </c>
       <c r="C109" t="n">
-        <v>0.17219</v>
+        <v>0.172667</v>
       </c>
       <c r="D109" t="n">
-        <v>0.203793</v>
+        <v>0.202778</v>
       </c>
       <c r="E109" t="n">
-        <v>0.036178</v>
+        <v>0.0362059</v>
       </c>
       <c r="F109" t="n">
-        <v>0.0528525</v>
+        <v>0.0529637</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.031487</v>
+        <v>0.0312384</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0470141</v>
+        <v>0.0467123</v>
       </c>
       <c r="D110" t="n">
-        <v>0.211789</v>
+        <v>0.209572</v>
       </c>
       <c r="E110" t="n">
-        <v>0.0370797</v>
+        <v>0.0371739</v>
       </c>
       <c r="F110" t="n">
-        <v>0.0543075</v>
+        <v>0.0543556</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0328896</v>
+        <v>0.0323388</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0490185</v>
+        <v>0.0488108</v>
       </c>
       <c r="D111" t="n">
-        <v>0.217334</v>
+        <v>0.217092</v>
       </c>
       <c r="E111" t="n">
-        <v>0.0378829</v>
+        <v>0.0380319</v>
       </c>
       <c r="F111" t="n">
-        <v>0.0557337</v>
+        <v>0.055724</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0342325</v>
+        <v>0.0346225</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0507457</v>
+        <v>0.0506774</v>
       </c>
       <c r="D112" t="n">
-        <v>0.225225</v>
+        <v>0.224472</v>
       </c>
       <c r="E112" t="n">
-        <v>0.0386958</v>
+        <v>0.0388195</v>
       </c>
       <c r="F112" t="n">
-        <v>0.0571167</v>
+        <v>0.0571372</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0361657</v>
+        <v>0.0360399</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0532522</v>
+        <v>0.0530778</v>
       </c>
       <c r="D113" t="n">
-        <v>0.233621</v>
+        <v>0.231317</v>
       </c>
       <c r="E113" t="n">
-        <v>0.039647</v>
+        <v>0.0396311</v>
       </c>
       <c r="F113" t="n">
-        <v>0.0587627</v>
+        <v>0.0585458</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0383906</v>
+        <v>0.0383143</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0560578</v>
+        <v>0.0561766</v>
       </c>
       <c r="D114" t="n">
-        <v>0.242221</v>
+        <v>0.239017</v>
       </c>
       <c r="E114" t="n">
-        <v>0.0405658</v>
+        <v>0.0406744</v>
       </c>
       <c r="F114" t="n">
-        <v>0.0603238</v>
+        <v>0.0603163</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.040929</v>
+        <v>0.0406576</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0593512</v>
+        <v>0.059338</v>
       </c>
       <c r="D115" t="n">
-        <v>0.247876</v>
+        <v>0.247491</v>
       </c>
       <c r="E115" t="n">
-        <v>0.0418052</v>
+        <v>0.0418208</v>
       </c>
       <c r="F115" t="n">
-        <v>0.0620963</v>
+        <v>0.0620622</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.0442441</v>
+        <v>0.0441193</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0631478</v>
+        <v>0.06314160000000001</v>
       </c>
       <c r="D116" t="n">
-        <v>0.256535</v>
+        <v>0.255313</v>
       </c>
       <c r="E116" t="n">
-        <v>0.0430108</v>
+        <v>0.0431598</v>
       </c>
       <c r="F116" t="n">
-        <v>0.0639692</v>
+        <v>0.0641769</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.0487765</v>
+        <v>0.0487786</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0679352</v>
+        <v>0.06816800000000001</v>
       </c>
       <c r="D117" t="n">
-        <v>0.264912</v>
+        <v>0.262507</v>
       </c>
       <c r="E117" t="n">
-        <v>0.0445312</v>
+        <v>0.0446111</v>
       </c>
       <c r="F117" t="n">
-        <v>0.06634900000000001</v>
+        <v>0.0665033</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.0553593</v>
+        <v>0.0554412</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0742525</v>
+        <v>0.074576</v>
       </c>
       <c r="D118" t="n">
-        <v>0.273086</v>
+        <v>0.272158</v>
       </c>
       <c r="E118" t="n">
-        <v>0.0465129</v>
+        <v>0.0465528</v>
       </c>
       <c r="F118" t="n">
-        <v>0.0692691</v>
+        <v>0.0697045</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.06492299999999999</v>
+        <v>0.0651026</v>
       </c>
       <c r="C119" t="n">
-        <v>0.0829809</v>
+        <v>0.08306429999999999</v>
       </c>
       <c r="D119" t="n">
-        <v>0.281599</v>
+        <v>0.282269</v>
       </c>
       <c r="E119" t="n">
-        <v>0.0490687</v>
+        <v>0.0490361</v>
       </c>
       <c r="F119" t="n">
-        <v>0.0728111</v>
+        <v>0.07294680000000001</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.079196</v>
+        <v>0.07955230000000001</v>
       </c>
       <c r="C120" t="n">
-        <v>0.0946695</v>
+        <v>0.0947431</v>
       </c>
       <c r="D120" t="n">
-        <v>0.290415</v>
+        <v>0.290259</v>
       </c>
       <c r="E120" t="n">
-        <v>0.0526222</v>
+        <v>0.052869</v>
       </c>
       <c r="F120" t="n">
-        <v>0.077516</v>
+        <v>0.0778305</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.100099</v>
+        <v>0.100477</v>
       </c>
       <c r="C121" t="n">
-        <v>0.111426</v>
+        <v>0.111713</v>
       </c>
       <c r="D121" t="n">
-        <v>0.206756</v>
+        <v>0.205904</v>
       </c>
       <c r="E121" t="n">
-        <v>0.0582512</v>
+        <v>0.0584712</v>
       </c>
       <c r="F121" t="n">
-        <v>0.0847875</v>
+        <v>0.08497680000000001</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.128392</v>
+        <v>0.128542</v>
       </c>
       <c r="C122" t="n">
-        <v>0.135993</v>
+        <v>0.136134</v>
       </c>
       <c r="D122" t="n">
-        <v>0.212364</v>
+        <v>0.212362</v>
       </c>
       <c r="E122" t="n">
-        <v>0.06793680000000001</v>
+        <v>0.0682347</v>
       </c>
       <c r="F122" t="n">
-        <v>0.0960468</v>
+        <v>0.0961554</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.16413</v>
+        <v>0.163369</v>
       </c>
       <c r="C123" t="n">
-        <v>0.169873</v>
+        <v>0.171096</v>
       </c>
       <c r="D123" t="n">
-        <v>0.218516</v>
+        <v>0.217996</v>
       </c>
       <c r="E123" t="n">
-        <v>0.040944</v>
+        <v>0.0417051</v>
       </c>
       <c r="F123" t="n">
-        <v>0.0602957</v>
+        <v>0.0604952</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.0340874</v>
+        <v>0.0342146</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0512027</v>
+        <v>0.0524054</v>
       </c>
       <c r="D124" t="n">
-        <v>0.224991</v>
+        <v>0.225482</v>
       </c>
       <c r="E124" t="n">
-        <v>0.0419828</v>
+        <v>0.042542</v>
       </c>
       <c r="F124" t="n">
-        <v>0.0617134</v>
+        <v>0.0618458</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.0357014</v>
+        <v>0.0353183</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0529638</v>
+        <v>0.0541208</v>
       </c>
       <c r="D125" t="n">
-        <v>0.232495</v>
+        <v>0.232619</v>
       </c>
       <c r="E125" t="n">
-        <v>0.0428353</v>
+        <v>0.0433375</v>
       </c>
       <c r="F125" t="n">
-        <v>0.0631791</v>
+        <v>0.06348189999999999</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.0366147</v>
+        <v>0.0366217</v>
       </c>
       <c r="C126" t="n">
-        <v>0.055234</v>
+        <v>0.0563665</v>
       </c>
       <c r="D126" t="n">
-        <v>0.239296</v>
+        <v>0.239943</v>
       </c>
       <c r="E126" t="n">
-        <v>0.0436027</v>
+        <v>0.0441782</v>
       </c>
       <c r="F126" t="n">
-        <v>0.06495629999999999</v>
+        <v>0.06503630000000001</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.0385755</v>
+        <v>0.0383642</v>
       </c>
       <c r="C127" t="n">
-        <v>0.0587982</v>
+        <v>0.0590757</v>
       </c>
       <c r="D127" t="n">
-        <v>0.246483</v>
+        <v>0.247617</v>
       </c>
       <c r="E127" t="n">
-        <v>0.0445843</v>
+        <v>0.0450419</v>
       </c>
       <c r="F127" t="n">
-        <v>0.06639299999999999</v>
+        <v>0.0665726</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0407353</v>
+        <v>0.0406821</v>
       </c>
       <c r="C128" t="n">
-        <v>0.0615995</v>
+        <v>0.0620373</v>
       </c>
       <c r="D128" t="n">
-        <v>0.254062</v>
+        <v>0.255315</v>
       </c>
       <c r="E128" t="n">
-        <v>0.04556</v>
+        <v>0.0460654</v>
       </c>
       <c r="F128" t="n">
-        <v>0.0681887</v>
+        <v>0.0683375</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0431985</v>
+        <v>0.0433736</v>
       </c>
       <c r="C129" t="n">
-        <v>0.06533310000000001</v>
+        <v>0.0656981</v>
       </c>
       <c r="D129" t="n">
-        <v>0.262117</v>
+        <v>0.26319</v>
       </c>
       <c r="E129" t="n">
-        <v>0.0467907</v>
+        <v>0.0472016</v>
       </c>
       <c r="F129" t="n">
-        <v>0.0700805</v>
+        <v>0.0703115</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0465529</v>
+        <v>0.0464665</v>
       </c>
       <c r="C130" t="n">
-        <v>0.0696871</v>
+        <v>0.0700113</v>
       </c>
       <c r="D130" t="n">
-        <v>0.269312</v>
+        <v>0.271306</v>
       </c>
       <c r="E130" t="n">
-        <v>0.0479818</v>
+        <v>0.048408</v>
       </c>
       <c r="F130" t="n">
-        <v>0.07227550000000001</v>
+        <v>0.0725445</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0527919</v>
+        <v>0.0510019</v>
       </c>
       <c r="C131" t="n">
-        <v>0.0751077</v>
+        <v>0.0752322</v>
       </c>
       <c r="D131" t="n">
-        <v>0.278039</v>
+        <v>0.278869</v>
       </c>
       <c r="E131" t="n">
-        <v>0.0494242</v>
+        <v>0.0499363</v>
       </c>
       <c r="F131" t="n">
-        <v>0.0747632</v>
+        <v>0.0749132</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0590614</v>
+        <v>0.059042</v>
       </c>
       <c r="C132" t="n">
-        <v>0.0818502</v>
+        <v>0.0819298</v>
       </c>
       <c r="D132" t="n">
-        <v>0.285872</v>
+        <v>0.2873</v>
       </c>
       <c r="E132" t="n">
-        <v>0.051548</v>
+        <v>0.0519861</v>
       </c>
       <c r="F132" t="n">
-        <v>0.0778035</v>
+        <v>0.0778552</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.0687658</v>
+        <v>0.06809659999999999</v>
       </c>
       <c r="C133" t="n">
-        <v>0.09033090000000001</v>
+        <v>0.0906206</v>
       </c>
       <c r="D133" t="n">
-        <v>0.294693</v>
+        <v>0.2954</v>
       </c>
       <c r="E133" t="n">
-        <v>0.054109</v>
+        <v>0.0545539</v>
       </c>
       <c r="F133" t="n">
-        <v>0.081452</v>
+        <v>0.08152619999999999</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.0824826</v>
+        <v>0.0819542</v>
       </c>
       <c r="C134" t="n">
-        <v>0.101739</v>
+        <v>0.102283</v>
       </c>
       <c r="D134" t="n">
-        <v>0.303556</v>
+        <v>0.305067</v>
       </c>
       <c r="E134" t="n">
-        <v>0.057606</v>
+        <v>0.0583062</v>
       </c>
       <c r="F134" t="n">
-        <v>0.0864822</v>
+        <v>0.08663460000000001</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.102236</v>
+        <v>0.10214</v>
       </c>
       <c r="C135" t="n">
-        <v>0.118168</v>
+        <v>0.118608</v>
       </c>
       <c r="D135" t="n">
-        <v>0.212597</v>
+        <v>0.213973</v>
       </c>
       <c r="E135" t="n">
-        <v>0.0633793</v>
+        <v>0.06379360000000001</v>
       </c>
       <c r="F135" t="n">
-        <v>0.0935284</v>
+        <v>0.09389740000000001</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.130582</v>
+        <v>0.129315</v>
       </c>
       <c r="C136" t="n">
-        <v>0.142527</v>
+        <v>0.142921</v>
       </c>
       <c r="D136" t="n">
-        <v>0.218627</v>
+        <v>0.219889</v>
       </c>
       <c r="E136" t="n">
-        <v>0.0725597</v>
+        <v>0.0731595</v>
       </c>
       <c r="F136" t="n">
-        <v>0.104598</v>
+        <v>0.105119</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.163628</v>
+        <v>0.163563</v>
       </c>
       <c r="C137" t="n">
-        <v>0.178176</v>
+        <v>0.178738</v>
       </c>
       <c r="D137" t="n">
-        <v>0.224808</v>
+        <v>0.226247</v>
       </c>
       <c r="E137" t="n">
-        <v>0.0589974</v>
+        <v>0.0588391</v>
       </c>
       <c r="F137" t="n">
-        <v>0.0786389</v>
+        <v>0.0792056</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0471309</v>
+        <v>0.046798</v>
       </c>
       <c r="C138" t="n">
-        <v>0.065856</v>
+        <v>0.06551129999999999</v>
       </c>
       <c r="D138" t="n">
-        <v>0.232074</v>
+        <v>0.233379</v>
       </c>
       <c r="E138" t="n">
-        <v>0.0608849</v>
+        <v>0.0599359</v>
       </c>
       <c r="F138" t="n">
-        <v>0.08029210000000001</v>
+        <v>0.08040890000000001</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0482982</v>
+        <v>0.0481398</v>
       </c>
       <c r="C139" t="n">
-        <v>0.06751740000000001</v>
+        <v>0.0671534</v>
       </c>
       <c r="D139" t="n">
-        <v>0.23916</v>
+        <v>0.240505</v>
       </c>
       <c r="E139" t="n">
-        <v>0.0600938</v>
+        <v>0.0602968</v>
       </c>
       <c r="F139" t="n">
-        <v>0.0813233</v>
+        <v>0.0817597</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.04912</v>
+        <v>0.0493031</v>
       </c>
       <c r="C140" t="n">
-        <v>0.0693743</v>
+        <v>0.0690103</v>
       </c>
       <c r="D140" t="n">
-        <v>0.246493</v>
+        <v>0.248057</v>
       </c>
       <c r="E140" t="n">
-        <v>0.0607663</v>
+        <v>0.0613614</v>
       </c>
       <c r="F140" t="n">
-        <v>0.082719</v>
+        <v>0.0830526</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0507248</v>
+        <v>0.0506068</v>
       </c>
       <c r="C141" t="n">
-        <v>0.0715558</v>
+        <v>0.0714234</v>
       </c>
       <c r="D141" t="n">
-        <v>0.254763</v>
+        <v>0.255257</v>
       </c>
       <c r="E141" t="n">
-        <v>0.061946</v>
+        <v>0.0623069</v>
       </c>
       <c r="F141" t="n">
-        <v>0.0847668</v>
+        <v>0.08433740000000001</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.0531879</v>
+        <v>0.0527165</v>
       </c>
       <c r="C142" t="n">
-        <v>0.0743809</v>
+        <v>0.07387000000000001</v>
       </c>
       <c r="D142" t="n">
-        <v>0.262403</v>
+        <v>0.263358</v>
       </c>
       <c r="E142" t="n">
-        <v>0.06338630000000001</v>
+        <v>0.0628156</v>
       </c>
       <c r="F142" t="n">
-        <v>0.0855035</v>
+        <v>0.0859423</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.0555798</v>
+        <v>0.056188</v>
       </c>
       <c r="C143" t="n">
-        <v>0.0774687</v>
+        <v>0.0772463</v>
       </c>
       <c r="D143" t="n">
-        <v>0.270398</v>
+        <v>0.271096</v>
       </c>
       <c r="E143" t="n">
-        <v>0.0640505</v>
+        <v>0.0637394</v>
       </c>
       <c r="F143" t="n">
-        <v>0.08710329999999999</v>
+        <v>0.0873086</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered unsuccessful looukp.xlsx
+++ b/clang-arm64/Scattered unsuccessful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0173588</v>
+        <v>0.016438</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0174954</v>
+        <v>0.018211</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0611907</v>
+        <v>0.0333325</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0207818</v>
+        <v>0.0208104</v>
       </c>
       <c r="F2" t="n">
-        <v>0.020762</v>
+        <v>0.0205877</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0186888</v>
+        <v>0.018816</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0198533</v>
+        <v>0.0195163</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0683076</v>
+        <v>0.0431045</v>
       </c>
       <c r="E3" t="n">
-        <v>0.021106</v>
+        <v>0.0209658</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0208938</v>
+        <v>0.0208191</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0235718</v>
+        <v>0.024573</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0239012</v>
+        <v>0.0238554</v>
       </c>
       <c r="D4" t="n">
-        <v>0.07255159999999999</v>
+        <v>0.0447415</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0217946</v>
+        <v>0.0214158</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0214679</v>
+        <v>0.0214276</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0343134</v>
+        <v>0.0317803</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0347708</v>
+        <v>0.0334152</v>
       </c>
       <c r="D5" t="n">
-        <v>0.07744810000000001</v>
+        <v>0.0518779</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0228002</v>
+        <v>0.0221932</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0222379</v>
+        <v>0.0220174</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0465645</v>
+        <v>0.0517997</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0461361</v>
+        <v>0.0481629</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0750378</v>
+        <v>0.0594964</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0246249</v>
+        <v>0.0231893</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0235178</v>
+        <v>0.0230128</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0637795</v>
+        <v>0.067686</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0632291</v>
+        <v>0.0649395</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0547532</v>
+        <v>0.0415008</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0290116</v>
+        <v>0.0260458</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0258927</v>
+        <v>0.0253204</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.08661969999999999</v>
+        <v>0.0926017</v>
       </c>
       <c r="C8" t="n">
-        <v>0.08558590000000001</v>
+        <v>0.0926859</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0592781</v>
+        <v>0.0438424</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0361087</v>
+        <v>0.0320035</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0311841</v>
+        <v>0.0305462</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.116456</v>
+        <v>0.111843</v>
       </c>
       <c r="C9" t="n">
-        <v>0.110962</v>
+        <v>0.113164</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0651747</v>
+        <v>0.0494623</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0188473</v>
+        <v>0.0189102</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0190926</v>
+        <v>0.0189628</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0163281</v>
+        <v>0.0163384</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0162387</v>
+        <v>0.016511</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0681903</v>
+        <v>0.0523496</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0191695</v>
+        <v>0.0192006</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0192117</v>
+        <v>0.0192235</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0168344</v>
+        <v>0.0167526</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0167533</v>
+        <v>0.0169173</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0696808</v>
+        <v>0.0539472</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0193823</v>
+        <v>0.019481</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0195097</v>
+        <v>0.0194745</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0174287</v>
+        <v>0.0171181</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0173908</v>
+        <v>0.0172374</v>
       </c>
       <c r="D12" t="n">
-        <v>0.07468080000000001</v>
+        <v>0.0541462</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0197072</v>
+        <v>0.0198148</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0197914</v>
+        <v>0.0197234</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0175716</v>
+        <v>0.017531</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0177233</v>
+        <v>0.0178869</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0781804</v>
+        <v>0.0605969</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0201262</v>
+        <v>0.0201152</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0202259</v>
+        <v>0.0199815</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0180594</v>
+        <v>0.0180537</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0185998</v>
+        <v>0.0187827</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0815601</v>
+        <v>0.0669564</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0203539</v>
+        <v>0.0203185</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0202859</v>
+        <v>0.0202121</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0196454</v>
+        <v>0.0188759</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0192443</v>
+        <v>0.0198711</v>
       </c>
       <c r="D15" t="n">
-        <v>0.08332870000000001</v>
+        <v>0.0716614</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0208887</v>
+        <v>0.0208125</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0208794</v>
+        <v>0.0206726</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0212342</v>
+        <v>0.0221102</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0216019</v>
+        <v>0.0222186</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0880383</v>
+        <v>0.0742695</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0214607</v>
+        <v>0.0213086</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0213782</v>
+        <v>0.0211526</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.024251</v>
+        <v>0.0255524</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0251513</v>
+        <v>0.0250892</v>
       </c>
       <c r="D17" t="n">
-        <v>0.08644839999999999</v>
+        <v>0.0798507</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0221077</v>
+        <v>0.0219042</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0218597</v>
+        <v>0.0219585</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0305879</v>
+        <v>0.032219</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0291532</v>
+        <v>0.0313859</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0922038</v>
+        <v>0.0805502</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0229444</v>
+        <v>0.0224016</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0224341</v>
+        <v>0.0224025</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.040506</v>
+        <v>0.0392116</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0388347</v>
+        <v>0.0411605</v>
       </c>
       <c r="D19" t="n">
-        <v>0.095779</v>
+        <v>0.0858271</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0240543</v>
+        <v>0.0235177</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0235418</v>
+        <v>0.0234524</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.051028</v>
+        <v>0.0536653</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0503113</v>
+        <v>0.0539736</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0987204</v>
+        <v>0.0857227</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0265435</v>
+        <v>0.0253588</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0253972</v>
+        <v>0.0250289</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0662803</v>
+        <v>0.0740029</v>
       </c>
       <c r="C21" t="n">
-        <v>0.065035</v>
+        <v>0.0741426</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0649805</v>
+        <v>0.0566286</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0304416</v>
+        <v>0.0282434</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0285732</v>
+        <v>0.0282522</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.09262040000000001</v>
+        <v>0.09585680000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0884195</v>
+        <v>0.092791</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0687271</v>
+        <v>0.0602712</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0402473</v>
+        <v>0.0362123</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0361827</v>
+        <v>0.0357799</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.121817</v>
+        <v>0.119263</v>
       </c>
       <c r="C23" t="n">
-        <v>0.117727</v>
+        <v>0.120509</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0717111</v>
+        <v>0.06289930000000001</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0186541</v>
+        <v>0.018751</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0187925</v>
+        <v>0.0187576</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0163929</v>
+        <v>0.0166841</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0163169</v>
+        <v>0.0166255</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0756236</v>
+        <v>0.0680018</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0189036</v>
+        <v>0.0189687</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0190311</v>
+        <v>0.018993</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0168883</v>
+        <v>0.0172675</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0168584</v>
+        <v>0.0173418</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0795979</v>
+        <v>0.0702299</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0191072</v>
+        <v>0.0191433</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0192224</v>
+        <v>0.0192131</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0175916</v>
+        <v>0.0178595</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0175292</v>
+        <v>0.017935</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0828406</v>
+        <v>0.0761377</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0193571</v>
+        <v>0.0193849</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0194553</v>
+        <v>0.0194607</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0182702</v>
+        <v>0.0186087</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0184525</v>
+        <v>0.0187668</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0857552</v>
+        <v>0.0779647</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0197557</v>
+        <v>0.0197655</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0198131</v>
+        <v>0.0197494</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0197048</v>
+        <v>0.0197164</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0197554</v>
+        <v>0.0204086</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0887348</v>
+        <v>0.0825369</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0201353</v>
+        <v>0.0200924</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0201355</v>
+        <v>0.0201238</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0213392</v>
+        <v>0.0212407</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0217285</v>
+        <v>0.0218841</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0906064</v>
+        <v>0.0864668</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0207197</v>
+        <v>0.0207213</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0207412</v>
+        <v>0.0206714</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0242727</v>
+        <v>0.0245765</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0241402</v>
+        <v>0.0246301</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0936109</v>
+        <v>0.0888863</v>
       </c>
       <c r="E30" t="n">
-        <v>0.021321</v>
+        <v>0.0212019</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0212529</v>
+        <v>0.0211483</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0278453</v>
+        <v>0.0291556</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0279819</v>
+        <v>0.0292257</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0960292</v>
+        <v>0.0912784</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0221711</v>
+        <v>0.0218553</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0219866</v>
+        <v>0.021884</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0349519</v>
+        <v>0.034787</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0333305</v>
+        <v>0.0346855</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0972715</v>
+        <v>0.0931456</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0231566</v>
+        <v>0.0227409</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0228415</v>
+        <v>0.0227797</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0424621</v>
+        <v>0.0439497</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0417673</v>
+        <v>0.0433867</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0994921</v>
+        <v>0.0924059</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0245596</v>
+        <v>0.0239392</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0240349</v>
+        <v>0.0239372</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.054635</v>
+        <v>0.0550643</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0530289</v>
+        <v>0.0533711</v>
       </c>
       <c r="D34" t="n">
-        <v>0.101481</v>
+        <v>0.09827370000000001</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0271417</v>
+        <v>0.0261628</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0264514</v>
+        <v>0.0260357</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0710697</v>
+        <v>0.07117759999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0692363</v>
+        <v>0.06998500000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0693507</v>
+        <v>0.0648384</v>
       </c>
       <c r="E35" t="n">
-        <v>0.031493</v>
+        <v>0.0296742</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0302272</v>
+        <v>0.0298982</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.091058</v>
+        <v>0.0928432</v>
       </c>
       <c r="C36" t="n">
-        <v>0.09171600000000001</v>
+        <v>0.09261750000000001</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0727169</v>
+        <v>0.06936920000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0391793</v>
+        <v>0.0368714</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0368313</v>
+        <v>0.0368815</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.119063</v>
+        <v>0.119963</v>
       </c>
       <c r="C37" t="n">
-        <v>0.11857</v>
+        <v>0.119776</v>
       </c>
       <c r="D37" t="n">
-        <v>0.07520979999999999</v>
+        <v>0.07426240000000001</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0193077</v>
+        <v>0.0192921</v>
       </c>
       <c r="F37" t="n">
-        <v>0.019392</v>
+        <v>0.0193633</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0171511</v>
+        <v>0.0171043</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0171801</v>
+        <v>0.017128</v>
       </c>
       <c r="D38" t="n">
-        <v>0.078318</v>
+        <v>0.0751946</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0196586</v>
+        <v>0.0196576</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0197009</v>
+        <v>0.0196787</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0178522</v>
+        <v>0.0178291</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0179264</v>
+        <v>0.0178921</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0822383</v>
+        <v>0.07922659999999999</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0199911</v>
+        <v>0.0199001</v>
       </c>
       <c r="F39" t="n">
-        <v>0.019942</v>
+        <v>0.0199574</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0186594</v>
+        <v>0.0187036</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0189336</v>
+        <v>0.0188437</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0864297</v>
+        <v>0.0825429</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0202216</v>
+        <v>0.0201804</v>
       </c>
       <c r="F40" t="n">
-        <v>0.020285</v>
+        <v>0.0202601</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0198715</v>
+        <v>0.0200095</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0203093</v>
+        <v>0.0202721</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0887054</v>
+        <v>0.08658689999999999</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0206348</v>
+        <v>0.0205177</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0206385</v>
+        <v>0.0206014</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0215368</v>
+        <v>0.0218674</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0220957</v>
+        <v>0.0217747</v>
       </c>
       <c r="D42" t="n">
-        <v>0.09219810000000001</v>
+        <v>0.0888196</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0210637</v>
+        <v>0.020978</v>
       </c>
       <c r="F42" t="n">
-        <v>0.021074</v>
+        <v>0.0210447</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.024069</v>
+        <v>0.0241048</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0245399</v>
+        <v>0.0239988</v>
       </c>
       <c r="D43" t="n">
-        <v>0.09435739999999999</v>
+        <v>0.093179</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0215759</v>
+        <v>0.0215355</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0215934</v>
+        <v>0.0216271</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0274292</v>
+        <v>0.0274049</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0275678</v>
+        <v>0.0272636</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0963258</v>
+        <v>0.095857</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0223642</v>
+        <v>0.0222328</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0223479</v>
+        <v>0.0222943</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0321462</v>
+        <v>0.0316994</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0317681</v>
+        <v>0.0309019</v>
       </c>
       <c r="D45" t="n">
-        <v>0.09945329999999999</v>
+        <v>0.0988348</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0232755</v>
+        <v>0.023049</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0231032</v>
+        <v>0.0230333</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0377929</v>
+        <v>0.0376204</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0379845</v>
+        <v>0.0368094</v>
       </c>
       <c r="D46" t="n">
-        <v>0.101216</v>
+        <v>0.100043</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0244918</v>
+        <v>0.0242496</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0243156</v>
+        <v>0.0241825</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0455621</v>
+        <v>0.0448893</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0449681</v>
+        <v>0.0452987</v>
       </c>
       <c r="D47" t="n">
-        <v>0.103714</v>
+        <v>0.101464</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0260687</v>
+        <v>0.0257052</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0258118</v>
+        <v>0.0256162</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0560636</v>
+        <v>0.0554276</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0553029</v>
+        <v>0.0554863</v>
       </c>
       <c r="D48" t="n">
-        <v>0.105787</v>
+        <v>0.10538</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0288689</v>
+        <v>0.0282232</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0283543</v>
+        <v>0.0282354</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.06996960000000001</v>
+        <v>0.0699312</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0694738</v>
+        <v>0.07058159999999999</v>
       </c>
       <c r="D49" t="n">
-        <v>0.108562</v>
+        <v>0.107542</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0327672</v>
+        <v>0.0317373</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0318591</v>
+        <v>0.0318846</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0901165</v>
+        <v>0.0903311</v>
       </c>
       <c r="C50" t="n">
-        <v>0.08996609999999999</v>
+        <v>0.0906771</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0757239</v>
+        <v>0.0749084</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0390327</v>
+        <v>0.0375322</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0378065</v>
+        <v>0.0379677</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.116684</v>
+        <v>0.117892</v>
       </c>
       <c r="C51" t="n">
-        <v>0.117145</v>
+        <v>0.118012</v>
       </c>
       <c r="D51" t="n">
-        <v>0.07887950000000001</v>
+        <v>0.0772326</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0203536</v>
+        <v>0.0203716</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0204122</v>
+        <v>0.0203835</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.143014</v>
+        <v>0.142818</v>
       </c>
       <c r="C52" t="n">
-        <v>0.143415</v>
+        <v>0.143523</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0823175</v>
+        <v>0.08056389999999999</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0206381</v>
+        <v>0.020668</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0207255</v>
+        <v>0.0206619</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0190429</v>
+        <v>0.0191068</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0190955</v>
+        <v>0.0193515</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0858534</v>
+        <v>0.0844351</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0209344</v>
+        <v>0.0209814</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0210107</v>
+        <v>0.0210296</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0202618</v>
+        <v>0.0204249</v>
       </c>
       <c r="C54" t="n">
-        <v>0.020302</v>
+        <v>0.0204025</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0895118</v>
+        <v>0.0889046</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0213015</v>
+        <v>0.0212855</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0213822</v>
+        <v>0.0213069</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0218501</v>
+        <v>0.0216799</v>
       </c>
       <c r="C55" t="n">
-        <v>0.021791</v>
+        <v>0.021786</v>
       </c>
       <c r="D55" t="n">
-        <v>0.09260400000000001</v>
+        <v>0.09199300000000001</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0217029</v>
+        <v>0.0216785</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0217454</v>
+        <v>0.0217033</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0236896</v>
+        <v>0.0239452</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0236399</v>
+        <v>0.0237407</v>
       </c>
       <c r="D56" t="n">
-        <v>0.09577040000000001</v>
+        <v>0.0956559</v>
       </c>
       <c r="E56" t="n">
-        <v>0.022214</v>
+        <v>0.0221604</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0222517</v>
+        <v>0.0221763</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0263866</v>
+        <v>0.026708</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0261485</v>
+        <v>0.0262933</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0992405</v>
+        <v>0.0989255</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0227323</v>
+        <v>0.022683</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0227604</v>
+        <v>0.022703</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0301995</v>
+        <v>0.0300697</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0296696</v>
+        <v>0.0298511</v>
       </c>
       <c r="D58" t="n">
-        <v>0.102111</v>
+        <v>0.100722</v>
       </c>
       <c r="E58" t="n">
-        <v>0.023406</v>
+        <v>0.0233216</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0234353</v>
+        <v>0.0233539</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0343733</v>
+        <v>0.0347879</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0337839</v>
+        <v>0.0342191</v>
       </c>
       <c r="D59" t="n">
-        <v>0.104182</v>
+        <v>0.10491</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0242964</v>
+        <v>0.0241751</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0242856</v>
+        <v>0.0242578</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0398112</v>
+        <v>0.0403074</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0392447</v>
+        <v>0.0395891</v>
       </c>
       <c r="D60" t="n">
-        <v>0.106853</v>
+        <v>0.106294</v>
       </c>
       <c r="E60" t="n">
-        <v>0.025709</v>
+        <v>0.0255169</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0256213</v>
+        <v>0.0255734</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0468086</v>
+        <v>0.046521</v>
       </c>
       <c r="C61" t="n">
-        <v>0.046935</v>
+        <v>0.0467611</v>
       </c>
       <c r="D61" t="n">
-        <v>0.109264</v>
+        <v>0.110309</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0274728</v>
+        <v>0.027247</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0273371</v>
+        <v>0.0273067</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0568036</v>
+        <v>0.0575927</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0570448</v>
+        <v>0.0570186</v>
       </c>
       <c r="D62" t="n">
-        <v>0.111265</v>
+        <v>0.112841</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0301265</v>
+        <v>0.0298558</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0299253</v>
+        <v>0.0298496</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0705582</v>
+        <v>0.0712766</v>
       </c>
       <c r="C63" t="n">
-        <v>0.07138269999999999</v>
+        <v>0.0705976</v>
       </c>
       <c r="D63" t="n">
-        <v>0.114893</v>
+        <v>0.115338</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0342475</v>
+        <v>0.0336521</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0338044</v>
+        <v>0.0336877</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.09040280000000001</v>
+        <v>0.09083479999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0908997</v>
+        <v>0.090416</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0795833</v>
+        <v>0.0808813</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0403014</v>
+        <v>0.0396068</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0398643</v>
+        <v>0.0399081</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.115296</v>
+        <v>0.116906</v>
       </c>
       <c r="C65" t="n">
-        <v>0.117447</v>
+        <v>0.116583</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0852856</v>
+        <v>0.0848646</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0512582</v>
+        <v>0.0506216</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0507752</v>
+        <v>0.0509054</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.145844</v>
+        <v>0.148157</v>
       </c>
       <c r="C66" t="n">
-        <v>0.147417</v>
+        <v>0.148189</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0900516</v>
+        <v>0.0898757</v>
       </c>
       <c r="E66" t="n">
-        <v>0.021038</v>
+        <v>0.0210126</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0210636</v>
+        <v>0.0210335</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0197735</v>
+        <v>0.0198636</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0199295</v>
+        <v>0.0198123</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0944692</v>
+        <v>0.0943765</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0213531</v>
+        <v>0.0213941</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0214102</v>
+        <v>0.0213711</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0211093</v>
+        <v>0.0212185</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0210405</v>
+        <v>0.0213238</v>
       </c>
       <c r="D68" t="n">
-        <v>0.09979689999999999</v>
+        <v>0.0987459</v>
       </c>
       <c r="E68" t="n">
-        <v>0.021736</v>
+        <v>0.0217014</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0217734</v>
+        <v>0.0217042</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0228314</v>
+        <v>0.0229635</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0227593</v>
+        <v>0.02258</v>
       </c>
       <c r="D69" t="n">
-        <v>0.105212</v>
+        <v>0.10324</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0220397</v>
+        <v>0.0220509</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0221038</v>
+        <v>0.0220529</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0248196</v>
+        <v>0.0248825</v>
       </c>
       <c r="C70" t="n">
-        <v>0.024938</v>
+        <v>0.0247074</v>
       </c>
       <c r="D70" t="n">
-        <v>0.108533</v>
+        <v>0.109493</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0225013</v>
+        <v>0.0225492</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0226461</v>
+        <v>0.0225562</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0274349</v>
+        <v>0.0275829</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0272967</v>
+        <v>0.0273707</v>
       </c>
       <c r="D71" t="n">
-        <v>0.114329</v>
+        <v>0.113113</v>
       </c>
       <c r="E71" t="n">
-        <v>0.023121</v>
+        <v>0.0230364</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0232218</v>
+        <v>0.0230913</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0307995</v>
+        <v>0.0306937</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0303304</v>
+        <v>0.0303204</v>
       </c>
       <c r="D72" t="n">
-        <v>0.119864</v>
+        <v>0.119424</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0238953</v>
+        <v>0.0237782</v>
       </c>
       <c r="F72" t="n">
-        <v>0.023976</v>
+        <v>0.0239147</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0345873</v>
+        <v>0.0350315</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0343646</v>
+        <v>0.0347098</v>
       </c>
       <c r="D73" t="n">
-        <v>0.123395</v>
+        <v>0.123849</v>
       </c>
       <c r="E73" t="n">
-        <v>0.024775</v>
+        <v>0.0246565</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0249339</v>
+        <v>0.0247687</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0400089</v>
+        <v>0.0404079</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0391368</v>
+        <v>0.0400002</v>
       </c>
       <c r="D74" t="n">
-        <v>0.131417</v>
+        <v>0.129682</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0259235</v>
+        <v>0.0258836</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0261574</v>
+        <v>0.0259787</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0467348</v>
+        <v>0.0470503</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0463819</v>
+        <v>0.0466404</v>
       </c>
       <c r="D75" t="n">
-        <v>0.1353</v>
+        <v>0.134732</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0277478</v>
+        <v>0.0276054</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0278459</v>
+        <v>0.0278855</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.05576</v>
+        <v>0.056483</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0557719</v>
+        <v>0.0562887</v>
       </c>
       <c r="D76" t="n">
-        <v>0.139711</v>
+        <v>0.140752</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0302897</v>
+        <v>0.0301429</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0304032</v>
+        <v>0.0303921</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0685108</v>
+        <v>0.06964289999999999</v>
       </c>
       <c r="C77" t="n">
-        <v>0.06904970000000001</v>
+        <v>0.06911150000000001</v>
       </c>
       <c r="D77" t="n">
-        <v>0.146387</v>
+        <v>0.146785</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0341323</v>
+        <v>0.0339272</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0342149</v>
+        <v>0.0340815</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.08707670000000001</v>
+        <v>0.0880071</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0875605</v>
+        <v>0.0874138</v>
       </c>
       <c r="D78" t="n">
-        <v>0.110734</v>
+        <v>0.111003</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0398324</v>
+        <v>0.0396174</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0400315</v>
+        <v>0.0398257</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.111984</v>
+        <v>0.112938</v>
       </c>
       <c r="C79" t="n">
-        <v>0.112772</v>
+        <v>0.112459</v>
       </c>
       <c r="D79" t="n">
-        <v>0.118009</v>
+        <v>0.118808</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0496982</v>
+        <v>0.0494472</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0497665</v>
+        <v>0.0496072</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.143055</v>
+        <v>0.145116</v>
       </c>
       <c r="C80" t="n">
-        <v>0.144289</v>
+        <v>0.14415</v>
       </c>
       <c r="D80" t="n">
-        <v>0.124947</v>
+        <v>0.125039</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0212605</v>
+        <v>0.0212474</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0217914</v>
+        <v>0.021784</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0201759</v>
+        <v>0.020055</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0202905</v>
+        <v>0.0203793</v>
       </c>
       <c r="D81" t="n">
-        <v>0.132843</v>
+        <v>0.132187</v>
       </c>
       <c r="E81" t="n">
-        <v>0.021594</v>
+        <v>0.0215976</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0221438</v>
+        <v>0.0222781</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0215226</v>
+        <v>0.0216796</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0217798</v>
+        <v>0.0216825</v>
       </c>
       <c r="D82" t="n">
-        <v>0.139514</v>
+        <v>0.139561</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0220021</v>
+        <v>0.0220206</v>
       </c>
       <c r="F82" t="n">
-        <v>0.0228204</v>
+        <v>0.0228948</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0230052</v>
+        <v>0.0233095</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0231663</v>
+        <v>0.0236831</v>
       </c>
       <c r="D83" t="n">
-        <v>0.146676</v>
+        <v>0.147126</v>
       </c>
       <c r="E83" t="n">
-        <v>0.022451</v>
+        <v>0.0224895</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0237277</v>
+        <v>0.0237436</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.024925</v>
+        <v>0.0252098</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0252518</v>
+        <v>0.025463</v>
       </c>
       <c r="D84" t="n">
-        <v>0.154259</v>
+        <v>0.154499</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0229146</v>
+        <v>0.0229841</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0245375</v>
+        <v>0.0243555</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0275171</v>
+        <v>0.0277778</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0277751</v>
+        <v>0.0281771</v>
       </c>
       <c r="D85" t="n">
-        <v>0.161632</v>
+        <v>0.161916</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0235815</v>
+        <v>0.0235819</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0256877</v>
+        <v>0.025493</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0304896</v>
+        <v>0.0308751</v>
       </c>
       <c r="C86" t="n">
-        <v>0.031193</v>
+        <v>0.0311022</v>
       </c>
       <c r="D86" t="n">
-        <v>0.168994</v>
+        <v>0.168828</v>
       </c>
       <c r="E86" t="n">
-        <v>0.0244469</v>
+        <v>0.0243989</v>
       </c>
       <c r="F86" t="n">
-        <v>0.0269664</v>
+        <v>0.0268308</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0343382</v>
+        <v>0.0344316</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0347064</v>
+        <v>0.0354252</v>
       </c>
       <c r="D87" t="n">
-        <v>0.175761</v>
+        <v>0.176034</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0254928</v>
+        <v>0.0254385</v>
       </c>
       <c r="F87" t="n">
-        <v>0.0286138</v>
+        <v>0.0283113</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0392377</v>
+        <v>0.0395165</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0395868</v>
+        <v>0.0401039</v>
       </c>
       <c r="D88" t="n">
-        <v>0.183193</v>
+        <v>0.182946</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0268895</v>
+        <v>0.0268365</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0302345</v>
+        <v>0.030114</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0456925</v>
+        <v>0.046023</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0461258</v>
+        <v>0.0464793</v>
       </c>
       <c r="D89" t="n">
-        <v>0.190332</v>
+        <v>0.190735</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0285695</v>
+        <v>0.0285274</v>
       </c>
       <c r="F89" t="n">
-        <v>0.0321969</v>
+        <v>0.0321034</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0545828</v>
+        <v>0.0551011</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0544153</v>
+        <v>0.0553825</v>
       </c>
       <c r="D90" t="n">
-        <v>0.197927</v>
+        <v>0.199368</v>
       </c>
       <c r="E90" t="n">
-        <v>0.0310459</v>
+        <v>0.0309601</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0348121</v>
+        <v>0.034816</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0668135</v>
+        <v>0.06717049999999999</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0670526</v>
+        <v>0.0675395</v>
       </c>
       <c r="D91" t="n">
-        <v>0.206032</v>
+        <v>0.20672</v>
       </c>
       <c r="E91" t="n">
-        <v>0.0343815</v>
+        <v>0.0344119</v>
       </c>
       <c r="F91" t="n">
-        <v>0.0382943</v>
+        <v>0.0381858</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0837828</v>
+        <v>0.0843983</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0846635</v>
+        <v>0.0852345</v>
       </c>
       <c r="D92" t="n">
-        <v>0.155293</v>
+        <v>0.155984</v>
       </c>
       <c r="E92" t="n">
-        <v>0.0394744</v>
+        <v>0.0394907</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0437008</v>
+        <v>0.043819</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.107518</v>
+        <v>0.107863</v>
       </c>
       <c r="C93" t="n">
-        <v>0.108737</v>
+        <v>0.108939</v>
       </c>
       <c r="D93" t="n">
-        <v>0.161429</v>
+        <v>0.163277</v>
       </c>
       <c r="E93" t="n">
-        <v>0.0482468</v>
+        <v>0.0483511</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0537662</v>
+        <v>0.0545873</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.137281</v>
+        <v>0.139065</v>
       </c>
       <c r="C94" t="n">
-        <v>0.139506</v>
+        <v>0.140019</v>
       </c>
       <c r="D94" t="n">
-        <v>0.167976</v>
+        <v>0.168051</v>
       </c>
       <c r="E94" t="n">
-        <v>0.0231198</v>
+        <v>0.0230835</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0283777</v>
+        <v>0.0284794</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0206075</v>
+        <v>0.0205768</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0246227</v>
+        <v>0.0254435</v>
       </c>
       <c r="D95" t="n">
-        <v>0.174652</v>
+        <v>0.174687</v>
       </c>
       <c r="E95" t="n">
-        <v>0.0235739</v>
+        <v>0.0236175</v>
       </c>
       <c r="F95" t="n">
-        <v>0.029693</v>
+        <v>0.0297875</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0218602</v>
+        <v>0.0223074</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0262111</v>
+        <v>0.026864</v>
       </c>
       <c r="D96" t="n">
-        <v>0.181282</v>
+        <v>0.180682</v>
       </c>
       <c r="E96" t="n">
-        <v>0.0240596</v>
+        <v>0.024236</v>
       </c>
       <c r="F96" t="n">
-        <v>0.031474</v>
+        <v>0.0315288</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0236551</v>
+        <v>0.0235722</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0290958</v>
+        <v>0.0295976</v>
       </c>
       <c r="D97" t="n">
-        <v>0.187716</v>
+        <v>0.188348</v>
       </c>
       <c r="E97" t="n">
-        <v>0.0247657</v>
+        <v>0.0248567</v>
       </c>
       <c r="F97" t="n">
-        <v>0.0343917</v>
+        <v>0.0345935</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0250634</v>
+        <v>0.0250638</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0325208</v>
+        <v>0.0333703</v>
       </c>
       <c r="D98" t="n">
-        <v>0.195709</v>
+        <v>0.195681</v>
       </c>
       <c r="E98" t="n">
-        <v>0.0255882</v>
+        <v>0.0255642</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0383197</v>
+        <v>0.0384562</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.027571</v>
+        <v>0.0275042</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0376098</v>
+        <v>0.0385333</v>
       </c>
       <c r="D99" t="n">
-        <v>0.202643</v>
+        <v>0.20305</v>
       </c>
       <c r="E99" t="n">
-        <v>0.0270965</v>
+        <v>0.0271743</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0429432</v>
+        <v>0.0432111</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.030505</v>
+        <v>0.0309276</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0438227</v>
+        <v>0.0442362</v>
       </c>
       <c r="D100" t="n">
-        <v>0.210638</v>
+        <v>0.210517</v>
       </c>
       <c r="E100" t="n">
-        <v>0.0291988</v>
+        <v>0.0294486</v>
       </c>
       <c r="F100" t="n">
-        <v>0.0472074</v>
+        <v>0.0473399</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0350163</v>
+        <v>0.0351932</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0494948</v>
+        <v>0.0506867</v>
       </c>
       <c r="D101" t="n">
-        <v>0.217651</v>
+        <v>0.218039</v>
       </c>
       <c r="E101" t="n">
-        <v>0.0320499</v>
+        <v>0.0321896</v>
       </c>
       <c r="F101" t="n">
-        <v>0.0509986</v>
+        <v>0.0511954</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0400024</v>
+        <v>0.0405709</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0558043</v>
+        <v>0.0564235</v>
       </c>
       <c r="D102" t="n">
-        <v>0.225019</v>
+        <v>0.225621</v>
       </c>
       <c r="E102" t="n">
-        <v>0.0350771</v>
+        <v>0.0353843</v>
       </c>
       <c r="F102" t="n">
-        <v>0.0543266</v>
+        <v>0.0545123</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0463686</v>
+        <v>0.0466768</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0617077</v>
+        <v>0.0624545</v>
       </c>
       <c r="D103" t="n">
-        <v>0.2328</v>
+        <v>0.23394</v>
       </c>
       <c r="E103" t="n">
-        <v>0.0383303</v>
+        <v>0.0385108</v>
       </c>
       <c r="F103" t="n">
-        <v>0.0576331</v>
+        <v>0.057561</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0545425</v>
+        <v>0.0549642</v>
       </c>
       <c r="C104" t="n">
-        <v>0.06883690000000001</v>
+        <v>0.0696367</v>
       </c>
       <c r="D104" t="n">
-        <v>0.241819</v>
+        <v>0.241162</v>
       </c>
       <c r="E104" t="n">
-        <v>0.0414892</v>
+        <v>0.0416979</v>
       </c>
       <c r="F104" t="n">
-        <v>0.0609084</v>
+        <v>0.0609946</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0652673</v>
+        <v>0.0659882</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0780739</v>
+        <v>0.07878449999999999</v>
       </c>
       <c r="D105" t="n">
-        <v>0.250229</v>
+        <v>0.251198</v>
       </c>
       <c r="E105" t="n">
-        <v>0.0450573</v>
+        <v>0.0449818</v>
       </c>
       <c r="F105" t="n">
-        <v>0.0647828</v>
+        <v>0.0648671</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0808714</v>
+        <v>0.0815797</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0906672</v>
+        <v>0.0912341</v>
       </c>
       <c r="D106" t="n">
-        <v>0.260084</v>
+        <v>0.260178</v>
       </c>
       <c r="E106" t="n">
-        <v>0.0492195</v>
+        <v>0.04934</v>
       </c>
       <c r="F106" t="n">
-        <v>0.06972250000000001</v>
+        <v>0.0697055</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.103076</v>
+        <v>0.103577</v>
       </c>
       <c r="C107" t="n">
-        <v>0.109545</v>
+        <v>0.109921</v>
       </c>
       <c r="D107" t="n">
-        <v>0.189618</v>
+        <v>0.189233</v>
       </c>
       <c r="E107" t="n">
-        <v>0.0557528</v>
+        <v>0.055852</v>
       </c>
       <c r="F107" t="n">
-        <v>0.0769552</v>
+        <v>0.0768375</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.132107</v>
+        <v>0.133218</v>
       </c>
       <c r="C108" t="n">
-        <v>0.136223</v>
+        <v>0.136723</v>
       </c>
       <c r="D108" t="n">
-        <v>0.195821</v>
+        <v>0.196212</v>
       </c>
       <c r="E108" t="n">
-        <v>0.0353056</v>
+        <v>0.0355577</v>
       </c>
       <c r="F108" t="n">
-        <v>0.0514534</v>
+        <v>0.0516163</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.16767</v>
+        <v>0.170345</v>
       </c>
       <c r="C109" t="n">
-        <v>0.172667</v>
+        <v>0.174317</v>
       </c>
       <c r="D109" t="n">
-        <v>0.202778</v>
+        <v>0.202127</v>
       </c>
       <c r="E109" t="n">
-        <v>0.0362059</v>
+        <v>0.0364843</v>
       </c>
       <c r="F109" t="n">
-        <v>0.0529637</v>
+        <v>0.0530741</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0312384</v>
+        <v>0.0313409</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0467123</v>
+        <v>0.047051</v>
       </c>
       <c r="D110" t="n">
-        <v>0.209572</v>
+        <v>0.209016</v>
       </c>
       <c r="E110" t="n">
-        <v>0.0371739</v>
+        <v>0.0373877</v>
       </c>
       <c r="F110" t="n">
-        <v>0.0543556</v>
+        <v>0.0543963</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0323388</v>
+        <v>0.0330718</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0488108</v>
+        <v>0.0489658</v>
       </c>
       <c r="D111" t="n">
-        <v>0.217092</v>
+        <v>0.216571</v>
       </c>
       <c r="E111" t="n">
-        <v>0.0380319</v>
+        <v>0.0381542</v>
       </c>
       <c r="F111" t="n">
-        <v>0.055724</v>
+        <v>0.0556328</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0346225</v>
+        <v>0.0343196</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0506774</v>
+        <v>0.051105</v>
       </c>
       <c r="D112" t="n">
-        <v>0.224472</v>
+        <v>0.223752</v>
       </c>
       <c r="E112" t="n">
-        <v>0.0388195</v>
+        <v>0.0390975</v>
       </c>
       <c r="F112" t="n">
-        <v>0.0571372</v>
+        <v>0.0571625</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0360399</v>
+        <v>0.0363505</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0530778</v>
+        <v>0.0529852</v>
       </c>
       <c r="D113" t="n">
-        <v>0.231317</v>
+        <v>0.231523</v>
       </c>
       <c r="E113" t="n">
-        <v>0.0396311</v>
+        <v>0.0399608</v>
       </c>
       <c r="F113" t="n">
-        <v>0.0585458</v>
+        <v>0.058672</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0383143</v>
+        <v>0.0380633</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0561766</v>
+        <v>0.0561387</v>
       </c>
       <c r="D114" t="n">
-        <v>0.239017</v>
+        <v>0.23874</v>
       </c>
       <c r="E114" t="n">
-        <v>0.0406744</v>
+        <v>0.0409158</v>
       </c>
       <c r="F114" t="n">
-        <v>0.0603163</v>
+        <v>0.0603296</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.0406576</v>
+        <v>0.040711</v>
       </c>
       <c r="C115" t="n">
-        <v>0.059338</v>
+        <v>0.0592874</v>
       </c>
       <c r="D115" t="n">
-        <v>0.247491</v>
+        <v>0.246576</v>
       </c>
       <c r="E115" t="n">
-        <v>0.0418208</v>
+        <v>0.0420533</v>
       </c>
       <c r="F115" t="n">
-        <v>0.0620622</v>
+        <v>0.0621583</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.0441193</v>
+        <v>0.0443226</v>
       </c>
       <c r="C116" t="n">
-        <v>0.06314160000000001</v>
+        <v>0.0634131</v>
       </c>
       <c r="D116" t="n">
-        <v>0.255313</v>
+        <v>0.255265</v>
       </c>
       <c r="E116" t="n">
-        <v>0.0431598</v>
+        <v>0.0432502</v>
       </c>
       <c r="F116" t="n">
-        <v>0.0641769</v>
+        <v>0.0640333</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.0487786</v>
+        <v>0.0487403</v>
       </c>
       <c r="C117" t="n">
-        <v>0.06816800000000001</v>
+        <v>0.06849520000000001</v>
       </c>
       <c r="D117" t="n">
-        <v>0.262507</v>
+        <v>0.263953</v>
       </c>
       <c r="E117" t="n">
-        <v>0.0446111</v>
+        <v>0.0448704</v>
       </c>
       <c r="F117" t="n">
-        <v>0.0665033</v>
+        <v>0.0664665</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.0554412</v>
+        <v>0.0554722</v>
       </c>
       <c r="C118" t="n">
-        <v>0.074576</v>
+        <v>0.0746477</v>
       </c>
       <c r="D118" t="n">
-        <v>0.272158</v>
+        <v>0.271938</v>
       </c>
       <c r="E118" t="n">
-        <v>0.0465528</v>
+        <v>0.0466981</v>
       </c>
       <c r="F118" t="n">
-        <v>0.0697045</v>
+        <v>0.0693372</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.0651026</v>
+        <v>0.0649677</v>
       </c>
       <c r="C119" t="n">
-        <v>0.08306429999999999</v>
+        <v>0.08306089999999999</v>
       </c>
       <c r="D119" t="n">
-        <v>0.282269</v>
+        <v>0.280691</v>
       </c>
       <c r="E119" t="n">
-        <v>0.0490361</v>
+        <v>0.0493267</v>
       </c>
       <c r="F119" t="n">
-        <v>0.07294680000000001</v>
+        <v>0.0730122</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.07955230000000001</v>
+        <v>0.0796463</v>
       </c>
       <c r="C120" t="n">
-        <v>0.0947431</v>
+        <v>0.0945989</v>
       </c>
       <c r="D120" t="n">
-        <v>0.290259</v>
+        <v>0.2901</v>
       </c>
       <c r="E120" t="n">
-        <v>0.052869</v>
+        <v>0.0529734</v>
       </c>
       <c r="F120" t="n">
-        <v>0.0778305</v>
+        <v>0.07792449999999999</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.100477</v>
+        <v>0.10054</v>
       </c>
       <c r="C121" t="n">
-        <v>0.111713</v>
+        <v>0.11182</v>
       </c>
       <c r="D121" t="n">
-        <v>0.205904</v>
+        <v>0.207889</v>
       </c>
       <c r="E121" t="n">
-        <v>0.0584712</v>
+        <v>0.0587192</v>
       </c>
       <c r="F121" t="n">
-        <v>0.08497680000000001</v>
+        <v>0.08511009999999999</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.128542</v>
+        <v>0.128886</v>
       </c>
       <c r="C122" t="n">
-        <v>0.136134</v>
+        <v>0.13638</v>
       </c>
       <c r="D122" t="n">
-        <v>0.212362</v>
+        <v>0.213468</v>
       </c>
       <c r="E122" t="n">
-        <v>0.0682347</v>
+        <v>0.0686957</v>
       </c>
       <c r="F122" t="n">
-        <v>0.0961554</v>
+        <v>0.09632300000000001</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.163369</v>
+        <v>0.165053</v>
       </c>
       <c r="C123" t="n">
-        <v>0.171096</v>
+        <v>0.171113</v>
       </c>
       <c r="D123" t="n">
-        <v>0.217996</v>
+        <v>0.220445</v>
       </c>
       <c r="E123" t="n">
-        <v>0.0417051</v>
+        <v>0.0407217</v>
       </c>
       <c r="F123" t="n">
-        <v>0.0604952</v>
+        <v>0.0603739</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.0342146</v>
+        <v>0.0345012</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0524054</v>
+        <v>0.0512203</v>
       </c>
       <c r="D124" t="n">
-        <v>0.225482</v>
+        <v>0.2267</v>
       </c>
       <c r="E124" t="n">
-        <v>0.042542</v>
+        <v>0.0415676</v>
       </c>
       <c r="F124" t="n">
-        <v>0.0618458</v>
+        <v>0.0617198</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.0353183</v>
+        <v>0.0355842</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0541208</v>
+        <v>0.0531942</v>
       </c>
       <c r="D125" t="n">
-        <v>0.232619</v>
+        <v>0.233672</v>
       </c>
       <c r="E125" t="n">
-        <v>0.0433375</v>
+        <v>0.0422789</v>
       </c>
       <c r="F125" t="n">
-        <v>0.06348189999999999</v>
+        <v>0.0633427</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.0366217</v>
+        <v>0.0371282</v>
       </c>
       <c r="C126" t="n">
-        <v>0.0563665</v>
+        <v>0.0552838</v>
       </c>
       <c r="D126" t="n">
-        <v>0.239943</v>
+        <v>0.241075</v>
       </c>
       <c r="E126" t="n">
-        <v>0.0441782</v>
+        <v>0.0429619</v>
       </c>
       <c r="F126" t="n">
-        <v>0.06503630000000001</v>
+        <v>0.0647254</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.0383642</v>
+        <v>0.0385423</v>
       </c>
       <c r="C127" t="n">
-        <v>0.0590757</v>
+        <v>0.0576705</v>
       </c>
       <c r="D127" t="n">
-        <v>0.247617</v>
+        <v>0.248398</v>
       </c>
       <c r="E127" t="n">
-        <v>0.0450419</v>
+        <v>0.0446377</v>
       </c>
       <c r="F127" t="n">
-        <v>0.0665726</v>
+        <v>0.0664486</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0406821</v>
+        <v>0.0410411</v>
       </c>
       <c r="C128" t="n">
-        <v>0.0620373</v>
+        <v>0.0614458</v>
       </c>
       <c r="D128" t="n">
-        <v>0.255315</v>
+        <v>0.2562</v>
       </c>
       <c r="E128" t="n">
-        <v>0.0460654</v>
+        <v>0.0455653</v>
       </c>
       <c r="F128" t="n">
-        <v>0.0683375</v>
+        <v>0.0681316</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0433736</v>
+        <v>0.0434778</v>
       </c>
       <c r="C129" t="n">
-        <v>0.0656981</v>
+        <v>0.06516470000000001</v>
       </c>
       <c r="D129" t="n">
-        <v>0.26319</v>
+        <v>0.264144</v>
       </c>
       <c r="E129" t="n">
-        <v>0.0472016</v>
+        <v>0.0468064</v>
       </c>
       <c r="F129" t="n">
-        <v>0.0703115</v>
+        <v>0.06998550000000001</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0464665</v>
+        <v>0.0474651</v>
       </c>
       <c r="C130" t="n">
-        <v>0.0700113</v>
+        <v>0.069601</v>
       </c>
       <c r="D130" t="n">
-        <v>0.271306</v>
+        <v>0.272098</v>
       </c>
       <c r="E130" t="n">
-        <v>0.048408</v>
+        <v>0.0479249</v>
       </c>
       <c r="F130" t="n">
-        <v>0.0725445</v>
+        <v>0.0721344</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0510019</v>
+        <v>0.0524648</v>
       </c>
       <c r="C131" t="n">
-        <v>0.0752322</v>
+        <v>0.0745289</v>
       </c>
       <c r="D131" t="n">
-        <v>0.278869</v>
+        <v>0.27953</v>
       </c>
       <c r="E131" t="n">
-        <v>0.0499363</v>
+        <v>0.0495476</v>
       </c>
       <c r="F131" t="n">
-        <v>0.0749132</v>
+        <v>0.0745813</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.059042</v>
+        <v>0.0592352</v>
       </c>
       <c r="C132" t="n">
-        <v>0.0819298</v>
+        <v>0.0811426</v>
       </c>
       <c r="D132" t="n">
-        <v>0.2873</v>
+        <v>0.288842</v>
       </c>
       <c r="E132" t="n">
-        <v>0.0519861</v>
+        <v>0.0516039</v>
       </c>
       <c r="F132" t="n">
-        <v>0.0778552</v>
+        <v>0.0775401</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.06809659999999999</v>
+        <v>0.06879449999999999</v>
       </c>
       <c r="C133" t="n">
-        <v>0.0906206</v>
+        <v>0.0898326</v>
       </c>
       <c r="D133" t="n">
-        <v>0.2954</v>
+        <v>0.296536</v>
       </c>
       <c r="E133" t="n">
-        <v>0.0545539</v>
+        <v>0.0541648</v>
       </c>
       <c r="F133" t="n">
-        <v>0.08152619999999999</v>
+        <v>0.08120049999999999</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.0819542</v>
+        <v>0.0825536</v>
       </c>
       <c r="C134" t="n">
-        <v>0.102283</v>
+        <v>0.101284</v>
       </c>
       <c r="D134" t="n">
-        <v>0.305067</v>
+        <v>0.307037</v>
       </c>
       <c r="E134" t="n">
-        <v>0.0583062</v>
+        <v>0.0577792</v>
       </c>
       <c r="F134" t="n">
-        <v>0.08663460000000001</v>
+        <v>0.0861821</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.10214</v>
+        <v>0.10235</v>
       </c>
       <c r="C135" t="n">
-        <v>0.118608</v>
+        <v>0.117513</v>
       </c>
       <c r="D135" t="n">
-        <v>0.213973</v>
+        <v>0.213857</v>
       </c>
       <c r="E135" t="n">
-        <v>0.06379360000000001</v>
+        <v>0.0633951</v>
       </c>
       <c r="F135" t="n">
-        <v>0.09389740000000001</v>
+        <v>0.09330579999999999</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.129315</v>
+        <v>0.130244</v>
       </c>
       <c r="C136" t="n">
-        <v>0.142921</v>
+        <v>0.141424</v>
       </c>
       <c r="D136" t="n">
-        <v>0.219889</v>
+        <v>0.220163</v>
       </c>
       <c r="E136" t="n">
-        <v>0.0731595</v>
+        <v>0.0727293</v>
       </c>
       <c r="F136" t="n">
-        <v>0.105119</v>
+        <v>0.104315</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.163563</v>
+        <v>0.166876</v>
       </c>
       <c r="C137" t="n">
-        <v>0.178738</v>
+        <v>0.176116</v>
       </c>
       <c r="D137" t="n">
-        <v>0.226247</v>
+        <v>0.226203</v>
       </c>
       <c r="E137" t="n">
-        <v>0.0588391</v>
+        <v>0.0589862</v>
       </c>
       <c r="F137" t="n">
-        <v>0.0792056</v>
+        <v>0.07862429999999999</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.046798</v>
+        <v>0.0472568</v>
       </c>
       <c r="C138" t="n">
-        <v>0.06551129999999999</v>
+        <v>0.0658671</v>
       </c>
       <c r="D138" t="n">
-        <v>0.233379</v>
+        <v>0.233206</v>
       </c>
       <c r="E138" t="n">
-        <v>0.0599359</v>
+        <v>0.060253</v>
       </c>
       <c r="F138" t="n">
-        <v>0.08040890000000001</v>
+        <v>0.0799363</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0481398</v>
+        <v>0.0483564</v>
       </c>
       <c r="C139" t="n">
-        <v>0.0671534</v>
+        <v>0.0671221</v>
       </c>
       <c r="D139" t="n">
-        <v>0.240505</v>
+        <v>0.24047</v>
       </c>
       <c r="E139" t="n">
-        <v>0.0602968</v>
+        <v>0.0602952</v>
       </c>
       <c r="F139" t="n">
-        <v>0.0817597</v>
+        <v>0.0811926</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.0493031</v>
+        <v>0.0492593</v>
       </c>
       <c r="C140" t="n">
-        <v>0.0690103</v>
+        <v>0.0696233</v>
       </c>
       <c r="D140" t="n">
-        <v>0.248057</v>
+        <v>0.247539</v>
       </c>
       <c r="E140" t="n">
-        <v>0.0613614</v>
+        <v>0.0612202</v>
       </c>
       <c r="F140" t="n">
-        <v>0.0830526</v>
+        <v>0.08215600000000001</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0506068</v>
+        <v>0.0514378</v>
       </c>
       <c r="C141" t="n">
-        <v>0.0714234</v>
+        <v>0.071455</v>
       </c>
       <c r="D141" t="n">
-        <v>0.255257</v>
+        <v>0.255507</v>
       </c>
       <c r="E141" t="n">
-        <v>0.0623069</v>
+        <v>0.062773</v>
       </c>
       <c r="F141" t="n">
-        <v>0.08433740000000001</v>
+        <v>0.08458789999999999</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.0527165</v>
+        <v>0.0533874</v>
       </c>
       <c r="C142" t="n">
-        <v>0.07387000000000001</v>
+        <v>0.0742172</v>
       </c>
       <c r="D142" t="n">
-        <v>0.263358</v>
+        <v>0.264025</v>
       </c>
       <c r="E142" t="n">
-        <v>0.0628156</v>
+        <v>0.0633247</v>
       </c>
       <c r="F142" t="n">
-        <v>0.0859423</v>
+        <v>0.085672</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.056188</v>
+        <v>0.0560663</v>
       </c>
       <c r="C143" t="n">
-        <v>0.0772463</v>
+        <v>0.0773148</v>
       </c>
       <c r="D143" t="n">
-        <v>0.271096</v>
+        <v>0.272107</v>
       </c>
       <c r="E143" t="n">
-        <v>0.0637394</v>
+        <v>0.0643447</v>
       </c>
       <c r="F143" t="n">
-        <v>0.0873086</v>
+        <v>0.0873908</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered unsuccessful looukp.xlsx
+++ b/clang-arm64/Scattered unsuccessful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.016438</v>
+        <v>0.0178318</v>
       </c>
       <c r="C2" t="n">
-        <v>0.018211</v>
+        <v>0.0205618</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0333325</v>
+        <v>0.06829730000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0208104</v>
+        <v>0.0208678</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0205877</v>
+        <v>0.0207105</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.018816</v>
+        <v>0.0200992</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0195163</v>
+        <v>0.0232394</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0431045</v>
+        <v>0.0667507</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0209658</v>
+        <v>0.0210981</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0208191</v>
+        <v>0.0209762</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.024573</v>
+        <v>0.0226485</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0238554</v>
+        <v>0.0281978</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0447415</v>
+        <v>0.0794913</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0214158</v>
+        <v>0.0217517</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0214276</v>
+        <v>0.0215694</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0317803</v>
+        <v>0.0310182</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0334152</v>
+        <v>0.0374511</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0518779</v>
+        <v>0.0691312</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0221932</v>
+        <v>0.0221392</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0220174</v>
+        <v>0.0221557</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0517997</v>
+        <v>0.043462</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0481629</v>
+        <v>0.0515214</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0594964</v>
+        <v>0.0744049</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0231893</v>
+        <v>0.0235332</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0230128</v>
+        <v>0.0234134</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.067686</v>
+        <v>0.0658026</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0649395</v>
+        <v>0.07100289999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0415008</v>
+        <v>0.0517306</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0260458</v>
+        <v>0.0261654</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0253204</v>
+        <v>0.0256694</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0926017</v>
+        <v>0.0849302</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0926859</v>
+        <v>0.0966545</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0438424</v>
+        <v>0.059398</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0320035</v>
+        <v>0.0317533</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0305462</v>
+        <v>0.0317482</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.111843</v>
+        <v>0.119875</v>
       </c>
       <c r="C9" t="n">
-        <v>0.113164</v>
+        <v>0.115452</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0494623</v>
+        <v>0.0605591</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0189102</v>
+        <v>0.0189625</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0189628</v>
+        <v>0.0190151</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0163384</v>
+        <v>0.0165595</v>
       </c>
       <c r="C10" t="n">
-        <v>0.016511</v>
+        <v>0.0177554</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0523496</v>
+        <v>0.0636925</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0192006</v>
+        <v>0.0193153</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0192235</v>
+        <v>0.0192428</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0167526</v>
+        <v>0.0169121</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0169173</v>
+        <v>0.0182117</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0539472</v>
+        <v>0.0674583</v>
       </c>
       <c r="E11" t="n">
-        <v>0.019481</v>
+        <v>0.0195746</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0194745</v>
+        <v>0.0194989</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0171181</v>
+        <v>0.0172155</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0172374</v>
+        <v>0.018816</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0541462</v>
+        <v>0.0737582</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0198148</v>
+        <v>0.0198635</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0197234</v>
+        <v>0.0198393</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.017531</v>
+        <v>0.0179838</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0178869</v>
+        <v>0.019346</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0605969</v>
+        <v>0.0768078</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0201152</v>
+        <v>0.0201608</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0199815</v>
+        <v>0.0201221</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0180537</v>
+        <v>0.0187726</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0187827</v>
+        <v>0.0200079</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0669564</v>
+        <v>0.0816293</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0203185</v>
+        <v>0.0205157</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0202121</v>
+        <v>0.0203921</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0188759</v>
+        <v>0.0198155</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0198711</v>
+        <v>0.0211072</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0716614</v>
+        <v>0.08469069999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0208125</v>
+        <v>0.0208242</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0206726</v>
+        <v>0.020803</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0221102</v>
+        <v>0.0219578</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0222186</v>
+        <v>0.0233845</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0742695</v>
+        <v>0.0860168</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0213086</v>
+        <v>0.0214986</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0211526</v>
+        <v>0.0212962</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0255524</v>
+        <v>0.0249818</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0250892</v>
+        <v>0.0270851</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0798507</v>
+        <v>0.08894879999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0219042</v>
+        <v>0.0222596</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0219585</v>
+        <v>0.0218885</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.032219</v>
+        <v>0.0301456</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0313859</v>
+        <v>0.0321134</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0805502</v>
+        <v>0.09214609999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0224016</v>
+        <v>0.0227753</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0224025</v>
+        <v>0.0224693</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0392116</v>
+        <v>0.0410285</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0411605</v>
+        <v>0.0414568</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0858271</v>
+        <v>0.0943171</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0235177</v>
+        <v>0.0237702</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0234524</v>
+        <v>0.0233997</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0536653</v>
+        <v>0.0523119</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0539736</v>
+        <v>0.0534175</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0857227</v>
+        <v>0.0955085</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0253588</v>
+        <v>0.0256584</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0250289</v>
+        <v>0.0251673</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0740029</v>
+        <v>0.0740633</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0741426</v>
+        <v>0.0735127</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0566286</v>
+        <v>0.0644122</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0282434</v>
+        <v>0.028616</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0282522</v>
+        <v>0.0283466</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.09585680000000001</v>
+        <v>0.09683509999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>0.092791</v>
+        <v>0.09781910000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0602712</v>
+        <v>0.0692801</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0362123</v>
+        <v>0.0358414</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0357799</v>
+        <v>0.0355745</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.119263</v>
+        <v>0.119072</v>
       </c>
       <c r="C23" t="n">
-        <v>0.120509</v>
+        <v>0.12553</v>
       </c>
       <c r="D23" t="n">
-        <v>0.06289930000000001</v>
+        <v>0.0717503</v>
       </c>
       <c r="E23" t="n">
-        <v>0.018751</v>
+        <v>0.0187542</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0187576</v>
+        <v>0.0188287</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0166841</v>
+        <v>0.0163568</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0166255</v>
+        <v>0.0175282</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0680018</v>
+        <v>0.0752544</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0189687</v>
+        <v>0.0189795</v>
       </c>
       <c r="F24" t="n">
-        <v>0.018993</v>
+        <v>0.0190563</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0172675</v>
+        <v>0.0169681</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0173418</v>
+        <v>0.017973</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0702299</v>
+        <v>0.0793753</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0191433</v>
+        <v>0.0191717</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0192131</v>
+        <v>0.0192577</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0178595</v>
+        <v>0.0176285</v>
       </c>
       <c r="C26" t="n">
-        <v>0.017935</v>
+        <v>0.018751</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0761377</v>
+        <v>0.0818094</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0193849</v>
+        <v>0.0194421</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0194607</v>
+        <v>0.0194589</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0186087</v>
+        <v>0.0185584</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0187668</v>
+        <v>0.0198145</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0779647</v>
+        <v>0.0858425</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0197655</v>
+        <v>0.0198951</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0197494</v>
+        <v>0.0198159</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0197164</v>
+        <v>0.0193125</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0204086</v>
+        <v>0.0211189</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0825369</v>
+        <v>0.088898</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0200924</v>
+        <v>0.0201759</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0201238</v>
+        <v>0.0202128</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0212407</v>
+        <v>0.0218846</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0218841</v>
+        <v>0.0230093</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0864668</v>
+        <v>0.0911748</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0207213</v>
+        <v>0.0207652</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0206714</v>
+        <v>0.0207579</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0245765</v>
+        <v>0.0248612</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0246301</v>
+        <v>0.026263</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0888863</v>
+        <v>0.0926824</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0212019</v>
+        <v>0.0213304</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0211483</v>
+        <v>0.0212644</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0291556</v>
+        <v>0.0295344</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0292257</v>
+        <v>0.0307185</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0912784</v>
+        <v>0.095709</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0218553</v>
+        <v>0.0219309</v>
       </c>
       <c r="F31" t="n">
-        <v>0.021884</v>
+        <v>0.0219999</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.034787</v>
+        <v>0.0355445</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0346855</v>
+        <v>0.0363378</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0931456</v>
+        <v>0.09757739999999999</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0227409</v>
+        <v>0.0228379</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0227797</v>
+        <v>0.0228558</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0439497</v>
+        <v>0.0439083</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0433867</v>
+        <v>0.0455119</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0924059</v>
+        <v>0.0991943</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0239392</v>
+        <v>0.0240608</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0239372</v>
+        <v>0.0240997</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0550643</v>
+        <v>0.0560413</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0533711</v>
+        <v>0.0574757</v>
       </c>
       <c r="D34" t="n">
-        <v>0.09827370000000001</v>
+        <v>0.102165</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0261628</v>
+        <v>0.0263588</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0260357</v>
+        <v>0.0263685</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.07117759999999999</v>
+        <v>0.07274120000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>0.06998500000000001</v>
+        <v>0.0734356</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0648384</v>
+        <v>0.0692962</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0296742</v>
+        <v>0.0301559</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0298982</v>
+        <v>0.0299084</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0928432</v>
+        <v>0.0948552</v>
       </c>
       <c r="C36" t="n">
-        <v>0.09261750000000001</v>
+        <v>0.09680610000000001</v>
       </c>
       <c r="D36" t="n">
-        <v>0.06936920000000001</v>
+        <v>0.0724086</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0368714</v>
+        <v>0.0365772</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0368815</v>
+        <v>0.0364469</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.119963</v>
+        <v>0.119287</v>
       </c>
       <c r="C37" t="n">
-        <v>0.119776</v>
+        <v>0.124513</v>
       </c>
       <c r="D37" t="n">
-        <v>0.07426240000000001</v>
+        <v>0.07611370000000001</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0192921</v>
+        <v>0.0193697</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0193633</v>
+        <v>0.019417</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0171043</v>
+        <v>0.0170681</v>
       </c>
       <c r="C38" t="n">
-        <v>0.017128</v>
+        <v>0.0180922</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0751946</v>
+        <v>0.07987669999999999</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0196576</v>
+        <v>0.0196517</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0196787</v>
+        <v>0.019704</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0178291</v>
+        <v>0.0177488</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0178921</v>
+        <v>0.0189379</v>
       </c>
       <c r="D39" t="n">
-        <v>0.07922659999999999</v>
+        <v>0.0827204</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0199001</v>
+        <v>0.0198983</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0199574</v>
+        <v>0.0200279</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0187036</v>
+        <v>0.0187491</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0188437</v>
+        <v>0.0199785</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0825429</v>
+        <v>0.0861801</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0201804</v>
+        <v>0.0202308</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0202601</v>
+        <v>0.0203137</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0200095</v>
+        <v>0.0201409</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0202721</v>
+        <v>0.0212405</v>
       </c>
       <c r="D41" t="n">
-        <v>0.08658689999999999</v>
+        <v>0.0891893</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0205177</v>
+        <v>0.02059</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0206014</v>
+        <v>0.0206693</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0218674</v>
+        <v>0.0216902</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0217747</v>
+        <v>0.022893</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0888196</v>
+        <v>0.0914975</v>
       </c>
       <c r="E42" t="n">
-        <v>0.020978</v>
+        <v>0.0209572</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0210447</v>
+        <v>0.0210636</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0241048</v>
+        <v>0.0240579</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0239988</v>
+        <v>0.0255527</v>
       </c>
       <c r="D43" t="n">
-        <v>0.093179</v>
+        <v>0.09411700000000001</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0215355</v>
+        <v>0.0215509</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0216271</v>
+        <v>0.0216673</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0274049</v>
+        <v>0.0270624</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0272636</v>
+        <v>0.0289052</v>
       </c>
       <c r="D44" t="n">
-        <v>0.095857</v>
+        <v>0.0971115</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0222328</v>
+        <v>0.0222898</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0222943</v>
+        <v>0.0223617</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0316994</v>
+        <v>0.0313227</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0309019</v>
+        <v>0.0332989</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0988348</v>
+        <v>0.0989498</v>
       </c>
       <c r="E45" t="n">
-        <v>0.023049</v>
+        <v>0.0230446</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0230333</v>
+        <v>0.0231138</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0376204</v>
+        <v>0.0371626</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0368094</v>
+        <v>0.0395806</v>
       </c>
       <c r="D46" t="n">
-        <v>0.100043</v>
+        <v>0.101836</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0242496</v>
+        <v>0.0242609</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0241825</v>
+        <v>0.0242574</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0448893</v>
+        <v>0.0444229</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0452987</v>
+        <v>0.0472189</v>
       </c>
       <c r="D47" t="n">
-        <v>0.101464</v>
+        <v>0.104452</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0257052</v>
+        <v>0.0257706</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0256162</v>
+        <v>0.0257248</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0554276</v>
+        <v>0.054947</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0554863</v>
+        <v>0.0576383</v>
       </c>
       <c r="D48" t="n">
-        <v>0.10538</v>
+        <v>0.106671</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0282232</v>
+        <v>0.0282535</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0282354</v>
+        <v>0.0282992</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0699312</v>
+        <v>0.0697869</v>
       </c>
       <c r="C49" t="n">
-        <v>0.07058159999999999</v>
+        <v>0.0726175</v>
       </c>
       <c r="D49" t="n">
-        <v>0.107542</v>
+        <v>0.10879</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0317373</v>
+        <v>0.0317599</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0318846</v>
+        <v>0.0318389</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0903311</v>
+        <v>0.09011760000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0906771</v>
+        <v>0.09337910000000001</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0749084</v>
+        <v>0.0755205</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0375322</v>
+        <v>0.0377192</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0379677</v>
+        <v>0.0377374</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.117892</v>
+        <v>0.116293</v>
       </c>
       <c r="C51" t="n">
-        <v>0.118012</v>
+        <v>0.121624</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0772326</v>
+        <v>0.0789509</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0203716</v>
+        <v>0.0203971</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0203835</v>
+        <v>0.0204678</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.142818</v>
+        <v>0.141328</v>
       </c>
       <c r="C52" t="n">
-        <v>0.143523</v>
+        <v>0.146565</v>
       </c>
       <c r="D52" t="n">
-        <v>0.08056389999999999</v>
+        <v>0.0822847</v>
       </c>
       <c r="E52" t="n">
-        <v>0.020668</v>
+        <v>0.0206688</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0206619</v>
+        <v>0.0207531</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0191068</v>
+        <v>0.0191258</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0193515</v>
+        <v>0.0199204</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0844351</v>
+        <v>0.08608499999999999</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0209814</v>
+        <v>0.0209559</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0210296</v>
+        <v>0.021055</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0204249</v>
+        <v>0.0202695</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0204025</v>
+        <v>0.021211</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0889046</v>
+        <v>0.0896279</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0212855</v>
+        <v>0.0212768</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0213069</v>
+        <v>0.0213924</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0216799</v>
+        <v>0.0218647</v>
       </c>
       <c r="C55" t="n">
-        <v>0.021786</v>
+        <v>0.0227924</v>
       </c>
       <c r="D55" t="n">
-        <v>0.09199300000000001</v>
+        <v>0.092654</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0216785</v>
+        <v>0.0216628</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0217033</v>
+        <v>0.0217802</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0239452</v>
+        <v>0.0237217</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0237407</v>
+        <v>0.024729</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0956559</v>
+        <v>0.0960289</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0221604</v>
+        <v>0.02213</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0221763</v>
+        <v>0.0222608</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.026708</v>
+        <v>0.0263089</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0262933</v>
+        <v>0.027421</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0989255</v>
+        <v>0.0994568</v>
       </c>
       <c r="E57" t="n">
-        <v>0.022683</v>
+        <v>0.0227011</v>
       </c>
       <c r="F57" t="n">
-        <v>0.022703</v>
+        <v>0.0227785</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0300697</v>
+        <v>0.029893</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0298511</v>
+        <v>0.0307337</v>
       </c>
       <c r="D58" t="n">
-        <v>0.100722</v>
+        <v>0.102716</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0233216</v>
+        <v>0.0233186</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0233539</v>
+        <v>0.0234589</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0347879</v>
+        <v>0.0339149</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0342191</v>
+        <v>0.035206</v>
       </c>
       <c r="D59" t="n">
-        <v>0.10491</v>
+        <v>0.104893</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0241751</v>
+        <v>0.0241828</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0242578</v>
+        <v>0.0243749</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0403074</v>
+        <v>0.0393838</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0395891</v>
+        <v>0.0407947</v>
       </c>
       <c r="D60" t="n">
-        <v>0.106294</v>
+        <v>0.107067</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0255169</v>
+        <v>0.0255451</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0255734</v>
+        <v>0.025652</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.046521</v>
+        <v>0.0465462</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0467611</v>
+        <v>0.047917</v>
       </c>
       <c r="D61" t="n">
-        <v>0.110309</v>
+        <v>0.110137</v>
       </c>
       <c r="E61" t="n">
-        <v>0.027247</v>
+        <v>0.0272481</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0273067</v>
+        <v>0.0274034</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0575927</v>
+        <v>0.0560272</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0570186</v>
+        <v>0.0582587</v>
       </c>
       <c r="D62" t="n">
-        <v>0.112841</v>
+        <v>0.112545</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0298558</v>
+        <v>0.0298463</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0298496</v>
+        <v>0.0299749</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0712766</v>
+        <v>0.06976839999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0705976</v>
+        <v>0.0725204</v>
       </c>
       <c r="D63" t="n">
-        <v>0.115338</v>
+        <v>0.115712</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0336521</v>
+        <v>0.0337072</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0336877</v>
+        <v>0.033778</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.09083479999999999</v>
+        <v>0.08932279999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>0.090416</v>
+        <v>0.0928228</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0808813</v>
+        <v>0.08061450000000001</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0396068</v>
+        <v>0.0396975</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0399081</v>
+        <v>0.0398311</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.116906</v>
+        <v>0.115693</v>
       </c>
       <c r="C65" t="n">
-        <v>0.116583</v>
+        <v>0.119808</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0848646</v>
+        <v>0.0861159</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0506216</v>
+        <v>0.050655</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0509054</v>
+        <v>0.0509849</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.148157</v>
+        <v>0.147257</v>
       </c>
       <c r="C66" t="n">
-        <v>0.148189</v>
+        <v>0.151516</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0898757</v>
+        <v>0.0885473</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0210126</v>
+        <v>0.0210241</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0210335</v>
+        <v>0.0211111</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0198636</v>
+        <v>0.0199719</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0198123</v>
+        <v>0.0206232</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0943765</v>
+        <v>0.0948146</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0213941</v>
+        <v>0.0213294</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0213711</v>
+        <v>0.0214012</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0212185</v>
+        <v>0.0210746</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0213238</v>
+        <v>0.0218313</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0987459</v>
+        <v>0.0996736</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0217014</v>
+        <v>0.0216742</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0217042</v>
+        <v>0.0217477</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0229635</v>
+        <v>0.0225738</v>
       </c>
       <c r="C69" t="n">
-        <v>0.02258</v>
+        <v>0.0233099</v>
       </c>
       <c r="D69" t="n">
-        <v>0.10324</v>
+        <v>0.10347</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0220509</v>
+        <v>0.0220608</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0220529</v>
+        <v>0.0221439</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0248825</v>
+        <v>0.0246124</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0247074</v>
+        <v>0.0253449</v>
       </c>
       <c r="D70" t="n">
-        <v>0.109493</v>
+        <v>0.10865</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0225492</v>
+        <v>0.0224788</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0225562</v>
+        <v>0.022587</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0275829</v>
+        <v>0.0271103</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0273707</v>
+        <v>0.0278321</v>
       </c>
       <c r="D71" t="n">
-        <v>0.113113</v>
+        <v>0.114835</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0230364</v>
+        <v>0.0230387</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0230913</v>
+        <v>0.0231478</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0306937</v>
+        <v>0.030358</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0303204</v>
+        <v>0.0310487</v>
       </c>
       <c r="D72" t="n">
-        <v>0.119424</v>
+        <v>0.118924</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0237782</v>
+        <v>0.0237105</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0239147</v>
+        <v>0.0237677</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0350315</v>
+        <v>0.0344499</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0347098</v>
+        <v>0.0352563</v>
       </c>
       <c r="D73" t="n">
-        <v>0.123849</v>
+        <v>0.124666</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0246565</v>
+        <v>0.0246983</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0247687</v>
+        <v>0.024863</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0404079</v>
+        <v>0.0398698</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0400002</v>
+        <v>0.0403588</v>
       </c>
       <c r="D74" t="n">
-        <v>0.129682</v>
+        <v>0.128834</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0258836</v>
+        <v>0.0258983</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0259787</v>
+        <v>0.0260692</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0470503</v>
+        <v>0.0468882</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0466404</v>
+        <v>0.0477514</v>
       </c>
       <c r="D75" t="n">
-        <v>0.134732</v>
+        <v>0.13627</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0276054</v>
+        <v>0.0276037</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0278855</v>
+        <v>0.0278048</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.056483</v>
+        <v>0.0560147</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0562887</v>
+        <v>0.0575555</v>
       </c>
       <c r="D76" t="n">
-        <v>0.140752</v>
+        <v>0.141366</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0301429</v>
+        <v>0.0301373</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0303921</v>
+        <v>0.0304218</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.06964289999999999</v>
+        <v>0.0689014</v>
       </c>
       <c r="C77" t="n">
-        <v>0.06911150000000001</v>
+        <v>0.07047539999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>0.146785</v>
+        <v>0.147978</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0339272</v>
+        <v>0.0338759</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0340815</v>
+        <v>0.0341653</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0880071</v>
+        <v>0.08701449999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0874138</v>
+        <v>0.089479</v>
       </c>
       <c r="D78" t="n">
-        <v>0.111003</v>
+        <v>0.112924</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0396174</v>
+        <v>0.0396378</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0398257</v>
+        <v>0.0398974</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.112938</v>
+        <v>0.111292</v>
       </c>
       <c r="C79" t="n">
-        <v>0.112459</v>
+        <v>0.115649</v>
       </c>
       <c r="D79" t="n">
-        <v>0.118808</v>
+        <v>0.118569</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0494472</v>
+        <v>0.0494664</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0496072</v>
+        <v>0.0497783</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.145116</v>
+        <v>0.142394</v>
       </c>
       <c r="C80" t="n">
-        <v>0.14415</v>
+        <v>0.148906</v>
       </c>
       <c r="D80" t="n">
-        <v>0.125039</v>
+        <v>0.125419</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0212474</v>
+        <v>0.0212904</v>
       </c>
       <c r="F80" t="n">
-        <v>0.021784</v>
+        <v>0.0217225</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.020055</v>
+        <v>0.0200815</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0203793</v>
+        <v>0.0209126</v>
       </c>
       <c r="D81" t="n">
-        <v>0.132187</v>
+        <v>0.134327</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0215976</v>
+        <v>0.0216655</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0222781</v>
+        <v>0.0223074</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0216796</v>
+        <v>0.021496</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0216825</v>
+        <v>0.0223219</v>
       </c>
       <c r="D82" t="n">
-        <v>0.139561</v>
+        <v>0.141436</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0220206</v>
+        <v>0.0220123</v>
       </c>
       <c r="F82" t="n">
-        <v>0.0228948</v>
+        <v>0.0229798</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0233095</v>
+        <v>0.0230637</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0236831</v>
+        <v>0.0238554</v>
       </c>
       <c r="D83" t="n">
-        <v>0.147126</v>
+        <v>0.148193</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0224895</v>
+        <v>0.0224575</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0237436</v>
+        <v>0.023578</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0252098</v>
+        <v>0.0250547</v>
       </c>
       <c r="C84" t="n">
-        <v>0.025463</v>
+        <v>0.0258704</v>
       </c>
       <c r="D84" t="n">
-        <v>0.154499</v>
+        <v>0.1586</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0229841</v>
+        <v>0.0229426</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0243555</v>
+        <v>0.0246289</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0277778</v>
+        <v>0.0276633</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0281771</v>
+        <v>0.0285157</v>
       </c>
       <c r="D85" t="n">
-        <v>0.161916</v>
+        <v>0.165651</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0235819</v>
+        <v>0.023616</v>
       </c>
       <c r="F85" t="n">
-        <v>0.025493</v>
+        <v>0.0260084</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0308751</v>
+        <v>0.0306687</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0311022</v>
+        <v>0.0316768</v>
       </c>
       <c r="D86" t="n">
-        <v>0.168828</v>
+        <v>0.169408</v>
       </c>
       <c r="E86" t="n">
-        <v>0.0243989</v>
+        <v>0.0244963</v>
       </c>
       <c r="F86" t="n">
-        <v>0.0268308</v>
+        <v>0.027113</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0344316</v>
+        <v>0.0342665</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0354252</v>
+        <v>0.0354047</v>
       </c>
       <c r="D87" t="n">
-        <v>0.176034</v>
+        <v>0.17628</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0254385</v>
+        <v>0.0255126</v>
       </c>
       <c r="F87" t="n">
-        <v>0.0283113</v>
+        <v>0.0286715</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0395165</v>
+        <v>0.0391707</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0401039</v>
+        <v>0.0403745</v>
       </c>
       <c r="D88" t="n">
-        <v>0.182946</v>
+        <v>0.183516</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0268365</v>
+        <v>0.0267491</v>
       </c>
       <c r="F88" t="n">
-        <v>0.030114</v>
+        <v>0.0302971</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.046023</v>
+        <v>0.0457002</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0464793</v>
+        <v>0.0470352</v>
       </c>
       <c r="D89" t="n">
-        <v>0.190735</v>
+        <v>0.191145</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0285274</v>
+        <v>0.0284614</v>
       </c>
       <c r="F89" t="n">
-        <v>0.0321034</v>
+        <v>0.0324865</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0551011</v>
+        <v>0.0545474</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0553825</v>
+        <v>0.0559871</v>
       </c>
       <c r="D90" t="n">
-        <v>0.199368</v>
+        <v>0.201552</v>
       </c>
       <c r="E90" t="n">
-        <v>0.0309601</v>
+        <v>0.0309085</v>
       </c>
       <c r="F90" t="n">
-        <v>0.034816</v>
+        <v>0.0349597</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.06717049999999999</v>
+        <v>0.06677420000000001</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0675395</v>
+        <v>0.0684652</v>
       </c>
       <c r="D91" t="n">
-        <v>0.20672</v>
+        <v>0.210205</v>
       </c>
       <c r="E91" t="n">
-        <v>0.0344119</v>
+        <v>0.0343308</v>
       </c>
       <c r="F91" t="n">
-        <v>0.0381858</v>
+        <v>0.0386061</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0843983</v>
+        <v>0.0839652</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0852345</v>
+        <v>0.086682</v>
       </c>
       <c r="D92" t="n">
-        <v>0.155984</v>
+        <v>0.158351</v>
       </c>
       <c r="E92" t="n">
-        <v>0.0394907</v>
+        <v>0.0393814</v>
       </c>
       <c r="F92" t="n">
-        <v>0.043819</v>
+        <v>0.0442685</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.107863</v>
+        <v>0.107635</v>
       </c>
       <c r="C93" t="n">
-        <v>0.108939</v>
+        <v>0.111746</v>
       </c>
       <c r="D93" t="n">
-        <v>0.163277</v>
+        <v>0.163382</v>
       </c>
       <c r="E93" t="n">
-        <v>0.0483511</v>
+        <v>0.0483285</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0545873</v>
+        <v>0.0548231</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.139065</v>
+        <v>0.137778</v>
       </c>
       <c r="C94" t="n">
-        <v>0.140019</v>
+        <v>0.146189</v>
       </c>
       <c r="D94" t="n">
-        <v>0.168051</v>
+        <v>0.180582</v>
       </c>
       <c r="E94" t="n">
-        <v>0.0230835</v>
+        <v>0.0230378</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0284794</v>
+        <v>0.0283871</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0205768</v>
+        <v>0.0205417</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0254435</v>
+        <v>0.0252704</v>
       </c>
       <c r="D95" t="n">
-        <v>0.174687</v>
+        <v>0.175369</v>
       </c>
       <c r="E95" t="n">
-        <v>0.0236175</v>
+        <v>0.0236824</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0297875</v>
+        <v>0.0299223</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0223074</v>
+        <v>0.0217794</v>
       </c>
       <c r="C96" t="n">
-        <v>0.026864</v>
+        <v>0.0271558</v>
       </c>
       <c r="D96" t="n">
-        <v>0.180682</v>
+        <v>0.18396</v>
       </c>
       <c r="E96" t="n">
-        <v>0.024236</v>
+        <v>0.0242454</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0315288</v>
+        <v>0.0323205</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0235722</v>
+        <v>0.023703</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0295976</v>
+        <v>0.0299701</v>
       </c>
       <c r="D97" t="n">
-        <v>0.188348</v>
+        <v>0.191275</v>
       </c>
       <c r="E97" t="n">
-        <v>0.0248567</v>
+        <v>0.0247692</v>
       </c>
       <c r="F97" t="n">
-        <v>0.0345935</v>
+        <v>0.0356003</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0250638</v>
+        <v>0.0249679</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0333703</v>
+        <v>0.0338766</v>
       </c>
       <c r="D98" t="n">
-        <v>0.195681</v>
+        <v>0.195636</v>
       </c>
       <c r="E98" t="n">
-        <v>0.0255642</v>
+        <v>0.025672</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0384562</v>
+        <v>0.0394408</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0275042</v>
+        <v>0.0276005</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0385333</v>
+        <v>0.0391703</v>
       </c>
       <c r="D99" t="n">
-        <v>0.20305</v>
+        <v>0.206228</v>
       </c>
       <c r="E99" t="n">
-        <v>0.0271743</v>
+        <v>0.027272</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0432111</v>
+        <v>0.0442043</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0309276</v>
+        <v>0.0306866</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0442362</v>
+        <v>0.0453785</v>
       </c>
       <c r="D100" t="n">
-        <v>0.210517</v>
+        <v>0.213658</v>
       </c>
       <c r="E100" t="n">
-        <v>0.0294486</v>
+        <v>0.0295938</v>
       </c>
       <c r="F100" t="n">
-        <v>0.0473399</v>
+        <v>0.0481415</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0351932</v>
+        <v>0.0346752</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0506867</v>
+        <v>0.0509787</v>
       </c>
       <c r="D101" t="n">
-        <v>0.218039</v>
+        <v>0.221298</v>
       </c>
       <c r="E101" t="n">
-        <v>0.0321896</v>
+        <v>0.0325719</v>
       </c>
       <c r="F101" t="n">
-        <v>0.0511954</v>
+        <v>0.0517829</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0405709</v>
+        <v>0.0401334</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0564235</v>
+        <v>0.0566891</v>
       </c>
       <c r="D102" t="n">
-        <v>0.225621</v>
+        <v>0.228723</v>
       </c>
       <c r="E102" t="n">
-        <v>0.0353843</v>
+        <v>0.0357696</v>
       </c>
       <c r="F102" t="n">
-        <v>0.0545123</v>
+        <v>0.0550096</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0466768</v>
+        <v>0.0469243</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0624545</v>
+        <v>0.0631164</v>
       </c>
       <c r="D103" t="n">
-        <v>0.23394</v>
+        <v>0.236789</v>
       </c>
       <c r="E103" t="n">
-        <v>0.0385108</v>
+        <v>0.0387201</v>
       </c>
       <c r="F103" t="n">
-        <v>0.057561</v>
+        <v>0.0580887</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0549642</v>
+        <v>0.0547151</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0696367</v>
+        <v>0.07021040000000001</v>
       </c>
       <c r="D104" t="n">
-        <v>0.241162</v>
+        <v>0.24457</v>
       </c>
       <c r="E104" t="n">
-        <v>0.0416979</v>
+        <v>0.0417582</v>
       </c>
       <c r="F104" t="n">
-        <v>0.0609946</v>
+        <v>0.0613176</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0659882</v>
+        <v>0.0658198</v>
       </c>
       <c r="C105" t="n">
-        <v>0.07878449999999999</v>
+        <v>0.07944229999999999</v>
       </c>
       <c r="D105" t="n">
-        <v>0.251198</v>
+        <v>0.253619</v>
       </c>
       <c r="E105" t="n">
-        <v>0.0449818</v>
+        <v>0.0451584</v>
       </c>
       <c r="F105" t="n">
-        <v>0.0648671</v>
+        <v>0.0651118</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0815797</v>
+        <v>0.0817016</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0912341</v>
+        <v>0.09269330000000001</v>
       </c>
       <c r="D106" t="n">
-        <v>0.260178</v>
+        <v>0.263264</v>
       </c>
       <c r="E106" t="n">
-        <v>0.04934</v>
+        <v>0.0495238</v>
       </c>
       <c r="F106" t="n">
-        <v>0.0697055</v>
+        <v>0.0701172</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.103577</v>
+        <v>0.10398</v>
       </c>
       <c r="C107" t="n">
-        <v>0.109921</v>
+        <v>0.112193</v>
       </c>
       <c r="D107" t="n">
-        <v>0.189233</v>
+        <v>0.191381</v>
       </c>
       <c r="E107" t="n">
-        <v>0.055852</v>
+        <v>0.0558934</v>
       </c>
       <c r="F107" t="n">
-        <v>0.0768375</v>
+        <v>0.0773462</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.133218</v>
+        <v>0.132859</v>
       </c>
       <c r="C108" t="n">
-        <v>0.136723</v>
+        <v>0.141107</v>
       </c>
       <c r="D108" t="n">
-        <v>0.196212</v>
+        <v>0.197545</v>
       </c>
       <c r="E108" t="n">
-        <v>0.0355577</v>
+        <v>0.0354243</v>
       </c>
       <c r="F108" t="n">
-        <v>0.0516163</v>
+        <v>0.051709</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.170345</v>
+        <v>0.168754</v>
       </c>
       <c r="C109" t="n">
-        <v>0.174317</v>
+        <v>0.177426</v>
       </c>
       <c r="D109" t="n">
-        <v>0.202127</v>
+        <v>0.204333</v>
       </c>
       <c r="E109" t="n">
-        <v>0.0364843</v>
+        <v>0.0364036</v>
       </c>
       <c r="F109" t="n">
-        <v>0.0530741</v>
+        <v>0.0530668</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0313409</v>
+        <v>0.0313448</v>
       </c>
       <c r="C110" t="n">
-        <v>0.047051</v>
+        <v>0.0471318</v>
       </c>
       <c r="D110" t="n">
-        <v>0.209016</v>
+        <v>0.211284</v>
       </c>
       <c r="E110" t="n">
-        <v>0.0373877</v>
+        <v>0.0373674</v>
       </c>
       <c r="F110" t="n">
-        <v>0.0543963</v>
+        <v>0.0545604</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0330718</v>
+        <v>0.0329335</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0489658</v>
+        <v>0.04912</v>
       </c>
       <c r="D111" t="n">
-        <v>0.216571</v>
+        <v>0.219645</v>
       </c>
       <c r="E111" t="n">
-        <v>0.0381542</v>
+        <v>0.038131</v>
       </c>
       <c r="F111" t="n">
-        <v>0.0556328</v>
+        <v>0.0558275</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0343196</v>
+        <v>0.0341483</v>
       </c>
       <c r="C112" t="n">
-        <v>0.051105</v>
+        <v>0.0510075</v>
       </c>
       <c r="D112" t="n">
-        <v>0.223752</v>
+        <v>0.225541</v>
       </c>
       <c r="E112" t="n">
-        <v>0.0390975</v>
+        <v>0.0389117</v>
       </c>
       <c r="F112" t="n">
-        <v>0.0571625</v>
+        <v>0.0572669</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0363505</v>
+        <v>0.03623</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0529852</v>
+        <v>0.0535373</v>
       </c>
       <c r="D113" t="n">
-        <v>0.231523</v>
+        <v>0.234468</v>
       </c>
       <c r="E113" t="n">
-        <v>0.0399608</v>
+        <v>0.0397627</v>
       </c>
       <c r="F113" t="n">
-        <v>0.058672</v>
+        <v>0.0588557</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0380633</v>
+        <v>0.0384139</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0561387</v>
+        <v>0.0563158</v>
       </c>
       <c r="D114" t="n">
-        <v>0.23874</v>
+        <v>0.240684</v>
       </c>
       <c r="E114" t="n">
-        <v>0.0409158</v>
+        <v>0.0408252</v>
       </c>
       <c r="F114" t="n">
-        <v>0.0603296</v>
+        <v>0.0605654</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.040711</v>
+        <v>0.0407568</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0592874</v>
+        <v>0.059625</v>
       </c>
       <c r="D115" t="n">
-        <v>0.246576</v>
+        <v>0.248701</v>
       </c>
       <c r="E115" t="n">
-        <v>0.0420533</v>
+        <v>0.041882</v>
       </c>
       <c r="F115" t="n">
-        <v>0.0621583</v>
+        <v>0.0624379</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.0443226</v>
+        <v>0.0444731</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0634131</v>
+        <v>0.0637693</v>
       </c>
       <c r="D116" t="n">
-        <v>0.255265</v>
+        <v>0.25757</v>
       </c>
       <c r="E116" t="n">
-        <v>0.0432502</v>
+        <v>0.0432539</v>
       </c>
       <c r="F116" t="n">
-        <v>0.0640333</v>
+        <v>0.0643355</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.0487403</v>
+        <v>0.049071</v>
       </c>
       <c r="C117" t="n">
-        <v>0.06849520000000001</v>
+        <v>0.0687532</v>
       </c>
       <c r="D117" t="n">
-        <v>0.263953</v>
+        <v>0.265303</v>
       </c>
       <c r="E117" t="n">
-        <v>0.0448704</v>
+        <v>0.0447891</v>
       </c>
       <c r="F117" t="n">
-        <v>0.0664665</v>
+        <v>0.0666721</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.0554722</v>
+        <v>0.0552916</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0746477</v>
+        <v>0.0753414</v>
       </c>
       <c r="D118" t="n">
-        <v>0.271938</v>
+        <v>0.273493</v>
       </c>
       <c r="E118" t="n">
-        <v>0.0466981</v>
+        <v>0.0466628</v>
       </c>
       <c r="F118" t="n">
-        <v>0.0693372</v>
+        <v>0.0694539</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.0649677</v>
+        <v>0.06499770000000001</v>
       </c>
       <c r="C119" t="n">
-        <v>0.08306089999999999</v>
+        <v>0.0837319</v>
       </c>
       <c r="D119" t="n">
-        <v>0.280691</v>
+        <v>0.282397</v>
       </c>
       <c r="E119" t="n">
-        <v>0.0493267</v>
+        <v>0.0491486</v>
       </c>
       <c r="F119" t="n">
-        <v>0.0730122</v>
+        <v>0.073172</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.0796463</v>
+        <v>0.0792588</v>
       </c>
       <c r="C120" t="n">
-        <v>0.0945989</v>
+        <v>0.0953658</v>
       </c>
       <c r="D120" t="n">
-        <v>0.2901</v>
+        <v>0.291555</v>
       </c>
       <c r="E120" t="n">
-        <v>0.0529734</v>
+        <v>0.0529651</v>
       </c>
       <c r="F120" t="n">
-        <v>0.07792449999999999</v>
+        <v>0.0780421</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.10054</v>
+        <v>0.100275</v>
       </c>
       <c r="C121" t="n">
-        <v>0.11182</v>
+        <v>0.112818</v>
       </c>
       <c r="D121" t="n">
-        <v>0.207889</v>
+        <v>0.207152</v>
       </c>
       <c r="E121" t="n">
-        <v>0.0587192</v>
+        <v>0.0587042</v>
       </c>
       <c r="F121" t="n">
-        <v>0.08511009999999999</v>
+        <v>0.0852007</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.128886</v>
+        <v>0.128145</v>
       </c>
       <c r="C122" t="n">
-        <v>0.13638</v>
+        <v>0.139222</v>
       </c>
       <c r="D122" t="n">
-        <v>0.213468</v>
+        <v>0.213193</v>
       </c>
       <c r="E122" t="n">
-        <v>0.0686957</v>
+        <v>0.0685099</v>
       </c>
       <c r="F122" t="n">
-        <v>0.09632300000000001</v>
+        <v>0.0966118</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.165053</v>
+        <v>0.162983</v>
       </c>
       <c r="C123" t="n">
-        <v>0.171113</v>
+        <v>0.175501</v>
       </c>
       <c r="D123" t="n">
-        <v>0.220445</v>
+        <v>0.21995</v>
       </c>
       <c r="E123" t="n">
-        <v>0.0407217</v>
+        <v>0.04104</v>
       </c>
       <c r="F123" t="n">
-        <v>0.0603739</v>
+        <v>0.0606143</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.0345012</v>
+        <v>0.0346216</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0512203</v>
+        <v>0.0518434</v>
       </c>
       <c r="D124" t="n">
-        <v>0.2267</v>
+        <v>0.225997</v>
       </c>
       <c r="E124" t="n">
-        <v>0.0415676</v>
+        <v>0.0417961</v>
       </c>
       <c r="F124" t="n">
-        <v>0.0617198</v>
+        <v>0.0621421</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.0355842</v>
+        <v>0.0358641</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0531942</v>
+        <v>0.0536016</v>
       </c>
       <c r="D125" t="n">
-        <v>0.233672</v>
+        <v>0.232273</v>
       </c>
       <c r="E125" t="n">
-        <v>0.0422789</v>
+        <v>0.0432492</v>
       </c>
       <c r="F125" t="n">
-        <v>0.0633427</v>
+        <v>0.0636346</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.0371282</v>
+        <v>0.0372514</v>
       </c>
       <c r="C126" t="n">
-        <v>0.0552838</v>
+        <v>0.0564613</v>
       </c>
       <c r="D126" t="n">
-        <v>0.241075</v>
+        <v>0.240542</v>
       </c>
       <c r="E126" t="n">
-        <v>0.0429619</v>
+        <v>0.0439823</v>
       </c>
       <c r="F126" t="n">
-        <v>0.0647254</v>
+        <v>0.06510150000000001</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.0385423</v>
+        <v>0.0387441</v>
       </c>
       <c r="C127" t="n">
-        <v>0.0576705</v>
+        <v>0.0592251</v>
       </c>
       <c r="D127" t="n">
-        <v>0.248398</v>
+        <v>0.247756</v>
       </c>
       <c r="E127" t="n">
-        <v>0.0446377</v>
+        <v>0.0449984</v>
       </c>
       <c r="F127" t="n">
-        <v>0.0664486</v>
+        <v>0.0666807</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0410411</v>
+        <v>0.0403733</v>
       </c>
       <c r="C128" t="n">
-        <v>0.0614458</v>
+        <v>0.0622778</v>
       </c>
       <c r="D128" t="n">
-        <v>0.2562</v>
+        <v>0.255321</v>
       </c>
       <c r="E128" t="n">
-        <v>0.0455653</v>
+        <v>0.0459556</v>
       </c>
       <c r="F128" t="n">
-        <v>0.0681316</v>
+        <v>0.068647</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0434778</v>
+        <v>0.0431986</v>
       </c>
       <c r="C129" t="n">
-        <v>0.06516470000000001</v>
+        <v>0.0656645</v>
       </c>
       <c r="D129" t="n">
-        <v>0.264144</v>
+        <v>0.262747</v>
       </c>
       <c r="E129" t="n">
-        <v>0.0468064</v>
+        <v>0.0469943</v>
       </c>
       <c r="F129" t="n">
-        <v>0.06998550000000001</v>
+        <v>0.0705305</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0474651</v>
+        <v>0.0468457</v>
       </c>
       <c r="C130" t="n">
-        <v>0.069601</v>
+        <v>0.0700779</v>
       </c>
       <c r="D130" t="n">
-        <v>0.272098</v>
+        <v>0.270833</v>
       </c>
       <c r="E130" t="n">
-        <v>0.0479249</v>
+        <v>0.0482313</v>
       </c>
       <c r="F130" t="n">
-        <v>0.0721344</v>
+        <v>0.0725687</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0524648</v>
+        <v>0.0523148</v>
       </c>
       <c r="C131" t="n">
-        <v>0.0745289</v>
+        <v>0.0755324</v>
       </c>
       <c r="D131" t="n">
-        <v>0.27953</v>
+        <v>0.278543</v>
       </c>
       <c r="E131" t="n">
-        <v>0.0495476</v>
+        <v>0.049844</v>
       </c>
       <c r="F131" t="n">
-        <v>0.0745813</v>
+        <v>0.0751569</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0592352</v>
+        <v>0.0588717</v>
       </c>
       <c r="C132" t="n">
-        <v>0.0811426</v>
+        <v>0.0820893</v>
       </c>
       <c r="D132" t="n">
-        <v>0.288842</v>
+        <v>0.287027</v>
       </c>
       <c r="E132" t="n">
-        <v>0.0516039</v>
+        <v>0.0518188</v>
       </c>
       <c r="F132" t="n">
-        <v>0.0775401</v>
+        <v>0.0781956</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.06879449999999999</v>
+        <v>0.0686562</v>
       </c>
       <c r="C133" t="n">
-        <v>0.0898326</v>
+        <v>0.09075320000000001</v>
       </c>
       <c r="D133" t="n">
-        <v>0.296536</v>
+        <v>0.295931</v>
       </c>
       <c r="E133" t="n">
-        <v>0.0541648</v>
+        <v>0.0542677</v>
       </c>
       <c r="F133" t="n">
-        <v>0.08120049999999999</v>
+        <v>0.0818628</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.0825536</v>
+        <v>0.0825931</v>
       </c>
       <c r="C134" t="n">
-        <v>0.101284</v>
+        <v>0.102422</v>
       </c>
       <c r="D134" t="n">
-        <v>0.307037</v>
+        <v>0.304971</v>
       </c>
       <c r="E134" t="n">
-        <v>0.0577792</v>
+        <v>0.0578664</v>
       </c>
       <c r="F134" t="n">
-        <v>0.0861821</v>
+        <v>0.08671810000000001</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.10235</v>
+        <v>0.102587</v>
       </c>
       <c r="C135" t="n">
-        <v>0.117513</v>
+        <v>0.119315</v>
       </c>
       <c r="D135" t="n">
-        <v>0.213857</v>
+        <v>0.213826</v>
       </c>
       <c r="E135" t="n">
-        <v>0.0633951</v>
+        <v>0.06347510000000001</v>
       </c>
       <c r="F135" t="n">
-        <v>0.09330579999999999</v>
+        <v>0.0939339</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.130244</v>
+        <v>0.130183</v>
       </c>
       <c r="C136" t="n">
-        <v>0.141424</v>
+        <v>0.144998</v>
       </c>
       <c r="D136" t="n">
-        <v>0.220163</v>
+        <v>0.219571</v>
       </c>
       <c r="E136" t="n">
-        <v>0.0727293</v>
+        <v>0.0729505</v>
       </c>
       <c r="F136" t="n">
-        <v>0.104315</v>
+        <v>0.104963</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.166876</v>
+        <v>0.166162</v>
       </c>
       <c r="C137" t="n">
-        <v>0.176116</v>
+        <v>0.183163</v>
       </c>
       <c r="D137" t="n">
-        <v>0.226203</v>
+        <v>0.226303</v>
       </c>
       <c r="E137" t="n">
-        <v>0.0589862</v>
+        <v>0.0594238</v>
       </c>
       <c r="F137" t="n">
-        <v>0.07862429999999999</v>
+        <v>0.07969809999999999</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0472568</v>
+        <v>0.0470137</v>
       </c>
       <c r="C138" t="n">
-        <v>0.0658671</v>
+        <v>0.0663472</v>
       </c>
       <c r="D138" t="n">
-        <v>0.233206</v>
+        <v>0.232961</v>
       </c>
       <c r="E138" t="n">
-        <v>0.060253</v>
+        <v>0.0599993</v>
       </c>
       <c r="F138" t="n">
-        <v>0.0799363</v>
+        <v>0.0810607</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0483564</v>
+        <v>0.0480773</v>
       </c>
       <c r="C139" t="n">
-        <v>0.0671221</v>
+        <v>0.068178</v>
       </c>
       <c r="D139" t="n">
-        <v>0.24047</v>
+        <v>0.240655</v>
       </c>
       <c r="E139" t="n">
-        <v>0.0602952</v>
+        <v>0.0606916</v>
       </c>
       <c r="F139" t="n">
-        <v>0.0811926</v>
+        <v>0.0822894</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.0492593</v>
+        <v>0.0496756</v>
       </c>
       <c r="C140" t="n">
-        <v>0.0696233</v>
+        <v>0.0697883</v>
       </c>
       <c r="D140" t="n">
-        <v>0.247539</v>
+        <v>0.247958</v>
       </c>
       <c r="E140" t="n">
-        <v>0.0612202</v>
+        <v>0.0615425</v>
       </c>
       <c r="F140" t="n">
-        <v>0.08215600000000001</v>
+        <v>0.08371480000000001</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0514378</v>
+        <v>0.0513539</v>
       </c>
       <c r="C141" t="n">
-        <v>0.071455</v>
+        <v>0.0720489</v>
       </c>
       <c r="D141" t="n">
-        <v>0.255507</v>
+        <v>0.255624</v>
       </c>
       <c r="E141" t="n">
-        <v>0.062773</v>
+        <v>0.06289069999999999</v>
       </c>
       <c r="F141" t="n">
-        <v>0.08458789999999999</v>
+        <v>0.08534269999999999</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.0533874</v>
+        <v>0.0536299</v>
       </c>
       <c r="C142" t="n">
-        <v>0.0742172</v>
+        <v>0.0751768</v>
       </c>
       <c r="D142" t="n">
-        <v>0.264025</v>
+        <v>0.263717</v>
       </c>
       <c r="E142" t="n">
-        <v>0.0633247</v>
+        <v>0.0629728</v>
       </c>
       <c r="F142" t="n">
-        <v>0.085672</v>
+        <v>0.0866111</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.0560663</v>
+        <v>0.056156</v>
       </c>
       <c r="C143" t="n">
-        <v>0.0773148</v>
+        <v>0.0782037</v>
       </c>
       <c r="D143" t="n">
-        <v>0.272107</v>
+        <v>0.272165</v>
       </c>
       <c r="E143" t="n">
-        <v>0.0643447</v>
+        <v>0.0641852</v>
       </c>
       <c r="F143" t="n">
-        <v>0.0873908</v>
+        <v>0.0884543</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered unsuccessful looukp.xlsx
+++ b/clang-arm64/Scattered unsuccessful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0193921</v>
+        <v>0.0181155</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0186471</v>
+        <v>0.0184004</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0651211</v>
+        <v>0.0692286</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0215684</v>
+        <v>0.0216267</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0213484</v>
+        <v>0.021375</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.020618</v>
+        <v>0.0214601</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0218034</v>
+        <v>0.0203378</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0764127</v>
+        <v>0.07099510000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0221425</v>
+        <v>0.0220906</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0218909</v>
+        <v>0.021995</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0263035</v>
+        <v>0.0248367</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0249392</v>
+        <v>0.0241817</v>
       </c>
       <c r="D4" t="n">
-        <v>0.07617649999999999</v>
+        <v>0.0773914</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0229772</v>
+        <v>0.0229607</v>
       </c>
       <c r="F4" t="n">
-        <v>0.023075</v>
+        <v>0.022995</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0323933</v>
+        <v>0.0313259</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0400993</v>
+        <v>0.0330641</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0742215</v>
+        <v>0.0784006</v>
       </c>
       <c r="E5" t="n">
-        <v>0.024339</v>
+        <v>0.0244199</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0237757</v>
+        <v>0.0236985</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0449133</v>
+        <v>0.0463633</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0442192</v>
+        <v>0.0444163</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0845709</v>
+        <v>0.0841499</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0265505</v>
+        <v>0.0264961</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0256298</v>
+        <v>0.0256047</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0658818</v>
+        <v>0.0627374</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0617719</v>
+        <v>0.065265</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0559362</v>
+        <v>0.057874</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0304389</v>
+        <v>0.0306437</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0299406</v>
+        <v>0.0296627</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0882787</v>
+        <v>0.0886398</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0902507</v>
+        <v>0.0863418</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0635037</v>
+        <v>0.059839</v>
       </c>
       <c r="E8" t="n">
-        <v>0.037888</v>
+        <v>0.0382484</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0380036</v>
+        <v>0.0375052</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.118697</v>
+        <v>0.118492</v>
       </c>
       <c r="C9" t="n">
-        <v>0.114995</v>
+        <v>0.110515</v>
       </c>
       <c r="D9" t="n">
-        <v>0.06752370000000001</v>
+        <v>0.06382740000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>0.019199</v>
+        <v>0.0191972</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0191674</v>
+        <v>0.019166</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0162873</v>
+        <v>0.016162</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0161849</v>
+        <v>0.01604</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0675765</v>
+        <v>0.0679223</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0194519</v>
+        <v>0.0194456</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0193773</v>
+        <v>0.0193774</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.016551</v>
+        <v>0.0169673</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0165878</v>
+        <v>0.0166024</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0711338</v>
+        <v>0.0703269</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0197467</v>
+        <v>0.0197465</v>
       </c>
       <c r="F11" t="n">
-        <v>0.019672</v>
+        <v>0.0196692</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0170852</v>
+        <v>0.0171223</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0169578</v>
+        <v>0.0172238</v>
       </c>
       <c r="D12" t="n">
-        <v>0.07486429999999999</v>
+        <v>0.0728047</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0200974</v>
+        <v>0.0200673</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0201385</v>
+        <v>0.0201091</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0177161</v>
+        <v>0.0176053</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0178173</v>
+        <v>0.0178775</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0783652</v>
+        <v>0.0769765</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0203996</v>
+        <v>0.0203854</v>
       </c>
       <c r="F13" t="n">
-        <v>0.020303</v>
+        <v>0.0202769</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0180446</v>
+        <v>0.0185744</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0183742</v>
+        <v>0.0184897</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0817447</v>
+        <v>0.0794388</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0206951</v>
+        <v>0.0207177</v>
       </c>
       <c r="F14" t="n">
-        <v>0.020624</v>
+        <v>0.0205994</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0198239</v>
+        <v>0.019769</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0197087</v>
+        <v>0.0196081</v>
       </c>
       <c r="D15" t="n">
-        <v>0.08310389999999999</v>
+        <v>0.0835781</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0212329</v>
+        <v>0.021221</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0211459</v>
+        <v>0.0211334</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0218668</v>
+        <v>0.0221412</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0214985</v>
+        <v>0.0211153</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0876065</v>
+        <v>0.0882657</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0219412</v>
+        <v>0.0219179</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0218317</v>
+        <v>0.0218198</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0254473</v>
+        <v>0.0256167</v>
       </c>
       <c r="C17" t="n">
-        <v>0.025924</v>
+        <v>0.0243171</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0922468</v>
+        <v>0.0880379</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0227317</v>
+        <v>0.022772</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0225283</v>
+        <v>0.022565</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0321027</v>
+        <v>0.0304404</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0309021</v>
+        <v>0.0297786</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0935482</v>
+        <v>0.091803</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0235165</v>
+        <v>0.0235288</v>
       </c>
       <c r="F18" t="n">
-        <v>0.023215</v>
+        <v>0.0231978</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0408143</v>
+        <v>0.0404663</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0403713</v>
+        <v>0.0383303</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0930976</v>
+        <v>0.0964537</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0248624</v>
+        <v>0.0248744</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0244384</v>
+        <v>0.0243501</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0506906</v>
+        <v>0.0524274</v>
       </c>
       <c r="C20" t="n">
-        <v>0.053136</v>
+        <v>0.0493523</v>
       </c>
       <c r="D20" t="n">
-        <v>0.09793350000000001</v>
+        <v>0.0985833</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0273377</v>
+        <v>0.0272323</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0268834</v>
+        <v>0.0267664</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.06947589999999999</v>
+        <v>0.0683906</v>
       </c>
       <c r="C21" t="n">
-        <v>0.06895179999999999</v>
+        <v>0.0654569</v>
       </c>
       <c r="D21" t="n">
-        <v>0.06559</v>
+        <v>0.06568690000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0309656</v>
+        <v>0.0310954</v>
       </c>
       <c r="F21" t="n">
-        <v>0.030805</v>
+        <v>0.0305885</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.09165810000000001</v>
+        <v>0.0933108</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0938047</v>
+        <v>0.08996759999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0688617</v>
+        <v>0.06811200000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>0.039284</v>
+        <v>0.0390337</v>
       </c>
       <c r="F22" t="n">
-        <v>0.039488</v>
+        <v>0.0392114</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.12086</v>
+        <v>0.121078</v>
       </c>
       <c r="C23" t="n">
-        <v>0.120831</v>
+        <v>0.117321</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0720817</v>
+        <v>0.0715316</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0189961</v>
+        <v>0.0190128</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0188608</v>
+        <v>0.0188688</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0164095</v>
+        <v>0.0169131</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0162748</v>
+        <v>0.0166068</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0760073</v>
+        <v>0.07677920000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0192505</v>
+        <v>0.019209</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0191287</v>
+        <v>0.0191301</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0169585</v>
+        <v>0.0174532</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0167885</v>
+        <v>0.0171261</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0798798</v>
+        <v>0.0796313</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0194386</v>
+        <v>0.0194957</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0193447</v>
+        <v>0.0193192</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0178776</v>
+        <v>0.0180748</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0175541</v>
+        <v>0.0176837</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0819307</v>
+        <v>0.0827143</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0196797</v>
+        <v>0.0196506</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0195872</v>
+        <v>0.0195913</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.018628</v>
+        <v>0.0189752</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0183243</v>
+        <v>0.018631</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0855178</v>
+        <v>0.08408939999999999</v>
       </c>
       <c r="E27" t="n">
-        <v>0.020071</v>
+        <v>0.020061</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0199798</v>
+        <v>0.0199769</v>
       </c>
     </row>
     <row r="28">
@@ -5604,16 +5604,16 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0204023</v>
+        <v>0.0207041</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0198278</v>
+        <v>0.0201938</v>
       </c>
       <c r="D28" t="n">
-        <v>0.08837680000000001</v>
+        <v>0.08916209999999999</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0205075</v>
+        <v>0.0205606</v>
       </c>
       <c r="F28" t="n">
         <v>0.020382</v>
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0226629</v>
+        <v>0.0228639</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0221165</v>
+        <v>0.0221174</v>
       </c>
       <c r="D29" t="n">
-        <v>0.09076190000000001</v>
+        <v>0.09193079999999999</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0212009</v>
+        <v>0.0211399</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0210324</v>
+        <v>0.020973</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0254525</v>
+        <v>0.025875</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0250608</v>
+        <v>0.0246755</v>
       </c>
       <c r="D30" t="n">
-        <v>0.09438340000000001</v>
+        <v>0.0933119</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0217353</v>
+        <v>0.0217016</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0216515</v>
+        <v>0.0215727</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0298213</v>
+        <v>0.029169</v>
       </c>
       <c r="C31" t="n">
-        <v>0.029972</v>
+        <v>0.0293875</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0972643</v>
+        <v>0.0959262</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0226093</v>
+        <v>0.0226651</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0224072</v>
+        <v>0.0223896</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.036106</v>
+        <v>0.0374609</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0363934</v>
+        <v>0.0356313</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0986947</v>
+        <v>0.0980216</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0235648</v>
+        <v>0.023619</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0233654</v>
+        <v>0.023331</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0440745</v>
+        <v>0.0456857</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0430802</v>
+        <v>0.0446542</v>
       </c>
       <c r="D33" t="n">
-        <v>0.10026</v>
+        <v>0.100224</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0249615</v>
+        <v>0.0249309</v>
       </c>
       <c r="F33" t="n">
-        <v>0.024737</v>
+        <v>0.0247415</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0561342</v>
+        <v>0.0564159</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0548774</v>
+        <v>0.0566075</v>
       </c>
       <c r="D34" t="n">
-        <v>0.102641</v>
+        <v>0.101707</v>
       </c>
       <c r="E34" t="n">
-        <v>0.027374</v>
+        <v>0.0273939</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0273187</v>
+        <v>0.0271994</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.071795</v>
+        <v>0.0735333</v>
       </c>
       <c r="C35" t="n">
-        <v>0.07086969999999999</v>
+        <v>0.0737211</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0693397</v>
+        <v>0.06951599999999999</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0311926</v>
+        <v>0.0312736</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0311931</v>
+        <v>0.0312225</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.09422079999999999</v>
+        <v>0.0959778</v>
       </c>
       <c r="C36" t="n">
-        <v>0.09481299999999999</v>
+        <v>0.0958558</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0723775</v>
+        <v>0.07208489999999999</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0378414</v>
+        <v>0.0378662</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0381778</v>
+        <v>0.0380903</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.120452</v>
+        <v>0.119987</v>
       </c>
       <c r="C37" t="n">
-        <v>0.121287</v>
+        <v>0.122812</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0756555</v>
+        <v>0.0760802</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0194256</v>
+        <v>0.0194397</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0194562</v>
+        <v>0.0194572</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0171413</v>
+        <v>0.0168651</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0170702</v>
+        <v>0.0169572</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0793841</v>
+        <v>0.0784091</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0197583</v>
+        <v>0.01975</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0197826</v>
+        <v>0.0197967</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0177468</v>
+        <v>0.0176674</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0177177</v>
+        <v>0.017701</v>
       </c>
       <c r="D39" t="n">
-        <v>0.08290989999999999</v>
+        <v>0.0825232</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0200972</v>
+        <v>0.0201</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0201021</v>
+        <v>0.0201102</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0187144</v>
+        <v>0.0187526</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0186241</v>
+        <v>0.0186296</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0859959</v>
+        <v>0.0857493</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0204109</v>
+        <v>0.0204205</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0204636</v>
+        <v>0.0204579</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0200622</v>
+        <v>0.0199072</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0197243</v>
+        <v>0.0198507</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0890005</v>
+        <v>0.08873490000000001</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0207591</v>
+        <v>0.0207644</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0207786</v>
+        <v>0.020787</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0219765</v>
+        <v>0.021739</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0215504</v>
+        <v>0.0214066</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0921848</v>
+        <v>0.0919011</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0211956</v>
+        <v>0.0211977</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0212001</v>
+        <v>0.0212123</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0246508</v>
+        <v>0.024059</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0237497</v>
+        <v>0.0239526</v>
       </c>
       <c r="D43" t="n">
-        <v>0.09515129999999999</v>
+        <v>0.0947812</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0217942</v>
+        <v>0.0217904</v>
       </c>
       <c r="F43" t="n">
-        <v>0.021836</v>
+        <v>0.0218374</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0284382</v>
+        <v>0.0280414</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0270054</v>
+        <v>0.0272215</v>
       </c>
       <c r="D44" t="n">
-        <v>0.097174</v>
+        <v>0.0970704</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0225308</v>
+        <v>0.0225256</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0226352</v>
+        <v>0.0226484</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0326313</v>
+        <v>0.0321565</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0317255</v>
+        <v>0.0319236</v>
       </c>
       <c r="D45" t="n">
-        <v>0.099564</v>
+        <v>0.09990060000000001</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0233512</v>
+        <v>0.0233231</v>
       </c>
       <c r="F45" t="n">
-        <v>0.023419</v>
+        <v>0.023392</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0383704</v>
+        <v>0.0382789</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0374348</v>
+        <v>0.0378578</v>
       </c>
       <c r="D46" t="n">
-        <v>0.101999</v>
+        <v>0.101591</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0245701</v>
+        <v>0.0246065</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0246073</v>
+        <v>0.0246307</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0459481</v>
+        <v>0.0455349</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0440827</v>
+        <v>0.0451077</v>
       </c>
       <c r="D47" t="n">
-        <v>0.104099</v>
+        <v>0.104563</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0261002</v>
+        <v>0.0261011</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0261741</v>
+        <v>0.0261837</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.057032</v>
+        <v>0.0556064</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0556613</v>
+        <v>0.0555782</v>
       </c>
       <c r="D48" t="n">
-        <v>0.106553</v>
+        <v>0.10567</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0287808</v>
+        <v>0.0287967</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0288264</v>
+        <v>0.0288357</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0705218</v>
+        <v>0.0696576</v>
       </c>
       <c r="C49" t="n">
-        <v>0.06965730000000001</v>
+        <v>0.0700199</v>
       </c>
       <c r="D49" t="n">
-        <v>0.108721</v>
+        <v>0.108871</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0323138</v>
+        <v>0.0323198</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0324916</v>
+        <v>0.0324971</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.09185260000000001</v>
+        <v>0.0899025</v>
       </c>
       <c r="C50" t="n">
-        <v>0.09092359999999999</v>
+        <v>0.0916993</v>
       </c>
       <c r="D50" t="n">
-        <v>0.07556499999999999</v>
+        <v>0.07610459999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0382581</v>
+        <v>0.0383123</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0384712</v>
+        <v>0.0383958</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.116607</v>
+        <v>0.115996</v>
       </c>
       <c r="C51" t="n">
-        <v>0.118591</v>
+        <v>0.118676</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0790884</v>
+        <v>0.0790558</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0204735</v>
+        <v>0.0204595</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0204761</v>
+        <v>0.0205</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.142549</v>
+        <v>0.141453</v>
       </c>
       <c r="C52" t="n">
-        <v>0.143182</v>
+        <v>0.143181</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0827669</v>
+        <v>0.0823113</v>
       </c>
       <c r="E52" t="n">
-        <v>0.020735</v>
+        <v>0.0207537</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0207501</v>
+        <v>0.02077</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0190122</v>
+        <v>0.0189893</v>
       </c>
       <c r="C53" t="n">
-        <v>0.018924</v>
+        <v>0.0188923</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0863516</v>
+        <v>0.0865167</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0210508</v>
+        <v>0.0210756</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0211446</v>
+        <v>0.0211094</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0203591</v>
+        <v>0.0202493</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0199103</v>
+        <v>0.0200718</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0894914</v>
+        <v>0.0903712</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0213765</v>
+        <v>0.0213676</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0214243</v>
+        <v>0.021375</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0218336</v>
+        <v>0.0217822</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0214253</v>
+        <v>0.0215733</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0937707</v>
+        <v>0.092955</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0217619</v>
+        <v>0.0217642</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0218284</v>
+        <v>0.0217789</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0239355</v>
+        <v>0.0237532</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0233444</v>
+        <v>0.0235934</v>
       </c>
       <c r="D56" t="n">
-        <v>0.09633220000000001</v>
+        <v>0.09665840000000001</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0222242</v>
+        <v>0.0222657</v>
       </c>
       <c r="F56" t="n">
-        <v>0.022363</v>
+        <v>0.022318</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0263712</v>
+        <v>0.0261817</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0258938</v>
+        <v>0.0263899</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0987913</v>
+        <v>0.0991364</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0228002</v>
+        <v>0.0227882</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0228464</v>
+        <v>0.0228255</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0297518</v>
+        <v>0.0297223</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0293701</v>
+        <v>0.029528</v>
       </c>
       <c r="D58" t="n">
-        <v>0.102741</v>
+        <v>0.102476</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0234287</v>
+        <v>0.023423</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0236149</v>
+        <v>0.0235205</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0341056</v>
+        <v>0.0341704</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0335721</v>
+        <v>0.0339718</v>
       </c>
       <c r="D59" t="n">
-        <v>0.104289</v>
+        <v>0.104684</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0243463</v>
+        <v>0.0243751</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0244278</v>
+        <v>0.0243746</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0397462</v>
+        <v>0.0392648</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0394424</v>
+        <v>0.0393074</v>
       </c>
       <c r="D60" t="n">
-        <v>0.107621</v>
+        <v>0.10891</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0256516</v>
+        <v>0.0256588</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0257151</v>
+        <v>0.0257172</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0469187</v>
+        <v>0.0464473</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0469272</v>
+        <v>0.0462014</v>
       </c>
       <c r="D61" t="n">
-        <v>0.109695</v>
+        <v>0.110981</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0273995</v>
+        <v>0.0273756</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0274599</v>
+        <v>0.0275168</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.056764</v>
+        <v>0.0559115</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0566263</v>
+        <v>0.056005</v>
       </c>
       <c r="D62" t="n">
-        <v>0.111102</v>
+        <v>0.113609</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0299676</v>
+        <v>0.0299441</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0300871</v>
+        <v>0.030058</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0700862</v>
+        <v>0.0700717</v>
       </c>
       <c r="C63" t="n">
-        <v>0.07079779999999999</v>
+        <v>0.0695274</v>
       </c>
       <c r="D63" t="n">
-        <v>0.117279</v>
+        <v>0.116402</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0338032</v>
+        <v>0.033793</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0340411</v>
+        <v>0.0340338</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.08950139999999999</v>
+        <v>0.0890962</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0901092</v>
+        <v>0.0897529</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0810985</v>
+        <v>0.0810555</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0399663</v>
+        <v>0.0399434</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0403834</v>
+        <v>0.0401727</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.114579</v>
+        <v>0.115511</v>
       </c>
       <c r="C65" t="n">
-        <v>0.116232</v>
+        <v>0.116871</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0862299</v>
+        <v>0.08555749999999999</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0508814</v>
+        <v>0.0509316</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0513471</v>
+        <v>0.0512276</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.146011</v>
+        <v>0.147066</v>
       </c>
       <c r="C66" t="n">
-        <v>0.147167</v>
+        <v>0.146569</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0901192</v>
+        <v>0.09190719999999999</v>
       </c>
       <c r="E66" t="n">
-        <v>0.021015</v>
+        <v>0.0210292</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0210611</v>
+        <v>0.0210633</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0196827</v>
+        <v>0.0196211</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0195891</v>
+        <v>0.0196287</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0958891</v>
+        <v>0.0960882</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0213736</v>
+        <v>0.0213459</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0214012</v>
+        <v>0.0214167</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0210043</v>
+        <v>0.0209425</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0209604</v>
+        <v>0.0210013</v>
       </c>
       <c r="D68" t="n">
-        <v>0.100875</v>
+        <v>0.100557</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0216872</v>
+        <v>0.021703</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0217405</v>
+        <v>0.0217642</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0227553</v>
+        <v>0.022681</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0225167</v>
+        <v>0.0223652</v>
       </c>
       <c r="D69" t="n">
-        <v>0.10523</v>
+        <v>0.103753</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0220352</v>
+        <v>0.022048</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0220833</v>
+        <v>0.0221123</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0245665</v>
+        <v>0.0245538</v>
       </c>
       <c r="C70" t="n">
-        <v>0.024636</v>
+        <v>0.0243883</v>
       </c>
       <c r="D70" t="n">
-        <v>0.111795</v>
+        <v>0.109913</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0224802</v>
+        <v>0.0225249</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0225525</v>
+        <v>0.0225815</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.027391</v>
+        <v>0.0271805</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0268421</v>
+        <v>0.0268476</v>
       </c>
       <c r="D71" t="n">
-        <v>0.115617</v>
+        <v>0.114053</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0230233</v>
+        <v>0.0230674</v>
       </c>
       <c r="F71" t="n">
-        <v>0.023081</v>
+        <v>0.0231651</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0306565</v>
+        <v>0.0304651</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0301264</v>
+        <v>0.0300859</v>
       </c>
       <c r="D72" t="n">
-        <v>0.119828</v>
+        <v>0.120229</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0238197</v>
+        <v>0.0238061</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0238651</v>
+        <v>0.0238941</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0345612</v>
+        <v>0.034523</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0343956</v>
+        <v>0.0341636</v>
       </c>
       <c r="D73" t="n">
-        <v>0.12519</v>
+        <v>0.125252</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0247535</v>
+        <v>0.0247124</v>
       </c>
       <c r="F73" t="n">
-        <v>0.024777</v>
+        <v>0.0247898</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0399292</v>
+        <v>0.0397082</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0394395</v>
+        <v>0.0395166</v>
       </c>
       <c r="D74" t="n">
-        <v>0.131924</v>
+        <v>0.131463</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0258309</v>
+        <v>0.0258878</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0260074</v>
+        <v>0.0261362</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0467449</v>
+        <v>0.0466137</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0464104</v>
+        <v>0.0463132</v>
       </c>
       <c r="D75" t="n">
-        <v>0.135437</v>
+        <v>0.135978</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0275913</v>
+        <v>0.0275707</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0277357</v>
+        <v>0.0279721</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0563424</v>
+        <v>0.0563577</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0557607</v>
+        <v>0.0559439</v>
       </c>
       <c r="D76" t="n">
-        <v>0.140617</v>
+        <v>0.140202</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0300138</v>
+        <v>0.0300444</v>
       </c>
       <c r="F76" t="n">
-        <v>0.030224</v>
+        <v>0.0302503</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0692763</v>
+        <v>0.06930500000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0688764</v>
+        <v>0.0684878</v>
       </c>
       <c r="D77" t="n">
-        <v>0.147474</v>
+        <v>0.146228</v>
       </c>
       <c r="E77" t="n">
-        <v>0.033718</v>
+        <v>0.0338112</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0341281</v>
+        <v>0.0340884</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0872874</v>
+        <v>0.08767709999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0875397</v>
+        <v>0.0875011</v>
       </c>
       <c r="D78" t="n">
-        <v>0.110139</v>
+        <v>0.109722</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0394789</v>
+        <v>0.0394171</v>
       </c>
       <c r="F78" t="n">
-        <v>0.039898</v>
+        <v>0.0397647</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.111582</v>
+        <v>0.111688</v>
       </c>
       <c r="C79" t="n">
-        <v>0.112531</v>
+        <v>0.11242</v>
       </c>
       <c r="D79" t="n">
-        <v>0.121269</v>
+        <v>0.117058</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0492263</v>
+        <v>0.0492467</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0495261</v>
+        <v>0.0496436</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.143639</v>
+        <v>0.142873</v>
       </c>
       <c r="C80" t="n">
-        <v>0.143794</v>
+        <v>0.144055</v>
       </c>
       <c r="D80" t="n">
-        <v>0.125326</v>
+        <v>0.12457</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0212785</v>
+        <v>0.0213358</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0218031</v>
+        <v>0.0218695</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.020281</v>
+        <v>0.0200126</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0201123</v>
+        <v>0.0201658</v>
       </c>
       <c r="D81" t="n">
-        <v>0.134418</v>
+        <v>0.132377</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0216399</v>
+        <v>0.0216706</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0223031</v>
+        <v>0.0223079</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0213587</v>
+        <v>0.0212294</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0218663</v>
+        <v>0.0215317</v>
       </c>
       <c r="D82" t="n">
-        <v>0.143541</v>
+        <v>0.140469</v>
       </c>
       <c r="E82" t="n">
-        <v>0.022039</v>
+        <v>0.0220514</v>
       </c>
       <c r="F82" t="n">
-        <v>0.0231573</v>
+        <v>0.0228478</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0229456</v>
+        <v>0.0228332</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0231395</v>
+        <v>0.0232735</v>
       </c>
       <c r="D83" t="n">
-        <v>0.151115</v>
+        <v>0.146544</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0224322</v>
+        <v>0.0225461</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0237331</v>
+        <v>0.0238484</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0247706</v>
+        <v>0.0247093</v>
       </c>
       <c r="C84" t="n">
-        <v>0.025173</v>
+        <v>0.0251091</v>
       </c>
       <c r="D84" t="n">
-        <v>0.156752</v>
+        <v>0.154058</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0229647</v>
+        <v>0.0230979</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0245643</v>
+        <v>0.0245366</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0275588</v>
+        <v>0.0271823</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0279864</v>
+        <v>0.0277608</v>
       </c>
       <c r="D85" t="n">
-        <v>0.161516</v>
+        <v>0.160897</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0236027</v>
+        <v>0.0236881</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0259733</v>
+        <v>0.0257486</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0302908</v>
+        <v>0.0302111</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0308174</v>
+        <v>0.0308522</v>
       </c>
       <c r="D86" t="n">
-        <v>0.17028</v>
+        <v>0.167894</v>
       </c>
       <c r="E86" t="n">
-        <v>0.0244762</v>
+        <v>0.0245033</v>
       </c>
       <c r="F86" t="n">
-        <v>0.0268836</v>
+        <v>0.0270742</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0342801</v>
+        <v>0.0341044</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0348105</v>
+        <v>0.0344836</v>
       </c>
       <c r="D87" t="n">
-        <v>0.180825</v>
+        <v>0.176989</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0254823</v>
+        <v>0.0255102</v>
       </c>
       <c r="F87" t="n">
-        <v>0.0284036</v>
+        <v>0.0285234</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0392986</v>
+        <v>0.0390541</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0395328</v>
+        <v>0.0394726</v>
       </c>
       <c r="D88" t="n">
-        <v>0.182283</v>
+        <v>0.182068</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0267595</v>
+        <v>0.0268223</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0301789</v>
+        <v>0.0301635</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0459011</v>
+        <v>0.0458217</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0459677</v>
+        <v>0.0459838</v>
       </c>
       <c r="D89" t="n">
-        <v>0.193123</v>
+        <v>0.19129</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0283939</v>
+        <v>0.028422</v>
       </c>
       <c r="F89" t="n">
-        <v>0.03203</v>
+        <v>0.0322309</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.054482</v>
+        <v>0.0546437</v>
       </c>
       <c r="C90" t="n">
-        <v>0.054831</v>
+        <v>0.0548152</v>
       </c>
       <c r="D90" t="n">
-        <v>0.198804</v>
+        <v>0.197393</v>
       </c>
       <c r="E90" t="n">
-        <v>0.0308088</v>
+        <v>0.0308788</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0348003</v>
+        <v>0.0346857</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.06651650000000001</v>
+        <v>0.0663729</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0668122</v>
+        <v>0.06691859999999999</v>
       </c>
       <c r="D91" t="n">
-        <v>0.207925</v>
+        <v>0.206785</v>
       </c>
       <c r="E91" t="n">
-        <v>0.034144</v>
+        <v>0.0342203</v>
       </c>
       <c r="F91" t="n">
-        <v>0.0382636</v>
+        <v>0.0382243</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0835526</v>
+        <v>0.0839776</v>
       </c>
       <c r="C92" t="n">
-        <v>0.08425920000000001</v>
+        <v>0.08464679999999999</v>
       </c>
       <c r="D92" t="n">
-        <v>0.156239</v>
+        <v>0.15573</v>
       </c>
       <c r="E92" t="n">
-        <v>0.0392969</v>
+        <v>0.0392692</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0438451</v>
+        <v>0.0436516</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.107487</v>
+        <v>0.107441</v>
       </c>
       <c r="C93" t="n">
-        <v>0.108763</v>
+        <v>0.108683</v>
       </c>
       <c r="D93" t="n">
-        <v>0.163923</v>
+        <v>0.161844</v>
       </c>
       <c r="E93" t="n">
-        <v>0.0481543</v>
+        <v>0.0482235</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0535145</v>
+        <v>0.0537154</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.138296</v>
+        <v>0.138461</v>
       </c>
       <c r="C94" t="n">
-        <v>0.13957</v>
+        <v>0.139619</v>
       </c>
       <c r="D94" t="n">
-        <v>0.167816</v>
+        <v>0.169378</v>
       </c>
       <c r="E94" t="n">
-        <v>0.0230102</v>
+        <v>0.0230203</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0283301</v>
+        <v>0.0282742</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0211004</v>
+        <v>0.0205825</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0246706</v>
+        <v>0.0247138</v>
       </c>
       <c r="D95" t="n">
-        <v>0.176707</v>
+        <v>0.175867</v>
       </c>
       <c r="E95" t="n">
-        <v>0.0234709</v>
+        <v>0.0234831</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0295818</v>
+        <v>0.0295299</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0218996</v>
+        <v>0.0218576</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0263776</v>
+        <v>0.0268492</v>
       </c>
       <c r="D96" t="n">
-        <v>0.182879</v>
+        <v>0.180789</v>
       </c>
       <c r="E96" t="n">
-        <v>0.0239962</v>
+        <v>0.0240089</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0314223</v>
+        <v>0.0315178</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.023416</v>
+        <v>0.0230471</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0294247</v>
+        <v>0.0293744</v>
       </c>
       <c r="D97" t="n">
-        <v>0.190234</v>
+        <v>0.189917</v>
       </c>
       <c r="E97" t="n">
-        <v>0.0246296</v>
+        <v>0.0246109</v>
       </c>
       <c r="F97" t="n">
-        <v>0.0345996</v>
+        <v>0.0346255</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0253312</v>
+        <v>0.0247859</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0329781</v>
+        <v>0.0331088</v>
       </c>
       <c r="D98" t="n">
-        <v>0.194777</v>
+        <v>0.196807</v>
       </c>
       <c r="E98" t="n">
-        <v>0.0254916</v>
+        <v>0.0254343</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0383183</v>
+        <v>0.0383177</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0271447</v>
+        <v>0.0272871</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0379096</v>
+        <v>0.0383457</v>
       </c>
       <c r="D99" t="n">
-        <v>0.204823</v>
+        <v>0.204373</v>
       </c>
       <c r="E99" t="n">
-        <v>0.0268811</v>
+        <v>0.0269369</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0426534</v>
+        <v>0.0427012</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0303647</v>
+        <v>0.0302686</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0439735</v>
+        <v>0.0438416</v>
       </c>
       <c r="D100" t="n">
-        <v>0.212582</v>
+        <v>0.21188</v>
       </c>
       <c r="E100" t="n">
-        <v>0.0290289</v>
+        <v>0.0290526</v>
       </c>
       <c r="F100" t="n">
-        <v>0.0467389</v>
+        <v>0.046867</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0344804</v>
+        <v>0.0341802</v>
       </c>
       <c r="C101" t="n">
-        <v>0.049874</v>
+        <v>0.0497732</v>
       </c>
       <c r="D101" t="n">
-        <v>0.219687</v>
+        <v>0.219214</v>
       </c>
       <c r="E101" t="n">
-        <v>0.0319421</v>
+        <v>0.0319452</v>
       </c>
       <c r="F101" t="n">
-        <v>0.0507136</v>
+        <v>0.0506203</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.039691</v>
+        <v>0.0395455</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0556005</v>
+        <v>0.0554294</v>
       </c>
       <c r="D102" t="n">
-        <v>0.227683</v>
+        <v>0.226751</v>
       </c>
       <c r="E102" t="n">
-        <v>0.0350408</v>
+        <v>0.0350493</v>
       </c>
       <c r="F102" t="n">
-        <v>0.0540343</v>
+        <v>0.0539531</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.046215</v>
+        <v>0.0463684</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0619463</v>
+        <v>0.0618544</v>
       </c>
       <c r="D103" t="n">
-        <v>0.234811</v>
+        <v>0.234607</v>
       </c>
       <c r="E103" t="n">
-        <v>0.0383281</v>
+        <v>0.0380855</v>
       </c>
       <c r="F103" t="n">
-        <v>0.0573311</v>
+        <v>0.0571826</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0541473</v>
+        <v>0.054121</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0689983</v>
+        <v>0.068882</v>
       </c>
       <c r="D104" t="n">
-        <v>0.243525</v>
+        <v>0.243295</v>
       </c>
       <c r="E104" t="n">
-        <v>0.0415427</v>
+        <v>0.041389</v>
       </c>
       <c r="F104" t="n">
-        <v>0.0607456</v>
+        <v>0.060697</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0654028</v>
+        <v>0.0652416</v>
       </c>
       <c r="C105" t="n">
-        <v>0.078289</v>
+        <v>0.0779687</v>
       </c>
       <c r="D105" t="n">
-        <v>0.252271</v>
+        <v>0.251973</v>
       </c>
       <c r="E105" t="n">
-        <v>0.0446478</v>
+        <v>0.0447431</v>
       </c>
       <c r="F105" t="n">
-        <v>0.06443500000000001</v>
+        <v>0.0645744</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0810232</v>
+        <v>0.0809105</v>
       </c>
       <c r="C106" t="n">
-        <v>0.091019</v>
+        <v>0.0909073</v>
       </c>
       <c r="D106" t="n">
-        <v>0.262135</v>
+        <v>0.26128</v>
       </c>
       <c r="E106" t="n">
-        <v>0.0489929</v>
+        <v>0.0491216</v>
       </c>
       <c r="F106" t="n">
-        <v>0.0704224</v>
+        <v>0.06955699999999999</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.102845</v>
+        <v>0.102972</v>
       </c>
       <c r="C107" t="n">
-        <v>0.1096</v>
+        <v>0.109775</v>
       </c>
       <c r="D107" t="n">
-        <v>0.190932</v>
+        <v>0.19197</v>
       </c>
       <c r="E107" t="n">
-        <v>0.0556547</v>
+        <v>0.0555336</v>
       </c>
       <c r="F107" t="n">
-        <v>0.07683329999999999</v>
+        <v>0.07680240000000001</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.132617</v>
+        <v>0.132792</v>
       </c>
       <c r="C108" t="n">
-        <v>0.136481</v>
+        <v>0.137119</v>
       </c>
       <c r="D108" t="n">
-        <v>0.19874</v>
+        <v>0.197496</v>
       </c>
       <c r="E108" t="n">
-        <v>0.0351601</v>
+        <v>0.0350719</v>
       </c>
       <c r="F108" t="n">
-        <v>0.0515045</v>
+        <v>0.0513809</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.168021</v>
+        <v>0.168573</v>
       </c>
       <c r="C109" t="n">
-        <v>0.17219</v>
+        <v>0.17318</v>
       </c>
       <c r="D109" t="n">
-        <v>0.203793</v>
+        <v>0.203816</v>
       </c>
       <c r="E109" t="n">
-        <v>0.036178</v>
+        <v>0.0359393</v>
       </c>
       <c r="F109" t="n">
-        <v>0.0528525</v>
+        <v>0.0528601</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.031487</v>
+        <v>0.0307075</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0470141</v>
+        <v>0.0468779</v>
       </c>
       <c r="D110" t="n">
-        <v>0.211789</v>
+        <v>0.210706</v>
       </c>
       <c r="E110" t="n">
-        <v>0.0370797</v>
+        <v>0.0370123</v>
       </c>
       <c r="F110" t="n">
-        <v>0.0543075</v>
+        <v>0.0542237</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0328896</v>
+        <v>0.0325097</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0490185</v>
+        <v>0.0485798</v>
       </c>
       <c r="D111" t="n">
-        <v>0.217334</v>
+        <v>0.217595</v>
       </c>
       <c r="E111" t="n">
-        <v>0.0378829</v>
+        <v>0.0378896</v>
       </c>
       <c r="F111" t="n">
-        <v>0.0557337</v>
+        <v>0.0555547</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0342325</v>
+        <v>0.0340124</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0507457</v>
+        <v>0.0509245</v>
       </c>
       <c r="D112" t="n">
-        <v>0.225225</v>
+        <v>0.226396</v>
       </c>
       <c r="E112" t="n">
-        <v>0.0386958</v>
+        <v>0.0386727</v>
       </c>
       <c r="F112" t="n">
-        <v>0.0571167</v>
+        <v>0.0570184</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0361657</v>
+        <v>0.0361836</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0532522</v>
+        <v>0.0529341</v>
       </c>
       <c r="D113" t="n">
-        <v>0.233621</v>
+        <v>0.233424</v>
       </c>
       <c r="E113" t="n">
-        <v>0.039647</v>
+        <v>0.0395945</v>
       </c>
       <c r="F113" t="n">
-        <v>0.0587627</v>
+        <v>0.0585175</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0383906</v>
+        <v>0.0383045</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0560578</v>
+        <v>0.0558537</v>
       </c>
       <c r="D114" t="n">
-        <v>0.242221</v>
+        <v>0.240304</v>
       </c>
       <c r="E114" t="n">
-        <v>0.0405658</v>
+        <v>0.0405386</v>
       </c>
       <c r="F114" t="n">
-        <v>0.0603238</v>
+        <v>0.0601934</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.040929</v>
+        <v>0.0406614</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0593512</v>
+        <v>0.0591414</v>
       </c>
       <c r="D115" t="n">
-        <v>0.247876</v>
+        <v>0.248423</v>
       </c>
       <c r="E115" t="n">
-        <v>0.0418052</v>
+        <v>0.0416527</v>
       </c>
       <c r="F115" t="n">
-        <v>0.0620963</v>
+        <v>0.0619408</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.0442441</v>
+        <v>0.0442023</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0631478</v>
+        <v>0.06321649999999999</v>
       </c>
       <c r="D116" t="n">
-        <v>0.256535</v>
+        <v>0.256587</v>
       </c>
       <c r="E116" t="n">
-        <v>0.0430108</v>
+        <v>0.04299</v>
       </c>
       <c r="F116" t="n">
-        <v>0.0639692</v>
+        <v>0.06403780000000001</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.0487765</v>
+        <v>0.0488787</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0679352</v>
+        <v>0.06812790000000001</v>
       </c>
       <c r="D117" t="n">
-        <v>0.264912</v>
+        <v>0.264327</v>
       </c>
       <c r="E117" t="n">
-        <v>0.0445312</v>
+        <v>0.04448</v>
       </c>
       <c r="F117" t="n">
-        <v>0.06634900000000001</v>
+        <v>0.066345</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.0553593</v>
+        <v>0.0554459</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0742525</v>
+        <v>0.07435170000000001</v>
       </c>
       <c r="D118" t="n">
-        <v>0.273086</v>
+        <v>0.272594</v>
       </c>
       <c r="E118" t="n">
-        <v>0.0465129</v>
+        <v>0.0463871</v>
       </c>
       <c r="F118" t="n">
-        <v>0.0692691</v>
+        <v>0.0691997</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.06492299999999999</v>
+        <v>0.0648854</v>
       </c>
       <c r="C119" t="n">
-        <v>0.0829809</v>
+        <v>0.0826335</v>
       </c>
       <c r="D119" t="n">
-        <v>0.281599</v>
+        <v>0.281866</v>
       </c>
       <c r="E119" t="n">
-        <v>0.0490687</v>
+        <v>0.0489762</v>
       </c>
       <c r="F119" t="n">
-        <v>0.0728111</v>
+        <v>0.0726039</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.079196</v>
+        <v>0.0793301</v>
       </c>
       <c r="C120" t="n">
-        <v>0.0946695</v>
+        <v>0.0942745</v>
       </c>
       <c r="D120" t="n">
-        <v>0.290415</v>
+        <v>0.290965</v>
       </c>
       <c r="E120" t="n">
-        <v>0.0526222</v>
+        <v>0.0527358</v>
       </c>
       <c r="F120" t="n">
-        <v>0.077516</v>
+        <v>0.0776497</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.100099</v>
+        <v>0.100134</v>
       </c>
       <c r="C121" t="n">
-        <v>0.111426</v>
+        <v>0.111092</v>
       </c>
       <c r="D121" t="n">
-        <v>0.206756</v>
+        <v>0.206562</v>
       </c>
       <c r="E121" t="n">
-        <v>0.0582512</v>
+        <v>0.0584021</v>
       </c>
       <c r="F121" t="n">
-        <v>0.0847875</v>
+        <v>0.0847627</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.128392</v>
+        <v>0.128043</v>
       </c>
       <c r="C122" t="n">
-        <v>0.135993</v>
+        <v>0.135782</v>
       </c>
       <c r="D122" t="n">
-        <v>0.212364</v>
+        <v>0.212911</v>
       </c>
       <c r="E122" t="n">
-        <v>0.06793680000000001</v>
+        <v>0.0678696</v>
       </c>
       <c r="F122" t="n">
-        <v>0.0960468</v>
+        <v>0.09602040000000001</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.16413</v>
+        <v>0.16401</v>
       </c>
       <c r="C123" t="n">
-        <v>0.169873</v>
+        <v>0.170377</v>
       </c>
       <c r="D123" t="n">
-        <v>0.218516</v>
+        <v>0.218794</v>
       </c>
       <c r="E123" t="n">
-        <v>0.040944</v>
+        <v>0.0411477</v>
       </c>
       <c r="F123" t="n">
-        <v>0.0602957</v>
+        <v>0.0605306</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.0340874</v>
+        <v>0.0342784</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0512027</v>
+        <v>0.051582</v>
       </c>
       <c r="D124" t="n">
-        <v>0.224991</v>
+        <v>0.225964</v>
       </c>
       <c r="E124" t="n">
-        <v>0.0419828</v>
+        <v>0.0418745</v>
       </c>
       <c r="F124" t="n">
-        <v>0.0617134</v>
+        <v>0.0620118</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.0357014</v>
+        <v>0.0356103</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0529638</v>
+        <v>0.0530815</v>
       </c>
       <c r="D125" t="n">
-        <v>0.232495</v>
+        <v>0.23284</v>
       </c>
       <c r="E125" t="n">
-        <v>0.0428353</v>
+        <v>0.0426532</v>
       </c>
       <c r="F125" t="n">
-        <v>0.0631791</v>
+        <v>0.0634165</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.0366147</v>
+        <v>0.0371093</v>
       </c>
       <c r="C126" t="n">
-        <v>0.055234</v>
+        <v>0.0558264</v>
       </c>
       <c r="D126" t="n">
-        <v>0.239296</v>
+        <v>0.240613</v>
       </c>
       <c r="E126" t="n">
-        <v>0.0436027</v>
+        <v>0.0435525</v>
       </c>
       <c r="F126" t="n">
-        <v>0.06495629999999999</v>
+        <v>0.06519460000000001</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.0385755</v>
+        <v>0.0387055</v>
       </c>
       <c r="C127" t="n">
-        <v>0.0587982</v>
+        <v>0.0587348</v>
       </c>
       <c r="D127" t="n">
-        <v>0.246483</v>
+        <v>0.247619</v>
       </c>
       <c r="E127" t="n">
-        <v>0.0445843</v>
+        <v>0.0444362</v>
       </c>
       <c r="F127" t="n">
-        <v>0.06639299999999999</v>
+        <v>0.0667374</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0407353</v>
+        <v>0.0408564</v>
       </c>
       <c r="C128" t="n">
-        <v>0.0615995</v>
+        <v>0.0616434</v>
       </c>
       <c r="D128" t="n">
-        <v>0.254062</v>
+        <v>0.265732</v>
       </c>
       <c r="E128" t="n">
-        <v>0.04556</v>
+        <v>0.0454146</v>
       </c>
       <c r="F128" t="n">
-        <v>0.0681887</v>
+        <v>0.06858</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0431985</v>
+        <v>0.0436402</v>
       </c>
       <c r="C129" t="n">
-        <v>0.06533310000000001</v>
+        <v>0.06543</v>
       </c>
       <c r="D129" t="n">
-        <v>0.262117</v>
+        <v>0.263362</v>
       </c>
       <c r="E129" t="n">
-        <v>0.0467907</v>
+        <v>0.0464786</v>
       </c>
       <c r="F129" t="n">
-        <v>0.0700805</v>
+        <v>0.07044159999999999</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0465529</v>
+        <v>0.0464373</v>
       </c>
       <c r="C130" t="n">
-        <v>0.0696871</v>
+        <v>0.0692987</v>
       </c>
       <c r="D130" t="n">
-        <v>0.269312</v>
+        <v>0.270922</v>
       </c>
       <c r="E130" t="n">
-        <v>0.0479818</v>
+        <v>0.0476999</v>
       </c>
       <c r="F130" t="n">
-        <v>0.07227550000000001</v>
+        <v>0.0724601</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0527919</v>
+        <v>0.0512395</v>
       </c>
       <c r="C131" t="n">
-        <v>0.0751077</v>
+        <v>0.074507</v>
       </c>
       <c r="D131" t="n">
-        <v>0.278039</v>
+        <v>0.278413</v>
       </c>
       <c r="E131" t="n">
-        <v>0.0494242</v>
+        <v>0.0493471</v>
       </c>
       <c r="F131" t="n">
-        <v>0.0747632</v>
+        <v>0.0749601</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0590614</v>
+        <v>0.058468</v>
       </c>
       <c r="C132" t="n">
-        <v>0.0818502</v>
+        <v>0.0810061</v>
       </c>
       <c r="D132" t="n">
-        <v>0.285872</v>
+        <v>0.286746</v>
       </c>
       <c r="E132" t="n">
-        <v>0.051548</v>
+        <v>0.0513469</v>
       </c>
       <c r="F132" t="n">
-        <v>0.0778035</v>
+        <v>0.0781153</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.0687658</v>
+        <v>0.06801069999999999</v>
       </c>
       <c r="C133" t="n">
-        <v>0.09033090000000001</v>
+        <v>0.0896764</v>
       </c>
       <c r="D133" t="n">
-        <v>0.294693</v>
+        <v>0.295562</v>
       </c>
       <c r="E133" t="n">
-        <v>0.054109</v>
+        <v>0.0538456</v>
       </c>
       <c r="F133" t="n">
-        <v>0.081452</v>
+        <v>0.08166039999999999</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.0824826</v>
+        <v>0.081693</v>
       </c>
       <c r="C134" t="n">
-        <v>0.101739</v>
+        <v>0.101096</v>
       </c>
       <c r="D134" t="n">
-        <v>0.303556</v>
+        <v>0.304485</v>
       </c>
       <c r="E134" t="n">
-        <v>0.057606</v>
+        <v>0.0575109</v>
       </c>
       <c r="F134" t="n">
-        <v>0.0864822</v>
+        <v>0.0866209</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.102236</v>
+        <v>0.101469</v>
       </c>
       <c r="C135" t="n">
-        <v>0.118168</v>
+        <v>0.117288</v>
       </c>
       <c r="D135" t="n">
-        <v>0.212597</v>
+        <v>0.21357</v>
       </c>
       <c r="E135" t="n">
-        <v>0.0633793</v>
+        <v>0.0631651</v>
       </c>
       <c r="F135" t="n">
-        <v>0.0935284</v>
+        <v>0.0938138</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.130582</v>
+        <v>0.12937</v>
       </c>
       <c r="C136" t="n">
-        <v>0.142527</v>
+        <v>0.141419</v>
       </c>
       <c r="D136" t="n">
-        <v>0.218627</v>
+        <v>0.219025</v>
       </c>
       <c r="E136" t="n">
-        <v>0.0725597</v>
+        <v>0.07257719999999999</v>
       </c>
       <c r="F136" t="n">
-        <v>0.104598</v>
+        <v>0.10493</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.163628</v>
+        <v>0.163643</v>
       </c>
       <c r="C137" t="n">
-        <v>0.178176</v>
+        <v>0.176536</v>
       </c>
       <c r="D137" t="n">
-        <v>0.224808</v>
+        <v>0.225991</v>
       </c>
       <c r="E137" t="n">
-        <v>0.0589974</v>
+        <v>0.0588989</v>
       </c>
       <c r="F137" t="n">
-        <v>0.0786389</v>
+        <v>0.07917920000000001</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0471309</v>
+        <v>0.0472071</v>
       </c>
       <c r="C138" t="n">
-        <v>0.065856</v>
+        <v>0.06580519999999999</v>
       </c>
       <c r="D138" t="n">
-        <v>0.232074</v>
+        <v>0.233247</v>
       </c>
       <c r="E138" t="n">
-        <v>0.0608849</v>
+        <v>0.059517</v>
       </c>
       <c r="F138" t="n">
-        <v>0.08029210000000001</v>
+        <v>0.0800753</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0482982</v>
+        <v>0.0480164</v>
       </c>
       <c r="C139" t="n">
-        <v>0.06751740000000001</v>
+        <v>0.06788039999999999</v>
       </c>
       <c r="D139" t="n">
-        <v>0.23916</v>
+        <v>0.239229</v>
       </c>
       <c r="E139" t="n">
-        <v>0.0600938</v>
+        <v>0.0609518</v>
       </c>
       <c r="F139" t="n">
-        <v>0.0813233</v>
+        <v>0.0815797</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.04912</v>
+        <v>0.0494634</v>
       </c>
       <c r="C140" t="n">
-        <v>0.0693743</v>
+        <v>0.0687728</v>
       </c>
       <c r="D140" t="n">
-        <v>0.246493</v>
+        <v>0.247313</v>
       </c>
       <c r="E140" t="n">
-        <v>0.0607663</v>
+        <v>0.0611632</v>
       </c>
       <c r="F140" t="n">
-        <v>0.082719</v>
+        <v>0.0831934</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0507248</v>
+        <v>0.0507757</v>
       </c>
       <c r="C141" t="n">
-        <v>0.0715558</v>
+        <v>0.07127219999999999</v>
       </c>
       <c r="D141" t="n">
-        <v>0.254763</v>
+        <v>0.255046</v>
       </c>
       <c r="E141" t="n">
-        <v>0.061946</v>
+        <v>0.0664114</v>
       </c>
       <c r="F141" t="n">
-        <v>0.0847668</v>
+        <v>0.08485810000000001</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.0531879</v>
+        <v>0.053299</v>
       </c>
       <c r="C142" t="n">
-        <v>0.0743809</v>
+        <v>0.0738277</v>
       </c>
       <c r="D142" t="n">
-        <v>0.262403</v>
+        <v>0.262535</v>
       </c>
       <c r="E142" t="n">
-        <v>0.06338630000000001</v>
+        <v>0.062597</v>
       </c>
       <c r="F142" t="n">
-        <v>0.0855035</v>
+        <v>0.0862115</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.0555798</v>
+        <v>0.0554833</v>
       </c>
       <c r="C143" t="n">
-        <v>0.0774687</v>
+        <v>0.0769319</v>
       </c>
       <c r="D143" t="n">
-        <v>0.270398</v>
+        <v>0.271061</v>
       </c>
       <c r="E143" t="n">
-        <v>0.0640505</v>
+        <v>0.0635913</v>
       </c>
       <c r="F143" t="n">
-        <v>0.08710329999999999</v>
+        <v>0.0878776</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered unsuccessful looukp.xlsx
+++ b/clang-arm64/Scattered unsuccessful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0181155</v>
+        <v>0.0181961</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0184004</v>
+        <v>0.0177469</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0692286</v>
+        <v>0.0716444</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0216267</v>
+        <v>0.0215416</v>
       </c>
       <c r="F2" t="n">
-        <v>0.021375</v>
+        <v>0.0213571</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0214601</v>
+        <v>0.0192263</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0203378</v>
+        <v>0.0206974</v>
       </c>
       <c r="D3" t="n">
-        <v>0.07099510000000001</v>
+        <v>0.0698018</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0220906</v>
+        <v>0.0221324</v>
       </c>
       <c r="F3" t="n">
-        <v>0.021995</v>
+        <v>0.0219241</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0248367</v>
+        <v>0.0239722</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0241817</v>
+        <v>0.0245595</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0773914</v>
+        <v>0.0740027</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0229607</v>
+        <v>0.0229988</v>
       </c>
       <c r="F4" t="n">
-        <v>0.022995</v>
+        <v>0.0229896</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0313259</v>
+        <v>0.0366622</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0330641</v>
+        <v>0.0296888</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0784006</v>
+        <v>0.0841404</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0244199</v>
+        <v>0.0245037</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0236985</v>
+        <v>0.0237317</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0463633</v>
+        <v>0.0455948</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0444163</v>
+        <v>0.0414782</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0841499</v>
+        <v>0.07669479999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0264961</v>
+        <v>0.0264738</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0256047</v>
+        <v>0.0257068</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0627374</v>
+        <v>0.0636471</v>
       </c>
       <c r="C7" t="n">
-        <v>0.065265</v>
+        <v>0.0604984</v>
       </c>
       <c r="D7" t="n">
-        <v>0.057874</v>
+        <v>0.058797</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0306437</v>
+        <v>0.0301406</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0296627</v>
+        <v>0.0299896</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0886398</v>
+        <v>0.0847455</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0863418</v>
+        <v>0.0802822</v>
       </c>
       <c r="D8" t="n">
-        <v>0.059839</v>
+        <v>0.061471</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0382484</v>
+        <v>0.0384817</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0375052</v>
+        <v>0.0379005</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.118492</v>
+        <v>0.113799</v>
       </c>
       <c r="C9" t="n">
-        <v>0.110515</v>
+        <v>0.113615</v>
       </c>
       <c r="D9" t="n">
-        <v>0.06382740000000001</v>
+        <v>0.0634666</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0191972</v>
+        <v>0.0192003</v>
       </c>
       <c r="F9" t="n">
-        <v>0.019166</v>
+        <v>0.0191549</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.016162</v>
+        <v>0.0163332</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01604</v>
+        <v>0.0162093</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0679223</v>
+        <v>0.0675235</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0194456</v>
+        <v>0.0194597</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0193774</v>
+        <v>0.0193621</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0169673</v>
+        <v>0.0168463</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0166024</v>
+        <v>0.0166962</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0703269</v>
+        <v>0.0697697</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0197465</v>
+        <v>0.019726</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0196692</v>
+        <v>0.0196572</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0171223</v>
+        <v>0.0174078</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0172238</v>
+        <v>0.0174165</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0728047</v>
+        <v>0.0747096</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0200673</v>
+        <v>0.0200601</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0201091</v>
+        <v>0.0200862</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0176053</v>
+        <v>0.0177834</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0178775</v>
+        <v>0.017619</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0769765</v>
+        <v>0.07791240000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0203854</v>
+        <v>0.0203878</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0202769</v>
+        <v>0.0202972</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0185744</v>
+        <v>0.0187147</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0184897</v>
+        <v>0.0185437</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0794388</v>
+        <v>0.080277</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0207177</v>
+        <v>0.0206951</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0205994</v>
+        <v>0.0206428</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.019769</v>
+        <v>0.0200577</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0196081</v>
+        <v>0.019519</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0835781</v>
+        <v>0.0846315</v>
       </c>
       <c r="E15" t="n">
-        <v>0.021221</v>
+        <v>0.021228</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0211334</v>
+        <v>0.0211215</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0221412</v>
+        <v>0.0217902</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0211153</v>
+        <v>0.0211968</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0882657</v>
+        <v>0.08537939999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0219179</v>
+        <v>0.021914</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0218198</v>
+        <v>0.0218273</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0256167</v>
+        <v>0.0260868</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0243171</v>
+        <v>0.0250782</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0880379</v>
+        <v>0.0890307</v>
       </c>
       <c r="E17" t="n">
-        <v>0.022772</v>
+        <v>0.0227239</v>
       </c>
       <c r="F17" t="n">
-        <v>0.022565</v>
+        <v>0.0225391</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0304404</v>
+        <v>0.0318035</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0297786</v>
+        <v>0.0301726</v>
       </c>
       <c r="D18" t="n">
-        <v>0.091803</v>
+        <v>0.0938959</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0235288</v>
+        <v>0.0235229</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0231978</v>
+        <v>0.0231826</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0404663</v>
+        <v>0.0400006</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0383303</v>
+        <v>0.0408848</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0964537</v>
+        <v>0.0960028</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0248744</v>
+        <v>0.0248795</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0243501</v>
+        <v>0.0243815</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0524274</v>
+        <v>0.0516075</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0493523</v>
+        <v>0.0552407</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0985833</v>
+        <v>0.0981757</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0272323</v>
+        <v>0.0272902</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0267664</v>
+        <v>0.0268346</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0683906</v>
+        <v>0.07096669999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0654569</v>
+        <v>0.0735263</v>
       </c>
       <c r="D21" t="n">
-        <v>0.06568690000000001</v>
+        <v>0.0654222</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0310954</v>
+        <v>0.0309888</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0305885</v>
+        <v>0.0308648</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0933108</v>
+        <v>0.09269330000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>0.08996759999999999</v>
+        <v>0.0965743</v>
       </c>
       <c r="D22" t="n">
-        <v>0.06811200000000001</v>
+        <v>0.0678646</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0390337</v>
+        <v>0.0391123</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0392114</v>
+        <v>0.0392159</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.121078</v>
+        <v>0.122277</v>
       </c>
       <c r="C23" t="n">
-        <v>0.117321</v>
+        <v>0.121653</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0715316</v>
+        <v>0.07368959999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0190128</v>
+        <v>0.0189362</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0188688</v>
+        <v>0.0188564</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0169131</v>
+        <v>0.016504</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0166068</v>
+        <v>0.0163328</v>
       </c>
       <c r="D24" t="n">
-        <v>0.07677920000000001</v>
+        <v>0.07561900000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>0.019209</v>
+        <v>0.0191988</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0191301</v>
+        <v>0.0191309</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0174532</v>
+        <v>0.0171269</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0171261</v>
+        <v>0.0168575</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0796313</v>
+        <v>0.07868989999999999</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0194957</v>
+        <v>0.0194341</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0193192</v>
+        <v>0.0193189</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0180748</v>
+        <v>0.0176332</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0176837</v>
+        <v>0.0175205</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0827143</v>
+        <v>0.0826553</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0196506</v>
+        <v>0.0196391</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0195913</v>
+        <v>0.0195567</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0189752</v>
+        <v>0.0183816</v>
       </c>
       <c r="C27" t="n">
-        <v>0.018631</v>
+        <v>0.0184074</v>
       </c>
       <c r="D27" t="n">
-        <v>0.08408939999999999</v>
+        <v>0.0854678</v>
       </c>
       <c r="E27" t="n">
-        <v>0.020061</v>
+        <v>0.0200863</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0199769</v>
+        <v>0.019948</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0207041</v>
+        <v>0.0196453</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0201938</v>
+        <v>0.019738</v>
       </c>
       <c r="D28" t="n">
-        <v>0.08916209999999999</v>
+        <v>0.0889978</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0205606</v>
+        <v>0.0205094</v>
       </c>
       <c r="F28" t="n">
-        <v>0.020382</v>
+        <v>0.0203658</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0228639</v>
+        <v>0.0218579</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0221174</v>
+        <v>0.0219432</v>
       </c>
       <c r="D29" t="n">
-        <v>0.09193079999999999</v>
+        <v>0.09115810000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0211399</v>
+        <v>0.0211497</v>
       </c>
       <c r="F29" t="n">
-        <v>0.020973</v>
+        <v>0.0210196</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.025875</v>
+        <v>0.0248905</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0246755</v>
+        <v>0.0248165</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0933119</v>
+        <v>0.0934745</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0217016</v>
+        <v>0.0217328</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0215727</v>
+        <v>0.021652</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.029169</v>
+        <v>0.0294754</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0293875</v>
+        <v>0.0290105</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0959262</v>
+        <v>0.0956954</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0226651</v>
+        <v>0.0226312</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0223896</v>
+        <v>0.0223701</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0374609</v>
+        <v>0.0363523</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0356313</v>
+        <v>0.0348646</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0980216</v>
+        <v>0.097603</v>
       </c>
       <c r="E32" t="n">
-        <v>0.023619</v>
+        <v>0.0235947</v>
       </c>
       <c r="F32" t="n">
-        <v>0.023331</v>
+        <v>0.0233329</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0456857</v>
+        <v>0.0433965</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0446542</v>
+        <v>0.0435556</v>
       </c>
       <c r="D33" t="n">
-        <v>0.100224</v>
+        <v>0.099276</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0249309</v>
+        <v>0.0249858</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0247415</v>
+        <v>0.0247183</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0564159</v>
+        <v>0.0552809</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0566075</v>
+        <v>0.0549245</v>
       </c>
       <c r="D34" t="n">
-        <v>0.101707</v>
+        <v>0.102436</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0273939</v>
+        <v>0.0274288</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0271994</v>
+        <v>0.0272769</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0735333</v>
+        <v>0.0707165</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0737211</v>
+        <v>0.0704337</v>
       </c>
       <c r="D35" t="n">
-        <v>0.06951599999999999</v>
+        <v>0.0690028</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0312736</v>
+        <v>0.0312255</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0312225</v>
+        <v>0.0311765</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0959778</v>
+        <v>0.09330239999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0958558</v>
+        <v>0.0914991</v>
       </c>
       <c r="D36" t="n">
-        <v>0.07208489999999999</v>
+        <v>0.07252069999999999</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0378662</v>
+        <v>0.0378856</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0380903</v>
+        <v>0.0381812</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.119987</v>
+        <v>0.117075</v>
       </c>
       <c r="C37" t="n">
-        <v>0.122812</v>
+        <v>0.119267</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0760802</v>
+        <v>0.0752881</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0194397</v>
+        <v>0.0194488</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0194572</v>
+        <v>0.0194612</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0168651</v>
+        <v>0.0170327</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0169572</v>
+        <v>0.0170256</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0784091</v>
+        <v>0.0785869</v>
       </c>
       <c r="E38" t="n">
-        <v>0.01975</v>
+        <v>0.0197524</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0197967</v>
+        <v>0.0197767</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0176674</v>
+        <v>0.0178493</v>
       </c>
       <c r="C39" t="n">
-        <v>0.017701</v>
+        <v>0.0177928</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0825232</v>
+        <v>0.0824854</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0201</v>
+        <v>0.0200764</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0201102</v>
+        <v>0.0201111</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0187526</v>
+        <v>0.0187763</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0186296</v>
+        <v>0.0186729</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0857493</v>
+        <v>0.0860658</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0204205</v>
+        <v>0.0204292</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0204579</v>
+        <v>0.0204351</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0199072</v>
+        <v>0.0199167</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0198507</v>
+        <v>0.0198496</v>
       </c>
       <c r="D41" t="n">
-        <v>0.08873490000000001</v>
+        <v>0.0888564</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0207644</v>
+        <v>0.0207603</v>
       </c>
       <c r="F41" t="n">
-        <v>0.020787</v>
+        <v>0.0208113</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.021739</v>
+        <v>0.0215792</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0214066</v>
+        <v>0.0215077</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0919011</v>
+        <v>0.09133330000000001</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0211977</v>
+        <v>0.0211953</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0212123</v>
+        <v>0.0212254</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.024059</v>
+        <v>0.0242541</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0239526</v>
+        <v>0.0239625</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0947812</v>
+        <v>0.0944995</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0217904</v>
+        <v>0.0218059</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0218374</v>
+        <v>0.0218609</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0280414</v>
+        <v>0.0275795</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0272215</v>
+        <v>0.0274236</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0970704</v>
+        <v>0.0971959</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0225256</v>
+        <v>0.0225464</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0226484</v>
+        <v>0.022661</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0321565</v>
+        <v>0.0320456</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0319236</v>
+        <v>0.0318054</v>
       </c>
       <c r="D45" t="n">
-        <v>0.09990060000000001</v>
+        <v>0.100234</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0233231</v>
+        <v>0.0233204</v>
       </c>
       <c r="F45" t="n">
-        <v>0.023392</v>
+        <v>0.0233991</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0382789</v>
+        <v>0.0376469</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0378578</v>
+        <v>0.0376421</v>
       </c>
       <c r="D46" t="n">
-        <v>0.101591</v>
+        <v>0.10234</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0246065</v>
+        <v>0.0246167</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0246307</v>
+        <v>0.0246997</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0455349</v>
+        <v>0.0453227</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0451077</v>
+        <v>0.0456284</v>
       </c>
       <c r="D47" t="n">
-        <v>0.104563</v>
+        <v>0.104168</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0261011</v>
+        <v>0.0261456</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0261837</v>
+        <v>0.0261847</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0556064</v>
+        <v>0.0558415</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0555782</v>
+        <v>0.0550367</v>
       </c>
       <c r="D48" t="n">
-        <v>0.10567</v>
+        <v>0.106417</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0287967</v>
+        <v>0.0287847</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0288357</v>
+        <v>0.0288339</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0696576</v>
+        <v>0.0706772</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0700199</v>
+        <v>0.0701884</v>
       </c>
       <c r="D49" t="n">
-        <v>0.108871</v>
+        <v>0.108566</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0323198</v>
+        <v>0.0323765</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0324971</v>
+        <v>0.0324809</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0899025</v>
+        <v>0.0911329</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0916993</v>
+        <v>0.0909749</v>
       </c>
       <c r="D50" t="n">
-        <v>0.07610459999999999</v>
+        <v>0.0758581</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0383123</v>
+        <v>0.0382848</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0383958</v>
+        <v>0.0384287</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.115996</v>
+        <v>0.11739</v>
       </c>
       <c r="C51" t="n">
-        <v>0.118676</v>
+        <v>0.117165</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0790558</v>
+        <v>0.07936749999999999</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0204595</v>
+        <v>0.0204694</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0205</v>
+        <v>0.0204937</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.141453</v>
+        <v>0.142521</v>
       </c>
       <c r="C52" t="n">
-        <v>0.143181</v>
+        <v>0.142881</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0823113</v>
+        <v>0.08267620000000001</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0207537</v>
+        <v>0.0207725</v>
       </c>
       <c r="F52" t="n">
-        <v>0.02077</v>
+        <v>0.0207461</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0189893</v>
+        <v>0.019193</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0188923</v>
+        <v>0.0191876</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0865167</v>
+        <v>0.086793</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0210756</v>
+        <v>0.0210827</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0211094</v>
+        <v>0.0210805</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0202493</v>
+        <v>0.0204044</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0200718</v>
+        <v>0.0204165</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0903712</v>
+        <v>0.08968810000000001</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0213676</v>
+        <v>0.0213735</v>
       </c>
       <c r="F54" t="n">
-        <v>0.021375</v>
+        <v>0.0214211</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0217822</v>
+        <v>0.0217339</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0215733</v>
+        <v>0.0217678</v>
       </c>
       <c r="D55" t="n">
-        <v>0.092955</v>
+        <v>0.09287289999999999</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0217642</v>
+        <v>0.0217875</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0217789</v>
+        <v>0.0217867</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0237532</v>
+        <v>0.0236819</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0235934</v>
+        <v>0.0236897</v>
       </c>
       <c r="D56" t="n">
-        <v>0.09665840000000001</v>
+        <v>0.0967644</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0222657</v>
+        <v>0.0222303</v>
       </c>
       <c r="F56" t="n">
-        <v>0.022318</v>
+        <v>0.0223116</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0261817</v>
+        <v>0.0262186</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0263899</v>
+        <v>0.026459</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0991364</v>
+        <v>0.09977510000000001</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0227882</v>
+        <v>0.0227927</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0228255</v>
+        <v>0.022856</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0297223</v>
+        <v>0.029752</v>
       </c>
       <c r="C58" t="n">
-        <v>0.029528</v>
+        <v>0.0301492</v>
       </c>
       <c r="D58" t="n">
-        <v>0.102476</v>
+        <v>0.103185</v>
       </c>
       <c r="E58" t="n">
-        <v>0.023423</v>
+        <v>0.0234626</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0235205</v>
+        <v>0.0235255</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0341704</v>
+        <v>0.0339443</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0339718</v>
+        <v>0.0342171</v>
       </c>
       <c r="D59" t="n">
-        <v>0.104684</v>
+        <v>0.104351</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0243751</v>
+        <v>0.0243253</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0243746</v>
+        <v>0.0243919</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0392648</v>
+        <v>0.0392136</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0393074</v>
+        <v>0.039566</v>
       </c>
       <c r="D60" t="n">
-        <v>0.10891</v>
+        <v>0.108513</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0256588</v>
+        <v>0.0256804</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0257172</v>
+        <v>0.0257187</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0464473</v>
+        <v>0.0467734</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0462014</v>
+        <v>0.0468929</v>
       </c>
       <c r="D61" t="n">
-        <v>0.110981</v>
+        <v>0.110241</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0273756</v>
+        <v>0.0274195</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0275168</v>
+        <v>0.0274843</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0559115</v>
+        <v>0.0575028</v>
       </c>
       <c r="C62" t="n">
-        <v>0.056005</v>
+        <v>0.0573085</v>
       </c>
       <c r="D62" t="n">
-        <v>0.113609</v>
+        <v>0.11296</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0299441</v>
+        <v>0.0299855</v>
       </c>
       <c r="F62" t="n">
-        <v>0.030058</v>
+        <v>0.0300438</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0700717</v>
+        <v>0.0718327</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0695274</v>
+        <v>0.07138609999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>0.116402</v>
+        <v>0.115944</v>
       </c>
       <c r="E63" t="n">
-        <v>0.033793</v>
+        <v>0.0338219</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0340338</v>
+        <v>0.0340994</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0890962</v>
+        <v>0.0914845</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0897529</v>
+        <v>0.09061859999999999</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0810555</v>
+        <v>0.0804269</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0399434</v>
+        <v>0.0399725</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0401727</v>
+        <v>0.0401924</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.115511</v>
+        <v>0.117205</v>
       </c>
       <c r="C65" t="n">
-        <v>0.116871</v>
+        <v>0.117433</v>
       </c>
       <c r="D65" t="n">
-        <v>0.08555749999999999</v>
+        <v>0.0860587</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0509316</v>
+        <v>0.0508808</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0512276</v>
+        <v>0.0512408</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.147066</v>
+        <v>0.148374</v>
       </c>
       <c r="C66" t="n">
-        <v>0.146569</v>
+        <v>0.147314</v>
       </c>
       <c r="D66" t="n">
-        <v>0.09190719999999999</v>
+        <v>0.0915536</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0210292</v>
+        <v>0.0210605</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0210633</v>
+        <v>0.021121</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0196211</v>
+        <v>0.0200322</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0196287</v>
+        <v>0.019636</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0960882</v>
+        <v>0.0948459</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0213459</v>
+        <v>0.0213716</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0214167</v>
+        <v>0.0214101</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0209425</v>
+        <v>0.0214146</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0210013</v>
+        <v>0.0211628</v>
       </c>
       <c r="D68" t="n">
-        <v>0.100557</v>
+        <v>0.09911499999999999</v>
       </c>
       <c r="E68" t="n">
-        <v>0.021703</v>
+        <v>0.0217464</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0217642</v>
+        <v>0.0217557</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.022681</v>
+        <v>0.0228993</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0223652</v>
+        <v>0.0226263</v>
       </c>
       <c r="D69" t="n">
-        <v>0.103753</v>
+        <v>0.103437</v>
       </c>
       <c r="E69" t="n">
-        <v>0.022048</v>
+        <v>0.0220787</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0221123</v>
+        <v>0.0220925</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0245538</v>
+        <v>0.0248189</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0243883</v>
+        <v>0.0246064</v>
       </c>
       <c r="D70" t="n">
-        <v>0.109913</v>
+        <v>0.111753</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0225249</v>
+        <v>0.0225217</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0225815</v>
+        <v>0.0225926</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0271805</v>
+        <v>0.0276505</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0268476</v>
+        <v>0.0272036</v>
       </c>
       <c r="D71" t="n">
-        <v>0.114053</v>
+        <v>0.117327</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0230674</v>
+        <v>0.0230457</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0231651</v>
+        <v>0.0231601</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0304651</v>
+        <v>0.0306873</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0300859</v>
+        <v>0.0303027</v>
       </c>
       <c r="D72" t="n">
-        <v>0.120229</v>
+        <v>0.120703</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0238061</v>
+        <v>0.0237975</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0238941</v>
+        <v>0.0239115</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.034523</v>
+        <v>0.0348029</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0341636</v>
+        <v>0.0345368</v>
       </c>
       <c r="D73" t="n">
-        <v>0.125252</v>
+        <v>0.125271</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0247124</v>
+        <v>0.0247299</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0247898</v>
+        <v>0.0248156</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0397082</v>
+        <v>0.0400253</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0395166</v>
+        <v>0.0397095</v>
       </c>
       <c r="D74" t="n">
-        <v>0.131463</v>
+        <v>0.129433</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0258878</v>
+        <v>0.0258931</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0261362</v>
+        <v>0.0260727</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0466137</v>
+        <v>0.047119</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0463132</v>
+        <v>0.0469762</v>
       </c>
       <c r="D75" t="n">
-        <v>0.135978</v>
+        <v>0.135969</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0275707</v>
+        <v>0.0275631</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0279721</v>
+        <v>0.0278156</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0563577</v>
+        <v>0.0564656</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0559439</v>
+        <v>0.0561034</v>
       </c>
       <c r="D76" t="n">
-        <v>0.140202</v>
+        <v>0.142646</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0300444</v>
+        <v>0.0301001</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0302503</v>
+        <v>0.0303357</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.06930500000000001</v>
+        <v>0.0691823</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0684878</v>
+        <v>0.0693793</v>
       </c>
       <c r="D77" t="n">
-        <v>0.146228</v>
+        <v>0.147973</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0338112</v>
+        <v>0.0337453</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0340884</v>
+        <v>0.0340982</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.08767709999999999</v>
+        <v>0.0876538</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0875011</v>
+        <v>0.0878483</v>
       </c>
       <c r="D78" t="n">
-        <v>0.109722</v>
+        <v>0.110921</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0394171</v>
+        <v>0.0394478</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0397647</v>
+        <v>0.0397914</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.111688</v>
+        <v>0.112775</v>
       </c>
       <c r="C79" t="n">
-        <v>0.11242</v>
+        <v>0.113201</v>
       </c>
       <c r="D79" t="n">
-        <v>0.117058</v>
+        <v>0.117613</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0492467</v>
+        <v>0.0493278</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0496436</v>
+        <v>0.0495683</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.142873</v>
+        <v>0.144755</v>
       </c>
       <c r="C80" t="n">
-        <v>0.144055</v>
+        <v>0.144736</v>
       </c>
       <c r="D80" t="n">
-        <v>0.12457</v>
+        <v>0.127536</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0213358</v>
+        <v>0.0212544</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0218695</v>
+        <v>0.0215918</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0200126</v>
+        <v>0.0203898</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0201658</v>
+        <v>0.0201707</v>
       </c>
       <c r="D81" t="n">
-        <v>0.132377</v>
+        <v>0.131463</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0216706</v>
+        <v>0.021634</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0223079</v>
+        <v>0.0221608</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0212294</v>
+        <v>0.0214801</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0215317</v>
+        <v>0.0216349</v>
       </c>
       <c r="D82" t="n">
-        <v>0.140469</v>
+        <v>0.140191</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0220514</v>
+        <v>0.0220043</v>
       </c>
       <c r="F82" t="n">
-        <v>0.0228478</v>
+        <v>0.0227439</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0228332</v>
+        <v>0.0229804</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0232735</v>
+        <v>0.0233958</v>
       </c>
       <c r="D83" t="n">
-        <v>0.146544</v>
+        <v>0.149736</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0225461</v>
+        <v>0.0224121</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0238484</v>
+        <v>0.0235157</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0247093</v>
+        <v>0.0250156</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0251091</v>
+        <v>0.0253015</v>
       </c>
       <c r="D84" t="n">
-        <v>0.154058</v>
+        <v>0.154189</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0230979</v>
+        <v>0.0228787</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0245366</v>
+        <v>0.0244881</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0271823</v>
+        <v>0.0274303</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0277608</v>
+        <v>0.027848</v>
       </c>
       <c r="D85" t="n">
-        <v>0.160897</v>
+        <v>0.161177</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0236881</v>
+        <v>0.0235641</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0257486</v>
+        <v>0.0253167</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0302111</v>
+        <v>0.0303393</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0308522</v>
+        <v>0.0308142</v>
       </c>
       <c r="D86" t="n">
-        <v>0.167894</v>
+        <v>0.170209</v>
       </c>
       <c r="E86" t="n">
-        <v>0.0245033</v>
+        <v>0.0243266</v>
       </c>
       <c r="F86" t="n">
-        <v>0.0270742</v>
+        <v>0.0267172</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0341044</v>
+        <v>0.0344082</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0344836</v>
+        <v>0.0347814</v>
       </c>
       <c r="D87" t="n">
-        <v>0.176989</v>
+        <v>0.178317</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0255102</v>
+        <v>0.0254081</v>
       </c>
       <c r="F87" t="n">
-        <v>0.0285234</v>
+        <v>0.028194</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0390541</v>
+        <v>0.0393046</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0394726</v>
+        <v>0.0398333</v>
       </c>
       <c r="D88" t="n">
-        <v>0.182068</v>
+        <v>0.182365</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0268223</v>
+        <v>0.026734</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0301635</v>
+        <v>0.0300241</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0458217</v>
+        <v>0.0459424</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0459838</v>
+        <v>0.0463467</v>
       </c>
       <c r="D89" t="n">
-        <v>0.19129</v>
+        <v>0.189571</v>
       </c>
       <c r="E89" t="n">
-        <v>0.028422</v>
+        <v>0.0284068</v>
       </c>
       <c r="F89" t="n">
-        <v>0.0322309</v>
+        <v>0.0319402</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0546437</v>
+        <v>0.0547138</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0548152</v>
+        <v>0.0549112</v>
       </c>
       <c r="D90" t="n">
-        <v>0.197393</v>
+        <v>0.198871</v>
       </c>
       <c r="E90" t="n">
-        <v>0.0308788</v>
+        <v>0.0308546</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0346857</v>
+        <v>0.0345266</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0663729</v>
+        <v>0.0669117</v>
       </c>
       <c r="C91" t="n">
-        <v>0.06691859999999999</v>
+        <v>0.0671964</v>
       </c>
       <c r="D91" t="n">
-        <v>0.206785</v>
+        <v>0.212696</v>
       </c>
       <c r="E91" t="n">
-        <v>0.0342203</v>
+        <v>0.0342959</v>
       </c>
       <c r="F91" t="n">
-        <v>0.0382243</v>
+        <v>0.0379814</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0839776</v>
+        <v>0.0843771</v>
       </c>
       <c r="C92" t="n">
-        <v>0.08464679999999999</v>
+        <v>0.0851571</v>
       </c>
       <c r="D92" t="n">
-        <v>0.15573</v>
+        <v>0.155013</v>
       </c>
       <c r="E92" t="n">
-        <v>0.0392692</v>
+        <v>0.039255</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0436516</v>
+        <v>0.0436946</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.107441</v>
+        <v>0.107645</v>
       </c>
       <c r="C93" t="n">
-        <v>0.108683</v>
+        <v>0.10893</v>
       </c>
       <c r="D93" t="n">
-        <v>0.161844</v>
+        <v>0.161179</v>
       </c>
       <c r="E93" t="n">
-        <v>0.0482235</v>
+        <v>0.0481875</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0537154</v>
+        <v>0.0532909</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.138461</v>
+        <v>0.138474</v>
       </c>
       <c r="C94" t="n">
-        <v>0.139619</v>
+        <v>0.139886</v>
       </c>
       <c r="D94" t="n">
-        <v>0.169378</v>
+        <v>0.167317</v>
       </c>
       <c r="E94" t="n">
-        <v>0.0230203</v>
+        <v>0.0229661</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0282742</v>
+        <v>0.0280854</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0205825</v>
+        <v>0.0205648</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0247138</v>
+        <v>0.0248737</v>
       </c>
       <c r="D95" t="n">
-        <v>0.175867</v>
+        <v>0.17447</v>
       </c>
       <c r="E95" t="n">
-        <v>0.0234831</v>
+        <v>0.0235021</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0295299</v>
+        <v>0.0291796</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0218576</v>
+        <v>0.0218276</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0268492</v>
+        <v>0.0262729</v>
       </c>
       <c r="D96" t="n">
-        <v>0.180789</v>
+        <v>0.180397</v>
       </c>
       <c r="E96" t="n">
-        <v>0.0240089</v>
+        <v>0.0241149</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0315178</v>
+        <v>0.0312929</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0230471</v>
+        <v>0.023611</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0293744</v>
+        <v>0.028756</v>
       </c>
       <c r="D97" t="n">
-        <v>0.189917</v>
+        <v>0.187888</v>
       </c>
       <c r="E97" t="n">
-        <v>0.0246109</v>
+        <v>0.0246828</v>
       </c>
       <c r="F97" t="n">
-        <v>0.0346255</v>
+        <v>0.0340367</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0247859</v>
+        <v>0.0253228</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0331088</v>
+        <v>0.0325231</v>
       </c>
       <c r="D98" t="n">
-        <v>0.196807</v>
+        <v>0.195431</v>
       </c>
       <c r="E98" t="n">
-        <v>0.0254343</v>
+        <v>0.0255333</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0383177</v>
+        <v>0.0376739</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0272871</v>
+        <v>0.0273297</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0383457</v>
+        <v>0.0377591</v>
       </c>
       <c r="D99" t="n">
-        <v>0.204373</v>
+        <v>0.202111</v>
       </c>
       <c r="E99" t="n">
-        <v>0.0269369</v>
+        <v>0.0270354</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0427012</v>
+        <v>0.0424062</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0302686</v>
+        <v>0.0304334</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0438416</v>
+        <v>0.0435741</v>
       </c>
       <c r="D100" t="n">
-        <v>0.21188</v>
+        <v>0.210044</v>
       </c>
       <c r="E100" t="n">
-        <v>0.0290526</v>
+        <v>0.0290283</v>
       </c>
       <c r="F100" t="n">
-        <v>0.046867</v>
+        <v>0.0465844</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0341802</v>
+        <v>0.0344908</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0497732</v>
+        <v>0.0495371</v>
       </c>
       <c r="D101" t="n">
-        <v>0.219214</v>
+        <v>0.217182</v>
       </c>
       <c r="E101" t="n">
-        <v>0.0319452</v>
+        <v>0.0319561</v>
       </c>
       <c r="F101" t="n">
-        <v>0.0506203</v>
+        <v>0.0505195</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0395455</v>
+        <v>0.0399253</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0554294</v>
+        <v>0.0553805</v>
       </c>
       <c r="D102" t="n">
-        <v>0.226751</v>
+        <v>0.224924</v>
       </c>
       <c r="E102" t="n">
-        <v>0.0350493</v>
+        <v>0.035248</v>
       </c>
       <c r="F102" t="n">
-        <v>0.0539531</v>
+        <v>0.0539414</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0463684</v>
+        <v>0.0464491</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0618544</v>
+        <v>0.0617306</v>
       </c>
       <c r="D103" t="n">
-        <v>0.234607</v>
+        <v>0.232676</v>
       </c>
       <c r="E103" t="n">
-        <v>0.0380855</v>
+        <v>0.0384084</v>
       </c>
       <c r="F103" t="n">
-        <v>0.0571826</v>
+        <v>0.05749</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.054121</v>
+        <v>0.0547821</v>
       </c>
       <c r="C104" t="n">
-        <v>0.068882</v>
+        <v>0.0690456</v>
       </c>
       <c r="D104" t="n">
-        <v>0.243295</v>
+        <v>0.24108</v>
       </c>
       <c r="E104" t="n">
-        <v>0.041389</v>
+        <v>0.0414495</v>
       </c>
       <c r="F104" t="n">
-        <v>0.060697</v>
+        <v>0.0607902</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0652416</v>
+        <v>0.06568019999999999</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0779687</v>
+        <v>0.0780945</v>
       </c>
       <c r="D105" t="n">
-        <v>0.251973</v>
+        <v>0.249596</v>
       </c>
       <c r="E105" t="n">
-        <v>0.0447431</v>
+        <v>0.0447964</v>
       </c>
       <c r="F105" t="n">
-        <v>0.0645744</v>
+        <v>0.06437080000000001</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0809105</v>
+        <v>0.0814671</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0909073</v>
+        <v>0.09104130000000001</v>
       </c>
       <c r="D106" t="n">
-        <v>0.26128</v>
+        <v>0.258837</v>
       </c>
       <c r="E106" t="n">
-        <v>0.0491216</v>
+        <v>0.0491308</v>
       </c>
       <c r="F106" t="n">
-        <v>0.06955699999999999</v>
+        <v>0.0693783</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.102972</v>
+        <v>0.10324</v>
       </c>
       <c r="C107" t="n">
-        <v>0.109775</v>
+        <v>0.109665</v>
       </c>
       <c r="D107" t="n">
-        <v>0.19197</v>
+        <v>0.189308</v>
       </c>
       <c r="E107" t="n">
-        <v>0.0555336</v>
+        <v>0.055759</v>
       </c>
       <c r="F107" t="n">
-        <v>0.07680240000000001</v>
+        <v>0.0764915</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.132792</v>
+        <v>0.132956</v>
       </c>
       <c r="C108" t="n">
-        <v>0.137119</v>
+        <v>0.13696</v>
       </c>
       <c r="D108" t="n">
-        <v>0.197496</v>
+        <v>0.195425</v>
       </c>
       <c r="E108" t="n">
-        <v>0.0350719</v>
+        <v>0.0352441</v>
       </c>
       <c r="F108" t="n">
-        <v>0.0513809</v>
+        <v>0.0513585</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.168573</v>
+        <v>0.168882</v>
       </c>
       <c r="C109" t="n">
-        <v>0.17318</v>
+        <v>0.173572</v>
       </c>
       <c r="D109" t="n">
-        <v>0.203816</v>
+        <v>0.202193</v>
       </c>
       <c r="E109" t="n">
-        <v>0.0359393</v>
+        <v>0.0361298</v>
       </c>
       <c r="F109" t="n">
-        <v>0.0528601</v>
+        <v>0.0528397</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0307075</v>
+        <v>0.0310833</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0468779</v>
+        <v>0.0467849</v>
       </c>
       <c r="D110" t="n">
-        <v>0.210706</v>
+        <v>0.208914</v>
       </c>
       <c r="E110" t="n">
-        <v>0.0370123</v>
+        <v>0.0371236</v>
       </c>
       <c r="F110" t="n">
-        <v>0.0542237</v>
+        <v>0.0541374</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0325097</v>
+        <v>0.0327263</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0485798</v>
+        <v>0.0485776</v>
       </c>
       <c r="D111" t="n">
-        <v>0.217595</v>
+        <v>0.216099</v>
       </c>
       <c r="E111" t="n">
-        <v>0.0378896</v>
+        <v>0.0378713</v>
       </c>
       <c r="F111" t="n">
-        <v>0.0555547</v>
+        <v>0.0554235</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0340124</v>
+        <v>0.0343762</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0509245</v>
+        <v>0.0509243</v>
       </c>
       <c r="D112" t="n">
-        <v>0.226396</v>
+        <v>0.22326</v>
       </c>
       <c r="E112" t="n">
-        <v>0.0386727</v>
+        <v>0.0387978</v>
       </c>
       <c r="F112" t="n">
-        <v>0.0570184</v>
+        <v>0.0568923</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0361836</v>
+        <v>0.0361512</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0529341</v>
+        <v>0.0528447</v>
       </c>
       <c r="D113" t="n">
-        <v>0.233424</v>
+        <v>0.231114</v>
       </c>
       <c r="E113" t="n">
-        <v>0.0395945</v>
+        <v>0.039562</v>
       </c>
       <c r="F113" t="n">
-        <v>0.0585175</v>
+        <v>0.0582475</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0383045</v>
+        <v>0.038025</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0558537</v>
+        <v>0.0558599</v>
       </c>
       <c r="D114" t="n">
-        <v>0.240304</v>
+        <v>0.238268</v>
       </c>
       <c r="E114" t="n">
-        <v>0.0405386</v>
+        <v>0.0406124</v>
       </c>
       <c r="F114" t="n">
-        <v>0.0601934</v>
+        <v>0.0601701</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.0406614</v>
+        <v>0.0406828</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0591414</v>
+        <v>0.0590695</v>
       </c>
       <c r="D115" t="n">
-        <v>0.248423</v>
+        <v>0.245517</v>
       </c>
       <c r="E115" t="n">
-        <v>0.0416527</v>
+        <v>0.0416306</v>
       </c>
       <c r="F115" t="n">
-        <v>0.0619408</v>
+        <v>0.0619472</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.0442023</v>
+        <v>0.0440718</v>
       </c>
       <c r="C116" t="n">
-        <v>0.06321649999999999</v>
+        <v>0.06311559999999999</v>
       </c>
       <c r="D116" t="n">
-        <v>0.256587</v>
+        <v>0.254146</v>
       </c>
       <c r="E116" t="n">
-        <v>0.04299</v>
+        <v>0.0429202</v>
       </c>
       <c r="F116" t="n">
-        <v>0.06403780000000001</v>
+        <v>0.06396399999999999</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.0488787</v>
+        <v>0.0487991</v>
       </c>
       <c r="C117" t="n">
-        <v>0.06812790000000001</v>
+        <v>0.0680318</v>
       </c>
       <c r="D117" t="n">
-        <v>0.264327</v>
+        <v>0.262109</v>
       </c>
       <c r="E117" t="n">
-        <v>0.04448</v>
+        <v>0.0445791</v>
       </c>
       <c r="F117" t="n">
-        <v>0.066345</v>
+        <v>0.0662426</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.0554459</v>
+        <v>0.0550239</v>
       </c>
       <c r="C118" t="n">
-        <v>0.07435170000000001</v>
+        <v>0.0744679</v>
       </c>
       <c r="D118" t="n">
-        <v>0.272594</v>
+        <v>0.270124</v>
       </c>
       <c r="E118" t="n">
-        <v>0.0463871</v>
+        <v>0.0463847</v>
       </c>
       <c r="F118" t="n">
-        <v>0.0691997</v>
+        <v>0.0691022</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.0648854</v>
+        <v>0.0650699</v>
       </c>
       <c r="C119" t="n">
-        <v>0.0826335</v>
+        <v>0.0828793</v>
       </c>
       <c r="D119" t="n">
-        <v>0.281866</v>
+        <v>0.27959</v>
       </c>
       <c r="E119" t="n">
-        <v>0.0489762</v>
+        <v>0.0489802</v>
       </c>
       <c r="F119" t="n">
-        <v>0.0726039</v>
+        <v>0.07271030000000001</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.0793301</v>
+        <v>0.0795618</v>
       </c>
       <c r="C120" t="n">
-        <v>0.0942745</v>
+        <v>0.0946606</v>
       </c>
       <c r="D120" t="n">
-        <v>0.290965</v>
+        <v>0.288975</v>
       </c>
       <c r="E120" t="n">
-        <v>0.0527358</v>
+        <v>0.0525769</v>
       </c>
       <c r="F120" t="n">
-        <v>0.0776497</v>
+        <v>0.0776193</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.100134</v>
+        <v>0.100583</v>
       </c>
       <c r="C121" t="n">
-        <v>0.111092</v>
+        <v>0.111456</v>
       </c>
       <c r="D121" t="n">
-        <v>0.206562</v>
+        <v>0.205318</v>
       </c>
       <c r="E121" t="n">
-        <v>0.0584021</v>
+        <v>0.0582897</v>
       </c>
       <c r="F121" t="n">
-        <v>0.0847627</v>
+        <v>0.0848264</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.128043</v>
+        <v>0.128415</v>
       </c>
       <c r="C122" t="n">
-        <v>0.135782</v>
+        <v>0.13603</v>
       </c>
       <c r="D122" t="n">
-        <v>0.212911</v>
+        <v>0.211498</v>
       </c>
       <c r="E122" t="n">
-        <v>0.0678696</v>
+        <v>0.0680176</v>
       </c>
       <c r="F122" t="n">
-        <v>0.09602040000000001</v>
+        <v>0.0957842</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.16401</v>
+        <v>0.163908</v>
       </c>
       <c r="C123" t="n">
-        <v>0.170377</v>
+        <v>0.170538</v>
       </c>
       <c r="D123" t="n">
-        <v>0.218794</v>
+        <v>0.21759</v>
       </c>
       <c r="E123" t="n">
-        <v>0.0411477</v>
+        <v>0.0417328</v>
       </c>
       <c r="F123" t="n">
-        <v>0.0605306</v>
+        <v>0.0601832</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.0342784</v>
+        <v>0.0342814</v>
       </c>
       <c r="C124" t="n">
-        <v>0.051582</v>
+        <v>0.0515614</v>
       </c>
       <c r="D124" t="n">
-        <v>0.225964</v>
+        <v>0.224734</v>
       </c>
       <c r="E124" t="n">
-        <v>0.0418745</v>
+        <v>0.0425602</v>
       </c>
       <c r="F124" t="n">
-        <v>0.0620118</v>
+        <v>0.0615926</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.0356103</v>
+        <v>0.0352651</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0530815</v>
+        <v>0.0544558</v>
       </c>
       <c r="D125" t="n">
-        <v>0.23284</v>
+        <v>0.23162</v>
       </c>
       <c r="E125" t="n">
-        <v>0.0426532</v>
+        <v>0.0432664</v>
       </c>
       <c r="F125" t="n">
-        <v>0.0634165</v>
+        <v>0.0630329</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.0371093</v>
+        <v>0.0368621</v>
       </c>
       <c r="C126" t="n">
-        <v>0.0558264</v>
